--- a/generateEXCEL/Data/Members/GroupRecord.xlsx
+++ b/generateEXCEL/Data/Members/GroupRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hguan/Dropbox/Research/Coding/WeChatGroup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hguan/GitHub/lc-score-board/generateEXCEL/Data/Members/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C682952-48BE-0249-89B2-D01F69A81568}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A291C7-4B9D-374F-B661-BCA67F5CADCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17220" windowHeight="13840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17220" windowHeight="13840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="813">
   <si>
     <t>wisdompeak</t>
   </si>
@@ -3060,7 +3060,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3178,6 +3178,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -3236,7 +3243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3445,6 +3452,20 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3794,10 +3815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J416"/>
+  <dimension ref="A1:J412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B107" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -4764,50 +4785,52 @@
     </row>
     <row r="50" spans="1:8" s="4" customFormat="1">
       <c r="A50" s="16" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C50" s="5">
         <v>43620</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="19" t="s">
-        <v>0</v>
+      <c r="F50" s="21" t="s">
+        <v>114</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" s="4" customFormat="1">
-      <c r="A51" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>126</v>
+      <c r="A51" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="C51" s="5">
-        <v>43620</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H51" s="6"/>
+        <v>43626</v>
+      </c>
+      <c r="D51" s="18"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="52" spans="1:8" s="4" customFormat="1">
-      <c r="A52" s="9" t="s">
-        <v>127</v>
+      <c r="A52" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C52" s="5">
         <v>43626</v>
@@ -4817,149 +4840,145 @@
       <c r="F52" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G52" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>130</v>
-      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" s="4" customFormat="1">
-      <c r="A53" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>132</v>
+      <c r="A53" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="C53" s="5">
-        <v>43626</v>
-      </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="6"/>
+        <v>43627</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="1"/>
       <c r="F53" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G53" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="1"/>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" s="4" customFormat="1">
       <c r="A54" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C54" s="5">
-        <v>43627</v>
+        <v>43628</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="1"/>
       <c r="F54" s="19" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" s="4" customFormat="1">
-      <c r="A55" s="9" t="s">
-        <v>135</v>
+      <c r="A55" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C55" s="5">
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="19" t="s">
-        <v>94</v>
+      <c r="F55" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" s="4" customFormat="1">
       <c r="A56" s="23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C56" s="5">
-        <v>43629</v>
+        <v>43634</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="6"/>
+      <c r="F56" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="57" spans="1:8" s="4" customFormat="1">
-      <c r="A57" s="23" t="s">
-        <v>139</v>
+      <c r="A57" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C57" s="5">
-        <v>43634</v>
+        <v>43638</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="1"/>
       <c r="F57" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>130</v>
-      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" s="4" customFormat="1">
-      <c r="A58" s="9" t="s">
-        <v>141</v>
+      <c r="A58" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C58" s="5">
-        <v>43638</v>
+        <v>43640</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="1"/>
       <c r="F58" s="19" t="s">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" s="4" customFormat="1">
-      <c r="A59" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>144</v>
+      <c r="A59" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="C59" s="5">
-        <v>43640</v>
+        <v>43646</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="1"/>
       <c r="F59" s="19" t="s">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8" s="4" customFormat="1">
-      <c r="A60" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>146</v>
+      <c r="A60" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="C60" s="5">
         <v>43646</v>
@@ -4974,255 +4993,255 @@
     </row>
     <row r="61" spans="1:8" s="4" customFormat="1">
       <c r="A61" s="23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C61" s="5">
-        <v>43646</v>
+        <v>43647</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="1"/>
       <c r="F61" s="19" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" s="4" customFormat="1">
-      <c r="A62" s="23" t="s">
-        <v>149</v>
+      <c r="A62" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C62" s="5">
-        <v>43647</v>
+        <v>43649</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="1"/>
       <c r="F62" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="G62" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" s="4" customFormat="1">
-      <c r="A63" s="9" t="s">
-        <v>152</v>
+      <c r="A63" s="23" t="s">
+        <v>154</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C63" s="5">
-        <v>43649</v>
+        <v>43653</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="1"/>
       <c r="F63" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G63" s="1"/>
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" s="4" customFormat="1">
       <c r="A64" s="23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C64" s="5">
-        <v>43653</v>
+        <v>43658</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="1"/>
       <c r="F64" s="19" t="s">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1">
-      <c r="A65" s="9" t="s">
-        <v>156</v>
+      <c r="A65" s="23" t="s">
+        <v>160</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C65" s="5">
-        <v>43653</v>
+        <v>43660</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="19" t="s">
-        <v>0</v>
+      <c r="F65" s="21" t="s">
+        <v>125</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:8" s="4" customFormat="1">
-      <c r="A66" s="23" t="s">
-        <v>158</v>
+      <c r="A66" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C66" s="5">
-        <v>43658</v>
+        <v>43661</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="1"/>
       <c r="F66" s="19" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" s="4" customFormat="1">
       <c r="A67" s="23" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C67" s="5">
-        <v>43660</v>
+        <v>43662</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="21" t="s">
-        <v>125</v>
+      <c r="F67" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" s="4" customFormat="1">
-      <c r="A68" s="9" t="s">
-        <v>162</v>
+      <c r="A68" s="23" t="s">
+        <v>166</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C68" s="5">
-        <v>43661</v>
+        <v>43662</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="1"/>
       <c r="F68" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G68" s="1"/>
-      <c r="H68" s="6"/>
+      <c r="G68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="69" spans="1:8" s="4" customFormat="1">
       <c r="A69" s="23" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C69" s="5">
-        <v>43662</v>
+        <v>43669</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="1"/>
       <c r="F69" s="19" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" s="4" customFormat="1">
-      <c r="A70" s="23" t="s">
-        <v>166</v>
+      <c r="A70" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C70" s="5">
-        <v>43662</v>
+        <v>43670</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="1"/>
       <c r="F70" s="19" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>168</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" s="4" customFormat="1">
       <c r="A71" s="23" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C71" s="5">
-        <v>43669</v>
+        <v>43675</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="19" t="s">
-        <v>171</v>
+      <c r="F71" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8" s="4" customFormat="1">
       <c r="A72" s="9" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C72" s="5">
-        <v>43670</v>
+        <v>43678</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="1"/>
       <c r="F72" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="G72" s="1"/>
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8" s="4" customFormat="1">
       <c r="A73" s="23" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C73" s="5">
-        <v>43675</v>
+        <v>43678</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="20" t="s">
-        <v>57</v>
+      <c r="F73" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" s="4" customFormat="1">
       <c r="A74" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C74" s="5">
-        <v>43678</v>
+        <v>43681</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="1"/>
@@ -5234,513 +5253,511 @@
     </row>
     <row r="75" spans="1:8" s="4" customFormat="1">
       <c r="A75" s="23" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C75" s="5">
-        <v>43678</v>
+        <v>43684</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="1"/>
       <c r="F75" s="19" t="s">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:8" s="4" customFormat="1">
       <c r="A76" s="9" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C76" s="5">
-        <v>43681</v>
+        <v>43685</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="1"/>
       <c r="F76" s="19" t="s">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8" s="4" customFormat="1">
       <c r="A77" s="23" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C77" s="5">
-        <v>43684</v>
+        <v>43688</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="1"/>
       <c r="F77" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="G77" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:8" s="4" customFormat="1">
-      <c r="A78" s="9" t="s">
-        <v>185</v>
+      <c r="A78" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C78" s="5">
-        <v>43685</v>
+        <v>194</v>
+      </c>
+      <c r="C78" s="18">
+        <v>43690</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="1"/>
       <c r="F78" s="19" t="s">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:8" s="4" customFormat="1">
-      <c r="A79" s="23" t="s">
-        <v>187</v>
+      <c r="A79" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C79" s="5">
-        <v>43688</v>
+        <v>195</v>
+      </c>
+      <c r="C79" s="18">
+        <v>43701</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="1"/>
       <c r="F79" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>189</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G79" s="1"/>
       <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:8" s="4" customFormat="1">
       <c r="A80" s="4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C80" s="18">
-        <v>43690</v>
+        <v>43702</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="1"/>
       <c r="F80" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>192</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G80" s="1"/>
       <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:8" s="4" customFormat="1">
       <c r="A81" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C81" s="18">
-        <v>43690</v>
+        <v>43702</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="1"/>
       <c r="F81" s="19" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:8" s="4" customFormat="1">
       <c r="A82" s="4" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C82" s="18">
-        <v>43701</v>
+        <v>43703</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="1"/>
       <c r="F82" s="19" t="s">
-        <v>196</v>
+        <v>94</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:8" s="4" customFormat="1">
-      <c r="A83" s="4" t="s">
-        <v>197</v>
+      <c r="A83" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C83" s="18">
-        <v>43702</v>
+        <v>43704</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="1"/>
       <c r="F83" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G83" s="1"/>
-      <c r="H83" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="84" spans="1:8" s="4" customFormat="1">
       <c r="A84" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C84" s="18">
-        <v>43702</v>
+        <v>43705</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="1"/>
       <c r="F84" s="19" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8" s="4" customFormat="1">
       <c r="A85" s="4" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C85" s="18">
-        <v>43703</v>
+        <v>43706</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="1"/>
       <c r="F85" s="19" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:8" s="4" customFormat="1">
       <c r="A86" s="9" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C86" s="18">
-        <v>43704</v>
+        <v>43707</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>130</v>
-      </c>
+      <c r="F86" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8" s="4" customFormat="1">
-      <c r="A87" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>205</v>
+      <c r="A87" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>209</v>
       </c>
       <c r="C87" s="18">
-        <v>43705</v>
+        <v>43711</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="1"/>
       <c r="F87" s="19" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8" s="4" customFormat="1">
-      <c r="A88" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>206</v>
+      <c r="A88" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>211</v>
       </c>
       <c r="C88" s="18">
-        <v>43706</v>
+        <v>43712</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="1"/>
       <c r="F88" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G88" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8" s="4" customFormat="1">
-      <c r="A89" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>208</v>
+      <c r="A89" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>214</v>
       </c>
       <c r="C89" s="18">
-        <v>43707</v>
+        <v>43715</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="6" t="s">
-        <v>83</v>
+      <c r="F89" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:8" s="4" customFormat="1">
-      <c r="A90" s="22" t="s">
-        <v>209</v>
+      <c r="A90" s="9" t="s">
+        <v>215</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C90" s="18">
-        <v>43711</v>
+        <v>43716</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="G90" s="1"/>
+      <c r="F90" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" s="4" customFormat="1">
       <c r="A91" s="9" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C91" s="18">
-        <v>43712</v>
+        <v>43717</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="1"/>
       <c r="F91" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>212</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G91" s="1"/>
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" s="4" customFormat="1">
-      <c r="A92" s="22" t="s">
-        <v>213</v>
+      <c r="A92" s="23" t="s">
+        <v>220</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C92" s="18">
-        <v>43715</v>
+        <v>43718</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="1"/>
       <c r="F92" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="G92" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" s="4" customFormat="1">
-      <c r="A93" s="9" t="s">
-        <v>215</v>
+      <c r="A93" s="23" t="s">
+        <v>223</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C93" s="18">
-        <v>43716</v>
+        <v>43720</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>217</v>
-      </c>
+      <c r="F93" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G93" s="1"/>
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8" s="4" customFormat="1">
-      <c r="A94" s="9" t="s">
-        <v>218</v>
+      <c r="A94" s="23" t="s">
+        <v>225</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C94" s="18">
-        <v>43717</v>
+        <v>43722</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="1"/>
       <c r="F94" s="19" t="s">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8" s="4" customFormat="1">
       <c r="A95" s="23" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C95" s="18">
-        <v>43718</v>
+        <v>43726</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="1"/>
       <c r="F95" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>222</v>
-      </c>
+      <c r="G95" s="1"/>
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" s="4" customFormat="1">
-      <c r="A96" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="B96" s="22" t="s">
-        <v>224</v>
+      <c r="A96" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="C96" s="18">
-        <v>43720</v>
+        <v>43732</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="24" t="s">
-        <v>30</v>
+      <c r="F96" s="14" t="s">
+        <v>230</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8" s="4" customFormat="1">
-      <c r="A97" s="23" t="s">
-        <v>225</v>
+      <c r="A97" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C97" s="18">
-        <v>43722</v>
+        <v>43737</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="1"/>
       <c r="F97" s="19" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8" s="4" customFormat="1">
-      <c r="A98" s="23" t="s">
-        <v>226</v>
+      <c r="A98" s="9" t="s">
+        <v>233</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C98" s="18">
-        <v>43726</v>
+        <v>43737</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="1"/>
       <c r="F98" s="19" t="s">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" s="4" customFormat="1">
       <c r="A99" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>229</v>
+        <v>236</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>237</v>
       </c>
       <c r="C99" s="18">
-        <v>43732</v>
+        <v>43738</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="14" t="s">
-        <v>230</v>
+      <c r="F99" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:8" s="4" customFormat="1">
       <c r="A100" s="9" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C100" s="18">
-        <v>43737</v>
+        <v>43739</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="1"/>
       <c r="F100" s="19" t="s">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" s="4" customFormat="1">
       <c r="A101" s="9" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C101" s="18">
-        <v>43737</v>
+        <v>43741</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="1"/>
       <c r="F101" s="19" t="s">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" s="4" customFormat="1">
       <c r="A102" s="9" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C102" s="18">
-        <v>43738</v>
+        <v>43743</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="1"/>
@@ -5751,140 +5768,140 @@
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" s="4" customFormat="1">
-      <c r="A103" s="9" t="s">
-        <v>238</v>
+      <c r="A103" s="23" t="s">
+        <v>244</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C103" s="18">
-        <v>43739</v>
+        <v>43749</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="19" t="s">
-        <v>0</v>
+      <c r="F103" s="20" t="s">
+        <v>231</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" s="4" customFormat="1">
       <c r="A104" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C104" s="18">
-        <v>43741</v>
+        <v>43752</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="1"/>
       <c r="F104" s="19" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" s="4" customFormat="1">
-      <c r="A105" s="9" t="s">
-        <v>242</v>
+      <c r="A105" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C105" s="18">
-        <v>43743</v>
+        <v>43752</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="1"/>
       <c r="F105" s="19" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="6"/>
     </row>
     <row r="106" spans="1:8" s="4" customFormat="1">
-      <c r="A106" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="B106" s="22" t="s">
-        <v>245</v>
+      <c r="A106" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="C106" s="18">
-        <v>43749</v>
+        <v>43753</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="20" t="s">
-        <v>231</v>
+      <c r="F106" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="6"/>
     </row>
     <row r="107" spans="1:8" s="4" customFormat="1">
-      <c r="A107" s="9" t="s">
-        <v>246</v>
+      <c r="A107" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C107" s="18">
-        <v>43752</v>
+        <v>43757</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="1"/>
       <c r="F107" s="19" t="s">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8" s="4" customFormat="1">
-      <c r="A108" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="B108" s="22" t="s">
-        <v>249</v>
+      <c r="A108" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="C108" s="18">
-        <v>43752</v>
+        <v>43763</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="1"/>
       <c r="F108" s="19" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="6"/>
     </row>
     <row r="109" spans="1:8" s="4" customFormat="1">
       <c r="A109" s="9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C109" s="18">
-        <v>43753</v>
+        <v>43766</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="19" t="s">
-        <v>0</v>
+      <c r="F109" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="6"/>
     </row>
     <row r="110" spans="1:8" s="4" customFormat="1">
-      <c r="A110" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="B110" s="22" t="s">
-        <v>253</v>
+      <c r="A110" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="C110" s="18">
-        <v>43757</v>
+        <v>43767</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="1"/>
@@ -5895,14 +5912,14 @@
       <c r="H110" s="6"/>
     </row>
     <row r="111" spans="1:8" s="4" customFormat="1">
-      <c r="A111" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>255</v>
+      <c r="A111" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>260</v>
       </c>
       <c r="C111" s="18">
-        <v>43763</v>
+        <v>43770</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="1"/>
@@ -5913,32 +5930,32 @@
       <c r="H111" s="6"/>
     </row>
     <row r="112" spans="1:8" s="4" customFormat="1">
-      <c r="A112" s="9" t="s">
-        <v>256</v>
+      <c r="A112" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C112" s="18">
-        <v>43766</v>
+        <v>43777</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="14" t="s">
-        <v>30</v>
+      <c r="F112" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="1:8" s="4" customFormat="1">
+    <row r="113" spans="1:10" s="4" customFormat="1">
       <c r="A113" s="9" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C113" s="18">
-        <v>43767</v>
+        <v>43778</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="1"/>
@@ -5948,179 +5965,179 @@
       <c r="G113" s="1"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="1:8" s="4" customFormat="1">
-      <c r="A114" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>260</v>
+    <row r="114" spans="1:10" s="4" customFormat="1">
+      <c r="A114" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="C114" s="18">
-        <v>43770</v>
+        <v>43415</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="1"/>
       <c r="F114" s="19" t="s">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="1:8" s="4" customFormat="1">
-      <c r="A115" s="4" t="s">
-        <v>261</v>
+    <row r="115" spans="1:10" s="4" customFormat="1">
+      <c r="A115" s="9" t="s">
+        <v>266</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C115" s="18">
-        <v>43777</v>
+        <v>43415</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="10" t="s">
-        <v>94</v>
+      <c r="F115" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="1:8" s="4" customFormat="1">
+    <row r="116" spans="1:10" s="4" customFormat="1">
       <c r="A116" s="9" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C116" s="18">
-        <v>43778</v>
+        <v>43784</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="19" t="s">
-        <v>0</v>
+      <c r="F116" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="1:8" s="4" customFormat="1">
-      <c r="A117" s="9" t="s">
-        <v>264</v>
+    <row r="117" spans="1:10" s="4" customFormat="1">
+      <c r="A117" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C117" s="18">
-        <v>43415</v>
+        <v>43784</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="1"/>
       <c r="F117" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="G117" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="1:8" s="4" customFormat="1">
+    <row r="118" spans="1:10" s="4" customFormat="1">
       <c r="A118" s="9" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C118" s="18">
-        <v>43415</v>
+        <v>43784</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="19" t="s">
-        <v>0</v>
+      <c r="F118" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="1:8" s="4" customFormat="1">
+    <row r="119" spans="1:10" s="4" customFormat="1">
       <c r="A119" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>274</v>
       </c>
       <c r="C119" s="18">
-        <v>43784</v>
+        <v>43786</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="20" t="s">
-        <v>172</v>
+      <c r="F119" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="1:8" s="4" customFormat="1">
-      <c r="A120" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>271</v>
+    <row r="120" spans="1:10" s="4" customFormat="1">
+      <c r="A120" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="B120" s="22" t="s">
+        <v>278</v>
       </c>
       <c r="C120" s="18">
-        <v>43784</v>
+        <v>43797</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="F120" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G120" s="1"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="1:8" s="4" customFormat="1">
+    <row r="121" spans="1:10" s="4" customFormat="1">
       <c r="A121" s="9" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C121" s="18">
-        <v>43784</v>
+        <v>43801</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="1"/>
       <c r="F121" s="10" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="1:8" s="4" customFormat="1">
+    <row r="122" spans="1:10" s="4" customFormat="1">
       <c r="A122" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>274</v>
+        <v>281</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="C122" s="18">
-        <v>43786</v>
+        <v>43801</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="1"/>
       <c r="F122" s="10" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="1:8" s="4" customFormat="1">
-      <c r="A123" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="B123" s="22" t="s">
-        <v>278</v>
+    <row r="123" spans="1:10" s="4" customFormat="1">
+      <c r="A123" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="C123" s="18">
-        <v>43797</v>
+        <v>43804</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="1"/>
@@ -6130,15 +6147,15 @@
       <c r="G123" s="1"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="1:8" s="4" customFormat="1">
-      <c r="A124" s="9" t="s">
-        <v>279</v>
+    <row r="124" spans="1:10" s="4" customFormat="1">
+      <c r="A124" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C124" s="18">
-        <v>43801</v>
+        <v>43806</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="1"/>
@@ -6148,15 +6165,15 @@
       <c r="G124" s="1"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="1:8" s="4" customFormat="1">
+    <row r="125" spans="1:10" s="4" customFormat="1">
       <c r="A125" s="9" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C125" s="18">
-        <v>43801</v>
+        <v>43807</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="1"/>
@@ -6166,15 +6183,15 @@
       <c r="G125" s="1"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="1:8" s="4" customFormat="1">
-      <c r="A126" s="9" t="s">
-        <v>283</v>
+    <row r="126" spans="1:10" s="4" customFormat="1">
+      <c r="A126" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C126" s="18">
-        <v>43804</v>
+        <v>43808</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="1"/>
@@ -6184,77 +6201,50 @@
       <c r="G126" s="1"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="1:8" s="4" customFormat="1">
-      <c r="A127" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C127" s="18">
-        <v>43806</v>
-      </c>
-      <c r="D127" s="5"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G127" s="1"/>
+    <row r="127" spans="1:10">
+      <c r="A127" s="82" t="s">
+        <v>382</v>
+      </c>
+      <c r="B127" s="82" t="s">
+        <v>383</v>
+      </c>
+      <c r="C127" s="83">
+        <v>43813</v>
+      </c>
+      <c r="D127" s="26"/>
+      <c r="E127" s="28"/>
+      <c r="F127" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="G127" s="29"/>
       <c r="H127" s="6"/>
-    </row>
-    <row r="128" spans="1:8" s="4" customFormat="1">
-      <c r="A128" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C128" s="18">
-        <v>43806</v>
-      </c>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+    </row>
+    <row r="128" spans="1:10" s="4" customFormat="1">
+      <c r="A128" s="9"/>
+      <c r="C128" s="18"/>
       <c r="D128" s="5"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>287</v>
-      </c>
+      <c r="F128" s="10"/>
+      <c r="G128" s="1"/>
       <c r="H128" s="6"/>
     </row>
     <row r="129" spans="1:10" s="4" customFormat="1">
-      <c r="A129" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C129" s="18">
-        <v>43807</v>
-      </c>
+      <c r="A129" s="9"/>
+      <c r="C129" s="18"/>
       <c r="D129" s="5"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="F129" s="10"/>
       <c r="G129" s="1"/>
       <c r="H129" s="6"/>
     </row>
     <row r="130" spans="1:10" s="4" customFormat="1">
-      <c r="A130" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C130" s="18">
-        <v>43808</v>
-      </c>
+      <c r="A130" s="9"/>
+      <c r="C130" s="18"/>
       <c r="D130" s="5"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="F130" s="10"/>
       <c r="G130" s="1"/>
       <c r="H130" s="6"/>
     </row>
@@ -6277,71 +6267,79 @@
       <c r="H132" s="6"/>
     </row>
     <row r="133" spans="1:10" s="4" customFormat="1">
-      <c r="A133" s="9"/>
       <c r="C133" s="18"/>
       <c r="D133" s="5"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="10"/>
+      <c r="F133" s="19"/>
       <c r="G133" s="1"/>
       <c r="H133" s="6"/>
     </row>
     <row r="134" spans="1:10" s="4" customFormat="1">
-      <c r="A134" s="9"/>
       <c r="C134" s="18"/>
       <c r="D134" s="5"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="10"/>
+      <c r="F134" s="19"/>
       <c r="G134" s="1"/>
       <c r="H134" s="6"/>
     </row>
     <row r="135" spans="1:10" s="4" customFormat="1">
-      <c r="A135" s="9"/>
-      <c r="C135" s="18"/>
+      <c r="A135" s="16"/>
+      <c r="C135" s="1"/>
       <c r="D135" s="5"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="10"/>
+      <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="1:10" s="4" customFormat="1">
-      <c r="A136" s="9"/>
-      <c r="C136" s="18"/>
+    <row r="136" spans="1:10">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
       <c r="D136" s="5"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="1"/>
+      <c r="F136" s="1"/>
       <c r="H136" s="6"/>
-    </row>
-    <row r="137" spans="1:10" s="4" customFormat="1">
-      <c r="C137" s="18"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="19"/>
-      <c r="G137" s="1"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="25"/>
+      <c r="B137" s="25"/>
+      <c r="C137" s="26"/>
+      <c r="D137" s="27"/>
+      <c r="E137" s="28"/>
+      <c r="F137" s="1"/>
       <c r="H137" s="6"/>
-    </row>
-    <row r="138" spans="1:10" s="4" customFormat="1">
-      <c r="C138" s="18"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="1"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="25"/>
+      <c r="B138" s="25"/>
+      <c r="C138" s="26"/>
+      <c r="D138" s="27"/>
+      <c r="E138" s="28"/>
+      <c r="F138" s="1"/>
       <c r="H138" s="6"/>
-    </row>
-    <row r="139" spans="1:10" s="4" customFormat="1">
-      <c r="A139" s="16"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="1"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="25"/>
+      <c r="B139" s="25"/>
+      <c r="C139" s="26"/>
+      <c r="D139" s="27"/>
+      <c r="E139" s="28"/>
       <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
       <c r="H139" s="6"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
     </row>
     <row r="140" spans="1:10">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="1"/>
+      <c r="A140" s="25"/>
+      <c r="B140" s="25"/>
+      <c r="C140" s="26"/>
+      <c r="D140" s="27"/>
+      <c r="E140" s="28"/>
       <c r="F140" s="1"/>
       <c r="H140" s="6"/>
       <c r="I140" s="4"/>
@@ -6424,16 +6422,13 @@
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="1:10">
-      <c r="A148" s="25"/>
-      <c r="B148" s="25"/>
+    <row r="148" spans="1:10" s="25" customFormat="1">
       <c r="C148" s="26"/>
       <c r="D148" s="27"/>
       <c r="E148" s="28"/>
-      <c r="F148" s="1"/>
-      <c r="H148" s="6"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
+      <c r="F148" s="28"/>
+      <c r="G148" s="29"/>
+      <c r="H148" s="29"/>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="25"/>
@@ -6468,13 +6463,16 @@
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="1:10" s="25" customFormat="1">
+    <row r="152" spans="1:10">
+      <c r="A152" s="25"/>
+      <c r="B152" s="25"/>
       <c r="C152" s="26"/>
       <c r="D152" s="27"/>
       <c r="E152" s="28"/>
-      <c r="F152" s="28"/>
-      <c r="G152" s="29"/>
-      <c r="H152" s="29"/>
+      <c r="F152" s="1"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="25"/>
@@ -6557,7 +6555,7 @@
       <c r="A160" s="25"/>
       <c r="B160" s="25"/>
       <c r="C160" s="26"/>
-      <c r="D160" s="27"/>
+      <c r="D160" s="26"/>
       <c r="E160" s="28"/>
       <c r="F160" s="1"/>
       <c r="H160" s="6"/>
@@ -6568,7 +6566,7 @@
       <c r="A161" s="25"/>
       <c r="B161" s="25"/>
       <c r="C161" s="26"/>
-      <c r="D161" s="27"/>
+      <c r="D161" s="26"/>
       <c r="E161" s="28"/>
       <c r="F161" s="1"/>
       <c r="H161" s="6"/>
@@ -6579,23 +6577,20 @@
       <c r="A162" s="25"/>
       <c r="B162" s="25"/>
       <c r="C162" s="26"/>
-      <c r="D162" s="27"/>
+      <c r="D162" s="26"/>
       <c r="E162" s="28"/>
       <c r="F162" s="1"/>
       <c r="H162" s="6"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
     </row>
-    <row r="163" spans="1:10">
-      <c r="A163" s="25"/>
-      <c r="B163" s="25"/>
+    <row r="163" spans="1:10" s="25" customFormat="1">
       <c r="C163" s="26"/>
-      <c r="D163" s="27"/>
+      <c r="D163" s="26"/>
       <c r="E163" s="28"/>
-      <c r="F163" s="1"/>
-      <c r="H163" s="6"/>
-      <c r="I163" s="4"/>
-      <c r="J163" s="4"/>
+      <c r="F163" s="28"/>
+      <c r="G163" s="29"/>
+      <c r="H163" s="29"/>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="25"/>
@@ -6630,24 +6625,24 @@
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
     </row>
-    <row r="167" spans="1:10" s="25" customFormat="1">
+    <row r="167" spans="1:10">
+      <c r="A167" s="25"/>
+      <c r="B167" s="25"/>
       <c r="C167" s="26"/>
       <c r="D167" s="26"/>
       <c r="E167" s="28"/>
-      <c r="F167" s="28"/>
-      <c r="G167" s="29"/>
-      <c r="H167" s="29"/>
-    </row>
-    <row r="168" spans="1:10">
-      <c r="A168" s="25"/>
-      <c r="B168" s="25"/>
+      <c r="F167" s="1"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="4"/>
+    </row>
+    <row r="168" spans="1:10" s="25" customFormat="1">
       <c r="C168" s="26"/>
       <c r="D168" s="26"/>
       <c r="E168" s="28"/>
-      <c r="F168" s="1"/>
-      <c r="H168" s="6"/>
-      <c r="I168" s="4"/>
-      <c r="J168" s="4"/>
+      <c r="F168" s="28"/>
+      <c r="G168" s="29"/>
+      <c r="H168" s="29"/>
     </row>
     <row r="169" spans="1:10">
       <c r="A169" s="25"/>
@@ -6677,18 +6672,21 @@
       <c r="C171" s="26"/>
       <c r="D171" s="26"/>
       <c r="E171" s="28"/>
-      <c r="F171" s="1"/>
+      <c r="F171" s="28"/>
       <c r="H171" s="6"/>
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
     </row>
-    <row r="172" spans="1:10" s="25" customFormat="1">
+    <row r="172" spans="1:10">
+      <c r="A172" s="25"/>
+      <c r="B172" s="25"/>
       <c r="C172" s="26"/>
       <c r="D172" s="26"/>
       <c r="E172" s="28"/>
       <c r="F172" s="28"/>
-      <c r="G172" s="29"/>
-      <c r="H172" s="29"/>
+      <c r="H172" s="6"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
     </row>
     <row r="173" spans="1:10">
       <c r="A173" s="25"/>
@@ -6696,7 +6694,7 @@
       <c r="C173" s="26"/>
       <c r="D173" s="26"/>
       <c r="E173" s="28"/>
-      <c r="F173" s="1"/>
+      <c r="F173" s="30"/>
       <c r="H173" s="6"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
@@ -6707,7 +6705,8 @@
       <c r="C174" s="26"/>
       <c r="D174" s="26"/>
       <c r="E174" s="28"/>
-      <c r="F174" s="1"/>
+      <c r="F174" s="28"/>
+      <c r="G174" s="25"/>
       <c r="H174" s="6"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
@@ -6718,7 +6717,8 @@
       <c r="C175" s="26"/>
       <c r="D175" s="26"/>
       <c r="E175" s="28"/>
-      <c r="F175" s="28"/>
+      <c r="F175" s="31"/>
+      <c r="G175" s="25"/>
       <c r="H175" s="6"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
@@ -6730,6 +6730,7 @@
       <c r="D176" s="26"/>
       <c r="E176" s="28"/>
       <c r="F176" s="28"/>
+      <c r="G176" s="25"/>
       <c r="H176" s="6"/>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
@@ -6745,17 +6746,13 @@
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
     </row>
-    <row r="178" spans="1:10">
-      <c r="A178" s="25"/>
-      <c r="B178" s="25"/>
+    <row r="178" spans="1:10" s="25" customFormat="1">
       <c r="C178" s="26"/>
       <c r="D178" s="26"/>
       <c r="E178" s="28"/>
-      <c r="F178" s="28"/>
-      <c r="G178" s="25"/>
-      <c r="H178" s="6"/>
-      <c r="I178" s="4"/>
-      <c r="J178" s="4"/>
+      <c r="F178" s="31"/>
+      <c r="G178" s="29"/>
+      <c r="H178" s="29"/>
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="25"/>
@@ -6763,9 +6760,9 @@
       <c r="C179" s="26"/>
       <c r="D179" s="26"/>
       <c r="E179" s="28"/>
-      <c r="F179" s="31"/>
-      <c r="G179" s="25"/>
-      <c r="H179" s="6"/>
+      <c r="F179" s="28"/>
+      <c r="G179" s="28"/>
+      <c r="H179" s="32"/>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
     </row>
@@ -6787,7 +6784,8 @@
       <c r="C181" s="26"/>
       <c r="D181" s="26"/>
       <c r="E181" s="28"/>
-      <c r="F181" s="30"/>
+      <c r="F181" s="29"/>
+      <c r="G181" s="25"/>
       <c r="H181" s="6"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
@@ -6796,8 +6794,7 @@
       <c r="C182" s="26"/>
       <c r="D182" s="26"/>
       <c r="E182" s="28"/>
-      <c r="F182" s="31"/>
-      <c r="G182" s="29"/>
+      <c r="F182" s="28"/>
       <c r="H182" s="29"/>
     </row>
     <row r="183" spans="1:10">
@@ -6806,23 +6803,19 @@
       <c r="C183" s="26"/>
       <c r="D183" s="26"/>
       <c r="E183" s="28"/>
-      <c r="F183" s="28"/>
-      <c r="G183" s="28"/>
-      <c r="H183" s="32"/>
+      <c r="F183" s="29"/>
+      <c r="G183" s="25"/>
+      <c r="H183" s="6"/>
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184" spans="1:10">
-      <c r="A184" s="25"/>
-      <c r="B184" s="25"/>
+    <row r="184" spans="1:10" s="25" customFormat="1">
       <c r="C184" s="26"/>
       <c r="D184" s="26"/>
       <c r="E184" s="28"/>
-      <c r="F184" s="28"/>
-      <c r="G184" s="25"/>
-      <c r="H184" s="6"/>
-      <c r="I184" s="4"/>
-      <c r="J184" s="4"/>
+      <c r="F184" s="29"/>
+      <c r="G184" s="28"/>
+      <c r="H184" s="29"/>
     </row>
     <row r="185" spans="1:10">
       <c r="A185" s="25"/>
@@ -6830,135 +6823,131 @@
       <c r="C185" s="26"/>
       <c r="D185" s="26"/>
       <c r="E185" s="28"/>
-      <c r="F185" s="29"/>
-      <c r="G185" s="25"/>
+      <c r="F185" s="28"/>
+      <c r="G185" s="29"/>
       <c r="H185" s="6"/>
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
     </row>
-    <row r="186" spans="1:10" s="25" customFormat="1">
+    <row r="186" spans="1:10">
+      <c r="A186" s="25"/>
+      <c r="B186" s="25"/>
       <c r="C186" s="26"/>
       <c r="D186" s="26"/>
       <c r="E186" s="28"/>
       <c r="F186" s="28"/>
-      <c r="H186" s="29"/>
+      <c r="G186" s="29"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="4"/>
+      <c r="J186" s="4"/>
     </row>
     <row r="187" spans="1:10">
       <c r="A187" s="25"/>
       <c r="B187" s="25"/>
       <c r="C187" s="26"/>
       <c r="D187" s="26"/>
-      <c r="E187" s="28"/>
-      <c r="F187" s="29"/>
-      <c r="G187" s="25"/>
+      <c r="E187" s="29"/>
+      <c r="F187" s="28"/>
+      <c r="G187" s="29"/>
       <c r="H187" s="6"/>
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
     </row>
-    <row r="188" spans="1:10" s="25" customFormat="1">
+    <row r="188" spans="1:10" s="34" customFormat="1">
+      <c r="A188" s="25"/>
+      <c r="B188" s="25"/>
       <c r="C188" s="26"/>
       <c r="D188" s="26"/>
-      <c r="E188" s="28"/>
+      <c r="E188" s="29"/>
       <c r="F188" s="29"/>
       <c r="G188" s="28"/>
-      <c r="H188" s="29"/>
+      <c r="H188" s="33"/>
     </row>
     <row r="189" spans="1:10">
       <c r="A189" s="25"/>
-      <c r="B189" s="25"/>
+      <c r="B189" s="35"/>
       <c r="C189" s="26"/>
       <c r="D189" s="26"/>
-      <c r="E189" s="28"/>
+      <c r="E189" s="29"/>
       <c r="F189" s="28"/>
-      <c r="G189" s="29"/>
+      <c r="G189" s="25"/>
       <c r="H189" s="6"/>
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
     </row>
-    <row r="190" spans="1:10">
-      <c r="A190" s="25"/>
-      <c r="B190" s="25"/>
+    <row r="190" spans="1:10" s="25" customFormat="1">
       <c r="C190" s="26"/>
       <c r="D190" s="26"/>
-      <c r="E190" s="28"/>
-      <c r="F190" s="28"/>
-      <c r="G190" s="29"/>
-      <c r="H190" s="6"/>
-      <c r="I190" s="4"/>
-      <c r="J190" s="4"/>
+      <c r="E190" s="29"/>
+      <c r="F190" s="29"/>
+      <c r="H190" s="29"/>
     </row>
     <row r="191" spans="1:10">
-      <c r="A191" s="25"/>
+      <c r="A191" s="35"/>
       <c r="B191" s="25"/>
       <c r="C191" s="26"/>
       <c r="D191" s="26"/>
       <c r="E191" s="29"/>
       <c r="F191" s="28"/>
-      <c r="G191" s="29"/>
       <c r="H191" s="6"/>
       <c r="I191" s="4"/>
-      <c r="J191" s="4"/>
-    </row>
-    <row r="192" spans="1:10" s="34" customFormat="1">
+      <c r="J191" s="36"/>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="25"/>
       <c r="B192" s="25"/>
       <c r="C192" s="26"/>
       <c r="D192" s="26"/>
       <c r="E192" s="29"/>
-      <c r="F192" s="29"/>
-      <c r="G192" s="28"/>
-      <c r="H192" s="33"/>
-    </row>
-    <row r="193" spans="1:10">
-      <c r="A193" s="25"/>
-      <c r="B193" s="35"/>
+      <c r="F192" s="28"/>
+      <c r="H192" s="6"/>
+      <c r="I192" s="4"/>
+      <c r="J192" s="4"/>
+    </row>
+    <row r="193" spans="1:10" s="25" customFormat="1">
       <c r="C193" s="26"/>
       <c r="D193" s="26"/>
       <c r="E193" s="29"/>
       <c r="F193" s="28"/>
-      <c r="G193" s="25"/>
-      <c r="H193" s="6"/>
-      <c r="I193" s="4"/>
-      <c r="J193" s="4"/>
+      <c r="G193" s="29"/>
+      <c r="H193" s="29"/>
     </row>
     <row r="194" spans="1:10" s="25" customFormat="1">
       <c r="C194" s="26"/>
       <c r="D194" s="26"/>
       <c r="E194" s="29"/>
       <c r="F194" s="29"/>
+      <c r="G194" s="29"/>
       <c r="H194" s="29"/>
     </row>
-    <row r="195" spans="1:10">
-      <c r="A195" s="35"/>
-      <c r="B195" s="25"/>
+    <row r="195" spans="1:10" s="25" customFormat="1">
       <c r="C195" s="26"/>
       <c r="D195" s="26"/>
       <c r="E195" s="29"/>
       <c r="F195" s="28"/>
-      <c r="H195" s="6"/>
-      <c r="I195" s="4"/>
-      <c r="J195" s="36"/>
-    </row>
-    <row r="196" spans="1:10">
-      <c r="A196" s="25"/>
-      <c r="B196" s="25"/>
+      <c r="G195" s="29"/>
+      <c r="H195" s="29"/>
+    </row>
+    <row r="196" spans="1:10" s="25" customFormat="1">
       <c r="C196" s="26"/>
       <c r="D196" s="26"/>
       <c r="E196" s="29"/>
-      <c r="F196" s="28"/>
-      <c r="H196" s="6"/>
-      <c r="I196" s="4"/>
-      <c r="J196" s="4"/>
+      <c r="F196" s="29"/>
+      <c r="G196" s="29"/>
+      <c r="H196" s="29"/>
     </row>
     <row r="197" spans="1:10" s="25" customFormat="1">
+      <c r="A197" s="35"/>
+      <c r="B197" s="35"/>
       <c r="C197" s="26"/>
       <c r="D197" s="26"/>
       <c r="E197" s="29"/>
-      <c r="F197" s="28"/>
+      <c r="F197" s="29"/>
       <c r="G197" s="29"/>
       <c r="H197" s="29"/>
     </row>
     <row r="198" spans="1:10" s="25" customFormat="1">
+      <c r="A198" s="37"/>
       <c r="C198" s="26"/>
       <c r="D198" s="26"/>
       <c r="E198" s="29"/>
@@ -6970,7 +6959,7 @@
       <c r="C199" s="26"/>
       <c r="D199" s="26"/>
       <c r="E199" s="29"/>
-      <c r="F199" s="28"/>
+      <c r="F199" s="29"/>
       <c r="G199" s="29"/>
       <c r="H199" s="29"/>
     </row>
@@ -6981,19 +6970,17 @@
       <c r="F200" s="29"/>
       <c r="G200" s="29"/>
       <c r="H200" s="29"/>
+      <c r="J200" s="36"/>
     </row>
     <row r="201" spans="1:10" s="25" customFormat="1">
-      <c r="A201" s="35"/>
-      <c r="B201" s="35"/>
       <c r="C201" s="26"/>
       <c r="D201" s="26"/>
       <c r="E201" s="29"/>
-      <c r="F201" s="29"/>
+      <c r="F201" s="28"/>
       <c r="G201" s="29"/>
       <c r="H201" s="29"/>
     </row>
     <row r="202" spans="1:10" s="25" customFormat="1">
-      <c r="A202" s="37"/>
       <c r="C202" s="26"/>
       <c r="D202" s="26"/>
       <c r="E202" s="29"/>
@@ -7015,8 +7002,8 @@
       <c r="E204" s="29"/>
       <c r="F204" s="29"/>
       <c r="G204" s="29"/>
-      <c r="H204" s="29"/>
-      <c r="J204" s="36"/>
+      <c r="H204" s="32"/>
+      <c r="J204" s="38"/>
     </row>
     <row r="205" spans="1:10" s="25" customFormat="1">
       <c r="C205" s="26"/>
@@ -7030,9 +7017,10 @@
       <c r="C206" s="26"/>
       <c r="D206" s="26"/>
       <c r="E206" s="29"/>
-      <c r="F206" s="29"/>
+      <c r="F206" s="28"/>
       <c r="G206" s="29"/>
       <c r="H206" s="29"/>
+      <c r="J206" s="36"/>
     </row>
     <row r="207" spans="1:10" s="25" customFormat="1">
       <c r="C207" s="26"/>
@@ -7044,95 +7032,95 @@
     </row>
     <row r="208" spans="1:10" s="25" customFormat="1">
       <c r="C208" s="26"/>
-      <c r="D208" s="26"/>
-      <c r="E208" s="29"/>
-      <c r="F208" s="29"/>
-      <c r="G208" s="29"/>
-      <c r="H208" s="32"/>
-      <c r="J208" s="38"/>
+      <c r="D208" s="27"/>
+      <c r="E208" s="28"/>
+      <c r="F208" s="28"/>
+      <c r="H208" s="29"/>
     </row>
     <row r="209" spans="1:10" s="25" customFormat="1">
       <c r="C209" s="26"/>
       <c r="D209" s="26"/>
-      <c r="E209" s="29"/>
+      <c r="E209" s="28"/>
       <c r="F209" s="28"/>
       <c r="G209" s="29"/>
-      <c r="H209" s="29"/>
+      <c r="H209" s="32"/>
     </row>
     <row r="210" spans="1:10" s="25" customFormat="1">
       <c r="C210" s="26"/>
       <c r="D210" s="26"/>
-      <c r="E210" s="29"/>
-      <c r="F210" s="28"/>
+      <c r="E210" s="28"/>
+      <c r="F210" s="29"/>
       <c r="G210" s="29"/>
       <c r="H210" s="29"/>
-      <c r="J210" s="36"/>
     </row>
     <row r="211" spans="1:10" s="25" customFormat="1">
       <c r="C211" s="26"/>
       <c r="D211" s="26"/>
-      <c r="E211" s="29"/>
-      <c r="F211" s="29"/>
+      <c r="E211" s="28"/>
+      <c r="F211" s="28"/>
       <c r="G211" s="29"/>
       <c r="H211" s="29"/>
     </row>
     <row r="212" spans="1:10" s="25" customFormat="1">
+      <c r="A212" s="35"/>
+      <c r="B212" s="35"/>
       <c r="C212" s="26"/>
-      <c r="D212" s="27"/>
+      <c r="D212" s="26"/>
       <c r="E212" s="28"/>
       <c r="F212" s="28"/>
+      <c r="G212" s="29"/>
       <c r="H212" s="29"/>
     </row>
     <row r="213" spans="1:10" s="25" customFormat="1">
       <c r="C213" s="26"/>
       <c r="D213" s="26"/>
-      <c r="E213" s="28"/>
-      <c r="F213" s="28"/>
-      <c r="G213" s="29"/>
-      <c r="H213" s="32"/>
+      <c r="E213" s="29"/>
+      <c r="F213" s="29"/>
+      <c r="G213" s="32"/>
+      <c r="H213" s="29"/>
     </row>
     <row r="214" spans="1:10" s="25" customFormat="1">
       <c r="C214" s="26"/>
       <c r="D214" s="26"/>
-      <c r="E214" s="28"/>
-      <c r="F214" s="29"/>
+      <c r="E214" s="29"/>
+      <c r="F214" s="28"/>
       <c r="G214" s="29"/>
       <c r="H214" s="29"/>
+      <c r="J214" s="36"/>
     </row>
     <row r="215" spans="1:10" s="25" customFormat="1">
       <c r="C215" s="26"/>
       <c r="D215" s="26"/>
-      <c r="E215" s="28"/>
-      <c r="F215" s="28"/>
+      <c r="E215" s="29"/>
+      <c r="F215" s="29"/>
       <c r="G215" s="29"/>
       <c r="H215" s="29"/>
     </row>
     <row r="216" spans="1:10" s="25" customFormat="1">
-      <c r="A216" s="35"/>
-      <c r="B216" s="35"/>
       <c r="C216" s="26"/>
       <c r="D216" s="26"/>
-      <c r="E216" s="28"/>
+      <c r="E216" s="29"/>
       <c r="F216" s="28"/>
       <c r="G216" s="29"/>
       <c r="H216" s="29"/>
+      <c r="J216" s="38"/>
     </row>
     <row r="217" spans="1:10" s="25" customFormat="1">
+      <c r="A217" s="37"/>
       <c r="C217" s="26"/>
       <c r="D217" s="26"/>
       <c r="E217" s="29"/>
-      <c r="F217" s="29"/>
-      <c r="G217" s="32"/>
+      <c r="F217" s="39"/>
+      <c r="G217" s="29"/>
       <c r="H217" s="29"/>
     </row>
     <row r="218" spans="1:10" s="25" customFormat="1">
       <c r="C218" s="26"/>
       <c r="D218" s="26"/>
       <c r="E218" s="29"/>
-      <c r="F218" s="28"/>
+      <c r="F218" s="29"/>
       <c r="G218" s="29"/>
       <c r="H218" s="29"/>
-      <c r="J218" s="36"/>
     </row>
     <row r="219" spans="1:10" s="25" customFormat="1">
       <c r="C219" s="26"/>
@@ -7146,17 +7134,16 @@
       <c r="C220" s="26"/>
       <c r="D220" s="26"/>
       <c r="E220" s="29"/>
-      <c r="F220" s="28"/>
+      <c r="F220" s="29"/>
       <c r="G220" s="29"/>
       <c r="H220" s="29"/>
-      <c r="J220" s="38"/>
     </row>
     <row r="221" spans="1:10" s="25" customFormat="1">
       <c r="A221" s="37"/>
       <c r="C221" s="26"/>
       <c r="D221" s="26"/>
       <c r="E221" s="29"/>
-      <c r="F221" s="39"/>
+      <c r="F221" s="28"/>
       <c r="G221" s="29"/>
       <c r="H221" s="29"/>
     </row>
@@ -7169,10 +7156,11 @@
       <c r="H222" s="29"/>
     </row>
     <row r="223" spans="1:10" s="25" customFormat="1">
+      <c r="A223" s="37"/>
       <c r="C223" s="26"/>
       <c r="D223" s="26"/>
       <c r="E223" s="29"/>
-      <c r="F223" s="29"/>
+      <c r="F223" s="28"/>
       <c r="G223" s="29"/>
       <c r="H223" s="29"/>
     </row>
@@ -7180,33 +7168,31 @@
       <c r="C224" s="26"/>
       <c r="D224" s="26"/>
       <c r="E224" s="29"/>
-      <c r="F224" s="29"/>
+      <c r="F224" s="28"/>
       <c r="G224" s="29"/>
       <c r="H224" s="29"/>
     </row>
     <row r="225" spans="1:10" s="25" customFormat="1">
-      <c r="A225" s="37"/>
       <c r="C225" s="26"/>
       <c r="D225" s="26"/>
       <c r="E225" s="29"/>
       <c r="F225" s="28"/>
       <c r="G225" s="29"/>
-      <c r="H225" s="29"/>
+      <c r="H225" s="32"/>
     </row>
     <row r="226" spans="1:10" s="25" customFormat="1">
       <c r="C226" s="26"/>
       <c r="D226" s="26"/>
       <c r="E226" s="29"/>
-      <c r="F226" s="29"/>
+      <c r="F226" s="28"/>
       <c r="G226" s="29"/>
       <c r="H226" s="29"/>
     </row>
     <row r="227" spans="1:10" s="25" customFormat="1">
-      <c r="A227" s="37"/>
       <c r="C227" s="26"/>
       <c r="D227" s="26"/>
       <c r="E227" s="29"/>
-      <c r="F227" s="28"/>
+      <c r="F227" s="29"/>
       <c r="G227" s="29"/>
       <c r="H227" s="29"/>
     </row>
@@ -7214,7 +7200,7 @@
       <c r="C228" s="26"/>
       <c r="D228" s="26"/>
       <c r="E228" s="29"/>
-      <c r="F228" s="28"/>
+      <c r="F228" s="29"/>
       <c r="G228" s="29"/>
       <c r="H228" s="29"/>
     </row>
@@ -7222,7 +7208,7 @@
       <c r="C229" s="26"/>
       <c r="D229" s="26"/>
       <c r="E229" s="29"/>
-      <c r="F229" s="28"/>
+      <c r="F229" s="29"/>
       <c r="G229" s="29"/>
       <c r="H229" s="32"/>
     </row>
@@ -7230,73 +7216,74 @@
       <c r="C230" s="26"/>
       <c r="D230" s="26"/>
       <c r="E230" s="29"/>
-      <c r="F230" s="28"/>
+      <c r="F230" s="32"/>
       <c r="G230" s="29"/>
       <c r="H230" s="29"/>
     </row>
     <row r="231" spans="1:10" s="25" customFormat="1">
       <c r="C231" s="26"/>
-      <c r="D231" s="26"/>
-      <c r="E231" s="29"/>
-      <c r="F231" s="29"/>
+      <c r="D231" s="27"/>
+      <c r="E231" s="28"/>
+      <c r="F231" s="28"/>
       <c r="G231" s="29"/>
       <c r="H231" s="29"/>
     </row>
     <row r="232" spans="1:10" s="25" customFormat="1">
+      <c r="A232" s="37"/>
       <c r="C232" s="26"/>
-      <c r="D232" s="26"/>
-      <c r="E232" s="29"/>
-      <c r="F232" s="29"/>
+      <c r="D232" s="27"/>
+      <c r="E232" s="28"/>
+      <c r="F232" s="28"/>
       <c r="G232" s="29"/>
       <c r="H232" s="29"/>
     </row>
     <row r="233" spans="1:10" s="25" customFormat="1">
       <c r="C233" s="26"/>
-      <c r="D233" s="26"/>
+      <c r="D233" s="27"/>
       <c r="E233" s="29"/>
       <c r="F233" s="29"/>
-      <c r="G233" s="29"/>
-      <c r="H233" s="32"/>
+      <c r="G233" s="32"/>
+      <c r="H233" s="29"/>
     </row>
     <row r="234" spans="1:10" s="25" customFormat="1">
+      <c r="A234" s="37"/>
       <c r="C234" s="26"/>
-      <c r="D234" s="26"/>
+      <c r="D234" s="27"/>
       <c r="E234" s="29"/>
-      <c r="F234" s="32"/>
+      <c r="F234" s="28"/>
       <c r="G234" s="29"/>
       <c r="H234" s="29"/>
     </row>
     <row r="235" spans="1:10" s="25" customFormat="1">
       <c r="C235" s="26"/>
-      <c r="D235" s="27"/>
-      <c r="E235" s="28"/>
+      <c r="D235" s="26"/>
+      <c r="E235" s="29"/>
       <c r="F235" s="28"/>
       <c r="G235" s="29"/>
       <c r="H235" s="29"/>
+      <c r="J235" s="36"/>
     </row>
     <row r="236" spans="1:10" s="25" customFormat="1">
-      <c r="A236" s="37"/>
       <c r="C236" s="26"/>
-      <c r="D236" s="27"/>
-      <c r="E236" s="28"/>
+      <c r="D236" s="26"/>
+      <c r="E236" s="29"/>
       <c r="F236" s="28"/>
       <c r="G236" s="29"/>
       <c r="H236" s="29"/>
     </row>
     <row r="237" spans="1:10" s="25" customFormat="1">
       <c r="C237" s="26"/>
-      <c r="D237" s="27"/>
+      <c r="D237" s="26"/>
       <c r="E237" s="29"/>
-      <c r="F237" s="29"/>
-      <c r="G237" s="32"/>
+      <c r="F237" s="28"/>
+      <c r="G237" s="29"/>
       <c r="H237" s="29"/>
     </row>
     <row r="238" spans="1:10" s="25" customFormat="1">
-      <c r="A238" s="37"/>
       <c r="C238" s="26"/>
-      <c r="D238" s="27"/>
+      <c r="D238" s="26"/>
       <c r="E238" s="29"/>
-      <c r="F238" s="28"/>
+      <c r="F238" s="29"/>
       <c r="G238" s="29"/>
       <c r="H238" s="29"/>
     </row>
@@ -7307,7 +7294,6 @@
       <c r="F239" s="28"/>
       <c r="G239" s="29"/>
       <c r="H239" s="29"/>
-      <c r="J239" s="36"/>
     </row>
     <row r="240" spans="1:10" s="25" customFormat="1">
       <c r="C240" s="26"/>
@@ -7329,7 +7315,7 @@
       <c r="C242" s="26"/>
       <c r="D242" s="26"/>
       <c r="E242" s="29"/>
-      <c r="F242" s="29"/>
+      <c r="F242" s="28"/>
       <c r="G242" s="29"/>
       <c r="H242" s="29"/>
     </row>
@@ -7339,13 +7325,13 @@
       <c r="E243" s="29"/>
       <c r="F243" s="28"/>
       <c r="G243" s="29"/>
-      <c r="H243" s="29"/>
+      <c r="H243" s="32"/>
     </row>
     <row r="244" spans="1:10" s="25" customFormat="1">
       <c r="C244" s="26"/>
       <c r="D244" s="26"/>
       <c r="E244" s="29"/>
-      <c r="F244" s="28"/>
+      <c r="F244" s="29"/>
       <c r="G244" s="29"/>
       <c r="H244" s="29"/>
     </row>
@@ -7366,18 +7352,20 @@
       <c r="H246" s="29"/>
     </row>
     <row r="247" spans="1:10" s="25" customFormat="1">
+      <c r="B247" s="35"/>
       <c r="C247" s="26"/>
       <c r="D247" s="26"/>
       <c r="E247" s="29"/>
       <c r="F247" s="28"/>
       <c r="G247" s="29"/>
-      <c r="H247" s="32"/>
+      <c r="H247" s="29"/>
+      <c r="J247" s="38"/>
     </row>
     <row r="248" spans="1:10" s="25" customFormat="1">
       <c r="C248" s="26"/>
       <c r="D248" s="26"/>
       <c r="E248" s="29"/>
-      <c r="F248" s="29"/>
+      <c r="F248" s="28"/>
       <c r="G248" s="29"/>
       <c r="H248" s="29"/>
     </row>
@@ -7385,7 +7373,7 @@
       <c r="C249" s="26"/>
       <c r="D249" s="26"/>
       <c r="E249" s="29"/>
-      <c r="F249" s="28"/>
+      <c r="F249" s="29"/>
       <c r="G249" s="29"/>
       <c r="H249" s="29"/>
     </row>
@@ -7393,21 +7381,21 @@
       <c r="C250" s="26"/>
       <c r="D250" s="26"/>
       <c r="E250" s="29"/>
-      <c r="F250" s="28"/>
+      <c r="F250" s="29"/>
       <c r="G250" s="29"/>
-      <c r="H250" s="29"/>
+      <c r="H250" s="32"/>
     </row>
     <row r="251" spans="1:10" s="25" customFormat="1">
-      <c r="B251" s="35"/>
+      <c r="A251" s="37"/>
       <c r="C251" s="26"/>
       <c r="D251" s="26"/>
       <c r="E251" s="29"/>
       <c r="F251" s="28"/>
       <c r="G251" s="29"/>
-      <c r="H251" s="29"/>
-      <c r="J251" s="38"/>
+      <c r="H251" s="32"/>
     </row>
     <row r="252" spans="1:10" s="25" customFormat="1">
+      <c r="A252" s="37"/>
       <c r="C252" s="26"/>
       <c r="D252" s="26"/>
       <c r="E252" s="29"/>
@@ -7419,7 +7407,7 @@
       <c r="C253" s="26"/>
       <c r="D253" s="26"/>
       <c r="E253" s="29"/>
-      <c r="F253" s="29"/>
+      <c r="F253" s="28"/>
       <c r="G253" s="29"/>
       <c r="H253" s="29"/>
     </row>
@@ -7427,37 +7415,37 @@
       <c r="C254" s="26"/>
       <c r="D254" s="26"/>
       <c r="E254" s="29"/>
-      <c r="F254" s="29"/>
+      <c r="F254" s="28"/>
       <c r="G254" s="29"/>
-      <c r="H254" s="32"/>
+      <c r="H254" s="29"/>
     </row>
     <row r="255" spans="1:10" s="25" customFormat="1">
-      <c r="A255" s="37"/>
       <c r="C255" s="26"/>
       <c r="D255" s="26"/>
       <c r="E255" s="29"/>
       <c r="F255" s="28"/>
       <c r="G255" s="29"/>
-      <c r="H255" s="32"/>
+      <c r="H255" s="29"/>
+      <c r="J255" s="36"/>
     </row>
     <row r="256" spans="1:10" s="25" customFormat="1">
-      <c r="A256" s="37"/>
       <c r="C256" s="26"/>
       <c r="D256" s="26"/>
       <c r="E256" s="29"/>
-      <c r="F256" s="28"/>
+      <c r="F256" s="29"/>
       <c r="G256" s="29"/>
       <c r="H256" s="29"/>
     </row>
-    <row r="257" spans="1:10" s="25" customFormat="1">
+    <row r="257" spans="1:8" s="25" customFormat="1">
+      <c r="A257" s="37"/>
       <c r="C257" s="26"/>
       <c r="D257" s="26"/>
       <c r="E257" s="29"/>
-      <c r="F257" s="28"/>
+      <c r="F257" s="29"/>
       <c r="G257" s="29"/>
       <c r="H257" s="29"/>
     </row>
-    <row r="258" spans="1:10" s="25" customFormat="1">
+    <row r="258" spans="1:8" s="25" customFormat="1">
       <c r="C258" s="26"/>
       <c r="D258" s="26"/>
       <c r="E258" s="29"/>
@@ -7465,16 +7453,16 @@
       <c r="G258" s="29"/>
       <c r="H258" s="29"/>
     </row>
-    <row r="259" spans="1:10" s="25" customFormat="1">
+    <row r="259" spans="1:8" s="25" customFormat="1">
       <c r="C259" s="26"/>
       <c r="D259" s="26"/>
       <c r="E259" s="29"/>
       <c r="F259" s="28"/>
       <c r="G259" s="29"/>
       <c r="H259" s="29"/>
-      <c r="J259" s="36"/>
-    </row>
-    <row r="260" spans="1:10" s="25" customFormat="1">
+    </row>
+    <row r="260" spans="1:8" s="25" customFormat="1">
+      <c r="A260" s="37"/>
       <c r="C260" s="26"/>
       <c r="D260" s="26"/>
       <c r="E260" s="29"/>
@@ -7482,16 +7470,16 @@
       <c r="G260" s="29"/>
       <c r="H260" s="29"/>
     </row>
-    <row r="261" spans="1:10" s="25" customFormat="1">
-      <c r="A261" s="37"/>
+    <row r="261" spans="1:8" s="25" customFormat="1">
       <c r="C261" s="26"/>
       <c r="D261" s="26"/>
       <c r="E261" s="29"/>
-      <c r="F261" s="29"/>
+      <c r="F261" s="28"/>
       <c r="G261" s="29"/>
       <c r="H261" s="29"/>
     </row>
-    <row r="262" spans="1:10" s="25" customFormat="1">
+    <row r="262" spans="1:8" s="25" customFormat="1">
+      <c r="A262" s="37"/>
       <c r="C262" s="26"/>
       <c r="D262" s="26"/>
       <c r="E262" s="29"/>
@@ -7499,7 +7487,8 @@
       <c r="G262" s="29"/>
       <c r="H262" s="29"/>
     </row>
-    <row r="263" spans="1:10" s="25" customFormat="1">
+    <row r="263" spans="1:8" s="25" customFormat="1">
+      <c r="A263" s="37"/>
       <c r="C263" s="26"/>
       <c r="D263" s="26"/>
       <c r="E263" s="29"/>
@@ -7507,16 +7496,17 @@
       <c r="G263" s="29"/>
       <c r="H263" s="29"/>
     </row>
-    <row r="264" spans="1:10" s="25" customFormat="1">
-      <c r="A264" s="37"/>
+    <row r="264" spans="1:8" s="4" customFormat="1">
+      <c r="A264" s="25"/>
+      <c r="B264" s="25"/>
       <c r="C264" s="26"/>
       <c r="D264" s="26"/>
       <c r="E264" s="29"/>
-      <c r="F264" s="29"/>
-      <c r="G264" s="29"/>
-      <c r="H264" s="29"/>
-    </row>
-    <row r="265" spans="1:10" s="25" customFormat="1">
+      <c r="F264" s="28"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="6"/>
+    </row>
+    <row r="265" spans="1:8" s="25" customFormat="1">
       <c r="C265" s="26"/>
       <c r="D265" s="26"/>
       <c r="E265" s="29"/>
@@ -7524,16 +7514,16 @@
       <c r="G265" s="29"/>
       <c r="H265" s="29"/>
     </row>
-    <row r="266" spans="1:10" s="25" customFormat="1">
+    <row r="266" spans="1:8" s="25" customFormat="1">
       <c r="A266" s="37"/>
       <c r="C266" s="26"/>
       <c r="D266" s="26"/>
       <c r="E266" s="29"/>
-      <c r="F266" s="28"/>
+      <c r="F266" s="32"/>
       <c r="G266" s="29"/>
       <c r="H266" s="29"/>
     </row>
-    <row r="267" spans="1:10" s="25" customFormat="1">
+    <row r="267" spans="1:8" s="25" customFormat="1">
       <c r="A267" s="37"/>
       <c r="C267" s="26"/>
       <c r="D267" s="26"/>
@@ -7542,17 +7532,17 @@
       <c r="G267" s="29"/>
       <c r="H267" s="29"/>
     </row>
-    <row r="268" spans="1:10" s="4" customFormat="1">
-      <c r="A268" s="25"/>
-      <c r="B268" s="25"/>
+    <row r="268" spans="1:8" s="25" customFormat="1">
+      <c r="A268" s="37"/>
+      <c r="B268" s="35"/>
       <c r="C268" s="26"/>
       <c r="D268" s="26"/>
       <c r="E268" s="29"/>
       <c r="F268" s="28"/>
-      <c r="G268" s="1"/>
-      <c r="H268" s="6"/>
-    </row>
-    <row r="269" spans="1:10" s="25" customFormat="1">
+      <c r="G268" s="29"/>
+      <c r="H268" s="29"/>
+    </row>
+    <row r="269" spans="1:8" s="25" customFormat="1">
       <c r="C269" s="26"/>
       <c r="D269" s="26"/>
       <c r="E269" s="29"/>
@@ -7560,27 +7550,23 @@
       <c r="G269" s="29"/>
       <c r="H269" s="29"/>
     </row>
-    <row r="270" spans="1:10" s="25" customFormat="1">
-      <c r="A270" s="37"/>
+    <row r="270" spans="1:8" s="25" customFormat="1">
       <c r="C270" s="26"/>
       <c r="D270" s="26"/>
       <c r="E270" s="29"/>
-      <c r="F270" s="32"/>
+      <c r="F270" s="28"/>
       <c r="G270" s="29"/>
       <c r="H270" s="29"/>
     </row>
-    <row r="271" spans="1:10" s="25" customFormat="1">
-      <c r="A271" s="37"/>
+    <row r="271" spans="1:8" s="25" customFormat="1">
       <c r="C271" s="26"/>
       <c r="D271" s="26"/>
       <c r="E271" s="29"/>
-      <c r="F271" s="28"/>
+      <c r="F271" s="29"/>
       <c r="G271" s="29"/>
       <c r="H271" s="29"/>
     </row>
-    <row r="272" spans="1:10" s="25" customFormat="1">
-      <c r="A272" s="37"/>
-      <c r="B272" s="35"/>
+    <row r="272" spans="1:8" s="25" customFormat="1">
       <c r="C272" s="26"/>
       <c r="D272" s="26"/>
       <c r="E272" s="29"/>
@@ -7589,10 +7575,11 @@
       <c r="H272" s="29"/>
     </row>
     <row r="273" spans="1:10" s="25" customFormat="1">
+      <c r="A273" s="37"/>
       <c r="C273" s="26"/>
       <c r="D273" s="26"/>
       <c r="E273" s="29"/>
-      <c r="F273" s="28"/>
+      <c r="F273" s="29"/>
       <c r="G273" s="29"/>
       <c r="H273" s="29"/>
     </row>
@@ -7608,26 +7595,30 @@
       <c r="C275" s="26"/>
       <c r="D275" s="26"/>
       <c r="E275" s="29"/>
-      <c r="F275" s="29"/>
+      <c r="F275" s="28"/>
       <c r="G275" s="29"/>
       <c r="H275" s="29"/>
     </row>
-    <row r="276" spans="1:10" s="25" customFormat="1">
+    <row r="276" spans="1:10">
+      <c r="A276" s="25"/>
+      <c r="B276" s="25"/>
       <c r="C276" s="26"/>
       <c r="D276" s="26"/>
       <c r="E276" s="29"/>
       <c r="F276" s="28"/>
-      <c r="G276" s="29"/>
-      <c r="H276" s="29"/>
-    </row>
-    <row r="277" spans="1:10" s="25" customFormat="1">
+      <c r="H276" s="6"/>
+      <c r="I276" s="4"/>
+      <c r="J276" s="8"/>
+    </row>
+    <row r="277" spans="1:10" s="4" customFormat="1">
       <c r="A277" s="37"/>
+      <c r="B277" s="25"/>
       <c r="C277" s="26"/>
       <c r="D277" s="26"/>
       <c r="E277" s="29"/>
-      <c r="F277" s="29"/>
-      <c r="G277" s="29"/>
-      <c r="H277" s="29"/>
+      <c r="F277" s="28"/>
+      <c r="G277" s="1"/>
+      <c r="H277" s="6"/>
     </row>
     <row r="278" spans="1:10" s="25" customFormat="1">
       <c r="C278" s="26"/>
@@ -7638,6 +7629,7 @@
       <c r="H278" s="29"/>
     </row>
     <row r="279" spans="1:10" s="25" customFormat="1">
+      <c r="A279" s="37"/>
       <c r="C279" s="26"/>
       <c r="D279" s="26"/>
       <c r="E279" s="29"/>
@@ -7652,30 +7644,27 @@
       <c r="D280" s="26"/>
       <c r="E280" s="29"/>
       <c r="F280" s="28"/>
-      <c r="H280" s="6"/>
-      <c r="I280" s="4"/>
-      <c r="J280" s="8"/>
-    </row>
-    <row r="281" spans="1:10" s="4" customFormat="1">
-      <c r="A281" s="37"/>
-      <c r="B281" s="25"/>
+      <c r="G280" s="29"/>
+    </row>
+    <row r="281" spans="1:10" s="25" customFormat="1">
       <c r="C281" s="26"/>
       <c r="D281" s="26"/>
       <c r="E281" s="29"/>
       <c r="F281" s="28"/>
-      <c r="G281" s="1"/>
-      <c r="H281" s="6"/>
-    </row>
-    <row r="282" spans="1:10" s="25" customFormat="1">
+      <c r="G281" s="29"/>
+      <c r="H281" s="29"/>
+    </row>
+    <row r="282" spans="1:10" s="4" customFormat="1">
+      <c r="A282" s="37"/>
+      <c r="B282" s="25"/>
       <c r="C282" s="26"/>
       <c r="D282" s="26"/>
       <c r="E282" s="29"/>
       <c r="F282" s="28"/>
-      <c r="G282" s="29"/>
-      <c r="H282" s="29"/>
+      <c r="G282" s="1"/>
+      <c r="H282" s="6"/>
     </row>
     <row r="283" spans="1:10" s="25" customFormat="1">
-      <c r="A283" s="37"/>
       <c r="C283" s="26"/>
       <c r="D283" s="26"/>
       <c r="E283" s="29"/>
@@ -7683,32 +7672,31 @@
       <c r="G283" s="29"/>
       <c r="H283" s="29"/>
     </row>
-    <row r="284" spans="1:10">
-      <c r="A284" s="25"/>
-      <c r="B284" s="25"/>
+    <row r="284" spans="1:10" s="25" customFormat="1">
+      <c r="A284" s="37"/>
       <c r="C284" s="26"/>
       <c r="D284" s="26"/>
       <c r="E284" s="29"/>
-      <c r="F284" s="28"/>
+      <c r="F284" s="29"/>
       <c r="G284" s="29"/>
+      <c r="H284" s="29"/>
     </row>
     <row r="285" spans="1:10" s="25" customFormat="1">
       <c r="C285" s="26"/>
       <c r="D285" s="26"/>
       <c r="E285" s="29"/>
-      <c r="F285" s="28"/>
+      <c r="F285" s="29"/>
       <c r="G285" s="29"/>
-      <c r="H285" s="29"/>
-    </row>
-    <row r="286" spans="1:10" s="4" customFormat="1">
+      <c r="H285" s="32"/>
+    </row>
+    <row r="286" spans="1:10" s="25" customFormat="1">
       <c r="A286" s="37"/>
-      <c r="B286" s="25"/>
       <c r="C286" s="26"/>
       <c r="D286" s="26"/>
       <c r="E286" s="29"/>
       <c r="F286" s="28"/>
-      <c r="G286" s="1"/>
-      <c r="H286" s="6"/>
+      <c r="G286" s="29"/>
+      <c r="H286" s="29"/>
     </row>
     <row r="287" spans="1:10" s="25" customFormat="1">
       <c r="C287" s="26"/>
@@ -7719,30 +7707,30 @@
       <c r="H287" s="29"/>
     </row>
     <row r="288" spans="1:10" s="25" customFormat="1">
-      <c r="A288" s="37"/>
       <c r="C288" s="26"/>
       <c r="D288" s="26"/>
       <c r="E288" s="29"/>
       <c r="F288" s="29"/>
       <c r="G288" s="29"/>
-      <c r="H288" s="29"/>
+      <c r="H288" s="32"/>
     </row>
     <row r="289" spans="1:10" s="25" customFormat="1">
       <c r="C289" s="26"/>
       <c r="D289" s="26"/>
       <c r="E289" s="29"/>
-      <c r="F289" s="29"/>
+      <c r="F289" s="28"/>
       <c r="G289" s="29"/>
-      <c r="H289" s="32"/>
-    </row>
-    <row r="290" spans="1:10" s="25" customFormat="1">
-      <c r="A290" s="37"/>
+      <c r="H289" s="29"/>
+    </row>
+    <row r="290" spans="1:10" s="41" customFormat="1">
+      <c r="A290" s="25"/>
+      <c r="B290" s="25"/>
       <c r="C290" s="26"/>
       <c r="D290" s="26"/>
       <c r="E290" s="29"/>
       <c r="F290" s="28"/>
-      <c r="G290" s="29"/>
-      <c r="H290" s="29"/>
+      <c r="G290" s="40"/>
+      <c r="H290" s="40"/>
     </row>
     <row r="291" spans="1:10" s="25" customFormat="1">
       <c r="C291" s="26"/>
@@ -7756,9 +7744,9 @@
       <c r="C292" s="26"/>
       <c r="D292" s="26"/>
       <c r="E292" s="29"/>
-      <c r="F292" s="29"/>
+      <c r="F292" s="28"/>
       <c r="G292" s="29"/>
-      <c r="H292" s="32"/>
+      <c r="H292" s="29"/>
     </row>
     <row r="293" spans="1:10" s="25" customFormat="1">
       <c r="C293" s="26"/>
@@ -7768,25 +7756,30 @@
       <c r="G293" s="29"/>
       <c r="H293" s="29"/>
     </row>
-    <row r="294" spans="1:10" s="41" customFormat="1">
+    <row r="294" spans="1:10">
       <c r="A294" s="25"/>
       <c r="B294" s="25"/>
       <c r="C294" s="26"/>
       <c r="D294" s="26"/>
       <c r="E294" s="29"/>
-      <c r="F294" s="28"/>
-      <c r="G294" s="40"/>
-      <c r="H294" s="40"/>
-    </row>
-    <row r="295" spans="1:10" s="25" customFormat="1">
+      <c r="F294" s="29"/>
+      <c r="G294" s="29"/>
+      <c r="H294" s="6"/>
+      <c r="I294" s="4"/>
+      <c r="J294" s="11"/>
+    </row>
+    <row r="295" spans="1:10" s="4" customFormat="1">
+      <c r="A295" s="35"/>
+      <c r="B295" s="35"/>
       <c r="C295" s="26"/>
       <c r="D295" s="26"/>
       <c r="E295" s="29"/>
       <c r="F295" s="28"/>
-      <c r="G295" s="29"/>
-      <c r="H295" s="29"/>
+      <c r="G295" s="1"/>
+      <c r="H295" s="6"/>
     </row>
     <row r="296" spans="1:10" s="25" customFormat="1">
+      <c r="A296" s="37"/>
       <c r="C296" s="26"/>
       <c r="D296" s="26"/>
       <c r="E296" s="29"/>
@@ -7795,37 +7788,32 @@
       <c r="H296" s="29"/>
     </row>
     <row r="297" spans="1:10" s="25" customFormat="1">
+      <c r="A297" s="37"/>
       <c r="C297" s="26"/>
       <c r="D297" s="26"/>
       <c r="E297" s="29"/>
-      <c r="F297" s="28"/>
+      <c r="F297" s="39"/>
       <c r="G297" s="29"/>
       <c r="H297" s="29"/>
     </row>
-    <row r="298" spans="1:10">
-      <c r="A298" s="25"/>
-      <c r="B298" s="25"/>
+    <row r="298" spans="1:10" s="25" customFormat="1">
+      <c r="A298" s="37"/>
       <c r="C298" s="26"/>
       <c r="D298" s="26"/>
       <c r="E298" s="29"/>
-      <c r="F298" s="29"/>
+      <c r="F298" s="28"/>
       <c r="G298" s="29"/>
-      <c r="H298" s="6"/>
-      <c r="I298" s="4"/>
-      <c r="J298" s="11"/>
-    </row>
-    <row r="299" spans="1:10" s="4" customFormat="1">
-      <c r="A299" s="35"/>
-      <c r="B299" s="35"/>
+      <c r="H298" s="29"/>
+    </row>
+    <row r="299" spans="1:10" s="25" customFormat="1">
       <c r="C299" s="26"/>
       <c r="D299" s="26"/>
       <c r="E299" s="29"/>
-      <c r="F299" s="28"/>
-      <c r="G299" s="1"/>
-      <c r="H299" s="6"/>
+      <c r="F299" s="29"/>
+      <c r="G299" s="29"/>
+      <c r="H299" s="29"/>
     </row>
     <row r="300" spans="1:10" s="25" customFormat="1">
-      <c r="A300" s="37"/>
       <c r="C300" s="26"/>
       <c r="D300" s="26"/>
       <c r="E300" s="29"/>
@@ -7834,30 +7822,34 @@
       <c r="H300" s="29"/>
     </row>
     <row r="301" spans="1:10" s="25" customFormat="1">
-      <c r="A301" s="37"/>
       <c r="C301" s="26"/>
       <c r="D301" s="26"/>
       <c r="E301" s="29"/>
-      <c r="F301" s="39"/>
+      <c r="F301" s="28"/>
       <c r="G301" s="29"/>
       <c r="H301" s="29"/>
     </row>
-    <row r="302" spans="1:10" s="25" customFormat="1">
-      <c r="A302" s="37"/>
+    <row r="302" spans="1:10">
+      <c r="A302" s="25"/>
+      <c r="B302" s="25"/>
       <c r="C302" s="26"/>
       <c r="D302" s="26"/>
       <c r="E302" s="29"/>
       <c r="F302" s="28"/>
       <c r="G302" s="29"/>
-      <c r="H302" s="29"/>
-    </row>
-    <row r="303" spans="1:10" s="25" customFormat="1">
+      <c r="H302" s="6"/>
+      <c r="I302" s="4"/>
+      <c r="J302" s="4"/>
+    </row>
+    <row r="303" spans="1:10" s="4" customFormat="1">
+      <c r="A303" s="37"/>
+      <c r="B303" s="25"/>
       <c r="C303" s="26"/>
       <c r="D303" s="26"/>
       <c r="E303" s="29"/>
-      <c r="F303" s="29"/>
-      <c r="G303" s="29"/>
-      <c r="H303" s="29"/>
+      <c r="F303" s="28"/>
+      <c r="G303" s="1"/>
+      <c r="H303" s="6"/>
     </row>
     <row r="304" spans="1:10" s="25" customFormat="1">
       <c r="C304" s="26"/>
@@ -7868,14 +7860,16 @@
       <c r="H304" s="29"/>
     </row>
     <row r="305" spans="1:10" s="25" customFormat="1">
+      <c r="A305" s="42"/>
+      <c r="B305" s="42"/>
       <c r="C305" s="26"/>
       <c r="D305" s="26"/>
       <c r="E305" s="29"/>
-      <c r="F305" s="28"/>
+      <c r="F305" s="29"/>
       <c r="G305" s="29"/>
       <c r="H305" s="29"/>
     </row>
-    <row r="306" spans="1:10">
+    <row r="306" spans="1:10" s="4" customFormat="1">
       <c r="A306" s="25"/>
       <c r="B306" s="25"/>
       <c r="C306" s="26"/>
@@ -7884,60 +7878,52 @@
       <c r="F306" s="28"/>
       <c r="G306" s="29"/>
       <c r="H306" s="6"/>
-      <c r="I306" s="4"/>
-      <c r="J306" s="4"/>
-    </row>
-    <row r="307" spans="1:10" s="4" customFormat="1">
-      <c r="A307" s="37"/>
+    </row>
+    <row r="307" spans="1:10">
+      <c r="A307" s="25"/>
       <c r="B307" s="25"/>
       <c r="C307" s="26"/>
       <c r="D307" s="26"/>
       <c r="E307" s="29"/>
       <c r="F307" s="28"/>
-      <c r="G307" s="1"/>
-      <c r="H307" s="6"/>
     </row>
     <row r="308" spans="1:10" s="25" customFormat="1">
       <c r="C308" s="26"/>
       <c r="D308" s="26"/>
       <c r="E308" s="29"/>
-      <c r="F308" s="28"/>
+      <c r="F308" s="32"/>
       <c r="G308" s="29"/>
       <c r="H308" s="29"/>
     </row>
     <row r="309" spans="1:10" s="25" customFormat="1">
-      <c r="A309" s="42"/>
-      <c r="B309" s="42"/>
       <c r="C309" s="26"/>
       <c r="D309" s="26"/>
       <c r="E309" s="29"/>
-      <c r="F309" s="29"/>
+      <c r="F309" s="39"/>
       <c r="G309" s="29"/>
       <c r="H309" s="29"/>
     </row>
-    <row r="310" spans="1:10" s="4" customFormat="1">
-      <c r="A310" s="25"/>
-      <c r="B310" s="25"/>
+    <row r="310" spans="1:10" s="25" customFormat="1">
       <c r="C310" s="26"/>
       <c r="D310" s="26"/>
       <c r="E310" s="29"/>
       <c r="F310" s="28"/>
       <c r="G310" s="29"/>
-      <c r="H310" s="6"/>
-    </row>
-    <row r="311" spans="1:10">
-      <c r="A311" s="25"/>
-      <c r="B311" s="25"/>
+      <c r="H310" s="29"/>
+    </row>
+    <row r="311" spans="1:10" s="25" customFormat="1">
       <c r="C311" s="26"/>
       <c r="D311" s="26"/>
       <c r="E311" s="29"/>
-      <c r="F311" s="28"/>
+      <c r="F311" s="29"/>
+      <c r="G311" s="29"/>
+      <c r="H311" s="29"/>
     </row>
     <row r="312" spans="1:10" s="25" customFormat="1">
       <c r="C312" s="26"/>
       <c r="D312" s="26"/>
       <c r="E312" s="29"/>
-      <c r="F312" s="32"/>
+      <c r="F312" s="28"/>
       <c r="G312" s="29"/>
       <c r="H312" s="29"/>
     </row>
@@ -7945,7 +7931,7 @@
       <c r="C313" s="26"/>
       <c r="D313" s="26"/>
       <c r="E313" s="29"/>
-      <c r="F313" s="39"/>
+      <c r="F313" s="29"/>
       <c r="G313" s="29"/>
       <c r="H313" s="29"/>
     </row>
@@ -7955,42 +7941,47 @@
       <c r="E314" s="29"/>
       <c r="F314" s="28"/>
       <c r="G314" s="29"/>
-      <c r="H314" s="29"/>
+      <c r="H314" s="32"/>
     </row>
     <row r="315" spans="1:10" s="25" customFormat="1">
+      <c r="A315" s="37"/>
       <c r="C315" s="26"/>
       <c r="D315" s="26"/>
       <c r="E315" s="29"/>
-      <c r="F315" s="29"/>
+      <c r="F315" s="28"/>
       <c r="G315" s="29"/>
       <c r="H315" s="29"/>
     </row>
-    <row r="316" spans="1:10" s="25" customFormat="1">
+    <row r="316" spans="1:10" s="4" customFormat="1">
+      <c r="A316" s="42"/>
+      <c r="B316" s="25"/>
       <c r="C316" s="26"/>
       <c r="D316" s="26"/>
       <c r="E316" s="29"/>
       <c r="F316" s="28"/>
-      <c r="G316" s="29"/>
-      <c r="H316" s="29"/>
+      <c r="G316" s="1"/>
+      <c r="H316" s="6"/>
     </row>
     <row r="317" spans="1:10" s="25" customFormat="1">
+      <c r="A317" s="37"/>
       <c r="C317" s="26"/>
       <c r="D317" s="26"/>
       <c r="E317" s="29"/>
-      <c r="F317" s="29"/>
+      <c r="F317" s="28"/>
       <c r="G317" s="29"/>
       <c r="H317" s="29"/>
     </row>
     <row r="318" spans="1:10" s="25" customFormat="1">
+      <c r="A318" s="37"/>
+      <c r="B318" s="35"/>
       <c r="C318" s="26"/>
       <c r="D318" s="26"/>
       <c r="E318" s="29"/>
       <c r="F318" s="28"/>
       <c r="G318" s="29"/>
-      <c r="H318" s="32"/>
+      <c r="H318" s="29"/>
     </row>
     <row r="319" spans="1:10" s="25" customFormat="1">
-      <c r="A319" s="37"/>
       <c r="C319" s="26"/>
       <c r="D319" s="26"/>
       <c r="E319" s="29"/>
@@ -7998,18 +7989,18 @@
       <c r="G319" s="29"/>
       <c r="H319" s="29"/>
     </row>
-    <row r="320" spans="1:10" s="4" customFormat="1">
-      <c r="A320" s="42"/>
+    <row r="320" spans="1:10">
+      <c r="A320" s="25"/>
       <c r="B320" s="25"/>
       <c r="C320" s="26"/>
       <c r="D320" s="26"/>
       <c r="E320" s="29"/>
       <c r="F320" s="28"/>
-      <c r="G320" s="1"/>
       <c r="H320" s="6"/>
-    </row>
-    <row r="321" spans="1:10" s="25" customFormat="1">
-      <c r="A321" s="37"/>
+      <c r="I320" s="4"/>
+      <c r="J320" s="4"/>
+    </row>
+    <row r="321" spans="1:8" s="25" customFormat="1">
       <c r="C321" s="26"/>
       <c r="D321" s="26"/>
       <c r="E321" s="29"/>
@@ -8017,9 +8008,8 @@
       <c r="G321" s="29"/>
       <c r="H321" s="29"/>
     </row>
-    <row r="322" spans="1:10" s="25" customFormat="1">
+    <row r="322" spans="1:8" s="25" customFormat="1">
       <c r="A322" s="37"/>
-      <c r="B322" s="35"/>
       <c r="C322" s="26"/>
       <c r="D322" s="26"/>
       <c r="E322" s="29"/>
@@ -8027,7 +8017,8 @@
       <c r="G322" s="29"/>
       <c r="H322" s="29"/>
     </row>
-    <row r="323" spans="1:10" s="25" customFormat="1">
+    <row r="323" spans="1:8" s="25" customFormat="1">
+      <c r="A323" s="37"/>
       <c r="C323" s="26"/>
       <c r="D323" s="26"/>
       <c r="E323" s="29"/>
@@ -8035,44 +8026,44 @@
       <c r="G323" s="29"/>
       <c r="H323" s="29"/>
     </row>
-    <row r="324" spans="1:10">
-      <c r="A324" s="25"/>
-      <c r="B324" s="25"/>
+    <row r="324" spans="1:8" s="25" customFormat="1">
       <c r="C324" s="26"/>
       <c r="D324" s="26"/>
       <c r="E324" s="29"/>
       <c r="F324" s="28"/>
-      <c r="H324" s="6"/>
-      <c r="I324" s="4"/>
-      <c r="J324" s="4"/>
-    </row>
-    <row r="325" spans="1:10" s="25" customFormat="1">
+      <c r="G324" s="29"/>
+      <c r="H324" s="29"/>
+    </row>
+    <row r="325" spans="1:8" s="25" customFormat="1">
+      <c r="A325" s="37"/>
       <c r="C325" s="26"/>
       <c r="D325" s="26"/>
       <c r="E325" s="29"/>
       <c r="F325" s="28"/>
       <c r="G325" s="29"/>
-      <c r="H325" s="29"/>
-    </row>
-    <row r="326" spans="1:10" s="25" customFormat="1">
-      <c r="A326" s="37"/>
+      <c r="H325" s="32"/>
+    </row>
+    <row r="326" spans="1:8" s="41" customFormat="1">
+      <c r="A326" s="42"/>
+      <c r="B326" s="25"/>
       <c r="C326" s="26"/>
       <c r="D326" s="26"/>
       <c r="E326" s="29"/>
-      <c r="F326" s="28"/>
+      <c r="F326" s="39"/>
       <c r="G326" s="29"/>
-      <c r="H326" s="29"/>
-    </row>
-    <row r="327" spans="1:10" s="25" customFormat="1">
-      <c r="A327" s="37"/>
+      <c r="H326" s="40"/>
+    </row>
+    <row r="327" spans="1:8" s="41" customFormat="1">
+      <c r="A327" s="25"/>
+      <c r="B327" s="25"/>
       <c r="C327" s="26"/>
       <c r="D327" s="26"/>
       <c r="E327" s="29"/>
       <c r="F327" s="28"/>
       <c r="G327" s="29"/>
-      <c r="H327" s="29"/>
-    </row>
-    <row r="328" spans="1:10" s="25" customFormat="1">
+      <c r="H327" s="40"/>
+    </row>
+    <row r="328" spans="1:8" s="25" customFormat="1">
       <c r="C328" s="26"/>
       <c r="D328" s="26"/>
       <c r="E328" s="29"/>
@@ -8080,36 +8071,34 @@
       <c r="G328" s="29"/>
       <c r="H328" s="29"/>
     </row>
-    <row r="329" spans="1:10" s="25" customFormat="1">
+    <row r="329" spans="1:8" s="25" customFormat="1">
       <c r="A329" s="37"/>
       <c r="C329" s="26"/>
       <c r="D329" s="26"/>
       <c r="E329" s="29"/>
-      <c r="F329" s="28"/>
+      <c r="F329" s="39"/>
       <c r="G329" s="29"/>
-      <c r="H329" s="32"/>
-    </row>
-    <row r="330" spans="1:10" s="41" customFormat="1">
-      <c r="A330" s="42"/>
-      <c r="B330" s="25"/>
+      <c r="H329" s="29"/>
+    </row>
+    <row r="330" spans="1:8" s="25" customFormat="1">
       <c r="C330" s="26"/>
       <c r="D330" s="26"/>
       <c r="E330" s="29"/>
-      <c r="F330" s="39"/>
+      <c r="F330" s="28"/>
       <c r="G330" s="29"/>
-      <c r="H330" s="40"/>
-    </row>
-    <row r="331" spans="1:10" s="41" customFormat="1">
-      <c r="A331" s="25"/>
-      <c r="B331" s="25"/>
+      <c r="H330" s="32"/>
+    </row>
+    <row r="331" spans="1:8" s="25" customFormat="1">
+      <c r="A331" s="37"/>
       <c r="C331" s="26"/>
       <c r="D331" s="26"/>
       <c r="E331" s="29"/>
       <c r="F331" s="28"/>
       <c r="G331" s="29"/>
-      <c r="H331" s="40"/>
-    </row>
-    <row r="332" spans="1:10" s="25" customFormat="1">
+      <c r="H331" s="29"/>
+    </row>
+    <row r="332" spans="1:8" s="25" customFormat="1">
+      <c r="A332" s="42"/>
       <c r="C332" s="26"/>
       <c r="D332" s="26"/>
       <c r="E332" s="29"/>
@@ -8117,24 +8106,24 @@
       <c r="G332" s="29"/>
       <c r="H332" s="29"/>
     </row>
-    <row r="333" spans="1:10" s="25" customFormat="1">
-      <c r="A333" s="37"/>
+    <row r="333" spans="1:8" s="25" customFormat="1">
+      <c r="A333" s="42"/>
       <c r="C333" s="26"/>
       <c r="D333" s="26"/>
       <c r="E333" s="29"/>
-      <c r="F333" s="39"/>
+      <c r="F333" s="28"/>
       <c r="G333" s="29"/>
       <c r="H333" s="29"/>
     </row>
-    <row r="334" spans="1:10" s="25" customFormat="1">
+    <row r="334" spans="1:8" s="25" customFormat="1">
       <c r="C334" s="26"/>
       <c r="D334" s="26"/>
       <c r="E334" s="29"/>
       <c r="F334" s="28"/>
       <c r="G334" s="29"/>
-      <c r="H334" s="32"/>
-    </row>
-    <row r="335" spans="1:10" s="25" customFormat="1">
+      <c r="H334" s="29"/>
+    </row>
+    <row r="335" spans="1:8" s="25" customFormat="1">
       <c r="A335" s="37"/>
       <c r="C335" s="26"/>
       <c r="D335" s="26"/>
@@ -8143,8 +8132,9 @@
       <c r="G335" s="29"/>
       <c r="H335" s="29"/>
     </row>
-    <row r="336" spans="1:10" s="25" customFormat="1">
+    <row r="336" spans="1:8" s="25" customFormat="1">
       <c r="A336" s="42"/>
+      <c r="B336" s="35"/>
       <c r="C336" s="26"/>
       <c r="D336" s="26"/>
       <c r="E336" s="29"/>
@@ -8162,6 +8152,8 @@
       <c r="H337" s="29"/>
     </row>
     <row r="338" spans="1:10" s="25" customFormat="1">
+      <c r="A338" s="42"/>
+      <c r="B338" s="35"/>
       <c r="C338" s="26"/>
       <c r="D338" s="26"/>
       <c r="E338" s="29"/>
@@ -8170,82 +8162,79 @@
       <c r="H338" s="29"/>
     </row>
     <row r="339" spans="1:10" s="25" customFormat="1">
-      <c r="A339" s="37"/>
       <c r="C339" s="26"/>
       <c r="D339" s="26"/>
       <c r="E339" s="29"/>
       <c r="F339" s="28"/>
       <c r="G339" s="29"/>
       <c r="H339" s="29"/>
+      <c r="J339" s="36"/>
     </row>
     <row r="340" spans="1:10" s="25" customFormat="1">
-      <c r="A340" s="42"/>
-      <c r="B340" s="35"/>
+      <c r="A340" s="37"/>
       <c r="C340" s="26"/>
       <c r="D340" s="26"/>
       <c r="E340" s="29"/>
-      <c r="F340" s="28"/>
+      <c r="F340" s="29"/>
       <c r="G340" s="29"/>
       <c r="H340" s="29"/>
     </row>
     <row r="341" spans="1:10" s="25" customFormat="1">
-      <c r="A341" s="42"/>
+      <c r="A341" s="37"/>
       <c r="C341" s="26"/>
       <c r="D341" s="26"/>
       <c r="E341" s="29"/>
-      <c r="F341" s="28"/>
+      <c r="F341" s="32"/>
       <c r="G341" s="29"/>
       <c r="H341" s="29"/>
     </row>
     <row r="342" spans="1:10" s="25" customFormat="1">
-      <c r="A342" s="42"/>
+      <c r="A342" s="35"/>
       <c r="B342" s="35"/>
       <c r="C342" s="26"/>
       <c r="D342" s="26"/>
       <c r="E342" s="29"/>
-      <c r="F342" s="28"/>
+      <c r="F342" s="32"/>
       <c r="G342" s="29"/>
       <c r="H342" s="29"/>
     </row>
     <row r="343" spans="1:10" s="25" customFormat="1">
+      <c r="A343" s="37"/>
       <c r="C343" s="26"/>
       <c r="D343" s="26"/>
       <c r="E343" s="29"/>
       <c r="F343" s="28"/>
       <c r="G343" s="29"/>
       <c r="H343" s="29"/>
-      <c r="J343" s="36"/>
     </row>
     <row r="344" spans="1:10" s="25" customFormat="1">
-      <c r="A344" s="37"/>
+      <c r="A344" s="42"/>
       <c r="C344" s="26"/>
-      <c r="D344" s="26"/>
-      <c r="E344" s="29"/>
-      <c r="F344" s="29"/>
+      <c r="D344" s="27"/>
+      <c r="E344" s="28"/>
+      <c r="F344" s="28"/>
       <c r="G344" s="29"/>
       <c r="H344" s="29"/>
     </row>
     <row r="345" spans="1:10" s="25" customFormat="1">
       <c r="A345" s="37"/>
       <c r="C345" s="26"/>
-      <c r="D345" s="26"/>
-      <c r="E345" s="29"/>
-      <c r="F345" s="32"/>
+      <c r="D345" s="27"/>
+      <c r="E345" s="28"/>
+      <c r="F345" s="29"/>
       <c r="G345" s="29"/>
       <c r="H345" s="29"/>
     </row>
     <row r="346" spans="1:10" s="25" customFormat="1">
-      <c r="A346" s="35"/>
-      <c r="B346" s="35"/>
+      <c r="A346" s="37"/>
       <c r="C346" s="26"/>
       <c r="D346" s="26"/>
       <c r="E346" s="29"/>
-      <c r="F346" s="32"/>
+      <c r="F346" s="28"/>
       <c r="G346" s="29"/>
       <c r="H346" s="29"/>
     </row>
     <row r="347" spans="1:10" s="25" customFormat="1">
-      <c r="A347" s="37"/>
       <c r="C347" s="26"/>
       <c r="D347" s="26"/>
       <c r="E347" s="29"/>
@@ -8255,9 +8244,10 @@
     </row>
     <row r="348" spans="1:10" s="25" customFormat="1">
       <c r="A348" s="42"/>
+      <c r="B348" s="35"/>
       <c r="C348" s="26"/>
-      <c r="D348" s="27"/>
-      <c r="E348" s="28"/>
+      <c r="D348" s="26"/>
+      <c r="E348" s="29"/>
       <c r="F348" s="28"/>
       <c r="G348" s="29"/>
       <c r="H348" s="29"/>
@@ -8265,96 +8255,99 @@
     <row r="349" spans="1:10" s="25" customFormat="1">
       <c r="A349" s="37"/>
       <c r="C349" s="26"/>
-      <c r="D349" s="27"/>
-      <c r="E349" s="28"/>
-      <c r="F349" s="29"/>
+      <c r="D349" s="26"/>
+      <c r="E349" s="29"/>
+      <c r="F349" s="28"/>
       <c r="G349" s="29"/>
       <c r="H349" s="29"/>
     </row>
     <row r="350" spans="1:10" s="25" customFormat="1">
       <c r="A350" s="37"/>
       <c r="C350" s="26"/>
-      <c r="D350" s="26"/>
-      <c r="E350" s="29"/>
-      <c r="F350" s="28"/>
+      <c r="D350" s="27"/>
+      <c r="E350" s="28"/>
+      <c r="F350" s="29"/>
       <c r="G350" s="29"/>
       <c r="H350" s="29"/>
     </row>
     <row r="351" spans="1:10" s="25" customFormat="1">
       <c r="C351" s="26"/>
-      <c r="D351" s="26"/>
-      <c r="E351" s="29"/>
+      <c r="D351" s="27"/>
+      <c r="E351" s="28"/>
       <c r="F351" s="28"/>
       <c r="G351" s="29"/>
       <c r="H351" s="29"/>
     </row>
-    <row r="352" spans="1:10" s="25" customFormat="1">
-      <c r="A352" s="42"/>
+    <row r="352" spans="1:10" s="41" customFormat="1">
+      <c r="A352" s="37"/>
       <c r="B352" s="35"/>
       <c r="C352" s="26"/>
       <c r="D352" s="26"/>
-      <c r="E352" s="29"/>
-      <c r="F352" s="28"/>
-      <c r="G352" s="29"/>
-      <c r="H352" s="29"/>
+      <c r="E352" s="28"/>
+      <c r="F352" s="39"/>
+      <c r="G352" s="40"/>
+      <c r="H352" s="40"/>
     </row>
     <row r="353" spans="1:10" s="25" customFormat="1">
       <c r="A353" s="37"/>
       <c r="C353" s="26"/>
       <c r="D353" s="26"/>
       <c r="E353" s="29"/>
-      <c r="F353" s="28"/>
+      <c r="F353" s="39"/>
       <c r="G353" s="29"/>
       <c r="H353" s="29"/>
     </row>
-    <row r="354" spans="1:10" s="25" customFormat="1">
+    <row r="354" spans="1:10" s="4" customFormat="1">
       <c r="A354" s="37"/>
+      <c r="B354" s="35"/>
       <c r="C354" s="26"/>
-      <c r="D354" s="27"/>
-      <c r="E354" s="28"/>
-      <c r="F354" s="29"/>
-      <c r="G354" s="29"/>
-      <c r="H354" s="29"/>
+      <c r="D354" s="26"/>
+      <c r="E354" s="29"/>
+      <c r="F354" s="28"/>
+      <c r="G354" s="1"/>
+      <c r="H354" s="6"/>
     </row>
     <row r="355" spans="1:10" s="25" customFormat="1">
+      <c r="A355" s="42"/>
+      <c r="B355" s="35"/>
       <c r="C355" s="26"/>
-      <c r="D355" s="27"/>
-      <c r="E355" s="28"/>
+      <c r="D355" s="26"/>
+      <c r="E355" s="29"/>
       <c r="F355" s="28"/>
       <c r="G355" s="29"/>
       <c r="H355" s="29"/>
     </row>
-    <row r="356" spans="1:10" s="41" customFormat="1">
-      <c r="A356" s="37"/>
-      <c r="B356" s="35"/>
+    <row r="356" spans="1:10" s="25" customFormat="1">
       <c r="C356" s="26"/>
       <c r="D356" s="26"/>
-      <c r="E356" s="28"/>
-      <c r="F356" s="39"/>
-      <c r="G356" s="40"/>
-      <c r="H356" s="40"/>
-    </row>
-    <row r="357" spans="1:10" s="25" customFormat="1">
-      <c r="A357" s="37"/>
+      <c r="E356" s="29"/>
+      <c r="F356" s="28"/>
+      <c r="G356" s="29"/>
+      <c r="H356" s="29"/>
+      <c r="J356" s="36"/>
+    </row>
+    <row r="357" spans="1:10" s="41" customFormat="1">
+      <c r="A357" s="42"/>
+      <c r="B357" s="35"/>
       <c r="C357" s="26"/>
       <c r="D357" s="26"/>
       <c r="E357" s="29"/>
-      <c r="F357" s="39"/>
-      <c r="G357" s="29"/>
-      <c r="H357" s="29"/>
-    </row>
-    <row r="358" spans="1:10" s="4" customFormat="1">
+      <c r="F357" s="28"/>
+      <c r="G357" s="40"/>
+      <c r="H357" s="40"/>
+    </row>
+    <row r="358" spans="1:10" s="25" customFormat="1">
       <c r="A358" s="37"/>
       <c r="B358" s="35"/>
       <c r="C358" s="26"/>
       <c r="D358" s="26"/>
       <c r="E358" s="29"/>
-      <c r="F358" s="28"/>
-      <c r="G358" s="1"/>
-      <c r="H358" s="6"/>
+      <c r="F358" s="39"/>
+      <c r="G358" s="29"/>
+      <c r="H358" s="29"/>
     </row>
     <row r="359" spans="1:10" s="25" customFormat="1">
-      <c r="A359" s="42"/>
+      <c r="A359" s="37"/>
       <c r="B359" s="35"/>
       <c r="C359" s="26"/>
       <c r="D359" s="26"/>
@@ -8367,48 +8360,45 @@
       <c r="C360" s="26"/>
       <c r="D360" s="26"/>
       <c r="E360" s="29"/>
-      <c r="F360" s="28"/>
+      <c r="F360" s="29"/>
       <c r="G360" s="29"/>
       <c r="H360" s="29"/>
-      <c r="J360" s="36"/>
-    </row>
-    <row r="361" spans="1:10" s="41" customFormat="1">
-      <c r="A361" s="42"/>
-      <c r="B361" s="35"/>
+    </row>
+    <row r="361" spans="1:10" s="25" customFormat="1">
       <c r="C361" s="26"/>
       <c r="D361" s="26"/>
       <c r="E361" s="29"/>
       <c r="F361" s="28"/>
-      <c r="G361" s="40"/>
-      <c r="H361" s="40"/>
+      <c r="G361" s="29"/>
+      <c r="H361" s="29"/>
     </row>
     <row r="362" spans="1:10" s="25" customFormat="1">
       <c r="A362" s="37"/>
-      <c r="B362" s="35"/>
       <c r="C362" s="26"/>
       <c r="D362" s="26"/>
       <c r="E362" s="29"/>
-      <c r="F362" s="39"/>
+      <c r="F362" s="28"/>
       <c r="G362" s="29"/>
       <c r="H362" s="29"/>
     </row>
-    <row r="363" spans="1:10" s="25" customFormat="1">
-      <c r="A363" s="37"/>
+    <row r="363" spans="1:10" s="4" customFormat="1">
+      <c r="A363" s="42"/>
       <c r="B363" s="35"/>
       <c r="C363" s="26"/>
       <c r="D363" s="26"/>
       <c r="E363" s="29"/>
-      <c r="F363" s="28"/>
-      <c r="G363" s="29"/>
-      <c r="H363" s="29"/>
-    </row>
-    <row r="364" spans="1:10" s="25" customFormat="1">
-      <c r="C364" s="26"/>
+      <c r="F363" s="39"/>
+      <c r="G363" s="1"/>
+      <c r="H363" s="6"/>
+    </row>
+    <row r="364" spans="1:10" s="41" customFormat="1">
+      <c r="A364" s="43"/>
+      <c r="C364" s="44"/>
       <c r="D364" s="26"/>
       <c r="E364" s="29"/>
-      <c r="F364" s="29"/>
-      <c r="G364" s="29"/>
-      <c r="H364" s="29"/>
+      <c r="F364" s="45"/>
+      <c r="G364" s="40"/>
+      <c r="H364" s="40"/>
     </row>
     <row r="365" spans="1:10" s="25" customFormat="1">
       <c r="C365" s="26"/>
@@ -8419,7 +8409,8 @@
       <c r="H365" s="29"/>
     </row>
     <row r="366" spans="1:10" s="25" customFormat="1">
-      <c r="A366" s="37"/>
+      <c r="A366" s="42"/>
+      <c r="B366" s="35"/>
       <c r="C366" s="26"/>
       <c r="D366" s="26"/>
       <c r="E366" s="29"/>
@@ -8427,56 +8418,53 @@
       <c r="G366" s="29"/>
       <c r="H366" s="29"/>
     </row>
-    <row r="367" spans="1:10" s="4" customFormat="1">
+    <row r="367" spans="1:10" s="25" customFormat="1">
       <c r="A367" s="42"/>
       <c r="B367" s="35"/>
       <c r="C367" s="26"/>
       <c r="D367" s="26"/>
       <c r="E367" s="29"/>
-      <c r="F367" s="39"/>
-      <c r="G367" s="1"/>
-      <c r="H367" s="6"/>
-    </row>
-    <row r="368" spans="1:10" s="41" customFormat="1">
-      <c r="A368" s="43"/>
-      <c r="C368" s="44"/>
+      <c r="F367" s="29"/>
+      <c r="G367" s="29"/>
+      <c r="H367" s="29"/>
+    </row>
+    <row r="368" spans="1:10" s="25" customFormat="1">
+      <c r="A368" s="42"/>
+      <c r="B368" s="35"/>
+      <c r="C368" s="26"/>
       <c r="D368" s="26"/>
       <c r="E368" s="29"/>
-      <c r="F368" s="45"/>
-      <c r="G368" s="40"/>
-      <c r="H368" s="40"/>
+      <c r="F368" s="28"/>
+      <c r="G368" s="29"/>
+      <c r="H368" s="29"/>
     </row>
     <row r="369" spans="1:8" s="25" customFormat="1">
+      <c r="A369" s="37"/>
       <c r="C369" s="26"/>
       <c r="D369" s="26"/>
       <c r="E369" s="29"/>
-      <c r="F369" s="28"/>
+      <c r="F369" s="39"/>
       <c r="G369" s="29"/>
       <c r="H369" s="29"/>
     </row>
     <row r="370" spans="1:8" s="25" customFormat="1">
-      <c r="A370" s="42"/>
-      <c r="B370" s="35"/>
       <c r="C370" s="26"/>
       <c r="D370" s="26"/>
       <c r="E370" s="29"/>
-      <c r="F370" s="28"/>
+      <c r="F370" s="29"/>
       <c r="G370" s="29"/>
       <c r="H370" s="29"/>
     </row>
     <row r="371" spans="1:8" s="25" customFormat="1">
-      <c r="A371" s="42"/>
-      <c r="B371" s="35"/>
       <c r="C371" s="26"/>
       <c r="D371" s="26"/>
       <c r="E371" s="29"/>
-      <c r="F371" s="29"/>
+      <c r="F371" s="28"/>
       <c r="G371" s="29"/>
       <c r="H371" s="29"/>
     </row>
     <row r="372" spans="1:8" s="25" customFormat="1">
-      <c r="A372" s="42"/>
-      <c r="B372" s="35"/>
+      <c r="A372" s="37"/>
       <c r="C372" s="26"/>
       <c r="D372" s="26"/>
       <c r="E372" s="29"/>
@@ -8484,43 +8472,47 @@
       <c r="G372" s="29"/>
       <c r="H372" s="29"/>
     </row>
-    <row r="373" spans="1:8" s="25" customFormat="1">
+    <row r="373" spans="1:8" s="25" customFormat="1" ht="14.75" customHeight="1">
       <c r="A373" s="37"/>
+      <c r="B373" s="35"/>
       <c r="C373" s="26"/>
       <c r="D373" s="26"/>
       <c r="E373" s="29"/>
-      <c r="F373" s="39"/>
+      <c r="F373" s="28"/>
       <c r="G373" s="29"/>
       <c r="H373" s="29"/>
     </row>
     <row r="374" spans="1:8" s="25" customFormat="1">
+      <c r="A374" s="37"/>
+      <c r="B374" s="35"/>
       <c r="C374" s="26"/>
       <c r="D374" s="26"/>
       <c r="E374" s="29"/>
-      <c r="F374" s="29"/>
+      <c r="F374" s="28"/>
       <c r="G374" s="29"/>
       <c r="H374" s="29"/>
     </row>
     <row r="375" spans="1:8" s="25" customFormat="1">
+      <c r="A375" s="42"/>
       <c r="C375" s="26"/>
       <c r="D375" s="26"/>
       <c r="E375" s="29"/>
-      <c r="F375" s="28"/>
+      <c r="F375" s="46"/>
       <c r="G375" s="29"/>
       <c r="H375" s="29"/>
     </row>
     <row r="376" spans="1:8" s="25" customFormat="1">
-      <c r="A376" s="37"/>
+      <c r="A376" s="42"/>
+      <c r="B376" s="35"/>
       <c r="C376" s="26"/>
       <c r="D376" s="26"/>
       <c r="E376" s="29"/>
-      <c r="F376" s="28"/>
+      <c r="F376" s="39"/>
       <c r="G376" s="29"/>
       <c r="H376" s="29"/>
     </row>
-    <row r="377" spans="1:8" s="25" customFormat="1" ht="14.75" customHeight="1">
+    <row r="377" spans="1:8" s="25" customFormat="1">
       <c r="A377" s="37"/>
-      <c r="B377" s="35"/>
       <c r="C377" s="26"/>
       <c r="D377" s="26"/>
       <c r="E377" s="29"/>
@@ -8529,36 +8521,36 @@
       <c r="H377" s="29"/>
     </row>
     <row r="378" spans="1:8" s="25" customFormat="1">
-      <c r="A378" s="37"/>
+      <c r="A378" s="42"/>
       <c r="B378" s="35"/>
       <c r="C378" s="26"/>
       <c r="D378" s="26"/>
       <c r="E378" s="29"/>
-      <c r="F378" s="28"/>
+      <c r="F378" s="39"/>
       <c r="G378" s="29"/>
       <c r="H378" s="29"/>
     </row>
-    <row r="379" spans="1:8" s="25" customFormat="1">
-      <c r="A379" s="42"/>
+    <row r="379" spans="1:8" s="4" customFormat="1">
+      <c r="A379" s="25"/>
+      <c r="B379" s="25"/>
       <c r="C379" s="26"/>
       <c r="D379" s="26"/>
       <c r="E379" s="29"/>
-      <c r="F379" s="46"/>
-      <c r="G379" s="29"/>
-      <c r="H379" s="29"/>
+      <c r="F379" s="28"/>
+      <c r="G379" s="1"/>
+      <c r="H379" s="6"/>
     </row>
     <row r="380" spans="1:8" s="25" customFormat="1">
-      <c r="A380" s="42"/>
-      <c r="B380" s="35"/>
       <c r="C380" s="26"/>
       <c r="D380" s="26"/>
       <c r="E380" s="29"/>
-      <c r="F380" s="39"/>
+      <c r="F380" s="28"/>
       <c r="G380" s="29"/>
       <c r="H380" s="29"/>
     </row>
     <row r="381" spans="1:8" s="25" customFormat="1">
-      <c r="A381" s="37"/>
+      <c r="A381" s="42"/>
+      <c r="B381" s="35"/>
       <c r="C381" s="26"/>
       <c r="D381" s="26"/>
       <c r="E381" s="29"/>
@@ -8568,97 +8560,95 @@
     </row>
     <row r="382" spans="1:8" s="25" customFormat="1">
       <c r="A382" s="42"/>
-      <c r="B382" s="35"/>
       <c r="C382" s="26"/>
       <c r="D382" s="26"/>
       <c r="E382" s="29"/>
-      <c r="F382" s="39"/>
+      <c r="F382" s="46"/>
       <c r="G382" s="29"/>
       <c r="H382" s="29"/>
     </row>
-    <row r="383" spans="1:8" s="4" customFormat="1">
-      <c r="A383" s="25"/>
-      <c r="B383" s="25"/>
+    <row r="383" spans="1:8" s="25" customFormat="1">
+      <c r="A383" s="37"/>
       <c r="C383" s="26"/>
       <c r="D383" s="26"/>
       <c r="E383" s="29"/>
-      <c r="F383" s="28"/>
-      <c r="G383" s="1"/>
-      <c r="H383" s="6"/>
-    </row>
-    <row r="384" spans="1:8" s="25" customFormat="1">
+      <c r="F383" s="46"/>
+      <c r="G383" s="29"/>
+      <c r="H383" s="29"/>
+    </row>
+    <row r="384" spans="1:8" s="4" customFormat="1">
+      <c r="A384" s="37"/>
+      <c r="B384" s="25"/>
       <c r="C384" s="26"/>
       <c r="D384" s="26"/>
       <c r="E384" s="29"/>
       <c r="F384" s="28"/>
-      <c r="G384" s="29"/>
-      <c r="H384" s="29"/>
-    </row>
-    <row r="385" spans="1:8" s="25" customFormat="1">
-      <c r="A385" s="42"/>
-      <c r="B385" s="35"/>
+      <c r="G384" s="1"/>
+      <c r="H384" s="6"/>
+    </row>
+    <row r="385" spans="1:8" s="4" customFormat="1">
+      <c r="A385" s="25"/>
+      <c r="B385" s="25"/>
       <c r="C385" s="26"/>
       <c r="D385" s="26"/>
       <c r="E385" s="29"/>
-      <c r="F385" s="28"/>
-      <c r="G385" s="29"/>
-      <c r="H385" s="29"/>
-    </row>
-    <row r="386" spans="1:8" s="25" customFormat="1">
-      <c r="A386" s="42"/>
+      <c r="F385" s="32"/>
+      <c r="G385" s="1"/>
+      <c r="H385" s="6"/>
+    </row>
+    <row r="386" spans="1:8" s="4" customFormat="1">
+      <c r="A386" s="37"/>
+      <c r="B386" s="25"/>
       <c r="C386" s="26"/>
       <c r="D386" s="26"/>
       <c r="E386" s="29"/>
-      <c r="F386" s="46"/>
-      <c r="G386" s="29"/>
-      <c r="H386" s="29"/>
+      <c r="F386" s="28"/>
+      <c r="G386" s="1"/>
+      <c r="H386" s="6"/>
     </row>
     <row r="387" spans="1:8" s="25" customFormat="1">
-      <c r="A387" s="37"/>
       <c r="C387" s="26"/>
       <c r="D387" s="26"/>
       <c r="E387" s="29"/>
-      <c r="F387" s="46"/>
+      <c r="F387" s="28"/>
       <c r="G387" s="29"/>
       <c r="H387" s="29"/>
     </row>
-    <row r="388" spans="1:8" s="4" customFormat="1">
-      <c r="A388" s="37"/>
-      <c r="B388" s="25"/>
+    <row r="388" spans="1:8" s="25" customFormat="1">
       <c r="C388" s="26"/>
       <c r="D388" s="26"/>
       <c r="E388" s="29"/>
       <c r="F388" s="28"/>
-      <c r="G388" s="1"/>
-      <c r="H388" s="6"/>
-    </row>
-    <row r="389" spans="1:8" s="4" customFormat="1">
-      <c r="A389" s="25"/>
-      <c r="B389" s="25"/>
+      <c r="G388" s="29"/>
+      <c r="H388" s="29"/>
+    </row>
+    <row r="389" spans="1:8" s="25" customFormat="1">
+      <c r="A389" s="42"/>
+      <c r="B389" s="35"/>
       <c r="C389" s="26"/>
       <c r="D389" s="26"/>
       <c r="E389" s="29"/>
-      <c r="F389" s="32"/>
-      <c r="G389" s="1"/>
-      <c r="H389" s="6"/>
-    </row>
-    <row r="390" spans="1:8" s="4" customFormat="1">
-      <c r="A390" s="37"/>
-      <c r="B390" s="25"/>
+      <c r="F389" s="28"/>
+      <c r="G389" s="29"/>
+      <c r="H389" s="29"/>
+    </row>
+    <row r="390" spans="1:8" s="25" customFormat="1">
       <c r="C390" s="26"/>
       <c r="D390" s="26"/>
       <c r="E390" s="29"/>
       <c r="F390" s="28"/>
-      <c r="G390" s="1"/>
-      <c r="H390" s="6"/>
-    </row>
-    <row r="391" spans="1:8" s="25" customFormat="1">
+      <c r="G390" s="29"/>
+      <c r="H390" s="29"/>
+    </row>
+    <row r="391" spans="1:8" s="4" customFormat="1">
+      <c r="A391" s="37"/>
+      <c r="B391" s="25"/>
       <c r="C391" s="26"/>
       <c r="D391" s="26"/>
       <c r="E391" s="29"/>
       <c r="F391" s="28"/>
-      <c r="G391" s="29"/>
-      <c r="H391" s="29"/>
+      <c r="G391" s="1"/>
+      <c r="H391" s="6"/>
     </row>
     <row r="392" spans="1:8" s="25" customFormat="1">
       <c r="C392" s="26"/>
@@ -8668,15 +8658,15 @@
       <c r="G392" s="29"/>
       <c r="H392" s="29"/>
     </row>
-    <row r="393" spans="1:8" s="25" customFormat="1">
-      <c r="A393" s="42"/>
-      <c r="B393" s="35"/>
+    <row r="393" spans="1:8" s="4" customFormat="1">
+      <c r="A393" s="25"/>
+      <c r="B393" s="25"/>
       <c r="C393" s="26"/>
       <c r="D393" s="26"/>
       <c r="E393" s="29"/>
       <c r="F393" s="28"/>
-      <c r="G393" s="29"/>
-      <c r="H393" s="29"/>
+      <c r="G393" s="1"/>
+      <c r="H393" s="6"/>
     </row>
     <row r="394" spans="1:8" s="25" customFormat="1">
       <c r="C394" s="26"/>
@@ -8686,33 +8676,34 @@
       <c r="G394" s="29"/>
       <c r="H394" s="29"/>
     </row>
-    <row r="395" spans="1:8" s="4" customFormat="1">
-      <c r="A395" s="37"/>
-      <c r="B395" s="25"/>
+    <row r="395" spans="1:8" s="25" customFormat="1">
+      <c r="A395" s="42"/>
+      <c r="B395" s="35"/>
       <c r="C395" s="26"/>
       <c r="D395" s="26"/>
       <c r="E395" s="29"/>
-      <c r="F395" s="28"/>
-      <c r="G395" s="1"/>
-      <c r="H395" s="6"/>
-    </row>
-    <row r="396" spans="1:8" s="25" customFormat="1">
+      <c r="F395" s="32"/>
+      <c r="G395" s="29"/>
+      <c r="H395" s="29"/>
+    </row>
+    <row r="396" spans="1:8" s="4" customFormat="1">
+      <c r="A396" s="37"/>
+      <c r="B396" s="25"/>
       <c r="C396" s="26"/>
       <c r="D396" s="26"/>
       <c r="E396" s="29"/>
       <c r="F396" s="28"/>
       <c r="G396" s="29"/>
-      <c r="H396" s="29"/>
-    </row>
-    <row r="397" spans="1:8" s="4" customFormat="1">
-      <c r="A397" s="25"/>
-      <c r="B397" s="25"/>
+      <c r="H396" s="6"/>
+    </row>
+    <row r="397" spans="1:8" s="25" customFormat="1">
+      <c r="A397" s="42"/>
       <c r="C397" s="26"/>
       <c r="D397" s="26"/>
       <c r="E397" s="29"/>
       <c r="F397" s="28"/>
-      <c r="G397" s="1"/>
-      <c r="H397" s="6"/>
+      <c r="G397" s="29"/>
+      <c r="H397" s="29"/>
     </row>
     <row r="398" spans="1:8" s="25" customFormat="1">
       <c r="C398" s="26"/>
@@ -8723,27 +8714,25 @@
       <c r="H398" s="29"/>
     </row>
     <row r="399" spans="1:8" s="25" customFormat="1">
-      <c r="A399" s="42"/>
-      <c r="B399" s="35"/>
+      <c r="A399" s="37"/>
       <c r="C399" s="26"/>
       <c r="D399" s="26"/>
       <c r="E399" s="29"/>
-      <c r="F399" s="32"/>
+      <c r="F399" s="28"/>
       <c r="G399" s="29"/>
       <c r="H399" s="29"/>
     </row>
-    <row r="400" spans="1:8" s="4" customFormat="1">
-      <c r="A400" s="37"/>
-      <c r="B400" s="25"/>
+    <row r="400" spans="1:8" s="25" customFormat="1">
       <c r="C400" s="26"/>
       <c r="D400" s="26"/>
       <c r="E400" s="29"/>
       <c r="F400" s="28"/>
       <c r="G400" s="29"/>
-      <c r="H400" s="6"/>
+      <c r="H400" s="29"/>
     </row>
     <row r="401" spans="1:10" s="25" customFormat="1">
       <c r="A401" s="42"/>
+      <c r="B401" s="35"/>
       <c r="C401" s="26"/>
       <c r="D401" s="26"/>
       <c r="E401" s="29"/>
@@ -8760,11 +8749,10 @@
       <c r="H402" s="29"/>
     </row>
     <row r="403" spans="1:10" s="25" customFormat="1">
-      <c r="A403" s="37"/>
       <c r="C403" s="26"/>
       <c r="D403" s="26"/>
       <c r="E403" s="29"/>
-      <c r="F403" s="28"/>
+      <c r="F403" s="32"/>
       <c r="G403" s="29"/>
       <c r="H403" s="29"/>
     </row>
@@ -8777,7 +8765,7 @@
       <c r="H404" s="29"/>
     </row>
     <row r="405" spans="1:10" s="25" customFormat="1">
-      <c r="A405" s="42"/>
+      <c r="A405" s="37"/>
       <c r="B405" s="35"/>
       <c r="C405" s="26"/>
       <c r="D405" s="26"/>
@@ -8787,18 +8775,20 @@
       <c r="H405" s="29"/>
     </row>
     <row r="406" spans="1:10" s="25" customFormat="1">
+      <c r="A406" s="37"/>
       <c r="C406" s="26"/>
       <c r="D406" s="26"/>
       <c r="E406" s="29"/>
-      <c r="F406" s="28"/>
+      <c r="F406" s="39"/>
       <c r="G406" s="29"/>
       <c r="H406" s="29"/>
     </row>
     <row r="407" spans="1:10" s="25" customFormat="1">
+      <c r="A407" s="37"/>
       <c r="C407" s="26"/>
       <c r="D407" s="26"/>
       <c r="E407" s="29"/>
-      <c r="F407" s="32"/>
+      <c r="F407" s="28"/>
       <c r="G407" s="29"/>
       <c r="H407" s="29"/>
     </row>
@@ -8806,13 +8796,11 @@
       <c r="C408" s="26"/>
       <c r="D408" s="26"/>
       <c r="E408" s="29"/>
-      <c r="F408" s="28"/>
+      <c r="F408" s="39"/>
       <c r="G408" s="29"/>
       <c r="H408" s="29"/>
     </row>
     <row r="409" spans="1:10" s="25" customFormat="1">
-      <c r="A409" s="37"/>
-      <c r="B409" s="35"/>
       <c r="C409" s="26"/>
       <c r="D409" s="26"/>
       <c r="E409" s="29"/>
@@ -8820,66 +8808,32 @@
       <c r="G409" s="29"/>
       <c r="H409" s="29"/>
     </row>
-    <row r="410" spans="1:10" s="25" customFormat="1">
+    <row r="410" spans="1:10" s="4" customFormat="1">
       <c r="A410" s="37"/>
+      <c r="B410" s="25"/>
       <c r="C410" s="26"/>
       <c r="D410" s="26"/>
       <c r="E410" s="29"/>
-      <c r="F410" s="39"/>
-      <c r="G410" s="29"/>
-      <c r="H410" s="29"/>
+      <c r="F410" s="29"/>
+      <c r="G410" s="1"/>
+      <c r="H410" s="6"/>
     </row>
     <row r="411" spans="1:10" s="25" customFormat="1">
-      <c r="A411" s="37"/>
       <c r="C411" s="26"/>
       <c r="D411" s="26"/>
       <c r="E411" s="29"/>
       <c r="F411" s="28"/>
       <c r="G411" s="29"/>
       <c r="H411" s="29"/>
+      <c r="J411" s="38"/>
     </row>
     <row r="412" spans="1:10" s="25" customFormat="1">
       <c r="C412" s="26"/>
       <c r="D412" s="26"/>
       <c r="E412" s="29"/>
-      <c r="F412" s="39"/>
+      <c r="F412" s="28"/>
       <c r="G412" s="29"/>
       <c r="H412" s="29"/>
-    </row>
-    <row r="413" spans="1:10" s="25" customFormat="1">
-      <c r="C413" s="26"/>
-      <c r="D413" s="26"/>
-      <c r="E413" s="29"/>
-      <c r="F413" s="28"/>
-      <c r="G413" s="29"/>
-      <c r="H413" s="29"/>
-    </row>
-    <row r="414" spans="1:10" s="4" customFormat="1">
-      <c r="A414" s="37"/>
-      <c r="B414" s="25"/>
-      <c r="C414" s="26"/>
-      <c r="D414" s="26"/>
-      <c r="E414" s="29"/>
-      <c r="F414" s="29"/>
-      <c r="G414" s="1"/>
-      <c r="H414" s="6"/>
-    </row>
-    <row r="415" spans="1:10" s="25" customFormat="1">
-      <c r="C415" s="26"/>
-      <c r="D415" s="26"/>
-      <c r="E415" s="29"/>
-      <c r="F415" s="28"/>
-      <c r="G415" s="29"/>
-      <c r="H415" s="29"/>
-      <c r="J415" s="38"/>
-    </row>
-    <row r="416" spans="1:10" s="25" customFormat="1">
-      <c r="C416" s="26"/>
-      <c r="D416" s="26"/>
-      <c r="E416" s="29"/>
-      <c r="F416" s="28"/>
-      <c r="G416" s="29"/>
-      <c r="H416" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8895,16 +8849,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J278"/>
+  <dimension ref="A1:J282"/>
   <sheetViews>
-    <sheetView topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B281" sqref="B281"/>
+    <sheetView tabSelected="1" topLeftCell="A275" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B275" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="89" customWidth="1"/>
     <col min="3" max="4" width="15.33203125" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
     <col min="7" max="7" width="27.33203125" customWidth="1"/>
@@ -8914,7 +8868,7 @@
       <c r="A1" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="85" t="s">
         <v>293</v>
       </c>
       <c r="C1" s="26">
@@ -8937,7 +8891,7 @@
       <c r="A2" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="85" t="s">
         <v>293</v>
       </c>
       <c r="C2" s="26">
@@ -8960,7 +8914,7 @@
       <c r="A3" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="85" t="s">
         <v>296</v>
       </c>
       <c r="C3" s="26">
@@ -8983,7 +8937,7 @@
       <c r="A4" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="85" t="s">
         <v>293</v>
       </c>
       <c r="C4" s="26">
@@ -9006,7 +8960,7 @@
       <c r="A5" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="85" t="s">
         <v>299</v>
       </c>
       <c r="C5" s="26">
@@ -9029,7 +8983,7 @@
       <c r="A6" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="85" t="s">
         <v>301</v>
       </c>
       <c r="C6" s="26">
@@ -9052,7 +9006,7 @@
       <c r="A7" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="85" t="s">
         <v>303</v>
       </c>
       <c r="C7" s="26">
@@ -9075,7 +9029,7 @@
       <c r="A8" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="85" t="s">
         <v>305</v>
       </c>
       <c r="C8" s="26">
@@ -9098,7 +9052,7 @@
       <c r="A9" s="47" t="s">
         <v>306</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="85" t="s">
         <v>307</v>
       </c>
       <c r="C9" s="26">
@@ -9121,7 +9075,7 @@
       <c r="A10" s="47" t="s">
         <v>308</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="85" t="s">
         <v>293</v>
       </c>
       <c r="C10" s="26">
@@ -9144,7 +9098,7 @@
       <c r="A11" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="85" t="s">
         <v>310</v>
       </c>
       <c r="C11" s="26">
@@ -9167,7 +9121,7 @@
       <c r="A12" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="85" t="s">
         <v>312</v>
       </c>
       <c r="C12" s="26">
@@ -9190,7 +9144,7 @@
       <c r="A13" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="85" t="s">
         <v>314</v>
       </c>
       <c r="C13" s="26">
@@ -9213,7 +9167,7 @@
       <c r="A14" s="47" t="s">
         <v>315</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="85" t="s">
         <v>316</v>
       </c>
       <c r="C14" s="26">
@@ -9236,7 +9190,7 @@
       <c r="A15" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="85" t="s">
         <v>318</v>
       </c>
       <c r="C15" s="26">
@@ -9259,7 +9213,7 @@
       <c r="A16" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="85" t="s">
         <v>320</v>
       </c>
       <c r="C16" s="26">
@@ -9282,7 +9236,7 @@
       <c r="A17" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="85" t="s">
         <v>322</v>
       </c>
       <c r="C17" s="26">
@@ -9305,7 +9259,7 @@
       <c r="A18" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="85" t="s">
         <v>324</v>
       </c>
       <c r="C18" s="26">
@@ -9328,7 +9282,7 @@
       <c r="A19" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="85" t="s">
         <v>326</v>
       </c>
       <c r="C19" s="26">
@@ -9351,7 +9305,7 @@
       <c r="A20" s="47" t="s">
         <v>327</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="85" t="s">
         <v>293</v>
       </c>
       <c r="C20" s="26">
@@ -9374,7 +9328,7 @@
       <c r="A21" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="85" t="s">
         <v>329</v>
       </c>
       <c r="C21" s="26">
@@ -9397,7 +9351,7 @@
       <c r="A22" s="47" t="s">
         <v>330</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="85" t="s">
         <v>331</v>
       </c>
       <c r="C22" s="26">
@@ -9420,7 +9374,7 @@
       <c r="A23" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="85" t="s">
         <v>333</v>
       </c>
       <c r="C23" s="26">
@@ -9443,7 +9397,7 @@
       <c r="A24" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="85" t="s">
         <v>335</v>
       </c>
       <c r="C24" s="26">
@@ -9466,7 +9420,7 @@
       <c r="A25" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="85" t="s">
         <v>337</v>
       </c>
       <c r="C25" s="26">
@@ -9489,7 +9443,7 @@
       <c r="A26" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="85" t="s">
         <v>338</v>
       </c>
       <c r="C26" s="26">
@@ -9512,7 +9466,7 @@
       <c r="A27" s="47" t="s">
         <v>339</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="85" t="s">
         <v>340</v>
       </c>
       <c r="C27" s="26">
@@ -9537,7 +9491,7 @@
       <c r="A28" s="47" t="s">
         <v>341</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="85" t="s">
         <v>342</v>
       </c>
       <c r="C28" s="26">
@@ -9560,7 +9514,7 @@
       <c r="A29" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="85" t="s">
         <v>344</v>
       </c>
       <c r="C29" s="26">
@@ -9583,7 +9537,7 @@
       <c r="A30" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="85" t="s">
         <v>346</v>
       </c>
       <c r="C30" s="26">
@@ -9606,7 +9560,7 @@
       <c r="A31" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="85" t="s">
         <v>348</v>
       </c>
       <c r="C31" s="26">
@@ -9629,7 +9583,7 @@
       <c r="A32" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="85" t="s">
         <v>350</v>
       </c>
       <c r="C32" s="26">
@@ -9652,7 +9606,7 @@
       <c r="A33" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="85" t="s">
         <v>352</v>
       </c>
       <c r="C33" s="26">
@@ -9675,7 +9629,7 @@
       <c r="A34" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="85" t="s">
         <v>354</v>
       </c>
       <c r="C34" s="26">
@@ -9698,7 +9652,7 @@
       <c r="A35" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="85" t="s">
         <v>356</v>
       </c>
       <c r="C35" s="26">
@@ -9721,7 +9675,7 @@
       <c r="A36" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="85" t="s">
         <v>358</v>
       </c>
       <c r="C36" s="26">
@@ -9744,7 +9698,7 @@
       <c r="A37" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="85" t="s">
         <v>360</v>
       </c>
       <c r="C37" s="26">
@@ -9767,7 +9721,7 @@
       <c r="A38" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="85" t="s">
         <v>318</v>
       </c>
       <c r="C38" s="26">
@@ -9792,7 +9746,7 @@
       <c r="A39" s="47" t="s">
         <v>361</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="85" t="s">
         <v>362</v>
       </c>
       <c r="C39" s="26">
@@ -9815,7 +9769,7 @@
       <c r="A40" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="85" t="s">
         <v>364</v>
       </c>
       <c r="C40" s="26">
@@ -9840,7 +9794,7 @@
       <c r="A41" s="47" t="s">
         <v>366</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="85" t="s">
         <v>367</v>
       </c>
       <c r="C41" s="26">
@@ -9863,7 +9817,7 @@
       <c r="A42" s="47" t="s">
         <v>368</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="85" t="s">
         <v>369</v>
       </c>
       <c r="C42" s="26">
@@ -9886,7 +9840,7 @@
       <c r="A43" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="85" t="s">
         <v>344</v>
       </c>
       <c r="C43" s="26">
@@ -9915,7 +9869,7 @@
       <c r="A44" s="47" t="s">
         <v>371</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="85" t="s">
         <v>372</v>
       </c>
       <c r="C44" s="26">
@@ -9940,7 +9894,7 @@
       <c r="A45" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="85" t="s">
         <v>374</v>
       </c>
       <c r="C45" s="26">
@@ -9963,7 +9917,7 @@
       <c r="A46" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="85" t="s">
         <v>376</v>
       </c>
       <c r="C46" s="26">
@@ -9988,7 +9942,7 @@
       <c r="A47" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="85" t="s">
         <v>377</v>
       </c>
       <c r="C47" s="26">
@@ -10013,7 +9967,7 @@
       <c r="A48" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="85" t="s">
         <v>380</v>
       </c>
       <c r="C48" s="26">
@@ -10038,7 +9992,7 @@
       <c r="A49" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="85" t="s">
         <v>383</v>
       </c>
       <c r="C49" s="26">
@@ -10063,7 +10017,7 @@
       <c r="A50" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="85" t="s">
         <v>385</v>
       </c>
       <c r="C50" s="26">
@@ -10088,7 +10042,7 @@
       <c r="A51" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="85" t="s">
         <v>388</v>
       </c>
       <c r="C51" s="26">
@@ -10113,7 +10067,7 @@
       <c r="A52" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="85" t="s">
         <v>390</v>
       </c>
       <c r="C52" s="26">
@@ -10138,7 +10092,7 @@
       <c r="A53" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="86" t="s">
         <v>303</v>
       </c>
       <c r="C53" s="26">
@@ -10163,7 +10117,7 @@
       <c r="A54" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="85" t="s">
         <v>392</v>
       </c>
       <c r="C54" s="26">
@@ -10188,7 +10142,7 @@
       <c r="A55" s="35" t="s">
         <v>393</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="85" t="s">
         <v>394</v>
       </c>
       <c r="C55" s="26">
@@ -10215,7 +10169,7 @@
       <c r="A56" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="85" t="s">
         <v>396</v>
       </c>
       <c r="C56" s="26">
@@ -10240,7 +10194,7 @@
       <c r="A57" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="85" t="s">
         <v>398</v>
       </c>
       <c r="C57" s="26">
@@ -10265,7 +10219,7 @@
       <c r="A58" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="85" t="s">
         <v>400</v>
       </c>
       <c r="C58" s="26">
@@ -10292,7 +10246,7 @@
       <c r="A59" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="85" t="s">
         <v>380</v>
       </c>
       <c r="C59" s="26">
@@ -10319,7 +10273,7 @@
       <c r="A60" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="85" t="s">
         <v>404</v>
       </c>
       <c r="C60" s="26">
@@ -10344,7 +10298,7 @@
       <c r="A61" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="86" t="s">
         <v>407</v>
       </c>
       <c r="C61" s="26">
@@ -10369,7 +10323,7 @@
       <c r="A62" s="37" t="s">
         <v>408</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="85" t="s">
         <v>409</v>
       </c>
       <c r="C62" s="26">
@@ -10394,7 +10348,7 @@
       <c r="A63" s="47" t="s">
         <v>410</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="85" t="s">
         <v>411</v>
       </c>
       <c r="C63" s="26">
@@ -10417,7 +10371,7 @@
       <c r="A64" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="85" t="s">
         <v>412</v>
       </c>
       <c r="C64" s="26">
@@ -10444,7 +10398,7 @@
       <c r="A65" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="85" t="s">
         <v>416</v>
       </c>
       <c r="C65" s="26">
@@ -10471,7 +10425,7 @@
       <c r="A66" s="25" t="s">
         <v>417</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="85" t="s">
         <v>418</v>
       </c>
       <c r="C66" s="26">
@@ -10498,7 +10452,7 @@
       <c r="A67" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="85" t="s">
         <v>420</v>
       </c>
       <c r="C67" s="26">
@@ -10521,7 +10475,7 @@
       <c r="A68" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="85" t="s">
         <v>107</v>
       </c>
       <c r="C68" s="26">
@@ -10552,7 +10506,7 @@
       <c r="A69" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="85" t="s">
         <v>425</v>
       </c>
       <c r="C69" s="26">
@@ -10579,7 +10533,7 @@
       <c r="A70" s="47" t="s">
         <v>339</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="85" t="s">
         <v>340</v>
       </c>
       <c r="C70" s="26">
@@ -10608,7 +10562,7 @@
       <c r="A71" s="47" t="s">
         <v>429</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="85" t="s">
         <v>430</v>
       </c>
       <c r="C71" s="26">
@@ -10635,7 +10589,7 @@
       <c r="A72" s="25" t="s">
         <v>432</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="85" t="s">
         <v>433</v>
       </c>
       <c r="C72" s="26">
@@ -10660,7 +10614,7 @@
       <c r="A73" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="85" t="s">
         <v>310</v>
       </c>
       <c r="C73" s="26">
@@ -10687,7 +10641,7 @@
       <c r="A74" s="47" t="s">
         <v>435</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="85" t="s">
         <v>436</v>
       </c>
       <c r="C74" s="26">
@@ -10710,7 +10664,7 @@
       <c r="A75" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="B75" s="25" t="s">
+      <c r="B75" s="85" t="s">
         <v>438</v>
       </c>
       <c r="C75" s="26">
@@ -10735,7 +10689,7 @@
       <c r="A76" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="B76" s="35" t="s">
+      <c r="B76" s="86" t="s">
         <v>440</v>
       </c>
       <c r="C76" s="26">
@@ -10762,7 +10716,7 @@
       <c r="A77" s="47" t="s">
         <v>442</v>
       </c>
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="85" t="s">
         <v>443</v>
       </c>
       <c r="C77" s="26">
@@ -10787,7 +10741,7 @@
       <c r="A78" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="85" t="s">
         <v>446</v>
       </c>
       <c r="C78" s="26">
@@ -10816,7 +10770,7 @@
       <c r="A79" s="47" t="s">
         <v>448</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="85" t="s">
         <v>449</v>
       </c>
       <c r="C79" s="26">
@@ -10843,7 +10797,7 @@
       <c r="A80" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="B80" s="25" t="s">
+      <c r="B80" s="85" t="s">
         <v>378</v>
       </c>
       <c r="C80" s="26">
@@ -10870,7 +10824,7 @@
       <c r="A81" s="37" t="s">
         <v>452</v>
       </c>
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="85" t="s">
         <v>453</v>
       </c>
       <c r="C81" s="26">
@@ -10897,7 +10851,7 @@
       <c r="A82" s="47" t="s">
         <v>454</v>
       </c>
-      <c r="B82" s="25" t="s">
+      <c r="B82" s="85" t="s">
         <v>455</v>
       </c>
       <c r="C82" s="26">
@@ -10922,7 +10876,7 @@
       <c r="A83" s="25" t="s">
         <v>457</v>
       </c>
-      <c r="B83" s="25" t="s">
+      <c r="B83" s="85" t="s">
         <v>458</v>
       </c>
       <c r="C83" s="26">
@@ -10947,7 +10901,7 @@
       <c r="A84" s="25" t="s">
         <v>459</v>
       </c>
-      <c r="B84" s="25" t="s">
+      <c r="B84" s="85" t="s">
         <v>459</v>
       </c>
       <c r="C84" s="26">
@@ -10972,7 +10926,7 @@
       <c r="A85" s="37" t="s">
         <v>461</v>
       </c>
-      <c r="B85" s="25" t="s">
+      <c r="B85" s="85" t="s">
         <v>462</v>
       </c>
       <c r="C85" s="26">
@@ -10997,7 +10951,7 @@
       <c r="A86" s="47" t="s">
         <v>463</v>
       </c>
-      <c r="B86" s="25" t="s">
+      <c r="B86" s="85" t="s">
         <v>464</v>
       </c>
       <c r="C86" s="26">
@@ -11022,7 +10976,7 @@
       <c r="A87" s="37" t="s">
         <v>465</v>
       </c>
-      <c r="B87" s="25" t="s">
+      <c r="B87" s="85" t="s">
         <v>466</v>
       </c>
       <c r="C87" s="26">
@@ -11047,7 +11001,7 @@
       <c r="A88" s="47" t="s">
         <v>467</v>
       </c>
-      <c r="B88" s="25" t="s">
+      <c r="B88" s="85" t="s">
         <v>468</v>
       </c>
       <c r="C88" s="26">
@@ -11072,7 +11026,7 @@
       <c r="A89" s="47" t="s">
         <v>469</v>
       </c>
-      <c r="B89" s="25" t="s">
+      <c r="B89" s="85" t="s">
         <v>470</v>
       </c>
       <c r="C89" s="26">
@@ -11101,7 +11055,7 @@
       <c r="A90" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="B90" s="25" t="s">
+      <c r="B90" s="85" t="s">
         <v>473</v>
       </c>
       <c r="C90" s="26">
@@ -11126,7 +11080,7 @@
       <c r="A91" s="47" t="s">
         <v>474</v>
       </c>
-      <c r="B91" s="25" t="s">
+      <c r="B91" s="85" t="s">
         <v>475</v>
       </c>
       <c r="C91" s="26">
@@ -11153,7 +11107,7 @@
       <c r="A92" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="B92" s="25" t="s">
+      <c r="B92" s="85" t="s">
         <v>477</v>
       </c>
       <c r="C92" s="26">
@@ -11178,7 +11132,7 @@
       <c r="A93" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="B93" s="25" t="s">
+      <c r="B93" s="85" t="s">
         <v>479</v>
       </c>
       <c r="C93" s="26">
@@ -11207,7 +11161,7 @@
       <c r="A94" s="47" t="s">
         <v>480</v>
       </c>
-      <c r="B94" s="25" t="s">
+      <c r="B94" s="85" t="s">
         <v>481</v>
       </c>
       <c r="C94" s="26">
@@ -11232,7 +11186,7 @@
       <c r="A95" s="47" t="s">
         <v>483</v>
       </c>
-      <c r="B95" s="25" t="s">
+      <c r="B95" s="85" t="s">
         <v>484</v>
       </c>
       <c r="C95" s="26">
@@ -11257,7 +11211,7 @@
       <c r="A96" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="B96" s="25" t="s">
+      <c r="B96" s="85" t="s">
         <v>486</v>
       </c>
       <c r="C96" s="26">
@@ -11282,7 +11236,7 @@
       <c r="A97" s="25" t="s">
         <v>487</v>
       </c>
-      <c r="B97" s="25" t="s">
+      <c r="B97" s="85" t="s">
         <v>488</v>
       </c>
       <c r="C97" s="26">
@@ -11309,7 +11263,7 @@
       <c r="A98" s="37" t="s">
         <v>490</v>
       </c>
-      <c r="B98" s="25" t="s">
+      <c r="B98" s="85" t="s">
         <v>491</v>
       </c>
       <c r="C98" s="26">
@@ -11334,7 +11288,7 @@
       <c r="A99" s="47" t="s">
         <v>401</v>
       </c>
-      <c r="B99" s="25" t="s">
+      <c r="B99" s="85" t="s">
         <v>492</v>
       </c>
       <c r="C99" s="26">
@@ -11363,7 +11317,7 @@
       <c r="A100" s="25" t="s">
         <v>495</v>
       </c>
-      <c r="B100" s="25" t="s">
+      <c r="B100" s="85" t="s">
         <v>496</v>
       </c>
       <c r="C100" s="26">
@@ -11388,7 +11342,7 @@
       <c r="A101" s="47" t="s">
         <v>497</v>
       </c>
-      <c r="B101" s="25" t="s">
+      <c r="B101" s="85" t="s">
         <v>498</v>
       </c>
       <c r="C101" s="26">
@@ -11413,7 +11367,7 @@
       <c r="A102" s="25" t="s">
         <v>499</v>
       </c>
-      <c r="B102" s="25" t="s">
+      <c r="B102" s="85" t="s">
         <v>500</v>
       </c>
       <c r="C102" s="26">
@@ -11438,7 +11392,7 @@
       <c r="A103" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="B103" s="25" t="s">
+      <c r="B103" s="85" t="s">
         <v>503</v>
       </c>
       <c r="C103" s="26">
@@ -11463,7 +11417,7 @@
       <c r="A104" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="B104" s="25" t="s">
+      <c r="B104" s="85" t="s">
         <v>504</v>
       </c>
       <c r="C104" s="26">
@@ -11488,7 +11442,7 @@
       <c r="A105" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B105" s="25" t="s">
+      <c r="B105" s="85" t="s">
         <v>82</v>
       </c>
       <c r="C105" s="26">
@@ -11513,7 +11467,7 @@
       <c r="A106" s="25" t="s">
         <v>505</v>
       </c>
-      <c r="B106" s="25" t="s">
+      <c r="B106" s="85" t="s">
         <v>506</v>
       </c>
       <c r="C106" s="26">
@@ -11538,7 +11492,7 @@
       <c r="A107" s="25" t="s">
         <v>507</v>
       </c>
-      <c r="B107" s="25" t="s">
+      <c r="B107" s="85" t="s">
         <v>508</v>
       </c>
       <c r="C107" s="26">
@@ -11567,7 +11521,7 @@
       <c r="A108" s="25" t="s">
         <v>509</v>
       </c>
-      <c r="B108" s="25" t="s">
+      <c r="B108" s="85" t="s">
         <v>510</v>
       </c>
       <c r="C108" s="26">
@@ -11592,7 +11546,7 @@
       <c r="A109" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="B109" s="25" t="s">
+      <c r="B109" s="85" t="s">
         <v>102</v>
       </c>
       <c r="C109" s="26">
@@ -11619,7 +11573,7 @@
       <c r="A110" s="25" t="s">
         <v>512</v>
       </c>
-      <c r="B110" s="25" t="s">
+      <c r="B110" s="85" t="s">
         <v>513</v>
       </c>
       <c r="C110" s="26">
@@ -11646,7 +11600,7 @@
       <c r="A111" s="47" t="s">
         <v>514</v>
       </c>
-      <c r="B111" s="35" t="s">
+      <c r="B111" s="86" t="s">
         <v>515</v>
       </c>
       <c r="C111" s="26">
@@ -11675,7 +11629,7 @@
       <c r="A112" s="25" t="s">
         <v>517</v>
       </c>
-      <c r="B112" s="25" t="s">
+      <c r="B112" s="85" t="s">
         <v>518</v>
       </c>
       <c r="C112" s="26">
@@ -11700,7 +11654,7 @@
       <c r="A113" s="47" t="s">
         <v>519</v>
       </c>
-      <c r="B113" s="25" t="s">
+      <c r="B113" s="85" t="s">
         <v>520</v>
       </c>
       <c r="C113" s="26">
@@ -11727,7 +11681,7 @@
       <c r="A114" s="25" t="s">
         <v>521</v>
       </c>
-      <c r="B114" s="25" t="s">
+      <c r="B114" s="85" t="s">
         <v>522</v>
       </c>
       <c r="C114" s="26">
@@ -11756,7 +11710,7 @@
       <c r="A115" s="37" t="s">
         <v>523</v>
       </c>
-      <c r="B115" s="25" t="s">
+      <c r="B115" s="85" t="s">
         <v>524</v>
       </c>
       <c r="C115" s="26">
@@ -11785,7 +11739,7 @@
       <c r="A116" s="37" t="s">
         <v>525</v>
       </c>
-      <c r="B116" s="25" t="s">
+      <c r="B116" s="85" t="s">
         <v>526</v>
       </c>
       <c r="C116" s="26">
@@ -11810,7 +11764,7 @@
       <c r="A117" s="47" t="s">
         <v>527</v>
       </c>
-      <c r="B117" s="25" t="s">
+      <c r="B117" s="85" t="s">
         <v>528</v>
       </c>
       <c r="C117" s="26">
@@ -11835,7 +11789,7 @@
       <c r="A118" s="25" t="s">
         <v>529</v>
       </c>
-      <c r="B118" s="25" t="s">
+      <c r="B118" s="85" t="s">
         <v>530</v>
       </c>
       <c r="C118" s="26">
@@ -11862,7 +11816,7 @@
       <c r="A119" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="B119" s="25" t="s">
+      <c r="B119" s="85" t="s">
         <v>153</v>
       </c>
       <c r="C119" s="26">
@@ -11891,7 +11845,7 @@
       <c r="A120" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="B120" s="25" t="s">
+      <c r="B120" s="85" t="s">
         <v>237</v>
       </c>
       <c r="C120" s="26">
@@ -11918,7 +11872,7 @@
       <c r="A121" s="37" t="s">
         <v>482</v>
       </c>
-      <c r="B121" s="25" t="s">
+      <c r="B121" s="85" t="s">
         <v>533</v>
       </c>
       <c r="C121" s="26">
@@ -11945,7 +11899,7 @@
       <c r="A122" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B122" s="25" t="s">
+      <c r="B122" s="85" t="s">
         <v>534</v>
       </c>
       <c r="C122" s="26">
@@ -11972,7 +11926,7 @@
       <c r="A123" s="47" t="s">
         <v>497</v>
       </c>
-      <c r="B123" s="25" t="s">
+      <c r="B123" s="85" t="s">
         <v>498</v>
       </c>
       <c r="C123" s="26">
@@ -11999,7 +11953,7 @@
       <c r="A124" s="37" t="s">
         <v>535</v>
       </c>
-      <c r="B124" s="25" t="s">
+      <c r="B124" s="85" t="s">
         <v>536</v>
       </c>
       <c r="C124" s="26">
@@ -12024,7 +11978,7 @@
       <c r="A125" s="25" t="s">
         <v>537</v>
       </c>
-      <c r="B125" s="25" t="s">
+      <c r="B125" s="85" t="s">
         <v>538</v>
       </c>
       <c r="C125" s="26">
@@ -12049,7 +12003,7 @@
       <c r="A126" s="37" t="s">
         <v>539</v>
       </c>
-      <c r="B126" s="25" t="s">
+      <c r="B126" s="85" t="s">
         <v>540</v>
       </c>
       <c r="C126" s="26">
@@ -12074,7 +12028,7 @@
       <c r="A127" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="B127" s="25" t="s">
+      <c r="B127" s="85" t="s">
         <v>134</v>
       </c>
       <c r="C127" s="26">
@@ -12099,7 +12053,7 @@
       <c r="A128" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B128" s="25" t="s">
+      <c r="B128" s="85" t="s">
         <v>105</v>
       </c>
       <c r="C128" s="26">
@@ -12124,7 +12078,7 @@
       <c r="A129" s="25" t="s">
         <v>541</v>
       </c>
-      <c r="B129" s="25" t="s">
+      <c r="B129" s="85" t="s">
         <v>542</v>
       </c>
       <c r="C129" s="26">
@@ -12151,7 +12105,7 @@
       <c r="A130" s="37" t="s">
         <v>544</v>
       </c>
-      <c r="B130" s="25" t="s">
+      <c r="B130" s="85" t="s">
         <v>545</v>
       </c>
       <c r="C130" s="26">
@@ -12178,7 +12132,7 @@
       <c r="A131" s="37" t="s">
         <v>546</v>
       </c>
-      <c r="B131" s="25" t="s">
+      <c r="B131" s="85" t="s">
         <v>547</v>
       </c>
       <c r="C131" s="26">
@@ -12203,7 +12157,7 @@
       <c r="A132" s="37" t="s">
         <v>548</v>
       </c>
-      <c r="B132" s="35">
+      <c r="B132" s="86">
         <v>1373757850</v>
       </c>
       <c r="C132" s="26">
@@ -12230,7 +12184,7 @@
       <c r="A133" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="B133" s="25" t="s">
+      <c r="B133" s="85" t="s">
         <v>551</v>
       </c>
       <c r="C133" s="26">
@@ -12255,7 +12209,7 @@
       <c r="A134" s="47" t="s">
         <v>552</v>
       </c>
-      <c r="B134" s="25" t="s">
+      <c r="B134" s="85" t="s">
         <v>553</v>
       </c>
       <c r="C134" s="26">
@@ -12282,7 +12236,7 @@
       <c r="A135" s="25" t="s">
         <v>555</v>
       </c>
-      <c r="B135" s="25" t="s">
+      <c r="B135" s="85" t="s">
         <v>555</v>
       </c>
       <c r="C135" s="26">
@@ -12307,7 +12261,7 @@
       <c r="A136" s="25" t="s">
         <v>556</v>
       </c>
-      <c r="B136" s="25" t="s">
+      <c r="B136" s="85" t="s">
         <v>557</v>
       </c>
       <c r="C136" s="26">
@@ -12334,7 +12288,7 @@
       <c r="A137" s="37" t="s">
         <v>558</v>
       </c>
-      <c r="B137" s="25" t="s">
+      <c r="B137" s="85" t="s">
         <v>559</v>
       </c>
       <c r="C137" s="26">
@@ -12359,7 +12313,7 @@
       <c r="A138" s="25" t="s">
         <v>560</v>
       </c>
-      <c r="B138" s="25" t="s">
+      <c r="B138" s="85" t="s">
         <v>561</v>
       </c>
       <c r="C138" s="26">
@@ -12384,7 +12338,7 @@
       <c r="A139" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="B139" s="25" t="s">
+      <c r="B139" s="85" t="s">
         <v>344</v>
       </c>
       <c r="C139" s="26">
@@ -12409,7 +12363,7 @@
       <c r="A140" s="25" t="s">
         <v>562</v>
       </c>
-      <c r="B140" s="25" t="s">
+      <c r="B140" s="85" t="s">
         <v>563</v>
       </c>
       <c r="C140" s="26">
@@ -12436,7 +12390,7 @@
       <c r="A141" s="37" t="s">
         <v>565</v>
       </c>
-      <c r="B141" s="25" t="s">
+      <c r="B141" s="85" t="s">
         <v>566</v>
       </c>
       <c r="C141" s="26">
@@ -12461,7 +12415,7 @@
       <c r="A142" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="B142" s="25" t="s">
+      <c r="B142" s="85" t="s">
         <v>291</v>
       </c>
       <c r="C142" s="26">
@@ -12486,7 +12440,7 @@
       <c r="A143" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B143" s="25" t="s">
+      <c r="B143" s="85" t="s">
         <v>568</v>
       </c>
       <c r="C143" s="26">
@@ -12513,7 +12467,7 @@
       <c r="A144" s="47" t="s">
         <v>552</v>
       </c>
-      <c r="B144" s="25" t="s">
+      <c r="B144" s="85" t="s">
         <v>553</v>
       </c>
       <c r="C144" s="26">
@@ -12538,7 +12492,7 @@
       <c r="A145" s="25" t="s">
         <v>570</v>
       </c>
-      <c r="B145" s="25" t="s">
+      <c r="B145" s="85" t="s">
         <v>571</v>
       </c>
       <c r="C145" s="26">
@@ -12563,7 +12517,7 @@
       <c r="A146" s="37" t="s">
         <v>572</v>
       </c>
-      <c r="B146" s="25" t="s">
+      <c r="B146" s="85" t="s">
         <v>573</v>
       </c>
       <c r="C146" s="26">
@@ -12588,7 +12542,7 @@
       <c r="A147" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="B147" s="25" t="s">
+      <c r="B147" s="85" t="s">
         <v>575</v>
       </c>
       <c r="C147" s="26">
@@ -12613,7 +12567,7 @@
       <c r="A148" s="37" t="s">
         <v>576</v>
       </c>
-      <c r="B148" s="25" t="s">
+      <c r="B148" s="85" t="s">
         <v>577</v>
       </c>
       <c r="C148" s="26">
@@ -12638,7 +12592,7 @@
       <c r="A149" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="B149" s="25" t="s">
+      <c r="B149" s="85" t="s">
         <v>378</v>
       </c>
       <c r="C149" s="26">
@@ -12667,7 +12621,7 @@
       <c r="A150" s="37" t="s">
         <v>578</v>
       </c>
-      <c r="B150" s="25" t="s">
+      <c r="B150" s="85" t="s">
         <v>579</v>
       </c>
       <c r="C150" s="26">
@@ -12692,7 +12646,7 @@
       <c r="A151" s="25" t="s">
         <v>580</v>
       </c>
-      <c r="B151" s="25" t="s">
+      <c r="B151" s="85" t="s">
         <v>581</v>
       </c>
       <c r="C151" s="26">
@@ -12717,7 +12671,7 @@
       <c r="A152" s="47" t="s">
         <v>463</v>
       </c>
-      <c r="B152" s="25" t="s">
+      <c r="B152" s="85" t="s">
         <v>464</v>
       </c>
       <c r="C152" s="26">
@@ -12746,7 +12700,7 @@
       <c r="A153" s="47" t="s">
         <v>582</v>
       </c>
-      <c r="B153" s="25" t="s">
+      <c r="B153" s="85" t="s">
         <v>583</v>
       </c>
       <c r="C153" s="26">
@@ -12773,7 +12727,7 @@
       <c r="A154" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="B154" s="25" t="s">
+      <c r="B154" s="85" t="s">
         <v>585</v>
       </c>
       <c r="C154" s="26">
@@ -12800,7 +12754,7 @@
       <c r="A155" s="25" t="s">
         <v>586</v>
       </c>
-      <c r="B155" s="25" t="s">
+      <c r="B155" s="85" t="s">
         <v>587</v>
       </c>
       <c r="C155" s="26">
@@ -12825,7 +12779,7 @@
       <c r="A156" s="25" t="s">
         <v>588</v>
       </c>
-      <c r="B156" s="25" t="s">
+      <c r="B156" s="85" t="s">
         <v>588</v>
       </c>
       <c r="C156" s="26">
@@ -12850,7 +12804,7 @@
       <c r="A157" s="47" t="s">
         <v>589</v>
       </c>
-      <c r="B157" s="25" t="s">
+      <c r="B157" s="85" t="s">
         <v>590</v>
       </c>
       <c r="C157" s="26">
@@ -12875,7 +12829,7 @@
       <c r="A158" s="25" t="s">
         <v>591</v>
       </c>
-      <c r="B158" s="25" t="s">
+      <c r="B158" s="85" t="s">
         <v>592</v>
       </c>
       <c r="C158" s="26">
@@ -12904,7 +12858,7 @@
       <c r="A159" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="B159" s="35" t="s">
+      <c r="B159" s="86" t="s">
         <v>407</v>
       </c>
       <c r="C159" s="26">
@@ -12929,7 +12883,7 @@
       <c r="A160" s="37" t="s">
         <v>594</v>
       </c>
-      <c r="B160" s="25" t="s">
+      <c r="B160" s="85" t="s">
         <v>595</v>
       </c>
       <c r="C160" s="26">
@@ -12954,7 +12908,7 @@
       <c r="A161" s="37" t="s">
         <v>596</v>
       </c>
-      <c r="B161" s="25" t="s">
+      <c r="B161" s="85" t="s">
         <v>597</v>
       </c>
       <c r="C161" s="26">
@@ -12979,7 +12933,7 @@
       <c r="A162" s="37" t="s">
         <v>599</v>
       </c>
-      <c r="B162" s="25" t="s">
+      <c r="B162" s="85" t="s">
         <v>600</v>
       </c>
       <c r="C162" s="26">
@@ -13004,7 +12958,7 @@
       <c r="A163" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B163" s="25" t="s">
+      <c r="B163" s="85" t="s">
         <v>418</v>
       </c>
       <c r="C163" s="26">
@@ -13031,7 +12985,7 @@
       <c r="A164" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="B164" s="25" t="s">
+      <c r="B164" s="85" t="s">
         <v>191</v>
       </c>
       <c r="C164" s="26">
@@ -13056,7 +13010,7 @@
       <c r="A165" s="47" t="s">
         <v>401</v>
       </c>
-      <c r="B165" s="25" t="s">
+      <c r="B165" s="85" t="s">
         <v>492</v>
       </c>
       <c r="C165" s="26">
@@ -13083,7 +13037,7 @@
       <c r="A166" s="47" t="s">
         <v>602</v>
       </c>
-      <c r="B166" s="25" t="s">
+      <c r="B166" s="85" t="s">
         <v>307</v>
       </c>
       <c r="C166" s="26">
@@ -13110,7 +13064,7 @@
       <c r="A167" s="37" t="s">
         <v>604</v>
       </c>
-      <c r="B167" s="25" t="s">
+      <c r="B167" s="85" t="s">
         <v>605</v>
       </c>
       <c r="C167" s="26">
@@ -13135,7 +13089,7 @@
       <c r="A168" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="B168" s="25" t="s">
+      <c r="B168" s="85" t="s">
         <v>606</v>
       </c>
       <c r="C168" s="26">
@@ -13160,7 +13114,7 @@
       <c r="A169" s="42" t="s">
         <v>607</v>
       </c>
-      <c r="B169" s="42" t="s">
+      <c r="B169" s="87" t="s">
         <v>608</v>
       </c>
       <c r="C169" s="26">
@@ -13185,7 +13139,7 @@
       <c r="A170" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="B170" s="25" t="s">
+      <c r="B170" s="85" t="s">
         <v>416</v>
       </c>
       <c r="C170" s="26">
@@ -13212,7 +13166,7 @@
       <c r="A171" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="B171" s="25" t="s">
+      <c r="B171" s="85" t="s">
         <v>611</v>
       </c>
       <c r="C171" s="26">
@@ -13235,7 +13189,7 @@
       <c r="A172" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="B172" s="25" t="s">
+      <c r="B172" s="85" t="s">
         <v>261</v>
       </c>
       <c r="C172" s="26">
@@ -13260,7 +13214,7 @@
       <c r="A173" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="B173" s="25" t="s">
+      <c r="B173" s="85" t="s">
         <v>612</v>
       </c>
       <c r="C173" s="26">
@@ -13289,7 +13243,7 @@
       <c r="A174" s="25" t="s">
         <v>615</v>
       </c>
-      <c r="B174" s="25" t="s">
+      <c r="B174" s="85" t="s">
         <v>616</v>
       </c>
       <c r="C174" s="26">
@@ -13316,7 +13270,7 @@
       <c r="A175" s="25" t="s">
         <v>460</v>
       </c>
-      <c r="B175" s="25" t="s">
+      <c r="B175" s="85" t="s">
         <v>460</v>
       </c>
       <c r="C175" s="26">
@@ -13341,7 +13295,7 @@
       <c r="A176" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="B176" s="25" t="s">
+      <c r="B176" s="85" t="s">
         <v>271</v>
       </c>
       <c r="C176" s="26">
@@ -13368,7 +13322,7 @@
       <c r="A177" s="25" t="s">
         <v>617</v>
       </c>
-      <c r="B177" s="25" t="s">
+      <c r="B177" s="85" t="s">
         <v>618</v>
       </c>
       <c r="C177" s="26">
@@ -13393,7 +13347,7 @@
       <c r="A178" s="25" t="s">
         <v>619</v>
       </c>
-      <c r="B178" s="25" t="s">
+      <c r="B178" s="85" t="s">
         <v>620</v>
       </c>
       <c r="C178" s="26">
@@ -13422,7 +13376,7 @@
       <c r="A179" s="37" t="s">
         <v>621</v>
       </c>
-      <c r="B179" s="25" t="s">
+      <c r="B179" s="85" t="s">
         <v>622</v>
       </c>
       <c r="C179" s="26">
@@ -13449,7 +13403,7 @@
       <c r="A180" s="42" t="s">
         <v>623</v>
       </c>
-      <c r="B180" s="25" t="s">
+      <c r="B180" s="85" t="s">
         <v>624</v>
       </c>
       <c r="C180" s="26">
@@ -13474,7 +13428,7 @@
       <c r="A181" s="37" t="s">
         <v>625</v>
       </c>
-      <c r="B181" s="25" t="s">
+      <c r="B181" s="85" t="s">
         <v>626</v>
       </c>
       <c r="C181" s="26">
@@ -13503,7 +13457,7 @@
       <c r="A182" s="37" t="s">
         <v>548</v>
       </c>
-      <c r="B182" s="35">
+      <c r="B182" s="86">
         <v>1373757850</v>
       </c>
       <c r="C182" s="26">
@@ -13530,7 +13484,7 @@
       <c r="A183" s="25" t="s">
         <v>628</v>
       </c>
-      <c r="B183" s="25" t="s">
+      <c r="B183" s="85" t="s">
         <v>629</v>
       </c>
       <c r="C183" s="26">
@@ -13555,7 +13509,7 @@
       <c r="A184" s="25" t="s">
         <v>630</v>
       </c>
-      <c r="B184" s="25" t="s">
+      <c r="B184" s="85" t="s">
         <v>631</v>
       </c>
       <c r="C184" s="26">
@@ -13580,7 +13534,7 @@
       <c r="A185" s="25" t="s">
         <v>632</v>
       </c>
-      <c r="B185" s="25" t="s">
+      <c r="B185" s="85" t="s">
         <v>633</v>
       </c>
       <c r="C185" s="26">
@@ -13605,7 +13559,7 @@
       <c r="A186" s="37" t="s">
         <v>634</v>
       </c>
-      <c r="B186" s="25" t="s">
+      <c r="B186" s="85" t="s">
         <v>635</v>
       </c>
       <c r="C186" s="26">
@@ -13630,7 +13584,7 @@
       <c r="A187" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="B187" s="25" t="s">
+      <c r="B187" s="85" t="s">
         <v>251</v>
       </c>
       <c r="C187" s="26">
@@ -13655,7 +13609,7 @@
       <c r="A188" s="25" t="s">
         <v>505</v>
       </c>
-      <c r="B188" s="25" t="s">
+      <c r="B188" s="85" t="s">
         <v>506</v>
       </c>
       <c r="C188" s="26">
@@ -13680,7 +13634,7 @@
       <c r="A189" s="37" t="s">
         <v>636</v>
       </c>
-      <c r="B189" s="25" t="s">
+      <c r="B189" s="85" t="s">
         <v>637</v>
       </c>
       <c r="C189" s="26">
@@ -13709,7 +13663,7 @@
       <c r="A190" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="B190" s="25" t="s">
+      <c r="B190" s="85" t="s">
         <v>638</v>
       </c>
       <c r="C190" s="26">
@@ -13734,7 +13688,7 @@
       <c r="A191" s="25" t="s">
         <v>639</v>
       </c>
-      <c r="B191" s="25" t="s">
+      <c r="B191" s="85" t="s">
         <v>640</v>
       </c>
       <c r="C191" s="26">
@@ -13761,7 +13715,7 @@
       <c r="A192" s="25" t="s">
         <v>641</v>
       </c>
-      <c r="B192" s="25" t="s">
+      <c r="B192" s="85" t="s">
         <v>642</v>
       </c>
       <c r="C192" s="26">
@@ -13788,7 +13742,7 @@
       <c r="A193" s="37" t="s">
         <v>644</v>
       </c>
-      <c r="B193" s="25" t="s">
+      <c r="B193" s="85" t="s">
         <v>645</v>
       </c>
       <c r="C193" s="26">
@@ -13813,7 +13767,7 @@
       <c r="A194" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B194" s="25" t="s">
+      <c r="B194" s="85" t="s">
         <v>195</v>
       </c>
       <c r="C194" s="26">
@@ -13842,7 +13796,7 @@
       <c r="A195" s="37" t="s">
         <v>648</v>
       </c>
-      <c r="B195" s="25" t="s">
+      <c r="B195" s="85" t="s">
         <v>649</v>
       </c>
       <c r="C195" s="26">
@@ -13867,7 +13821,7 @@
       <c r="A196" s="42" t="s">
         <v>650</v>
       </c>
-      <c r="B196" s="25" t="s">
+      <c r="B196" s="85" t="s">
         <v>651</v>
       </c>
       <c r="C196" s="26">
@@ -13892,7 +13846,7 @@
       <c r="A197" s="42" t="s">
         <v>652</v>
       </c>
-      <c r="B197" s="25" t="s">
+      <c r="B197" s="85" t="s">
         <v>653</v>
       </c>
       <c r="C197" s="26">
@@ -13917,7 +13871,7 @@
       <c r="A198" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="B198" s="25" t="s">
+      <c r="B198" s="85" t="s">
         <v>655</v>
       </c>
       <c r="C198" s="26">
@@ -13942,7 +13896,7 @@
       <c r="A199" s="37" t="s">
         <v>656</v>
       </c>
-      <c r="B199" s="25" t="s">
+      <c r="B199" s="85" t="s">
         <v>657</v>
       </c>
       <c r="C199" s="26">
@@ -13967,7 +13921,7 @@
       <c r="A200" s="42" t="s">
         <v>658</v>
       </c>
-      <c r="B200" s="35" t="s">
+      <c r="B200" s="86" t="s">
         <v>659</v>
       </c>
       <c r="C200" s="26">
@@ -13994,7 +13948,7 @@
       <c r="A201" s="42" t="s">
         <v>662</v>
       </c>
-      <c r="B201" s="25" t="s">
+      <c r="B201" s="85" t="s">
         <v>663</v>
       </c>
       <c r="C201" s="26">
@@ -14021,7 +13975,7 @@
       <c r="A202" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="B202" s="35" t="s">
+      <c r="B202" s="86" t="s">
         <v>278</v>
       </c>
       <c r="C202" s="26">
@@ -14046,7 +14000,7 @@
       <c r="A203" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="B203" s="25" t="s">
+      <c r="B203" s="85" t="s">
         <v>664</v>
       </c>
       <c r="C203" s="26">
@@ -14073,7 +14027,7 @@
       <c r="A204" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="B204" s="25" t="s">
+      <c r="B204" s="85" t="s">
         <v>69</v>
       </c>
       <c r="C204" s="26">
@@ -14098,7 +14052,7 @@
       <c r="A205" s="37" t="s">
         <v>666</v>
       </c>
-      <c r="B205" s="25" t="s">
+      <c r="B205" s="85" t="s">
         <v>667</v>
       </c>
       <c r="C205" s="26">
@@ -14123,7 +14077,7 @@
       <c r="A206" s="35" t="s">
         <v>668</v>
       </c>
-      <c r="B206" s="35" t="s">
+      <c r="B206" s="86" t="s">
         <v>668</v>
       </c>
       <c r="C206" s="26">
@@ -14148,7 +14102,7 @@
       <c r="A207" s="37" t="s">
         <v>670</v>
       </c>
-      <c r="B207" s="25" t="s">
+      <c r="B207" s="85" t="s">
         <v>671</v>
       </c>
       <c r="C207" s="26">
@@ -14173,7 +14127,7 @@
       <c r="A208" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="B208" s="25" t="s">
+      <c r="B208" s="85" t="s">
         <v>672</v>
       </c>
       <c r="C208" s="26">
@@ -14198,7 +14152,7 @@
       <c r="A209" s="37" t="s">
         <v>669</v>
       </c>
-      <c r="B209" s="25" t="s">
+      <c r="B209" s="85" t="s">
         <v>673</v>
       </c>
       <c r="C209" s="26">
@@ -14223,7 +14177,7 @@
       <c r="A210" s="37" t="s">
         <v>674</v>
       </c>
-      <c r="B210" s="25" t="s">
+      <c r="B210" s="85" t="s">
         <v>675</v>
       </c>
       <c r="C210" s="26">
@@ -14250,7 +14204,7 @@
       <c r="A211" s="25" t="s">
         <v>660</v>
       </c>
-      <c r="B211" s="25" t="s">
+      <c r="B211" s="85" t="s">
         <v>677</v>
       </c>
       <c r="C211" s="26">
@@ -14277,7 +14231,7 @@
       <c r="A212" s="42" t="s">
         <v>679</v>
       </c>
-      <c r="B212" s="35" t="s">
+      <c r="B212" s="86" t="s">
         <v>680</v>
       </c>
       <c r="C212" s="26">
@@ -14304,7 +14258,7 @@
       <c r="A213" s="37" t="s">
         <v>682</v>
       </c>
-      <c r="B213" s="25" t="s">
+      <c r="B213" s="85" t="s">
         <v>683</v>
       </c>
       <c r="C213" s="26">
@@ -14329,7 +14283,7 @@
       <c r="A214" s="37" t="s">
         <v>684</v>
       </c>
-      <c r="B214" s="25" t="s">
+      <c r="B214" s="85" t="s">
         <v>685</v>
       </c>
       <c r="C214" s="26">
@@ -14354,7 +14308,7 @@
       <c r="A215" s="25" t="s">
         <v>686</v>
       </c>
-      <c r="B215" s="25" t="s">
+      <c r="B215" s="85" t="s">
         <v>687</v>
       </c>
       <c r="C215" s="26">
@@ -14379,7 +14333,7 @@
       <c r="A216" s="37" t="s">
         <v>688</v>
       </c>
-      <c r="B216" s="35" t="s">
+      <c r="B216" s="86" t="s">
         <v>689</v>
       </c>
       <c r="C216" s="26">
@@ -14408,7 +14362,7 @@
       <c r="A217" s="37" t="s">
         <v>692</v>
       </c>
-      <c r="B217" s="25" t="s">
+      <c r="B217" s="85" t="s">
         <v>693</v>
       </c>
       <c r="C217" s="26">
@@ -14435,7 +14389,7 @@
       <c r="A218" s="37" t="s">
         <v>694</v>
       </c>
-      <c r="B218" s="35" t="s">
+      <c r="B218" s="86" t="s">
         <v>695</v>
       </c>
       <c r="C218" s="26">
@@ -14460,7 +14414,7 @@
       <c r="A219" s="42" t="s">
         <v>696</v>
       </c>
-      <c r="B219" s="35" t="s">
+      <c r="B219" s="86" t="s">
         <v>697</v>
       </c>
       <c r="C219" s="26">
@@ -14487,7 +14441,7 @@
       <c r="A220" s="47" t="s">
         <v>699</v>
       </c>
-      <c r="B220" s="25" t="s">
+      <c r="B220" s="85" t="s">
         <v>700</v>
       </c>
       <c r="C220" s="26">
@@ -14516,7 +14470,7 @@
       <c r="A221" s="42" t="s">
         <v>703</v>
       </c>
-      <c r="B221" s="35" t="s">
+      <c r="B221" s="86" t="s">
         <v>704</v>
       </c>
       <c r="C221" s="26">
@@ -14541,7 +14495,7 @@
       <c r="A222" s="37" t="s">
         <v>705</v>
       </c>
-      <c r="B222" s="35" t="s">
+      <c r="B222" s="86" t="s">
         <v>706</v>
       </c>
       <c r="C222" s="26">
@@ -14566,7 +14520,7 @@
       <c r="A223" s="37" t="s">
         <v>707</v>
       </c>
-      <c r="B223" s="35" t="s">
+      <c r="B223" s="86" t="s">
         <v>708</v>
       </c>
       <c r="C223" s="26">
@@ -14591,7 +14545,7 @@
       <c r="A224" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="B224" s="25" t="s">
+      <c r="B224" s="85" t="s">
         <v>260</v>
       </c>
       <c r="C224" s="26">
@@ -14618,7 +14572,7 @@
       <c r="A225" s="47" t="s">
         <v>501</v>
       </c>
-      <c r="B225" s="25" t="s">
+      <c r="B225" s="85" t="s">
         <v>709</v>
       </c>
       <c r="C225" s="26">
@@ -14645,7 +14599,7 @@
       <c r="A226" s="37" t="s">
         <v>711</v>
       </c>
-      <c r="B226" s="25" t="s">
+      <c r="B226" s="85" t="s">
         <v>712</v>
       </c>
       <c r="C226" s="26">
@@ -14670,7 +14624,7 @@
       <c r="A227" s="42" t="s">
         <v>713</v>
       </c>
-      <c r="B227" s="35" t="s">
+      <c r="B227" s="86" t="s">
         <v>714</v>
       </c>
       <c r="C227" s="26">
@@ -14695,7 +14649,7 @@
       <c r="A228" s="43" t="s">
         <v>715</v>
       </c>
-      <c r="B228" s="41" t="s">
+      <c r="B228" s="88" t="s">
         <v>716</v>
       </c>
       <c r="C228" s="44">
@@ -14720,7 +14674,7 @@
       <c r="A229" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B229" s="25" t="s">
+      <c r="B229" s="85" t="s">
         <v>717</v>
       </c>
       <c r="C229" s="26">
@@ -14745,7 +14699,7 @@
       <c r="A230" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="B230" s="35" t="s">
+      <c r="B230" s="86" t="s">
         <v>278</v>
       </c>
       <c r="C230" s="26">
@@ -14770,7 +14724,7 @@
       <c r="A231" s="42" t="s">
         <v>718</v>
       </c>
-      <c r="B231" s="35" t="s">
+      <c r="B231" s="86" t="s">
         <v>719</v>
       </c>
       <c r="C231" s="26">
@@ -14797,7 +14751,7 @@
       <c r="A232" s="42" t="s">
         <v>721</v>
       </c>
-      <c r="B232" s="35" t="s">
+      <c r="B232" s="86" t="s">
         <v>722</v>
       </c>
       <c r="C232" s="26">
@@ -14822,7 +14776,7 @@
       <c r="A233" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="B233" s="25" t="s">
+      <c r="B233" s="85" t="s">
         <v>723</v>
       </c>
       <c r="C233" s="26">
@@ -14847,7 +14801,7 @@
       <c r="A234" s="25" t="s">
         <v>724</v>
       </c>
-      <c r="B234" s="25" t="s">
+      <c r="B234" s="85" t="s">
         <v>725</v>
       </c>
       <c r="C234" s="26">
@@ -14874,7 +14828,7 @@
       <c r="A235" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B235" s="25" t="s">
+      <c r="B235" s="85" t="s">
         <v>727</v>
       </c>
       <c r="C235" s="26">
@@ -14901,7 +14855,7 @@
       <c r="A236" s="37" t="s">
         <v>728</v>
       </c>
-      <c r="B236" s="25" t="s">
+      <c r="B236" s="85" t="s">
         <v>729</v>
       </c>
       <c r="C236" s="26">
@@ -14926,7 +14880,7 @@
       <c r="A237" s="37" t="s">
         <v>730</v>
       </c>
-      <c r="B237" s="35" t="s">
+      <c r="B237" s="86" t="s">
         <v>731</v>
       </c>
       <c r="C237" s="26">
@@ -14951,7 +14905,7 @@
       <c r="A238" s="37" t="s">
         <v>732</v>
       </c>
-      <c r="B238" s="35" t="s">
+      <c r="B238" s="86" t="s">
         <v>733</v>
       </c>
       <c r="C238" s="26">
@@ -14976,7 +14930,7 @@
       <c r="A239" s="42" t="s">
         <v>734</v>
       </c>
-      <c r="B239" s="25" t="s">
+      <c r="B239" s="85" t="s">
         <v>735</v>
       </c>
       <c r="C239" s="26">
@@ -15001,7 +14955,7 @@
       <c r="A240" s="42" t="s">
         <v>737</v>
       </c>
-      <c r="B240" s="35" t="s">
+      <c r="B240" s="86" t="s">
         <v>738</v>
       </c>
       <c r="C240" s="26">
@@ -15028,7 +14982,7 @@
       <c r="A241" s="37" t="s">
         <v>739</v>
       </c>
-      <c r="B241" s="25" t="s">
+      <c r="B241" s="85" t="s">
         <v>740</v>
       </c>
       <c r="C241" s="26">
@@ -15055,7 +15009,7 @@
       <c r="A242" s="42" t="s">
         <v>741</v>
       </c>
-      <c r="B242" s="35" t="s">
+      <c r="B242" s="86" t="s">
         <v>742</v>
       </c>
       <c r="C242" s="26">
@@ -15080,7 +15034,7 @@
       <c r="A243" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="B243" s="25" t="s">
+      <c r="B243" s="85" t="s">
         <v>284</v>
       </c>
       <c r="C243" s="26">
@@ -15105,7 +15059,7 @@
       <c r="A244" s="47" t="s">
         <v>744</v>
       </c>
-      <c r="B244" s="25" t="s">
+      <c r="B244" s="85" t="s">
         <v>745</v>
       </c>
       <c r="C244" s="26">
@@ -15134,7 +15088,7 @@
       <c r="A245" s="42" t="s">
         <v>746</v>
       </c>
-      <c r="B245" s="35" t="s">
+      <c r="B245" s="86" t="s">
         <v>747</v>
       </c>
       <c r="C245" s="26">
@@ -15159,7 +15113,7 @@
       <c r="A246" s="42" t="s">
         <v>748</v>
       </c>
-      <c r="B246" s="25" t="s">
+      <c r="B246" s="85" t="s">
         <v>749</v>
       </c>
       <c r="C246" s="26">
@@ -15184,7 +15138,7 @@
       <c r="A247" s="37" t="s">
         <v>751</v>
       </c>
-      <c r="B247" s="25" t="s">
+      <c r="B247" s="85" t="s">
         <v>752</v>
       </c>
       <c r="C247" s="26">
@@ -15209,7 +15163,7 @@
       <c r="A248" s="37" t="s">
         <v>743</v>
       </c>
-      <c r="B248" s="25" t="s">
+      <c r="B248" s="85" t="s">
         <v>753</v>
       </c>
       <c r="C248" s="26">
@@ -15234,7 +15188,7 @@
       <c r="A249" s="25" t="s">
         <v>754</v>
       </c>
-      <c r="B249" s="25" t="s">
+      <c r="B249" s="85" t="s">
         <v>755</v>
       </c>
       <c r="C249" s="26">
@@ -15259,7 +15213,7 @@
       <c r="A250" s="37" t="s">
         <v>604</v>
       </c>
-      <c r="B250" s="25" t="s">
+      <c r="B250" s="85" t="s">
         <v>605</v>
       </c>
       <c r="C250" s="26">
@@ -15284,7 +15238,7 @@
       <c r="A251" s="25" t="s">
         <v>756</v>
       </c>
-      <c r="B251" s="25" t="s">
+      <c r="B251" s="85" t="s">
         <v>757</v>
       </c>
       <c r="C251" s="26">
@@ -15309,7 +15263,7 @@
       <c r="A252" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="B252" s="25" t="s">
+      <c r="B252" s="85" t="s">
         <v>291</v>
       </c>
       <c r="C252" s="26">
@@ -15336,7 +15290,7 @@
       <c r="A253" s="42" t="s">
         <v>758</v>
       </c>
-      <c r="B253" s="35" t="s">
+      <c r="B253" s="86" t="s">
         <v>759</v>
       </c>
       <c r="C253" s="26">
@@ -15361,7 +15315,7 @@
       <c r="A254" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="B254" s="25" t="s">
+      <c r="B254" s="85" t="s">
         <v>736</v>
       </c>
       <c r="C254" s="26">
@@ -15386,7 +15340,7 @@
       <c r="A255" s="37" t="s">
         <v>761</v>
       </c>
-      <c r="B255" s="25" t="s">
+      <c r="B255" s="85" t="s">
         <v>762</v>
       </c>
       <c r="C255" s="26">
@@ -15411,7 +15365,7 @@
       <c r="A256" s="47" t="s">
         <v>763</v>
       </c>
-      <c r="B256" s="25" t="s">
+      <c r="B256" s="85" t="s">
         <v>450</v>
       </c>
       <c r="C256" s="26">
@@ -15438,7 +15392,7 @@
       <c r="A257" s="47" t="s">
         <v>598</v>
       </c>
-      <c r="B257" s="25" t="s">
+      <c r="B257" s="85" t="s">
         <v>764</v>
       </c>
       <c r="C257" s="26">
@@ -15448,7 +15402,7 @@
         <v>43790</v>
       </c>
       <c r="E257" s="29">
-        <f t="shared" ref="E257:E278" si="4">D257-C257</f>
+        <f t="shared" ref="E257:E282" si="4">D257-C257</f>
         <v>246</v>
       </c>
       <c r="F257" s="28" t="s">
@@ -15463,7 +15417,7 @@
       <c r="A258" s="25" t="s">
         <v>760</v>
       </c>
-      <c r="B258" s="25" t="s">
+      <c r="B258" s="85" t="s">
         <v>765</v>
       </c>
       <c r="C258" s="26">
@@ -15490,7 +15444,7 @@
       <c r="A259" s="42" t="s">
         <v>766</v>
       </c>
-      <c r="B259" s="35" t="s">
+      <c r="B259" s="86" t="s">
         <v>767</v>
       </c>
       <c r="C259" s="26">
@@ -15517,7 +15471,7 @@
       <c r="A260" s="37" t="s">
         <v>646</v>
       </c>
-      <c r="B260" s="25" t="s">
+      <c r="B260" s="85" t="s">
         <v>768</v>
       </c>
       <c r="C260" s="26">
@@ -15544,7 +15498,7 @@
       <c r="A261" s="42" t="s">
         <v>769</v>
       </c>
-      <c r="B261" s="25" t="s">
+      <c r="B261" s="85" t="s">
         <v>770</v>
       </c>
       <c r="C261" s="26">
@@ -15569,7 +15523,7 @@
       <c r="A262" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="B262" s="25" t="s">
+      <c r="B262" s="85" t="s">
         <v>771</v>
       </c>
       <c r="C262" s="26">
@@ -15594,7 +15548,7 @@
       <c r="A263" s="37" t="s">
         <v>772</v>
       </c>
-      <c r="B263" s="25" t="s">
+      <c r="B263" s="85" t="s">
         <v>773</v>
       </c>
       <c r="C263" s="26">
@@ -15619,7 +15573,7 @@
       <c r="A264" s="25" t="s">
         <v>586</v>
       </c>
-      <c r="B264" s="25" t="s">
+      <c r="B264" s="85" t="s">
         <v>774</v>
       </c>
       <c r="C264" s="26">
@@ -15648,7 +15602,7 @@
       <c r="A265" s="42" t="s">
         <v>775</v>
       </c>
-      <c r="B265" s="35" t="s">
+      <c r="B265" s="86" t="s">
         <v>775</v>
       </c>
       <c r="C265" s="26">
@@ -15673,7 +15627,7 @@
       <c r="A266" s="25" t="s">
         <v>776</v>
       </c>
-      <c r="B266" s="25" t="s">
+      <c r="B266" s="85" t="s">
         <v>777</v>
       </c>
       <c r="C266" s="26">
@@ -15700,7 +15654,7 @@
       <c r="A267" s="25" t="s">
         <v>778</v>
       </c>
-      <c r="B267" s="25" t="s">
+      <c r="B267" s="85" t="s">
         <v>779</v>
       </c>
       <c r="C267" s="26">
@@ -15727,7 +15681,7 @@
       <c r="A268" s="25" t="s">
         <v>782</v>
       </c>
-      <c r="B268" s="25" t="s">
+      <c r="B268" s="85" t="s">
         <v>783</v>
       </c>
       <c r="C268" s="26">
@@ -15752,7 +15706,7 @@
       <c r="A269" s="37" t="s">
         <v>784</v>
       </c>
-      <c r="B269" s="35" t="s">
+      <c r="B269" s="86" t="s">
         <v>785</v>
       </c>
       <c r="C269" s="26">
@@ -15779,7 +15733,7 @@
       <c r="A270" s="37" t="s">
         <v>786</v>
       </c>
-      <c r="B270" s="25" t="s">
+      <c r="B270" s="85" t="s">
         <v>787</v>
       </c>
       <c r="C270" s="26">
@@ -15804,7 +15758,7 @@
       <c r="A271" s="37" t="s">
         <v>788</v>
       </c>
-      <c r="B271" s="25" t="s">
+      <c r="B271" s="85" t="s">
         <v>789</v>
       </c>
       <c r="C271" s="26">
@@ -15831,7 +15785,7 @@
       <c r="A272" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="B272" s="25" t="s">
+      <c r="B272" s="85" t="s">
         <v>388</v>
       </c>
       <c r="C272" s="26">
@@ -15858,7 +15812,7 @@
       <c r="A273" s="25" t="s">
         <v>790</v>
       </c>
-      <c r="B273" s="25" t="s">
+      <c r="B273" s="85" t="s">
         <v>791</v>
       </c>
       <c r="C273" s="26">
@@ -15885,7 +15839,7 @@
       <c r="A274" s="37" t="s">
         <v>792</v>
       </c>
-      <c r="B274" s="25" t="s">
+      <c r="B274" s="85" t="s">
         <v>793</v>
       </c>
       <c r="C274" s="26">
@@ -15910,7 +15864,7 @@
       <c r="A275" s="25" t="s">
         <v>562</v>
       </c>
-      <c r="B275" s="25" t="s">
+      <c r="B275" s="85" t="s">
         <v>563</v>
       </c>
       <c r="C275" s="26">
@@ -15937,7 +15891,7 @@
       <c r="A276" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="B276" s="25" t="s">
+      <c r="B276" s="85" t="s">
         <v>416</v>
       </c>
       <c r="C276" s="26">
@@ -15964,7 +15918,7 @@
       <c r="A277" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B277" s="25" t="s">
+      <c r="B277" s="85" t="s">
         <v>8</v>
       </c>
       <c r="C277" s="26">
@@ -15987,7 +15941,7 @@
       <c r="A278" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="B278" s="25" t="s">
+      <c r="B278" s="85" t="s">
         <v>276</v>
       </c>
       <c r="C278" s="26">
@@ -16005,6 +15959,104 @@
       </c>
       <c r="G278" s="29"/>
       <c r="H278" s="29"/>
+    </row>
+    <row r="279" spans="1:10" s="25" customFormat="1">
+      <c r="A279" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B279" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="C279" s="26">
+        <v>43690</v>
+      </c>
+      <c r="D279" s="26">
+        <v>43813</v>
+      </c>
+      <c r="E279" s="29">
+        <f t="shared" si="4"/>
+        <v>123</v>
+      </c>
+      <c r="F279" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G279" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="H279" s="29"/>
+    </row>
+    <row r="280" spans="1:10" s="25" customFormat="1">
+      <c r="A280" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B280" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="C280" s="26">
+        <v>43620</v>
+      </c>
+      <c r="D280" s="26">
+        <v>43813</v>
+      </c>
+      <c r="E280" s="29">
+        <f t="shared" si="4"/>
+        <v>193</v>
+      </c>
+      <c r="F280" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G280" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="H280" s="29"/>
+    </row>
+    <row r="281" spans="1:10" s="25" customFormat="1">
+      <c r="A281" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B281" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="C281" s="26">
+        <v>43653</v>
+      </c>
+      <c r="D281" s="26">
+        <v>43813</v>
+      </c>
+      <c r="E281" s="29">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="F281" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G281" s="29"/>
+      <c r="H281" s="29"/>
+    </row>
+    <row r="282" spans="1:10" s="25" customFormat="1">
+      <c r="A282" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="B282" s="85" t="s">
+        <v>286</v>
+      </c>
+      <c r="C282" s="26">
+        <v>43806</v>
+      </c>
+      <c r="D282" s="26">
+        <v>43813</v>
+      </c>
+      <c r="E282" s="29">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F282" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="G282" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="H282" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/generateEXCEL/Data/Members/GroupRecord.xlsx
+++ b/generateEXCEL/Data/Members/GroupRecord.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hguan/GitHub/lc-score-board/generateEXCEL/Data/Members/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hguan/Dropbox/Research/Coding/WeChatGroup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A291C7-4B9D-374F-B661-BCA67F5CADCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1A804C-409D-8C4F-ACC3-C218266E98A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="17220" windowHeight="13840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2361" uniqueCount="814">
   <si>
     <t>wisdompeak</t>
   </si>
@@ -3049,6 +3049,9 @@
       </rPr>
       <t>小当家</t>
     </r>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -3815,10 +3818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J412"/>
+  <dimension ref="A1:J411"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B107" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -5438,182 +5441,182 @@
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8" s="4" customFormat="1">
-      <c r="A85" s="4" t="s">
-        <v>206</v>
+      <c r="A85" s="9" t="s">
+        <v>207</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C85" s="18">
-        <v>43706</v>
+        <v>43707</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="19" t="s">
-        <v>0</v>
+      <c r="F85" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:8" s="4" customFormat="1">
-      <c r="A86" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>208</v>
+      <c r="A86" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>209</v>
       </c>
       <c r="C86" s="18">
-        <v>43707</v>
+        <v>43711</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="6" t="s">
-        <v>83</v>
+      <c r="F86" s="19" t="s">
+        <v>114</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8" s="4" customFormat="1">
-      <c r="A87" s="22" t="s">
-        <v>209</v>
+      <c r="A87" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C87" s="18">
-        <v>43711</v>
+        <v>43712</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="1"/>
       <c r="F87" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="G87" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8" s="4" customFormat="1">
-      <c r="A88" s="9" t="s">
-        <v>210</v>
+      <c r="A88" s="22" t="s">
+        <v>213</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C88" s="18">
-        <v>43712</v>
+        <v>43715</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="1"/>
       <c r="F88" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>212</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G88" s="1"/>
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8" s="4" customFormat="1">
-      <c r="A89" s="22" t="s">
-        <v>213</v>
+      <c r="A89" s="9" t="s">
+        <v>215</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C89" s="18">
-        <v>43715</v>
+        <v>43716</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="G89" s="1"/>
+      <c r="F89" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:8" s="4" customFormat="1">
       <c r="A90" s="9" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C90" s="18">
-        <v>43716</v>
+        <v>43717</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>217</v>
-      </c>
+      <c r="F90" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G90" s="1"/>
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" s="4" customFormat="1">
-      <c r="A91" s="9" t="s">
-        <v>218</v>
+      <c r="A91" s="23" t="s">
+        <v>220</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C91" s="18">
-        <v>43717</v>
+        <v>43718</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="1"/>
       <c r="F91" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="G91" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" s="4" customFormat="1">
       <c r="A92" s="23" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C92" s="18">
-        <v>43718</v>
+        <v>43720</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>222</v>
-      </c>
+      <c r="F92" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92" s="1"/>
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" s="4" customFormat="1">
       <c r="A93" s="23" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C93" s="18">
-        <v>43720</v>
+        <v>43722</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="24" t="s">
-        <v>30</v>
+      <c r="F93" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8" s="4" customFormat="1">
       <c r="A94" s="23" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C94" s="18">
-        <v>43722</v>
+        <v>43726</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="1"/>
@@ -5624,47 +5627,47 @@
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8" s="4" customFormat="1">
-      <c r="A95" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="B95" s="22" t="s">
-        <v>227</v>
+      <c r="A95" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="C95" s="18">
-        <v>43726</v>
+        <v>43732</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="19" t="s">
-        <v>0</v>
+      <c r="F95" s="14" t="s">
+        <v>230</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" s="4" customFormat="1">
       <c r="A96" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>232</v>
       </c>
       <c r="C96" s="18">
-        <v>43732</v>
+        <v>43737</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="14" t="s">
-        <v>230</v>
+      <c r="F96" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8" s="4" customFormat="1">
       <c r="A97" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C97" s="18">
         <v>43737</v>
@@ -5672,38 +5675,38 @@
       <c r="D97" s="5"/>
       <c r="E97" s="1"/>
       <c r="F97" s="19" t="s">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8" s="4" customFormat="1">
       <c r="A98" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C98" s="18">
-        <v>43737</v>
+        <v>43738</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="1"/>
       <c r="F98" s="19" t="s">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" s="4" customFormat="1">
       <c r="A99" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C99" s="18">
-        <v>43738</v>
+        <v>43739</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="1"/>
@@ -5715,13 +5718,13 @@
     </row>
     <row r="100" spans="1:8" s="4" customFormat="1">
       <c r="A100" s="9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C100" s="18">
-        <v>43739</v>
+        <v>43741</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="1"/>
@@ -5733,13 +5736,13 @@
     </row>
     <row r="101" spans="1:8" s="4" customFormat="1">
       <c r="A101" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C101" s="18">
-        <v>43741</v>
+        <v>43743</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="1"/>
@@ -5750,47 +5753,47 @@
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" s="4" customFormat="1">
-      <c r="A102" s="9" t="s">
-        <v>242</v>
+      <c r="A102" s="23" t="s">
+        <v>244</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C102" s="18">
-        <v>43743</v>
+        <v>43749</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="19" t="s">
-        <v>0</v>
+      <c r="F102" s="20" t="s">
+        <v>231</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" s="4" customFormat="1">
-      <c r="A103" s="23" t="s">
-        <v>244</v>
+      <c r="A103" s="9" t="s">
+        <v>246</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C103" s="18">
-        <v>43749</v>
+        <v>43752</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="20" t="s">
-        <v>231</v>
+      <c r="F103" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" s="4" customFormat="1">
-      <c r="A104" s="9" t="s">
-        <v>246</v>
+      <c r="A104" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C104" s="18">
         <v>43752</v>
@@ -5798,38 +5801,38 @@
       <c r="D104" s="5"/>
       <c r="E104" s="1"/>
       <c r="F104" s="19" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" s="4" customFormat="1">
-      <c r="A105" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="B105" s="22" t="s">
-        <v>249</v>
+      <c r="A105" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="C105" s="18">
-        <v>43752</v>
+        <v>43753</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="1"/>
       <c r="F105" s="19" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="6"/>
     </row>
     <row r="106" spans="1:8" s="4" customFormat="1">
-      <c r="A106" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>251</v>
+      <c r="A106" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>253</v>
       </c>
       <c r="C106" s="18">
-        <v>43753</v>
+        <v>43757</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="1"/>
@@ -5840,14 +5843,14 @@
       <c r="H106" s="6"/>
     </row>
     <row r="107" spans="1:8" s="4" customFormat="1">
-      <c r="A107" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="B107" s="22" t="s">
-        <v>253</v>
+      <c r="A107" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="C107" s="18">
-        <v>43757</v>
+        <v>43763</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="1"/>
@@ -5858,50 +5861,50 @@
       <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8" s="4" customFormat="1">
-      <c r="A108" s="4" t="s">
-        <v>254</v>
+      <c r="A108" s="9" t="s">
+        <v>256</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C108" s="18">
-        <v>43763</v>
+        <v>43766</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="19" t="s">
-        <v>0</v>
+      <c r="F108" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="6"/>
     </row>
     <row r="109" spans="1:8" s="4" customFormat="1">
       <c r="A109" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C109" s="18">
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="14" t="s">
-        <v>30</v>
+      <c r="F109" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="6"/>
     </row>
     <row r="110" spans="1:8" s="4" customFormat="1">
-      <c r="A110" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>259</v>
+      <c r="A110" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>260</v>
       </c>
       <c r="C110" s="18">
-        <v>43767</v>
+        <v>43770</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="1"/>
@@ -5912,65 +5915,65 @@
       <c r="H110" s="6"/>
     </row>
     <row r="111" spans="1:8" s="4" customFormat="1">
-      <c r="A111" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>260</v>
+      <c r="A111" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="C111" s="18">
-        <v>43770</v>
+        <v>43777</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="19" t="s">
-        <v>0</v>
+      <c r="F111" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="6"/>
     </row>
     <row r="112" spans="1:8" s="4" customFormat="1">
-      <c r="A112" s="4" t="s">
-        <v>261</v>
+      <c r="A112" s="9" t="s">
+        <v>262</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C112" s="18">
-        <v>43777</v>
+        <v>43778</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="10" t="s">
-        <v>94</v>
+      <c r="F112" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="6"/>
     </row>
     <row r="113" spans="1:10" s="4" customFormat="1">
       <c r="A113" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C113" s="18">
-        <v>43778</v>
+        <v>43415</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="1"/>
       <c r="F113" s="19" t="s">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="6"/>
     </row>
     <row r="114" spans="1:10" s="4" customFormat="1">
       <c r="A114" s="9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C114" s="18">
         <v>43415</v>
@@ -5978,76 +5981,76 @@
       <c r="D114" s="5"/>
       <c r="E114" s="1"/>
       <c r="F114" s="19" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:10" s="4" customFormat="1">
       <c r="A115" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C115" s="18">
-        <v>43415</v>
+        <v>43784</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="19" t="s">
-        <v>0</v>
+      <c r="F115" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="6"/>
     </row>
     <row r="116" spans="1:10" s="4" customFormat="1">
-      <c r="A116" s="9" t="s">
-        <v>268</v>
+      <c r="A116" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C116" s="18">
         <v>43784</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G116" s="1"/>
+      <c r="F116" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H116" s="6"/>
     </row>
     <row r="117" spans="1:10" s="4" customFormat="1">
-      <c r="A117" s="4" t="s">
-        <v>270</v>
+      <c r="A117" s="9" t="s">
+        <v>272</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C117" s="18">
         <v>43784</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="F117" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G117" s="1"/>
       <c r="H117" s="6"/>
     </row>
     <row r="118" spans="1:10" s="4" customFormat="1">
       <c r="A118" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>274</v>
       </c>
       <c r="C118" s="18">
-        <v>43784</v>
+        <v>43786</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="1"/>
@@ -6058,32 +6061,32 @@
       <c r="H118" s="6"/>
     </row>
     <row r="119" spans="1:10" s="4" customFormat="1">
-      <c r="A119" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>274</v>
+      <c r="A119" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="B119" s="22" t="s">
+        <v>278</v>
       </c>
       <c r="C119" s="18">
-        <v>43786</v>
+        <v>43797</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="1"/>
       <c r="F119" s="10" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="6"/>
     </row>
     <row r="120" spans="1:10" s="4" customFormat="1">
-      <c r="A120" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="B120" s="22" t="s">
-        <v>278</v>
+      <c r="A120" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="C120" s="18">
-        <v>43797</v>
+        <v>43801</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="1"/>
@@ -6095,10 +6098,10 @@
     </row>
     <row r="121" spans="1:10" s="4" customFormat="1">
       <c r="A121" s="9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C121" s="18">
         <v>43801</v>
@@ -6113,13 +6116,13 @@
     </row>
     <row r="122" spans="1:10" s="4" customFormat="1">
       <c r="A122" s="9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C122" s="18">
-        <v>43801</v>
+        <v>43804</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="1"/>
@@ -6130,14 +6133,14 @@
       <c r="H122" s="6"/>
     </row>
     <row r="123" spans="1:10" s="4" customFormat="1">
-      <c r="A123" s="9" t="s">
-        <v>283</v>
+      <c r="A123" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C123" s="18">
-        <v>43804</v>
+        <v>43806</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="1"/>
@@ -6148,14 +6151,14 @@
       <c r="H123" s="6"/>
     </row>
     <row r="124" spans="1:10" s="4" customFormat="1">
-      <c r="A124" s="4" t="s">
-        <v>284</v>
+      <c r="A124" s="9" t="s">
+        <v>288</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C124" s="18">
-        <v>43806</v>
+        <v>43807</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="1"/>
@@ -6166,14 +6169,14 @@
       <c r="H124" s="6"/>
     </row>
     <row r="125" spans="1:10" s="4" customFormat="1">
-      <c r="A125" s="9" t="s">
-        <v>288</v>
+      <c r="A125" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C125" s="18">
-        <v>43807</v>
+        <v>43808</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="1"/>
@@ -6183,43 +6186,40 @@
       <c r="G125" s="1"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="1:10" s="4" customFormat="1">
-      <c r="A126" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C126" s="18">
-        <v>43808</v>
-      </c>
-      <c r="D126" s="5"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G126" s="1"/>
+    <row r="126" spans="1:10">
+      <c r="A126" s="82" t="s">
+        <v>382</v>
+      </c>
+      <c r="B126" s="82" t="s">
+        <v>383</v>
+      </c>
+      <c r="C126" s="83">
+        <v>43813</v>
+      </c>
+      <c r="D126" s="26"/>
+      <c r="E126" s="28"/>
+      <c r="F126" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="G126" s="29"/>
       <c r="H126" s="6"/>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="A127" s="82" t="s">
-        <v>382</v>
-      </c>
-      <c r="B127" s="82" t="s">
-        <v>383</v>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+    </row>
+    <row r="127" spans="1:10" s="4" customFormat="1">
+      <c r="A127" s="9" t="s">
+        <v>813</v>
       </c>
       <c r="C127" s="83">
         <v>43813</v>
       </c>
-      <c r="D127" s="26"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="G127" s="29"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G127" s="1"/>
       <c r="H127" s="6"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
     </row>
     <row r="128" spans="1:10" s="4" customFormat="1">
       <c r="A128" s="9"/>
@@ -6258,11 +6258,10 @@
       <c r="H131" s="6"/>
     </row>
     <row r="132" spans="1:10" s="4" customFormat="1">
-      <c r="A132" s="9"/>
       <c r="C132" s="18"/>
       <c r="D132" s="5"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="10"/>
+      <c r="F132" s="19"/>
       <c r="G132" s="1"/>
       <c r="H132" s="6"/>
     </row>
@@ -6275,27 +6274,30 @@
       <c r="H133" s="6"/>
     </row>
     <row r="134" spans="1:10" s="4" customFormat="1">
-      <c r="C134" s="18"/>
+      <c r="A134" s="16"/>
+      <c r="C134" s="1"/>
       <c r="D134" s="5"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="19"/>
+      <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="1:10" s="4" customFormat="1">
-      <c r="A135" s="16"/>
-      <c r="C135" s="1"/>
+    <row r="135" spans="1:10">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
       <c r="D135" s="5"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
       <c r="H135" s="6"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
     </row>
     <row r="136" spans="1:10">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="1"/>
+      <c r="A136" s="25"/>
+      <c r="B136" s="25"/>
+      <c r="C136" s="26"/>
+      <c r="D136" s="27"/>
+      <c r="E136" s="28"/>
       <c r="F136" s="1"/>
       <c r="H136" s="6"/>
       <c r="I136" s="4"/>
@@ -6411,24 +6413,24 @@
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
     </row>
-    <row r="147" spans="1:10">
-      <c r="A147" s="25"/>
-      <c r="B147" s="25"/>
+    <row r="147" spans="1:10" s="25" customFormat="1">
       <c r="C147" s="26"/>
       <c r="D147" s="27"/>
       <c r="E147" s="28"/>
-      <c r="F147" s="1"/>
-      <c r="H147" s="6"/>
-      <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
-    </row>
-    <row r="148" spans="1:10" s="25" customFormat="1">
+      <c r="F147" s="28"/>
+      <c r="G147" s="29"/>
+      <c r="H147" s="29"/>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="25"/>
+      <c r="B148" s="25"/>
       <c r="C148" s="26"/>
       <c r="D148" s="27"/>
       <c r="E148" s="28"/>
-      <c r="F148" s="28"/>
-      <c r="G148" s="29"/>
-      <c r="H148" s="29"/>
+      <c r="F148" s="1"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="25"/>
@@ -6544,7 +6546,7 @@
       <c r="A159" s="25"/>
       <c r="B159" s="25"/>
       <c r="C159" s="26"/>
-      <c r="D159" s="27"/>
+      <c r="D159" s="26"/>
       <c r="E159" s="28"/>
       <c r="F159" s="1"/>
       <c r="H159" s="6"/>
@@ -6573,24 +6575,24 @@
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
     </row>
-    <row r="162" spans="1:10">
-      <c r="A162" s="25"/>
-      <c r="B162" s="25"/>
+    <row r="162" spans="1:10" s="25" customFormat="1">
       <c r="C162" s="26"/>
       <c r="D162" s="26"/>
       <c r="E162" s="28"/>
-      <c r="F162" s="1"/>
-      <c r="H162" s="6"/>
-      <c r="I162" s="4"/>
-      <c r="J162" s="4"/>
-    </row>
-    <row r="163" spans="1:10" s="25" customFormat="1">
+      <c r="F162" s="28"/>
+      <c r="G162" s="29"/>
+      <c r="H162" s="29"/>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="25"/>
+      <c r="B163" s="25"/>
       <c r="C163" s="26"/>
       <c r="D163" s="26"/>
       <c r="E163" s="28"/>
-      <c r="F163" s="28"/>
-      <c r="G163" s="29"/>
-      <c r="H163" s="29"/>
+      <c r="F163" s="1"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="4"/>
+      <c r="J163" s="4"/>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="25"/>
@@ -6625,24 +6627,24 @@
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
     </row>
-    <row r="167" spans="1:10">
-      <c r="A167" s="25"/>
-      <c r="B167" s="25"/>
+    <row r="167" spans="1:10" s="25" customFormat="1">
       <c r="C167" s="26"/>
       <c r="D167" s="26"/>
       <c r="E167" s="28"/>
-      <c r="F167" s="1"/>
-      <c r="H167" s="6"/>
-      <c r="I167" s="4"/>
-      <c r="J167" s="4"/>
-    </row>
-    <row r="168" spans="1:10" s="25" customFormat="1">
+      <c r="F167" s="28"/>
+      <c r="G167" s="29"/>
+      <c r="H167" s="29"/>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" s="25"/>
+      <c r="B168" s="25"/>
       <c r="C168" s="26"/>
       <c r="D168" s="26"/>
       <c r="E168" s="28"/>
-      <c r="F168" s="28"/>
-      <c r="G168" s="29"/>
-      <c r="H168" s="29"/>
+      <c r="F168" s="1"/>
+      <c r="H168" s="6"/>
+      <c r="I168" s="4"/>
+      <c r="J168" s="4"/>
     </row>
     <row r="169" spans="1:10">
       <c r="A169" s="25"/>
@@ -6661,7 +6663,7 @@
       <c r="C170" s="26"/>
       <c r="D170" s="26"/>
       <c r="E170" s="28"/>
-      <c r="F170" s="1"/>
+      <c r="F170" s="28"/>
       <c r="H170" s="6"/>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
@@ -6683,7 +6685,7 @@
       <c r="C172" s="26"/>
       <c r="D172" s="26"/>
       <c r="E172" s="28"/>
-      <c r="F172" s="28"/>
+      <c r="F172" s="30"/>
       <c r="H172" s="6"/>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
@@ -6694,7 +6696,8 @@
       <c r="C173" s="26"/>
       <c r="D173" s="26"/>
       <c r="E173" s="28"/>
-      <c r="F173" s="30"/>
+      <c r="F173" s="28"/>
+      <c r="G173" s="25"/>
       <c r="H173" s="6"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
@@ -6705,7 +6708,7 @@
       <c r="C174" s="26"/>
       <c r="D174" s="26"/>
       <c r="E174" s="28"/>
-      <c r="F174" s="28"/>
+      <c r="F174" s="31"/>
       <c r="G174" s="25"/>
       <c r="H174" s="6"/>
       <c r="I174" s="4"/>
@@ -6717,7 +6720,7 @@
       <c r="C175" s="26"/>
       <c r="D175" s="26"/>
       <c r="E175" s="28"/>
-      <c r="F175" s="31"/>
+      <c r="F175" s="28"/>
       <c r="G175" s="25"/>
       <c r="H175" s="6"/>
       <c r="I175" s="4"/>
@@ -6729,30 +6732,30 @@
       <c r="C176" s="26"/>
       <c r="D176" s="26"/>
       <c r="E176" s="28"/>
-      <c r="F176" s="28"/>
-      <c r="G176" s="25"/>
+      <c r="F176" s="30"/>
       <c r="H176" s="6"/>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
-    <row r="177" spans="1:10">
-      <c r="A177" s="25"/>
-      <c r="B177" s="25"/>
+    <row r="177" spans="1:10" s="25" customFormat="1">
       <c r="C177" s="26"/>
       <c r="D177" s="26"/>
       <c r="E177" s="28"/>
-      <c r="F177" s="30"/>
-      <c r="H177" s="6"/>
-      <c r="I177" s="4"/>
-      <c r="J177" s="4"/>
-    </row>
-    <row r="178" spans="1:10" s="25" customFormat="1">
+      <c r="F177" s="31"/>
+      <c r="G177" s="29"/>
+      <c r="H177" s="29"/>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" s="25"/>
+      <c r="B178" s="25"/>
       <c r="C178" s="26"/>
       <c r="D178" s="26"/>
       <c r="E178" s="28"/>
-      <c r="F178" s="31"/>
-      <c r="G178" s="29"/>
-      <c r="H178" s="29"/>
+      <c r="F178" s="28"/>
+      <c r="G178" s="28"/>
+      <c r="H178" s="32"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="25"/>
@@ -6761,8 +6764,8 @@
       <c r="D179" s="26"/>
       <c r="E179" s="28"/>
       <c r="F179" s="28"/>
-      <c r="G179" s="28"/>
-      <c r="H179" s="32"/>
+      <c r="G179" s="25"/>
+      <c r="H179" s="6"/>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
     </row>
@@ -6772,50 +6775,50 @@
       <c r="C180" s="26"/>
       <c r="D180" s="26"/>
       <c r="E180" s="28"/>
-      <c r="F180" s="28"/>
+      <c r="F180" s="29"/>
       <c r="G180" s="25"/>
       <c r="H180" s="6"/>
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
     </row>
-    <row r="181" spans="1:10">
-      <c r="A181" s="25"/>
-      <c r="B181" s="25"/>
+    <row r="181" spans="1:10" s="25" customFormat="1">
       <c r="C181" s="26"/>
       <c r="D181" s="26"/>
       <c r="E181" s="28"/>
-      <c r="F181" s="29"/>
-      <c r="G181" s="25"/>
-      <c r="H181" s="6"/>
-      <c r="I181" s="4"/>
-      <c r="J181" s="4"/>
-    </row>
-    <row r="182" spans="1:10" s="25" customFormat="1">
+      <c r="F181" s="28"/>
+      <c r="H181" s="29"/>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182" s="25"/>
+      <c r="B182" s="25"/>
       <c r="C182" s="26"/>
       <c r="D182" s="26"/>
       <c r="E182" s="28"/>
-      <c r="F182" s="28"/>
-      <c r="H182" s="29"/>
-    </row>
-    <row r="183" spans="1:10">
-      <c r="A183" s="25"/>
-      <c r="B183" s="25"/>
+      <c r="F182" s="29"/>
+      <c r="G182" s="25"/>
+      <c r="H182" s="6"/>
+      <c r="I182" s="4"/>
+      <c r="J182" s="4"/>
+    </row>
+    <row r="183" spans="1:10" s="25" customFormat="1">
       <c r="C183" s="26"/>
       <c r="D183" s="26"/>
       <c r="E183" s="28"/>
       <c r="F183" s="29"/>
-      <c r="G183" s="25"/>
-      <c r="H183" s="6"/>
-      <c r="I183" s="4"/>
-      <c r="J183" s="4"/>
-    </row>
-    <row r="184" spans="1:10" s="25" customFormat="1">
+      <c r="G183" s="28"/>
+      <c r="H183" s="29"/>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184" s="25"/>
+      <c r="B184" s="25"/>
       <c r="C184" s="26"/>
       <c r="D184" s="26"/>
       <c r="E184" s="28"/>
-      <c r="F184" s="29"/>
-      <c r="G184" s="28"/>
-      <c r="H184" s="29"/>
+      <c r="F184" s="28"/>
+      <c r="G184" s="29"/>
+      <c r="H184" s="6"/>
+      <c r="I184" s="4"/>
+      <c r="J184" s="4"/>
     </row>
     <row r="185" spans="1:10">
       <c r="A185" s="25"/>
@@ -6834,56 +6837,55 @@
       <c r="B186" s="25"/>
       <c r="C186" s="26"/>
       <c r="D186" s="26"/>
-      <c r="E186" s="28"/>
+      <c r="E186" s="29"/>
       <c r="F186" s="28"/>
       <c r="G186" s="29"/>
       <c r="H186" s="6"/>
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" s="34" customFormat="1">
       <c r="A187" s="25"/>
       <c r="B187" s="25"/>
       <c r="C187" s="26"/>
       <c r="D187" s="26"/>
       <c r="E187" s="29"/>
-      <c r="F187" s="28"/>
-      <c r="G187" s="29"/>
-      <c r="H187" s="6"/>
-      <c r="I187" s="4"/>
-      <c r="J187" s="4"/>
-    </row>
-    <row r="188" spans="1:10" s="34" customFormat="1">
+      <c r="F187" s="29"/>
+      <c r="G187" s="28"/>
+      <c r="H187" s="33"/>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="25"/>
-      <c r="B188" s="25"/>
+      <c r="B188" s="35"/>
       <c r="C188" s="26"/>
       <c r="D188" s="26"/>
       <c r="E188" s="29"/>
-      <c r="F188" s="29"/>
-      <c r="G188" s="28"/>
-      <c r="H188" s="33"/>
-    </row>
-    <row r="189" spans="1:10">
-      <c r="A189" s="25"/>
-      <c r="B189" s="35"/>
+      <c r="F188" s="28"/>
+      <c r="G188" s="25"/>
+      <c r="H188" s="6"/>
+      <c r="I188" s="4"/>
+      <c r="J188" s="4"/>
+    </row>
+    <row r="189" spans="1:10" s="25" customFormat="1">
       <c r="C189" s="26"/>
       <c r="D189" s="26"/>
       <c r="E189" s="29"/>
-      <c r="F189" s="28"/>
-      <c r="G189" s="25"/>
-      <c r="H189" s="6"/>
-      <c r="I189" s="4"/>
-      <c r="J189" s="4"/>
-    </row>
-    <row r="190" spans="1:10" s="25" customFormat="1">
+      <c r="F189" s="29"/>
+      <c r="H189" s="29"/>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190" s="35"/>
+      <c r="B190" s="25"/>
       <c r="C190" s="26"/>
       <c r="D190" s="26"/>
       <c r="E190" s="29"/>
-      <c r="F190" s="29"/>
-      <c r="H190" s="29"/>
+      <c r="F190" s="28"/>
+      <c r="H190" s="6"/>
+      <c r="I190" s="4"/>
+      <c r="J190" s="36"/>
     </row>
     <row r="191" spans="1:10">
-      <c r="A191" s="35"/>
+      <c r="A191" s="25"/>
       <c r="B191" s="25"/>
       <c r="C191" s="26"/>
       <c r="D191" s="26"/>
@@ -6891,24 +6893,21 @@
       <c r="F191" s="28"/>
       <c r="H191" s="6"/>
       <c r="I191" s="4"/>
-      <c r="J191" s="36"/>
-    </row>
-    <row r="192" spans="1:10">
-      <c r="A192" s="25"/>
-      <c r="B192" s="25"/>
+      <c r="J191" s="4"/>
+    </row>
+    <row r="192" spans="1:10" s="25" customFormat="1">
       <c r="C192" s="26"/>
       <c r="D192" s="26"/>
       <c r="E192" s="29"/>
       <c r="F192" s="28"/>
-      <c r="H192" s="6"/>
-      <c r="I192" s="4"/>
-      <c r="J192" s="4"/>
+      <c r="G192" s="29"/>
+      <c r="H192" s="29"/>
     </row>
     <row r="193" spans="1:10" s="25" customFormat="1">
       <c r="C193" s="26"/>
       <c r="D193" s="26"/>
       <c r="E193" s="29"/>
-      <c r="F193" s="28"/>
+      <c r="F193" s="29"/>
       <c r="G193" s="29"/>
       <c r="H193" s="29"/>
     </row>
@@ -6916,7 +6915,7 @@
       <c r="C194" s="26"/>
       <c r="D194" s="26"/>
       <c r="E194" s="29"/>
-      <c r="F194" s="29"/>
+      <c r="F194" s="28"/>
       <c r="G194" s="29"/>
       <c r="H194" s="29"/>
     </row>
@@ -6924,11 +6923,13 @@
       <c r="C195" s="26"/>
       <c r="D195" s="26"/>
       <c r="E195" s="29"/>
-      <c r="F195" s="28"/>
+      <c r="F195" s="29"/>
       <c r="G195" s="29"/>
       <c r="H195" s="29"/>
     </row>
     <row r="196" spans="1:10" s="25" customFormat="1">
+      <c r="A196" s="35"/>
+      <c r="B196" s="35"/>
       <c r="C196" s="26"/>
       <c r="D196" s="26"/>
       <c r="E196" s="29"/>
@@ -6937,8 +6938,7 @@
       <c r="H196" s="29"/>
     </row>
     <row r="197" spans="1:10" s="25" customFormat="1">
-      <c r="A197" s="35"/>
-      <c r="B197" s="35"/>
+      <c r="A197" s="37"/>
       <c r="C197" s="26"/>
       <c r="D197" s="26"/>
       <c r="E197" s="29"/>
@@ -6947,7 +6947,6 @@
       <c r="H197" s="29"/>
     </row>
     <row r="198" spans="1:10" s="25" customFormat="1">
-      <c r="A198" s="37"/>
       <c r="C198" s="26"/>
       <c r="D198" s="26"/>
       <c r="E198" s="29"/>
@@ -6962,21 +6961,21 @@
       <c r="F199" s="29"/>
       <c r="G199" s="29"/>
       <c r="H199" s="29"/>
+      <c r="J199" s="36"/>
     </row>
     <row r="200" spans="1:10" s="25" customFormat="1">
       <c r="C200" s="26"/>
       <c r="D200" s="26"/>
       <c r="E200" s="29"/>
-      <c r="F200" s="29"/>
+      <c r="F200" s="28"/>
       <c r="G200" s="29"/>
       <c r="H200" s="29"/>
-      <c r="J200" s="36"/>
     </row>
     <row r="201" spans="1:10" s="25" customFormat="1">
       <c r="C201" s="26"/>
       <c r="D201" s="26"/>
       <c r="E201" s="29"/>
-      <c r="F201" s="28"/>
+      <c r="F201" s="29"/>
       <c r="G201" s="29"/>
       <c r="H201" s="29"/>
     </row>
@@ -6994,16 +6993,16 @@
       <c r="E203" s="29"/>
       <c r="F203" s="29"/>
       <c r="G203" s="29"/>
-      <c r="H203" s="29"/>
+      <c r="H203" s="32"/>
+      <c r="J203" s="38"/>
     </row>
     <row r="204" spans="1:10" s="25" customFormat="1">
       <c r="C204" s="26"/>
       <c r="D204" s="26"/>
       <c r="E204" s="29"/>
-      <c r="F204" s="29"/>
+      <c r="F204" s="28"/>
       <c r="G204" s="29"/>
-      <c r="H204" s="32"/>
-      <c r="J204" s="38"/>
+      <c r="H204" s="29"/>
     </row>
     <row r="205" spans="1:10" s="25" customFormat="1">
       <c r="C205" s="26"/>
@@ -7012,48 +7011,50 @@
       <c r="F205" s="28"/>
       <c r="G205" s="29"/>
       <c r="H205" s="29"/>
+      <c r="J205" s="36"/>
     </row>
     <row r="206" spans="1:10" s="25" customFormat="1">
       <c r="C206" s="26"/>
       <c r="D206" s="26"/>
       <c r="E206" s="29"/>
-      <c r="F206" s="28"/>
+      <c r="F206" s="29"/>
       <c r="G206" s="29"/>
       <c r="H206" s="29"/>
-      <c r="J206" s="36"/>
     </row>
     <row r="207" spans="1:10" s="25" customFormat="1">
       <c r="C207" s="26"/>
-      <c r="D207" s="26"/>
-      <c r="E207" s="29"/>
-      <c r="F207" s="29"/>
-      <c r="G207" s="29"/>
+      <c r="D207" s="27"/>
+      <c r="E207" s="28"/>
+      <c r="F207" s="28"/>
       <c r="H207" s="29"/>
     </row>
     <row r="208" spans="1:10" s="25" customFormat="1">
       <c r="C208" s="26"/>
-      <c r="D208" s="27"/>
+      <c r="D208" s="26"/>
       <c r="E208" s="28"/>
       <c r="F208" s="28"/>
-      <c r="H208" s="29"/>
+      <c r="G208" s="29"/>
+      <c r="H208" s="32"/>
     </row>
     <row r="209" spans="1:10" s="25" customFormat="1">
       <c r="C209" s="26"/>
       <c r="D209" s="26"/>
       <c r="E209" s="28"/>
-      <c r="F209" s="28"/>
+      <c r="F209" s="29"/>
       <c r="G209" s="29"/>
-      <c r="H209" s="32"/>
+      <c r="H209" s="29"/>
     </row>
     <row r="210" spans="1:10" s="25" customFormat="1">
       <c r="C210" s="26"/>
       <c r="D210" s="26"/>
       <c r="E210" s="28"/>
-      <c r="F210" s="29"/>
+      <c r="F210" s="28"/>
       <c r="G210" s="29"/>
       <c r="H210" s="29"/>
     </row>
     <row r="211" spans="1:10" s="25" customFormat="1">
+      <c r="A211" s="35"/>
+      <c r="B211" s="35"/>
       <c r="C211" s="26"/>
       <c r="D211" s="26"/>
       <c r="E211" s="28"/>
@@ -7062,55 +7063,53 @@
       <c r="H211" s="29"/>
     </row>
     <row r="212" spans="1:10" s="25" customFormat="1">
-      <c r="A212" s="35"/>
-      <c r="B212" s="35"/>
       <c r="C212" s="26"/>
       <c r="D212" s="26"/>
-      <c r="E212" s="28"/>
-      <c r="F212" s="28"/>
-      <c r="G212" s="29"/>
+      <c r="E212" s="29"/>
+      <c r="F212" s="29"/>
+      <c r="G212" s="32"/>
       <c r="H212" s="29"/>
     </row>
     <row r="213" spans="1:10" s="25" customFormat="1">
       <c r="C213" s="26"/>
       <c r="D213" s="26"/>
       <c r="E213" s="29"/>
-      <c r="F213" s="29"/>
-      <c r="G213" s="32"/>
+      <c r="F213" s="28"/>
+      <c r="G213" s="29"/>
       <c r="H213" s="29"/>
+      <c r="J213" s="36"/>
     </row>
     <row r="214" spans="1:10" s="25" customFormat="1">
       <c r="C214" s="26"/>
       <c r="D214" s="26"/>
       <c r="E214" s="29"/>
-      <c r="F214" s="28"/>
+      <c r="F214" s="29"/>
       <c r="G214" s="29"/>
       <c r="H214" s="29"/>
-      <c r="J214" s="36"/>
     </row>
     <row r="215" spans="1:10" s="25" customFormat="1">
       <c r="C215" s="26"/>
       <c r="D215" s="26"/>
       <c r="E215" s="29"/>
-      <c r="F215" s="29"/>
+      <c r="F215" s="28"/>
       <c r="G215" s="29"/>
       <c r="H215" s="29"/>
+      <c r="J215" s="38"/>
     </row>
     <row r="216" spans="1:10" s="25" customFormat="1">
+      <c r="A216" s="37"/>
       <c r="C216" s="26"/>
       <c r="D216" s="26"/>
       <c r="E216" s="29"/>
-      <c r="F216" s="28"/>
+      <c r="F216" s="39"/>
       <c r="G216" s="29"/>
       <c r="H216" s="29"/>
-      <c r="J216" s="38"/>
     </row>
     <row r="217" spans="1:10" s="25" customFormat="1">
-      <c r="A217" s="37"/>
       <c r="C217" s="26"/>
       <c r="D217" s="26"/>
       <c r="E217" s="29"/>
-      <c r="F217" s="39"/>
+      <c r="F217" s="29"/>
       <c r="G217" s="29"/>
       <c r="H217" s="29"/>
     </row>
@@ -7131,32 +7130,32 @@
       <c r="H219" s="29"/>
     </row>
     <row r="220" spans="1:10" s="25" customFormat="1">
+      <c r="A220" s="37"/>
       <c r="C220" s="26"/>
       <c r="D220" s="26"/>
       <c r="E220" s="29"/>
-      <c r="F220" s="29"/>
+      <c r="F220" s="28"/>
       <c r="G220" s="29"/>
       <c r="H220" s="29"/>
     </row>
     <row r="221" spans="1:10" s="25" customFormat="1">
-      <c r="A221" s="37"/>
       <c r="C221" s="26"/>
       <c r="D221" s="26"/>
       <c r="E221" s="29"/>
-      <c r="F221" s="28"/>
+      <c r="F221" s="29"/>
       <c r="G221" s="29"/>
       <c r="H221" s="29"/>
     </row>
     <row r="222" spans="1:10" s="25" customFormat="1">
+      <c r="A222" s="37"/>
       <c r="C222" s="26"/>
       <c r="D222" s="26"/>
       <c r="E222" s="29"/>
-      <c r="F222" s="29"/>
+      <c r="F222" s="28"/>
       <c r="G222" s="29"/>
       <c r="H222" s="29"/>
     </row>
     <row r="223" spans="1:10" s="25" customFormat="1">
-      <c r="A223" s="37"/>
       <c r="C223" s="26"/>
       <c r="D223" s="26"/>
       <c r="E223" s="29"/>
@@ -7170,7 +7169,7 @@
       <c r="E224" s="29"/>
       <c r="F224" s="28"/>
       <c r="G224" s="29"/>
-      <c r="H224" s="29"/>
+      <c r="H224" s="32"/>
     </row>
     <row r="225" spans="1:10" s="25" customFormat="1">
       <c r="C225" s="26"/>
@@ -7178,13 +7177,13 @@
       <c r="E225" s="29"/>
       <c r="F225" s="28"/>
       <c r="G225" s="29"/>
-      <c r="H225" s="32"/>
+      <c r="H225" s="29"/>
     </row>
     <row r="226" spans="1:10" s="25" customFormat="1">
       <c r="C226" s="26"/>
       <c r="D226" s="26"/>
       <c r="E226" s="29"/>
-      <c r="F226" s="28"/>
+      <c r="F226" s="29"/>
       <c r="G226" s="29"/>
       <c r="H226" s="29"/>
     </row>
@@ -7202,25 +7201,26 @@
       <c r="E228" s="29"/>
       <c r="F228" s="29"/>
       <c r="G228" s="29"/>
-      <c r="H228" s="29"/>
+      <c r="H228" s="32"/>
     </row>
     <row r="229" spans="1:10" s="25" customFormat="1">
       <c r="C229" s="26"/>
       <c r="D229" s="26"/>
       <c r="E229" s="29"/>
-      <c r="F229" s="29"/>
+      <c r="F229" s="32"/>
       <c r="G229" s="29"/>
-      <c r="H229" s="32"/>
+      <c r="H229" s="29"/>
     </row>
     <row r="230" spans="1:10" s="25" customFormat="1">
       <c r="C230" s="26"/>
-      <c r="D230" s="26"/>
-      <c r="E230" s="29"/>
-      <c r="F230" s="32"/>
+      <c r="D230" s="27"/>
+      <c r="E230" s="28"/>
+      <c r="F230" s="28"/>
       <c r="G230" s="29"/>
       <c r="H230" s="29"/>
     </row>
     <row r="231" spans="1:10" s="25" customFormat="1">
+      <c r="A231" s="37"/>
       <c r="C231" s="26"/>
       <c r="D231" s="27"/>
       <c r="E231" s="28"/>
@@ -7229,30 +7229,30 @@
       <c r="H231" s="29"/>
     </row>
     <row r="232" spans="1:10" s="25" customFormat="1">
-      <c r="A232" s="37"/>
       <c r="C232" s="26"/>
       <c r="D232" s="27"/>
-      <c r="E232" s="28"/>
-      <c r="F232" s="28"/>
-      <c r="G232" s="29"/>
+      <c r="E232" s="29"/>
+      <c r="F232" s="29"/>
+      <c r="G232" s="32"/>
       <c r="H232" s="29"/>
     </row>
     <row r="233" spans="1:10" s="25" customFormat="1">
+      <c r="A233" s="37"/>
       <c r="C233" s="26"/>
       <c r="D233" s="27"/>
       <c r="E233" s="29"/>
-      <c r="F233" s="29"/>
-      <c r="G233" s="32"/>
+      <c r="F233" s="28"/>
+      <c r="G233" s="29"/>
       <c r="H233" s="29"/>
     </row>
     <row r="234" spans="1:10" s="25" customFormat="1">
-      <c r="A234" s="37"/>
       <c r="C234" s="26"/>
-      <c r="D234" s="27"/>
+      <c r="D234" s="26"/>
       <c r="E234" s="29"/>
       <c r="F234" s="28"/>
       <c r="G234" s="29"/>
       <c r="H234" s="29"/>
+      <c r="J234" s="36"/>
     </row>
     <row r="235" spans="1:10" s="25" customFormat="1">
       <c r="C235" s="26"/>
@@ -7261,7 +7261,6 @@
       <c r="F235" s="28"/>
       <c r="G235" s="29"/>
       <c r="H235" s="29"/>
-      <c r="J235" s="36"/>
     </row>
     <row r="236" spans="1:10" s="25" customFormat="1">
       <c r="C236" s="26"/>
@@ -7275,7 +7274,7 @@
       <c r="C237" s="26"/>
       <c r="D237" s="26"/>
       <c r="E237" s="29"/>
-      <c r="F237" s="28"/>
+      <c r="F237" s="29"/>
       <c r="G237" s="29"/>
       <c r="H237" s="29"/>
     </row>
@@ -7283,7 +7282,7 @@
       <c r="C238" s="26"/>
       <c r="D238" s="26"/>
       <c r="E238" s="29"/>
-      <c r="F238" s="29"/>
+      <c r="F238" s="28"/>
       <c r="G238" s="29"/>
       <c r="H238" s="29"/>
     </row>
@@ -7317,21 +7316,21 @@
       <c r="E242" s="29"/>
       <c r="F242" s="28"/>
       <c r="G242" s="29"/>
-      <c r="H242" s="29"/>
+      <c r="H242" s="32"/>
     </row>
     <row r="243" spans="1:10" s="25" customFormat="1">
       <c r="C243" s="26"/>
       <c r="D243" s="26"/>
       <c r="E243" s="29"/>
-      <c r="F243" s="28"/>
+      <c r="F243" s="29"/>
       <c r="G243" s="29"/>
-      <c r="H243" s="32"/>
+      <c r="H243" s="29"/>
     </row>
     <row r="244" spans="1:10" s="25" customFormat="1">
       <c r="C244" s="26"/>
       <c r="D244" s="26"/>
       <c r="E244" s="29"/>
-      <c r="F244" s="29"/>
+      <c r="F244" s="28"/>
       <c r="G244" s="29"/>
       <c r="H244" s="29"/>
     </row>
@@ -7344,28 +7343,28 @@
       <c r="H245" s="29"/>
     </row>
     <row r="246" spans="1:10" s="25" customFormat="1">
+      <c r="B246" s="35"/>
       <c r="C246" s="26"/>
       <c r="D246" s="26"/>
       <c r="E246" s="29"/>
       <c r="F246" s="28"/>
       <c r="G246" s="29"/>
       <c r="H246" s="29"/>
+      <c r="J246" s="38"/>
     </row>
     <row r="247" spans="1:10" s="25" customFormat="1">
-      <c r="B247" s="35"/>
       <c r="C247" s="26"/>
       <c r="D247" s="26"/>
       <c r="E247" s="29"/>
       <c r="F247" s="28"/>
       <c r="G247" s="29"/>
       <c r="H247" s="29"/>
-      <c r="J247" s="38"/>
     </row>
     <row r="248" spans="1:10" s="25" customFormat="1">
       <c r="C248" s="26"/>
       <c r="D248" s="26"/>
       <c r="E248" s="29"/>
-      <c r="F248" s="28"/>
+      <c r="F248" s="29"/>
       <c r="G248" s="29"/>
       <c r="H248" s="29"/>
     </row>
@@ -7375,13 +7374,14 @@
       <c r="E249" s="29"/>
       <c r="F249" s="29"/>
       <c r="G249" s="29"/>
-      <c r="H249" s="29"/>
+      <c r="H249" s="32"/>
     </row>
     <row r="250" spans="1:10" s="25" customFormat="1">
+      <c r="A250" s="37"/>
       <c r="C250" s="26"/>
       <c r="D250" s="26"/>
       <c r="E250" s="29"/>
-      <c r="F250" s="29"/>
+      <c r="F250" s="28"/>
       <c r="G250" s="29"/>
       <c r="H250" s="32"/>
     </row>
@@ -7392,10 +7392,9 @@
       <c r="E251" s="29"/>
       <c r="F251" s="28"/>
       <c r="G251" s="29"/>
-      <c r="H251" s="32"/>
+      <c r="H251" s="29"/>
     </row>
     <row r="252" spans="1:10" s="25" customFormat="1">
-      <c r="A252" s="37"/>
       <c r="C252" s="26"/>
       <c r="D252" s="26"/>
       <c r="E252" s="29"/>
@@ -7418,17 +7417,18 @@
       <c r="F254" s="28"/>
       <c r="G254" s="29"/>
       <c r="H254" s="29"/>
+      <c r="J254" s="36"/>
     </row>
     <row r="255" spans="1:10" s="25" customFormat="1">
       <c r="C255" s="26"/>
       <c r="D255" s="26"/>
       <c r="E255" s="29"/>
-      <c r="F255" s="28"/>
+      <c r="F255" s="29"/>
       <c r="G255" s="29"/>
       <c r="H255" s="29"/>
-      <c r="J255" s="36"/>
     </row>
     <row r="256" spans="1:10" s="25" customFormat="1">
+      <c r="A256" s="37"/>
       <c r="C256" s="26"/>
       <c r="D256" s="26"/>
       <c r="E256" s="29"/>
@@ -7437,11 +7437,10 @@
       <c r="H256" s="29"/>
     </row>
     <row r="257" spans="1:8" s="25" customFormat="1">
-      <c r="A257" s="37"/>
       <c r="C257" s="26"/>
       <c r="D257" s="26"/>
       <c r="E257" s="29"/>
-      <c r="F257" s="29"/>
+      <c r="F257" s="28"/>
       <c r="G257" s="29"/>
       <c r="H257" s="29"/>
     </row>
@@ -7454,23 +7453,24 @@
       <c r="H258" s="29"/>
     </row>
     <row r="259" spans="1:8" s="25" customFormat="1">
+      <c r="A259" s="37"/>
       <c r="C259" s="26"/>
       <c r="D259" s="26"/>
       <c r="E259" s="29"/>
-      <c r="F259" s="28"/>
+      <c r="F259" s="29"/>
       <c r="G259" s="29"/>
       <c r="H259" s="29"/>
     </row>
     <row r="260" spans="1:8" s="25" customFormat="1">
-      <c r="A260" s="37"/>
       <c r="C260" s="26"/>
       <c r="D260" s="26"/>
       <c r="E260" s="29"/>
-      <c r="F260" s="29"/>
+      <c r="F260" s="28"/>
       <c r="G260" s="29"/>
       <c r="H260" s="29"/>
     </row>
     <row r="261" spans="1:8" s="25" customFormat="1">
+      <c r="A261" s="37"/>
       <c r="C261" s="26"/>
       <c r="D261" s="26"/>
       <c r="E261" s="29"/>
@@ -7487,30 +7487,30 @@
       <c r="G262" s="29"/>
       <c r="H262" s="29"/>
     </row>
-    <row r="263" spans="1:8" s="25" customFormat="1">
-      <c r="A263" s="37"/>
+    <row r="263" spans="1:8" s="4" customFormat="1">
+      <c r="A263" s="25"/>
+      <c r="B263" s="25"/>
       <c r="C263" s="26"/>
       <c r="D263" s="26"/>
       <c r="E263" s="29"/>
       <c r="F263" s="28"/>
-      <c r="G263" s="29"/>
-      <c r="H263" s="29"/>
-    </row>
-    <row r="264" spans="1:8" s="4" customFormat="1">
-      <c r="A264" s="25"/>
-      <c r="B264" s="25"/>
+      <c r="G263" s="1"/>
+      <c r="H263" s="6"/>
+    </row>
+    <row r="264" spans="1:8" s="25" customFormat="1">
       <c r="C264" s="26"/>
       <c r="D264" s="26"/>
       <c r="E264" s="29"/>
       <c r="F264" s="28"/>
-      <c r="G264" s="1"/>
-      <c r="H264" s="6"/>
+      <c r="G264" s="29"/>
+      <c r="H264" s="29"/>
     </row>
     <row r="265" spans="1:8" s="25" customFormat="1">
+      <c r="A265" s="37"/>
       <c r="C265" s="26"/>
       <c r="D265" s="26"/>
       <c r="E265" s="29"/>
-      <c r="F265" s="28"/>
+      <c r="F265" s="32"/>
       <c r="G265" s="29"/>
       <c r="H265" s="29"/>
     </row>
@@ -7519,12 +7519,13 @@
       <c r="C266" s="26"/>
       <c r="D266" s="26"/>
       <c r="E266" s="29"/>
-      <c r="F266" s="32"/>
+      <c r="F266" s="28"/>
       <c r="G266" s="29"/>
       <c r="H266" s="29"/>
     </row>
     <row r="267" spans="1:8" s="25" customFormat="1">
       <c r="A267" s="37"/>
+      <c r="B267" s="35"/>
       <c r="C267" s="26"/>
       <c r="D267" s="26"/>
       <c r="E267" s="29"/>
@@ -7533,8 +7534,6 @@
       <c r="H267" s="29"/>
     </row>
     <row r="268" spans="1:8" s="25" customFormat="1">
-      <c r="A268" s="37"/>
-      <c r="B268" s="35"/>
       <c r="C268" s="26"/>
       <c r="D268" s="26"/>
       <c r="E268" s="29"/>
@@ -7554,7 +7553,7 @@
       <c r="C270" s="26"/>
       <c r="D270" s="26"/>
       <c r="E270" s="29"/>
-      <c r="F270" s="28"/>
+      <c r="F270" s="29"/>
       <c r="G270" s="29"/>
       <c r="H270" s="29"/>
     </row>
@@ -7562,24 +7561,24 @@
       <c r="C271" s="26"/>
       <c r="D271" s="26"/>
       <c r="E271" s="29"/>
-      <c r="F271" s="29"/>
+      <c r="F271" s="28"/>
       <c r="G271" s="29"/>
       <c r="H271" s="29"/>
     </row>
     <row r="272" spans="1:8" s="25" customFormat="1">
+      <c r="A272" s="37"/>
       <c r="C272" s="26"/>
       <c r="D272" s="26"/>
       <c r="E272" s="29"/>
-      <c r="F272" s="28"/>
+      <c r="F272" s="29"/>
       <c r="G272" s="29"/>
       <c r="H272" s="29"/>
     </row>
     <row r="273" spans="1:10" s="25" customFormat="1">
-      <c r="A273" s="37"/>
       <c r="C273" s="26"/>
       <c r="D273" s="26"/>
       <c r="E273" s="29"/>
-      <c r="F273" s="29"/>
+      <c r="F273" s="28"/>
       <c r="G273" s="29"/>
       <c r="H273" s="29"/>
     </row>
@@ -7591,36 +7590,37 @@
       <c r="G274" s="29"/>
       <c r="H274" s="29"/>
     </row>
-    <row r="275" spans="1:10" s="25" customFormat="1">
+    <row r="275" spans="1:10">
+      <c r="A275" s="25"/>
+      <c r="B275" s="25"/>
       <c r="C275" s="26"/>
       <c r="D275" s="26"/>
       <c r="E275" s="29"/>
       <c r="F275" s="28"/>
-      <c r="G275" s="29"/>
-      <c r="H275" s="29"/>
-    </row>
-    <row r="276" spans="1:10">
-      <c r="A276" s="25"/>
+      <c r="H275" s="6"/>
+      <c r="I275" s="4"/>
+      <c r="J275" s="8"/>
+    </row>
+    <row r="276" spans="1:10" s="4" customFormat="1">
+      <c r="A276" s="37"/>
       <c r="B276" s="25"/>
       <c r="C276" s="26"/>
       <c r="D276" s="26"/>
       <c r="E276" s="29"/>
       <c r="F276" s="28"/>
+      <c r="G276" s="1"/>
       <c r="H276" s="6"/>
-      <c r="I276" s="4"/>
-      <c r="J276" s="8"/>
-    </row>
-    <row r="277" spans="1:10" s="4" customFormat="1">
-      <c r="A277" s="37"/>
-      <c r="B277" s="25"/>
+    </row>
+    <row r="277" spans="1:10" s="25" customFormat="1">
       <c r="C277" s="26"/>
       <c r="D277" s="26"/>
       <c r="E277" s="29"/>
       <c r="F277" s="28"/>
-      <c r="G277" s="1"/>
-      <c r="H277" s="6"/>
+      <c r="G277" s="29"/>
+      <c r="H277" s="29"/>
     </row>
     <row r="278" spans="1:10" s="25" customFormat="1">
+      <c r="A278" s="37"/>
       <c r="C278" s="26"/>
       <c r="D278" s="26"/>
       <c r="E278" s="29"/>
@@ -7628,69 +7628,68 @@
       <c r="G278" s="29"/>
       <c r="H278" s="29"/>
     </row>
-    <row r="279" spans="1:10" s="25" customFormat="1">
-      <c r="A279" s="37"/>
+    <row r="279" spans="1:10">
+      <c r="A279" s="25"/>
+      <c r="B279" s="25"/>
       <c r="C279" s="26"/>
       <c r="D279" s="26"/>
       <c r="E279" s="29"/>
       <c r="F279" s="28"/>
       <c r="G279" s="29"/>
-      <c r="H279" s="29"/>
-    </row>
-    <row r="280" spans="1:10">
-      <c r="A280" s="25"/>
-      <c r="B280" s="25"/>
+    </row>
+    <row r="280" spans="1:10" s="25" customFormat="1">
       <c r="C280" s="26"/>
       <c r="D280" s="26"/>
       <c r="E280" s="29"/>
       <c r="F280" s="28"/>
       <c r="G280" s="29"/>
-    </row>
-    <row r="281" spans="1:10" s="25" customFormat="1">
+      <c r="H280" s="29"/>
+    </row>
+    <row r="281" spans="1:10" s="4" customFormat="1">
+      <c r="A281" s="37"/>
+      <c r="B281" s="25"/>
       <c r="C281" s="26"/>
       <c r="D281" s="26"/>
       <c r="E281" s="29"/>
       <c r="F281" s="28"/>
-      <c r="G281" s="29"/>
-      <c r="H281" s="29"/>
-    </row>
-    <row r="282" spans="1:10" s="4" customFormat="1">
-      <c r="A282" s="37"/>
-      <c r="B282" s="25"/>
+      <c r="G281" s="1"/>
+      <c r="H281" s="6"/>
+    </row>
+    <row r="282" spans="1:10" s="25" customFormat="1">
       <c r="C282" s="26"/>
       <c r="D282" s="26"/>
       <c r="E282" s="29"/>
       <c r="F282" s="28"/>
-      <c r="G282" s="1"/>
-      <c r="H282" s="6"/>
+      <c r="G282" s="29"/>
+      <c r="H282" s="29"/>
     </row>
     <row r="283" spans="1:10" s="25" customFormat="1">
+      <c r="A283" s="37"/>
       <c r="C283" s="26"/>
       <c r="D283" s="26"/>
       <c r="E283" s="29"/>
-      <c r="F283" s="28"/>
+      <c r="F283" s="29"/>
       <c r="G283" s="29"/>
       <c r="H283" s="29"/>
     </row>
     <row r="284" spans="1:10" s="25" customFormat="1">
-      <c r="A284" s="37"/>
       <c r="C284" s="26"/>
       <c r="D284" s="26"/>
       <c r="E284" s="29"/>
       <c r="F284" s="29"/>
       <c r="G284" s="29"/>
-      <c r="H284" s="29"/>
+      <c r="H284" s="32"/>
     </row>
     <row r="285" spans="1:10" s="25" customFormat="1">
+      <c r="A285" s="37"/>
       <c r="C285" s="26"/>
       <c r="D285" s="26"/>
       <c r="E285" s="29"/>
-      <c r="F285" s="29"/>
+      <c r="F285" s="28"/>
       <c r="G285" s="29"/>
-      <c r="H285" s="32"/>
+      <c r="H285" s="29"/>
     </row>
     <row r="286" spans="1:10" s="25" customFormat="1">
-      <c r="A286" s="37"/>
       <c r="C286" s="26"/>
       <c r="D286" s="26"/>
       <c r="E286" s="29"/>
@@ -7702,35 +7701,35 @@
       <c r="C287" s="26"/>
       <c r="D287" s="26"/>
       <c r="E287" s="29"/>
-      <c r="F287" s="28"/>
+      <c r="F287" s="29"/>
       <c r="G287" s="29"/>
-      <c r="H287" s="29"/>
+      <c r="H287" s="32"/>
     </row>
     <row r="288" spans="1:10" s="25" customFormat="1">
       <c r="C288" s="26"/>
       <c r="D288" s="26"/>
       <c r="E288" s="29"/>
-      <c r="F288" s="29"/>
+      <c r="F288" s="28"/>
       <c r="G288" s="29"/>
-      <c r="H288" s="32"/>
-    </row>
-    <row r="289" spans="1:10" s="25" customFormat="1">
+      <c r="H288" s="29"/>
+    </row>
+    <row r="289" spans="1:10" s="41" customFormat="1">
+      <c r="A289" s="25"/>
+      <c r="B289" s="25"/>
       <c r="C289" s="26"/>
       <c r="D289" s="26"/>
       <c r="E289" s="29"/>
       <c r="F289" s="28"/>
-      <c r="G289" s="29"/>
-      <c r="H289" s="29"/>
-    </row>
-    <row r="290" spans="1:10" s="41" customFormat="1">
-      <c r="A290" s="25"/>
-      <c r="B290" s="25"/>
+      <c r="G289" s="40"/>
+      <c r="H289" s="40"/>
+    </row>
+    <row r="290" spans="1:10" s="25" customFormat="1">
       <c r="C290" s="26"/>
       <c r="D290" s="26"/>
       <c r="E290" s="29"/>
       <c r="F290" s="28"/>
-      <c r="G290" s="40"/>
-      <c r="H290" s="40"/>
+      <c r="G290" s="29"/>
+      <c r="H290" s="29"/>
     </row>
     <row r="291" spans="1:10" s="25" customFormat="1">
       <c r="C291" s="26"/>
@@ -7748,42 +7747,43 @@
       <c r="G292" s="29"/>
       <c r="H292" s="29"/>
     </row>
-    <row r="293" spans="1:10" s="25" customFormat="1">
+    <row r="293" spans="1:10">
+      <c r="A293" s="25"/>
+      <c r="B293" s="25"/>
       <c r="C293" s="26"/>
       <c r="D293" s="26"/>
       <c r="E293" s="29"/>
-      <c r="F293" s="28"/>
+      <c r="F293" s="29"/>
       <c r="G293" s="29"/>
-      <c r="H293" s="29"/>
-    </row>
-    <row r="294" spans="1:10">
-      <c r="A294" s="25"/>
-      <c r="B294" s="25"/>
+      <c r="H293" s="6"/>
+      <c r="I293" s="4"/>
+      <c r="J293" s="11"/>
+    </row>
+    <row r="294" spans="1:10" s="4" customFormat="1">
+      <c r="A294" s="35"/>
+      <c r="B294" s="35"/>
       <c r="C294" s="26"/>
       <c r="D294" s="26"/>
       <c r="E294" s="29"/>
-      <c r="F294" s="29"/>
-      <c r="G294" s="29"/>
+      <c r="F294" s="28"/>
+      <c r="G294" s="1"/>
       <c r="H294" s="6"/>
-      <c r="I294" s="4"/>
-      <c r="J294" s="11"/>
-    </row>
-    <row r="295" spans="1:10" s="4" customFormat="1">
-      <c r="A295" s="35"/>
-      <c r="B295" s="35"/>
+    </row>
+    <row r="295" spans="1:10" s="25" customFormat="1">
+      <c r="A295" s="37"/>
       <c r="C295" s="26"/>
       <c r="D295" s="26"/>
       <c r="E295" s="29"/>
       <c r="F295" s="28"/>
-      <c r="G295" s="1"/>
-      <c r="H295" s="6"/>
+      <c r="G295" s="29"/>
+      <c r="H295" s="29"/>
     </row>
     <row r="296" spans="1:10" s="25" customFormat="1">
       <c r="A296" s="37"/>
       <c r="C296" s="26"/>
       <c r="D296" s="26"/>
       <c r="E296" s="29"/>
-      <c r="F296" s="28"/>
+      <c r="F296" s="39"/>
       <c r="G296" s="29"/>
       <c r="H296" s="29"/>
     </row>
@@ -7792,16 +7792,15 @@
       <c r="C297" s="26"/>
       <c r="D297" s="26"/>
       <c r="E297" s="29"/>
-      <c r="F297" s="39"/>
+      <c r="F297" s="28"/>
       <c r="G297" s="29"/>
       <c r="H297" s="29"/>
     </row>
     <row r="298" spans="1:10" s="25" customFormat="1">
-      <c r="A298" s="37"/>
       <c r="C298" s="26"/>
       <c r="D298" s="26"/>
       <c r="E298" s="29"/>
-      <c r="F298" s="28"/>
+      <c r="F298" s="29"/>
       <c r="G298" s="29"/>
       <c r="H298" s="29"/>
     </row>
@@ -7809,7 +7808,7 @@
       <c r="C299" s="26"/>
       <c r="D299" s="26"/>
       <c r="E299" s="29"/>
-      <c r="F299" s="29"/>
+      <c r="F299" s="28"/>
       <c r="G299" s="29"/>
       <c r="H299" s="29"/>
     </row>
@@ -7821,77 +7820,77 @@
       <c r="G300" s="29"/>
       <c r="H300" s="29"/>
     </row>
-    <row r="301" spans="1:10" s="25" customFormat="1">
+    <row r="301" spans="1:10">
+      <c r="A301" s="25"/>
+      <c r="B301" s="25"/>
       <c r="C301" s="26"/>
       <c r="D301" s="26"/>
       <c r="E301" s="29"/>
       <c r="F301" s="28"/>
       <c r="G301" s="29"/>
-      <c r="H301" s="29"/>
-    </row>
-    <row r="302" spans="1:10">
-      <c r="A302" s="25"/>
+      <c r="H301" s="6"/>
+      <c r="I301" s="4"/>
+      <c r="J301" s="4"/>
+    </row>
+    <row r="302" spans="1:10" s="4" customFormat="1">
+      <c r="A302" s="37"/>
       <c r="B302" s="25"/>
       <c r="C302" s="26"/>
       <c r="D302" s="26"/>
       <c r="E302" s="29"/>
       <c r="F302" s="28"/>
-      <c r="G302" s="29"/>
+      <c r="G302" s="1"/>
       <c r="H302" s="6"/>
-      <c r="I302" s="4"/>
-      <c r="J302" s="4"/>
-    </row>
-    <row r="303" spans="1:10" s="4" customFormat="1">
-      <c r="A303" s="37"/>
-      <c r="B303" s="25"/>
+    </row>
+    <row r="303" spans="1:10" s="25" customFormat="1">
       <c r="C303" s="26"/>
       <c r="D303" s="26"/>
       <c r="E303" s="29"/>
       <c r="F303" s="28"/>
-      <c r="G303" s="1"/>
-      <c r="H303" s="6"/>
+      <c r="G303" s="29"/>
+      <c r="H303" s="29"/>
     </row>
     <row r="304" spans="1:10" s="25" customFormat="1">
+      <c r="A304" s="42"/>
+      <c r="B304" s="42"/>
       <c r="C304" s="26"/>
       <c r="D304" s="26"/>
       <c r="E304" s="29"/>
-      <c r="F304" s="28"/>
+      <c r="F304" s="29"/>
       <c r="G304" s="29"/>
       <c r="H304" s="29"/>
     </row>
-    <row r="305" spans="1:10" s="25" customFormat="1">
-      <c r="A305" s="42"/>
-      <c r="B305" s="42"/>
+    <row r="305" spans="1:10" s="4" customFormat="1">
+      <c r="A305" s="25"/>
+      <c r="B305" s="25"/>
       <c r="C305" s="26"/>
       <c r="D305" s="26"/>
       <c r="E305" s="29"/>
-      <c r="F305" s="29"/>
+      <c r="F305" s="28"/>
       <c r="G305" s="29"/>
-      <c r="H305" s="29"/>
-    </row>
-    <row r="306" spans="1:10" s="4" customFormat="1">
+      <c r="H305" s="6"/>
+    </row>
+    <row r="306" spans="1:10">
       <c r="A306" s="25"/>
       <c r="B306" s="25"/>
       <c r="C306" s="26"/>
       <c r="D306" s="26"/>
       <c r="E306" s="29"/>
       <c r="F306" s="28"/>
-      <c r="G306" s="29"/>
-      <c r="H306" s="6"/>
-    </row>
-    <row r="307" spans="1:10">
-      <c r="A307" s="25"/>
-      <c r="B307" s="25"/>
+    </row>
+    <row r="307" spans="1:10" s="25" customFormat="1">
       <c r="C307" s="26"/>
       <c r="D307" s="26"/>
       <c r="E307" s="29"/>
-      <c r="F307" s="28"/>
+      <c r="F307" s="32"/>
+      <c r="G307" s="29"/>
+      <c r="H307" s="29"/>
     </row>
     <row r="308" spans="1:10" s="25" customFormat="1">
       <c r="C308" s="26"/>
       <c r="D308" s="26"/>
       <c r="E308" s="29"/>
-      <c r="F308" s="32"/>
+      <c r="F308" s="39"/>
       <c r="G308" s="29"/>
       <c r="H308" s="29"/>
     </row>
@@ -7899,7 +7898,7 @@
       <c r="C309" s="26"/>
       <c r="D309" s="26"/>
       <c r="E309" s="29"/>
-      <c r="F309" s="39"/>
+      <c r="F309" s="28"/>
       <c r="G309" s="29"/>
       <c r="H309" s="29"/>
     </row>
@@ -7907,7 +7906,7 @@
       <c r="C310" s="26"/>
       <c r="D310" s="26"/>
       <c r="E310" s="29"/>
-      <c r="F310" s="28"/>
+      <c r="F310" s="29"/>
       <c r="G310" s="29"/>
       <c r="H310" s="29"/>
     </row>
@@ -7915,7 +7914,7 @@
       <c r="C311" s="26"/>
       <c r="D311" s="26"/>
       <c r="E311" s="29"/>
-      <c r="F311" s="29"/>
+      <c r="F311" s="28"/>
       <c r="G311" s="29"/>
       <c r="H311" s="29"/>
     </row>
@@ -7923,7 +7922,7 @@
       <c r="C312" s="26"/>
       <c r="D312" s="26"/>
       <c r="E312" s="29"/>
-      <c r="F312" s="28"/>
+      <c r="F312" s="29"/>
       <c r="G312" s="29"/>
       <c r="H312" s="29"/>
     </row>
@@ -7931,39 +7930,41 @@
       <c r="C313" s="26"/>
       <c r="D313" s="26"/>
       <c r="E313" s="29"/>
-      <c r="F313" s="29"/>
+      <c r="F313" s="28"/>
       <c r="G313" s="29"/>
-      <c r="H313" s="29"/>
+      <c r="H313" s="32"/>
     </row>
     <row r="314" spans="1:10" s="25" customFormat="1">
+      <c r="A314" s="37"/>
       <c r="C314" s="26"/>
       <c r="D314" s="26"/>
       <c r="E314" s="29"/>
       <c r="F314" s="28"/>
       <c r="G314" s="29"/>
-      <c r="H314" s="32"/>
-    </row>
-    <row r="315" spans="1:10" s="25" customFormat="1">
-      <c r="A315" s="37"/>
+      <c r="H314" s="29"/>
+    </row>
+    <row r="315" spans="1:10" s="4" customFormat="1">
+      <c r="A315" s="42"/>
+      <c r="B315" s="25"/>
       <c r="C315" s="26"/>
       <c r="D315" s="26"/>
       <c r="E315" s="29"/>
       <c r="F315" s="28"/>
-      <c r="G315" s="29"/>
-      <c r="H315" s="29"/>
-    </row>
-    <row r="316" spans="1:10" s="4" customFormat="1">
-      <c r="A316" s="42"/>
-      <c r="B316" s="25"/>
+      <c r="G315" s="1"/>
+      <c r="H315" s="6"/>
+    </row>
+    <row r="316" spans="1:10" s="25" customFormat="1">
+      <c r="A316" s="37"/>
       <c r="C316" s="26"/>
       <c r="D316" s="26"/>
       <c r="E316" s="29"/>
       <c r="F316" s="28"/>
-      <c r="G316" s="1"/>
-      <c r="H316" s="6"/>
+      <c r="G316" s="29"/>
+      <c r="H316" s="29"/>
     </row>
     <row r="317" spans="1:10" s="25" customFormat="1">
       <c r="A317" s="37"/>
+      <c r="B317" s="35"/>
       <c r="C317" s="26"/>
       <c r="D317" s="26"/>
       <c r="E317" s="29"/>
@@ -7972,8 +7973,6 @@
       <c r="H317" s="29"/>
     </row>
     <row r="318" spans="1:10" s="25" customFormat="1">
-      <c r="A318" s="37"/>
-      <c r="B318" s="35"/>
       <c r="C318" s="26"/>
       <c r="D318" s="26"/>
       <c r="E318" s="29"/>
@@ -7981,26 +7980,27 @@
       <c r="G318" s="29"/>
       <c r="H318" s="29"/>
     </row>
-    <row r="319" spans="1:10" s="25" customFormat="1">
+    <row r="319" spans="1:10">
+      <c r="A319" s="25"/>
+      <c r="B319" s="25"/>
       <c r="C319" s="26"/>
       <c r="D319" s="26"/>
       <c r="E319" s="29"/>
       <c r="F319" s="28"/>
-      <c r="G319" s="29"/>
-      <c r="H319" s="29"/>
-    </row>
-    <row r="320" spans="1:10">
-      <c r="A320" s="25"/>
-      <c r="B320" s="25"/>
+      <c r="H319" s="6"/>
+      <c r="I319" s="4"/>
+      <c r="J319" s="4"/>
+    </row>
+    <row r="320" spans="1:10" s="25" customFormat="1">
       <c r="C320" s="26"/>
       <c r="D320" s="26"/>
       <c r="E320" s="29"/>
       <c r="F320" s="28"/>
-      <c r="H320" s="6"/>
-      <c r="I320" s="4"/>
-      <c r="J320" s="4"/>
+      <c r="G320" s="29"/>
+      <c r="H320" s="29"/>
     </row>
     <row r="321" spans="1:8" s="25" customFormat="1">
+      <c r="A321" s="37"/>
       <c r="C321" s="26"/>
       <c r="D321" s="26"/>
       <c r="E321" s="29"/>
@@ -8018,7 +8018,6 @@
       <c r="H322" s="29"/>
     </row>
     <row r="323" spans="1:8" s="25" customFormat="1">
-      <c r="A323" s="37"/>
       <c r="C323" s="26"/>
       <c r="D323" s="26"/>
       <c r="E323" s="29"/>
@@ -8027,69 +8026,70 @@
       <c r="H323" s="29"/>
     </row>
     <row r="324" spans="1:8" s="25" customFormat="1">
+      <c r="A324" s="37"/>
       <c r="C324" s="26"/>
       <c r="D324" s="26"/>
       <c r="E324" s="29"/>
       <c r="F324" s="28"/>
       <c r="G324" s="29"/>
-      <c r="H324" s="29"/>
-    </row>
-    <row r="325" spans="1:8" s="25" customFormat="1">
-      <c r="A325" s="37"/>
+      <c r="H324" s="32"/>
+    </row>
+    <row r="325" spans="1:8" s="41" customFormat="1">
+      <c r="A325" s="42"/>
+      <c r="B325" s="25"/>
       <c r="C325" s="26"/>
       <c r="D325" s="26"/>
       <c r="E325" s="29"/>
-      <c r="F325" s="28"/>
+      <c r="F325" s="39"/>
       <c r="G325" s="29"/>
-      <c r="H325" s="32"/>
+      <c r="H325" s="40"/>
     </row>
     <row r="326" spans="1:8" s="41" customFormat="1">
-      <c r="A326" s="42"/>
+      <c r="A326" s="25"/>
       <c r="B326" s="25"/>
       <c r="C326" s="26"/>
       <c r="D326" s="26"/>
       <c r="E326" s="29"/>
-      <c r="F326" s="39"/>
+      <c r="F326" s="28"/>
       <c r="G326" s="29"/>
       <c r="H326" s="40"/>
     </row>
-    <row r="327" spans="1:8" s="41" customFormat="1">
-      <c r="A327" s="25"/>
-      <c r="B327" s="25"/>
+    <row r="327" spans="1:8" s="25" customFormat="1">
       <c r="C327" s="26"/>
       <c r="D327" s="26"/>
       <c r="E327" s="29"/>
       <c r="F327" s="28"/>
       <c r="G327" s="29"/>
-      <c r="H327" s="40"/>
+      <c r="H327" s="29"/>
     </row>
     <row r="328" spans="1:8" s="25" customFormat="1">
+      <c r="A328" s="37"/>
       <c r="C328" s="26"/>
       <c r="D328" s="26"/>
       <c r="E328" s="29"/>
-      <c r="F328" s="28"/>
+      <c r="F328" s="39"/>
       <c r="G328" s="29"/>
       <c r="H328" s="29"/>
     </row>
     <row r="329" spans="1:8" s="25" customFormat="1">
-      <c r="A329" s="37"/>
       <c r="C329" s="26"/>
       <c r="D329" s="26"/>
       <c r="E329" s="29"/>
-      <c r="F329" s="39"/>
+      <c r="F329" s="28"/>
       <c r="G329" s="29"/>
-      <c r="H329" s="29"/>
+      <c r="H329" s="32"/>
     </row>
     <row r="330" spans="1:8" s="25" customFormat="1">
+      <c r="A330" s="37"/>
       <c r="C330" s="26"/>
       <c r="D330" s="26"/>
       <c r="E330" s="29"/>
       <c r="F330" s="28"/>
       <c r="G330" s="29"/>
-      <c r="H330" s="32"/>
+      <c r="H330" s="29"/>
     </row>
     <row r="331" spans="1:8" s="25" customFormat="1">
-      <c r="A331" s="37"/>
+      <c r="A331" s="42"/>
       <c r="C331" s="26"/>
       <c r="D331" s="26"/>
       <c r="E331" s="29"/>
@@ -8107,7 +8107,6 @@
       <c r="H332" s="29"/>
     </row>
     <row r="333" spans="1:8" s="25" customFormat="1">
-      <c r="A333" s="42"/>
       <c r="C333" s="26"/>
       <c r="D333" s="26"/>
       <c r="E333" s="29"/>
@@ -8116,6 +8115,7 @@
       <c r="H333" s="29"/>
     </row>
     <row r="334" spans="1:8" s="25" customFormat="1">
+      <c r="A334" s="37"/>
       <c r="C334" s="26"/>
       <c r="D334" s="26"/>
       <c r="E334" s="29"/>
@@ -8124,7 +8124,8 @@
       <c r="H334" s="29"/>
     </row>
     <row r="335" spans="1:8" s="25" customFormat="1">
-      <c r="A335" s="37"/>
+      <c r="A335" s="42"/>
+      <c r="B335" s="35"/>
       <c r="C335" s="26"/>
       <c r="D335" s="26"/>
       <c r="E335" s="29"/>
@@ -8134,7 +8135,6 @@
     </row>
     <row r="336" spans="1:8" s="25" customFormat="1">
       <c r="A336" s="42"/>
-      <c r="B336" s="35"/>
       <c r="C336" s="26"/>
       <c r="D336" s="26"/>
       <c r="E336" s="29"/>
@@ -8144,6 +8144,7 @@
     </row>
     <row r="337" spans="1:10" s="25" customFormat="1">
       <c r="A337" s="42"/>
+      <c r="B337" s="35"/>
       <c r="C337" s="26"/>
       <c r="D337" s="26"/>
       <c r="E337" s="29"/>
@@ -8152,35 +8153,35 @@
       <c r="H337" s="29"/>
     </row>
     <row r="338" spans="1:10" s="25" customFormat="1">
-      <c r="A338" s="42"/>
-      <c r="B338" s="35"/>
       <c r="C338" s="26"/>
       <c r="D338" s="26"/>
       <c r="E338" s="29"/>
       <c r="F338" s="28"/>
       <c r="G338" s="29"/>
       <c r="H338" s="29"/>
+      <c r="J338" s="36"/>
     </row>
     <row r="339" spans="1:10" s="25" customFormat="1">
+      <c r="A339" s="37"/>
       <c r="C339" s="26"/>
       <c r="D339" s="26"/>
       <c r="E339" s="29"/>
-      <c r="F339" s="28"/>
+      <c r="F339" s="29"/>
       <c r="G339" s="29"/>
       <c r="H339" s="29"/>
-      <c r="J339" s="36"/>
     </row>
     <row r="340" spans="1:10" s="25" customFormat="1">
       <c r="A340" s="37"/>
       <c r="C340" s="26"/>
       <c r="D340" s="26"/>
       <c r="E340" s="29"/>
-      <c r="F340" s="29"/>
+      <c r="F340" s="32"/>
       <c r="G340" s="29"/>
       <c r="H340" s="29"/>
     </row>
     <row r="341" spans="1:10" s="25" customFormat="1">
-      <c r="A341" s="37"/>
+      <c r="A341" s="35"/>
+      <c r="B341" s="35"/>
       <c r="C341" s="26"/>
       <c r="D341" s="26"/>
       <c r="E341" s="29"/>
@@ -8189,44 +8190,42 @@
       <c r="H341" s="29"/>
     </row>
     <row r="342" spans="1:10" s="25" customFormat="1">
-      <c r="A342" s="35"/>
-      <c r="B342" s="35"/>
+      <c r="A342" s="37"/>
       <c r="C342" s="26"/>
       <c r="D342" s="26"/>
       <c r="E342" s="29"/>
-      <c r="F342" s="32"/>
+      <c r="F342" s="28"/>
       <c r="G342" s="29"/>
       <c r="H342" s="29"/>
     </row>
     <row r="343" spans="1:10" s="25" customFormat="1">
-      <c r="A343" s="37"/>
+      <c r="A343" s="42"/>
       <c r="C343" s="26"/>
-      <c r="D343" s="26"/>
-      <c r="E343" s="29"/>
+      <c r="D343" s="27"/>
+      <c r="E343" s="28"/>
       <c r="F343" s="28"/>
       <c r="G343" s="29"/>
       <c r="H343" s="29"/>
     </row>
     <row r="344" spans="1:10" s="25" customFormat="1">
-      <c r="A344" s="42"/>
+      <c r="A344" s="37"/>
       <c r="C344" s="26"/>
       <c r="D344" s="27"/>
       <c r="E344" s="28"/>
-      <c r="F344" s="28"/>
+      <c r="F344" s="29"/>
       <c r="G344" s="29"/>
       <c r="H344" s="29"/>
     </row>
     <row r="345" spans="1:10" s="25" customFormat="1">
       <c r="A345" s="37"/>
       <c r="C345" s="26"/>
-      <c r="D345" s="27"/>
-      <c r="E345" s="28"/>
-      <c r="F345" s="29"/>
+      <c r="D345" s="26"/>
+      <c r="E345" s="29"/>
+      <c r="F345" s="28"/>
       <c r="G345" s="29"/>
       <c r="H345" s="29"/>
     </row>
     <row r="346" spans="1:10" s="25" customFormat="1">
-      <c r="A346" s="37"/>
       <c r="C346" s="26"/>
       <c r="D346" s="26"/>
       <c r="E346" s="29"/>
@@ -8235,6 +8234,8 @@
       <c r="H346" s="29"/>
     </row>
     <row r="347" spans="1:10" s="25" customFormat="1">
+      <c r="A347" s="42"/>
+      <c r="B347" s="35"/>
       <c r="C347" s="26"/>
       <c r="D347" s="26"/>
       <c r="E347" s="29"/>
@@ -8243,8 +8244,7 @@
       <c r="H347" s="29"/>
     </row>
     <row r="348" spans="1:10" s="25" customFormat="1">
-      <c r="A348" s="42"/>
-      <c r="B348" s="35"/>
+      <c r="A348" s="37"/>
       <c r="C348" s="26"/>
       <c r="D348" s="26"/>
       <c r="E348" s="29"/>
@@ -8255,86 +8255,87 @@
     <row r="349" spans="1:10" s="25" customFormat="1">
       <c r="A349" s="37"/>
       <c r="C349" s="26"/>
-      <c r="D349" s="26"/>
-      <c r="E349" s="29"/>
-      <c r="F349" s="28"/>
+      <c r="D349" s="27"/>
+      <c r="E349" s="28"/>
+      <c r="F349" s="29"/>
       <c r="G349" s="29"/>
       <c r="H349" s="29"/>
     </row>
     <row r="350" spans="1:10" s="25" customFormat="1">
-      <c r="A350" s="37"/>
       <c r="C350" s="26"/>
       <c r="D350" s="27"/>
       <c r="E350" s="28"/>
-      <c r="F350" s="29"/>
+      <c r="F350" s="28"/>
       <c r="G350" s="29"/>
       <c r="H350" s="29"/>
     </row>
-    <row r="351" spans="1:10" s="25" customFormat="1">
+    <row r="351" spans="1:10" s="41" customFormat="1">
+      <c r="A351" s="37"/>
+      <c r="B351" s="35"/>
       <c r="C351" s="26"/>
-      <c r="D351" s="27"/>
+      <c r="D351" s="26"/>
       <c r="E351" s="28"/>
-      <c r="F351" s="28"/>
-      <c r="G351" s="29"/>
-      <c r="H351" s="29"/>
-    </row>
-    <row r="352" spans="1:10" s="41" customFormat="1">
+      <c r="F351" s="39"/>
+      <c r="G351" s="40"/>
+      <c r="H351" s="40"/>
+    </row>
+    <row r="352" spans="1:10" s="25" customFormat="1">
       <c r="A352" s="37"/>
-      <c r="B352" s="35"/>
       <c r="C352" s="26"/>
       <c r="D352" s="26"/>
-      <c r="E352" s="28"/>
+      <c r="E352" s="29"/>
       <c r="F352" s="39"/>
-      <c r="G352" s="40"/>
-      <c r="H352" s="40"/>
-    </row>
-    <row r="353" spans="1:10" s="25" customFormat="1">
+      <c r="G352" s="29"/>
+      <c r="H352" s="29"/>
+    </row>
+    <row r="353" spans="1:10" s="4" customFormat="1">
       <c r="A353" s="37"/>
+      <c r="B353" s="35"/>
       <c r="C353" s="26"/>
       <c r="D353" s="26"/>
       <c r="E353" s="29"/>
-      <c r="F353" s="39"/>
-      <c r="G353" s="29"/>
-      <c r="H353" s="29"/>
-    </row>
-    <row r="354" spans="1:10" s="4" customFormat="1">
-      <c r="A354" s="37"/>
+      <c r="F353" s="28"/>
+      <c r="G353" s="1"/>
+      <c r="H353" s="6"/>
+    </row>
+    <row r="354" spans="1:10" s="25" customFormat="1">
+      <c r="A354" s="42"/>
       <c r="B354" s="35"/>
       <c r="C354" s="26"/>
       <c r="D354" s="26"/>
       <c r="E354" s="29"/>
       <c r="F354" s="28"/>
-      <c r="G354" s="1"/>
-      <c r="H354" s="6"/>
+      <c r="G354" s="29"/>
+      <c r="H354" s="29"/>
     </row>
     <row r="355" spans="1:10" s="25" customFormat="1">
-      <c r="A355" s="42"/>
-      <c r="B355" s="35"/>
       <c r="C355" s="26"/>
       <c r="D355" s="26"/>
       <c r="E355" s="29"/>
       <c r="F355" s="28"/>
       <c r="G355" s="29"/>
       <c r="H355" s="29"/>
-    </row>
-    <row r="356" spans="1:10" s="25" customFormat="1">
+      <c r="J355" s="36"/>
+    </row>
+    <row r="356" spans="1:10" s="41" customFormat="1">
+      <c r="A356" s="42"/>
+      <c r="B356" s="35"/>
       <c r="C356" s="26"/>
       <c r="D356" s="26"/>
       <c r="E356" s="29"/>
       <c r="F356" s="28"/>
-      <c r="G356" s="29"/>
-      <c r="H356" s="29"/>
-      <c r="J356" s="36"/>
-    </row>
-    <row r="357" spans="1:10" s="41" customFormat="1">
-      <c r="A357" s="42"/>
+      <c r="G356" s="40"/>
+      <c r="H356" s="40"/>
+    </row>
+    <row r="357" spans="1:10" s="25" customFormat="1">
+      <c r="A357" s="37"/>
       <c r="B357" s="35"/>
       <c r="C357" s="26"/>
       <c r="D357" s="26"/>
       <c r="E357" s="29"/>
-      <c r="F357" s="28"/>
-      <c r="G357" s="40"/>
-      <c r="H357" s="40"/>
+      <c r="F357" s="39"/>
+      <c r="G357" s="29"/>
+      <c r="H357" s="29"/>
     </row>
     <row r="358" spans="1:10" s="25" customFormat="1">
       <c r="A358" s="37"/>
@@ -8342,17 +8343,15 @@
       <c r="C358" s="26"/>
       <c r="D358" s="26"/>
       <c r="E358" s="29"/>
-      <c r="F358" s="39"/>
+      <c r="F358" s="28"/>
       <c r="G358" s="29"/>
       <c r="H358" s="29"/>
     </row>
     <row r="359" spans="1:10" s="25" customFormat="1">
-      <c r="A359" s="37"/>
-      <c r="B359" s="35"/>
       <c r="C359" s="26"/>
       <c r="D359" s="26"/>
       <c r="E359" s="29"/>
-      <c r="F359" s="28"/>
+      <c r="F359" s="29"/>
       <c r="G359" s="29"/>
       <c r="H359" s="29"/>
     </row>
@@ -8360,11 +8359,12 @@
       <c r="C360" s="26"/>
       <c r="D360" s="26"/>
       <c r="E360" s="29"/>
-      <c r="F360" s="29"/>
+      <c r="F360" s="28"/>
       <c r="G360" s="29"/>
       <c r="H360" s="29"/>
     </row>
     <row r="361" spans="1:10" s="25" customFormat="1">
+      <c r="A361" s="37"/>
       <c r="C361" s="26"/>
       <c r="D361" s="26"/>
       <c r="E361" s="29"/>
@@ -8372,35 +8372,36 @@
       <c r="G361" s="29"/>
       <c r="H361" s="29"/>
     </row>
-    <row r="362" spans="1:10" s="25" customFormat="1">
-      <c r="A362" s="37"/>
+    <row r="362" spans="1:10" s="4" customFormat="1">
+      <c r="A362" s="42"/>
+      <c r="B362" s="35"/>
       <c r="C362" s="26"/>
       <c r="D362" s="26"/>
       <c r="E362" s="29"/>
-      <c r="F362" s="28"/>
-      <c r="G362" s="29"/>
-      <c r="H362" s="29"/>
-    </row>
-    <row r="363" spans="1:10" s="4" customFormat="1">
-      <c r="A363" s="42"/>
-      <c r="B363" s="35"/>
-      <c r="C363" s="26"/>
+      <c r="F362" s="39"/>
+      <c r="G362" s="1"/>
+      <c r="H362" s="6"/>
+    </row>
+    <row r="363" spans="1:10" s="41" customFormat="1">
+      <c r="A363" s="43"/>
+      <c r="C363" s="44"/>
       <c r="D363" s="26"/>
       <c r="E363" s="29"/>
-      <c r="F363" s="39"/>
-      <c r="G363" s="1"/>
-      <c r="H363" s="6"/>
-    </row>
-    <row r="364" spans="1:10" s="41" customFormat="1">
-      <c r="A364" s="43"/>
-      <c r="C364" s="44"/>
+      <c r="F363" s="45"/>
+      <c r="G363" s="40"/>
+      <c r="H363" s="40"/>
+    </row>
+    <row r="364" spans="1:10" s="25" customFormat="1">
+      <c r="C364" s="26"/>
       <c r="D364" s="26"/>
       <c r="E364" s="29"/>
-      <c r="F364" s="45"/>
-      <c r="G364" s="40"/>
-      <c r="H364" s="40"/>
+      <c r="F364" s="28"/>
+      <c r="G364" s="29"/>
+      <c r="H364" s="29"/>
     </row>
     <row r="365" spans="1:10" s="25" customFormat="1">
+      <c r="A365" s="42"/>
+      <c r="B365" s="35"/>
       <c r="C365" s="26"/>
       <c r="D365" s="26"/>
       <c r="E365" s="29"/>
@@ -8414,7 +8415,7 @@
       <c r="C366" s="26"/>
       <c r="D366" s="26"/>
       <c r="E366" s="29"/>
-      <c r="F366" s="28"/>
+      <c r="F366" s="29"/>
       <c r="G366" s="29"/>
       <c r="H366" s="29"/>
     </row>
@@ -8424,26 +8425,24 @@
       <c r="C367" s="26"/>
       <c r="D367" s="26"/>
       <c r="E367" s="29"/>
-      <c r="F367" s="29"/>
+      <c r="F367" s="28"/>
       <c r="G367" s="29"/>
       <c r="H367" s="29"/>
     </row>
     <row r="368" spans="1:10" s="25" customFormat="1">
-      <c r="A368" s="42"/>
-      <c r="B368" s="35"/>
+      <c r="A368" s="37"/>
       <c r="C368" s="26"/>
       <c r="D368" s="26"/>
       <c r="E368" s="29"/>
-      <c r="F368" s="28"/>
+      <c r="F368" s="39"/>
       <c r="G368" s="29"/>
       <c r="H368" s="29"/>
     </row>
     <row r="369" spans="1:8" s="25" customFormat="1">
-      <c r="A369" s="37"/>
       <c r="C369" s="26"/>
       <c r="D369" s="26"/>
       <c r="E369" s="29"/>
-      <c r="F369" s="39"/>
+      <c r="F369" s="29"/>
       <c r="G369" s="29"/>
       <c r="H369" s="29"/>
     </row>
@@ -8451,11 +8450,12 @@
       <c r="C370" s="26"/>
       <c r="D370" s="26"/>
       <c r="E370" s="29"/>
-      <c r="F370" s="29"/>
+      <c r="F370" s="28"/>
       <c r="G370" s="29"/>
       <c r="H370" s="29"/>
     </row>
     <row r="371" spans="1:8" s="25" customFormat="1">
+      <c r="A371" s="37"/>
       <c r="C371" s="26"/>
       <c r="D371" s="26"/>
       <c r="E371" s="29"/>
@@ -8463,8 +8463,9 @@
       <c r="G371" s="29"/>
       <c r="H371" s="29"/>
     </row>
-    <row r="372" spans="1:8" s="25" customFormat="1">
+    <row r="372" spans="1:8" s="25" customFormat="1" ht="14.75" customHeight="1">
       <c r="A372" s="37"/>
+      <c r="B372" s="35"/>
       <c r="C372" s="26"/>
       <c r="D372" s="26"/>
       <c r="E372" s="29"/>
@@ -8472,7 +8473,7 @@
       <c r="G372" s="29"/>
       <c r="H372" s="29"/>
     </row>
-    <row r="373" spans="1:8" s="25" customFormat="1" ht="14.75" customHeight="1">
+    <row r="373" spans="1:8" s="25" customFormat="1">
       <c r="A373" s="37"/>
       <c r="B373" s="35"/>
       <c r="C373" s="26"/>
@@ -8483,64 +8484,64 @@
       <c r="H373" s="29"/>
     </row>
     <row r="374" spans="1:8" s="25" customFormat="1">
-      <c r="A374" s="37"/>
-      <c r="B374" s="35"/>
+      <c r="A374" s="42"/>
       <c r="C374" s="26"/>
       <c r="D374" s="26"/>
       <c r="E374" s="29"/>
-      <c r="F374" s="28"/>
+      <c r="F374" s="46"/>
       <c r="G374" s="29"/>
       <c r="H374" s="29"/>
     </row>
     <row r="375" spans="1:8" s="25" customFormat="1">
       <c r="A375" s="42"/>
+      <c r="B375" s="35"/>
       <c r="C375" s="26"/>
       <c r="D375" s="26"/>
       <c r="E375" s="29"/>
-      <c r="F375" s="46"/>
+      <c r="F375" s="39"/>
       <c r="G375" s="29"/>
       <c r="H375" s="29"/>
     </row>
     <row r="376" spans="1:8" s="25" customFormat="1">
-      <c r="A376" s="42"/>
-      <c r="B376" s="35"/>
+      <c r="A376" s="37"/>
       <c r="C376" s="26"/>
       <c r="D376" s="26"/>
       <c r="E376" s="29"/>
-      <c r="F376" s="39"/>
+      <c r="F376" s="28"/>
       <c r="G376" s="29"/>
       <c r="H376" s="29"/>
     </row>
     <row r="377" spans="1:8" s="25" customFormat="1">
-      <c r="A377" s="37"/>
+      <c r="A377" s="42"/>
+      <c r="B377" s="35"/>
       <c r="C377" s="26"/>
       <c r="D377" s="26"/>
       <c r="E377" s="29"/>
-      <c r="F377" s="28"/>
+      <c r="F377" s="39"/>
       <c r="G377" s="29"/>
       <c r="H377" s="29"/>
     </row>
-    <row r="378" spans="1:8" s="25" customFormat="1">
-      <c r="A378" s="42"/>
-      <c r="B378" s="35"/>
+    <row r="378" spans="1:8" s="4" customFormat="1">
+      <c r="A378" s="25"/>
+      <c r="B378" s="25"/>
       <c r="C378" s="26"/>
       <c r="D378" s="26"/>
       <c r="E378" s="29"/>
-      <c r="F378" s="39"/>
-      <c r="G378" s="29"/>
-      <c r="H378" s="29"/>
-    </row>
-    <row r="379" spans="1:8" s="4" customFormat="1">
-      <c r="A379" s="25"/>
-      <c r="B379" s="25"/>
+      <c r="F378" s="28"/>
+      <c r="G378" s="1"/>
+      <c r="H378" s="6"/>
+    </row>
+    <row r="379" spans="1:8" s="25" customFormat="1">
       <c r="C379" s="26"/>
       <c r="D379" s="26"/>
       <c r="E379" s="29"/>
       <c r="F379" s="28"/>
-      <c r="G379" s="1"/>
-      <c r="H379" s="6"/>
+      <c r="G379" s="29"/>
+      <c r="H379" s="29"/>
     </row>
     <row r="380" spans="1:8" s="25" customFormat="1">
+      <c r="A380" s="42"/>
+      <c r="B380" s="35"/>
       <c r="C380" s="26"/>
       <c r="D380" s="26"/>
       <c r="E380" s="29"/>
@@ -8550,16 +8551,15 @@
     </row>
     <row r="381" spans="1:8" s="25" customFormat="1">
       <c r="A381" s="42"/>
-      <c r="B381" s="35"/>
       <c r="C381" s="26"/>
       <c r="D381" s="26"/>
       <c r="E381" s="29"/>
-      <c r="F381" s="28"/>
+      <c r="F381" s="46"/>
       <c r="G381" s="29"/>
       <c r="H381" s="29"/>
     </row>
     <row r="382" spans="1:8" s="25" customFormat="1">
-      <c r="A382" s="42"/>
+      <c r="A382" s="37"/>
       <c r="C382" s="26"/>
       <c r="D382" s="26"/>
       <c r="E382" s="29"/>
@@ -8567,44 +8567,43 @@
       <c r="G382" s="29"/>
       <c r="H382" s="29"/>
     </row>
-    <row r="383" spans="1:8" s="25" customFormat="1">
+    <row r="383" spans="1:8" s="4" customFormat="1">
       <c r="A383" s="37"/>
+      <c r="B383" s="25"/>
       <c r="C383" s="26"/>
       <c r="D383" s="26"/>
       <c r="E383" s="29"/>
-      <c r="F383" s="46"/>
-      <c r="G383" s="29"/>
-      <c r="H383" s="29"/>
+      <c r="F383" s="28"/>
+      <c r="G383" s="1"/>
+      <c r="H383" s="6"/>
     </row>
     <row r="384" spans="1:8" s="4" customFormat="1">
-      <c r="A384" s="37"/>
+      <c r="A384" s="25"/>
       <c r="B384" s="25"/>
       <c r="C384" s="26"/>
       <c r="D384" s="26"/>
       <c r="E384" s="29"/>
-      <c r="F384" s="28"/>
+      <c r="F384" s="32"/>
       <c r="G384" s="1"/>
       <c r="H384" s="6"/>
     </row>
     <row r="385" spans="1:8" s="4" customFormat="1">
-      <c r="A385" s="25"/>
+      <c r="A385" s="37"/>
       <c r="B385" s="25"/>
       <c r="C385" s="26"/>
       <c r="D385" s="26"/>
       <c r="E385" s="29"/>
-      <c r="F385" s="32"/>
+      <c r="F385" s="28"/>
       <c r="G385" s="1"/>
       <c r="H385" s="6"/>
     </row>
-    <row r="386" spans="1:8" s="4" customFormat="1">
-      <c r="A386" s="37"/>
-      <c r="B386" s="25"/>
+    <row r="386" spans="1:8" s="25" customFormat="1">
       <c r="C386" s="26"/>
       <c r="D386" s="26"/>
       <c r="E386" s="29"/>
       <c r="F386" s="28"/>
-      <c r="G386" s="1"/>
-      <c r="H386" s="6"/>
+      <c r="G386" s="29"/>
+      <c r="H386" s="29"/>
     </row>
     <row r="387" spans="1:8" s="25" customFormat="1">
       <c r="C387" s="26"/>
@@ -8615,6 +8614,8 @@
       <c r="H387" s="29"/>
     </row>
     <row r="388" spans="1:8" s="25" customFormat="1">
+      <c r="A388" s="42"/>
+      <c r="B388" s="35"/>
       <c r="C388" s="26"/>
       <c r="D388" s="26"/>
       <c r="E388" s="29"/>
@@ -8623,8 +8624,6 @@
       <c r="H388" s="29"/>
     </row>
     <row r="389" spans="1:8" s="25" customFormat="1">
-      <c r="A389" s="42"/>
-      <c r="B389" s="35"/>
       <c r="C389" s="26"/>
       <c r="D389" s="26"/>
       <c r="E389" s="29"/>
@@ -8632,72 +8631,72 @@
       <c r="G389" s="29"/>
       <c r="H389" s="29"/>
     </row>
-    <row r="390" spans="1:8" s="25" customFormat="1">
+    <row r="390" spans="1:8" s="4" customFormat="1">
+      <c r="A390" s="37"/>
+      <c r="B390" s="25"/>
       <c r="C390" s="26"/>
       <c r="D390" s="26"/>
       <c r="E390" s="29"/>
       <c r="F390" s="28"/>
-      <c r="G390" s="29"/>
-      <c r="H390" s="29"/>
-    </row>
-    <row r="391" spans="1:8" s="4" customFormat="1">
-      <c r="A391" s="37"/>
-      <c r="B391" s="25"/>
+      <c r="G390" s="1"/>
+      <c r="H390" s="6"/>
+    </row>
+    <row r="391" spans="1:8" s="25" customFormat="1">
       <c r="C391" s="26"/>
       <c r="D391" s="26"/>
       <c r="E391" s="29"/>
       <c r="F391" s="28"/>
-      <c r="G391" s="1"/>
-      <c r="H391" s="6"/>
-    </row>
-    <row r="392" spans="1:8" s="25" customFormat="1">
+      <c r="G391" s="29"/>
+      <c r="H391" s="29"/>
+    </row>
+    <row r="392" spans="1:8" s="4" customFormat="1">
+      <c r="A392" s="25"/>
+      <c r="B392" s="25"/>
       <c r="C392" s="26"/>
       <c r="D392" s="26"/>
       <c r="E392" s="29"/>
       <c r="F392" s="28"/>
-      <c r="G392" s="29"/>
-      <c r="H392" s="29"/>
-    </row>
-    <row r="393" spans="1:8" s="4" customFormat="1">
-      <c r="A393" s="25"/>
-      <c r="B393" s="25"/>
+      <c r="G392" s="1"/>
+      <c r="H392" s="6"/>
+    </row>
+    <row r="393" spans="1:8" s="25" customFormat="1">
       <c r="C393" s="26"/>
       <c r="D393" s="26"/>
       <c r="E393" s="29"/>
       <c r="F393" s="28"/>
-      <c r="G393" s="1"/>
-      <c r="H393" s="6"/>
+      <c r="G393" s="29"/>
+      <c r="H393" s="29"/>
     </row>
     <row r="394" spans="1:8" s="25" customFormat="1">
+      <c r="A394" s="42"/>
+      <c r="B394" s="35"/>
       <c r="C394" s="26"/>
       <c r="D394" s="26"/>
       <c r="E394" s="29"/>
-      <c r="F394" s="28"/>
+      <c r="F394" s="32"/>
       <c r="G394" s="29"/>
       <c r="H394" s="29"/>
     </row>
-    <row r="395" spans="1:8" s="25" customFormat="1">
-      <c r="A395" s="42"/>
-      <c r="B395" s="35"/>
+    <row r="395" spans="1:8" s="4" customFormat="1">
+      <c r="A395" s="37"/>
+      <c r="B395" s="25"/>
       <c r="C395" s="26"/>
       <c r="D395" s="26"/>
       <c r="E395" s="29"/>
-      <c r="F395" s="32"/>
+      <c r="F395" s="28"/>
       <c r="G395" s="29"/>
-      <c r="H395" s="29"/>
-    </row>
-    <row r="396" spans="1:8" s="4" customFormat="1">
-      <c r="A396" s="37"/>
-      <c r="B396" s="25"/>
+      <c r="H395" s="6"/>
+    </row>
+    <row r="396" spans="1:8" s="25" customFormat="1">
+      <c r="A396" s="42"/>
       <c r="C396" s="26"/>
       <c r="D396" s="26"/>
       <c r="E396" s="29"/>
       <c r="F396" s="28"/>
       <c r="G396" s="29"/>
-      <c r="H396" s="6"/>
+      <c r="H396" s="29"/>
     </row>
     <row r="397" spans="1:8" s="25" customFormat="1">
-      <c r="A397" s="42"/>
       <c r="C397" s="26"/>
       <c r="D397" s="26"/>
       <c r="E397" s="29"/>
@@ -8706,6 +8705,7 @@
       <c r="H397" s="29"/>
     </row>
     <row r="398" spans="1:8" s="25" customFormat="1">
+      <c r="A398" s="37"/>
       <c r="C398" s="26"/>
       <c r="D398" s="26"/>
       <c r="E398" s="29"/>
@@ -8714,7 +8714,6 @@
       <c r="H398" s="29"/>
     </row>
     <row r="399" spans="1:8" s="25" customFormat="1">
-      <c r="A399" s="37"/>
       <c r="C399" s="26"/>
       <c r="D399" s="26"/>
       <c r="E399" s="29"/>
@@ -8723,6 +8722,8 @@
       <c r="H399" s="29"/>
     </row>
     <row r="400" spans="1:8" s="25" customFormat="1">
+      <c r="A400" s="42"/>
+      <c r="B400" s="35"/>
       <c r="C400" s="26"/>
       <c r="D400" s="26"/>
       <c r="E400" s="29"/>
@@ -8731,8 +8732,6 @@
       <c r="H400" s="29"/>
     </row>
     <row r="401" spans="1:10" s="25" customFormat="1">
-      <c r="A401" s="42"/>
-      <c r="B401" s="35"/>
       <c r="C401" s="26"/>
       <c r="D401" s="26"/>
       <c r="E401" s="29"/>
@@ -8744,7 +8743,7 @@
       <c r="C402" s="26"/>
       <c r="D402" s="26"/>
       <c r="E402" s="29"/>
-      <c r="F402" s="28"/>
+      <c r="F402" s="32"/>
       <c r="G402" s="29"/>
       <c r="H402" s="29"/>
     </row>
@@ -8752,11 +8751,13 @@
       <c r="C403" s="26"/>
       <c r="D403" s="26"/>
       <c r="E403" s="29"/>
-      <c r="F403" s="32"/>
+      <c r="F403" s="28"/>
       <c r="G403" s="29"/>
       <c r="H403" s="29"/>
     </row>
     <row r="404" spans="1:10" s="25" customFormat="1">
+      <c r="A404" s="37"/>
+      <c r="B404" s="35"/>
       <c r="C404" s="26"/>
       <c r="D404" s="26"/>
       <c r="E404" s="29"/>
@@ -8766,11 +8767,10 @@
     </row>
     <row r="405" spans="1:10" s="25" customFormat="1">
       <c r="A405" s="37"/>
-      <c r="B405" s="35"/>
       <c r="C405" s="26"/>
       <c r="D405" s="26"/>
       <c r="E405" s="29"/>
-      <c r="F405" s="28"/>
+      <c r="F405" s="39"/>
       <c r="G405" s="29"/>
       <c r="H405" s="29"/>
     </row>
@@ -8779,16 +8779,15 @@
       <c r="C406" s="26"/>
       <c r="D406" s="26"/>
       <c r="E406" s="29"/>
-      <c r="F406" s="39"/>
+      <c r="F406" s="28"/>
       <c r="G406" s="29"/>
       <c r="H406" s="29"/>
     </row>
     <row r="407" spans="1:10" s="25" customFormat="1">
-      <c r="A407" s="37"/>
       <c r="C407" s="26"/>
       <c r="D407" s="26"/>
       <c r="E407" s="29"/>
-      <c r="F407" s="28"/>
+      <c r="F407" s="39"/>
       <c r="G407" s="29"/>
       <c r="H407" s="29"/>
     </row>
@@ -8796,27 +8795,28 @@
       <c r="C408" s="26"/>
       <c r="D408" s="26"/>
       <c r="E408" s="29"/>
-      <c r="F408" s="39"/>
+      <c r="F408" s="28"/>
       <c r="G408" s="29"/>
       <c r="H408" s="29"/>
     </row>
-    <row r="409" spans="1:10" s="25" customFormat="1">
+    <row r="409" spans="1:10" s="4" customFormat="1">
+      <c r="A409" s="37"/>
+      <c r="B409" s="25"/>
       <c r="C409" s="26"/>
       <c r="D409" s="26"/>
       <c r="E409" s="29"/>
-      <c r="F409" s="28"/>
-      <c r="G409" s="29"/>
-      <c r="H409" s="29"/>
-    </row>
-    <row r="410" spans="1:10" s="4" customFormat="1">
-      <c r="A410" s="37"/>
-      <c r="B410" s="25"/>
+      <c r="F409" s="29"/>
+      <c r="G409" s="1"/>
+      <c r="H409" s="6"/>
+    </row>
+    <row r="410" spans="1:10" s="25" customFormat="1">
       <c r="C410" s="26"/>
       <c r="D410" s="26"/>
       <c r="E410" s="29"/>
-      <c r="F410" s="29"/>
-      <c r="G410" s="1"/>
-      <c r="H410" s="6"/>
+      <c r="F410" s="28"/>
+      <c r="G410" s="29"/>
+      <c r="H410" s="29"/>
+      <c r="J410" s="38"/>
     </row>
     <row r="411" spans="1:10" s="25" customFormat="1">
       <c r="C411" s="26"/>
@@ -8825,15 +8825,6 @@
       <c r="F411" s="28"/>
       <c r="G411" s="29"/>
       <c r="H411" s="29"/>
-      <c r="J411" s="38"/>
-    </row>
-    <row r="412" spans="1:10" s="25" customFormat="1">
-      <c r="C412" s="26"/>
-      <c r="D412" s="26"/>
-      <c r="E412" s="29"/>
-      <c r="F412" s="28"/>
-      <c r="G412" s="29"/>
-      <c r="H412" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8849,10 +8840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J282"/>
+  <dimension ref="A1:J283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B275" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -15402,7 +15393,7 @@
         <v>43790</v>
       </c>
       <c r="E257" s="29">
-        <f t="shared" ref="E257:E282" si="4">D257-C257</f>
+        <f t="shared" ref="E257:E283" si="4">D257-C257</f>
         <v>246</v>
       </c>
       <c r="F257" s="28" t="s">
@@ -16057,6 +16048,31 @@
         <v>287</v>
       </c>
       <c r="H282" s="29"/>
+    </row>
+    <row r="283" spans="1:10" s="25" customFormat="1">
+      <c r="A283" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="B283" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C283" s="26">
+        <v>43706</v>
+      </c>
+      <c r="D283" s="26">
+        <v>43813</v>
+      </c>
+      <c r="E283" s="29">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+      <c r="F283" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G283" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H283" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/generateEXCEL/Data/Members/GroupRecord.xlsx
+++ b/generateEXCEL/Data/Members/GroupRecord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hguan/Dropbox/Research/Coding/WeChatGroup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338D7084-D8AA-9B49-B24F-697F6EF3F1F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418302BF-3D42-D74C-A58E-98AF82DB99BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16860" windowHeight="12500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16860" windowHeight="12500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="822">
   <si>
     <t>wisdompeak</t>
   </si>
@@ -2321,9 +2321,6 @@
     <t>Jc_Qu</t>
   </si>
   <si>
-    <t>WayFair</t>
-  </si>
-  <si>
     <t>Leo</t>
   </si>
   <si>
@@ -2355,9 +2352,6 @@
   </si>
   <si>
     <t>卫东</t>
-  </si>
-  <si>
-    <t>Fecebook</t>
   </si>
   <si>
     <t>李小婉</t>
@@ -3098,6 +3092,9 @@
   </si>
   <si>
     <t>UPenn</t>
+  </si>
+  <si>
+    <t>Wayfair</t>
   </si>
 </sst>
 </file>
@@ -3888,8 +3885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J404"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -3976,7 +3973,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="4"/>
@@ -4405,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="H25" s="6"/>
     </row>
@@ -5698,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="H94" s="6"/>
     </row>
@@ -8837,8 +8834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J290"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G116" sqref="G116"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="15"/>
@@ -11859,7 +11856,7 @@
         <v>490</v>
       </c>
       <c r="G120" s="26" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="H120" s="26"/>
       <c r="I120" s="28"/>
@@ -12119,7 +12116,7 @@
         <v>526</v>
       </c>
       <c r="G130" s="26" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="H130" s="26"/>
       <c r="I130" s="28"/>
@@ -14224,7 +14221,7 @@
         <v>525</v>
       </c>
       <c r="G211" s="26" t="s">
-        <v>666</v>
+        <v>821</v>
       </c>
       <c r="H211" s="26"/>
       <c r="I211" s="28"/>
@@ -14232,10 +14229,10 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212" s="42" t="s">
+        <v>666</v>
+      </c>
+      <c r="B212" s="51" t="s">
         <v>667</v>
-      </c>
-      <c r="B212" s="51" t="s">
-        <v>668</v>
       </c>
       <c r="C212" s="24">
         <v>43622</v>
@@ -14259,10 +14256,10 @@
     </row>
     <row r="213" spans="1:10">
       <c r="A213" s="37" t="s">
+        <v>668</v>
+      </c>
+      <c r="B213" s="49" t="s">
         <v>669</v>
-      </c>
-      <c r="B213" s="49" t="s">
-        <v>670</v>
       </c>
       <c r="C213" s="24">
         <v>43688</v>
@@ -14284,10 +14281,10 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214" s="37" t="s">
+        <v>670</v>
+      </c>
+      <c r="B214" s="49" t="s">
         <v>671</v>
-      </c>
-      <c r="B214" s="49" t="s">
-        <v>672</v>
       </c>
       <c r="C214" s="24">
         <v>43666</v>
@@ -14309,10 +14306,10 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215" s="28" t="s">
+        <v>672</v>
+      </c>
+      <c r="B215" s="49" t="s">
         <v>673</v>
-      </c>
-      <c r="B215" s="49" t="s">
-        <v>674</v>
       </c>
       <c r="C215" s="24">
         <v>43702</v>
@@ -14334,10 +14331,10 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216" s="37" t="s">
+        <v>674</v>
+      </c>
+      <c r="B216" s="51" t="s">
         <v>675</v>
-      </c>
-      <c r="B216" s="51" t="s">
-        <v>676</v>
       </c>
       <c r="C216" s="24">
         <v>43712</v>
@@ -14350,10 +14347,10 @@
         <v>15</v>
       </c>
       <c r="F216" s="39" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G216" s="26" t="s">
-        <v>678</v>
+        <v>121</v>
       </c>
       <c r="H216" s="40" t="s">
         <v>122</v>
@@ -14363,10 +14360,10 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" s="37" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B217" s="49" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C217" s="24">
         <v>43709</v>
@@ -14390,10 +14387,10 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218" s="37" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B218" s="51" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C218" s="24">
         <v>43713</v>
@@ -14415,10 +14412,10 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219" s="42" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B219" s="51" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C219" s="24">
         <v>43725</v>
@@ -14434,7 +14431,7 @@
         <v>271</v>
       </c>
       <c r="G219" s="26" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H219" s="26"/>
       <c r="I219" s="28"/>
@@ -14442,10 +14439,10 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220" s="48" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B220" s="49" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C220" s="24">
         <v>43380</v>
@@ -14461,20 +14458,20 @@
         <v>0</v>
       </c>
       <c r="G220" s="26" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H220" s="26"/>
       <c r="I220" s="28"/>
       <c r="J220" s="36" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="221" spans="1:10">
       <c r="A221" s="42" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B221" s="51" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C221" s="24">
         <v>43718</v>
@@ -14496,10 +14493,10 @@
     </row>
     <row r="222" spans="1:10">
       <c r="A222" s="37" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B222" s="51" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C222" s="24">
         <v>43722</v>
@@ -14512,7 +14509,7 @@
         <v>13</v>
       </c>
       <c r="F222" s="39" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G222" s="26"/>
       <c r="H222" s="26"/>
@@ -14521,10 +14518,10 @@
     </row>
     <row r="223" spans="1:10">
       <c r="A223" s="37" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B223" s="51" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C223" s="24">
         <v>43731</v>
@@ -14576,7 +14573,7 @@
         <v>482</v>
       </c>
       <c r="B225" s="49" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C225" s="24">
         <v>43473</v>
@@ -14592,7 +14589,7 @@
         <v>0</v>
       </c>
       <c r="G225" s="26" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="H225" s="26"/>
       <c r="I225" s="28"/>
@@ -14600,10 +14597,10 @@
     </row>
     <row r="226" spans="1:10">
       <c r="A226" s="37" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B226" s="49" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C226" s="24">
         <v>43698</v>
@@ -14619,7 +14616,7 @@
         <v>0</v>
       </c>
       <c r="G226" s="26" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H226" s="26"/>
       <c r="I226" s="28"/>
@@ -14627,10 +14624,10 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227" s="42" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B227" s="51" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C227" s="24">
         <v>43718</v>
@@ -14652,10 +14649,10 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228" s="43" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B228" s="54" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C228" s="44">
         <v>43702</v>
@@ -14680,7 +14677,7 @@
         <v>92</v>
       </c>
       <c r="B229" s="49" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C229" s="24">
         <v>43459</v>
@@ -14727,10 +14724,10 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231" s="42" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B231" s="51" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C231" s="24">
         <v>43726</v>
@@ -14754,10 +14751,10 @@
     </row>
     <row r="232" spans="1:10">
       <c r="A232" s="42" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B232" s="51" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C232" s="24">
         <v>43739</v>
@@ -14782,7 +14779,7 @@
         <v>214</v>
       </c>
       <c r="B233" s="49" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C233" s="24">
         <v>43681</v>
@@ -14804,10 +14801,10 @@
     </row>
     <row r="234" spans="1:10">
       <c r="A234" s="28" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B234" s="49" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C234" s="24">
         <v>43620</v>
@@ -14823,7 +14820,7 @@
         <v>143</v>
       </c>
       <c r="G234" s="26" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H234" s="26"/>
       <c r="I234" s="28"/>
@@ -14834,7 +14831,7 @@
         <v>161</v>
       </c>
       <c r="B235" s="49" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C235" s="24">
         <v>43576</v>
@@ -14858,10 +14855,10 @@
     </row>
     <row r="236" spans="1:10">
       <c r="A236" s="37" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B236" s="49" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C236" s="24">
         <v>43548</v>
@@ -14883,10 +14880,10 @@
     </row>
     <row r="237" spans="1:10">
       <c r="A237" s="37" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B237" s="51" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C237" s="24">
         <v>43731</v>
@@ -14908,10 +14905,10 @@
     </row>
     <row r="238" spans="1:10">
       <c r="A238" s="37" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B238" s="51" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C238" s="24">
         <v>43745</v>
@@ -14933,10 +14930,10 @@
     </row>
     <row r="239" spans="1:10">
       <c r="A239" s="42" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B239" s="49" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C239" s="24">
         <v>43646</v>
@@ -14949,7 +14946,7 @@
         <v>104</v>
       </c>
       <c r="F239" s="46" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G239" s="26"/>
       <c r="H239" s="26"/>
@@ -14958,10 +14955,10 @@
     </row>
     <row r="240" spans="1:10">
       <c r="A240" s="42" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B240" s="51" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C240" s="24">
         <v>43717</v>
@@ -14985,10 +14982,10 @@
     </row>
     <row r="241" spans="1:10">
       <c r="A241" s="37" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B241" s="49" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C241" s="24">
         <v>43651</v>
@@ -15012,10 +15009,10 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242" s="42" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B242" s="51" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C242" s="24">
         <v>43744</v>
@@ -15028,7 +15025,7 @@
         <v>20</v>
       </c>
       <c r="F242" s="39" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G242" s="26"/>
       <c r="H242" s="26"/>
@@ -15062,10 +15059,10 @@
     </row>
     <row r="244" spans="1:10">
       <c r="A244" s="48" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B244" s="49" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C244" s="24">
         <v>43603</v>
@@ -15091,10 +15088,10 @@
     </row>
     <row r="245" spans="1:10">
       <c r="A245" s="42" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B245" s="51" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C245" s="24">
         <v>43752</v>
@@ -15116,10 +15113,10 @@
     </row>
     <row r="246" spans="1:10">
       <c r="A246" s="42" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B246" s="49" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C246" s="24">
         <v>43646</v>
@@ -15132,7 +15129,7 @@
         <v>125</v>
       </c>
       <c r="F246" s="46" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="G246" s="26"/>
       <c r="H246" s="26"/>
@@ -15141,10 +15138,10 @@
     </row>
     <row r="247" spans="1:10">
       <c r="A247" s="37" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B247" s="49" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C247" s="24">
         <v>43761</v>
@@ -15166,10 +15163,10 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248" s="37" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B248" s="49" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C248" s="24">
         <v>43521</v>
@@ -15191,10 +15188,10 @@
     </row>
     <row r="249" spans="1:10">
       <c r="A249" s="28" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B249" s="49" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C249" s="24">
         <v>43758</v>
@@ -15207,7 +15204,7 @@
         <v>15</v>
       </c>
       <c r="F249" s="32" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="G249" s="26" t="s">
         <v>30</v>
@@ -15243,10 +15240,10 @@
     </row>
     <row r="251" spans="1:10">
       <c r="A251" s="28" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B251" s="49" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C251" s="24">
         <v>43702</v>
@@ -15297,10 +15294,10 @@
     </row>
     <row r="253" spans="1:10">
       <c r="A253" s="42" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B253" s="51" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C253" s="24">
         <v>43746</v>
@@ -15313,7 +15310,7 @@
         <v>35</v>
       </c>
       <c r="F253" s="25" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G253" s="26"/>
       <c r="H253" s="26"/>
@@ -15322,10 +15319,10 @@
     </row>
     <row r="254" spans="1:10">
       <c r="A254" s="28" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B254" s="49" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C254" s="24">
         <v>43620</v>
@@ -15347,10 +15344,10 @@
     </row>
     <row r="255" spans="1:10">
       <c r="A255" s="37" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B255" s="49" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C255" s="24">
         <v>43780</v>
@@ -15372,7 +15369,7 @@
     </row>
     <row r="256" spans="1:10">
       <c r="A256" s="48" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B256" s="49" t="s">
         <v>431</v>
@@ -15402,7 +15399,7 @@
         <v>580</v>
       </c>
       <c r="B257" s="49" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C257" s="24">
         <v>43544</v>
@@ -15418,7 +15415,7 @@
         <v>0</v>
       </c>
       <c r="G257" s="55" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="H257" s="6"/>
       <c r="I257" s="4"/>
@@ -15426,10 +15423,10 @@
     </row>
     <row r="258" spans="1:10">
       <c r="A258" s="28" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B258" s="49" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C258" s="24">
         <v>43690</v>
@@ -15453,10 +15450,10 @@
     </row>
     <row r="259" spans="1:10">
       <c r="A259" s="42" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B259" s="51" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C259" s="24">
         <v>43758</v>
@@ -15483,7 +15480,7 @@
         <v>633</v>
       </c>
       <c r="B260" s="49" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C260" s="24">
         <v>43627</v>
@@ -15507,10 +15504,10 @@
     </row>
     <row r="261" spans="1:10">
       <c r="A261" s="42" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B261" s="49" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C261" s="24">
         <v>43677</v>
@@ -15535,7 +15532,7 @@
         <v>147</v>
       </c>
       <c r="B262" s="49" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C262" s="24">
         <v>43544</v>
@@ -15557,10 +15554,10 @@
     </row>
     <row r="263" spans="1:10">
       <c r="A263" s="37" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B263" s="49" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C263" s="24">
         <v>43779</v>
@@ -15585,7 +15582,7 @@
         <v>568</v>
       </c>
       <c r="B264" s="49" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C264" s="24">
         <v>43731</v>
@@ -15611,10 +15608,10 @@
     </row>
     <row r="265" spans="1:10">
       <c r="A265" s="42" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B265" s="51" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C265" s="24">
         <v>43712</v>
@@ -15636,10 +15633,10 @@
     </row>
     <row r="266" spans="1:10">
       <c r="A266" s="28" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B266" s="49" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C266" s="24">
         <v>43544</v>
@@ -15663,10 +15660,10 @@
     </row>
     <row r="267" spans="1:10">
       <c r="A267" s="28" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B267" s="49" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C267" s="24">
         <v>43548</v>
@@ -15679,10 +15676,10 @@
         <v>252</v>
       </c>
       <c r="F267" s="39" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G267" s="26" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="H267" s="26"/>
       <c r="I267" s="28"/>
@@ -15690,10 +15687,10 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268" s="28" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B268" s="49" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C268" s="24">
         <v>43362</v>
@@ -15715,10 +15712,10 @@
     </row>
     <row r="269" spans="1:10">
       <c r="A269" s="37" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B269" s="51" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C269" s="24">
         <v>43626</v>
@@ -15742,10 +15739,10 @@
     </row>
     <row r="270" spans="1:10">
       <c r="A270" s="37" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B270" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C270" s="24">
         <v>43696</v>
@@ -15767,10 +15764,10 @@
     </row>
     <row r="271" spans="1:10">
       <c r="A271" s="37" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B271" s="49" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C271" s="24">
         <v>43626</v>
@@ -15821,10 +15818,10 @@
     </row>
     <row r="273" spans="1:10">
       <c r="A273" s="28" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B273" s="49" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C273" s="24">
         <v>43702</v>
@@ -15840,7 +15837,7 @@
         <v>0</v>
       </c>
       <c r="G273" s="26" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="H273" s="26"/>
       <c r="I273" s="28"/>
@@ -15848,10 +15845,10 @@
     </row>
     <row r="274" spans="1:10">
       <c r="A274" s="37" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B274" s="49" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C274" s="24">
         <v>43690</v>
@@ -15932,7 +15929,7 @@
         <v>26</v>
       </c>
       <c r="B277" s="49" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C277" s="24">
         <v>43345</v>
@@ -15952,10 +15949,10 @@
     </row>
     <row r="278" spans="1:10" s="28" customFormat="1">
       <c r="A278" s="37" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B278" s="49" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C278" s="24">
         <v>43796</v>
@@ -16000,10 +15997,10 @@
     </row>
     <row r="280" spans="1:10" s="28" customFormat="1">
       <c r="A280" s="28" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B280" s="49" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C280" s="24">
         <v>43620</v>
@@ -16025,10 +16022,10 @@
     </row>
     <row r="281" spans="1:10" s="28" customFormat="1">
       <c r="A281" s="37" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B281" s="49" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C281" s="24">
         <v>43653</v>
@@ -16048,10 +16045,10 @@
     </row>
     <row r="282" spans="1:10" s="28" customFormat="1">
       <c r="A282" s="37" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B282" s="49" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C282" s="24">
         <v>43806</v>
@@ -16068,15 +16065,15 @@
       </c>
       <c r="G282"/>
       <c r="H282" s="26" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="283" spans="1:10" s="28" customFormat="1">
       <c r="A283" s="28" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B283" s="28" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C283" s="24">
         <v>43706</v>
@@ -16126,7 +16123,7 @@
         <v>271</v>
       </c>
       <c r="B285" s="28" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C285" s="24">
         <v>43548</v>
@@ -16142,16 +16139,16 @@
         <v>526</v>
       </c>
       <c r="G285" s="26" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H285" s="26"/>
     </row>
     <row r="286" spans="1:10" s="28" customFormat="1">
       <c r="A286" s="37" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B286" s="28" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C286" s="24">
         <v>43784</v>
@@ -16164,17 +16161,17 @@
         <v>30</v>
       </c>
       <c r="F286" s="39" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G286" s="26"/>
       <c r="H286" s="26"/>
     </row>
     <row r="287" spans="1:10" s="28" customFormat="1">
       <c r="A287" s="37" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B287" s="28" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C287" s="24">
         <v>43670</v>
@@ -16196,10 +16193,10 @@
     </row>
     <row r="288" spans="1:10" s="28" customFormat="1">
       <c r="A288" s="37" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B288" s="35" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C288" s="24">
         <v>43739</v>
@@ -16267,7 +16264,7 @@
         <v>92</v>
       </c>
       <c r="G290" s="26" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="H290" s="26"/>
     </row>
@@ -16402,28 +16399,28 @@
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="56" t="s">
+        <v>799</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>800</v>
+      </c>
+      <c r="E2" s="56" t="s">
         <v>801</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="F2" s="56" t="s">
         <v>802</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="G2" s="56" t="s">
         <v>803</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="H2" s="56" t="s">
         <v>804</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="I2" s="57" t="s">
         <v>805</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="J2" s="57" t="s">
         <v>806</v>
-      </c>
-      <c r="I2" s="57" t="s">
-        <v>807</v>
-      </c>
-      <c r="J2" s="57" t="s">
-        <v>808</v>
       </c>
       <c r="K2" s="57">
         <v>2948</v>
@@ -16457,7 +16454,7 @@
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -16488,25 +16485,25 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H5" s="58">
         <v>294</v>
@@ -16530,16 +16527,16 @@
         <v>145</v>
       </c>
       <c r="O5" s="60" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="Q5" s="61">
         <v>0</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="S5" s="61">
         <v>0</v>
@@ -16572,25 +16569,25 @@
         <v>25</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J6" s="58">
         <v>41</v>
@@ -16652,52 +16649,52 @@
         <v>426</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="Q7" s="61">
         <v>0</v>
       </c>
       <c r="R7" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="S7" s="61">
         <v>0</v>
@@ -16730,52 +16727,52 @@
         <v>421</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="Q8" s="61">
         <v>0</v>
       </c>
       <c r="R8" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="S8" s="61">
         <v>0</v>
@@ -16965,52 +16962,52 @@
         <v>38</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="Q11" s="61">
         <v>0</v>
       </c>
       <c r="R11" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="S11" s="61">
         <v>0</v>
@@ -17043,37 +17040,37 @@
         <v>144</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N12" s="59">
         <v>280</v>
@@ -17116,7 +17113,7 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>26</v>
@@ -17202,43 +17199,43 @@
         <v>386</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P14" s="62">
         <v>666</v>
@@ -17282,58 +17279,58 @@
         <v>494</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N15" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="O15" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P15" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="Q15" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="S15" s="61">
         <v>0</v>
       </c>
       <c r="T15" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="U15" s="61">
         <v>0</v>
@@ -17359,46 +17356,46 @@
         <v>398</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M16" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P16" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="Q16" s="61">
         <v>0</v>
@@ -17438,10 +17435,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E17" s="64">
         <v>719</v>
@@ -17515,10 +17512,10 @@
         <v>381</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D18" s="65">
         <v>711</v>
@@ -17752,37 +17749,37 @@
         <v>431</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M21" s="59">
         <v>1035</v>
@@ -17900,49 +17897,49 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="16" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="O23" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P23" s="62">
         <v>918</v>
@@ -17986,13 +17983,13 @@
         <v>75</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F24" s="59">
         <v>395</v>
@@ -18068,31 +18065,31 @@
         <v>1983</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M25" s="62">
         <v>1925</v>
@@ -18142,10 +18139,10 @@
         <v>420</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D26" s="64">
         <v>1877</v>
@@ -18304,46 +18301,46 @@
         <v>536</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="O28" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P28" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="Q28" s="61">
         <v>0</v>
@@ -18383,10 +18380,10 @@
         <v>585</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E29" s="64">
         <v>1766</v>
@@ -18463,37 +18460,37 @@
         <v>32</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M30" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N30" s="62">
         <v>1283</v>
@@ -18622,52 +18619,52 @@
         <v>42</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N32" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="O32" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P32" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="Q32" s="61">
         <v>0</v>
       </c>
       <c r="R32" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="S32" s="61">
         <v>0</v>
@@ -18700,25 +18697,25 @@
         <v>27</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>278</v>
@@ -18780,37 +18777,37 @@
         <v>405</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L34" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M34" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N34" s="59">
         <v>558</v>
@@ -18860,46 +18857,46 @@
         <v>444</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="O35" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P35" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="Q35" s="61">
         <v>0</v>
@@ -19019,7 +19016,7 @@
         <v>325</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>278</v>
@@ -19037,25 +19034,25 @@
         <v>1498</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N37" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="O37" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P37" s="60" t="s">
         <v>278</v>
@@ -19097,10 +19094,10 @@
         <v>11</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E38" s="64">
         <v>1882</v>
@@ -19176,16 +19173,16 @@
         <v>19</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G39" s="62">
         <v>686</v>
@@ -19415,13 +19412,13 @@
         <v>435</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F42" s="62">
         <v>1128</v>
@@ -19497,49 +19494,49 @@
         <v>1596</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K43" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L43" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M43" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N43" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="O43" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P43" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="Q43" s="71">
         <v>0</v>
       </c>
       <c r="R43" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="S43" s="71">
         <v>0</v>
@@ -19571,7 +19568,7 @@
         <v>374</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D44" s="65">
         <v>2641</v>
@@ -19649,7 +19646,7 @@
         <v>220</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>278</v>
@@ -19721,16 +19718,16 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E46" s="62">
         <v>638</v>
@@ -19799,64 +19796,64 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L47" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M47" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N47" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="O47" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P47" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="Q47" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="R47" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="S47" s="61">
         <v>0</v>
       </c>
       <c r="T47" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="U47" s="61">
         <v>0</v>
@@ -19879,46 +19876,46 @@
         <v>379</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K48" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L48" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M48" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N48" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="O48" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P48" s="70" t="s">
         <v>278</v>
@@ -20040,19 +20037,19 @@
         <v>22</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H50" s="62">
         <v>1453</v>
@@ -20120,25 +20117,25 @@
         <v>371</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J51" s="59">
         <v>975</v>
@@ -20200,40 +20197,40 @@
         <v>382</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J52" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K52" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L52" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M52" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N52" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="O52" s="60" t="s">
         <v>278</v>
@@ -20357,52 +20354,52 @@
         <v>36</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J54" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K54" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L54" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M54" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N54" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="O54" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P54" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="Q54" s="61">
         <v>0</v>
       </c>
       <c r="R54" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="S54" s="61">
         <v>0</v>
@@ -20435,46 +20432,46 @@
         <v>501</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L55" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M55" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N55" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="O55" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P55" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="Q55" s="61">
         <v>0</v>
@@ -20512,16 +20509,16 @@
         <v>15</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>278</v>
@@ -20551,25 +20548,25 @@
         <v>278</v>
       </c>
       <c r="P56" s="60" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="Q56" s="61">
         <v>0</v>
       </c>
       <c r="R56" s="60" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="S56" s="61">
         <v>0</v>
       </c>
       <c r="T56" s="60" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="U56" s="61">
         <v>0</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="W56" s="63">
         <v>0</v>
@@ -20582,28 +20579,28 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="4" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I57" s="64">
         <v>1370</v>
@@ -20667,52 +20664,52 @@
         <v>390</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J58" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K58" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L58" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M58" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N58" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="O58" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P58" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="Q58" s="61">
         <v>0</v>
       </c>
       <c r="R58" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="S58" s="61">
         <v>0</v>
@@ -20821,25 +20818,25 @@
         <v>537</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>278</v>
@@ -20899,40 +20896,40 @@
         <v>448</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I61" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J61" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K61" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L61" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M61" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N61" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="O61" s="60" t="s">
         <v>278</v>
@@ -20975,28 +20972,28 @@
         <v>606</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J62" s="62">
         <v>1582</v>
@@ -21056,10 +21053,10 @@
         <v>564</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E63" s="64">
         <v>1799</v>
@@ -21134,22 +21131,22 @@
         <v>573</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I64" s="62">
         <v>1222</v>
@@ -21213,19 +21210,19 @@
         <v>533</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H65" s="59">
         <v>961</v>
@@ -21291,22 +21288,22 @@
         <v>468</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>278</v>
@@ -21368,37 +21365,37 @@
         <v>408</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L67" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M67" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N67" s="64">
         <v>1224</v>
@@ -21446,67 +21443,67 @@
         <v>376</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J68" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K68" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L68" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M68" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N68" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="O68" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P68" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="Q68" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="R68" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="S68" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="T68" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="U68" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="V68" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="W68" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="X68" s="18"/>
       <c r="Y68" s="61">
@@ -21522,67 +21519,67 @@
         <v>457</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J69" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K69" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L69" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M69" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N69" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="O69" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P69" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="Q69" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="R69" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="S69" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="T69" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="U69" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="V69" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="W69" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="X69" s="4"/>
       <c r="Y69" s="61">
@@ -21657,10 +21654,10 @@
         <v>65.204047217537934</v>
       </c>
       <c r="V70" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="W70" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="Y70" s="71">
         <f t="shared" si="4"/>
@@ -21675,67 +21672,67 @@
         <v>384</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I71" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J71" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K71" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L71" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M71" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N71" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="O71" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P71" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="Q71" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="R71" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="S71" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="T71" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="U71" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="V71" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="W71" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="Y71" s="71"/>
     </row>
@@ -22033,7 +22030,7 @@
         <v>291</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D85" s="28"/>
       <c r="E85" s="28"/>
@@ -22052,7 +22049,7 @@
         <v>289</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D86" s="28"/>
       <c r="E86" s="28"/>
@@ -22071,7 +22068,7 @@
         <v>285</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D87" s="28"/>
       <c r="E87" s="28"/>
@@ -22090,7 +22087,7 @@
         <v>297</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D88" s="82">
         <v>926</v>
@@ -22111,10 +22108,10 @@
         <v>299</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E89" s="25" t="s">
         <v>278</v>
@@ -22134,10 +22131,10 @@
         <v>301</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E90" s="25" t="s">
         <v>278</v>
@@ -22180,13 +22177,13 @@
         <v>309</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F92" s="25" t="s">
         <v>278</v>
@@ -22220,16 +22217,16 @@
         <v>314</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G93" s="68">
         <v>1177</v>
@@ -22247,7 +22244,7 @@
         <v>316</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D94" s="25" t="s">
         <v>278</v>
@@ -22274,16 +22271,16 @@
         <v>318</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G95" s="69">
         <v>152</v>
@@ -22301,13 +22298,13 @@
         <v>320</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F96" s="25" t="s">
         <v>278</v>
@@ -22328,10 +22325,10 @@
         <v>322</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E97" s="67">
         <v>2225</v>
@@ -22368,13 +22365,13 @@
         <v>21</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F98" s="25" t="s">
         <v>278</v>
@@ -22397,7 +22394,7 @@
         <v>327</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D99" s="82">
         <v>1608</v>
@@ -22438,7 +22435,7 @@
         <v>334</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C100" s="66">
         <v>2328</v>
@@ -22472,7 +22469,7 @@
         <v>331</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D101" s="25" t="s">
         <v>278</v>
@@ -22503,10 +22500,10 @@
         <v>335</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E102" s="67">
         <v>2184</v>
@@ -22536,10 +22533,10 @@
         <v>337</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E103" s="67">
         <v>2456</v>
@@ -22584,10 +22581,10 @@
         <v>339</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E104" s="67">
         <v>1610</v>
@@ -22622,25 +22619,25 @@
         <v>341</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F105" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G105" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H105" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I105" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J105" s="68">
         <v>1545</v>
@@ -22662,28 +22659,28 @@
         <v>343</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F106" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G106" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H106" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I106" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J106" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K106" s="26" t="s">
         <v>278</v>
@@ -22742,31 +22739,31 @@
         <v>303</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E108" s="25" t="s">
         <v>278</v>
       </c>
       <c r="F108" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G108" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H108" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I108" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J108" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K108" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L108" s="25" t="s">
         <v>278</v>
@@ -22792,7 +22789,7 @@
         <v>347</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D109" s="25" t="s">
         <v>278</v>
@@ -22832,22 +22829,22 @@
         <v>349</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E110" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F110" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G110" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H110" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I110" s="67">
         <v>2104</v>
@@ -22928,10 +22925,10 @@
         <v>329</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E112" s="67">
         <v>1668</v>
@@ -22949,7 +22946,7 @@
         <v>278</v>
       </c>
       <c r="J112" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K112" s="68">
         <v>585</v>
@@ -23017,19 +23014,19 @@
         <v>357</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F114" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G114" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H114" s="69">
         <v>845</v>
@@ -23111,25 +23108,25 @@
         <v>361</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E116" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F116" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G116" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H116" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I116" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J116" s="25" t="s">
         <v>278</v>
@@ -23169,10 +23166,10 @@
         <v>266</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E117" s="68">
         <v>455</v>
@@ -23243,40 +23240,40 @@
         <v>369</v>
       </c>
       <c r="C118" s="83" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D118" s="83" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E118" s="83" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F118" s="83" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G118" s="83" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H118" s="83" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I118" s="83" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J118" s="83" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K118" s="83" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L118" s="83" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M118" s="83" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N118" s="83" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="O118" s="84">
         <v>1590</v>
@@ -23323,34 +23320,34 @@
         <v>372</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E119" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F119" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G119" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H119" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I119" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J119" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K119" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L119" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M119" s="25" t="s">
         <v>278</v>

--- a/generateEXCEL/Data/Members/GroupRecord.xlsx
+++ b/generateEXCEL/Data/Members/GroupRecord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hguan/Dropbox/Research/Coding/WeChatGroup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418302BF-3D42-D74C-A58E-98AF82DB99BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCC019E-1516-F246-AEEB-3316F9430FEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16860" windowHeight="12500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16860" windowHeight="12500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="824">
   <si>
     <t>wisdompeak</t>
   </si>
@@ -3095,6 +3095,12 @@
   </si>
   <si>
     <t>Wayfair</t>
+  </si>
+  <si>
+    <t>橙</t>
+  </si>
+  <si>
+    <t>christine_christine</t>
   </si>
 </sst>
 </file>
@@ -3283,7 +3289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3499,6 +3505,9 @@
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3883,10 +3892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J404"/>
+  <dimension ref="A1:J401"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -5252,552 +5261,554 @@
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" s="4" customFormat="1">
-      <c r="A71" s="22" t="s">
-        <v>171</v>
+      <c r="A71" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C71" s="5">
-        <v>43684</v>
+        <v>43685</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="1"/>
       <c r="F71" s="18" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8" s="4" customFormat="1">
-      <c r="A72" s="9" t="s">
-        <v>174</v>
+      <c r="A72" s="22" t="s">
+        <v>176</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C72" s="5">
-        <v>43685</v>
+        <v>43688</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="1"/>
       <c r="F72" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="G72" s="1"/>
-      <c r="H72" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="73" spans="1:8" s="4" customFormat="1">
-      <c r="A73" s="22" t="s">
-        <v>176</v>
+      <c r="A73" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C73" s="5">
-        <v>43688</v>
+        <v>180</v>
+      </c>
+      <c r="C73" s="17">
+        <v>43690</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="1"/>
       <c r="F73" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>158</v>
-      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" s="4" customFormat="1">
       <c r="A74" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C74" s="17">
-        <v>43690</v>
+        <v>43702</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="1"/>
       <c r="F74" s="18" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:8" s="4" customFormat="1">
       <c r="A75" s="4" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C75" s="17">
-        <v>43701</v>
+        <v>43702</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="1"/>
       <c r="F75" s="18" t="s">
-        <v>182</v>
+        <v>88</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:8" s="4" customFormat="1">
       <c r="A76" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C76" s="17">
-        <v>43702</v>
+        <v>43703</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="1"/>
       <c r="F76" s="18" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8" s="4" customFormat="1">
-      <c r="A77" s="4" t="s">
-        <v>185</v>
+      <c r="A77" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C77" s="17">
-        <v>43702</v>
+        <v>43704</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="1"/>
       <c r="F77" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G77" s="1"/>
-      <c r="H77" s="6"/>
+      <c r="G77" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="78" spans="1:8" s="4" customFormat="1">
       <c r="A78" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C78" s="17">
-        <v>43703</v>
+        <v>43705</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="1"/>
       <c r="F78" s="18" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:8" s="4" customFormat="1">
       <c r="A79" s="9" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C79" s="17">
-        <v>43704</v>
+        <v>43707</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>122</v>
-      </c>
+      <c r="F79" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:8" s="4" customFormat="1">
-      <c r="A80" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>191</v>
+      <c r="A80" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>194</v>
       </c>
       <c r="C80" s="17">
-        <v>43705</v>
+        <v>43711</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="1"/>
       <c r="F80" s="18" t="s">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:8" s="4" customFormat="1">
       <c r="A81" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>196</v>
       </c>
       <c r="C81" s="17">
-        <v>43707</v>
+        <v>43712</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G81" s="1"/>
+      <c r="F81" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:8" s="4" customFormat="1">
       <c r="A82" s="21" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C82" s="17">
-        <v>43711</v>
+        <v>43715</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="1"/>
       <c r="F82" s="18" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:8" s="4" customFormat="1">
       <c r="A83" s="9" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C83" s="17">
-        <v>43712</v>
+        <v>43716</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="1"/>
       <c r="F83" s="18" t="s">
-        <v>38</v>
+        <v>198</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H83" s="6"/>
     </row>
     <row r="84" spans="1:8" s="4" customFormat="1">
-      <c r="A84" s="21" t="s">
-        <v>198</v>
+      <c r="A84" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C84" s="17">
-        <v>43715</v>
+        <v>43717</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="1"/>
       <c r="F84" s="18" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8" s="4" customFormat="1">
-      <c r="A85" s="9" t="s">
-        <v>200</v>
+      <c r="A85" s="22" t="s">
+        <v>205</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C85" s="17">
-        <v>43716</v>
+        <v>43718</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="1"/>
       <c r="F85" s="18" t="s">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:8" s="4" customFormat="1">
-      <c r="A86" s="9" t="s">
-        <v>203</v>
+      <c r="A86" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C86" s="17">
-        <v>43717</v>
+        <v>43720</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="18" t="s">
-        <v>176</v>
+      <c r="F86" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8" s="4" customFormat="1">
       <c r="A87" s="22" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C87" s="17">
-        <v>43718</v>
+        <v>43722</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="1"/>
       <c r="F87" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="G87" s="1"/>
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8" s="4" customFormat="1">
-      <c r="A88" s="21" t="s">
-        <v>208</v>
+      <c r="A88" s="22" t="s">
+        <v>210</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C88" s="17">
-        <v>43720</v>
+        <v>43726</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="19" t="s">
-        <v>27</v>
+      <c r="F88" s="18" t="s">
+        <v>0</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8" s="4" customFormat="1">
-      <c r="A89" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>209</v>
+      <c r="A89" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="C89" s="17">
-        <v>43722</v>
+        <v>43732</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="18" t="s">
-        <v>0</v>
+      <c r="F89" s="19" t="s">
+        <v>214</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:8" s="4" customFormat="1">
-      <c r="A90" s="22" t="s">
-        <v>210</v>
+      <c r="A90" s="9" t="s">
+        <v>215</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C90" s="17">
-        <v>43726</v>
+        <v>43737</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="1"/>
       <c r="F90" s="18" t="s">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" s="4" customFormat="1">
       <c r="A91" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>213</v>
+        <v>217</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>218</v>
       </c>
       <c r="C91" s="17">
-        <v>43732</v>
+        <v>43737</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="19" t="s">
-        <v>214</v>
+      <c r="F91" s="18" t="s">
+        <v>219</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" s="4" customFormat="1">
       <c r="A92" s="9" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C92" s="17">
-        <v>43737</v>
+        <v>43738</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="1"/>
       <c r="F92" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="G92" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>819</v>
+      </c>
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" s="4" customFormat="1">
       <c r="A93" s="9" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C93" s="17">
-        <v>43737</v>
+        <v>43741</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="1"/>
       <c r="F93" s="18" t="s">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8" s="4" customFormat="1">
       <c r="A94" s="9" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C94" s="17">
-        <v>43738</v>
+        <v>43743</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="1"/>
       <c r="F94" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>819</v>
-      </c>
+      <c r="G94" s="1"/>
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8" s="4" customFormat="1">
-      <c r="A95" s="9" t="s">
-        <v>222</v>
+      <c r="A95" s="22" t="s">
+        <v>226</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C95" s="17">
-        <v>43741</v>
+        <v>43749</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="18" t="s">
-        <v>0</v>
+      <c r="F95" s="19" t="s">
+        <v>215</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" s="4" customFormat="1">
       <c r="A96" s="9" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C96" s="17">
-        <v>43743</v>
+        <v>43752</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="1"/>
       <c r="F96" s="18" t="s">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8" s="4" customFormat="1">
       <c r="A97" s="22" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C97" s="17">
-        <v>43749</v>
+        <v>43752</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="19" t="s">
-        <v>215</v>
+      <c r="F97" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8" s="4" customFormat="1">
       <c r="A98" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B98" s="21" t="s">
-        <v>229</v>
+        <v>232</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C98" s="17">
-        <v>43752</v>
+        <v>43753</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="1"/>
       <c r="F98" s="18" t="s">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" s="4" customFormat="1">
       <c r="A99" s="22" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C99" s="17">
-        <v>43752</v>
+        <v>43757</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="1"/>
       <c r="F99" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G99" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:8" s="4" customFormat="1">
-      <c r="A100" s="9" t="s">
-        <v>232</v>
+      <c r="A100" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C100" s="17">
-        <v>43753</v>
+        <v>43763</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="1"/>
@@ -5808,34 +5819,32 @@
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" s="4" customFormat="1">
-      <c r="A101" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="B101" s="21" t="s">
-        <v>235</v>
+      <c r="A101" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="C101" s="17">
-        <v>43757</v>
+        <v>43766</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="F101" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G101" s="1"/>
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" s="4" customFormat="1">
-      <c r="A102" s="4" t="s">
-        <v>236</v>
+      <c r="A102" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C102" s="17">
-        <v>43763</v>
+        <v>43767</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="1"/>
@@ -5846,32 +5855,34 @@
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" s="4" customFormat="1">
-      <c r="A103" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>239</v>
+      <c r="A103" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>242</v>
       </c>
       <c r="C103" s="17">
-        <v>43766</v>
+        <v>43770</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G103" s="1"/>
+      <c r="F103" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" s="4" customFormat="1">
       <c r="A104" s="9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C104" s="17">
-        <v>43767</v>
+        <v>43778</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="1"/>
@@ -5882,34 +5893,32 @@
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" s="4" customFormat="1">
-      <c r="A105" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>242</v>
+      <c r="A105" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="C105" s="17">
-        <v>43770</v>
+        <v>43415</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="1"/>
       <c r="F105" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G105" s="1"/>
       <c r="H105" s="6"/>
     </row>
     <row r="106" spans="1:8" s="4" customFormat="1">
       <c r="A106" s="9" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C106" s="17">
-        <v>43778</v>
+        <v>43415</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="1"/>
@@ -5920,106 +5929,106 @@
       <c r="H106" s="6"/>
     </row>
     <row r="107" spans="1:8" s="4" customFormat="1">
-      <c r="A107" s="9" t="s">
-        <v>245</v>
+      <c r="A107" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C107" s="17">
-        <v>43415</v>
+        <v>43784</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="1"/>
       <c r="F107" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G107" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8" s="4" customFormat="1">
       <c r="A108" s="9" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C108" s="17">
-        <v>43415</v>
+        <v>43784</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="1"/>
       <c r="F108" s="18" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="6"/>
     </row>
     <row r="109" spans="1:8" s="4" customFormat="1">
-      <c r="A109" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>250</v>
+      <c r="A109" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>253</v>
       </c>
       <c r="C109" s="17">
-        <v>43784</v>
+        <v>43786</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="1"/>
       <c r="F109" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G109" s="1"/>
       <c r="H109" s="6"/>
     </row>
     <row r="110" spans="1:8" s="4" customFormat="1">
-      <c r="A110" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>252</v>
+      <c r="A110" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>255</v>
       </c>
       <c r="C110" s="17">
-        <v>43784</v>
+        <v>43797</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="1"/>
       <c r="F110" s="18" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="6"/>
     </row>
     <row r="111" spans="1:8" s="4" customFormat="1">
       <c r="A111" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="C111" s="17">
-        <v>43786</v>
+        <v>43801</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="1"/>
       <c r="F111" s="18" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="6"/>
     </row>
     <row r="112" spans="1:8" s="4" customFormat="1">
-      <c r="A112" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="B112" s="21" t="s">
-        <v>255</v>
+      <c r="A112" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="C112" s="17">
-        <v>43797</v>
+        <v>43801</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="1"/>
@@ -6031,13 +6040,13 @@
     </row>
     <row r="113" spans="1:10" s="4" customFormat="1">
       <c r="A113" s="9" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C113" s="17">
-        <v>43801</v>
+        <v>43804</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="1"/>
@@ -6048,14 +6057,14 @@
       <c r="H113" s="6"/>
     </row>
     <row r="114" spans="1:10" s="4" customFormat="1">
-      <c r="A114" s="9" t="s">
-        <v>258</v>
+      <c r="A114" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C114" s="17">
-        <v>43801</v>
+        <v>43806</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="1"/>
@@ -6067,13 +6076,13 @@
     </row>
     <row r="115" spans="1:10" s="4" customFormat="1">
       <c r="A115" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C115" s="17">
-        <v>43804</v>
+        <v>43807</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="1"/>
@@ -6083,202 +6092,175 @@
       <c r="G115" s="1"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="1:10" s="4" customFormat="1">
+    <row r="116" spans="1:10">
       <c r="A116" s="4" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C116" s="17">
-        <v>43806</v>
-      </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="1"/>
+        <v>43813</v>
+      </c>
+      <c r="D116" s="24"/>
+      <c r="E116" s="25"/>
       <c r="F116" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G116" s="1"/>
+      <c r="G116" s="26"/>
       <c r="H116" s="6"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
     </row>
     <row r="117" spans="1:10" s="4" customFormat="1">
-      <c r="A117" s="9" t="s">
-        <v>262</v>
+      <c r="A117" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C117" s="17">
-        <v>43807</v>
+        <v>43813</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="1"/>
       <c r="F117" s="18" t="s">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="6"/>
     </row>
     <row r="118" spans="1:10" s="4" customFormat="1">
-      <c r="A118" s="4" t="s">
-        <v>264</v>
+      <c r="A118" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C118" s="17">
-        <v>43808</v>
+        <v>43813</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="1"/>
       <c r="F118" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G118" s="1"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="1:10">
-      <c r="A119" s="4" t="s">
-        <v>266</v>
+    <row r="119" spans="1:10" s="4" customFormat="1">
+      <c r="A119" s="9" t="s">
+        <v>272</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C119" s="17">
-        <v>43813</v>
-      </c>
-      <c r="D119" s="24"/>
-      <c r="E119" s="25"/>
-      <c r="F119" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G119" s="26"/>
+        <v>43817</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G119" s="1"/>
       <c r="H119" s="6"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
     </row>
     <row r="120" spans="1:10" s="4" customFormat="1">
       <c r="A120" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>268</v>
+        <v>274</v>
+      </c>
+      <c r="B120" s="27" t="s">
+        <v>274</v>
       </c>
       <c r="C120" s="17">
-        <v>43813</v>
+        <v>43817</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="1"/>
       <c r="F120" s="18" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="1:10" s="4" customFormat="1">
-      <c r="A121" s="9" t="s">
-        <v>269</v>
+    <row r="121" spans="1:10">
+      <c r="A121" s="4" t="s">
+        <v>822</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C121" s="17">
-        <v>43813</v>
-      </c>
-      <c r="D121" s="5"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="G121" s="1"/>
-      <c r="H121" s="6"/>
+        <v>823</v>
+      </c>
+      <c r="C121" s="88">
+        <v>43822</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="122" spans="1:10" s="4" customFormat="1">
-      <c r="A122" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C122" s="17">
-        <v>43817</v>
-      </c>
+      <c r="C122" s="17"/>
       <c r="D122" s="5"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="19" t="s">
-        <v>73</v>
-      </c>
+      <c r="F122" s="18"/>
       <c r="G122" s="1"/>
       <c r="H122" s="6"/>
     </row>
     <row r="123" spans="1:10" s="4" customFormat="1">
-      <c r="A123" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B123" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="C123" s="17">
-        <v>43817</v>
-      </c>
+      <c r="C123" s="17"/>
       <c r="D123" s="5"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="18" t="s">
-        <v>0</v>
-      </c>
+      <c r="F123" s="18"/>
       <c r="G123" s="1"/>
       <c r="H123" s="6"/>
     </row>
     <row r="124" spans="1:10" s="4" customFormat="1">
-      <c r="A124" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C124" s="17">
-        <v>43818</v>
-      </c>
+      <c r="A124" s="16"/>
+      <c r="C124" s="1"/>
       <c r="D124" s="5"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="14" t="s">
-        <v>269</v>
-      </c>
+      <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="1:10" s="4" customFormat="1">
-      <c r="C125" s="17"/>
+    <row r="125" spans="1:10">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
       <c r="D125" s="5"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="1"/>
+      <c r="F125" s="1"/>
       <c r="H125" s="6"/>
-    </row>
-    <row r="126" spans="1:10" s="4" customFormat="1">
-      <c r="C126" s="17"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="1"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="28"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="25"/>
+      <c r="F126" s="1"/>
       <c r="H126" s="6"/>
-    </row>
-    <row r="127" spans="1:10" s="4" customFormat="1">
-      <c r="A127" s="16"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="1"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="28"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="25"/>
       <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
       <c r="H127" s="6"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="1"/>
+      <c r="A128" s="28"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="25"/>
       <c r="F128" s="1"/>
       <c r="H128" s="6"/>
       <c r="I128" s="4"/>
@@ -6372,16 +6354,13 @@
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
     </row>
-    <row r="137" spans="1:10">
-      <c r="A137" s="28"/>
-      <c r="B137" s="28"/>
+    <row r="137" spans="1:10" s="28" customFormat="1">
       <c r="C137" s="24"/>
       <c r="D137" s="29"/>
       <c r="E137" s="25"/>
-      <c r="F137" s="1"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
+      <c r="F137" s="25"/>
+      <c r="G137" s="26"/>
+      <c r="H137" s="26"/>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="28"/>
@@ -6405,13 +6384,16 @@
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="1:10" s="28" customFormat="1">
+    <row r="140" spans="1:10">
+      <c r="A140" s="28"/>
+      <c r="B140" s="28"/>
       <c r="C140" s="24"/>
       <c r="D140" s="29"/>
       <c r="E140" s="25"/>
-      <c r="F140" s="25"/>
-      <c r="G140" s="26"/>
-      <c r="H140" s="26"/>
+      <c r="F140" s="1"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="28"/>
@@ -6505,7 +6487,7 @@
       <c r="A149" s="28"/>
       <c r="B149" s="28"/>
       <c r="C149" s="24"/>
-      <c r="D149" s="29"/>
+      <c r="D149" s="24"/>
       <c r="E149" s="25"/>
       <c r="F149" s="1"/>
       <c r="H149" s="6"/>
@@ -6516,7 +6498,7 @@
       <c r="A150" s="28"/>
       <c r="B150" s="28"/>
       <c r="C150" s="24"/>
-      <c r="D150" s="29"/>
+      <c r="D150" s="24"/>
       <c r="E150" s="25"/>
       <c r="F150" s="1"/>
       <c r="H150" s="6"/>
@@ -6527,23 +6509,20 @@
       <c r="A151" s="28"/>
       <c r="B151" s="28"/>
       <c r="C151" s="24"/>
-      <c r="D151" s="29"/>
+      <c r="D151" s="24"/>
       <c r="E151" s="25"/>
       <c r="F151" s="1"/>
       <c r="H151" s="6"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="1:10">
-      <c r="A152" s="28"/>
-      <c r="B152" s="28"/>
+    <row r="152" spans="1:10" s="28" customFormat="1">
       <c r="C152" s="24"/>
       <c r="D152" s="24"/>
       <c r="E152" s="25"/>
-      <c r="F152" s="1"/>
-      <c r="H152" s="6"/>
-      <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
+      <c r="F152" s="25"/>
+      <c r="G152" s="26"/>
+      <c r="H152" s="26"/>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="28"/>
@@ -6567,13 +6546,16 @@
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
     </row>
-    <row r="155" spans="1:10" s="28" customFormat="1">
+    <row r="155" spans="1:10">
+      <c r="A155" s="28"/>
+      <c r="B155" s="28"/>
       <c r="C155" s="24"/>
       <c r="D155" s="24"/>
       <c r="E155" s="25"/>
-      <c r="F155" s="25"/>
-      <c r="G155" s="26"/>
-      <c r="H155" s="26"/>
+      <c r="F155" s="1"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="28"/>
@@ -6586,16 +6568,13 @@
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
     </row>
-    <row r="157" spans="1:10">
-      <c r="A157" s="28"/>
-      <c r="B157" s="28"/>
+    <row r="157" spans="1:10" s="28" customFormat="1">
       <c r="C157" s="24"/>
       <c r="D157" s="24"/>
       <c r="E157" s="25"/>
-      <c r="F157" s="1"/>
-      <c r="H157" s="6"/>
-      <c r="I157" s="4"/>
-      <c r="J157" s="4"/>
+      <c r="F157" s="25"/>
+      <c r="G157" s="26"/>
+      <c r="H157" s="26"/>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="28"/>
@@ -6619,13 +6598,16 @@
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="1:10" s="28" customFormat="1">
+    <row r="160" spans="1:10">
+      <c r="A160" s="28"/>
+      <c r="B160" s="28"/>
       <c r="C160" s="24"/>
       <c r="D160" s="24"/>
       <c r="E160" s="25"/>
       <c r="F160" s="25"/>
-      <c r="G160" s="26"/>
-      <c r="H160" s="26"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="28"/>
@@ -6633,7 +6615,7 @@
       <c r="C161" s="24"/>
       <c r="D161" s="24"/>
       <c r="E161" s="25"/>
-      <c r="F161" s="1"/>
+      <c r="F161" s="25"/>
       <c r="H161" s="6"/>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
@@ -6644,7 +6626,7 @@
       <c r="C162" s="24"/>
       <c r="D162" s="24"/>
       <c r="E162" s="25"/>
-      <c r="F162" s="1"/>
+      <c r="F162" s="30"/>
       <c r="H162" s="6"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
@@ -6656,6 +6638,7 @@
       <c r="D163" s="24"/>
       <c r="E163" s="25"/>
       <c r="F163" s="25"/>
+      <c r="G163" s="28"/>
       <c r="H163" s="6"/>
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
@@ -6666,7 +6649,8 @@
       <c r="C164" s="24"/>
       <c r="D164" s="24"/>
       <c r="E164" s="25"/>
-      <c r="F164" s="25"/>
+      <c r="F164" s="31"/>
+      <c r="G164" s="28"/>
       <c r="H164" s="6"/>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
@@ -6677,7 +6661,8 @@
       <c r="C165" s="24"/>
       <c r="D165" s="24"/>
       <c r="E165" s="25"/>
-      <c r="F165" s="30"/>
+      <c r="F165" s="25"/>
+      <c r="G165" s="28"/>
       <c r="H165" s="6"/>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
@@ -6688,23 +6673,18 @@
       <c r="C166" s="24"/>
       <c r="D166" s="24"/>
       <c r="E166" s="25"/>
-      <c r="F166" s="25"/>
-      <c r="G166" s="28"/>
+      <c r="F166" s="30"/>
       <c r="H166" s="6"/>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
     </row>
-    <row r="167" spans="1:10">
-      <c r="A167" s="28"/>
-      <c r="B167" s="28"/>
+    <row r="167" spans="1:10" s="28" customFormat="1">
       <c r="C167" s="24"/>
       <c r="D167" s="24"/>
       <c r="E167" s="25"/>
       <c r="F167" s="31"/>
-      <c r="G167" s="28"/>
-      <c r="H167" s="6"/>
-      <c r="I167" s="4"/>
-      <c r="J167" s="4"/>
+      <c r="G167" s="26"/>
+      <c r="H167" s="26"/>
     </row>
     <row r="168" spans="1:10">
       <c r="A168" s="28"/>
@@ -6713,8 +6693,8 @@
       <c r="D168" s="24"/>
       <c r="E168" s="25"/>
       <c r="F168" s="25"/>
-      <c r="G168" s="28"/>
-      <c r="H168" s="6"/>
+      <c r="G168" s="25"/>
+      <c r="H168" s="32"/>
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
     </row>
@@ -6724,30 +6704,30 @@
       <c r="C169" s="24"/>
       <c r="D169" s="24"/>
       <c r="E169" s="25"/>
-      <c r="F169" s="30"/>
+      <c r="F169" s="25"/>
+      <c r="G169" s="28"/>
       <c r="H169" s="6"/>
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
     </row>
-    <row r="170" spans="1:10" s="28" customFormat="1">
+    <row r="170" spans="1:10">
+      <c r="A170" s="28"/>
+      <c r="B170" s="28"/>
       <c r="C170" s="24"/>
       <c r="D170" s="24"/>
       <c r="E170" s="25"/>
-      <c r="F170" s="31"/>
-      <c r="G170" s="26"/>
-      <c r="H170" s="26"/>
-    </row>
-    <row r="171" spans="1:10">
-      <c r="A171" s="28"/>
-      <c r="B171" s="28"/>
+      <c r="F170" s="26"/>
+      <c r="G170" s="28"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="4"/>
+      <c r="J170" s="4"/>
+    </row>
+    <row r="171" spans="1:10" s="28" customFormat="1">
       <c r="C171" s="24"/>
       <c r="D171" s="24"/>
       <c r="E171" s="25"/>
       <c r="F171" s="25"/>
-      <c r="G171" s="25"/>
-      <c r="H171" s="32"/>
-      <c r="I171" s="4"/>
-      <c r="J171" s="4"/>
+      <c r="H171" s="26"/>
     </row>
     <row r="172" spans="1:10">
       <c r="A172" s="28"/>
@@ -6755,30 +6735,31 @@
       <c r="C172" s="24"/>
       <c r="D172" s="24"/>
       <c r="E172" s="25"/>
-      <c r="F172" s="25"/>
+      <c r="F172" s="26"/>
       <c r="G172" s="28"/>
       <c r="H172" s="6"/>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" spans="1:10">
-      <c r="A173" s="28"/>
-      <c r="B173" s="28"/>
+    <row r="173" spans="1:10" s="28" customFormat="1">
       <c r="C173" s="24"/>
       <c r="D173" s="24"/>
       <c r="E173" s="25"/>
       <c r="F173" s="26"/>
-      <c r="G173" s="28"/>
-      <c r="H173" s="6"/>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
-    </row>
-    <row r="174" spans="1:10" s="28" customFormat="1">
+      <c r="G173" s="25"/>
+      <c r="H173" s="26"/>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" s="28"/>
+      <c r="B174" s="28"/>
       <c r="C174" s="24"/>
       <c r="D174" s="24"/>
       <c r="E174" s="25"/>
       <c r="F174" s="25"/>
-      <c r="H174" s="26"/>
+      <c r="G174" s="26"/>
+      <c r="H174" s="6"/>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4"/>
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="28"/>
@@ -6786,74 +6767,71 @@
       <c r="C175" s="24"/>
       <c r="D175" s="24"/>
       <c r="E175" s="25"/>
-      <c r="F175" s="26"/>
-      <c r="G175" s="28"/>
+      <c r="F175" s="25"/>
+      <c r="G175" s="26"/>
       <c r="H175" s="6"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="1:10" s="28" customFormat="1">
+    <row r="176" spans="1:10">
+      <c r="A176" s="28"/>
+      <c r="B176" s="28"/>
       <c r="C176" s="24"/>
       <c r="D176" s="24"/>
-      <c r="E176" s="25"/>
-      <c r="F176" s="26"/>
-      <c r="G176" s="25"/>
-      <c r="H176" s="26"/>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="E176" s="26"/>
+      <c r="F176" s="25"/>
+      <c r="G176" s="26"/>
+      <c r="H176" s="6"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+    </row>
+    <row r="177" spans="1:10" s="34" customFormat="1">
       <c r="A177" s="28"/>
       <c r="B177" s="28"/>
       <c r="C177" s="24"/>
       <c r="D177" s="24"/>
-      <c r="E177" s="25"/>
-      <c r="F177" s="25"/>
-      <c r="G177" s="26"/>
-      <c r="H177" s="6"/>
-      <c r="I177" s="4"/>
-      <c r="J177" s="4"/>
+      <c r="E177" s="26"/>
+      <c r="F177" s="26"/>
+      <c r="G177" s="25"/>
+      <c r="H177" s="33"/>
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="28"/>
-      <c r="B178" s="28"/>
+      <c r="B178" s="35"/>
       <c r="C178" s="24"/>
       <c r="D178" s="24"/>
-      <c r="E178" s="25"/>
+      <c r="E178" s="26"/>
       <c r="F178" s="25"/>
-      <c r="G178" s="26"/>
+      <c r="G178" s="28"/>
       <c r="H178" s="6"/>
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
     </row>
-    <row r="179" spans="1:10">
-      <c r="A179" s="28"/>
-      <c r="B179" s="28"/>
+    <row r="179" spans="1:10" s="28" customFormat="1">
       <c r="C179" s="24"/>
       <c r="D179" s="24"/>
       <c r="E179" s="26"/>
-      <c r="F179" s="25"/>
-      <c r="G179" s="26"/>
-      <c r="H179" s="6"/>
-      <c r="I179" s="4"/>
-      <c r="J179" s="4"/>
-    </row>
-    <row r="180" spans="1:10" s="34" customFormat="1">
-      <c r="A180" s="28"/>
+      <c r="F179" s="26"/>
+      <c r="H179" s="26"/>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" s="35"/>
       <c r="B180" s="28"/>
       <c r="C180" s="24"/>
       <c r="D180" s="24"/>
       <c r="E180" s="26"/>
-      <c r="F180" s="26"/>
-      <c r="G180" s="25"/>
-      <c r="H180" s="33"/>
+      <c r="F180" s="25"/>
+      <c r="H180" s="6"/>
+      <c r="I180" s="4"/>
+      <c r="J180" s="36"/>
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="28"/>
-      <c r="B181" s="35"/>
+      <c r="B181" s="28"/>
       <c r="C181" s="24"/>
       <c r="D181" s="24"/>
       <c r="E181" s="26"/>
       <c r="F181" s="25"/>
-      <c r="G181" s="28"/>
       <c r="H181" s="6"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
@@ -6862,40 +6840,37 @@
       <c r="C182" s="24"/>
       <c r="D182" s="24"/>
       <c r="E182" s="26"/>
-      <c r="F182" s="26"/>
+      <c r="F182" s="25"/>
+      <c r="G182" s="26"/>
       <c r="H182" s="26"/>
     </row>
-    <row r="183" spans="1:10">
-      <c r="A183" s="35"/>
-      <c r="B183" s="28"/>
+    <row r="183" spans="1:10" s="28" customFormat="1">
       <c r="C183" s="24"/>
       <c r="D183" s="24"/>
       <c r="E183" s="26"/>
-      <c r="F183" s="25"/>
-      <c r="H183" s="6"/>
-      <c r="I183" s="4"/>
-      <c r="J183" s="36"/>
-    </row>
-    <row r="184" spans="1:10">
-      <c r="A184" s="28"/>
-      <c r="B184" s="28"/>
+      <c r="F183" s="26"/>
+      <c r="G183" s="26"/>
+      <c r="H183" s="26"/>
+    </row>
+    <row r="184" spans="1:10" s="28" customFormat="1">
       <c r="C184" s="24"/>
       <c r="D184" s="24"/>
       <c r="E184" s="26"/>
       <c r="F184" s="25"/>
-      <c r="H184" s="6"/>
-      <c r="I184" s="4"/>
-      <c r="J184" s="4"/>
+      <c r="G184" s="26"/>
+      <c r="H184" s="26"/>
     </row>
     <row r="185" spans="1:10" s="28" customFormat="1">
       <c r="C185" s="24"/>
       <c r="D185" s="24"/>
       <c r="E185" s="26"/>
-      <c r="F185" s="25"/>
+      <c r="F185" s="26"/>
       <c r="G185" s="26"/>
       <c r="H185" s="26"/>
     </row>
     <row r="186" spans="1:10" s="28" customFormat="1">
+      <c r="A186" s="35"/>
+      <c r="B186" s="35"/>
       <c r="C186" s="24"/>
       <c r="D186" s="24"/>
       <c r="E186" s="26"/>
@@ -6904,10 +6879,11 @@
       <c r="H186" s="26"/>
     </row>
     <row r="187" spans="1:10" s="28" customFormat="1">
+      <c r="A187" s="37"/>
       <c r="C187" s="24"/>
       <c r="D187" s="24"/>
       <c r="E187" s="26"/>
-      <c r="F187" s="25"/>
+      <c r="F187" s="26"/>
       <c r="G187" s="26"/>
       <c r="H187" s="26"/>
     </row>
@@ -6920,21 +6896,19 @@
       <c r="H188" s="26"/>
     </row>
     <row r="189" spans="1:10" s="28" customFormat="1">
-      <c r="A189" s="35"/>
-      <c r="B189" s="35"/>
       <c r="C189" s="24"/>
       <c r="D189" s="24"/>
       <c r="E189" s="26"/>
       <c r="F189" s="26"/>
       <c r="G189" s="26"/>
       <c r="H189" s="26"/>
+      <c r="J189" s="36"/>
     </row>
     <row r="190" spans="1:10" s="28" customFormat="1">
-      <c r="A190" s="37"/>
       <c r="C190" s="24"/>
       <c r="D190" s="24"/>
       <c r="E190" s="26"/>
-      <c r="F190" s="26"/>
+      <c r="F190" s="25"/>
       <c r="G190" s="26"/>
       <c r="H190" s="26"/>
     </row>
@@ -6953,21 +6927,21 @@
       <c r="F192" s="26"/>
       <c r="G192" s="26"/>
       <c r="H192" s="26"/>
-      <c r="J192" s="36"/>
     </row>
     <row r="193" spans="1:10" s="28" customFormat="1">
       <c r="C193" s="24"/>
       <c r="D193" s="24"/>
       <c r="E193" s="26"/>
-      <c r="F193" s="25"/>
+      <c r="F193" s="26"/>
       <c r="G193" s="26"/>
-      <c r="H193" s="26"/>
+      <c r="H193" s="32"/>
+      <c r="J193" s="38"/>
     </row>
     <row r="194" spans="1:10" s="28" customFormat="1">
       <c r="C194" s="24"/>
       <c r="D194" s="24"/>
       <c r="E194" s="26"/>
-      <c r="F194" s="26"/>
+      <c r="F194" s="25"/>
       <c r="G194" s="26"/>
       <c r="H194" s="26"/>
     </row>
@@ -6975,9 +6949,10 @@
       <c r="C195" s="24"/>
       <c r="D195" s="24"/>
       <c r="E195" s="26"/>
-      <c r="F195" s="26"/>
+      <c r="F195" s="25"/>
       <c r="G195" s="26"/>
       <c r="H195" s="26"/>
+      <c r="J195" s="36"/>
     </row>
     <row r="196" spans="1:10" s="28" customFormat="1">
       <c r="C196" s="24"/>
@@ -6985,72 +6960,71 @@
       <c r="E196" s="26"/>
       <c r="F196" s="26"/>
       <c r="G196" s="26"/>
-      <c r="H196" s="32"/>
-      <c r="J196" s="38"/>
+      <c r="H196" s="26"/>
     </row>
     <row r="197" spans="1:10" s="28" customFormat="1">
       <c r="C197" s="24"/>
-      <c r="D197" s="24"/>
-      <c r="E197" s="26"/>
+      <c r="D197" s="29"/>
+      <c r="E197" s="25"/>
       <c r="F197" s="25"/>
-      <c r="G197" s="26"/>
       <c r="H197" s="26"/>
     </row>
     <row r="198" spans="1:10" s="28" customFormat="1">
       <c r="C198" s="24"/>
       <c r="D198" s="24"/>
-      <c r="E198" s="26"/>
+      <c r="E198" s="25"/>
       <c r="F198" s="25"/>
       <c r="G198" s="26"/>
-      <c r="H198" s="26"/>
-      <c r="J198" s="36"/>
+      <c r="H198" s="32"/>
     </row>
     <row r="199" spans="1:10" s="28" customFormat="1">
       <c r="C199" s="24"/>
       <c r="D199" s="24"/>
-      <c r="E199" s="26"/>
+      <c r="E199" s="25"/>
       <c r="F199" s="26"/>
       <c r="G199" s="26"/>
       <c r="H199" s="26"/>
     </row>
     <row r="200" spans="1:10" s="28" customFormat="1">
       <c r="C200" s="24"/>
-      <c r="D200" s="29"/>
+      <c r="D200" s="24"/>
       <c r="E200" s="25"/>
       <c r="F200" s="25"/>
+      <c r="G200" s="26"/>
       <c r="H200" s="26"/>
     </row>
     <row r="201" spans="1:10" s="28" customFormat="1">
+      <c r="A201" s="35"/>
+      <c r="B201" s="35"/>
       <c r="C201" s="24"/>
       <c r="D201" s="24"/>
       <c r="E201" s="25"/>
       <c r="F201" s="25"/>
       <c r="G201" s="26"/>
-      <c r="H201" s="32"/>
+      <c r="H201" s="26"/>
     </row>
     <row r="202" spans="1:10" s="28" customFormat="1">
       <c r="C202" s="24"/>
       <c r="D202" s="24"/>
-      <c r="E202" s="25"/>
+      <c r="E202" s="26"/>
       <c r="F202" s="26"/>
-      <c r="G202" s="26"/>
+      <c r="G202" s="32"/>
       <c r="H202" s="26"/>
     </row>
     <row r="203" spans="1:10" s="28" customFormat="1">
       <c r="C203" s="24"/>
       <c r="D203" s="24"/>
-      <c r="E203" s="25"/>
+      <c r="E203" s="26"/>
       <c r="F203" s="25"/>
       <c r="G203" s="26"/>
       <c r="H203" s="26"/>
+      <c r="J203" s="36"/>
     </row>
     <row r="204" spans="1:10" s="28" customFormat="1">
-      <c r="A204" s="35"/>
-      <c r="B204" s="35"/>
       <c r="C204" s="24"/>
       <c r="D204" s="24"/>
-      <c r="E204" s="25"/>
-      <c r="F204" s="25"/>
+      <c r="E204" s="26"/>
+      <c r="F204" s="26"/>
       <c r="G204" s="26"/>
       <c r="H204" s="26"/>
     </row>
@@ -7058,18 +7032,19 @@
       <c r="C205" s="24"/>
       <c r="D205" s="24"/>
       <c r="E205" s="26"/>
-      <c r="F205" s="26"/>
-      <c r="G205" s="32"/>
+      <c r="F205" s="25"/>
+      <c r="G205" s="26"/>
       <c r="H205" s="26"/>
+      <c r="J205" s="38"/>
     </row>
     <row r="206" spans="1:10" s="28" customFormat="1">
+      <c r="A206" s="37"/>
       <c r="C206" s="24"/>
       <c r="D206" s="24"/>
       <c r="E206" s="26"/>
-      <c r="F206" s="25"/>
+      <c r="F206" s="39"/>
       <c r="G206" s="26"/>
       <c r="H206" s="26"/>
-      <c r="J206" s="36"/>
     </row>
     <row r="207" spans="1:10" s="28" customFormat="1">
       <c r="C207" s="24"/>
@@ -7083,29 +7058,28 @@
       <c r="C208" s="24"/>
       <c r="D208" s="24"/>
       <c r="E208" s="26"/>
-      <c r="F208" s="25"/>
+      <c r="F208" s="26"/>
       <c r="G208" s="26"/>
       <c r="H208" s="26"/>
-      <c r="J208" s="38"/>
-    </row>
-    <row r="209" spans="1:8" s="28" customFormat="1">
-      <c r="A209" s="37"/>
+    </row>
+    <row r="209" spans="1:10" s="28" customFormat="1">
       <c r="C209" s="24"/>
       <c r="D209" s="24"/>
       <c r="E209" s="26"/>
-      <c r="F209" s="39"/>
+      <c r="F209" s="26"/>
       <c r="G209" s="26"/>
       <c r="H209" s="26"/>
     </row>
-    <row r="210" spans="1:8" s="28" customFormat="1">
+    <row r="210" spans="1:10" s="28" customFormat="1">
+      <c r="A210" s="37"/>
       <c r="C210" s="24"/>
       <c r="D210" s="24"/>
       <c r="E210" s="26"/>
-      <c r="F210" s="26"/>
+      <c r="F210" s="25"/>
       <c r="G210" s="26"/>
       <c r="H210" s="26"/>
     </row>
-    <row r="211" spans="1:8" s="28" customFormat="1">
+    <row r="211" spans="1:10" s="28" customFormat="1">
       <c r="C211" s="24"/>
       <c r="D211" s="24"/>
       <c r="E211" s="26"/>
@@ -7113,16 +7087,16 @@
       <c r="G211" s="26"/>
       <c r="H211" s="26"/>
     </row>
-    <row r="212" spans="1:8" s="28" customFormat="1">
+    <row r="212" spans="1:10" s="28" customFormat="1">
+      <c r="A212" s="37"/>
       <c r="C212" s="24"/>
       <c r="D212" s="24"/>
       <c r="E212" s="26"/>
-      <c r="F212" s="26"/>
+      <c r="F212" s="25"/>
       <c r="G212" s="26"/>
       <c r="H212" s="26"/>
     </row>
-    <row r="213" spans="1:8" s="28" customFormat="1">
-      <c r="A213" s="37"/>
+    <row r="213" spans="1:10" s="28" customFormat="1">
       <c r="C213" s="24"/>
       <c r="D213" s="24"/>
       <c r="E213" s="26"/>
@@ -7130,16 +7104,15 @@
       <c r="G213" s="26"/>
       <c r="H213" s="26"/>
     </row>
-    <row r="214" spans="1:8" s="28" customFormat="1">
+    <row r="214" spans="1:10" s="28" customFormat="1">
       <c r="C214" s="24"/>
       <c r="D214" s="24"/>
       <c r="E214" s="26"/>
-      <c r="F214" s="26"/>
+      <c r="F214" s="25"/>
       <c r="G214" s="26"/>
-      <c r="H214" s="26"/>
-    </row>
-    <row r="215" spans="1:8" s="28" customFormat="1">
-      <c r="A215" s="37"/>
+      <c r="H214" s="32"/>
+    </row>
+    <row r="215" spans="1:10" s="28" customFormat="1">
       <c r="C215" s="24"/>
       <c r="D215" s="24"/>
       <c r="E215" s="26"/>
@@ -7147,91 +7120,92 @@
       <c r="G215" s="26"/>
       <c r="H215" s="26"/>
     </row>
-    <row r="216" spans="1:8" s="28" customFormat="1">
+    <row r="216" spans="1:10" s="28" customFormat="1">
       <c r="C216" s="24"/>
       <c r="D216" s="24"/>
       <c r="E216" s="26"/>
-      <c r="F216" s="25"/>
+      <c r="F216" s="26"/>
       <c r="G216" s="26"/>
       <c r="H216" s="26"/>
     </row>
-    <row r="217" spans="1:8" s="28" customFormat="1">
+    <row r="217" spans="1:10" s="28" customFormat="1">
       <c r="C217" s="24"/>
       <c r="D217" s="24"/>
       <c r="E217" s="26"/>
-      <c r="F217" s="25"/>
+      <c r="F217" s="26"/>
       <c r="G217" s="26"/>
-      <c r="H217" s="32"/>
-    </row>
-    <row r="218" spans="1:8" s="28" customFormat="1">
+      <c r="H217" s="26"/>
+    </row>
+    <row r="218" spans="1:10" s="28" customFormat="1">
       <c r="C218" s="24"/>
       <c r="D218" s="24"/>
       <c r="E218" s="26"/>
-      <c r="F218" s="25"/>
+      <c r="F218" s="26"/>
       <c r="G218" s="26"/>
-      <c r="H218" s="26"/>
-    </row>
-    <row r="219" spans="1:8" s="28" customFormat="1">
+      <c r="H218" s="32"/>
+    </row>
+    <row r="219" spans="1:10" s="28" customFormat="1">
       <c r="C219" s="24"/>
       <c r="D219" s="24"/>
       <c r="E219" s="26"/>
-      <c r="F219" s="26"/>
+      <c r="F219" s="32"/>
       <c r="G219" s="26"/>
       <c r="H219" s="26"/>
     </row>
-    <row r="220" spans="1:8" s="28" customFormat="1">
+    <row r="220" spans="1:10" s="28" customFormat="1">
       <c r="C220" s="24"/>
-      <c r="D220" s="24"/>
-      <c r="E220" s="26"/>
-      <c r="F220" s="26"/>
+      <c r="D220" s="29"/>
+      <c r="E220" s="25"/>
+      <c r="F220" s="25"/>
       <c r="G220" s="26"/>
       <c r="H220" s="26"/>
     </row>
-    <row r="221" spans="1:8" s="28" customFormat="1">
+    <row r="221" spans="1:10" s="28" customFormat="1">
+      <c r="A221" s="37"/>
       <c r="C221" s="24"/>
-      <c r="D221" s="24"/>
-      <c r="E221" s="26"/>
-      <c r="F221" s="26"/>
+      <c r="D221" s="29"/>
+      <c r="E221" s="25"/>
+      <c r="F221" s="25"/>
       <c r="G221" s="26"/>
-      <c r="H221" s="32"/>
-    </row>
-    <row r="222" spans="1:8" s="28" customFormat="1">
+      <c r="H221" s="26"/>
+    </row>
+    <row r="222" spans="1:10" s="28" customFormat="1">
       <c r="C222" s="24"/>
-      <c r="D222" s="24"/>
+      <c r="D222" s="29"/>
       <c r="E222" s="26"/>
-      <c r="F222" s="32"/>
-      <c r="G222" s="26"/>
+      <c r="F222" s="26"/>
+      <c r="G222" s="32"/>
       <c r="H222" s="26"/>
     </row>
-    <row r="223" spans="1:8" s="28" customFormat="1">
+    <row r="223" spans="1:10" s="28" customFormat="1">
+      <c r="A223" s="37"/>
       <c r="C223" s="24"/>
       <c r="D223" s="29"/>
-      <c r="E223" s="25"/>
+      <c r="E223" s="26"/>
       <c r="F223" s="25"/>
       <c r="G223" s="26"/>
       <c r="H223" s="26"/>
     </row>
-    <row r="224" spans="1:8" s="28" customFormat="1">
-      <c r="A224" s="37"/>
+    <row r="224" spans="1:10" s="28" customFormat="1">
       <c r="C224" s="24"/>
-      <c r="D224" s="29"/>
-      <c r="E224" s="25"/>
+      <c r="D224" s="24"/>
+      <c r="E224" s="26"/>
       <c r="F224" s="25"/>
       <c r="G224" s="26"/>
       <c r="H224" s="26"/>
+      <c r="J224" s="36"/>
     </row>
     <row r="225" spans="1:10" s="28" customFormat="1">
       <c r="C225" s="24"/>
-      <c r="D225" s="29"/>
+      <c r="D225" s="24"/>
       <c r="E225" s="26"/>
-      <c r="F225" s="26"/>
-      <c r="G225" s="32"/>
+      <c r="F225" s="25"/>
+      <c r="G225" s="26"/>
       <c r="H225" s="26"/>
     </row>
     <row r="226" spans="1:10" s="28" customFormat="1">
-      <c r="A226" s="37"/>
       <c r="C226" s="24"/>
-      <c r="D226" s="29"/>
+      <c r="D226" s="24"/>
       <c r="E226" s="26"/>
       <c r="F226" s="25"/>
       <c r="G226" s="26"/>
@@ -7241,10 +7215,9 @@
       <c r="C227" s="24"/>
       <c r="D227" s="24"/>
       <c r="E227" s="26"/>
-      <c r="F227" s="25"/>
+      <c r="F227" s="26"/>
       <c r="G227" s="26"/>
       <c r="H227" s="26"/>
-      <c r="J227" s="36"/>
     </row>
     <row r="228" spans="1:10" s="28" customFormat="1">
       <c r="C228" s="24"/>
@@ -7266,7 +7239,7 @@
       <c r="C230" s="24"/>
       <c r="D230" s="24"/>
       <c r="E230" s="26"/>
-      <c r="F230" s="26"/>
+      <c r="F230" s="25"/>
       <c r="G230" s="26"/>
       <c r="H230" s="26"/>
     </row>
@@ -7284,13 +7257,13 @@
       <c r="E232" s="26"/>
       <c r="F232" s="25"/>
       <c r="G232" s="26"/>
-      <c r="H232" s="26"/>
+      <c r="H232" s="32"/>
     </row>
     <row r="233" spans="1:10" s="28" customFormat="1">
       <c r="C233" s="24"/>
       <c r="D233" s="24"/>
       <c r="E233" s="26"/>
-      <c r="F233" s="25"/>
+      <c r="F233" s="26"/>
       <c r="G233" s="26"/>
       <c r="H233" s="26"/>
     </row>
@@ -7308,15 +7281,17 @@
       <c r="E235" s="26"/>
       <c r="F235" s="25"/>
       <c r="G235" s="26"/>
-      <c r="H235" s="32"/>
+      <c r="H235" s="26"/>
     </row>
     <row r="236" spans="1:10" s="28" customFormat="1">
+      <c r="B236" s="35"/>
       <c r="C236" s="24"/>
       <c r="D236" s="24"/>
       <c r="E236" s="26"/>
-      <c r="F236" s="26"/>
+      <c r="F236" s="25"/>
       <c r="G236" s="26"/>
       <c r="H236" s="26"/>
+      <c r="J236" s="38"/>
     </row>
     <row r="237" spans="1:10" s="28" customFormat="1">
       <c r="C237" s="24"/>
@@ -7330,33 +7305,33 @@
       <c r="C238" s="24"/>
       <c r="D238" s="24"/>
       <c r="E238" s="26"/>
-      <c r="F238" s="25"/>
+      <c r="F238" s="26"/>
       <c r="G238" s="26"/>
       <c r="H238" s="26"/>
     </row>
     <row r="239" spans="1:10" s="28" customFormat="1">
-      <c r="B239" s="35"/>
       <c r="C239" s="24"/>
       <c r="D239" s="24"/>
       <c r="E239" s="26"/>
-      <c r="F239" s="25"/>
+      <c r="F239" s="26"/>
       <c r="G239" s="26"/>
-      <c r="H239" s="26"/>
-      <c r="J239" s="38"/>
+      <c r="H239" s="32"/>
     </row>
     <row r="240" spans="1:10" s="28" customFormat="1">
+      <c r="A240" s="37"/>
       <c r="C240" s="24"/>
       <c r="D240" s="24"/>
       <c r="E240" s="26"/>
       <c r="F240" s="25"/>
       <c r="G240" s="26"/>
-      <c r="H240" s="26"/>
+      <c r="H240" s="32"/>
     </row>
     <row r="241" spans="1:10" s="28" customFormat="1">
+      <c r="A241" s="37"/>
       <c r="C241" s="24"/>
       <c r="D241" s="24"/>
       <c r="E241" s="26"/>
-      <c r="F241" s="26"/>
+      <c r="F241" s="25"/>
       <c r="G241" s="26"/>
       <c r="H241" s="26"/>
     </row>
@@ -7364,41 +7339,41 @@
       <c r="C242" s="24"/>
       <c r="D242" s="24"/>
       <c r="E242" s="26"/>
-      <c r="F242" s="26"/>
+      <c r="F242" s="25"/>
       <c r="G242" s="26"/>
-      <c r="H242" s="32"/>
+      <c r="H242" s="26"/>
     </row>
     <row r="243" spans="1:10" s="28" customFormat="1">
-      <c r="A243" s="37"/>
       <c r="C243" s="24"/>
       <c r="D243" s="24"/>
       <c r="E243" s="26"/>
       <c r="F243" s="25"/>
       <c r="G243" s="26"/>
-      <c r="H243" s="32"/>
+      <c r="H243" s="26"/>
     </row>
     <row r="244" spans="1:10" s="28" customFormat="1">
-      <c r="A244" s="37"/>
       <c r="C244" s="24"/>
       <c r="D244" s="24"/>
       <c r="E244" s="26"/>
       <c r="F244" s="25"/>
       <c r="G244" s="26"/>
       <c r="H244" s="26"/>
+      <c r="J244" s="36"/>
     </row>
     <row r="245" spans="1:10" s="28" customFormat="1">
       <c r="C245" s="24"/>
       <c r="D245" s="24"/>
       <c r="E245" s="26"/>
-      <c r="F245" s="25"/>
+      <c r="F245" s="26"/>
       <c r="G245" s="26"/>
       <c r="H245" s="26"/>
     </row>
     <row r="246" spans="1:10" s="28" customFormat="1">
+      <c r="A246" s="37"/>
       <c r="C246" s="24"/>
       <c r="D246" s="24"/>
       <c r="E246" s="26"/>
-      <c r="F246" s="25"/>
+      <c r="F246" s="26"/>
       <c r="G246" s="26"/>
       <c r="H246" s="26"/>
     </row>
@@ -7409,13 +7384,12 @@
       <c r="F247" s="25"/>
       <c r="G247" s="26"/>
       <c r="H247" s="26"/>
-      <c r="J247" s="36"/>
     </row>
     <row r="248" spans="1:10" s="28" customFormat="1">
       <c r="C248" s="24"/>
       <c r="D248" s="24"/>
       <c r="E248" s="26"/>
-      <c r="F248" s="26"/>
+      <c r="F248" s="25"/>
       <c r="G248" s="26"/>
       <c r="H248" s="26"/>
     </row>
@@ -7437,6 +7411,7 @@
       <c r="H250" s="26"/>
     </row>
     <row r="251" spans="1:10" s="28" customFormat="1">
+      <c r="A251" s="37"/>
       <c r="C251" s="24"/>
       <c r="D251" s="24"/>
       <c r="E251" s="26"/>
@@ -7449,20 +7424,21 @@
       <c r="C252" s="24"/>
       <c r="D252" s="24"/>
       <c r="E252" s="26"/>
-      <c r="F252" s="26"/>
+      <c r="F252" s="25"/>
       <c r="G252" s="26"/>
       <c r="H252" s="26"/>
     </row>
-    <row r="253" spans="1:10" s="28" customFormat="1">
+    <row r="253" spans="1:10" s="4" customFormat="1">
+      <c r="A253" s="28"/>
+      <c r="B253" s="28"/>
       <c r="C253" s="24"/>
       <c r="D253" s="24"/>
       <c r="E253" s="26"/>
       <c r="F253" s="25"/>
-      <c r="G253" s="26"/>
-      <c r="H253" s="26"/>
+      <c r="G253" s="1"/>
+      <c r="H253" s="6"/>
     </row>
     <row r="254" spans="1:10" s="28" customFormat="1">
-      <c r="A254" s="37"/>
       <c r="C254" s="24"/>
       <c r="D254" s="24"/>
       <c r="E254" s="26"/>
@@ -7475,21 +7451,22 @@
       <c r="C255" s="24"/>
       <c r="D255" s="24"/>
       <c r="E255" s="26"/>
-      <c r="F255" s="25"/>
+      <c r="F255" s="32"/>
       <c r="G255" s="26"/>
       <c r="H255" s="26"/>
     </row>
-    <row r="256" spans="1:10" s="4" customFormat="1">
-      <c r="A256" s="28"/>
-      <c r="B256" s="28"/>
+    <row r="256" spans="1:10" s="28" customFormat="1">
+      <c r="A256" s="37"/>
       <c r="C256" s="24"/>
       <c r="D256" s="24"/>
       <c r="E256" s="26"/>
       <c r="F256" s="25"/>
-      <c r="G256" s="1"/>
-      <c r="H256" s="6"/>
+      <c r="G256" s="26"/>
+      <c r="H256" s="26"/>
     </row>
     <row r="257" spans="1:10" s="28" customFormat="1">
+      <c r="A257" s="37"/>
+      <c r="B257" s="35"/>
       <c r="C257" s="24"/>
       <c r="D257" s="24"/>
       <c r="E257" s="26"/>
@@ -7498,16 +7475,14 @@
       <c r="H257" s="26"/>
     </row>
     <row r="258" spans="1:10" s="28" customFormat="1">
-      <c r="A258" s="37"/>
       <c r="C258" s="24"/>
       <c r="D258" s="24"/>
       <c r="E258" s="26"/>
-      <c r="F258" s="32"/>
+      <c r="F258" s="25"/>
       <c r="G258" s="26"/>
       <c r="H258" s="26"/>
     </row>
     <row r="259" spans="1:10" s="28" customFormat="1">
-      <c r="A259" s="37"/>
       <c r="C259" s="24"/>
       <c r="D259" s="24"/>
       <c r="E259" s="26"/>
@@ -7516,12 +7491,10 @@
       <c r="H259" s="26"/>
     </row>
     <row r="260" spans="1:10" s="28" customFormat="1">
-      <c r="A260" s="37"/>
-      <c r="B260" s="35"/>
       <c r="C260" s="24"/>
       <c r="D260" s="24"/>
       <c r="E260" s="26"/>
-      <c r="F260" s="25"/>
+      <c r="F260" s="26"/>
       <c r="G260" s="26"/>
       <c r="H260" s="26"/>
     </row>
@@ -7534,10 +7507,11 @@
       <c r="H261" s="26"/>
     </row>
     <row r="262" spans="1:10" s="28" customFormat="1">
+      <c r="A262" s="37"/>
       <c r="C262" s="24"/>
       <c r="D262" s="24"/>
       <c r="E262" s="26"/>
-      <c r="F262" s="25"/>
+      <c r="F262" s="26"/>
       <c r="G262" s="26"/>
       <c r="H262" s="26"/>
     </row>
@@ -7545,7 +7519,7 @@
       <c r="C263" s="24"/>
       <c r="D263" s="24"/>
       <c r="E263" s="26"/>
-      <c r="F263" s="26"/>
+      <c r="F263" s="25"/>
       <c r="G263" s="26"/>
       <c r="H263" s="26"/>
     </row>
@@ -7557,22 +7531,26 @@
       <c r="G264" s="26"/>
       <c r="H264" s="26"/>
     </row>
-    <row r="265" spans="1:10" s="28" customFormat="1">
-      <c r="A265" s="37"/>
+    <row r="265" spans="1:10">
+      <c r="A265" s="28"/>
+      <c r="B265" s="28"/>
       <c r="C265" s="24"/>
       <c r="D265" s="24"/>
       <c r="E265" s="26"/>
-      <c r="F265" s="26"/>
-      <c r="G265" s="26"/>
-      <c r="H265" s="26"/>
-    </row>
-    <row r="266" spans="1:10" s="28" customFormat="1">
+      <c r="F265" s="25"/>
+      <c r="H265" s="6"/>
+      <c r="I265" s="4"/>
+      <c r="J265" s="8"/>
+    </row>
+    <row r="266" spans="1:10" s="4" customFormat="1">
+      <c r="A266" s="37"/>
+      <c r="B266" s="28"/>
       <c r="C266" s="24"/>
       <c r="D266" s="24"/>
       <c r="E266" s="26"/>
       <c r="F266" s="25"/>
-      <c r="G266" s="26"/>
-      <c r="H266" s="26"/>
+      <c r="G266" s="1"/>
+      <c r="H266" s="6"/>
     </row>
     <row r="267" spans="1:10" s="28" customFormat="1">
       <c r="C267" s="24"/>
@@ -7582,26 +7560,23 @@
       <c r="G267" s="26"/>
       <c r="H267" s="26"/>
     </row>
-    <row r="268" spans="1:10">
-      <c r="A268" s="28"/>
-      <c r="B268" s="28"/>
+    <row r="268" spans="1:10" s="28" customFormat="1">
+      <c r="A268" s="37"/>
       <c r="C268" s="24"/>
       <c r="D268" s="24"/>
       <c r="E268" s="26"/>
       <c r="F268" s="25"/>
-      <c r="H268" s="6"/>
-      <c r="I268" s="4"/>
-      <c r="J268" s="8"/>
-    </row>
-    <row r="269" spans="1:10" s="4" customFormat="1">
-      <c r="A269" s="37"/>
+      <c r="G268" s="26"/>
+      <c r="H268" s="26"/>
+    </row>
+    <row r="269" spans="1:10">
+      <c r="A269" s="28"/>
       <c r="B269" s="28"/>
       <c r="C269" s="24"/>
       <c r="D269" s="24"/>
       <c r="E269" s="26"/>
       <c r="F269" s="25"/>
-      <c r="G269" s="1"/>
-      <c r="H269" s="6"/>
+      <c r="G269" s="26"/>
     </row>
     <row r="270" spans="1:10" s="28" customFormat="1">
       <c r="C270" s="24"/>
@@ -7611,43 +7586,43 @@
       <c r="G270" s="26"/>
       <c r="H270" s="26"/>
     </row>
-    <row r="271" spans="1:10" s="28" customFormat="1">
+    <row r="271" spans="1:10" s="4" customFormat="1">
       <c r="A271" s="37"/>
+      <c r="B271" s="28"/>
       <c r="C271" s="24"/>
       <c r="D271" s="24"/>
       <c r="E271" s="26"/>
       <c r="F271" s="25"/>
-      <c r="G271" s="26"/>
-      <c r="H271" s="26"/>
-    </row>
-    <row r="272" spans="1:10">
-      <c r="A272" s="28"/>
-      <c r="B272" s="28"/>
+      <c r="G271" s="1"/>
+      <c r="H271" s="6"/>
+    </row>
+    <row r="272" spans="1:10" s="28" customFormat="1">
       <c r="C272" s="24"/>
       <c r="D272" s="24"/>
       <c r="E272" s="26"/>
       <c r="F272" s="25"/>
       <c r="G272" s="26"/>
+      <c r="H272" s="26"/>
     </row>
     <row r="273" spans="1:10" s="28" customFormat="1">
+      <c r="A273" s="37"/>
       <c r="C273" s="24"/>
       <c r="D273" s="24"/>
       <c r="E273" s="26"/>
-      <c r="F273" s="25"/>
+      <c r="F273" s="26"/>
       <c r="G273" s="26"/>
       <c r="H273" s="26"/>
     </row>
-    <row r="274" spans="1:10" s="4" customFormat="1">
-      <c r="A274" s="37"/>
-      <c r="B274" s="28"/>
+    <row r="274" spans="1:10" s="28" customFormat="1">
       <c r="C274" s="24"/>
       <c r="D274" s="24"/>
       <c r="E274" s="26"/>
-      <c r="F274" s="25"/>
-      <c r="G274" s="1"/>
-      <c r="H274" s="6"/>
+      <c r="F274" s="26"/>
+      <c r="G274" s="26"/>
+      <c r="H274" s="32"/>
     </row>
     <row r="275" spans="1:10" s="28" customFormat="1">
+      <c r="A275" s="37"/>
       <c r="C275" s="24"/>
       <c r="D275" s="24"/>
       <c r="E275" s="26"/>
@@ -7656,11 +7631,10 @@
       <c r="H275" s="26"/>
     </row>
     <row r="276" spans="1:10" s="28" customFormat="1">
-      <c r="A276" s="37"/>
       <c r="C276" s="24"/>
       <c r="D276" s="24"/>
       <c r="E276" s="26"/>
-      <c r="F276" s="26"/>
+      <c r="F276" s="25"/>
       <c r="G276" s="26"/>
       <c r="H276" s="26"/>
     </row>
@@ -7673,7 +7647,6 @@
       <c r="H277" s="32"/>
     </row>
     <row r="278" spans="1:10" s="28" customFormat="1">
-      <c r="A278" s="37"/>
       <c r="C278" s="24"/>
       <c r="D278" s="24"/>
       <c r="E278" s="26"/>
@@ -7681,21 +7654,23 @@
       <c r="G278" s="26"/>
       <c r="H278" s="26"/>
     </row>
-    <row r="279" spans="1:10" s="28" customFormat="1">
+    <row r="279" spans="1:10" s="41" customFormat="1">
+      <c r="A279" s="28"/>
+      <c r="B279" s="28"/>
       <c r="C279" s="24"/>
       <c r="D279" s="24"/>
       <c r="E279" s="26"/>
       <c r="F279" s="25"/>
-      <c r="G279" s="26"/>
-      <c r="H279" s="26"/>
+      <c r="G279" s="40"/>
+      <c r="H279" s="40"/>
     </row>
     <row r="280" spans="1:10" s="28" customFormat="1">
       <c r="C280" s="24"/>
       <c r="D280" s="24"/>
       <c r="E280" s="26"/>
-      <c r="F280" s="26"/>
+      <c r="F280" s="25"/>
       <c r="G280" s="26"/>
-      <c r="H280" s="32"/>
+      <c r="H280" s="26"/>
     </row>
     <row r="281" spans="1:10" s="28" customFormat="1">
       <c r="C281" s="24"/>
@@ -7705,33 +7680,38 @@
       <c r="G281" s="26"/>
       <c r="H281" s="26"/>
     </row>
-    <row r="282" spans="1:10" s="41" customFormat="1">
-      <c r="A282" s="28"/>
-      <c r="B282" s="28"/>
+    <row r="282" spans="1:10" s="28" customFormat="1">
       <c r="C282" s="24"/>
       <c r="D282" s="24"/>
       <c r="E282" s="26"/>
       <c r="F282" s="25"/>
-      <c r="G282" s="40"/>
-      <c r="H282" s="40"/>
-    </row>
-    <row r="283" spans="1:10" s="28" customFormat="1">
+      <c r="G282" s="26"/>
+      <c r="H282" s="26"/>
+    </row>
+    <row r="283" spans="1:10">
+      <c r="A283" s="28"/>
+      <c r="B283" s="28"/>
       <c r="C283" s="24"/>
       <c r="D283" s="24"/>
       <c r="E283" s="26"/>
-      <c r="F283" s="25"/>
+      <c r="F283" s="26"/>
       <c r="G283" s="26"/>
-      <c r="H283" s="26"/>
-    </row>
-    <row r="284" spans="1:10" s="28" customFormat="1">
+      <c r="H283" s="6"/>
+      <c r="I283" s="4"/>
+      <c r="J283" s="11"/>
+    </row>
+    <row r="284" spans="1:10" s="4" customFormat="1">
+      <c r="A284" s="35"/>
+      <c r="B284" s="35"/>
       <c r="C284" s="24"/>
       <c r="D284" s="24"/>
       <c r="E284" s="26"/>
       <c r="F284" s="25"/>
-      <c r="G284" s="26"/>
-      <c r="H284" s="26"/>
+      <c r="G284" s="1"/>
+      <c r="H284" s="6"/>
     </row>
     <row r="285" spans="1:10" s="28" customFormat="1">
+      <c r="A285" s="37"/>
       <c r="C285" s="24"/>
       <c r="D285" s="24"/>
       <c r="E285" s="26"/>
@@ -7739,48 +7719,41 @@
       <c r="G285" s="26"/>
       <c r="H285" s="26"/>
     </row>
-    <row r="286" spans="1:10">
-      <c r="A286" s="28"/>
-      <c r="B286" s="28"/>
+    <row r="286" spans="1:10" s="28" customFormat="1">
+      <c r="A286" s="37"/>
       <c r="C286" s="24"/>
       <c r="D286" s="24"/>
       <c r="E286" s="26"/>
-      <c r="F286" s="26"/>
+      <c r="F286" s="39"/>
       <c r="G286" s="26"/>
-      <c r="H286" s="6"/>
-      <c r="I286" s="4"/>
-      <c r="J286" s="11"/>
-    </row>
-    <row r="287" spans="1:10" s="4" customFormat="1">
-      <c r="A287" s="35"/>
-      <c r="B287" s="35"/>
+      <c r="H286" s="26"/>
+    </row>
+    <row r="287" spans="1:10" s="28" customFormat="1">
+      <c r="A287" s="37"/>
       <c r="C287" s="24"/>
       <c r="D287" s="24"/>
       <c r="E287" s="26"/>
       <c r="F287" s="25"/>
-      <c r="G287" s="1"/>
-      <c r="H287" s="6"/>
+      <c r="G287" s="26"/>
+      <c r="H287" s="26"/>
     </row>
     <row r="288" spans="1:10" s="28" customFormat="1">
-      <c r="A288" s="37"/>
       <c r="C288" s="24"/>
       <c r="D288" s="24"/>
       <c r="E288" s="26"/>
-      <c r="F288" s="25"/>
+      <c r="F288" s="26"/>
       <c r="G288" s="26"/>
       <c r="H288" s="26"/>
     </row>
     <row r="289" spans="1:10" s="28" customFormat="1">
-      <c r="A289" s="37"/>
       <c r="C289" s="24"/>
       <c r="D289" s="24"/>
       <c r="E289" s="26"/>
-      <c r="F289" s="39"/>
+      <c r="F289" s="25"/>
       <c r="G289" s="26"/>
       <c r="H289" s="26"/>
     </row>
     <row r="290" spans="1:10" s="28" customFormat="1">
-      <c r="A290" s="37"/>
       <c r="C290" s="24"/>
       <c r="D290" s="24"/>
       <c r="E290" s="26"/>
@@ -7788,21 +7761,27 @@
       <c r="G290" s="26"/>
       <c r="H290" s="26"/>
     </row>
-    <row r="291" spans="1:10" s="28" customFormat="1">
+    <row r="291" spans="1:10">
+      <c r="A291" s="28"/>
+      <c r="B291" s="28"/>
       <c r="C291" s="24"/>
       <c r="D291" s="24"/>
       <c r="E291" s="26"/>
-      <c r="F291" s="26"/>
+      <c r="F291" s="25"/>
       <c r="G291" s="26"/>
-      <c r="H291" s="26"/>
-    </row>
-    <row r="292" spans="1:10" s="28" customFormat="1">
+      <c r="H291" s="6"/>
+      <c r="I291" s="4"/>
+      <c r="J291" s="4"/>
+    </row>
+    <row r="292" spans="1:10" s="4" customFormat="1">
+      <c r="A292" s="37"/>
+      <c r="B292" s="28"/>
       <c r="C292" s="24"/>
       <c r="D292" s="24"/>
       <c r="E292" s="26"/>
       <c r="F292" s="25"/>
-      <c r="G292" s="26"/>
-      <c r="H292" s="26"/>
+      <c r="G292" s="1"/>
+      <c r="H292" s="6"/>
     </row>
     <row r="293" spans="1:10" s="28" customFormat="1">
       <c r="C293" s="24"/>
@@ -7812,69 +7791,63 @@
       <c r="G293" s="26"/>
       <c r="H293" s="26"/>
     </row>
-    <row r="294" spans="1:10">
-      <c r="A294" s="28"/>
-      <c r="B294" s="28"/>
+    <row r="294" spans="1:10" s="28" customFormat="1">
+      <c r="A294" s="42"/>
+      <c r="B294" s="42"/>
       <c r="C294" s="24"/>
       <c r="D294" s="24"/>
       <c r="E294" s="26"/>
-      <c r="F294" s="25"/>
+      <c r="F294" s="26"/>
       <c r="G294" s="26"/>
-      <c r="H294" s="6"/>
-      <c r="I294" s="4"/>
-      <c r="J294" s="4"/>
+      <c r="H294" s="26"/>
     </row>
     <row r="295" spans="1:10" s="4" customFormat="1">
-      <c r="A295" s="37"/>
+      <c r="A295" s="28"/>
       <c r="B295" s="28"/>
       <c r="C295" s="24"/>
       <c r="D295" s="24"/>
       <c r="E295" s="26"/>
       <c r="F295" s="25"/>
-      <c r="G295" s="1"/>
+      <c r="G295" s="26"/>
       <c r="H295" s="6"/>
     </row>
-    <row r="296" spans="1:10" s="28" customFormat="1">
+    <row r="296" spans="1:10">
+      <c r="A296" s="28"/>
+      <c r="B296" s="28"/>
       <c r="C296" s="24"/>
       <c r="D296" s="24"/>
       <c r="E296" s="26"/>
       <c r="F296" s="25"/>
-      <c r="G296" s="26"/>
-      <c r="H296" s="26"/>
     </row>
     <row r="297" spans="1:10" s="28" customFormat="1">
-      <c r="A297" s="42"/>
-      <c r="B297" s="42"/>
       <c r="C297" s="24"/>
       <c r="D297" s="24"/>
       <c r="E297" s="26"/>
-      <c r="F297" s="26"/>
+      <c r="F297" s="32"/>
       <c r="G297" s="26"/>
       <c r="H297" s="26"/>
     </row>
-    <row r="298" spans="1:10" s="4" customFormat="1">
-      <c r="A298" s="28"/>
-      <c r="B298" s="28"/>
+    <row r="298" spans="1:10" s="28" customFormat="1">
       <c r="C298" s="24"/>
       <c r="D298" s="24"/>
       <c r="E298" s="26"/>
-      <c r="F298" s="25"/>
+      <c r="F298" s="39"/>
       <c r="G298" s="26"/>
-      <c r="H298" s="6"/>
-    </row>
-    <row r="299" spans="1:10">
-      <c r="A299" s="28"/>
-      <c r="B299" s="28"/>
+      <c r="H298" s="26"/>
+    </row>
+    <row r="299" spans="1:10" s="28" customFormat="1">
       <c r="C299" s="24"/>
       <c r="D299" s="24"/>
       <c r="E299" s="26"/>
       <c r="F299" s="25"/>
+      <c r="G299" s="26"/>
+      <c r="H299" s="26"/>
     </row>
     <row r="300" spans="1:10" s="28" customFormat="1">
       <c r="C300" s="24"/>
       <c r="D300" s="24"/>
       <c r="E300" s="26"/>
-      <c r="F300" s="32"/>
+      <c r="F300" s="26"/>
       <c r="G300" s="26"/>
       <c r="H300" s="26"/>
     </row>
@@ -7882,7 +7855,7 @@
       <c r="C301" s="24"/>
       <c r="D301" s="24"/>
       <c r="E301" s="26"/>
-      <c r="F301" s="39"/>
+      <c r="F301" s="25"/>
       <c r="G301" s="26"/>
       <c r="H301" s="26"/>
     </row>
@@ -7890,7 +7863,7 @@
       <c r="C302" s="24"/>
       <c r="D302" s="24"/>
       <c r="E302" s="26"/>
-      <c r="F302" s="25"/>
+      <c r="F302" s="26"/>
       <c r="G302" s="26"/>
       <c r="H302" s="26"/>
     </row>
@@ -7898,11 +7871,12 @@
       <c r="C303" s="24"/>
       <c r="D303" s="24"/>
       <c r="E303" s="26"/>
-      <c r="F303" s="26"/>
+      <c r="F303" s="25"/>
       <c r="G303" s="26"/>
-      <c r="H303" s="26"/>
+      <c r="H303" s="32"/>
     </row>
     <row r="304" spans="1:10" s="28" customFormat="1">
+      <c r="A304" s="37"/>
       <c r="C304" s="24"/>
       <c r="D304" s="24"/>
       <c r="E304" s="26"/>
@@ -7910,24 +7884,28 @@
       <c r="G304" s="26"/>
       <c r="H304" s="26"/>
     </row>
-    <row r="305" spans="1:10" s="28" customFormat="1">
+    <row r="305" spans="1:10" s="4" customFormat="1">
+      <c r="A305" s="42"/>
+      <c r="B305" s="28"/>
       <c r="C305" s="24"/>
       <c r="D305" s="24"/>
       <c r="E305" s="26"/>
-      <c r="F305" s="26"/>
-      <c r="G305" s="26"/>
-      <c r="H305" s="26"/>
+      <c r="F305" s="25"/>
+      <c r="G305" s="1"/>
+      <c r="H305" s="6"/>
     </row>
     <row r="306" spans="1:10" s="28" customFormat="1">
+      <c r="A306" s="37"/>
       <c r="C306" s="24"/>
       <c r="D306" s="24"/>
       <c r="E306" s="26"/>
       <c r="F306" s="25"/>
       <c r="G306" s="26"/>
-      <c r="H306" s="32"/>
+      <c r="H306" s="26"/>
     </row>
     <row r="307" spans="1:10" s="28" customFormat="1">
       <c r="A307" s="37"/>
+      <c r="B307" s="35"/>
       <c r="C307" s="24"/>
       <c r="D307" s="24"/>
       <c r="E307" s="26"/>
@@ -7935,28 +7913,26 @@
       <c r="G307" s="26"/>
       <c r="H307" s="26"/>
     </row>
-    <row r="308" spans="1:10" s="4" customFormat="1">
-      <c r="A308" s="42"/>
-      <c r="B308" s="28"/>
+    <row r="308" spans="1:10" s="28" customFormat="1">
       <c r="C308" s="24"/>
       <c r="D308" s="24"/>
       <c r="E308" s="26"/>
       <c r="F308" s="25"/>
-      <c r="G308" s="1"/>
-      <c r="H308" s="6"/>
-    </row>
-    <row r="309" spans="1:10" s="28" customFormat="1">
-      <c r="A309" s="37"/>
+      <c r="G308" s="26"/>
+      <c r="H308" s="26"/>
+    </row>
+    <row r="309" spans="1:10">
+      <c r="A309" s="28"/>
+      <c r="B309" s="28"/>
       <c r="C309" s="24"/>
       <c r="D309" s="24"/>
       <c r="E309" s="26"/>
       <c r="F309" s="25"/>
-      <c r="G309" s="26"/>
-      <c r="H309" s="26"/>
+      <c r="H309" s="6"/>
+      <c r="I309" s="4"/>
+      <c r="J309" s="4"/>
     </row>
     <row r="310" spans="1:10" s="28" customFormat="1">
-      <c r="A310" s="37"/>
-      <c r="B310" s="35"/>
       <c r="C310" s="24"/>
       <c r="D310" s="24"/>
       <c r="E310" s="26"/>
@@ -7965,6 +7941,7 @@
       <c r="H310" s="26"/>
     </row>
     <row r="311" spans="1:10" s="28" customFormat="1">
+      <c r="A311" s="37"/>
       <c r="C311" s="24"/>
       <c r="D311" s="24"/>
       <c r="E311" s="26"/>
@@ -7972,16 +7949,14 @@
       <c r="G311" s="26"/>
       <c r="H311" s="26"/>
     </row>
-    <row r="312" spans="1:10">
-      <c r="A312" s="28"/>
-      <c r="B312" s="28"/>
+    <row r="312" spans="1:10" s="28" customFormat="1">
+      <c r="A312" s="37"/>
       <c r="C312" s="24"/>
       <c r="D312" s="24"/>
       <c r="E312" s="26"/>
       <c r="F312" s="25"/>
-      <c r="H312" s="6"/>
-      <c r="I312" s="4"/>
-      <c r="J312" s="4"/>
+      <c r="G312" s="26"/>
+      <c r="H312" s="26"/>
     </row>
     <row r="313" spans="1:10" s="28" customFormat="1">
       <c r="C313" s="24"/>
@@ -7998,55 +7973,55 @@
       <c r="E314" s="26"/>
       <c r="F314" s="25"/>
       <c r="G314" s="26"/>
-      <c r="H314" s="26"/>
-    </row>
-    <row r="315" spans="1:10" s="28" customFormat="1">
-      <c r="A315" s="37"/>
+      <c r="H314" s="32"/>
+    </row>
+    <row r="315" spans="1:10" s="41" customFormat="1">
+      <c r="A315" s="42"/>
+      <c r="B315" s="28"/>
       <c r="C315" s="24"/>
       <c r="D315" s="24"/>
       <c r="E315" s="26"/>
-      <c r="F315" s="25"/>
+      <c r="F315" s="39"/>
       <c r="G315" s="26"/>
-      <c r="H315" s="26"/>
-    </row>
-    <row r="316" spans="1:10" s="28" customFormat="1">
+      <c r="H315" s="40"/>
+    </row>
+    <row r="316" spans="1:10" s="41" customFormat="1">
+      <c r="A316" s="28"/>
+      <c r="B316" s="28"/>
       <c r="C316" s="24"/>
       <c r="D316" s="24"/>
       <c r="E316" s="26"/>
       <c r="F316" s="25"/>
       <c r="G316" s="26"/>
-      <c r="H316" s="26"/>
+      <c r="H316" s="40"/>
     </row>
     <row r="317" spans="1:10" s="28" customFormat="1">
-      <c r="A317" s="37"/>
       <c r="C317" s="24"/>
       <c r="D317" s="24"/>
       <c r="E317" s="26"/>
       <c r="F317" s="25"/>
       <c r="G317" s="26"/>
-      <c r="H317" s="32"/>
-    </row>
-    <row r="318" spans="1:10" s="41" customFormat="1">
-      <c r="A318" s="42"/>
-      <c r="B318" s="28"/>
+      <c r="H317" s="26"/>
+    </row>
+    <row r="318" spans="1:10" s="28" customFormat="1">
+      <c r="A318" s="37"/>
       <c r="C318" s="24"/>
       <c r="D318" s="24"/>
       <c r="E318" s="26"/>
       <c r="F318" s="39"/>
       <c r="G318" s="26"/>
-      <c r="H318" s="40"/>
-    </row>
-    <row r="319" spans="1:10" s="41" customFormat="1">
-      <c r="A319" s="28"/>
-      <c r="B319" s="28"/>
+      <c r="H318" s="26"/>
+    </row>
+    <row r="319" spans="1:10" s="28" customFormat="1">
       <c r="C319" s="24"/>
       <c r="D319" s="24"/>
       <c r="E319" s="26"/>
       <c r="F319" s="25"/>
       <c r="G319" s="26"/>
-      <c r="H319" s="40"/>
+      <c r="H319" s="32"/>
     </row>
     <row r="320" spans="1:10" s="28" customFormat="1">
+      <c r="A320" s="37"/>
       <c r="C320" s="24"/>
       <c r="D320" s="24"/>
       <c r="E320" s="26"/>
@@ -8055,24 +8030,24 @@
       <c r="H320" s="26"/>
     </row>
     <row r="321" spans="1:10" s="28" customFormat="1">
-      <c r="A321" s="37"/>
+      <c r="A321" s="42"/>
       <c r="C321" s="24"/>
       <c r="D321" s="24"/>
       <c r="E321" s="26"/>
-      <c r="F321" s="39"/>
+      <c r="F321" s="25"/>
       <c r="G321" s="26"/>
       <c r="H321" s="26"/>
     </row>
     <row r="322" spans="1:10" s="28" customFormat="1">
+      <c r="A322" s="42"/>
       <c r="C322" s="24"/>
       <c r="D322" s="24"/>
       <c r="E322" s="26"/>
       <c r="F322" s="25"/>
       <c r="G322" s="26"/>
-      <c r="H322" s="32"/>
+      <c r="H322" s="26"/>
     </row>
     <row r="323" spans="1:10" s="28" customFormat="1">
-      <c r="A323" s="37"/>
       <c r="C323" s="24"/>
       <c r="D323" s="24"/>
       <c r="E323" s="26"/>
@@ -8081,7 +8056,7 @@
       <c r="H323" s="26"/>
     </row>
     <row r="324" spans="1:10" s="28" customFormat="1">
-      <c r="A324" s="42"/>
+      <c r="A324" s="37"/>
       <c r="C324" s="24"/>
       <c r="D324" s="24"/>
       <c r="E324" s="26"/>
@@ -8091,6 +8066,7 @@
     </row>
     <row r="325" spans="1:10" s="28" customFormat="1">
       <c r="A325" s="42"/>
+      <c r="B325" s="35"/>
       <c r="C325" s="24"/>
       <c r="D325" s="24"/>
       <c r="E325" s="26"/>
@@ -8099,6 +8075,7 @@
       <c r="H325" s="26"/>
     </row>
     <row r="326" spans="1:10" s="28" customFormat="1">
+      <c r="A326" s="42"/>
       <c r="C326" s="24"/>
       <c r="D326" s="24"/>
       <c r="E326" s="26"/>
@@ -8107,7 +8084,8 @@
       <c r="H326" s="26"/>
     </row>
     <row r="327" spans="1:10" s="28" customFormat="1">
-      <c r="A327" s="37"/>
+      <c r="A327" s="42"/>
+      <c r="B327" s="35"/>
       <c r="C327" s="24"/>
       <c r="D327" s="24"/>
       <c r="E327" s="26"/>
@@ -8116,68 +8094,66 @@
       <c r="H327" s="26"/>
     </row>
     <row r="328" spans="1:10" s="28" customFormat="1">
-      <c r="A328" s="42"/>
-      <c r="B328" s="35"/>
       <c r="C328" s="24"/>
       <c r="D328" s="24"/>
       <c r="E328" s="26"/>
       <c r="F328" s="25"/>
       <c r="G328" s="26"/>
       <c r="H328" s="26"/>
+      <c r="J328" s="36"/>
     </row>
     <row r="329" spans="1:10" s="28" customFormat="1">
-      <c r="A329" s="42"/>
+      <c r="A329" s="37"/>
       <c r="C329" s="24"/>
       <c r="D329" s="24"/>
       <c r="E329" s="26"/>
-      <c r="F329" s="25"/>
+      <c r="F329" s="26"/>
       <c r="G329" s="26"/>
       <c r="H329" s="26"/>
     </row>
     <row r="330" spans="1:10" s="28" customFormat="1">
-      <c r="A330" s="42"/>
-      <c r="B330" s="35"/>
+      <c r="A330" s="37"/>
       <c r="C330" s="24"/>
       <c r="D330" s="24"/>
       <c r="E330" s="26"/>
-      <c r="F330" s="25"/>
+      <c r="F330" s="32"/>
       <c r="G330" s="26"/>
       <c r="H330" s="26"/>
     </row>
     <row r="331" spans="1:10" s="28" customFormat="1">
+      <c r="A331" s="35"/>
+      <c r="B331" s="35"/>
       <c r="C331" s="24"/>
       <c r="D331" s="24"/>
       <c r="E331" s="26"/>
-      <c r="F331" s="25"/>
+      <c r="F331" s="32"/>
       <c r="G331" s="26"/>
       <c r="H331" s="26"/>
-      <c r="J331" s="36"/>
     </row>
     <row r="332" spans="1:10" s="28" customFormat="1">
       <c r="A332" s="37"/>
       <c r="C332" s="24"/>
       <c r="D332" s="24"/>
       <c r="E332" s="26"/>
-      <c r="F332" s="26"/>
+      <c r="F332" s="25"/>
       <c r="G332" s="26"/>
       <c r="H332" s="26"/>
     </row>
     <row r="333" spans="1:10" s="28" customFormat="1">
-      <c r="A333" s="37"/>
+      <c r="A333" s="42"/>
       <c r="C333" s="24"/>
-      <c r="D333" s="24"/>
-      <c r="E333" s="26"/>
-      <c r="F333" s="32"/>
+      <c r="D333" s="29"/>
+      <c r="E333" s="25"/>
+      <c r="F333" s="25"/>
       <c r="G333" s="26"/>
       <c r="H333" s="26"/>
     </row>
     <row r="334" spans="1:10" s="28" customFormat="1">
-      <c r="A334" s="35"/>
-      <c r="B334" s="35"/>
+      <c r="A334" s="37"/>
       <c r="C334" s="24"/>
-      <c r="D334" s="24"/>
-      <c r="E334" s="26"/>
-      <c r="F334" s="32"/>
+      <c r="D334" s="29"/>
+      <c r="E334" s="25"/>
+      <c r="F334" s="26"/>
       <c r="G334" s="26"/>
       <c r="H334" s="26"/>
     </row>
@@ -8191,20 +8167,20 @@
       <c r="H335" s="26"/>
     </row>
     <row r="336" spans="1:10" s="28" customFormat="1">
-      <c r="A336" s="42"/>
       <c r="C336" s="24"/>
-      <c r="D336" s="29"/>
-      <c r="E336" s="25"/>
+      <c r="D336" s="24"/>
+      <c r="E336" s="26"/>
       <c r="F336" s="25"/>
       <c r="G336" s="26"/>
       <c r="H336" s="26"/>
     </row>
     <row r="337" spans="1:10" s="28" customFormat="1">
-      <c r="A337" s="37"/>
+      <c r="A337" s="42"/>
+      <c r="B337" s="35"/>
       <c r="C337" s="24"/>
-      <c r="D337" s="29"/>
-      <c r="E337" s="25"/>
-      <c r="F337" s="26"/>
+      <c r="D337" s="24"/>
+      <c r="E337" s="26"/>
+      <c r="F337" s="25"/>
       <c r="G337" s="26"/>
       <c r="H337" s="26"/>
     </row>
@@ -8218,120 +8194,118 @@
       <c r="H338" s="26"/>
     </row>
     <row r="339" spans="1:10" s="28" customFormat="1">
+      <c r="A339" s="37"/>
       <c r="C339" s="24"/>
-      <c r="D339" s="24"/>
-      <c r="E339" s="26"/>
-      <c r="F339" s="25"/>
+      <c r="D339" s="29"/>
+      <c r="E339" s="25"/>
+      <c r="F339" s="26"/>
       <c r="G339" s="26"/>
       <c r="H339" s="26"/>
     </row>
     <row r="340" spans="1:10" s="28" customFormat="1">
-      <c r="A340" s="42"/>
-      <c r="B340" s="35"/>
       <c r="C340" s="24"/>
-      <c r="D340" s="24"/>
-      <c r="E340" s="26"/>
+      <c r="D340" s="29"/>
+      <c r="E340" s="25"/>
       <c r="F340" s="25"/>
       <c r="G340" s="26"/>
       <c r="H340" s="26"/>
     </row>
-    <row r="341" spans="1:10" s="28" customFormat="1">
+    <row r="341" spans="1:10" s="41" customFormat="1">
       <c r="A341" s="37"/>
+      <c r="B341" s="35"/>
       <c r="C341" s="24"/>
       <c r="D341" s="24"/>
-      <c r="E341" s="26"/>
-      <c r="F341" s="25"/>
-      <c r="G341" s="26"/>
-      <c r="H341" s="26"/>
+      <c r="E341" s="25"/>
+      <c r="F341" s="39"/>
+      <c r="G341" s="40"/>
+      <c r="H341" s="40"/>
     </row>
     <row r="342" spans="1:10" s="28" customFormat="1">
       <c r="A342" s="37"/>
       <c r="C342" s="24"/>
-      <c r="D342" s="29"/>
-      <c r="E342" s="25"/>
-      <c r="F342" s="26"/>
+      <c r="D342" s="24"/>
+      <c r="E342" s="26"/>
+      <c r="F342" s="39"/>
       <c r="G342" s="26"/>
       <c r="H342" s="26"/>
     </row>
-    <row r="343" spans="1:10" s="28" customFormat="1">
+    <row r="343" spans="1:10" s="4" customFormat="1">
+      <c r="A343" s="37"/>
+      <c r="B343" s="35"/>
       <c r="C343" s="24"/>
-      <c r="D343" s="29"/>
-      <c r="E343" s="25"/>
+      <c r="D343" s="24"/>
+      <c r="E343" s="26"/>
       <c r="F343" s="25"/>
-      <c r="G343" s="26"/>
-      <c r="H343" s="26"/>
-    </row>
-    <row r="344" spans="1:10" s="41" customFormat="1">
-      <c r="A344" s="37"/>
+      <c r="G343" s="1"/>
+      <c r="H343" s="6"/>
+    </row>
+    <row r="344" spans="1:10" s="28" customFormat="1">
+      <c r="A344" s="42"/>
       <c r="B344" s="35"/>
       <c r="C344" s="24"/>
       <c r="D344" s="24"/>
-      <c r="E344" s="25"/>
-      <c r="F344" s="39"/>
-      <c r="G344" s="40"/>
-      <c r="H344" s="40"/>
+      <c r="E344" s="26"/>
+      <c r="F344" s="25"/>
+      <c r="G344" s="26"/>
+      <c r="H344" s="26"/>
     </row>
     <row r="345" spans="1:10" s="28" customFormat="1">
-      <c r="A345" s="37"/>
       <c r="C345" s="24"/>
       <c r="D345" s="24"/>
       <c r="E345" s="26"/>
-      <c r="F345" s="39"/>
+      <c r="F345" s="25"/>
       <c r="G345" s="26"/>
       <c r="H345" s="26"/>
-    </row>
-    <row r="346" spans="1:10" s="4" customFormat="1">
-      <c r="A346" s="37"/>
+      <c r="J345" s="36"/>
+    </row>
+    <row r="346" spans="1:10" s="41" customFormat="1">
+      <c r="A346" s="42"/>
       <c r="B346" s="35"/>
       <c r="C346" s="24"/>
       <c r="D346" s="24"/>
       <c r="E346" s="26"/>
       <c r="F346" s="25"/>
-      <c r="G346" s="1"/>
-      <c r="H346" s="6"/>
+      <c r="G346" s="40"/>
+      <c r="H346" s="40"/>
     </row>
     <row r="347" spans="1:10" s="28" customFormat="1">
-      <c r="A347" s="42"/>
+      <c r="A347" s="37"/>
       <c r="B347" s="35"/>
       <c r="C347" s="24"/>
       <c r="D347" s="24"/>
       <c r="E347" s="26"/>
-      <c r="F347" s="25"/>
+      <c r="F347" s="39"/>
       <c r="G347" s="26"/>
       <c r="H347" s="26"/>
     </row>
     <row r="348" spans="1:10" s="28" customFormat="1">
+      <c r="A348" s="37"/>
+      <c r="B348" s="35"/>
       <c r="C348" s="24"/>
       <c r="D348" s="24"/>
       <c r="E348" s="26"/>
       <c r="F348" s="25"/>
       <c r="G348" s="26"/>
       <c r="H348" s="26"/>
-      <c r="J348" s="36"/>
-    </row>
-    <row r="349" spans="1:10" s="41" customFormat="1">
-      <c r="A349" s="42"/>
-      <c r="B349" s="35"/>
+    </row>
+    <row r="349" spans="1:10" s="28" customFormat="1">
       <c r="C349" s="24"/>
       <c r="D349" s="24"/>
       <c r="E349" s="26"/>
-      <c r="F349" s="25"/>
-      <c r="G349" s="40"/>
-      <c r="H349" s="40"/>
+      <c r="F349" s="26"/>
+      <c r="G349" s="26"/>
+      <c r="H349" s="26"/>
     </row>
     <row r="350" spans="1:10" s="28" customFormat="1">
-      <c r="A350" s="37"/>
-      <c r="B350" s="35"/>
       <c r="C350" s="24"/>
       <c r="D350" s="24"/>
       <c r="E350" s="26"/>
-      <c r="F350" s="39"/>
+      <c r="F350" s="25"/>
       <c r="G350" s="26"/>
       <c r="H350" s="26"/>
     </row>
     <row r="351" spans="1:10" s="28" customFormat="1">
       <c r="A351" s="37"/>
-      <c r="B351" s="35"/>
       <c r="C351" s="24"/>
       <c r="D351" s="24"/>
       <c r="E351" s="26"/>
@@ -8339,24 +8313,26 @@
       <c r="G351" s="26"/>
       <c r="H351" s="26"/>
     </row>
-    <row r="352" spans="1:10" s="28" customFormat="1">
+    <row r="352" spans="1:10" s="4" customFormat="1">
+      <c r="A352" s="42"/>
+      <c r="B352" s="35"/>
       <c r="C352" s="24"/>
       <c r="D352" s="24"/>
       <c r="E352" s="26"/>
-      <c r="F352" s="26"/>
-      <c r="G352" s="26"/>
-      <c r="H352" s="26"/>
-    </row>
-    <row r="353" spans="1:8" s="28" customFormat="1">
-      <c r="C353" s="24"/>
+      <c r="F352" s="39"/>
+      <c r="G352" s="1"/>
+      <c r="H352" s="6"/>
+    </row>
+    <row r="353" spans="1:8" s="41" customFormat="1">
+      <c r="A353" s="43"/>
+      <c r="C353" s="44"/>
       <c r="D353" s="24"/>
       <c r="E353" s="26"/>
-      <c r="F353" s="25"/>
-      <c r="G353" s="26"/>
-      <c r="H353" s="26"/>
+      <c r="F353" s="45"/>
+      <c r="G353" s="40"/>
+      <c r="H353" s="40"/>
     </row>
     <row r="354" spans="1:8" s="28" customFormat="1">
-      <c r="A354" s="37"/>
       <c r="C354" s="24"/>
       <c r="D354" s="24"/>
       <c r="E354" s="26"/>
@@ -8364,26 +8340,29 @@
       <c r="G354" s="26"/>
       <c r="H354" s="26"/>
     </row>
-    <row r="355" spans="1:8" s="4" customFormat="1">
+    <row r="355" spans="1:8" s="28" customFormat="1">
       <c r="A355" s="42"/>
       <c r="B355" s="35"/>
       <c r="C355" s="24"/>
       <c r="D355" s="24"/>
       <c r="E355" s="26"/>
-      <c r="F355" s="39"/>
-      <c r="G355" s="1"/>
-      <c r="H355" s="6"/>
-    </row>
-    <row r="356" spans="1:8" s="41" customFormat="1">
-      <c r="A356" s="43"/>
-      <c r="C356" s="44"/>
+      <c r="F355" s="25"/>
+      <c r="G355" s="26"/>
+      <c r="H355" s="26"/>
+    </row>
+    <row r="356" spans="1:8" s="28" customFormat="1">
+      <c r="A356" s="42"/>
+      <c r="B356" s="35"/>
+      <c r="C356" s="24"/>
       <c r="D356" s="24"/>
       <c r="E356" s="26"/>
-      <c r="F356" s="45"/>
-      <c r="G356" s="40"/>
-      <c r="H356" s="40"/>
+      <c r="F356" s="26"/>
+      <c r="G356" s="26"/>
+      <c r="H356" s="26"/>
     </row>
     <row r="357" spans="1:8" s="28" customFormat="1">
+      <c r="A357" s="42"/>
+      <c r="B357" s="35"/>
       <c r="C357" s="24"/>
       <c r="D357" s="24"/>
       <c r="E357" s="26"/>
@@ -8392,18 +8371,15 @@
       <c r="H357" s="26"/>
     </row>
     <row r="358" spans="1:8" s="28" customFormat="1">
-      <c r="A358" s="42"/>
-      <c r="B358" s="35"/>
+      <c r="A358" s="37"/>
       <c r="C358" s="24"/>
       <c r="D358" s="24"/>
       <c r="E358" s="26"/>
-      <c r="F358" s="25"/>
+      <c r="F358" s="39"/>
       <c r="G358" s="26"/>
       <c r="H358" s="26"/>
     </row>
     <row r="359" spans="1:8" s="28" customFormat="1">
-      <c r="A359" s="42"/>
-      <c r="B359" s="35"/>
       <c r="C359" s="24"/>
       <c r="D359" s="24"/>
       <c r="E359" s="26"/>
@@ -8412,8 +8388,6 @@
       <c r="H359" s="26"/>
     </row>
     <row r="360" spans="1:8" s="28" customFormat="1">
-      <c r="A360" s="42"/>
-      <c r="B360" s="35"/>
       <c r="C360" s="24"/>
       <c r="D360" s="24"/>
       <c r="E360" s="26"/>
@@ -8426,19 +8400,23 @@
       <c r="C361" s="24"/>
       <c r="D361" s="24"/>
       <c r="E361" s="26"/>
-      <c r="F361" s="39"/>
+      <c r="F361" s="25"/>
       <c r="G361" s="26"/>
       <c r="H361" s="26"/>
     </row>
-    <row r="362" spans="1:8" s="28" customFormat="1">
+    <row r="362" spans="1:8" s="28" customFormat="1" ht="14.75" customHeight="1">
+      <c r="A362" s="37"/>
+      <c r="B362" s="35"/>
       <c r="C362" s="24"/>
       <c r="D362" s="24"/>
       <c r="E362" s="26"/>
-      <c r="F362" s="26"/>
+      <c r="F362" s="25"/>
       <c r="G362" s="26"/>
       <c r="H362" s="26"/>
     </row>
     <row r="363" spans="1:8" s="28" customFormat="1">
+      <c r="A363" s="37"/>
+      <c r="B363" s="35"/>
       <c r="C363" s="24"/>
       <c r="D363" s="24"/>
       <c r="E363" s="26"/>
@@ -8447,27 +8425,26 @@
       <c r="H363" s="26"/>
     </row>
     <row r="364" spans="1:8" s="28" customFormat="1">
-      <c r="A364" s="37"/>
+      <c r="A364" s="42"/>
       <c r="C364" s="24"/>
       <c r="D364" s="24"/>
       <c r="E364" s="26"/>
-      <c r="F364" s="25"/>
+      <c r="F364" s="46"/>
       <c r="G364" s="26"/>
       <c r="H364" s="26"/>
     </row>
-    <row r="365" spans="1:8" s="28" customFormat="1" ht="14.75" customHeight="1">
-      <c r="A365" s="37"/>
+    <row r="365" spans="1:8" s="28" customFormat="1">
+      <c r="A365" s="42"/>
       <c r="B365" s="35"/>
       <c r="C365" s="24"/>
       <c r="D365" s="24"/>
       <c r="E365" s="26"/>
-      <c r="F365" s="25"/>
+      <c r="F365" s="39"/>
       <c r="G365" s="26"/>
       <c r="H365" s="26"/>
     </row>
     <row r="366" spans="1:8" s="28" customFormat="1">
       <c r="A366" s="37"/>
-      <c r="B366" s="35"/>
       <c r="C366" s="24"/>
       <c r="D366" s="24"/>
       <c r="E366" s="26"/>
@@ -8477,25 +8454,25 @@
     </row>
     <row r="367" spans="1:8" s="28" customFormat="1">
       <c r="A367" s="42"/>
+      <c r="B367" s="35"/>
       <c r="C367" s="24"/>
       <c r="D367" s="24"/>
       <c r="E367" s="26"/>
-      <c r="F367" s="46"/>
+      <c r="F367" s="39"/>
       <c r="G367" s="26"/>
       <c r="H367" s="26"/>
     </row>
-    <row r="368" spans="1:8" s="28" customFormat="1">
-      <c r="A368" s="42"/>
-      <c r="B368" s="35"/>
+    <row r="368" spans="1:8" s="4" customFormat="1">
+      <c r="A368" s="28"/>
+      <c r="B368" s="28"/>
       <c r="C368" s="24"/>
       <c r="D368" s="24"/>
       <c r="E368" s="26"/>
-      <c r="F368" s="39"/>
-      <c r="G368" s="26"/>
-      <c r="H368" s="26"/>
+      <c r="F368" s="25"/>
+      <c r="G368" s="1"/>
+      <c r="H368" s="6"/>
     </row>
     <row r="369" spans="1:8" s="28" customFormat="1">
-      <c r="A369" s="37"/>
       <c r="C369" s="24"/>
       <c r="D369" s="24"/>
       <c r="E369" s="26"/>
@@ -8509,85 +8486,83 @@
       <c r="C370" s="24"/>
       <c r="D370" s="24"/>
       <c r="E370" s="26"/>
-      <c r="F370" s="39"/>
+      <c r="F370" s="25"/>
       <c r="G370" s="26"/>
       <c r="H370" s="26"/>
     </row>
-    <row r="371" spans="1:8" s="4" customFormat="1">
-      <c r="A371" s="28"/>
-      <c r="B371" s="28"/>
+    <row r="371" spans="1:8" s="28" customFormat="1">
+      <c r="A371" s="42"/>
       <c r="C371" s="24"/>
       <c r="D371" s="24"/>
       <c r="E371" s="26"/>
-      <c r="F371" s="25"/>
-      <c r="G371" s="1"/>
-      <c r="H371" s="6"/>
+      <c r="F371" s="46"/>
+      <c r="G371" s="26"/>
+      <c r="H371" s="26"/>
     </row>
     <row r="372" spans="1:8" s="28" customFormat="1">
+      <c r="A372" s="37"/>
       <c r="C372" s="24"/>
       <c r="D372" s="24"/>
       <c r="E372" s="26"/>
-      <c r="F372" s="25"/>
+      <c r="F372" s="46"/>
       <c r="G372" s="26"/>
       <c r="H372" s="26"/>
     </row>
-    <row r="373" spans="1:8" s="28" customFormat="1">
-      <c r="A373" s="42"/>
-      <c r="B373" s="35"/>
+    <row r="373" spans="1:8" s="4" customFormat="1">
+      <c r="A373" s="37"/>
+      <c r="B373" s="28"/>
       <c r="C373" s="24"/>
       <c r="D373" s="24"/>
       <c r="E373" s="26"/>
       <c r="F373" s="25"/>
-      <c r="G373" s="26"/>
-      <c r="H373" s="26"/>
-    </row>
-    <row r="374" spans="1:8" s="28" customFormat="1">
-      <c r="A374" s="42"/>
+      <c r="G373" s="1"/>
+      <c r="H373" s="6"/>
+    </row>
+    <row r="374" spans="1:8" s="4" customFormat="1">
+      <c r="A374" s="28"/>
+      <c r="B374" s="28"/>
       <c r="C374" s="24"/>
       <c r="D374" s="24"/>
       <c r="E374" s="26"/>
-      <c r="F374" s="46"/>
-      <c r="G374" s="26"/>
-      <c r="H374" s="26"/>
-    </row>
-    <row r="375" spans="1:8" s="28" customFormat="1">
+      <c r="F374" s="32"/>
+      <c r="G374" s="1"/>
+      <c r="H374" s="6"/>
+    </row>
+    <row r="375" spans="1:8" s="4" customFormat="1">
       <c r="A375" s="37"/>
+      <c r="B375" s="28"/>
       <c r="C375" s="24"/>
       <c r="D375" s="24"/>
       <c r="E375" s="26"/>
-      <c r="F375" s="46"/>
-      <c r="G375" s="26"/>
-      <c r="H375" s="26"/>
-    </row>
-    <row r="376" spans="1:8" s="4" customFormat="1">
-      <c r="A376" s="37"/>
-      <c r="B376" s="28"/>
+      <c r="F375" s="25"/>
+      <c r="G375" s="1"/>
+      <c r="H375" s="6"/>
+    </row>
+    <row r="376" spans="1:8" s="28" customFormat="1">
       <c r="C376" s="24"/>
       <c r="D376" s="24"/>
       <c r="E376" s="26"/>
       <c r="F376" s="25"/>
-      <c r="G376" s="1"/>
-      <c r="H376" s="6"/>
-    </row>
-    <row r="377" spans="1:8" s="4" customFormat="1">
-      <c r="A377" s="28"/>
-      <c r="B377" s="28"/>
+      <c r="G376" s="26"/>
+      <c r="H376" s="26"/>
+    </row>
+    <row r="377" spans="1:8" s="28" customFormat="1">
       <c r="C377" s="24"/>
       <c r="D377" s="24"/>
       <c r="E377" s="26"/>
-      <c r="F377" s="32"/>
-      <c r="G377" s="1"/>
-      <c r="H377" s="6"/>
-    </row>
-    <row r="378" spans="1:8" s="4" customFormat="1">
-      <c r="A378" s="37"/>
-      <c r="B378" s="28"/>
+      <c r="F377" s="25"/>
+      <c r="G377" s="26"/>
+      <c r="H377" s="26"/>
+    </row>
+    <row r="378" spans="1:8" s="28" customFormat="1">
+      <c r="A378" s="42"/>
+      <c r="B378" s="35"/>
       <c r="C378" s="24"/>
       <c r="D378" s="24"/>
       <c r="E378" s="26"/>
       <c r="F378" s="25"/>
-      <c r="G378" s="1"/>
-      <c r="H378" s="6"/>
+      <c r="G378" s="26"/>
+      <c r="H378" s="26"/>
     </row>
     <row r="379" spans="1:8" s="28" customFormat="1">
       <c r="C379" s="24"/>
@@ -8597,17 +8572,17 @@
       <c r="G379" s="26"/>
       <c r="H379" s="26"/>
     </row>
-    <row r="380" spans="1:8" s="28" customFormat="1">
+    <row r="380" spans="1:8" s="4" customFormat="1">
+      <c r="A380" s="37"/>
+      <c r="B380" s="28"/>
       <c r="C380" s="24"/>
       <c r="D380" s="24"/>
       <c r="E380" s="26"/>
       <c r="F380" s="25"/>
-      <c r="G380" s="26"/>
-      <c r="H380" s="26"/>
+      <c r="G380" s="1"/>
+      <c r="H380" s="6"/>
     </row>
     <row r="381" spans="1:8" s="28" customFormat="1">
-      <c r="A381" s="42"/>
-      <c r="B381" s="35"/>
       <c r="C381" s="24"/>
       <c r="D381" s="24"/>
       <c r="E381" s="26"/>
@@ -8615,43 +8590,46 @@
       <c r="G381" s="26"/>
       <c r="H381" s="26"/>
     </row>
-    <row r="382" spans="1:8" s="28" customFormat="1">
+    <row r="382" spans="1:8" s="4" customFormat="1">
+      <c r="A382" s="28"/>
+      <c r="B382" s="28"/>
       <c r="C382" s="24"/>
       <c r="D382" s="24"/>
       <c r="E382" s="26"/>
       <c r="F382" s="25"/>
-      <c r="G382" s="26"/>
-      <c r="H382" s="26"/>
-    </row>
-    <row r="383" spans="1:8" s="4" customFormat="1">
-      <c r="A383" s="37"/>
-      <c r="B383" s="28"/>
+      <c r="G382" s="1"/>
+      <c r="H382" s="6"/>
+    </row>
+    <row r="383" spans="1:8" s="28" customFormat="1">
       <c r="C383" s="24"/>
       <c r="D383" s="24"/>
       <c r="E383" s="26"/>
       <c r="F383" s="25"/>
-      <c r="G383" s="1"/>
-      <c r="H383" s="6"/>
+      <c r="G383" s="26"/>
+      <c r="H383" s="26"/>
     </row>
     <row r="384" spans="1:8" s="28" customFormat="1">
+      <c r="A384" s="42"/>
+      <c r="B384" s="35"/>
       <c r="C384" s="24"/>
       <c r="D384" s="24"/>
       <c r="E384" s="26"/>
-      <c r="F384" s="25"/>
+      <c r="F384" s="32"/>
       <c r="G384" s="26"/>
       <c r="H384" s="26"/>
     </row>
-    <row r="385" spans="1:8" s="4" customFormat="1">
-      <c r="A385" s="28"/>
+    <row r="385" spans="1:10" s="4" customFormat="1">
+      <c r="A385" s="37"/>
       <c r="B385" s="28"/>
       <c r="C385" s="24"/>
       <c r="D385" s="24"/>
       <c r="E385" s="26"/>
       <c r="F385" s="25"/>
-      <c r="G385" s="1"/>
+      <c r="G385" s="26"/>
       <c r="H385" s="6"/>
     </row>
-    <row r="386" spans="1:8" s="28" customFormat="1">
+    <row r="386" spans="1:10" s="28" customFormat="1">
+      <c r="A386" s="42"/>
       <c r="C386" s="24"/>
       <c r="D386" s="24"/>
       <c r="E386" s="26"/>
@@ -8659,28 +8637,24 @@
       <c r="G386" s="26"/>
       <c r="H386" s="26"/>
     </row>
-    <row r="387" spans="1:8" s="28" customFormat="1">
-      <c r="A387" s="42"/>
-      <c r="B387" s="35"/>
+    <row r="387" spans="1:10" s="28" customFormat="1">
       <c r="C387" s="24"/>
       <c r="D387" s="24"/>
       <c r="E387" s="26"/>
-      <c r="F387" s="32"/>
+      <c r="F387" s="25"/>
       <c r="G387" s="26"/>
       <c r="H387" s="26"/>
     </row>
-    <row r="388" spans="1:8" s="4" customFormat="1">
+    <row r="388" spans="1:10" s="28" customFormat="1">
       <c r="A388" s="37"/>
-      <c r="B388" s="28"/>
       <c r="C388" s="24"/>
       <c r="D388" s="24"/>
       <c r="E388" s="26"/>
       <c r="F388" s="25"/>
       <c r="G388" s="26"/>
-      <c r="H388" s="6"/>
-    </row>
-    <row r="389" spans="1:8" s="28" customFormat="1">
-      <c r="A389" s="42"/>
+      <c r="H388" s="26"/>
+    </row>
+    <row r="389" spans="1:10" s="28" customFormat="1">
       <c r="C389" s="24"/>
       <c r="D389" s="24"/>
       <c r="E389" s="26"/>
@@ -8688,7 +8662,9 @@
       <c r="G389" s="26"/>
       <c r="H389" s="26"/>
     </row>
-    <row r="390" spans="1:8" s="28" customFormat="1">
+    <row r="390" spans="1:10" s="28" customFormat="1">
+      <c r="A390" s="42"/>
+      <c r="B390" s="35"/>
       <c r="C390" s="24"/>
       <c r="D390" s="24"/>
       <c r="E390" s="26"/>
@@ -8696,8 +8672,7 @@
       <c r="G390" s="26"/>
       <c r="H390" s="26"/>
     </row>
-    <row r="391" spans="1:8" s="28" customFormat="1">
-      <c r="A391" s="37"/>
+    <row r="391" spans="1:10" s="28" customFormat="1">
       <c r="C391" s="24"/>
       <c r="D391" s="24"/>
       <c r="E391" s="26"/>
@@ -8705,17 +8680,15 @@
       <c r="G391" s="26"/>
       <c r="H391" s="26"/>
     </row>
-    <row r="392" spans="1:8" s="28" customFormat="1">
+    <row r="392" spans="1:10" s="28" customFormat="1">
       <c r="C392" s="24"/>
       <c r="D392" s="24"/>
       <c r="E392" s="26"/>
-      <c r="F392" s="25"/>
+      <c r="F392" s="32"/>
       <c r="G392" s="26"/>
       <c r="H392" s="26"/>
     </row>
-    <row r="393" spans="1:8" s="28" customFormat="1">
-      <c r="A393" s="42"/>
-      <c r="B393" s="35"/>
+    <row r="393" spans="1:10" s="28" customFormat="1">
       <c r="C393" s="24"/>
       <c r="D393" s="24"/>
       <c r="E393" s="26"/>
@@ -8723,7 +8696,9 @@
       <c r="G393" s="26"/>
       <c r="H393" s="26"/>
     </row>
-    <row r="394" spans="1:8" s="28" customFormat="1">
+    <row r="394" spans="1:10" s="28" customFormat="1">
+      <c r="A394" s="37"/>
+      <c r="B394" s="35"/>
       <c r="C394" s="24"/>
       <c r="D394" s="24"/>
       <c r="E394" s="26"/>
@@ -8731,15 +8706,17 @@
       <c r="G394" s="26"/>
       <c r="H394" s="26"/>
     </row>
-    <row r="395" spans="1:8" s="28" customFormat="1">
+    <row r="395" spans="1:10" s="28" customFormat="1">
+      <c r="A395" s="37"/>
       <c r="C395" s="24"/>
       <c r="D395" s="24"/>
       <c r="E395" s="26"/>
-      <c r="F395" s="32"/>
+      <c r="F395" s="39"/>
       <c r="G395" s="26"/>
       <c r="H395" s="26"/>
     </row>
-    <row r="396" spans="1:8" s="28" customFormat="1">
+    <row r="396" spans="1:10" s="28" customFormat="1">
+      <c r="A396" s="37"/>
       <c r="C396" s="24"/>
       <c r="D396" s="24"/>
       <c r="E396" s="26"/>
@@ -8747,76 +8724,48 @@
       <c r="G396" s="26"/>
       <c r="H396" s="26"/>
     </row>
-    <row r="397" spans="1:8" s="28" customFormat="1">
-      <c r="A397" s="37"/>
-      <c r="B397" s="35"/>
+    <row r="397" spans="1:10" s="28" customFormat="1">
       <c r="C397" s="24"/>
       <c r="D397" s="24"/>
       <c r="E397" s="26"/>
-      <c r="F397" s="25"/>
+      <c r="F397" s="39"/>
       <c r="G397" s="26"/>
       <c r="H397" s="26"/>
     </row>
-    <row r="398" spans="1:8" s="28" customFormat="1">
-      <c r="A398" s="37"/>
+    <row r="398" spans="1:10" s="28" customFormat="1">
       <c r="C398" s="24"/>
       <c r="D398" s="24"/>
       <c r="E398" s="26"/>
-      <c r="F398" s="39"/>
+      <c r="F398" s="25"/>
       <c r="G398" s="26"/>
       <c r="H398" s="26"/>
     </row>
-    <row r="399" spans="1:8" s="28" customFormat="1">
+    <row r="399" spans="1:10" s="4" customFormat="1">
       <c r="A399" s="37"/>
+      <c r="B399" s="28"/>
       <c r="C399" s="24"/>
       <c r="D399" s="24"/>
       <c r="E399" s="26"/>
-      <c r="F399" s="25"/>
-      <c r="G399" s="26"/>
-      <c r="H399" s="26"/>
-    </row>
-    <row r="400" spans="1:8" s="28" customFormat="1">
+      <c r="F399" s="26"/>
+      <c r="G399" s="1"/>
+      <c r="H399" s="6"/>
+    </row>
+    <row r="400" spans="1:10" s="28" customFormat="1">
       <c r="C400" s="24"/>
       <c r="D400" s="24"/>
       <c r="E400" s="26"/>
-      <c r="F400" s="39"/>
+      <c r="F400" s="25"/>
       <c r="G400" s="26"/>
       <c r="H400" s="26"/>
-    </row>
-    <row r="401" spans="1:10" s="28" customFormat="1">
+      <c r="J400" s="38"/>
+    </row>
+    <row r="401" spans="3:8" s="28" customFormat="1">
       <c r="C401" s="24"/>
       <c r="D401" s="24"/>
       <c r="E401" s="26"/>
       <c r="F401" s="25"/>
       <c r="G401" s="26"/>
       <c r="H401" s="26"/>
-    </row>
-    <row r="402" spans="1:10" s="4" customFormat="1">
-      <c r="A402" s="37"/>
-      <c r="B402" s="28"/>
-      <c r="C402" s="24"/>
-      <c r="D402" s="24"/>
-      <c r="E402" s="26"/>
-      <c r="F402" s="26"/>
-      <c r="G402" s="1"/>
-      <c r="H402" s="6"/>
-    </row>
-    <row r="403" spans="1:10" s="28" customFormat="1">
-      <c r="C403" s="24"/>
-      <c r="D403" s="24"/>
-      <c r="E403" s="26"/>
-      <c r="F403" s="25"/>
-      <c r="G403" s="26"/>
-      <c r="H403" s="26"/>
-      <c r="J403" s="38"/>
-    </row>
-    <row r="404" spans="1:10" s="28" customFormat="1">
-      <c r="C404" s="24"/>
-      <c r="D404" s="24"/>
-      <c r="E404" s="26"/>
-      <c r="F404" s="25"/>
-      <c r="G404" s="26"/>
-      <c r="H404" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8832,10 +8781,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J290"/>
+  <dimension ref="A1:J294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A216" sqref="A216"/>
+    <sheetView topLeftCell="A284" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G294" sqref="G294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="15"/>
@@ -15408,7 +15357,7 @@
         <v>43790</v>
       </c>
       <c r="E257" s="26">
-        <f t="shared" ref="E257:E290" si="4">D257-C257</f>
+        <f t="shared" ref="E257:E294" si="4">D257-C257</f>
         <v>246</v>
       </c>
       <c r="F257" s="25" t="s">
@@ -16267,6 +16216,100 @@
         <v>818</v>
       </c>
       <c r="H290" s="26"/>
+    </row>
+    <row r="291" spans="1:8" s="28" customFormat="1">
+      <c r="A291" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="B291" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="C291" s="24">
+        <v>43818</v>
+      </c>
+      <c r="D291" s="24">
+        <v>43821</v>
+      </c>
+      <c r="E291" s="26">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F291" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="G291" s="26"/>
+      <c r="H291" s="26"/>
+    </row>
+    <row r="292" spans="1:8" s="4" customFormat="1">
+      <c r="A292" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="B292" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C292" s="24">
+        <v>43684</v>
+      </c>
+      <c r="D292" s="24">
+        <v>43821</v>
+      </c>
+      <c r="E292" s="26">
+        <f t="shared" si="4"/>
+        <v>137</v>
+      </c>
+      <c r="F292" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G292" s="1"/>
+      <c r="H292" s="6"/>
+    </row>
+    <row r="293" spans="1:8" s="28" customFormat="1">
+      <c r="A293" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B293" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C293" s="24">
+        <v>43701</v>
+      </c>
+      <c r="D293" s="24">
+        <v>43821</v>
+      </c>
+      <c r="E293" s="26">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="F293" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="G293" s="26"/>
+      <c r="H293" s="26"/>
+    </row>
+    <row r="294" spans="1:8" s="28" customFormat="1">
+      <c r="A294" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="B294" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="C294" s="24">
+        <v>43808</v>
+      </c>
+      <c r="D294" s="24">
+        <v>43823</v>
+      </c>
+      <c r="E294" s="26">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="F294" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G294" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H294" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/generateEXCEL/Data/Members/GroupRecord.xlsx
+++ b/generateEXCEL/Data/Members/GroupRecord.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hguan/Dropbox/Research/Coding/WeChatGroup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Huifeng\Dropbox\Research\Coding\WeChatGroup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCC019E-1516-F246-AEEB-3316F9430FEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16860" windowHeight="12500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="16860" windowHeight="12495" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="826">
   <si>
     <t>wisdompeak</t>
   </si>
@@ -3102,11 +3101,17 @@
   <si>
     <t>christine_christine</t>
   </si>
+  <si>
+    <t>LUKE</t>
+  </si>
+  <si>
+    <t>xinchao0509</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yyyy"/>
@@ -3511,8 +3516,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3891,24 +3896,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J401"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.5" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4769,7 +4774,9 @@
       <c r="F44" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1">
@@ -5745,159 +5752,159 @@
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8" s="4" customFormat="1">
-      <c r="A97" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="B97" s="21" t="s">
-        <v>231</v>
+      <c r="A97" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C97" s="17">
-        <v>43752</v>
+        <v>43753</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="1"/>
       <c r="F97" s="18" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8" s="4" customFormat="1">
-      <c r="A98" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>233</v>
+      <c r="A98" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>235</v>
       </c>
       <c r="C98" s="17">
-        <v>43753</v>
+        <v>43757</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="1"/>
       <c r="F98" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G98" s="1"/>
+      <c r="G98" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" s="4" customFormat="1">
-      <c r="A99" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>235</v>
+      <c r="A99" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="C99" s="17">
-        <v>43757</v>
+        <v>43763</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="1"/>
       <c r="F99" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G99" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="G99" s="1"/>
       <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:8" s="4" customFormat="1">
-      <c r="A100" s="4" t="s">
-        <v>236</v>
+      <c r="A100" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C100" s="17">
-        <v>43763</v>
+        <v>43766</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="18" t="s">
-        <v>0</v>
+      <c r="F100" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" s="4" customFormat="1">
       <c r="A101" s="9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C101" s="17">
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="19" t="s">
-        <v>27</v>
+      <c r="F101" s="18" t="s">
+        <v>0</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" s="4" customFormat="1">
-      <c r="A102" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>241</v>
+      <c r="A102" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>242</v>
       </c>
       <c r="C102" s="17">
-        <v>43767</v>
+        <v>43770</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="1"/>
       <c r="F102" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G102" s="1"/>
+      <c r="G102" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" s="4" customFormat="1">
-      <c r="A103" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>242</v>
+      <c r="A103" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="C103" s="17">
-        <v>43770</v>
+        <v>43778</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="1"/>
       <c r="F103" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="G103" s="1"/>
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" s="4" customFormat="1">
       <c r="A104" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C104" s="17">
-        <v>43778</v>
+        <v>43415</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="1"/>
       <c r="F104" s="18" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" s="4" customFormat="1">
       <c r="A105" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C105" s="17">
         <v>43415</v>
@@ -5905,35 +5912,37 @@
       <c r="D105" s="5"/>
       <c r="E105" s="1"/>
       <c r="F105" s="18" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="6"/>
     </row>
     <row r="106" spans="1:8" s="4" customFormat="1">
-      <c r="A106" s="9" t="s">
-        <v>247</v>
+      <c r="A106" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C106" s="17">
-        <v>43415</v>
+        <v>43784</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="1"/>
       <c r="F106" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G106" s="1"/>
+      <c r="G106" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="H106" s="6"/>
     </row>
     <row r="107" spans="1:8" s="4" customFormat="1">
-      <c r="A107" s="4" t="s">
-        <v>249</v>
+      <c r="A107" s="9" t="s">
+        <v>251</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C107" s="17">
         <v>43784</v>
@@ -5941,22 +5950,20 @@
       <c r="D107" s="5"/>
       <c r="E107" s="1"/>
       <c r="F107" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G107" s="1"/>
       <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8" s="4" customFormat="1">
       <c r="A108" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>253</v>
       </c>
       <c r="C108" s="17">
-        <v>43784</v>
+        <v>43786</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="1"/>
@@ -5968,31 +5975,31 @@
     </row>
     <row r="109" spans="1:8" s="4" customFormat="1">
       <c r="A109" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="C109" s="17">
-        <v>43786</v>
+        <v>43801</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="1"/>
       <c r="F109" s="18" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="6"/>
     </row>
     <row r="110" spans="1:8" s="4" customFormat="1">
-      <c r="A110" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="B110" s="21" t="s">
-        <v>255</v>
+      <c r="A110" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="C110" s="17">
-        <v>43797</v>
+        <v>43801</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="1"/>
@@ -6004,13 +6011,13 @@
     </row>
     <row r="111" spans="1:8" s="4" customFormat="1">
       <c r="A111" s="9" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C111" s="17">
-        <v>43801</v>
+        <v>43804</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="1"/>
@@ -6021,14 +6028,14 @@
       <c r="H111" s="6"/>
     </row>
     <row r="112" spans="1:8" s="4" customFormat="1">
-      <c r="A112" s="9" t="s">
-        <v>258</v>
+      <c r="A112" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C112" s="17">
-        <v>43801</v>
+        <v>43806</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="1"/>
@@ -6040,13 +6047,13 @@
     </row>
     <row r="113" spans="1:10" s="4" customFormat="1">
       <c r="A113" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C113" s="17">
-        <v>43804</v>
+        <v>43807</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="1"/>
@@ -6056,125 +6063,121 @@
       <c r="G113" s="1"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="1:10" s="4" customFormat="1">
+    <row r="114" spans="1:10">
       <c r="A114" s="4" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C114" s="17">
-        <v>43806</v>
-      </c>
-      <c r="D114" s="5"/>
-      <c r="E114" s="1"/>
+        <v>43813</v>
+      </c>
+      <c r="D114" s="24"/>
+      <c r="E114" s="25"/>
       <c r="F114" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G114" s="1"/>
+      <c r="G114" s="26"/>
       <c r="H114" s="6"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
     </row>
     <row r="115" spans="1:10" s="4" customFormat="1">
-      <c r="A115" s="9" t="s">
-        <v>262</v>
+      <c r="A115" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C115" s="17">
-        <v>43807</v>
+        <v>43813</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="1"/>
       <c r="F115" s="18" t="s">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="1:10">
-      <c r="A116" s="4" t="s">
-        <v>266</v>
+    <row r="116" spans="1:10" s="4" customFormat="1">
+      <c r="A116" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C116" s="17">
         <v>43813</v>
       </c>
-      <c r="D116" s="24"/>
-      <c r="E116" s="25"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="1"/>
       <c r="F116" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G116" s="26"/>
+        <v>271</v>
+      </c>
+      <c r="G116" s="1"/>
       <c r="H116" s="6"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
     </row>
     <row r="117" spans="1:10" s="4" customFormat="1">
-      <c r="A117" s="4" t="s">
-        <v>268</v>
+      <c r="A117" s="9" t="s">
+        <v>272</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C117" s="17">
-        <v>43813</v>
+        <v>43817</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="18" t="s">
-        <v>150</v>
+      <c r="F117" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="6"/>
     </row>
     <row r="118" spans="1:10" s="4" customFormat="1">
-      <c r="A118" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>270</v>
+      <c r="A118" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B118" s="27" t="s">
+        <v>274</v>
       </c>
       <c r="C118" s="17">
-        <v>43813</v>
+        <v>43817</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="1"/>
       <c r="F118" s="18" t="s">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="1:10" s="4" customFormat="1">
-      <c r="A119" s="9" t="s">
-        <v>272</v>
+    <row r="119" spans="1:10">
+      <c r="A119" s="4" t="s">
+        <v>822</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C119" s="17">
-        <v>43817</v>
-      </c>
-      <c r="D119" s="5"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G119" s="1"/>
-      <c r="H119" s="6"/>
+        <v>823</v>
+      </c>
+      <c r="C119" s="88">
+        <v>43822</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="120" spans="1:10" s="4" customFormat="1">
       <c r="A120" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B120" s="27" t="s">
-        <v>274</v>
+        <v>824</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>825</v>
       </c>
       <c r="C120" s="17">
-        <v>43817</v>
+        <v>43824</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="1"/>
@@ -6184,50 +6187,50 @@
       <c r="G120" s="1"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="1:10">
-      <c r="A121" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="C121" s="88">
-        <v>43822</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>268</v>
-      </c>
+    <row r="121" spans="1:10" s="4" customFormat="1">
+      <c r="C121" s="17"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="6"/>
     </row>
     <row r="122" spans="1:10" s="4" customFormat="1">
-      <c r="C122" s="17"/>
+      <c r="A122" s="16"/>
+      <c r="C122" s="1"/>
       <c r="D122" s="5"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="18"/>
+      <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="1:10" s="4" customFormat="1">
-      <c r="C123" s="17"/>
+    <row r="123" spans="1:10">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
       <c r="D123" s="5"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="1"/>
+      <c r="F123" s="1"/>
       <c r="H123" s="6"/>
-    </row>
-    <row r="124" spans="1:10" s="4" customFormat="1">
-      <c r="A124" s="16"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="1"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="28"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="25"/>
       <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
       <c r="H124" s="6"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="1"/>
+      <c r="A125" s="28"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="25"/>
       <c r="F125" s="1"/>
       <c r="H125" s="6"/>
       <c r="I125" s="4"/>
@@ -6332,16 +6335,13 @@
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="1:10">
-      <c r="A135" s="28"/>
-      <c r="B135" s="28"/>
+    <row r="135" spans="1:10" s="28" customFormat="1">
       <c r="C135" s="24"/>
       <c r="D135" s="29"/>
       <c r="E135" s="25"/>
-      <c r="F135" s="1"/>
-      <c r="H135" s="6"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="26"/>
+      <c r="H135" s="26"/>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="28"/>
@@ -6354,13 +6354,16 @@
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
     </row>
-    <row r="137" spans="1:10" s="28" customFormat="1">
+    <row r="137" spans="1:10">
+      <c r="A137" s="28"/>
+      <c r="B137" s="28"/>
       <c r="C137" s="24"/>
       <c r="D137" s="29"/>
       <c r="E137" s="25"/>
-      <c r="F137" s="25"/>
-      <c r="G137" s="26"/>
-      <c r="H137" s="26"/>
+      <c r="F137" s="1"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="28"/>
@@ -6465,7 +6468,7 @@
       <c r="A147" s="28"/>
       <c r="B147" s="28"/>
       <c r="C147" s="24"/>
-      <c r="D147" s="29"/>
+      <c r="D147" s="24"/>
       <c r="E147" s="25"/>
       <c r="F147" s="1"/>
       <c r="H147" s="6"/>
@@ -6476,7 +6479,7 @@
       <c r="A148" s="28"/>
       <c r="B148" s="28"/>
       <c r="C148" s="24"/>
-      <c r="D148" s="29"/>
+      <c r="D148" s="24"/>
       <c r="E148" s="25"/>
       <c r="F148" s="1"/>
       <c r="H148" s="6"/>
@@ -6494,16 +6497,13 @@
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="1:10">
-      <c r="A150" s="28"/>
-      <c r="B150" s="28"/>
+    <row r="150" spans="1:10" s="28" customFormat="1">
       <c r="C150" s="24"/>
       <c r="D150" s="24"/>
       <c r="E150" s="25"/>
-      <c r="F150" s="1"/>
-      <c r="H150" s="6"/>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
+      <c r="F150" s="25"/>
+      <c r="G150" s="26"/>
+      <c r="H150" s="26"/>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="28"/>
@@ -6516,13 +6516,16 @@
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="1:10" s="28" customFormat="1">
+    <row r="152" spans="1:10">
+      <c r="A152" s="28"/>
+      <c r="B152" s="28"/>
       <c r="C152" s="24"/>
       <c r="D152" s="24"/>
       <c r="E152" s="25"/>
-      <c r="F152" s="25"/>
-      <c r="G152" s="26"/>
-      <c r="H152" s="26"/>
+      <c r="F152" s="1"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="28"/>
@@ -6546,16 +6549,13 @@
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
     </row>
-    <row r="155" spans="1:10">
-      <c r="A155" s="28"/>
-      <c r="B155" s="28"/>
+    <row r="155" spans="1:10" s="28" customFormat="1">
       <c r="C155" s="24"/>
       <c r="D155" s="24"/>
       <c r="E155" s="25"/>
-      <c r="F155" s="1"/>
-      <c r="H155" s="6"/>
-      <c r="I155" s="4"/>
-      <c r="J155" s="4"/>
+      <c r="F155" s="25"/>
+      <c r="G155" s="26"/>
+      <c r="H155" s="26"/>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="28"/>
@@ -6568,13 +6568,16 @@
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
     </row>
-    <row r="157" spans="1:10" s="28" customFormat="1">
+    <row r="157" spans="1:10">
+      <c r="A157" s="28"/>
+      <c r="B157" s="28"/>
       <c r="C157" s="24"/>
       <c r="D157" s="24"/>
       <c r="E157" s="25"/>
-      <c r="F157" s="25"/>
-      <c r="G157" s="26"/>
-      <c r="H157" s="26"/>
+      <c r="F157" s="1"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="28"/>
@@ -6582,7 +6585,7 @@
       <c r="C158" s="24"/>
       <c r="D158" s="24"/>
       <c r="E158" s="25"/>
-      <c r="F158" s="1"/>
+      <c r="F158" s="25"/>
       <c r="H158" s="6"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
@@ -6593,7 +6596,7 @@
       <c r="C159" s="24"/>
       <c r="D159" s="24"/>
       <c r="E159" s="25"/>
-      <c r="F159" s="1"/>
+      <c r="F159" s="25"/>
       <c r="H159" s="6"/>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
@@ -6604,7 +6607,7 @@
       <c r="C160" s="24"/>
       <c r="D160" s="24"/>
       <c r="E160" s="25"/>
-      <c r="F160" s="25"/>
+      <c r="F160" s="30"/>
       <c r="H160" s="6"/>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
@@ -6616,6 +6619,7 @@
       <c r="D161" s="24"/>
       <c r="E161" s="25"/>
       <c r="F161" s="25"/>
+      <c r="G161" s="28"/>
       <c r="H161" s="6"/>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
@@ -6626,7 +6630,8 @@
       <c r="C162" s="24"/>
       <c r="D162" s="24"/>
       <c r="E162" s="25"/>
-      <c r="F162" s="30"/>
+      <c r="F162" s="31"/>
+      <c r="G162" s="28"/>
       <c r="H162" s="6"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
@@ -6649,23 +6654,18 @@
       <c r="C164" s="24"/>
       <c r="D164" s="24"/>
       <c r="E164" s="25"/>
-      <c r="F164" s="31"/>
-      <c r="G164" s="28"/>
+      <c r="F164" s="30"/>
       <c r="H164" s="6"/>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
     </row>
-    <row r="165" spans="1:10">
-      <c r="A165" s="28"/>
-      <c r="B165" s="28"/>
+    <row r="165" spans="1:10" s="28" customFormat="1">
       <c r="C165" s="24"/>
       <c r="D165" s="24"/>
       <c r="E165" s="25"/>
-      <c r="F165" s="25"/>
-      <c r="G165" s="28"/>
-      <c r="H165" s="6"/>
-      <c r="I165" s="4"/>
-      <c r="J165" s="4"/>
+      <c r="F165" s="31"/>
+      <c r="G165" s="26"/>
+      <c r="H165" s="26"/>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="28"/>
@@ -6673,18 +6673,23 @@
       <c r="C166" s="24"/>
       <c r="D166" s="24"/>
       <c r="E166" s="25"/>
-      <c r="F166" s="30"/>
-      <c r="H166" s="6"/>
+      <c r="F166" s="25"/>
+      <c r="G166" s="25"/>
+      <c r="H166" s="32"/>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
     </row>
-    <row r="167" spans="1:10" s="28" customFormat="1">
+    <row r="167" spans="1:10">
+      <c r="A167" s="28"/>
+      <c r="B167" s="28"/>
       <c r="C167" s="24"/>
       <c r="D167" s="24"/>
       <c r="E167" s="25"/>
-      <c r="F167" s="31"/>
-      <c r="G167" s="26"/>
-      <c r="H167" s="26"/>
+      <c r="F167" s="25"/>
+      <c r="G167" s="28"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="4"/>
     </row>
     <row r="168" spans="1:10">
       <c r="A168" s="28"/>
@@ -6692,23 +6697,18 @@
       <c r="C168" s="24"/>
       <c r="D168" s="24"/>
       <c r="E168" s="25"/>
-      <c r="F168" s="25"/>
-      <c r="G168" s="25"/>
-      <c r="H168" s="32"/>
+      <c r="F168" s="26"/>
+      <c r="G168" s="28"/>
+      <c r="H168" s="6"/>
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
     </row>
-    <row r="169" spans="1:10">
-      <c r="A169" s="28"/>
-      <c r="B169" s="28"/>
+    <row r="169" spans="1:10" s="28" customFormat="1">
       <c r="C169" s="24"/>
       <c r="D169" s="24"/>
       <c r="E169" s="25"/>
       <c r="F169" s="25"/>
-      <c r="G169" s="28"/>
-      <c r="H169" s="6"/>
-      <c r="I169" s="4"/>
-      <c r="J169" s="4"/>
+      <c r="H169" s="26"/>
     </row>
     <row r="170" spans="1:10">
       <c r="A170" s="28"/>
@@ -6726,7 +6726,8 @@
       <c r="C171" s="24"/>
       <c r="D171" s="24"/>
       <c r="E171" s="25"/>
-      <c r="F171" s="25"/>
+      <c r="F171" s="26"/>
+      <c r="G171" s="25"/>
       <c r="H171" s="26"/>
     </row>
     <row r="172" spans="1:10">
@@ -6735,106 +6736,102 @@
       <c r="C172" s="24"/>
       <c r="D172" s="24"/>
       <c r="E172" s="25"/>
-      <c r="F172" s="26"/>
-      <c r="G172" s="28"/>
+      <c r="F172" s="25"/>
+      <c r="G172" s="26"/>
       <c r="H172" s="6"/>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" spans="1:10" s="28" customFormat="1">
+    <row r="173" spans="1:10">
+      <c r="A173" s="28"/>
+      <c r="B173" s="28"/>
       <c r="C173" s="24"/>
       <c r="D173" s="24"/>
       <c r="E173" s="25"/>
-      <c r="F173" s="26"/>
-      <c r="G173" s="25"/>
-      <c r="H173" s="26"/>
+      <c r="F173" s="25"/>
+      <c r="G173" s="26"/>
+      <c r="H173" s="6"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" s="28"/>
       <c r="B174" s="28"/>
       <c r="C174" s="24"/>
       <c r="D174" s="24"/>
-      <c r="E174" s="25"/>
+      <c r="E174" s="26"/>
       <c r="F174" s="25"/>
       <c r="G174" s="26"/>
       <c r="H174" s="6"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" s="34" customFormat="1">
       <c r="A175" s="28"/>
       <c r="B175" s="28"/>
       <c r="C175" s="24"/>
       <c r="D175" s="24"/>
-      <c r="E175" s="25"/>
-      <c r="F175" s="25"/>
-      <c r="G175" s="26"/>
-      <c r="H175" s="6"/>
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
+      <c r="E175" s="26"/>
+      <c r="F175" s="26"/>
+      <c r="G175" s="25"/>
+      <c r="H175" s="33"/>
     </row>
     <row r="176" spans="1:10">
       <c r="A176" s="28"/>
-      <c r="B176" s="28"/>
+      <c r="B176" s="35"/>
       <c r="C176" s="24"/>
       <c r="D176" s="24"/>
       <c r="E176" s="26"/>
       <c r="F176" s="25"/>
-      <c r="G176" s="26"/>
+      <c r="G176" s="28"/>
       <c r="H176" s="6"/>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
-    <row r="177" spans="1:10" s="34" customFormat="1">
-      <c r="A177" s="28"/>
-      <c r="B177" s="28"/>
+    <row r="177" spans="1:10" s="28" customFormat="1">
       <c r="C177" s="24"/>
       <c r="D177" s="24"/>
       <c r="E177" s="26"/>
       <c r="F177" s="26"/>
-      <c r="G177" s="25"/>
-      <c r="H177" s="33"/>
+      <c r="H177" s="26"/>
     </row>
     <row r="178" spans="1:10">
-      <c r="A178" s="28"/>
-      <c r="B178" s="35"/>
+      <c r="A178" s="35"/>
+      <c r="B178" s="28"/>
       <c r="C178" s="24"/>
       <c r="D178" s="24"/>
       <c r="E178" s="26"/>
       <c r="F178" s="25"/>
-      <c r="G178" s="28"/>
       <c r="H178" s="6"/>
       <c r="I178" s="4"/>
-      <c r="J178" s="4"/>
-    </row>
-    <row r="179" spans="1:10" s="28" customFormat="1">
+      <c r="J178" s="36"/>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" s="28"/>
+      <c r="B179" s="28"/>
       <c r="C179" s="24"/>
       <c r="D179" s="24"/>
       <c r="E179" s="26"/>
-      <c r="F179" s="26"/>
-      <c r="H179" s="26"/>
-    </row>
-    <row r="180" spans="1:10">
-      <c r="A180" s="35"/>
-      <c r="B180" s="28"/>
+      <c r="F179" s="25"/>
+      <c r="H179" s="6"/>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
+    </row>
+    <row r="180" spans="1:10" s="28" customFormat="1">
       <c r="C180" s="24"/>
       <c r="D180" s="24"/>
       <c r="E180" s="26"/>
       <c r="F180" s="25"/>
-      <c r="H180" s="6"/>
-      <c r="I180" s="4"/>
-      <c r="J180" s="36"/>
-    </row>
-    <row r="181" spans="1:10">
-      <c r="A181" s="28"/>
-      <c r="B181" s="28"/>
+      <c r="G180" s="26"/>
+      <c r="H180" s="26"/>
+    </row>
+    <row r="181" spans="1:10" s="28" customFormat="1">
       <c r="C181" s="24"/>
       <c r="D181" s="24"/>
       <c r="E181" s="26"/>
-      <c r="F181" s="25"/>
-      <c r="H181" s="6"/>
-      <c r="I181" s="4"/>
-      <c r="J181" s="4"/>
+      <c r="F181" s="26"/>
+      <c r="G181" s="26"/>
+      <c r="H181" s="26"/>
     </row>
     <row r="182" spans="1:10" s="28" customFormat="1">
       <c r="C182" s="24"/>
@@ -6853,14 +6850,17 @@
       <c r="H183" s="26"/>
     </row>
     <row r="184" spans="1:10" s="28" customFormat="1">
+      <c r="A184" s="35"/>
+      <c r="B184" s="35"/>
       <c r="C184" s="24"/>
       <c r="D184" s="24"/>
       <c r="E184" s="26"/>
-      <c r="F184" s="25"/>
+      <c r="F184" s="26"/>
       <c r="G184" s="26"/>
       <c r="H184" s="26"/>
     </row>
     <row r="185" spans="1:10" s="28" customFormat="1">
+      <c r="A185" s="37"/>
       <c r="C185" s="24"/>
       <c r="D185" s="24"/>
       <c r="E185" s="26"/>
@@ -6869,8 +6869,6 @@
       <c r="H185" s="26"/>
     </row>
     <row r="186" spans="1:10" s="28" customFormat="1">
-      <c r="A186" s="35"/>
-      <c r="B186" s="35"/>
       <c r="C186" s="24"/>
       <c r="D186" s="24"/>
       <c r="E186" s="26"/>
@@ -6879,19 +6877,19 @@
       <c r="H186" s="26"/>
     </row>
     <row r="187" spans="1:10" s="28" customFormat="1">
-      <c r="A187" s="37"/>
       <c r="C187" s="24"/>
       <c r="D187" s="24"/>
       <c r="E187" s="26"/>
       <c r="F187" s="26"/>
       <c r="G187" s="26"/>
       <c r="H187" s="26"/>
+      <c r="J187" s="36"/>
     </row>
     <row r="188" spans="1:10" s="28" customFormat="1">
       <c r="C188" s="24"/>
       <c r="D188" s="24"/>
       <c r="E188" s="26"/>
-      <c r="F188" s="26"/>
+      <c r="F188" s="25"/>
       <c r="G188" s="26"/>
       <c r="H188" s="26"/>
     </row>
@@ -6902,13 +6900,12 @@
       <c r="F189" s="26"/>
       <c r="G189" s="26"/>
       <c r="H189" s="26"/>
-      <c r="J189" s="36"/>
     </row>
     <row r="190" spans="1:10" s="28" customFormat="1">
       <c r="C190" s="24"/>
       <c r="D190" s="24"/>
       <c r="E190" s="26"/>
-      <c r="F190" s="25"/>
+      <c r="F190" s="26"/>
       <c r="G190" s="26"/>
       <c r="H190" s="26"/>
     </row>
@@ -6918,13 +6915,14 @@
       <c r="E191" s="26"/>
       <c r="F191" s="26"/>
       <c r="G191" s="26"/>
-      <c r="H191" s="26"/>
+      <c r="H191" s="32"/>
+      <c r="J191" s="38"/>
     </row>
     <row r="192" spans="1:10" s="28" customFormat="1">
       <c r="C192" s="24"/>
       <c r="D192" s="24"/>
       <c r="E192" s="26"/>
-      <c r="F192" s="26"/>
+      <c r="F192" s="25"/>
       <c r="G192" s="26"/>
       <c r="H192" s="26"/>
     </row>
@@ -6932,41 +6930,40 @@
       <c r="C193" s="24"/>
       <c r="D193" s="24"/>
       <c r="E193" s="26"/>
-      <c r="F193" s="26"/>
+      <c r="F193" s="25"/>
       <c r="G193" s="26"/>
-      <c r="H193" s="32"/>
-      <c r="J193" s="38"/>
+      <c r="H193" s="26"/>
+      <c r="J193" s="36"/>
     </row>
     <row r="194" spans="1:10" s="28" customFormat="1">
       <c r="C194" s="24"/>
       <c r="D194" s="24"/>
       <c r="E194" s="26"/>
-      <c r="F194" s="25"/>
+      <c r="F194" s="26"/>
       <c r="G194" s="26"/>
       <c r="H194" s="26"/>
     </row>
     <row r="195" spans="1:10" s="28" customFormat="1">
       <c r="C195" s="24"/>
-      <c r="D195" s="24"/>
-      <c r="E195" s="26"/>
+      <c r="D195" s="29"/>
+      <c r="E195" s="25"/>
       <c r="F195" s="25"/>
-      <c r="G195" s="26"/>
       <c r="H195" s="26"/>
-      <c r="J195" s="36"/>
     </row>
     <row r="196" spans="1:10" s="28" customFormat="1">
       <c r="C196" s="24"/>
       <c r="D196" s="24"/>
-      <c r="E196" s="26"/>
-      <c r="F196" s="26"/>
+      <c r="E196" s="25"/>
+      <c r="F196" s="25"/>
       <c r="G196" s="26"/>
-      <c r="H196" s="26"/>
+      <c r="H196" s="32"/>
     </row>
     <row r="197" spans="1:10" s="28" customFormat="1">
       <c r="C197" s="24"/>
-      <c r="D197" s="29"/>
+      <c r="D197" s="24"/>
       <c r="E197" s="25"/>
-      <c r="F197" s="25"/>
+      <c r="F197" s="26"/>
+      <c r="G197" s="26"/>
       <c r="H197" s="26"/>
     </row>
     <row r="198" spans="1:10" s="28" customFormat="1">
@@ -6975,40 +6972,41 @@
       <c r="E198" s="25"/>
       <c r="F198" s="25"/>
       <c r="G198" s="26"/>
-      <c r="H198" s="32"/>
+      <c r="H198" s="26"/>
     </row>
     <row r="199" spans="1:10" s="28" customFormat="1">
+      <c r="A199" s="35"/>
+      <c r="B199" s="35"/>
       <c r="C199" s="24"/>
       <c r="D199" s="24"/>
       <c r="E199" s="25"/>
-      <c r="F199" s="26"/>
+      <c r="F199" s="25"/>
       <c r="G199" s="26"/>
       <c r="H199" s="26"/>
     </row>
     <row r="200" spans="1:10" s="28" customFormat="1">
       <c r="C200" s="24"/>
       <c r="D200" s="24"/>
-      <c r="E200" s="25"/>
-      <c r="F200" s="25"/>
-      <c r="G200" s="26"/>
+      <c r="E200" s="26"/>
+      <c r="F200" s="26"/>
+      <c r="G200" s="32"/>
       <c r="H200" s="26"/>
     </row>
     <row r="201" spans="1:10" s="28" customFormat="1">
-      <c r="A201" s="35"/>
-      <c r="B201" s="35"/>
       <c r="C201" s="24"/>
       <c r="D201" s="24"/>
-      <c r="E201" s="25"/>
+      <c r="E201" s="26"/>
       <c r="F201" s="25"/>
       <c r="G201" s="26"/>
       <c r="H201" s="26"/>
+      <c r="J201" s="36"/>
     </row>
     <row r="202" spans="1:10" s="28" customFormat="1">
       <c r="C202" s="24"/>
       <c r="D202" s="24"/>
       <c r="E202" s="26"/>
       <c r="F202" s="26"/>
-      <c r="G202" s="32"/>
+      <c r="G202" s="26"/>
       <c r="H202" s="26"/>
     </row>
     <row r="203" spans="1:10" s="28" customFormat="1">
@@ -7018,13 +7016,14 @@
       <c r="F203" s="25"/>
       <c r="G203" s="26"/>
       <c r="H203" s="26"/>
-      <c r="J203" s="36"/>
+      <c r="J203" s="38"/>
     </row>
     <row r="204" spans="1:10" s="28" customFormat="1">
+      <c r="A204" s="37"/>
       <c r="C204" s="24"/>
       <c r="D204" s="24"/>
       <c r="E204" s="26"/>
-      <c r="F204" s="26"/>
+      <c r="F204" s="39"/>
       <c r="G204" s="26"/>
       <c r="H204" s="26"/>
     </row>
@@ -7032,17 +7031,15 @@
       <c r="C205" s="24"/>
       <c r="D205" s="24"/>
       <c r="E205" s="26"/>
-      <c r="F205" s="25"/>
+      <c r="F205" s="26"/>
       <c r="G205" s="26"/>
       <c r="H205" s="26"/>
-      <c r="J205" s="38"/>
     </row>
     <row r="206" spans="1:10" s="28" customFormat="1">
-      <c r="A206" s="37"/>
       <c r="C206" s="24"/>
       <c r="D206" s="24"/>
       <c r="E206" s="26"/>
-      <c r="F206" s="39"/>
+      <c r="F206" s="26"/>
       <c r="G206" s="26"/>
       <c r="H206" s="26"/>
     </row>
@@ -7055,10 +7052,11 @@
       <c r="H207" s="26"/>
     </row>
     <row r="208" spans="1:10" s="28" customFormat="1">
+      <c r="A208" s="37"/>
       <c r="C208" s="24"/>
       <c r="D208" s="24"/>
       <c r="E208" s="26"/>
-      <c r="F208" s="26"/>
+      <c r="F208" s="25"/>
       <c r="G208" s="26"/>
       <c r="H208" s="26"/>
     </row>
@@ -7083,18 +7081,17 @@
       <c r="C211" s="24"/>
       <c r="D211" s="24"/>
       <c r="E211" s="26"/>
-      <c r="F211" s="26"/>
+      <c r="F211" s="25"/>
       <c r="G211" s="26"/>
       <c r="H211" s="26"/>
     </row>
     <row r="212" spans="1:10" s="28" customFormat="1">
-      <c r="A212" s="37"/>
       <c r="C212" s="24"/>
       <c r="D212" s="24"/>
       <c r="E212" s="26"/>
       <c r="F212" s="25"/>
       <c r="G212" s="26"/>
-      <c r="H212" s="26"/>
+      <c r="H212" s="32"/>
     </row>
     <row r="213" spans="1:10" s="28" customFormat="1">
       <c r="C213" s="24"/>
@@ -7108,15 +7105,15 @@
       <c r="C214" s="24"/>
       <c r="D214" s="24"/>
       <c r="E214" s="26"/>
-      <c r="F214" s="25"/>
+      <c r="F214" s="26"/>
       <c r="G214" s="26"/>
-      <c r="H214" s="32"/>
+      <c r="H214" s="26"/>
     </row>
     <row r="215" spans="1:10" s="28" customFormat="1">
       <c r="C215" s="24"/>
       <c r="D215" s="24"/>
       <c r="E215" s="26"/>
-      <c r="F215" s="25"/>
+      <c r="F215" s="26"/>
       <c r="G215" s="26"/>
       <c r="H215" s="26"/>
     </row>
@@ -7126,61 +7123,62 @@
       <c r="E216" s="26"/>
       <c r="F216" s="26"/>
       <c r="G216" s="26"/>
-      <c r="H216" s="26"/>
+      <c r="H216" s="32"/>
     </row>
     <row r="217" spans="1:10" s="28" customFormat="1">
       <c r="C217" s="24"/>
       <c r="D217" s="24"/>
       <c r="E217" s="26"/>
-      <c r="F217" s="26"/>
+      <c r="F217" s="32"/>
       <c r="G217" s="26"/>
       <c r="H217" s="26"/>
     </row>
     <row r="218" spans="1:10" s="28" customFormat="1">
       <c r="C218" s="24"/>
-      <c r="D218" s="24"/>
-      <c r="E218" s="26"/>
-      <c r="F218" s="26"/>
+      <c r="D218" s="29"/>
+      <c r="E218" s="25"/>
+      <c r="F218" s="25"/>
       <c r="G218" s="26"/>
-      <c r="H218" s="32"/>
+      <c r="H218" s="26"/>
     </row>
     <row r="219" spans="1:10" s="28" customFormat="1">
+      <c r="A219" s="37"/>
       <c r="C219" s="24"/>
-      <c r="D219" s="24"/>
-      <c r="E219" s="26"/>
-      <c r="F219" s="32"/>
+      <c r="D219" s="29"/>
+      <c r="E219" s="25"/>
+      <c r="F219" s="25"/>
       <c r="G219" s="26"/>
       <c r="H219" s="26"/>
     </row>
     <row r="220" spans="1:10" s="28" customFormat="1">
       <c r="C220" s="24"/>
       <c r="D220" s="29"/>
-      <c r="E220" s="25"/>
-      <c r="F220" s="25"/>
-      <c r="G220" s="26"/>
+      <c r="E220" s="26"/>
+      <c r="F220" s="26"/>
+      <c r="G220" s="32"/>
       <c r="H220" s="26"/>
     </row>
     <row r="221" spans="1:10" s="28" customFormat="1">
       <c r="A221" s="37"/>
       <c r="C221" s="24"/>
       <c r="D221" s="29"/>
-      <c r="E221" s="25"/>
+      <c r="E221" s="26"/>
       <c r="F221" s="25"/>
       <c r="G221" s="26"/>
       <c r="H221" s="26"/>
     </row>
     <row r="222" spans="1:10" s="28" customFormat="1">
       <c r="C222" s="24"/>
-      <c r="D222" s="29"/>
+      <c r="D222" s="24"/>
       <c r="E222" s="26"/>
-      <c r="F222" s="26"/>
-      <c r="G222" s="32"/>
+      <c r="F222" s="25"/>
+      <c r="G222" s="26"/>
       <c r="H222" s="26"/>
+      <c r="J222" s="36"/>
     </row>
     <row r="223" spans="1:10" s="28" customFormat="1">
-      <c r="A223" s="37"/>
       <c r="C223" s="24"/>
-      <c r="D223" s="29"/>
+      <c r="D223" s="24"/>
       <c r="E223" s="26"/>
       <c r="F223" s="25"/>
       <c r="G223" s="26"/>
@@ -7193,13 +7191,12 @@
       <c r="F224" s="25"/>
       <c r="G224" s="26"/>
       <c r="H224" s="26"/>
-      <c r="J224" s="36"/>
     </row>
     <row r="225" spans="1:10" s="28" customFormat="1">
       <c r="C225" s="24"/>
       <c r="D225" s="24"/>
       <c r="E225" s="26"/>
-      <c r="F225" s="25"/>
+      <c r="F225" s="26"/>
       <c r="G225" s="26"/>
       <c r="H225" s="26"/>
     </row>
@@ -7215,7 +7212,7 @@
       <c r="C227" s="24"/>
       <c r="D227" s="24"/>
       <c r="E227" s="26"/>
-      <c r="F227" s="26"/>
+      <c r="F227" s="25"/>
       <c r="G227" s="26"/>
       <c r="H227" s="26"/>
     </row>
@@ -7241,13 +7238,13 @@
       <c r="E230" s="26"/>
       <c r="F230" s="25"/>
       <c r="G230" s="26"/>
-      <c r="H230" s="26"/>
+      <c r="H230" s="32"/>
     </row>
     <row r="231" spans="1:10" s="28" customFormat="1">
       <c r="C231" s="24"/>
       <c r="D231" s="24"/>
       <c r="E231" s="26"/>
-      <c r="F231" s="25"/>
+      <c r="F231" s="26"/>
       <c r="G231" s="26"/>
       <c r="H231" s="26"/>
     </row>
@@ -7257,23 +7254,25 @@
       <c r="E232" s="26"/>
       <c r="F232" s="25"/>
       <c r="G232" s="26"/>
-      <c r="H232" s="32"/>
+      <c r="H232" s="26"/>
     </row>
     <row r="233" spans="1:10" s="28" customFormat="1">
       <c r="C233" s="24"/>
       <c r="D233" s="24"/>
       <c r="E233" s="26"/>
-      <c r="F233" s="26"/>
+      <c r="F233" s="25"/>
       <c r="G233" s="26"/>
       <c r="H233" s="26"/>
     </row>
     <row r="234" spans="1:10" s="28" customFormat="1">
+      <c r="B234" s="35"/>
       <c r="C234" s="24"/>
       <c r="D234" s="24"/>
       <c r="E234" s="26"/>
       <c r="F234" s="25"/>
       <c r="G234" s="26"/>
       <c r="H234" s="26"/>
+      <c r="J234" s="38"/>
     </row>
     <row r="235" spans="1:10" s="28" customFormat="1">
       <c r="C235" s="24"/>
@@ -7284,50 +7283,48 @@
       <c r="H235" s="26"/>
     </row>
     <row r="236" spans="1:10" s="28" customFormat="1">
-      <c r="B236" s="35"/>
       <c r="C236" s="24"/>
       <c r="D236" s="24"/>
       <c r="E236" s="26"/>
-      <c r="F236" s="25"/>
+      <c r="F236" s="26"/>
       <c r="G236" s="26"/>
       <c r="H236" s="26"/>
-      <c r="J236" s="38"/>
     </row>
     <row r="237" spans="1:10" s="28" customFormat="1">
       <c r="C237" s="24"/>
       <c r="D237" s="24"/>
       <c r="E237" s="26"/>
-      <c r="F237" s="25"/>
+      <c r="F237" s="26"/>
       <c r="G237" s="26"/>
-      <c r="H237" s="26"/>
+      <c r="H237" s="32"/>
     </row>
     <row r="238" spans="1:10" s="28" customFormat="1">
+      <c r="A238" s="37"/>
       <c r="C238" s="24"/>
       <c r="D238" s="24"/>
       <c r="E238" s="26"/>
-      <c r="F238" s="26"/>
+      <c r="F238" s="25"/>
       <c r="G238" s="26"/>
-      <c r="H238" s="26"/>
+      <c r="H238" s="32"/>
     </row>
     <row r="239" spans="1:10" s="28" customFormat="1">
+      <c r="A239" s="37"/>
       <c r="C239" s="24"/>
       <c r="D239" s="24"/>
       <c r="E239" s="26"/>
-      <c r="F239" s="26"/>
+      <c r="F239" s="25"/>
       <c r="G239" s="26"/>
-      <c r="H239" s="32"/>
+      <c r="H239" s="26"/>
     </row>
     <row r="240" spans="1:10" s="28" customFormat="1">
-      <c r="A240" s="37"/>
       <c r="C240" s="24"/>
       <c r="D240" s="24"/>
       <c r="E240" s="26"/>
       <c r="F240" s="25"/>
       <c r="G240" s="26"/>
-      <c r="H240" s="32"/>
+      <c r="H240" s="26"/>
     </row>
     <row r="241" spans="1:10" s="28" customFormat="1">
-      <c r="A241" s="37"/>
       <c r="C241" s="24"/>
       <c r="D241" s="24"/>
       <c r="E241" s="26"/>
@@ -7342,46 +7339,47 @@
       <c r="F242" s="25"/>
       <c r="G242" s="26"/>
       <c r="H242" s="26"/>
+      <c r="J242" s="36"/>
     </row>
     <row r="243" spans="1:10" s="28" customFormat="1">
       <c r="C243" s="24"/>
       <c r="D243" s="24"/>
       <c r="E243" s="26"/>
-      <c r="F243" s="25"/>
+      <c r="F243" s="26"/>
       <c r="G243" s="26"/>
       <c r="H243" s="26"/>
     </row>
     <row r="244" spans="1:10" s="28" customFormat="1">
+      <c r="A244" s="37"/>
       <c r="C244" s="24"/>
       <c r="D244" s="24"/>
       <c r="E244" s="26"/>
-      <c r="F244" s="25"/>
+      <c r="F244" s="26"/>
       <c r="G244" s="26"/>
       <c r="H244" s="26"/>
-      <c r="J244" s="36"/>
     </row>
     <row r="245" spans="1:10" s="28" customFormat="1">
       <c r="C245" s="24"/>
       <c r="D245" s="24"/>
       <c r="E245" s="26"/>
-      <c r="F245" s="26"/>
+      <c r="F245" s="25"/>
       <c r="G245" s="26"/>
       <c r="H245" s="26"/>
     </row>
     <row r="246" spans="1:10" s="28" customFormat="1">
-      <c r="A246" s="37"/>
       <c r="C246" s="24"/>
       <c r="D246" s="24"/>
       <c r="E246" s="26"/>
-      <c r="F246" s="26"/>
+      <c r="F246" s="25"/>
       <c r="G246" s="26"/>
       <c r="H246" s="26"/>
     </row>
     <row r="247" spans="1:10" s="28" customFormat="1">
+      <c r="A247" s="37"/>
       <c r="C247" s="24"/>
       <c r="D247" s="24"/>
       <c r="E247" s="26"/>
-      <c r="F247" s="25"/>
+      <c r="F247" s="26"/>
       <c r="G247" s="26"/>
       <c r="H247" s="26"/>
     </row>
@@ -7398,11 +7396,12 @@
       <c r="C249" s="24"/>
       <c r="D249" s="24"/>
       <c r="E249" s="26"/>
-      <c r="F249" s="26"/>
+      <c r="F249" s="25"/>
       <c r="G249" s="26"/>
       <c r="H249" s="26"/>
     </row>
     <row r="250" spans="1:10" s="28" customFormat="1">
+      <c r="A250" s="37"/>
       <c r="C250" s="24"/>
       <c r="D250" s="24"/>
       <c r="E250" s="26"/>
@@ -7410,17 +7409,17 @@
       <c r="G250" s="26"/>
       <c r="H250" s="26"/>
     </row>
-    <row r="251" spans="1:10" s="28" customFormat="1">
-      <c r="A251" s="37"/>
+    <row r="251" spans="1:10" s="4" customFormat="1">
+      <c r="A251" s="28"/>
+      <c r="B251" s="28"/>
       <c r="C251" s="24"/>
       <c r="D251" s="24"/>
       <c r="E251" s="26"/>
       <c r="F251" s="25"/>
-      <c r="G251" s="26"/>
-      <c r="H251" s="26"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="6"/>
     </row>
     <row r="252" spans="1:10" s="28" customFormat="1">
-      <c r="A252" s="37"/>
       <c r="C252" s="24"/>
       <c r="D252" s="24"/>
       <c r="E252" s="26"/>
@@ -7428,17 +7427,17 @@
       <c r="G252" s="26"/>
       <c r="H252" s="26"/>
     </row>
-    <row r="253" spans="1:10" s="4" customFormat="1">
-      <c r="A253" s="28"/>
-      <c r="B253" s="28"/>
+    <row r="253" spans="1:10" s="28" customFormat="1">
+      <c r="A253" s="37"/>
       <c r="C253" s="24"/>
       <c r="D253" s="24"/>
       <c r="E253" s="26"/>
-      <c r="F253" s="25"/>
-      <c r="G253" s="1"/>
-      <c r="H253" s="6"/>
+      <c r="F253" s="32"/>
+      <c r="G253" s="26"/>
+      <c r="H253" s="26"/>
     </row>
     <row r="254" spans="1:10" s="28" customFormat="1">
+      <c r="A254" s="37"/>
       <c r="C254" s="24"/>
       <c r="D254" s="24"/>
       <c r="E254" s="26"/>
@@ -7448,15 +7447,15 @@
     </row>
     <row r="255" spans="1:10" s="28" customFormat="1">
       <c r="A255" s="37"/>
+      <c r="B255" s="35"/>
       <c r="C255" s="24"/>
       <c r="D255" s="24"/>
       <c r="E255" s="26"/>
-      <c r="F255" s="32"/>
+      <c r="F255" s="25"/>
       <c r="G255" s="26"/>
       <c r="H255" s="26"/>
     </row>
     <row r="256" spans="1:10" s="28" customFormat="1">
-      <c r="A256" s="37"/>
       <c r="C256" s="24"/>
       <c r="D256" s="24"/>
       <c r="E256" s="26"/>
@@ -7465,8 +7464,6 @@
       <c r="H256" s="26"/>
     </row>
     <row r="257" spans="1:10" s="28" customFormat="1">
-      <c r="A257" s="37"/>
-      <c r="B257" s="35"/>
       <c r="C257" s="24"/>
       <c r="D257" s="24"/>
       <c r="E257" s="26"/>
@@ -7478,7 +7475,7 @@
       <c r="C258" s="24"/>
       <c r="D258" s="24"/>
       <c r="E258" s="26"/>
-      <c r="F258" s="25"/>
+      <c r="F258" s="26"/>
       <c r="G258" s="26"/>
       <c r="H258" s="26"/>
     </row>
@@ -7491,6 +7488,7 @@
       <c r="H259" s="26"/>
     </row>
     <row r="260" spans="1:10" s="28" customFormat="1">
+      <c r="A260" s="37"/>
       <c r="C260" s="24"/>
       <c r="D260" s="24"/>
       <c r="E260" s="26"/>
@@ -7507,61 +7505,61 @@
       <c r="H261" s="26"/>
     </row>
     <row r="262" spans="1:10" s="28" customFormat="1">
-      <c r="A262" s="37"/>
       <c r="C262" s="24"/>
       <c r="D262" s="24"/>
       <c r="E262" s="26"/>
-      <c r="F262" s="26"/>
+      <c r="F262" s="25"/>
       <c r="G262" s="26"/>
       <c r="H262" s="26"/>
     </row>
-    <row r="263" spans="1:10" s="28" customFormat="1">
+    <row r="263" spans="1:10">
+      <c r="A263" s="28"/>
+      <c r="B263" s="28"/>
       <c r="C263" s="24"/>
       <c r="D263" s="24"/>
       <c r="E263" s="26"/>
       <c r="F263" s="25"/>
-      <c r="G263" s="26"/>
-      <c r="H263" s="26"/>
-    </row>
-    <row r="264" spans="1:10" s="28" customFormat="1">
+      <c r="H263" s="6"/>
+      <c r="I263" s="4"/>
+      <c r="J263" s="8"/>
+    </row>
+    <row r="264" spans="1:10" s="4" customFormat="1">
+      <c r="A264" s="37"/>
+      <c r="B264" s="28"/>
       <c r="C264" s="24"/>
       <c r="D264" s="24"/>
       <c r="E264" s="26"/>
       <c r="F264" s="25"/>
-      <c r="G264" s="26"/>
-      <c r="H264" s="26"/>
-    </row>
-    <row r="265" spans="1:10">
-      <c r="A265" s="28"/>
-      <c r="B265" s="28"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="6"/>
+    </row>
+    <row r="265" spans="1:10" s="28" customFormat="1">
       <c r="C265" s="24"/>
       <c r="D265" s="24"/>
       <c r="E265" s="26"/>
       <c r="F265" s="25"/>
-      <c r="H265" s="6"/>
-      <c r="I265" s="4"/>
-      <c r="J265" s="8"/>
-    </row>
-    <row r="266" spans="1:10" s="4" customFormat="1">
+      <c r="G265" s="26"/>
+      <c r="H265" s="26"/>
+    </row>
+    <row r="266" spans="1:10" s="28" customFormat="1">
       <c r="A266" s="37"/>
-      <c r="B266" s="28"/>
       <c r="C266" s="24"/>
       <c r="D266" s="24"/>
       <c r="E266" s="26"/>
       <c r="F266" s="25"/>
-      <c r="G266" s="1"/>
-      <c r="H266" s="6"/>
-    </row>
-    <row r="267" spans="1:10" s="28" customFormat="1">
+      <c r="G266" s="26"/>
+      <c r="H266" s="26"/>
+    </row>
+    <row r="267" spans="1:10">
+      <c r="A267" s="28"/>
+      <c r="B267" s="28"/>
       <c r="C267" s="24"/>
       <c r="D267" s="24"/>
       <c r="E267" s="26"/>
       <c r="F267" s="25"/>
       <c r="G267" s="26"/>
-      <c r="H267" s="26"/>
     </row>
     <row r="268" spans="1:10" s="28" customFormat="1">
-      <c r="A268" s="37"/>
       <c r="C268" s="24"/>
       <c r="D268" s="24"/>
       <c r="E268" s="26"/>
@@ -7569,14 +7567,15 @@
       <c r="G268" s="26"/>
       <c r="H268" s="26"/>
     </row>
-    <row r="269" spans="1:10">
-      <c r="A269" s="28"/>
+    <row r="269" spans="1:10" s="4" customFormat="1">
+      <c r="A269" s="37"/>
       <c r="B269" s="28"/>
       <c r="C269" s="24"/>
       <c r="D269" s="24"/>
       <c r="E269" s="26"/>
       <c r="F269" s="25"/>
-      <c r="G269" s="26"/>
+      <c r="G269" s="1"/>
+      <c r="H269" s="6"/>
     </row>
     <row r="270" spans="1:10" s="28" customFormat="1">
       <c r="C270" s="24"/>
@@ -7586,30 +7585,29 @@
       <c r="G270" s="26"/>
       <c r="H270" s="26"/>
     </row>
-    <row r="271" spans="1:10" s="4" customFormat="1">
+    <row r="271" spans="1:10" s="28" customFormat="1">
       <c r="A271" s="37"/>
-      <c r="B271" s="28"/>
       <c r="C271" s="24"/>
       <c r="D271" s="24"/>
       <c r="E271" s="26"/>
-      <c r="F271" s="25"/>
-      <c r="G271" s="1"/>
-      <c r="H271" s="6"/>
+      <c r="F271" s="26"/>
+      <c r="G271" s="26"/>
+      <c r="H271" s="26"/>
     </row>
     <row r="272" spans="1:10" s="28" customFormat="1">
       <c r="C272" s="24"/>
       <c r="D272" s="24"/>
       <c r="E272" s="26"/>
-      <c r="F272" s="25"/>
+      <c r="F272" s="26"/>
       <c r="G272" s="26"/>
-      <c r="H272" s="26"/>
+      <c r="H272" s="32"/>
     </row>
     <row r="273" spans="1:10" s="28" customFormat="1">
       <c r="A273" s="37"/>
       <c r="C273" s="24"/>
       <c r="D273" s="24"/>
       <c r="E273" s="26"/>
-      <c r="F273" s="26"/>
+      <c r="F273" s="25"/>
       <c r="G273" s="26"/>
       <c r="H273" s="26"/>
     </row>
@@ -7617,18 +7615,17 @@
       <c r="C274" s="24"/>
       <c r="D274" s="24"/>
       <c r="E274" s="26"/>
-      <c r="F274" s="26"/>
+      <c r="F274" s="25"/>
       <c r="G274" s="26"/>
-      <c r="H274" s="32"/>
+      <c r="H274" s="26"/>
     </row>
     <row r="275" spans="1:10" s="28" customFormat="1">
-      <c r="A275" s="37"/>
       <c r="C275" s="24"/>
       <c r="D275" s="24"/>
       <c r="E275" s="26"/>
-      <c r="F275" s="25"/>
+      <c r="F275" s="26"/>
       <c r="G275" s="26"/>
-      <c r="H275" s="26"/>
+      <c r="H275" s="32"/>
     </row>
     <row r="276" spans="1:10" s="28" customFormat="1">
       <c r="C276" s="24"/>
@@ -7638,13 +7635,15 @@
       <c r="G276" s="26"/>
       <c r="H276" s="26"/>
     </row>
-    <row r="277" spans="1:10" s="28" customFormat="1">
+    <row r="277" spans="1:10" s="41" customFormat="1">
+      <c r="A277" s="28"/>
+      <c r="B277" s="28"/>
       <c r="C277" s="24"/>
       <c r="D277" s="24"/>
       <c r="E277" s="26"/>
-      <c r="F277" s="26"/>
-      <c r="G277" s="26"/>
-      <c r="H277" s="32"/>
+      <c r="F277" s="25"/>
+      <c r="G277" s="40"/>
+      <c r="H277" s="40"/>
     </row>
     <row r="278" spans="1:10" s="28" customFormat="1">
       <c r="C278" s="24"/>
@@ -7654,15 +7653,13 @@
       <c r="G278" s="26"/>
       <c r="H278" s="26"/>
     </row>
-    <row r="279" spans="1:10" s="41" customFormat="1">
-      <c r="A279" s="28"/>
-      <c r="B279" s="28"/>
+    <row r="279" spans="1:10" s="28" customFormat="1">
       <c r="C279" s="24"/>
       <c r="D279" s="24"/>
       <c r="E279" s="26"/>
       <c r="F279" s="25"/>
-      <c r="G279" s="40"/>
-      <c r="H279" s="40"/>
+      <c r="G279" s="26"/>
+      <c r="H279" s="26"/>
     </row>
     <row r="280" spans="1:10" s="28" customFormat="1">
       <c r="C280" s="24"/>
@@ -7672,43 +7669,45 @@
       <c r="G280" s="26"/>
       <c r="H280" s="26"/>
     </row>
-    <row r="281" spans="1:10" s="28" customFormat="1">
+    <row r="281" spans="1:10">
+      <c r="A281" s="28"/>
+      <c r="B281" s="28"/>
       <c r="C281" s="24"/>
       <c r="D281" s="24"/>
       <c r="E281" s="26"/>
-      <c r="F281" s="25"/>
+      <c r="F281" s="26"/>
       <c r="G281" s="26"/>
-      <c r="H281" s="26"/>
-    </row>
-    <row r="282" spans="1:10" s="28" customFormat="1">
+      <c r="H281" s="6"/>
+      <c r="I281" s="4"/>
+      <c r="J281" s="11"/>
+    </row>
+    <row r="282" spans="1:10" s="4" customFormat="1">
+      <c r="A282" s="35"/>
+      <c r="B282" s="35"/>
       <c r="C282" s="24"/>
       <c r="D282" s="24"/>
       <c r="E282" s="26"/>
       <c r="F282" s="25"/>
-      <c r="G282" s="26"/>
-      <c r="H282" s="26"/>
-    </row>
-    <row r="283" spans="1:10">
-      <c r="A283" s="28"/>
-      <c r="B283" s="28"/>
+      <c r="G282" s="1"/>
+      <c r="H282" s="6"/>
+    </row>
+    <row r="283" spans="1:10" s="28" customFormat="1">
+      <c r="A283" s="37"/>
       <c r="C283" s="24"/>
       <c r="D283" s="24"/>
       <c r="E283" s="26"/>
-      <c r="F283" s="26"/>
+      <c r="F283" s="25"/>
       <c r="G283" s="26"/>
-      <c r="H283" s="6"/>
-      <c r="I283" s="4"/>
-      <c r="J283" s="11"/>
-    </row>
-    <row r="284" spans="1:10" s="4" customFormat="1">
-      <c r="A284" s="35"/>
-      <c r="B284" s="35"/>
+      <c r="H283" s="26"/>
+    </row>
+    <row r="284" spans="1:10" s="28" customFormat="1">
+      <c r="A284" s="37"/>
       <c r="C284" s="24"/>
       <c r="D284" s="24"/>
       <c r="E284" s="26"/>
-      <c r="F284" s="25"/>
-      <c r="G284" s="1"/>
-      <c r="H284" s="6"/>
+      <c r="F284" s="39"/>
+      <c r="G284" s="26"/>
+      <c r="H284" s="26"/>
     </row>
     <row r="285" spans="1:10" s="28" customFormat="1">
       <c r="A285" s="37"/>
@@ -7720,16 +7719,14 @@
       <c r="H285" s="26"/>
     </row>
     <row r="286" spans="1:10" s="28" customFormat="1">
-      <c r="A286" s="37"/>
       <c r="C286" s="24"/>
       <c r="D286" s="24"/>
       <c r="E286" s="26"/>
-      <c r="F286" s="39"/>
+      <c r="F286" s="26"/>
       <c r="G286" s="26"/>
       <c r="H286" s="26"/>
     </row>
     <row r="287" spans="1:10" s="28" customFormat="1">
-      <c r="A287" s="37"/>
       <c r="C287" s="24"/>
       <c r="D287" s="24"/>
       <c r="E287" s="26"/>
@@ -7741,89 +7738,89 @@
       <c r="C288" s="24"/>
       <c r="D288" s="24"/>
       <c r="E288" s="26"/>
-      <c r="F288" s="26"/>
+      <c r="F288" s="25"/>
       <c r="G288" s="26"/>
       <c r="H288" s="26"/>
     </row>
-    <row r="289" spans="1:10" s="28" customFormat="1">
+    <row r="289" spans="1:10">
+      <c r="A289" s="28"/>
+      <c r="B289" s="28"/>
       <c r="C289" s="24"/>
       <c r="D289" s="24"/>
       <c r="E289" s="26"/>
       <c r="F289" s="25"/>
       <c r="G289" s="26"/>
-      <c r="H289" s="26"/>
-    </row>
-    <row r="290" spans="1:10" s="28" customFormat="1">
+      <c r="H289" s="6"/>
+      <c r="I289" s="4"/>
+      <c r="J289" s="4"/>
+    </row>
+    <row r="290" spans="1:10" s="4" customFormat="1">
+      <c r="A290" s="37"/>
+      <c r="B290" s="28"/>
       <c r="C290" s="24"/>
       <c r="D290" s="24"/>
       <c r="E290" s="26"/>
       <c r="F290" s="25"/>
-      <c r="G290" s="26"/>
-      <c r="H290" s="26"/>
-    </row>
-    <row r="291" spans="1:10">
-      <c r="A291" s="28"/>
-      <c r="B291" s="28"/>
+      <c r="G290" s="1"/>
+      <c r="H290" s="6"/>
+    </row>
+    <row r="291" spans="1:10" s="28" customFormat="1">
       <c r="C291" s="24"/>
       <c r="D291" s="24"/>
       <c r="E291" s="26"/>
       <c r="F291" s="25"/>
       <c r="G291" s="26"/>
-      <c r="H291" s="6"/>
-      <c r="I291" s="4"/>
-      <c r="J291" s="4"/>
-    </row>
-    <row r="292" spans="1:10" s="4" customFormat="1">
-      <c r="A292" s="37"/>
-      <c r="B292" s="28"/>
+      <c r="H291" s="26"/>
+    </row>
+    <row r="292" spans="1:10" s="28" customFormat="1">
+      <c r="A292" s="42"/>
+      <c r="B292" s="42"/>
       <c r="C292" s="24"/>
       <c r="D292" s="24"/>
       <c r="E292" s="26"/>
-      <c r="F292" s="25"/>
-      <c r="G292" s="1"/>
-      <c r="H292" s="6"/>
-    </row>
-    <row r="293" spans="1:10" s="28" customFormat="1">
+      <c r="F292" s="26"/>
+      <c r="G292" s="26"/>
+      <c r="H292" s="26"/>
+    </row>
+    <row r="293" spans="1:10" s="4" customFormat="1">
+      <c r="A293" s="28"/>
+      <c r="B293" s="28"/>
       <c r="C293" s="24"/>
       <c r="D293" s="24"/>
       <c r="E293" s="26"/>
       <c r="F293" s="25"/>
       <c r="G293" s="26"/>
-      <c r="H293" s="26"/>
-    </row>
-    <row r="294" spans="1:10" s="28" customFormat="1">
-      <c r="A294" s="42"/>
-      <c r="B294" s="42"/>
+      <c r="H293" s="6"/>
+    </row>
+    <row r="294" spans="1:10">
+      <c r="A294" s="28"/>
+      <c r="B294" s="28"/>
       <c r="C294" s="24"/>
       <c r="D294" s="24"/>
       <c r="E294" s="26"/>
-      <c r="F294" s="26"/>
-      <c r="G294" s="26"/>
-      <c r="H294" s="26"/>
-    </row>
-    <row r="295" spans="1:10" s="4" customFormat="1">
-      <c r="A295" s="28"/>
-      <c r="B295" s="28"/>
+      <c r="F294" s="25"/>
+    </row>
+    <row r="295" spans="1:10" s="28" customFormat="1">
       <c r="C295" s="24"/>
       <c r="D295" s="24"/>
       <c r="E295" s="26"/>
-      <c r="F295" s="25"/>
+      <c r="F295" s="32"/>
       <c r="G295" s="26"/>
-      <c r="H295" s="6"/>
-    </row>
-    <row r="296" spans="1:10">
-      <c r="A296" s="28"/>
-      <c r="B296" s="28"/>
+      <c r="H295" s="26"/>
+    </row>
+    <row r="296" spans="1:10" s="28" customFormat="1">
       <c r="C296" s="24"/>
       <c r="D296" s="24"/>
       <c r="E296" s="26"/>
-      <c r="F296" s="25"/>
+      <c r="F296" s="39"/>
+      <c r="G296" s="26"/>
+      <c r="H296" s="26"/>
     </row>
     <row r="297" spans="1:10" s="28" customFormat="1">
       <c r="C297" s="24"/>
       <c r="D297" s="24"/>
       <c r="E297" s="26"/>
-      <c r="F297" s="32"/>
+      <c r="F297" s="25"/>
       <c r="G297" s="26"/>
       <c r="H297" s="26"/>
     </row>
@@ -7831,7 +7828,7 @@
       <c r="C298" s="24"/>
       <c r="D298" s="24"/>
       <c r="E298" s="26"/>
-      <c r="F298" s="39"/>
+      <c r="F298" s="26"/>
       <c r="G298" s="26"/>
       <c r="H298" s="26"/>
     </row>
@@ -7857,23 +7854,26 @@
       <c r="E301" s="26"/>
       <c r="F301" s="25"/>
       <c r="G301" s="26"/>
-      <c r="H301" s="26"/>
+      <c r="H301" s="32"/>
     </row>
     <row r="302" spans="1:10" s="28" customFormat="1">
+      <c r="A302" s="37"/>
       <c r="C302" s="24"/>
       <c r="D302" s="24"/>
       <c r="E302" s="26"/>
-      <c r="F302" s="26"/>
+      <c r="F302" s="25"/>
       <c r="G302" s="26"/>
       <c r="H302" s="26"/>
     </row>
-    <row r="303" spans="1:10" s="28" customFormat="1">
+    <row r="303" spans="1:10" s="4" customFormat="1">
+      <c r="A303" s="42"/>
+      <c r="B303" s="28"/>
       <c r="C303" s="24"/>
       <c r="D303" s="24"/>
       <c r="E303" s="26"/>
       <c r="F303" s="25"/>
-      <c r="G303" s="26"/>
-      <c r="H303" s="32"/>
+      <c r="G303" s="1"/>
+      <c r="H303" s="6"/>
     </row>
     <row r="304" spans="1:10" s="28" customFormat="1">
       <c r="A304" s="37"/>
@@ -7884,18 +7884,17 @@
       <c r="G304" s="26"/>
       <c r="H304" s="26"/>
     </row>
-    <row r="305" spans="1:10" s="4" customFormat="1">
-      <c r="A305" s="42"/>
-      <c r="B305" s="28"/>
+    <row r="305" spans="1:10" s="28" customFormat="1">
+      <c r="A305" s="37"/>
+      <c r="B305" s="35"/>
       <c r="C305" s="24"/>
       <c r="D305" s="24"/>
       <c r="E305" s="26"/>
       <c r="F305" s="25"/>
-      <c r="G305" s="1"/>
-      <c r="H305" s="6"/>
+      <c r="G305" s="26"/>
+      <c r="H305" s="26"/>
     </row>
     <row r="306" spans="1:10" s="28" customFormat="1">
-      <c r="A306" s="37"/>
       <c r="C306" s="24"/>
       <c r="D306" s="24"/>
       <c r="E306" s="26"/>
@@ -7903,15 +7902,16 @@
       <c r="G306" s="26"/>
       <c r="H306" s="26"/>
     </row>
-    <row r="307" spans="1:10" s="28" customFormat="1">
-      <c r="A307" s="37"/>
-      <c r="B307" s="35"/>
+    <row r="307" spans="1:10">
+      <c r="A307" s="28"/>
+      <c r="B307" s="28"/>
       <c r="C307" s="24"/>
       <c r="D307" s="24"/>
       <c r="E307" s="26"/>
       <c r="F307" s="25"/>
-      <c r="G307" s="26"/>
-      <c r="H307" s="26"/>
+      <c r="H307" s="6"/>
+      <c r="I307" s="4"/>
+      <c r="J307" s="4"/>
     </row>
     <row r="308" spans="1:10" s="28" customFormat="1">
       <c r="C308" s="24"/>
@@ -7921,18 +7921,17 @@
       <c r="G308" s="26"/>
       <c r="H308" s="26"/>
     </row>
-    <row r="309" spans="1:10">
-      <c r="A309" s="28"/>
-      <c r="B309" s="28"/>
+    <row r="309" spans="1:10" s="28" customFormat="1">
+      <c r="A309" s="37"/>
       <c r="C309" s="24"/>
       <c r="D309" s="24"/>
       <c r="E309" s="26"/>
       <c r="F309" s="25"/>
-      <c r="H309" s="6"/>
-      <c r="I309" s="4"/>
-      <c r="J309" s="4"/>
+      <c r="G309" s="26"/>
+      <c r="H309" s="26"/>
     </row>
     <row r="310" spans="1:10" s="28" customFormat="1">
+      <c r="A310" s="37"/>
       <c r="C310" s="24"/>
       <c r="D310" s="24"/>
       <c r="E310" s="26"/>
@@ -7941,7 +7940,6 @@
       <c r="H310" s="26"/>
     </row>
     <row r="311" spans="1:10" s="28" customFormat="1">
-      <c r="A311" s="37"/>
       <c r="C311" s="24"/>
       <c r="D311" s="24"/>
       <c r="E311" s="26"/>
@@ -7956,44 +7954,44 @@
       <c r="E312" s="26"/>
       <c r="F312" s="25"/>
       <c r="G312" s="26"/>
-      <c r="H312" s="26"/>
-    </row>
-    <row r="313" spans="1:10" s="28" customFormat="1">
+      <c r="H312" s="32"/>
+    </row>
+    <row r="313" spans="1:10" s="41" customFormat="1">
+      <c r="A313" s="42"/>
+      <c r="B313" s="28"/>
       <c r="C313" s="24"/>
       <c r="D313" s="24"/>
       <c r="E313" s="26"/>
-      <c r="F313" s="25"/>
+      <c r="F313" s="39"/>
       <c r="G313" s="26"/>
-      <c r="H313" s="26"/>
-    </row>
-    <row r="314" spans="1:10" s="28" customFormat="1">
-      <c r="A314" s="37"/>
+      <c r="H313" s="40"/>
+    </row>
+    <row r="314" spans="1:10" s="41" customFormat="1">
+      <c r="A314" s="28"/>
+      <c r="B314" s="28"/>
       <c r="C314" s="24"/>
       <c r="D314" s="24"/>
       <c r="E314" s="26"/>
       <c r="F314" s="25"/>
       <c r="G314" s="26"/>
-      <c r="H314" s="32"/>
-    </row>
-    <row r="315" spans="1:10" s="41" customFormat="1">
-      <c r="A315" s="42"/>
-      <c r="B315" s="28"/>
+      <c r="H314" s="40"/>
+    </row>
+    <row r="315" spans="1:10" s="28" customFormat="1">
       <c r="C315" s="24"/>
       <c r="D315" s="24"/>
       <c r="E315" s="26"/>
-      <c r="F315" s="39"/>
+      <c r="F315" s="25"/>
       <c r="G315" s="26"/>
-      <c r="H315" s="40"/>
-    </row>
-    <row r="316" spans="1:10" s="41" customFormat="1">
-      <c r="A316" s="28"/>
-      <c r="B316" s="28"/>
+      <c r="H315" s="26"/>
+    </row>
+    <row r="316" spans="1:10" s="28" customFormat="1">
+      <c r="A316" s="37"/>
       <c r="C316" s="24"/>
       <c r="D316" s="24"/>
       <c r="E316" s="26"/>
-      <c r="F316" s="25"/>
+      <c r="F316" s="39"/>
       <c r="G316" s="26"/>
-      <c r="H316" s="40"/>
+      <c r="H316" s="26"/>
     </row>
     <row r="317" spans="1:10" s="28" customFormat="1">
       <c r="C317" s="24"/>
@@ -8001,27 +7999,28 @@
       <c r="E317" s="26"/>
       <c r="F317" s="25"/>
       <c r="G317" s="26"/>
-      <c r="H317" s="26"/>
+      <c r="H317" s="32"/>
     </row>
     <row r="318" spans="1:10" s="28" customFormat="1">
       <c r="A318" s="37"/>
       <c r="C318" s="24"/>
       <c r="D318" s="24"/>
       <c r="E318" s="26"/>
-      <c r="F318" s="39"/>
+      <c r="F318" s="25"/>
       <c r="G318" s="26"/>
       <c r="H318" s="26"/>
     </row>
     <row r="319" spans="1:10" s="28" customFormat="1">
+      <c r="A319" s="42"/>
       <c r="C319" s="24"/>
       <c r="D319" s="24"/>
       <c r="E319" s="26"/>
       <c r="F319" s="25"/>
       <c r="G319" s="26"/>
-      <c r="H319" s="32"/>
+      <c r="H319" s="26"/>
     </row>
     <row r="320" spans="1:10" s="28" customFormat="1">
-      <c r="A320" s="37"/>
+      <c r="A320" s="42"/>
       <c r="C320" s="24"/>
       <c r="D320" s="24"/>
       <c r="E320" s="26"/>
@@ -8030,7 +8029,6 @@
       <c r="H320" s="26"/>
     </row>
     <row r="321" spans="1:10" s="28" customFormat="1">
-      <c r="A321" s="42"/>
       <c r="C321" s="24"/>
       <c r="D321" s="24"/>
       <c r="E321" s="26"/>
@@ -8039,7 +8037,7 @@
       <c r="H321" s="26"/>
     </row>
     <row r="322" spans="1:10" s="28" customFormat="1">
-      <c r="A322" s="42"/>
+      <c r="A322" s="37"/>
       <c r="C322" s="24"/>
       <c r="D322" s="24"/>
       <c r="E322" s="26"/>
@@ -8048,6 +8046,8 @@
       <c r="H322" s="26"/>
     </row>
     <row r="323" spans="1:10" s="28" customFormat="1">
+      <c r="A323" s="42"/>
+      <c r="B323" s="35"/>
       <c r="C323" s="24"/>
       <c r="D323" s="24"/>
       <c r="E323" s="26"/>
@@ -8056,7 +8056,7 @@
       <c r="H323" s="26"/>
     </row>
     <row r="324" spans="1:10" s="28" customFormat="1">
-      <c r="A324" s="37"/>
+      <c r="A324" s="42"/>
       <c r="C324" s="24"/>
       <c r="D324" s="24"/>
       <c r="E324" s="26"/>
@@ -8075,39 +8075,39 @@
       <c r="H325" s="26"/>
     </row>
     <row r="326" spans="1:10" s="28" customFormat="1">
-      <c r="A326" s="42"/>
       <c r="C326" s="24"/>
       <c r="D326" s="24"/>
       <c r="E326" s="26"/>
       <c r="F326" s="25"/>
       <c r="G326" s="26"/>
       <c r="H326" s="26"/>
+      <c r="J326" s="36"/>
     </row>
     <row r="327" spans="1:10" s="28" customFormat="1">
-      <c r="A327" s="42"/>
-      <c r="B327" s="35"/>
+      <c r="A327" s="37"/>
       <c r="C327" s="24"/>
       <c r="D327" s="24"/>
       <c r="E327" s="26"/>
-      <c r="F327" s="25"/>
+      <c r="F327" s="26"/>
       <c r="G327" s="26"/>
       <c r="H327" s="26"/>
     </row>
     <row r="328" spans="1:10" s="28" customFormat="1">
+      <c r="A328" s="37"/>
       <c r="C328" s="24"/>
       <c r="D328" s="24"/>
       <c r="E328" s="26"/>
-      <c r="F328" s="25"/>
+      <c r="F328" s="32"/>
       <c r="G328" s="26"/>
       <c r="H328" s="26"/>
-      <c r="J328" s="36"/>
     </row>
     <row r="329" spans="1:10" s="28" customFormat="1">
-      <c r="A329" s="37"/>
+      <c r="A329" s="35"/>
+      <c r="B329" s="35"/>
       <c r="C329" s="24"/>
       <c r="D329" s="24"/>
       <c r="E329" s="26"/>
-      <c r="F329" s="26"/>
+      <c r="F329" s="32"/>
       <c r="G329" s="26"/>
       <c r="H329" s="26"/>
     </row>
@@ -8116,49 +8116,48 @@
       <c r="C330" s="24"/>
       <c r="D330" s="24"/>
       <c r="E330" s="26"/>
-      <c r="F330" s="32"/>
+      <c r="F330" s="25"/>
       <c r="G330" s="26"/>
       <c r="H330" s="26"/>
     </row>
     <row r="331" spans="1:10" s="28" customFormat="1">
-      <c r="A331" s="35"/>
-      <c r="B331" s="35"/>
+      <c r="A331" s="42"/>
       <c r="C331" s="24"/>
-      <c r="D331" s="24"/>
-      <c r="E331" s="26"/>
-      <c r="F331" s="32"/>
+      <c r="D331" s="29"/>
+      <c r="E331" s="25"/>
+      <c r="F331" s="25"/>
       <c r="G331" s="26"/>
       <c r="H331" s="26"/>
     </row>
     <row r="332" spans="1:10" s="28" customFormat="1">
       <c r="A332" s="37"/>
       <c r="C332" s="24"/>
-      <c r="D332" s="24"/>
-      <c r="E332" s="26"/>
-      <c r="F332" s="25"/>
+      <c r="D332" s="29"/>
+      <c r="E332" s="25"/>
+      <c r="F332" s="26"/>
       <c r="G332" s="26"/>
       <c r="H332" s="26"/>
     </row>
     <row r="333" spans="1:10" s="28" customFormat="1">
-      <c r="A333" s="42"/>
+      <c r="A333" s="37"/>
       <c r="C333" s="24"/>
-      <c r="D333" s="29"/>
-      <c r="E333" s="25"/>
+      <c r="D333" s="24"/>
+      <c r="E333" s="26"/>
       <c r="F333" s="25"/>
       <c r="G333" s="26"/>
       <c r="H333" s="26"/>
     </row>
     <row r="334" spans="1:10" s="28" customFormat="1">
-      <c r="A334" s="37"/>
       <c r="C334" s="24"/>
-      <c r="D334" s="29"/>
-      <c r="E334" s="25"/>
-      <c r="F334" s="26"/>
+      <c r="D334" s="24"/>
+      <c r="E334" s="26"/>
+      <c r="F334" s="25"/>
       <c r="G334" s="26"/>
       <c r="H334" s="26"/>
     </row>
     <row r="335" spans="1:10" s="28" customFormat="1">
-      <c r="A335" s="37"/>
+      <c r="A335" s="42"/>
+      <c r="B335" s="35"/>
       <c r="C335" s="24"/>
       <c r="D335" s="24"/>
       <c r="E335" s="26"/>
@@ -8167,6 +8166,7 @@
       <c r="H335" s="26"/>
     </row>
     <row r="336" spans="1:10" s="28" customFormat="1">
+      <c r="A336" s="37"/>
       <c r="C336" s="24"/>
       <c r="D336" s="24"/>
       <c r="E336" s="26"/>
@@ -8175,112 +8175,109 @@
       <c r="H336" s="26"/>
     </row>
     <row r="337" spans="1:10" s="28" customFormat="1">
-      <c r="A337" s="42"/>
-      <c r="B337" s="35"/>
+      <c r="A337" s="37"/>
       <c r="C337" s="24"/>
-      <c r="D337" s="24"/>
-      <c r="E337" s="26"/>
-      <c r="F337" s="25"/>
+      <c r="D337" s="29"/>
+      <c r="E337" s="25"/>
+      <c r="F337" s="26"/>
       <c r="G337" s="26"/>
       <c r="H337" s="26"/>
     </row>
     <row r="338" spans="1:10" s="28" customFormat="1">
-      <c r="A338" s="37"/>
       <c r="C338" s="24"/>
-      <c r="D338" s="24"/>
-      <c r="E338" s="26"/>
+      <c r="D338" s="29"/>
+      <c r="E338" s="25"/>
       <c r="F338" s="25"/>
       <c r="G338" s="26"/>
       <c r="H338" s="26"/>
     </row>
-    <row r="339" spans="1:10" s="28" customFormat="1">
+    <row r="339" spans="1:10" s="41" customFormat="1">
       <c r="A339" s="37"/>
+      <c r="B339" s="35"/>
       <c r="C339" s="24"/>
-      <c r="D339" s="29"/>
+      <c r="D339" s="24"/>
       <c r="E339" s="25"/>
-      <c r="F339" s="26"/>
-      <c r="G339" s="26"/>
-      <c r="H339" s="26"/>
+      <c r="F339" s="39"/>
+      <c r="G339" s="40"/>
+      <c r="H339" s="40"/>
     </row>
     <row r="340" spans="1:10" s="28" customFormat="1">
+      <c r="A340" s="37"/>
       <c r="C340" s="24"/>
-      <c r="D340" s="29"/>
-      <c r="E340" s="25"/>
-      <c r="F340" s="25"/>
+      <c r="D340" s="24"/>
+      <c r="E340" s="26"/>
+      <c r="F340" s="39"/>
       <c r="G340" s="26"/>
       <c r="H340" s="26"/>
     </row>
-    <row r="341" spans="1:10" s="41" customFormat="1">
+    <row r="341" spans="1:10" s="4" customFormat="1">
       <c r="A341" s="37"/>
       <c r="B341" s="35"/>
       <c r="C341" s="24"/>
       <c r="D341" s="24"/>
-      <c r="E341" s="25"/>
-      <c r="F341" s="39"/>
-      <c r="G341" s="40"/>
-      <c r="H341" s="40"/>
+      <c r="E341" s="26"/>
+      <c r="F341" s="25"/>
+      <c r="G341" s="1"/>
+      <c r="H341" s="6"/>
     </row>
     <row r="342" spans="1:10" s="28" customFormat="1">
-      <c r="A342" s="37"/>
+      <c r="A342" s="42"/>
+      <c r="B342" s="35"/>
       <c r="C342" s="24"/>
       <c r="D342" s="24"/>
       <c r="E342" s="26"/>
-      <c r="F342" s="39"/>
+      <c r="F342" s="25"/>
       <c r="G342" s="26"/>
       <c r="H342" s="26"/>
     </row>
-    <row r="343" spans="1:10" s="4" customFormat="1">
-      <c r="A343" s="37"/>
-      <c r="B343" s="35"/>
+    <row r="343" spans="1:10" s="28" customFormat="1">
       <c r="C343" s="24"/>
       <c r="D343" s="24"/>
       <c r="E343" s="26"/>
       <c r="F343" s="25"/>
-      <c r="G343" s="1"/>
-      <c r="H343" s="6"/>
-    </row>
-    <row r="344" spans="1:10" s="28" customFormat="1">
+      <c r="G343" s="26"/>
+      <c r="H343" s="26"/>
+      <c r="J343" s="36"/>
+    </row>
+    <row r="344" spans="1:10" s="41" customFormat="1">
       <c r="A344" s="42"/>
       <c r="B344" s="35"/>
       <c r="C344" s="24"/>
       <c r="D344" s="24"/>
       <c r="E344" s="26"/>
       <c r="F344" s="25"/>
-      <c r="G344" s="26"/>
-      <c r="H344" s="26"/>
+      <c r="G344" s="40"/>
+      <c r="H344" s="40"/>
     </row>
     <row r="345" spans="1:10" s="28" customFormat="1">
+      <c r="A345" s="37"/>
+      <c r="B345" s="35"/>
       <c r="C345" s="24"/>
       <c r="D345" s="24"/>
       <c r="E345" s="26"/>
-      <c r="F345" s="25"/>
+      <c r="F345" s="39"/>
       <c r="G345" s="26"/>
       <c r="H345" s="26"/>
-      <c r="J345" s="36"/>
-    </row>
-    <row r="346" spans="1:10" s="41" customFormat="1">
-      <c r="A346" s="42"/>
+    </row>
+    <row r="346" spans="1:10" s="28" customFormat="1">
+      <c r="A346" s="37"/>
       <c r="B346" s="35"/>
       <c r="C346" s="24"/>
       <c r="D346" s="24"/>
       <c r="E346" s="26"/>
       <c r="F346" s="25"/>
-      <c r="G346" s="40"/>
-      <c r="H346" s="40"/>
+      <c r="G346" s="26"/>
+      <c r="H346" s="26"/>
     </row>
     <row r="347" spans="1:10" s="28" customFormat="1">
-      <c r="A347" s="37"/>
-      <c r="B347" s="35"/>
       <c r="C347" s="24"/>
       <c r="D347" s="24"/>
       <c r="E347" s="26"/>
-      <c r="F347" s="39"/>
+      <c r="F347" s="26"/>
       <c r="G347" s="26"/>
       <c r="H347" s="26"/>
     </row>
     <row r="348" spans="1:10" s="28" customFormat="1">
-      <c r="A348" s="37"/>
-      <c r="B348" s="35"/>
       <c r="C348" s="24"/>
       <c r="D348" s="24"/>
       <c r="E348" s="26"/>
@@ -8289,54 +8286,58 @@
       <c r="H348" s="26"/>
     </row>
     <row r="349" spans="1:10" s="28" customFormat="1">
+      <c r="A349" s="37"/>
       <c r="C349" s="24"/>
       <c r="D349" s="24"/>
       <c r="E349" s="26"/>
-      <c r="F349" s="26"/>
+      <c r="F349" s="25"/>
       <c r="G349" s="26"/>
       <c r="H349" s="26"/>
     </row>
-    <row r="350" spans="1:10" s="28" customFormat="1">
+    <row r="350" spans="1:10" s="4" customFormat="1">
+      <c r="A350" s="42"/>
+      <c r="B350" s="35"/>
       <c r="C350" s="24"/>
       <c r="D350" s="24"/>
       <c r="E350" s="26"/>
-      <c r="F350" s="25"/>
-      <c r="G350" s="26"/>
-      <c r="H350" s="26"/>
-    </row>
-    <row r="351" spans="1:10" s="28" customFormat="1">
-      <c r="A351" s="37"/>
-      <c r="C351" s="24"/>
+      <c r="F350" s="39"/>
+      <c r="G350" s="1"/>
+      <c r="H350" s="6"/>
+    </row>
+    <row r="351" spans="1:10" s="41" customFormat="1">
+      <c r="A351" s="43"/>
+      <c r="C351" s="44"/>
       <c r="D351" s="24"/>
       <c r="E351" s="26"/>
-      <c r="F351" s="25"/>
-      <c r="G351" s="26"/>
-      <c r="H351" s="26"/>
-    </row>
-    <row r="352" spans="1:10" s="4" customFormat="1">
-      <c r="A352" s="42"/>
-      <c r="B352" s="35"/>
+      <c r="F351" s="45"/>
+      <c r="G351" s="40"/>
+      <c r="H351" s="40"/>
+    </row>
+    <row r="352" spans="1:10" s="28" customFormat="1">
       <c r="C352" s="24"/>
       <c r="D352" s="24"/>
       <c r="E352" s="26"/>
-      <c r="F352" s="39"/>
-      <c r="G352" s="1"/>
-      <c r="H352" s="6"/>
-    </row>
-    <row r="353" spans="1:8" s="41" customFormat="1">
-      <c r="A353" s="43"/>
-      <c r="C353" s="44"/>
+      <c r="F352" s="25"/>
+      <c r="G352" s="26"/>
+      <c r="H352" s="26"/>
+    </row>
+    <row r="353" spans="1:8" s="28" customFormat="1">
+      <c r="A353" s="42"/>
+      <c r="B353" s="35"/>
+      <c r="C353" s="24"/>
       <c r="D353" s="24"/>
       <c r="E353" s="26"/>
-      <c r="F353" s="45"/>
-      <c r="G353" s="40"/>
-      <c r="H353" s="40"/>
+      <c r="F353" s="25"/>
+      <c r="G353" s="26"/>
+      <c r="H353" s="26"/>
     </row>
     <row r="354" spans="1:8" s="28" customFormat="1">
+      <c r="A354" s="42"/>
+      <c r="B354" s="35"/>
       <c r="C354" s="24"/>
       <c r="D354" s="24"/>
       <c r="E354" s="26"/>
-      <c r="F354" s="25"/>
+      <c r="F354" s="26"/>
       <c r="G354" s="26"/>
       <c r="H354" s="26"/>
     </row>
@@ -8351,43 +8352,42 @@
       <c r="H355" s="26"/>
     </row>
     <row r="356" spans="1:8" s="28" customFormat="1">
-      <c r="A356" s="42"/>
-      <c r="B356" s="35"/>
+      <c r="A356" s="37"/>
       <c r="C356" s="24"/>
       <c r="D356" s="24"/>
       <c r="E356" s="26"/>
-      <c r="F356" s="26"/>
+      <c r="F356" s="39"/>
       <c r="G356" s="26"/>
       <c r="H356" s="26"/>
     </row>
     <row r="357" spans="1:8" s="28" customFormat="1">
-      <c r="A357" s="42"/>
-      <c r="B357" s="35"/>
       <c r="C357" s="24"/>
       <c r="D357" s="24"/>
       <c r="E357" s="26"/>
-      <c r="F357" s="25"/>
+      <c r="F357" s="26"/>
       <c r="G357" s="26"/>
       <c r="H357" s="26"/>
     </row>
     <row r="358" spans="1:8" s="28" customFormat="1">
-      <c r="A358" s="37"/>
       <c r="C358" s="24"/>
       <c r="D358" s="24"/>
       <c r="E358" s="26"/>
-      <c r="F358" s="39"/>
+      <c r="F358" s="25"/>
       <c r="G358" s="26"/>
       <c r="H358" s="26"/>
     </row>
     <row r="359" spans="1:8" s="28" customFormat="1">
+      <c r="A359" s="37"/>
       <c r="C359" s="24"/>
       <c r="D359" s="24"/>
       <c r="E359" s="26"/>
-      <c r="F359" s="26"/>
+      <c r="F359" s="25"/>
       <c r="G359" s="26"/>
       <c r="H359" s="26"/>
     </row>
-    <row r="360" spans="1:8" s="28" customFormat="1">
+    <row r="360" spans="1:8" s="28" customFormat="1" ht="14.85" customHeight="1">
+      <c r="A360" s="37"/>
+      <c r="B360" s="35"/>
       <c r="C360" s="24"/>
       <c r="D360" s="24"/>
       <c r="E360" s="26"/>
@@ -8397,6 +8397,7 @@
     </row>
     <row r="361" spans="1:8" s="28" customFormat="1">
       <c r="A361" s="37"/>
+      <c r="B361" s="35"/>
       <c r="C361" s="24"/>
       <c r="D361" s="24"/>
       <c r="E361" s="26"/>
@@ -8404,32 +8405,31 @@
       <c r="G361" s="26"/>
       <c r="H361" s="26"/>
     </row>
-    <row r="362" spans="1:8" s="28" customFormat="1" ht="14.75" customHeight="1">
-      <c r="A362" s="37"/>
-      <c r="B362" s="35"/>
+    <row r="362" spans="1:8" s="28" customFormat="1">
+      <c r="A362" s="42"/>
       <c r="C362" s="24"/>
       <c r="D362" s="24"/>
       <c r="E362" s="26"/>
-      <c r="F362" s="25"/>
+      <c r="F362" s="46"/>
       <c r="G362" s="26"/>
       <c r="H362" s="26"/>
     </row>
     <row r="363" spans="1:8" s="28" customFormat="1">
-      <c r="A363" s="37"/>
+      <c r="A363" s="42"/>
       <c r="B363" s="35"/>
       <c r="C363" s="24"/>
       <c r="D363" s="24"/>
       <c r="E363" s="26"/>
-      <c r="F363" s="25"/>
+      <c r="F363" s="39"/>
       <c r="G363" s="26"/>
       <c r="H363" s="26"/>
     </row>
     <row r="364" spans="1:8" s="28" customFormat="1">
-      <c r="A364" s="42"/>
+      <c r="A364" s="37"/>
       <c r="C364" s="24"/>
       <c r="D364" s="24"/>
       <c r="E364" s="26"/>
-      <c r="F364" s="46"/>
+      <c r="F364" s="25"/>
       <c r="G364" s="26"/>
       <c r="H364" s="26"/>
     </row>
@@ -8443,70 +8443,71 @@
       <c r="G365" s="26"/>
       <c r="H365" s="26"/>
     </row>
-    <row r="366" spans="1:8" s="28" customFormat="1">
-      <c r="A366" s="37"/>
+    <row r="366" spans="1:8" s="4" customFormat="1">
+      <c r="A366" s="28"/>
+      <c r="B366" s="28"/>
       <c r="C366" s="24"/>
       <c r="D366" s="24"/>
       <c r="E366" s="26"/>
       <c r="F366" s="25"/>
-      <c r="G366" s="26"/>
-      <c r="H366" s="26"/>
+      <c r="G366" s="1"/>
+      <c r="H366" s="6"/>
     </row>
     <row r="367" spans="1:8" s="28" customFormat="1">
-      <c r="A367" s="42"/>
-      <c r="B367" s="35"/>
       <c r="C367" s="24"/>
       <c r="D367" s="24"/>
       <c r="E367" s="26"/>
-      <c r="F367" s="39"/>
+      <c r="F367" s="25"/>
       <c r="G367" s="26"/>
       <c r="H367" s="26"/>
     </row>
-    <row r="368" spans="1:8" s="4" customFormat="1">
-      <c r="A368" s="28"/>
-      <c r="B368" s="28"/>
+    <row r="368" spans="1:8" s="28" customFormat="1">
+      <c r="A368" s="42"/>
+      <c r="B368" s="35"/>
       <c r="C368" s="24"/>
       <c r="D368" s="24"/>
       <c r="E368" s="26"/>
       <c r="F368" s="25"/>
-      <c r="G368" s="1"/>
-      <c r="H368" s="6"/>
+      <c r="G368" s="26"/>
+      <c r="H368" s="26"/>
     </row>
     <row r="369" spans="1:8" s="28" customFormat="1">
+      <c r="A369" s="42"/>
       <c r="C369" s="24"/>
       <c r="D369" s="24"/>
       <c r="E369" s="26"/>
-      <c r="F369" s="25"/>
+      <c r="F369" s="46"/>
       <c r="G369" s="26"/>
       <c r="H369" s="26"/>
     </row>
     <row r="370" spans="1:8" s="28" customFormat="1">
-      <c r="A370" s="42"/>
-      <c r="B370" s="35"/>
+      <c r="A370" s="37"/>
       <c r="C370" s="24"/>
       <c r="D370" s="24"/>
       <c r="E370" s="26"/>
-      <c r="F370" s="25"/>
+      <c r="F370" s="46"/>
       <c r="G370" s="26"/>
       <c r="H370" s="26"/>
     </row>
-    <row r="371" spans="1:8" s="28" customFormat="1">
-      <c r="A371" s="42"/>
+    <row r="371" spans="1:8" s="4" customFormat="1">
+      <c r="A371" s="37"/>
+      <c r="B371" s="28"/>
       <c r="C371" s="24"/>
       <c r="D371" s="24"/>
       <c r="E371" s="26"/>
-      <c r="F371" s="46"/>
-      <c r="G371" s="26"/>
-      <c r="H371" s="26"/>
-    </row>
-    <row r="372" spans="1:8" s="28" customFormat="1">
-      <c r="A372" s="37"/>
+      <c r="F371" s="25"/>
+      <c r="G371" s="1"/>
+      <c r="H371" s="6"/>
+    </row>
+    <row r="372" spans="1:8" s="4" customFormat="1">
+      <c r="A372" s="28"/>
+      <c r="B372" s="28"/>
       <c r="C372" s="24"/>
       <c r="D372" s="24"/>
       <c r="E372" s="26"/>
-      <c r="F372" s="46"/>
-      <c r="G372" s="26"/>
-      <c r="H372" s="26"/>
+      <c r="F372" s="32"/>
+      <c r="G372" s="1"/>
+      <c r="H372" s="6"/>
     </row>
     <row r="373" spans="1:8" s="4" customFormat="1">
       <c r="A373" s="37"/>
@@ -8518,27 +8519,25 @@
       <c r="G373" s="1"/>
       <c r="H373" s="6"/>
     </row>
-    <row r="374" spans="1:8" s="4" customFormat="1">
-      <c r="A374" s="28"/>
-      <c r="B374" s="28"/>
+    <row r="374" spans="1:8" s="28" customFormat="1">
       <c r="C374" s="24"/>
       <c r="D374" s="24"/>
       <c r="E374" s="26"/>
-      <c r="F374" s="32"/>
-      <c r="G374" s="1"/>
-      <c r="H374" s="6"/>
-    </row>
-    <row r="375" spans="1:8" s="4" customFormat="1">
-      <c r="A375" s="37"/>
-      <c r="B375" s="28"/>
+      <c r="F374" s="25"/>
+      <c r="G374" s="26"/>
+      <c r="H374" s="26"/>
+    </row>
+    <row r="375" spans="1:8" s="28" customFormat="1">
       <c r="C375" s="24"/>
       <c r="D375" s="24"/>
       <c r="E375" s="26"/>
       <c r="F375" s="25"/>
-      <c r="G375" s="1"/>
-      <c r="H375" s="6"/>
+      <c r="G375" s="26"/>
+      <c r="H375" s="26"/>
     </row>
     <row r="376" spans="1:8" s="28" customFormat="1">
+      <c r="A376" s="42"/>
+      <c r="B376" s="35"/>
       <c r="C376" s="24"/>
       <c r="D376" s="24"/>
       <c r="E376" s="26"/>
@@ -8554,15 +8553,15 @@
       <c r="G377" s="26"/>
       <c r="H377" s="26"/>
     </row>
-    <row r="378" spans="1:8" s="28" customFormat="1">
-      <c r="A378" s="42"/>
-      <c r="B378" s="35"/>
+    <row r="378" spans="1:8" s="4" customFormat="1">
+      <c r="A378" s="37"/>
+      <c r="B378" s="28"/>
       <c r="C378" s="24"/>
       <c r="D378" s="24"/>
       <c r="E378" s="26"/>
       <c r="F378" s="25"/>
-      <c r="G378" s="26"/>
-      <c r="H378" s="26"/>
+      <c r="G378" s="1"/>
+      <c r="H378" s="6"/>
     </row>
     <row r="379" spans="1:8" s="28" customFormat="1">
       <c r="C379" s="24"/>
@@ -8573,7 +8572,7 @@
       <c r="H379" s="26"/>
     </row>
     <row r="380" spans="1:8" s="4" customFormat="1">
-      <c r="A380" s="37"/>
+      <c r="A380" s="28"/>
       <c r="B380" s="28"/>
       <c r="C380" s="24"/>
       <c r="D380" s="24"/>
@@ -8590,46 +8589,45 @@
       <c r="G381" s="26"/>
       <c r="H381" s="26"/>
     </row>
-    <row r="382" spans="1:8" s="4" customFormat="1">
-      <c r="A382" s="28"/>
-      <c r="B382" s="28"/>
+    <row r="382" spans="1:8" s="28" customFormat="1">
+      <c r="A382" s="42"/>
+      <c r="B382" s="35"/>
       <c r="C382" s="24"/>
       <c r="D382" s="24"/>
       <c r="E382" s="26"/>
-      <c r="F382" s="25"/>
-      <c r="G382" s="1"/>
-      <c r="H382" s="6"/>
-    </row>
-    <row r="383" spans="1:8" s="28" customFormat="1">
+      <c r="F382" s="32"/>
+      <c r="G382" s="26"/>
+      <c r="H382" s="26"/>
+    </row>
+    <row r="383" spans="1:8" s="4" customFormat="1">
+      <c r="A383" s="37"/>
+      <c r="B383" s="28"/>
       <c r="C383" s="24"/>
       <c r="D383" s="24"/>
       <c r="E383" s="26"/>
       <c r="F383" s="25"/>
       <c r="G383" s="26"/>
-      <c r="H383" s="26"/>
+      <c r="H383" s="6"/>
     </row>
     <row r="384" spans="1:8" s="28" customFormat="1">
       <c r="A384" s="42"/>
-      <c r="B384" s="35"/>
       <c r="C384" s="24"/>
       <c r="D384" s="24"/>
       <c r="E384" s="26"/>
-      <c r="F384" s="32"/>
+      <c r="F384" s="25"/>
       <c r="G384" s="26"/>
       <c r="H384" s="26"/>
     </row>
-    <row r="385" spans="1:10" s="4" customFormat="1">
-      <c r="A385" s="37"/>
-      <c r="B385" s="28"/>
+    <row r="385" spans="1:10" s="28" customFormat="1">
       <c r="C385" s="24"/>
       <c r="D385" s="24"/>
       <c r="E385" s="26"/>
       <c r="F385" s="25"/>
       <c r="G385" s="26"/>
-      <c r="H385" s="6"/>
+      <c r="H385" s="26"/>
     </row>
     <row r="386" spans="1:10" s="28" customFormat="1">
-      <c r="A386" s="42"/>
+      <c r="A386" s="37"/>
       <c r="C386" s="24"/>
       <c r="D386" s="24"/>
       <c r="E386" s="26"/>
@@ -8646,7 +8644,8 @@
       <c r="H387" s="26"/>
     </row>
     <row r="388" spans="1:10" s="28" customFormat="1">
-      <c r="A388" s="37"/>
+      <c r="A388" s="42"/>
+      <c r="B388" s="35"/>
       <c r="C388" s="24"/>
       <c r="D388" s="24"/>
       <c r="E388" s="26"/>
@@ -8663,12 +8662,10 @@
       <c r="H389" s="26"/>
     </row>
     <row r="390" spans="1:10" s="28" customFormat="1">
-      <c r="A390" s="42"/>
-      <c r="B390" s="35"/>
       <c r="C390" s="24"/>
       <c r="D390" s="24"/>
       <c r="E390" s="26"/>
-      <c r="F390" s="25"/>
+      <c r="F390" s="32"/>
       <c r="G390" s="26"/>
       <c r="H390" s="26"/>
     </row>
@@ -8681,24 +8678,26 @@
       <c r="H391" s="26"/>
     </row>
     <row r="392" spans="1:10" s="28" customFormat="1">
+      <c r="A392" s="37"/>
+      <c r="B392" s="35"/>
       <c r="C392" s="24"/>
       <c r="D392" s="24"/>
       <c r="E392" s="26"/>
-      <c r="F392" s="32"/>
+      <c r="F392" s="25"/>
       <c r="G392" s="26"/>
       <c r="H392" s="26"/>
     </row>
     <row r="393" spans="1:10" s="28" customFormat="1">
+      <c r="A393" s="37"/>
       <c r="C393" s="24"/>
       <c r="D393" s="24"/>
       <c r="E393" s="26"/>
-      <c r="F393" s="25"/>
+      <c r="F393" s="39"/>
       <c r="G393" s="26"/>
       <c r="H393" s="26"/>
     </row>
     <row r="394" spans="1:10" s="28" customFormat="1">
       <c r="A394" s="37"/>
-      <c r="B394" s="35"/>
       <c r="C394" s="24"/>
       <c r="D394" s="24"/>
       <c r="E394" s="26"/>
@@ -8707,7 +8706,6 @@
       <c r="H394" s="26"/>
     </row>
     <row r="395" spans="1:10" s="28" customFormat="1">
-      <c r="A395" s="37"/>
       <c r="C395" s="24"/>
       <c r="D395" s="24"/>
       <c r="E395" s="26"/>
@@ -8716,7 +8714,6 @@
       <c r="H395" s="26"/>
     </row>
     <row r="396" spans="1:10" s="28" customFormat="1">
-      <c r="A396" s="37"/>
       <c r="C396" s="24"/>
       <c r="D396" s="24"/>
       <c r="E396" s="26"/>
@@ -8724,13 +8721,15 @@
       <c r="G396" s="26"/>
       <c r="H396" s="26"/>
     </row>
-    <row r="397" spans="1:10" s="28" customFormat="1">
+    <row r="397" spans="1:10" s="4" customFormat="1">
+      <c r="A397" s="37"/>
+      <c r="B397" s="28"/>
       <c r="C397" s="24"/>
       <c r="D397" s="24"/>
       <c r="E397" s="26"/>
-      <c r="F397" s="39"/>
-      <c r="G397" s="26"/>
-      <c r="H397" s="26"/>
+      <c r="F397" s="26"/>
+      <c r="G397" s="1"/>
+      <c r="H397" s="6"/>
     </row>
     <row r="398" spans="1:10" s="28" customFormat="1">
       <c r="C398" s="24"/>
@@ -8739,40 +8738,22 @@
       <c r="F398" s="25"/>
       <c r="G398" s="26"/>
       <c r="H398" s="26"/>
-    </row>
-    <row r="399" spans="1:10" s="4" customFormat="1">
-      <c r="A399" s="37"/>
-      <c r="B399" s="28"/>
+      <c r="J398" s="38"/>
+    </row>
+    <row r="399" spans="1:10" s="28" customFormat="1">
       <c r="C399" s="24"/>
       <c r="D399" s="24"/>
       <c r="E399" s="26"/>
-      <c r="F399" s="26"/>
-      <c r="G399" s="1"/>
-      <c r="H399" s="6"/>
-    </row>
-    <row r="400" spans="1:10" s="28" customFormat="1">
-      <c r="C400" s="24"/>
-      <c r="D400" s="24"/>
-      <c r="E400" s="26"/>
-      <c r="F400" s="25"/>
-      <c r="G400" s="26"/>
-      <c r="H400" s="26"/>
-      <c r="J400" s="38"/>
-    </row>
-    <row r="401" spans="3:8" s="28" customFormat="1">
-      <c r="C401" s="24"/>
-      <c r="D401" s="24"/>
-      <c r="E401" s="26"/>
-      <c r="F401" s="25"/>
-      <c r="G401" s="26"/>
-      <c r="H401" s="26"/>
+      <c r="F399" s="25"/>
+      <c r="G399" s="26"/>
+      <c r="H399" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J4" r:id="rId1"/>
+    <hyperlink ref="J8" r:id="rId2"/>
+    <hyperlink ref="J13" r:id="rId3"/>
+    <hyperlink ref="J14" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -8780,21 +8761,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J294"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J296"/>
   <sheetViews>
     <sheetView topLeftCell="A284" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G294" sqref="G294"/>
+      <selection activeCell="E298" sqref="E298"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" style="47" customWidth="1"/>
-    <col min="3" max="4" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1"/>
-    <col min="8" max="8" width="26.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="47" customWidth="1"/>
+    <col min="3" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -15357,7 +15338,7 @@
         <v>43790</v>
       </c>
       <c r="E257" s="26">
-        <f t="shared" ref="E257:E294" si="4">D257-C257</f>
+        <f t="shared" ref="E257:E296" si="4">D257-C257</f>
         <v>246</v>
       </c>
       <c r="F257" s="25" t="s">
@@ -16311,25 +16292,71 @@
       </c>
       <c r="H294" s="26"/>
     </row>
+    <row r="295" spans="1:8" s="4" customFormat="1">
+      <c r="A295" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="B295" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C295" s="24">
+        <v>43752</v>
+      </c>
+      <c r="D295" s="24">
+        <v>43823</v>
+      </c>
+      <c r="E295" s="26">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="F295" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G295" s="1"/>
+      <c r="H295" s="6"/>
+    </row>
+    <row r="296" spans="1:8" s="28" customFormat="1">
+      <c r="A296" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="B296" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="C296" s="24">
+        <v>43797</v>
+      </c>
+      <c r="D296" s="24">
+        <v>43823</v>
+      </c>
+      <c r="E296" s="26">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="F296" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G296" s="26"/>
+      <c r="H296" s="26"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J55" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="J64" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="J68" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="J70" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="J78" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="J80" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="J99" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="J111" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="J119" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="J140" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="J158" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="J203" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="J220" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="J275" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="J55" r:id="rId1"/>
+    <hyperlink ref="J64" r:id="rId2"/>
+    <hyperlink ref="J68" r:id="rId3"/>
+    <hyperlink ref="J70" r:id="rId4"/>
+    <hyperlink ref="J78" r:id="rId5"/>
+    <hyperlink ref="J80" r:id="rId6"/>
+    <hyperlink ref="J99" r:id="rId7"/>
+    <hyperlink ref="J111" r:id="rId8"/>
+    <hyperlink ref="J119" r:id="rId9"/>
+    <hyperlink ref="J140" r:id="rId10"/>
+    <hyperlink ref="J158" r:id="rId11"/>
+    <hyperlink ref="J203" r:id="rId12"/>
+    <hyperlink ref="J220" r:id="rId13"/>
+    <hyperlink ref="J275" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -16338,12 +16365,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -16351,35 +16378,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z119"/>
   <sheetViews>
     <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="3" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="1"/>
-    <col min="10" max="10" width="9.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1"/>
-    <col min="12" max="15" width="8.6640625" style="3"/>
-    <col min="16" max="16" width="8.6640625" style="1"/>
-    <col min="17" max="17" width="9.1640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" style="1"/>
-    <col min="19" max="19" width="9.1640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" style="1"/>
-    <col min="21" max="21" width="9.1640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" style="3"/>
-    <col min="23" max="23" width="8.83203125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="8.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="1"/>
+    <col min="10" max="10" width="9.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="1"/>
+    <col min="12" max="15" width="8.7109375" style="3"/>
+    <col min="16" max="16" width="8.7109375" style="1"/>
+    <col min="17" max="17" width="9.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" style="1"/>
+    <col min="19" max="19" width="9.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="1"/>
+    <col min="21" max="21" width="9.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" style="3"/>
+    <col min="23" max="23" width="8.85546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -18177,7 +18204,7 @@
         <v>65.686101520780824</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="16">
+    <row r="26" spans="1:25">
       <c r="A26" s="78" t="s">
         <v>420</v>
       </c>

--- a/generateEXCEL/Data/Members/GroupRecord.xlsx
+++ b/generateEXCEL/Data/Members/GroupRecord.xlsx
@@ -3856,8 +3856,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A128" activeCellId="0" sqref="A128"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B127" activeCellId="0" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6256,7 +6256,7 @@
   <dimension ref="A1:J302"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A269" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E304" activeCellId="0" sqref="E304"/>
+      <selection pane="topLeft" activeCell="B304" activeCellId="0" sqref="B304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/generateEXCEL/Data/Members/GroupRecord.xlsx
+++ b/generateEXCEL/Data/Members/GroupRecord.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="900">
   <si>
     <t xml:space="preserve">wisdompeak</t>
   </si>
@@ -1065,6 +1065,21 @@
   </si>
   <si>
     <t xml:space="preserve">ZhuYamei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kealyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">向大腿们学习</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lichunzhu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbbblues</t>
   </si>
   <si>
     <t xml:space="preserve">任国庆</t>
@@ -4016,8 +4031,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A141" activeCellId="0" sqref="A141"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A108" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B141" activeCellId="0" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6631,8 +6646,48 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="C139" s="1" t="n">
+        <v>43841</v>
+      </c>
+      <c r="F139" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C140" s="1" t="n">
+        <v>43841</v>
+      </c>
+      <c r="F140" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C141" s="1" t="n">
+        <v>43841</v>
+      </c>
+      <c r="F141" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
     <row r="351" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6685,7 +6740,7 @@
   <dimension ref="A1:J306"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A273" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E305" activeCellId="0" sqref="E305"/>
+      <selection pane="topLeft" activeCell="B308" activeCellId="0" sqref="B308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6702,10 +6757,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C1" s="23" t="n">
         <v>43345</v>
@@ -6725,10 +6780,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C2" s="23" t="n">
         <v>43346</v>
@@ -6748,10 +6803,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C3" s="23" t="n">
         <v>43345</v>
@@ -6771,10 +6826,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C4" s="23" t="n">
         <v>43352</v>
@@ -6794,10 +6849,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C5" s="23" t="n">
         <v>43346</v>
@@ -6817,10 +6872,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="30" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C6" s="23" t="n">
         <v>43349</v>
@@ -6840,10 +6895,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="33" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C7" s="23" t="n">
         <v>43345</v>
@@ -6863,10 +6918,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C8" s="23" t="n">
         <v>43349</v>
@@ -6886,10 +6941,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="30" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C9" s="23" t="n">
         <v>43345</v>
@@ -6909,10 +6964,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="30" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C10" s="23" t="n">
         <v>43352</v>
@@ -6932,10 +6987,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="33" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C11" s="23" t="n">
         <v>43345</v>
@@ -6957,10 +7012,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="33" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C12" s="23" t="n">
         <v>43354</v>
@@ -6980,10 +7035,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="30" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C13" s="23" t="n">
         <v>43359</v>
@@ -7003,10 +7058,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="30" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C14" s="23" t="n">
         <v>43359</v>
@@ -7026,10 +7081,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C15" s="23" t="n">
         <v>43358</v>
@@ -7049,10 +7104,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="33" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C16" s="23" t="n">
         <v>43349</v>
@@ -7072,10 +7127,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="30" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C17" s="23" t="n">
         <v>43365</v>
@@ -7095,10 +7150,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="33" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C18" s="23" t="n">
         <v>43369</v>
@@ -7118,10 +7173,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="33" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C19" s="23" t="n">
         <v>43375</v>
@@ -7141,10 +7196,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="30" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C20" s="23" t="n">
         <v>43379</v>
@@ -7164,10 +7219,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="33" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C21" s="23" t="n">
         <v>43379</v>
@@ -7187,10 +7242,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="30" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C22" s="23" t="n">
         <v>43352</v>
@@ -7210,10 +7265,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="30" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C23" s="23" t="n">
         <v>43379</v>
@@ -7233,10 +7288,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="33" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C24" s="23" t="n">
         <v>43368</v>
@@ -7256,10 +7311,10 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="30" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C25" s="23" t="n">
         <v>43365</v>
@@ -7282,7 +7337,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C26" s="23" t="n">
         <v>43369</v>
@@ -7302,10 +7357,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="30" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C27" s="23" t="n">
         <v>43352</v>
@@ -7327,10 +7382,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="30" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C28" s="23" t="n">
         <v>43352</v>
@@ -7350,10 +7405,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="30" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C29" s="23" t="n">
         <v>43362</v>
@@ -7373,10 +7428,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="33" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C30" s="23" t="n">
         <v>43355</v>
@@ -7396,10 +7451,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="33" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C31" s="23" t="n">
         <v>43345</v>
@@ -7419,10 +7474,10 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="30" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C32" s="23" t="n">
         <v>43358</v>
@@ -7442,10 +7497,10 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="33" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C33" s="23" t="n">
         <v>43362</v>
@@ -7465,10 +7520,10 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="33" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="C34" s="23" t="n">
         <v>43362</v>
@@ -7488,10 +7543,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="30" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C35" s="23" t="n">
         <v>43400</v>
@@ -7511,10 +7566,10 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="33" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C36" s="23" t="n">
         <v>43402</v>
@@ -7534,10 +7589,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="33" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C37" s="23" t="n">
         <v>43345</v>
@@ -7557,10 +7612,10 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="30" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C38" s="23" t="n">
         <v>43408</v>
@@ -7582,10 +7637,10 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="30" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C39" s="23" t="n">
         <v>43352</v>
@@ -7605,10 +7660,10 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="33" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C40" s="23" t="n">
         <v>43386</v>
@@ -7621,7 +7676,7 @@
         <v>36</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="G40" s="33"/>
       <c r="H40" s="7"/>
@@ -7630,10 +7685,10 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="30" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C41" s="23" t="n">
         <v>43345</v>
@@ -7653,10 +7708,10 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="30" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C42" s="23" t="n">
         <v>43345</v>
@@ -7676,10 +7731,10 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="30" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C43" s="23" t="n">
         <v>43404</v>
@@ -7698,17 +7753,17 @@
         <v>109</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="30" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C44" s="23" t="n">
         <v>43380</v>
@@ -7730,10 +7785,10 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="33" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C45" s="23" t="n">
         <v>43345</v>
@@ -7753,10 +7808,10 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="30" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C46" s="23" t="n">
         <v>43398</v>
@@ -7778,10 +7833,10 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="33" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C47" s="23" t="n">
         <v>43443</v>
@@ -7794,10 +7849,10 @@
         <v>7</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="5"/>
@@ -7805,10 +7860,10 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="30" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C48" s="23" t="n">
         <v>43345</v>
@@ -7822,7 +7877,7 @@
       </c>
       <c r="F48" s="25"/>
       <c r="G48" s="24" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="33"/>
@@ -7855,10 +7910,10 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="33" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C50" s="23" t="n">
         <v>43426</v>
@@ -7871,7 +7926,7 @@
         <v>42</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="G50" s="25"/>
       <c r="H50" s="7"/>
@@ -7880,10 +7935,10 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="33" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C51" s="23" t="n">
         <v>43415</v>
@@ -7905,10 +7960,10 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="33" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C52" s="23" t="n">
         <v>43352</v>
@@ -7930,10 +7985,10 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="33" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C53" s="23" t="n">
         <v>43452</v>
@@ -7955,10 +8010,10 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="33" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C54" s="23" t="n">
         <v>43464</v>
@@ -7971,7 +8026,7 @@
         <v>12</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G54" s="33"/>
       <c r="H54" s="25"/>
@@ -7980,10 +8035,10 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="41" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C55" s="23" t="n">
         <v>43441</v>
@@ -8002,7 +8057,7 @@
       <c r="H55" s="7"/>
       <c r="I55" s="5"/>
       <c r="J55" s="42" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8010,7 +8065,7 @@
         <v>21</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C56" s="23" t="n">
         <v>43352</v>
@@ -8034,10 +8089,10 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="33" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C57" s="23" t="n">
         <v>43431</v>
@@ -8050,7 +8105,7 @@
         <v>60</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
@@ -8059,10 +8114,10 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="33" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C58" s="23" t="n">
         <v>43469</v>
@@ -8075,7 +8130,7 @@
         <v>24</v>
       </c>
       <c r="F58" s="43" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="G58" s="25" t="s">
         <v>34</v>
@@ -8086,10 +8141,10 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="30" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C59" s="23" t="n">
         <v>43467</v>
@@ -8105,7 +8160,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="H59" s="25"/>
       <c r="I59" s="33"/>
@@ -8113,10 +8168,10 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="33" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C60" s="23" t="n">
         <v>43493</v>
@@ -8129,7 +8184,7 @@
         <v>4</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
@@ -8138,10 +8193,10 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="41" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C61" s="23" t="n">
         <v>43451</v>
@@ -8154,7 +8209,7 @@
         <v>48</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
@@ -8163,10 +8218,10 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="44" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C62" s="23" t="n">
         <v>43497</v>
@@ -8179,7 +8234,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
@@ -8188,10 +8243,10 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="30" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C63" s="23" t="n">
         <v>43346</v>
@@ -8233,7 +8288,7 @@
       <c r="H64" s="25"/>
       <c r="I64" s="33"/>
       <c r="J64" s="42" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8257,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="H65" s="25"/>
       <c r="I65" s="33"/>
@@ -8265,7 +8320,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="33" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B66" s="31" t="s">
         <v>328</v>
@@ -8281,7 +8336,7 @@
         <v>60</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="G66" s="25" t="s">
         <v>34</v>
@@ -8292,10 +8347,10 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="33" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C67" s="23" t="n">
         <v>43346</v>
@@ -8331,25 +8386,25 @@
         <v>74</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="H68" s="36" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I68" s="33"/>
       <c r="J68" s="45" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="30" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C69" s="23" t="n">
         <v>43423</v>
@@ -8365,17 +8420,17 @@
         <v>0</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="I69" s="33"/>
       <c r="J69" s="33"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="30" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C70" s="23" t="n">
         <v>43442</v>
@@ -8396,15 +8451,15 @@
       <c r="H70" s="25"/>
       <c r="I70" s="33"/>
       <c r="J70" s="42" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="30" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="C71" s="23" t="n">
         <v>43345</v>
@@ -8421,17 +8476,17 @@
         <v>1</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="I71" s="33"/>
       <c r="J71" s="33"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="33" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C72" s="23" t="n">
         <v>43509</v>
@@ -8453,10 +8508,10 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="33" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C73" s="23" t="n">
         <v>43414</v>
@@ -8480,10 +8535,10 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="30" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C74" s="23" t="n">
         <v>43350</v>
@@ -8503,10 +8558,10 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="33" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C75" s="23" t="n">
         <v>43352</v>
@@ -8528,10 +8583,10 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="41" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C76" s="23" t="n">
         <v>43452</v>
@@ -8547,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="25" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="H76" s="25"/>
       <c r="I76" s="33"/>
@@ -8555,10 +8610,10 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="30" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C77" s="23" t="n">
         <v>43345</v>
@@ -8572,17 +8627,17 @@
       </c>
       <c r="F77" s="25"/>
       <c r="H77" s="36" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="I77" s="33"/>
       <c r="J77" s="33"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="33" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C78" s="23" t="n">
         <v>43453</v>
@@ -8603,15 +8658,15 @@
       <c r="H78" s="25"/>
       <c r="I78" s="33"/>
       <c r="J78" s="42" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="30" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C79" s="23" t="n">
         <v>43469</v>
@@ -8624,7 +8679,7 @@
         <v>62</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G79" s="25" t="s">
         <v>1</v>
@@ -8635,10 +8690,10 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="33" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C80" s="23" t="n">
         <v>43436</v>
@@ -8651,21 +8706,21 @@
         <v>95</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
       <c r="I80" s="33"/>
       <c r="J80" s="45" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="44" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C81" s="23" t="n">
         <v>43527</v>
@@ -8678,7 +8733,7 @@
         <v>5</v>
       </c>
       <c r="F81" s="46" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="G81" s="25" t="s">
         <v>1</v>
@@ -8689,10 +8744,10 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="30" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C82" s="23" t="n">
         <v>43368</v>
@@ -8705,7 +8760,7 @@
         <v>164</v>
       </c>
       <c r="F82" s="43" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
@@ -8714,10 +8769,10 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="33" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C83" s="23" t="n">
         <v>43487</v>
@@ -8730,7 +8785,7 @@
         <v>46</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
@@ -8739,10 +8794,10 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="33" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C84" s="23" t="n">
         <v>43478</v>
@@ -8755,7 +8810,7 @@
         <v>56</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
@@ -8764,10 +8819,10 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="44" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C85" s="23" t="n">
         <v>43509</v>
@@ -8789,10 +8844,10 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="30" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C86" s="23" t="n">
         <v>43448</v>
@@ -8805,7 +8860,7 @@
         <v>91</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="G86" s="25" t="s">
         <v>34</v>
@@ -8816,10 +8871,10 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="44" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C87" s="23" t="n">
         <v>43523</v>
@@ -8841,10 +8896,10 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="30" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C88" s="23" t="n">
         <v>43434</v>
@@ -8866,10 +8921,10 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="30" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C89" s="23" t="n">
         <v>43379</v>
@@ -8885,20 +8940,20 @@
         <v>0</v>
       </c>
       <c r="G89" s="25" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="H89" s="36" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I89" s="33"/>
       <c r="J89" s="33"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="33" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C90" s="23" t="n">
         <v>43526</v>
@@ -8920,10 +8975,10 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="30" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="C91" s="23" t="n">
         <v>43485</v>
@@ -8947,10 +9002,10 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="33" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C92" s="23" t="n">
         <v>43467</v>
@@ -8972,10 +9027,10 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="33" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C93" s="23" t="n">
         <v>43494</v>
@@ -8988,23 +9043,23 @@
         <v>52</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="G93" s="25" t="s">
         <v>34</v>
       </c>
       <c r="H93" s="36" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I93" s="33"/>
       <c r="J93" s="33"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="30" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C94" s="23" t="n">
         <v>43532</v>
@@ -9017,7 +9072,7 @@
         <v>15</v>
       </c>
       <c r="F94" s="36" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="G94" s="25"/>
       <c r="H94" s="25"/>
@@ -9026,10 +9081,10 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="30" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C95" s="23" t="n">
         <v>43544</v>
@@ -9051,10 +9106,10 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="44" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C96" s="23" t="n">
         <v>43510</v>
@@ -9067,7 +9122,7 @@
         <v>38</v>
       </c>
       <c r="F96" s="37" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="G96" s="25"/>
       <c r="H96" s="25"/>
@@ -9076,10 +9131,10 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="33" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="C97" s="23" t="n">
         <v>43386</v>
@@ -9092,10 +9147,10 @@
         <v>165</v>
       </c>
       <c r="F97" s="43" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="G97" s="36" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="H97" s="25"/>
       <c r="I97" s="33"/>
@@ -9103,10 +9158,10 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="44" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="C98" s="23" t="n">
         <v>43544</v>
@@ -9128,10 +9183,10 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="30" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C99" s="23" t="n">
         <v>43441</v>
@@ -9144,7 +9199,7 @@
         <v>115</v>
       </c>
       <c r="F99" s="24" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="G99" s="25" t="s">
         <v>1</v>
@@ -9152,15 +9207,15 @@
       <c r="H99" s="25"/>
       <c r="I99" s="33"/>
       <c r="J99" s="42" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="33" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="C100" s="23" t="n">
         <v>43544</v>
@@ -9182,10 +9237,10 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="30" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="C101" s="23" t="n">
         <v>43535</v>
@@ -9209,10 +9264,10 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="33" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C102" s="23" t="n">
         <v>43491</v>
@@ -9225,7 +9280,7 @@
         <v>72</v>
       </c>
       <c r="F102" s="43" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="G102" s="25"/>
       <c r="H102" s="25"/>
@@ -9234,10 +9289,10 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="33" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="C103" s="23" t="n">
         <v>43545</v>
@@ -9262,7 +9317,7 @@
         <v>142</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="C104" s="23" t="n">
         <v>43544</v>
@@ -9309,10 +9364,10 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="33" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C106" s="23" t="n">
         <v>43520</v>
@@ -9334,10 +9389,10 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="33" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="C107" s="23" t="n">
         <v>43544</v>
@@ -9356,17 +9411,17 @@
         <v>34</v>
       </c>
       <c r="H107" s="36" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I107" s="33"/>
       <c r="J107" s="33"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="33" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="C108" s="23" t="n">
         <v>43346</v>
@@ -9404,7 +9459,7 @@
         <v>102</v>
       </c>
       <c r="F109" s="24" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="G109" s="25" t="s">
         <v>97</v>
@@ -9415,10 +9470,10 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="33" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C110" s="23" t="n">
         <v>43540</v>
@@ -9442,10 +9497,10 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="30" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B111" s="40" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="C111" s="23" t="n">
         <v>43463</v>
@@ -9466,15 +9521,15 @@
       <c r="H111" s="25"/>
       <c r="I111" s="33"/>
       <c r="J111" s="45" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="33" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="C112" s="23" t="n">
         <v>43544</v>
@@ -9496,10 +9551,10 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="30" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C113" s="23" t="n">
         <v>43484</v>
@@ -9523,10 +9578,10 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="33" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="C114" s="23" t="n">
         <v>43442</v>
@@ -9539,23 +9594,23 @@
         <v>133</v>
       </c>
       <c r="F114" s="25" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="G114" s="25" t="s">
         <v>34</v>
       </c>
       <c r="H114" s="36" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I114" s="33"/>
       <c r="J114" s="33"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="44" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="C115" s="23" t="n">
         <v>43526</v>
@@ -9568,23 +9623,23 @@
         <v>49</v>
       </c>
       <c r="F115" s="24" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="G115" s="25" t="s">
         <v>109</v>
       </c>
       <c r="H115" s="36" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I115" s="33"/>
       <c r="J115" s="33"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="44" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="C116" s="23" t="n">
         <v>43572</v>
@@ -9606,10 +9661,10 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="30" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="C117" s="23" t="n">
         <v>43544</v>
@@ -9633,10 +9688,10 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="33" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B118" s="31" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="C118" s="23" t="n">
         <v>43543</v>
@@ -9652,7 +9707,7 @@
         <v>0</v>
       </c>
       <c r="G118" s="25" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="H118" s="25"/>
       <c r="I118" s="33"/>
@@ -9660,10 +9715,10 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="30" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C119" s="23" t="n">
         <v>43421</v>
@@ -9676,7 +9731,7 @@
         <v>161</v>
       </c>
       <c r="F119" s="24" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="G119" s="25" t="s">
         <v>34</v>
@@ -9684,7 +9739,7 @@
       <c r="H119" s="25"/>
       <c r="I119" s="33"/>
       <c r="J119" s="42" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9705,7 +9760,7 @@
         <v>228</v>
       </c>
       <c r="F120" s="25" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="G120" s="25" t="s">
         <v>61</v>
@@ -9716,10 +9771,10 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="44" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="C121" s="23" t="n">
         <v>43517</v>
@@ -9732,7 +9787,7 @@
         <v>66</v>
       </c>
       <c r="F121" s="25" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="G121" s="25" t="s">
         <v>47</v>
@@ -9743,10 +9798,10 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="33" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="C122" s="23" t="n">
         <v>43396</v>
@@ -9759,10 +9814,10 @@
         <v>188</v>
       </c>
       <c r="F122" s="24" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="G122" s="25" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="H122" s="25"/>
       <c r="I122" s="33"/>
@@ -9770,10 +9825,10 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="30" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="C123" s="23" t="n">
         <v>43573</v>
@@ -9797,10 +9852,10 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="44" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B124" s="31" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="C124" s="23" t="n">
         <v>43569</v>
@@ -9822,10 +9877,10 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="33" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B125" s="31" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="C125" s="23" t="n">
         <v>43544</v>
@@ -9847,10 +9902,10 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="44" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="B126" s="31" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="C126" s="23" t="n">
         <v>43555</v>
@@ -9922,10 +9977,10 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="33" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="C129" s="23" t="n">
         <v>43577</v>
@@ -9941,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="25" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="H129" s="25"/>
       <c r="I129" s="33"/>
@@ -9949,10 +10004,10 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="44" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="C130" s="23" t="n">
         <v>43548</v>
@@ -9965,7 +10020,7 @@
         <v>46</v>
       </c>
       <c r="F130" s="36" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="G130" s="25" t="s">
         <v>61</v>
@@ -9976,10 +10031,10 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="44" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="C131" s="23" t="n">
         <v>43558</v>
@@ -10001,7 +10056,7 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="44" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="B132" s="40" t="n">
         <v>1373757850</v>
@@ -10020,7 +10075,7 @@
         <v>0</v>
       </c>
       <c r="G132" s="25" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="H132" s="25"/>
       <c r="I132" s="33"/>
@@ -10028,10 +10083,10 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="33" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="C133" s="23" t="n">
         <v>43541</v>
@@ -10053,10 +10108,10 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="30" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B134" s="31" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="C134" s="23" t="n">
         <v>43381</v>
@@ -10072,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="G134" s="25" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="H134" s="25"/>
       <c r="I134" s="33"/>
@@ -10080,10 +10135,10 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="33" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="B135" s="31" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="C135" s="23" t="n">
         <v>43449</v>
@@ -10096,7 +10151,7 @@
         <v>147</v>
       </c>
       <c r="F135" s="25" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="G135" s="25"/>
       <c r="H135" s="25"/>
@@ -10105,10 +10160,10 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="33" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="C136" s="23" t="n">
         <v>43398</v>
@@ -10132,10 +10187,10 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="44" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C137" s="23" t="n">
         <v>43584</v>
@@ -10157,10 +10212,10 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="33" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="C138" s="23" t="n">
         <v>43572</v>
@@ -10182,10 +10237,10 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="30" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C139" s="23" t="n">
         <v>43577</v>
@@ -10207,10 +10262,10 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="33" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="C140" s="23" t="n">
         <v>43469</v>
@@ -10229,15 +10284,15 @@
       <c r="H140" s="7"/>
       <c r="I140" s="5"/>
       <c r="J140" s="8" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="44" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="C141" s="23" t="n">
         <v>43527</v>
@@ -10250,7 +10305,7 @@
         <v>76</v>
       </c>
       <c r="F141" s="24" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="7"/>
@@ -10259,10 +10314,10 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="33" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="C142" s="23" t="n">
         <v>43587</v>
@@ -10284,10 +10339,10 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="44" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="C143" s="23" t="n">
         <v>43544</v>
@@ -10303,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="G143" s="25" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="H143" s="25"/>
       <c r="I143" s="33"/>
@@ -10311,10 +10366,10 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="30" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="C144" s="23" t="n">
         <v>43605</v>
@@ -10330,16 +10385,16 @@
         <v>0</v>
       </c>
       <c r="G144" s="25" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="H144" s="4"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="33" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="C145" s="23" t="n">
         <v>43544</v>
@@ -10355,7 +10410,7 @@
         <v>64</v>
       </c>
       <c r="G145" s="25" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="H145" s="25"/>
       <c r="I145" s="33"/>
@@ -10363,10 +10418,10 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="44" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="C146" s="23" t="n">
         <v>43527</v>
@@ -10388,10 +10443,10 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="33" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="C147" s="23" t="n">
         <v>43591</v>
@@ -10413,10 +10468,10 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="44" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="C148" s="23" t="n">
         <v>43548</v>
@@ -10438,10 +10493,10 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="33" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C149" s="23" t="n">
         <v>43541</v>
@@ -10454,23 +10509,23 @@
         <v>76</v>
       </c>
       <c r="F149" s="25" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="G149" s="25" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="H149" s="36" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I149" s="33"/>
       <c r="J149" s="33"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="44" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="C150" s="23" t="n">
         <v>43594</v>
@@ -10492,10 +10547,10 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="33" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="C151" s="23" t="n">
         <v>43613</v>
@@ -10517,10 +10572,10 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="30" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B152" s="31" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C152" s="23" t="n">
         <v>43561</v>
@@ -10533,23 +10588,23 @@
         <v>57</v>
       </c>
       <c r="F152" s="25" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="G152" s="25" t="s">
         <v>34</v>
       </c>
       <c r="H152" s="36" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I152" s="33"/>
       <c r="J152" s="33"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="30" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="B153" s="31" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="C153" s="23" t="n">
         <v>43352</v>
@@ -10573,10 +10628,10 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="33" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="B154" s="31" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="C154" s="23" t="n">
         <v>43568</v>
@@ -10600,10 +10655,10 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="33" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="C155" s="23" t="n">
         <v>43591</v>
@@ -10625,10 +10680,10 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="33" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="C156" s="23" t="n">
         <v>43550</v>
@@ -10641,7 +10696,7 @@
         <v>74</v>
       </c>
       <c r="F156" s="24" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="G156" s="25"/>
       <c r="H156" s="25"/>
@@ -10650,10 +10705,10 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="30" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="C157" s="23" t="n">
         <v>43597</v>
@@ -10675,10 +10730,10 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="33" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="C158" s="23" t="n">
         <v>43386</v>
@@ -10691,7 +10746,7 @@
         <v>239</v>
       </c>
       <c r="F158" s="43" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="G158" s="25" t="s">
         <v>47</v>
@@ -10699,15 +10754,15 @@
       <c r="H158" s="7"/>
       <c r="I158" s="5"/>
       <c r="J158" s="12" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="41" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B159" s="40" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C159" s="23" t="n">
         <v>43590</v>
@@ -10729,10 +10784,10 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="44" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="C160" s="23" t="n">
         <v>43591</v>
@@ -10754,10 +10809,10 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="44" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B161" s="31" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="C161" s="23" t="n">
         <v>43594</v>
@@ -10779,10 +10834,10 @@
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="44" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="B162" s="31" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="C162" s="23" t="n">
         <v>43631</v>
@@ -10831,10 +10886,10 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="33" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="C164" s="23" t="n">
         <v>43545</v>
@@ -10856,10 +10911,10 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="30" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B165" s="31" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C165" s="23" t="n">
         <v>43621</v>
@@ -10872,7 +10927,7 @@
         <v>22</v>
       </c>
       <c r="F165" s="24" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="G165" s="25" t="s">
         <v>1</v>
@@ -10883,10 +10938,10 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="30" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C166" s="23" t="n">
         <v>43488</v>
@@ -10902,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="G166" s="25" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="H166" s="7"/>
       <c r="I166" s="5"/>
@@ -10910,10 +10965,10 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="44" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="C167" s="23" t="n">
         <v>43628</v>
@@ -10935,10 +10990,10 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="33" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="C168" s="23" t="n">
         <v>43512</v>
@@ -10951,7 +11006,7 @@
         <v>133</v>
       </c>
       <c r="F168" s="37" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="G168" s="25"/>
       <c r="H168" s="25"/>
@@ -10960,10 +11015,10 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="49" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B169" s="50" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="C169" s="23" t="n">
         <v>43630</v>
@@ -10976,7 +11031,7 @@
         <v>15</v>
       </c>
       <c r="F169" s="25" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="G169" s="25"/>
       <c r="H169" s="25"/>
@@ -11012,10 +11067,10 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="33" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="B171" s="31" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="C171" s="23" t="n">
         <v>43575</v>
@@ -11035,10 +11090,10 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="33" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="B172" s="31" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="C172" s="23" t="n">
         <v>43548</v>
@@ -11051,10 +11106,10 @@
         <v>109</v>
       </c>
       <c r="F172" s="36" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="G172" s="25" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="H172" s="25"/>
       <c r="I172" s="33"/>
@@ -11062,10 +11117,10 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="33" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="B173" s="31" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="C173" s="23" t="n">
         <v>43617</v>
@@ -11078,23 +11133,23 @@
         <v>42</v>
       </c>
       <c r="F173" s="46" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="G173" s="25" t="s">
         <v>1</v>
       </c>
       <c r="H173" s="25" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="I173" s="33"/>
       <c r="J173" s="33"/>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="33" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="B174" s="31" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="C174" s="23" t="n">
         <v>43620</v>
@@ -11110,7 +11165,7 @@
         <v>0</v>
       </c>
       <c r="G174" s="25" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="H174" s="25"/>
       <c r="I174" s="33"/>
@@ -11118,10 +11173,10 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="33" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B175" s="31" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C175" s="23" t="n">
         <v>43477</v>
@@ -11134,7 +11189,7 @@
         <v>182</v>
       </c>
       <c r="F175" s="25" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G175" s="25"/>
       <c r="H175" s="25"/>
@@ -11170,10 +11225,10 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="33" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="B177" s="31" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="C177" s="23" t="n">
         <v>43632</v>
@@ -11195,10 +11250,10 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="33" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="B178" s="31" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="C178" s="23" t="n">
         <v>43398</v>
@@ -11217,17 +11272,17 @@
         <v>34</v>
       </c>
       <c r="H178" s="36" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I178" s="33"/>
       <c r="J178" s="33"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="44" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="B179" s="31" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="C179" s="23" t="n">
         <v>43576</v>
@@ -11251,10 +11306,10 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="49" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="B180" s="31" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="C180" s="23" t="n">
         <v>43665</v>
@@ -11267,7 +11322,7 @@
         <v>1</v>
       </c>
       <c r="F180" s="24" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="7"/>
@@ -11276,10 +11331,10 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="44" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="B181" s="31" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C181" s="23" t="n">
         <v>43544</v>
@@ -11298,14 +11353,14 @@
         <v>1</v>
       </c>
       <c r="H181" s="25" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="I181" s="33"/>
       <c r="J181" s="33"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="44" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="B182" s="40" t="n">
         <v>1373757850</v>
@@ -11324,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="G182" s="25" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="H182" s="25"/>
       <c r="I182" s="33"/>
@@ -11332,10 +11387,10 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="33" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="C183" s="23" t="n">
         <v>43539</v>
@@ -11357,10 +11412,10 @@
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="33" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="B184" s="31" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="C184" s="23" t="n">
         <v>43345</v>
@@ -11382,10 +11437,10 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="33" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="B185" s="31" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="C185" s="23" t="n">
         <v>43619</v>
@@ -11407,10 +11462,10 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="44" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="B186" s="31" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="C186" s="23" t="n">
         <v>43632</v>
@@ -11426,7 +11481,7 @@
         <v>0</v>
       </c>
       <c r="G186" s="25" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="H186" s="25"/>
       <c r="I186" s="33"/>
@@ -11459,10 +11514,10 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="33" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B188" s="31" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C188" s="23" t="n">
         <v>43638</v>
@@ -11484,10 +11539,10 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="44" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="B189" s="31" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="C189" s="23" t="n">
         <v>43579</v>
@@ -11506,17 +11561,17 @@
         <v>7</v>
       </c>
       <c r="H189" s="36" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I189" s="33"/>
       <c r="J189" s="33"/>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="49" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="B190" s="31" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="C190" s="23" t="n">
         <v>43673</v>
@@ -11529,7 +11584,7 @@
         <v>21</v>
       </c>
       <c r="F190" s="46" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="G190" s="25"/>
       <c r="H190" s="47"/>
@@ -11538,10 +11593,10 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="33" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B191" s="31" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="C191" s="23" t="n">
         <v>43578</v>
@@ -11565,10 +11620,10 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="33" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="B192" s="31" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="C192" s="23" t="n">
         <v>43602</v>
@@ -11585,17 +11640,17 @@
       </c>
       <c r="G192" s="25"/>
       <c r="H192" s="25" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="I192" s="33"/>
       <c r="J192" s="33"/>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="44" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="B193" s="31" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="C193" s="23" t="n">
         <v>43682</v>
@@ -11608,7 +11663,7 @@
         <v>13</v>
       </c>
       <c r="F193" s="46" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="G193" s="25"/>
       <c r="H193" s="25"/>
@@ -11620,7 +11675,7 @@
         <v>90</v>
       </c>
       <c r="B194" s="31" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="C194" s="23" t="n">
         <v>43544</v>
@@ -11636,17 +11691,17 @@
         <v>0</v>
       </c>
       <c r="H194" s="25" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="I194" s="33"/>
       <c r="J194" s="33"/>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="44" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="B195" s="31" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="C195" s="23" t="n">
         <v>43688</v>
@@ -11668,10 +11723,10 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="49" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="B196" s="31" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="C196" s="23" t="n">
         <v>43653</v>
@@ -11695,10 +11750,10 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="49" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="B197" s="31" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="C197" s="23" t="n">
         <v>43668</v>
@@ -11720,10 +11775,10 @@
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="33" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="B198" s="31" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="C198" s="23" t="n">
         <v>43618</v>
@@ -11745,10 +11800,10 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="44" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="B199" s="31" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="C199" s="23" t="n">
         <v>43587</v>
@@ -11770,10 +11825,10 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="49" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="B200" s="40" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="C200" s="23" t="n">
         <v>43624</v>
@@ -11786,20 +11841,20 @@
         <v>76</v>
       </c>
       <c r="F200" s="24" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="H200" s="25" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="I200" s="33"/>
       <c r="J200" s="33"/>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="49" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="B201" s="31" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="C201" s="23" t="n">
         <v>43685</v>
@@ -11823,10 +11878,10 @@
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="49" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="B202" s="40" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="C202" s="23" t="n">
         <v>43626</v>
@@ -11848,10 +11903,10 @@
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="33" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="B203" s="31" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="C203" s="23" t="n">
         <v>43361</v>
@@ -11867,12 +11922,12 @@
         <v>0</v>
       </c>
       <c r="G203" s="25" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="H203" s="25"/>
       <c r="I203" s="33"/>
       <c r="J203" s="42" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11893,7 +11948,7 @@
         <v>83</v>
       </c>
       <c r="F204" s="25" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="G204" s="25" t="s">
         <v>1</v>
@@ -11904,10 +11959,10 @@
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="44" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="B205" s="31" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="C205" s="23" t="n">
         <v>43640</v>
@@ -11920,7 +11975,7 @@
         <v>68</v>
       </c>
       <c r="F205" s="36" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="G205" s="25"/>
       <c r="H205" s="25"/>
@@ -11929,10 +11984,10 @@
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="41" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="B206" s="40" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="C206" s="23" t="n">
         <v>43622</v>
@@ -11945,7 +12000,7 @@
         <v>86</v>
       </c>
       <c r="F206" s="36" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="G206" s="25"/>
       <c r="H206" s="25"/>
@@ -11954,10 +12009,10 @@
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="44" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="B207" s="31" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="C207" s="23" t="n">
         <v>43630</v>
@@ -11979,10 +12034,10 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="49" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B208" s="31" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="C208" s="23" t="n">
         <v>43647</v>
@@ -12004,10 +12059,10 @@
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="44" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="B209" s="31" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="C209" s="23" t="n">
         <v>43522</v>
@@ -12020,7 +12075,7 @@
         <v>188</v>
       </c>
       <c r="F209" s="25" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="G209" s="25"/>
       <c r="H209" s="25"/>
@@ -12056,10 +12111,10 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="33" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="B211" s="31" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="C211" s="23" t="n">
         <v>43598</v>
@@ -12072,10 +12127,10 @@
         <v>114</v>
       </c>
       <c r="F211" s="24" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="G211" s="25" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="H211" s="25"/>
       <c r="I211" s="33"/>
@@ -12083,10 +12138,10 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="49" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="B212" s="40" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="C212" s="23" t="n">
         <v>43622</v>
@@ -12110,10 +12165,10 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="44" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="B213" s="31" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="C213" s="23" t="n">
         <v>43688</v>
@@ -12135,10 +12190,10 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="44" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="B214" s="31" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="C214" s="23" t="n">
         <v>43666</v>
@@ -12160,10 +12215,10 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="33" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B215" s="31" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="C215" s="23" t="n">
         <v>43702</v>
@@ -12185,10 +12240,10 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="44" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="B216" s="40" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="C216" s="23" t="n">
         <v>43712</v>
@@ -12201,7 +12256,7 @@
         <v>15</v>
       </c>
       <c r="F216" s="46" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="G216" s="25" t="s">
         <v>109</v>
@@ -12214,10 +12269,10 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="44" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="B217" s="31" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="C217" s="23" t="n">
         <v>43709</v>
@@ -12230,7 +12285,7 @@
         <v>19</v>
       </c>
       <c r="F217" s="46" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="G217" s="25" t="s">
         <v>34</v>
@@ -12241,10 +12296,10 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="44" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="B218" s="40" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="C218" s="23" t="n">
         <v>43713</v>
@@ -12266,10 +12321,10 @@
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="49" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="B219" s="40" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="C219" s="23" t="n">
         <v>43725</v>
@@ -12282,10 +12337,10 @@
         <v>5</v>
       </c>
       <c r="F219" s="24" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="G219" s="25" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="H219" s="25"/>
       <c r="I219" s="33"/>
@@ -12293,10 +12348,10 @@
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="30" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="B220" s="31" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="C220" s="23" t="n">
         <v>43380</v>
@@ -12312,20 +12367,20 @@
         <v>0</v>
       </c>
       <c r="G220" s="25" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="H220" s="25"/>
       <c r="I220" s="33"/>
       <c r="J220" s="42" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="49" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="B221" s="40" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="C221" s="23" t="n">
         <v>43718</v>
@@ -12347,10 +12402,10 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="44" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="B222" s="40" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="C222" s="23" t="n">
         <v>43722</v>
@@ -12363,7 +12418,7 @@
         <v>13</v>
       </c>
       <c r="F222" s="46" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="G222" s="25"/>
       <c r="H222" s="25"/>
@@ -12372,10 +12427,10 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="44" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="B223" s="40" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="C223" s="23" t="n">
         <v>43731</v>
@@ -12413,7 +12468,7 @@
         <v>265</v>
       </c>
       <c r="F224" s="25" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G224" s="25" t="s">
         <v>34</v>
@@ -12424,10 +12479,10 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="30" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B225" s="31" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="C225" s="23" t="n">
         <v>43473</v>
@@ -12443,7 +12498,7 @@
         <v>0</v>
       </c>
       <c r="G225" s="25" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="H225" s="25"/>
       <c r="I225" s="33"/>
@@ -12451,10 +12506,10 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="44" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="B226" s="31" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="C226" s="23" t="n">
         <v>43698</v>
@@ -12470,7 +12525,7 @@
         <v>0</v>
       </c>
       <c r="G226" s="25" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="H226" s="25"/>
       <c r="I226" s="33"/>
@@ -12478,10 +12533,10 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="49" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="B227" s="40" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="C227" s="23" t="n">
         <v>43718</v>
@@ -12494,7 +12549,7 @@
         <v>19</v>
       </c>
       <c r="F227" s="46" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="G227" s="4"/>
       <c r="H227" s="7"/>
@@ -12503,10 +12558,10 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="51" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="B228" s="52" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="C228" s="53" t="n">
         <v>43702</v>
@@ -12528,10 +12583,10 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="30" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="B229" s="31" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="C229" s="23" t="n">
         <v>43459</v>
@@ -12553,10 +12608,10 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="49" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="B230" s="40" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="C230" s="23" t="n">
         <v>43710</v>
@@ -12578,10 +12633,10 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="49" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="B231" s="40" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C231" s="23" t="n">
         <v>43726</v>
@@ -12597,7 +12652,7 @@
         <v>137</v>
       </c>
       <c r="G231" s="25" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="H231" s="25"/>
       <c r="I231" s="33"/>
@@ -12605,10 +12660,10 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="49" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="B232" s="40" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="C232" s="23" t="n">
         <v>43739</v>
@@ -12633,7 +12688,7 @@
         <v>204</v>
       </c>
       <c r="B233" s="31" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="C233" s="23" t="n">
         <v>43681</v>
@@ -12646,7 +12701,7 @@
         <v>61</v>
       </c>
       <c r="F233" s="46" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="G233" s="25"/>
       <c r="H233" s="25"/>
@@ -12655,10 +12710,10 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="33" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="B234" s="31" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="C234" s="23" t="n">
         <v>43620</v>
@@ -12671,10 +12726,10 @@
         <v>123</v>
       </c>
       <c r="F234" s="25" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="G234" s="25" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="H234" s="25"/>
       <c r="I234" s="33"/>
@@ -12685,7 +12740,7 @@
         <v>158</v>
       </c>
       <c r="B235" s="31" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="C235" s="23" t="n">
         <v>43576</v>
@@ -12709,10 +12764,10 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="44" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B236" s="31" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="C236" s="23" t="n">
         <v>43548</v>
@@ -12734,10 +12789,10 @@
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="44" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="B237" s="40" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="C237" s="23" t="n">
         <v>43731</v>
@@ -12759,10 +12814,10 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="44" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="B238" s="40" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="C238" s="23" t="n">
         <v>43745</v>
@@ -12784,10 +12839,10 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="49" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="B239" s="31" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="C239" s="23" t="n">
         <v>43646</v>
@@ -12800,7 +12855,7 @@
         <v>104</v>
       </c>
       <c r="F239" s="55" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="G239" s="25"/>
       <c r="H239" s="25"/>
@@ -12809,10 +12864,10 @@
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="49" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="B240" s="40" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="C240" s="23" t="n">
         <v>43717</v>
@@ -12825,10 +12880,10 @@
         <v>36</v>
       </c>
       <c r="F240" s="46" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="G240" s="25" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="H240" s="25"/>
       <c r="I240" s="33"/>
@@ -12836,10 +12891,10 @@
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="44" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="B241" s="31" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="C241" s="23" t="n">
         <v>43651</v>
@@ -12863,10 +12918,10 @@
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="49" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="B242" s="40" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="C242" s="23" t="n">
         <v>43744</v>
@@ -12879,7 +12934,7 @@
         <v>20</v>
       </c>
       <c r="F242" s="46" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="G242" s="25"/>
       <c r="H242" s="25"/>
@@ -12913,10 +12968,10 @@
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="30" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="B244" s="31" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="C244" s="23" t="n">
         <v>43603</v>
@@ -12942,10 +12997,10 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="49" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="B245" s="40" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="C245" s="23" t="n">
         <v>43752</v>
@@ -12967,10 +13022,10 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="49" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="B246" s="31" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="C246" s="23" t="n">
         <v>43646</v>
@@ -12983,7 +13038,7 @@
         <v>125</v>
       </c>
       <c r="F246" s="55" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="G246" s="25"/>
       <c r="H246" s="25"/>
@@ -12992,10 +13047,10 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="44" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="B247" s="31" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="C247" s="23" t="n">
         <v>43761</v>
@@ -13008,7 +13063,7 @@
         <v>10</v>
       </c>
       <c r="F247" s="55" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="G247" s="25"/>
       <c r="H247" s="25"/>
@@ -13017,10 +13072,10 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="44" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="B248" s="31" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="C248" s="23" t="n">
         <v>43521</v>
@@ -13042,10 +13097,10 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="33" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="B249" s="31" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="C249" s="23" t="n">
         <v>43758</v>
@@ -13058,7 +13113,7 @@
         <v>15</v>
       </c>
       <c r="F249" s="36" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="G249" s="25" t="s">
         <v>34</v>
@@ -13069,10 +13124,10 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="44" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B250" s="31" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="C250" s="23" t="n">
         <v>43754</v>
@@ -13094,10 +13149,10 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="33" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="B251" s="31" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="C251" s="23" t="n">
         <v>43702</v>
@@ -13121,10 +13176,10 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="33" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="B252" s="31" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="C252" s="23" t="n">
         <v>43729</v>
@@ -13148,10 +13203,10 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="49" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="B253" s="40" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="C253" s="23" t="n">
         <v>43746</v>
@@ -13164,7 +13219,7 @@
         <v>35</v>
       </c>
       <c r="F253" s="24" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="G253" s="25"/>
       <c r="H253" s="25"/>
@@ -13173,10 +13228,10 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="33" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="B254" s="31" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="C254" s="23" t="n">
         <v>43620</v>
@@ -13198,10 +13253,10 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="44" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="B255" s="31" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="C255" s="23" t="n">
         <v>43780</v>
@@ -13214,7 +13269,7 @@
         <v>5</v>
       </c>
       <c r="F255" s="24" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="G255" s="4"/>
       <c r="H255" s="7"/>
@@ -13223,10 +13278,10 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="30" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="B256" s="31" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C256" s="23" t="n">
         <v>43416</v>
@@ -13277,10 +13332,10 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="33" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="B258" s="31" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="C258" s="23" t="n">
         <v>43690</v>
@@ -13296,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="G258" s="25" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="H258" s="25"/>
       <c r="I258" s="33"/>
@@ -13304,10 +13359,10 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="49" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="B259" s="40" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="C259" s="23" t="n">
         <v>43758</v>
@@ -13331,10 +13386,10 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="44" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="B260" s="31" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="C260" s="23" t="n">
         <v>43627</v>
@@ -13358,10 +13413,10 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="49" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="B261" s="31" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="C261" s="23" t="n">
         <v>43677</v>
@@ -13386,7 +13441,7 @@
         <v>146</v>
       </c>
       <c r="B262" s="31" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="C262" s="23" t="n">
         <v>43544</v>
@@ -13408,10 +13463,10 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="44" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="B263" s="31" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="C263" s="23" t="n">
         <v>43779</v>
@@ -13433,10 +13488,10 @@
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="33" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="B264" s="31" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="C264" s="23" t="n">
         <v>43731</v>
@@ -13462,10 +13517,10 @@
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="49" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="B265" s="40" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="C265" s="23" t="n">
         <v>43712</v>
@@ -13487,10 +13542,10 @@
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="33" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="B266" s="31" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="C266" s="23" t="n">
         <v>43544</v>
@@ -13514,10 +13569,10 @@
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="33" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="B267" s="31" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="C267" s="23" t="n">
         <v>43548</v>
@@ -13530,10 +13585,10 @@
         <v>252</v>
       </c>
       <c r="F267" s="46" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="G267" s="25" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="H267" s="25"/>
       <c r="I267" s="33"/>
@@ -13541,10 +13596,10 @@
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="33" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="B268" s="31" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="C268" s="23" t="n">
         <v>43362</v>
@@ -13566,10 +13621,10 @@
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="44" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="B269" s="40" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="C269" s="23" t="n">
         <v>43626</v>
@@ -13618,10 +13673,10 @@
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="44" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="B271" s="31" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="C271" s="23" t="n">
         <v>43626</v>
@@ -13645,10 +13700,10 @@
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="33" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B272" s="31" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C272" s="23" t="n">
         <v>43736</v>
@@ -13661,7 +13716,7 @@
         <v>70</v>
       </c>
       <c r="F272" s="46" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="G272" s="25" t="s">
         <v>34</v>
@@ -13699,10 +13754,10 @@
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="44" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="B274" s="31" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="C274" s="23" t="n">
         <v>43690</v>
@@ -13726,10 +13781,10 @@
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="33" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="B275" s="31" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="C275" s="23" t="n">
         <v>43782</v>
@@ -13748,7 +13803,7 @@
       <c r="H275" s="25"/>
       <c r="I275" s="33"/>
       <c r="J275" s="45" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13783,7 +13838,7 @@
         <v>30</v>
       </c>
       <c r="B277" s="31" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="C277" s="23" t="n">
         <v>43345</v>
@@ -13803,10 +13858,10 @@
     </row>
     <row r="278" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="44" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="B278" s="31" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="C278" s="23" t="n">
         <v>43796</v>
@@ -13819,17 +13874,17 @@
         <v>15</v>
       </c>
       <c r="F278" s="24" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="G278" s="25"/>
       <c r="H278" s="25"/>
     </row>
     <row r="279" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="33" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="B279" s="31" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="C279" s="23" t="n">
         <v>43690</v>
@@ -13851,10 +13906,10 @@
     </row>
     <row r="280" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="33" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="B280" s="31" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="C280" s="23" t="n">
         <v>43620</v>
@@ -13876,10 +13931,10 @@
     </row>
     <row r="281" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="44" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="B281" s="31" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="C281" s="23" t="n">
         <v>43653</v>
@@ -13899,10 +13954,10 @@
     </row>
     <row r="282" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="44" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="B282" s="31" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="C282" s="23" t="n">
         <v>43806</v>
@@ -13918,15 +13973,15 @@
         <v>217</v>
       </c>
       <c r="H282" s="25" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
     </row>
     <row r="283" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="33" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="B283" s="33" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="C283" s="23" t="n">
         <v>43706</v>
@@ -13948,10 +14003,10 @@
     </row>
     <row r="284" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="33" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="B284" s="33" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="C284" s="23" t="n">
         <v>43777</v>
@@ -13967,16 +14022,16 @@
         <v>90</v>
       </c>
       <c r="G284" s="25" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="H284" s="25"/>
     </row>
     <row r="285" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="33" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="B285" s="33" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="C285" s="23" t="n">
         <v>43548</v>
@@ -13989,19 +14044,19 @@
         <v>266</v>
       </c>
       <c r="F285" s="46" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="G285" s="25" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="H285" s="25"/>
     </row>
     <row r="286" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="44" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="B286" s="33" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="C286" s="23" t="n">
         <v>43784</v>
@@ -14014,17 +14069,17 @@
         <v>30</v>
       </c>
       <c r="F286" s="46" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="G286" s="25"/>
       <c r="H286" s="25"/>
     </row>
     <row r="287" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="44" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="B287" s="33" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="C287" s="23" t="n">
         <v>43670</v>
@@ -14046,10 +14101,10 @@
     </row>
     <row r="288" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="44" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="B288" s="41" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="C288" s="23" t="n">
         <v>43739</v>
@@ -14071,10 +14126,10 @@
     </row>
     <row r="289" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="49" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="B289" s="33" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="C289" s="23" t="n">
         <v>43662</v>
@@ -14093,15 +14148,15 @@
         <v>34</v>
       </c>
       <c r="H289" s="25" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
     </row>
     <row r="290" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="33" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="B290" s="33" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="C290" s="23" t="n">
         <v>43594</v>
@@ -14114,19 +14169,19 @@
         <v>226</v>
       </c>
       <c r="F290" s="46" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="G290" s="25" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="H290" s="25"/>
     </row>
     <row r="291" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="44" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="B291" s="33" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="C291" s="23" t="n">
         <v>43818</v>
@@ -14139,17 +14194,17 @@
         <v>3</v>
       </c>
       <c r="F291" s="36" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="G291" s="25"/>
       <c r="H291" s="25"/>
     </row>
     <row r="292" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="49" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="B292" s="33" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="C292" s="23" t="n">
         <v>43684</v>
@@ -14162,7 +14217,7 @@
         <v>137</v>
       </c>
       <c r="F292" s="24" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="G292" s="4"/>
       <c r="H292" s="7"/>
@@ -14172,7 +14227,7 @@
         <v>90</v>
       </c>
       <c r="B293" s="33" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="C293" s="23" t="n">
         <v>43701</v>
@@ -14192,10 +14247,10 @@
     </row>
     <row r="294" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="33" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="B294" s="33" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="C294" s="23" t="n">
         <v>43808</v>
@@ -14217,10 +14272,10 @@
     </row>
     <row r="295" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="49" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="B295" s="41" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="C295" s="23" t="n">
         <v>43752</v>
@@ -14240,10 +14295,10 @@
     </row>
     <row r="296" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="49" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="B296" s="41" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="C296" s="23" t="n">
         <v>43797</v>
@@ -14263,10 +14318,10 @@
     </row>
     <row r="297" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="33" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="B297" s="33" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="C297" s="23" t="n">
         <v>43620</v>
@@ -14286,10 +14341,10 @@
     </row>
     <row r="298" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="49" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="B298" s="33" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="C298" s="23" t="n">
         <v>43647</v>
@@ -14302,17 +14357,17 @@
         <v>180</v>
       </c>
       <c r="F298" s="24" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="G298" s="25"/>
       <c r="H298" s="25"/>
     </row>
     <row r="299" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="44" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B299" s="33" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C299" s="23" t="n">
         <v>43649</v>
@@ -14334,10 +14389,10 @@
     </row>
     <row r="300" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="33" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="B300" s="33" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="C300" s="23" t="n">
         <v>43705</v>
@@ -14357,10 +14412,10 @@
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="39" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="B301" s="39" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="C301" s="57" t="n">
         <v>43555</v>
@@ -14378,10 +14433,10 @@
     </row>
     <row r="302" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="59" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="B302" s="39" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="C302" s="57" t="n">
         <v>43813</v>
@@ -14394,7 +14449,7 @@
         <v>21</v>
       </c>
       <c r="F302" s="58" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="G302" s="38"/>
       <c r="H302" s="38"/>
@@ -14426,10 +14481,10 @@
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="61" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="B304" s="48" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="C304" s="53" t="n">
         <v>43688</v>
@@ -14445,18 +14500,18 @@
         <v>0</v>
       </c>
       <c r="G304" s="47" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="H304" s="47" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="48" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="B305" s="48" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="C305" s="53" t="n">
         <v>43488</v>
@@ -14475,10 +14530,10 @@
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="51" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="B306" s="62" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="C306" s="53" t="n">
         <v>43717</v>
@@ -14491,7 +14546,10 @@
         <v>124</v>
       </c>
       <c r="F306" s="54" t="s">
-        <v>870</v>
+        <v>875</v>
+      </c>
+      <c r="G306" s="47" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -14644,28 +14702,28 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="63" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="F2" s="63" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="H2" s="63" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="J2" s="64" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="K2" s="64" t="n">
         <v>2948</v>
@@ -14699,7 +14757,7 @@
       </c>
       <c r="X2" s="5"/>
       <c r="Y2" s="3" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14730,25 +14788,25 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H5" s="65" t="n">
         <v>294</v>
@@ -14772,16 +14830,16 @@
         <v>145</v>
       </c>
       <c r="O5" s="67" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="Q5" s="68" t="n">
         <v>0</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="S5" s="68" t="n">
         <v>0</v>
@@ -14814,25 +14872,25 @@
         <v>29</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J6" s="65" t="n">
         <v>41</v>
@@ -14847,7 +14905,7 @@
         <v>12</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="O6" s="65" t="n">
         <v>7</v>
@@ -14888,58 +14946,58 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="Q7" s="68" t="n">
         <v>0</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="S7" s="68" t="n">
         <v>0</v>
@@ -14966,58 +15024,58 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="Q8" s="68" t="n">
         <v>0</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="S8" s="68" t="n">
         <v>0</v>
@@ -15044,10 +15102,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C9" s="71" t="n">
         <v>1430</v>
@@ -15056,28 +15114,28 @@
         <v>1040</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F9" s="66" t="n">
         <v>733</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H9" s="69" t="n">
         <v>2151</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="J9" s="71" t="n">
         <v>2495</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M9" s="65" t="n">
         <v>151</v>
@@ -15089,7 +15147,7 @@
         <v>933</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q9" s="68" t="n">
         <v>0</v>
@@ -15123,10 +15181,10 @@
     </row>
     <row r="10" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="33" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C10" s="73" t="n">
         <v>2393</v>
@@ -15138,7 +15196,7 @@
         <v>2176</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G10" s="74" t="n">
         <v>1784</v>
@@ -15150,7 +15208,7 @@
         <v>2241</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K10" s="74" t="n">
         <v>1621</v>
@@ -15165,7 +15223,7 @@
         <v>1563</v>
       </c>
       <c r="O10" s="77" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P10" s="74" t="n">
         <v>1262</v>
@@ -15175,7 +15233,7 @@
         <v>53.4302689180738</v>
       </c>
       <c r="R10" s="79" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="S10" s="78" t="n">
         <v>0</v>
@@ -15207,52 +15265,52 @@
         <v>42</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="Q11" s="68" t="n">
         <v>0</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="S11" s="68" t="n">
         <v>0</v>
@@ -15279,43 +15337,43 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N12" s="66" t="n">
         <v>280</v>
@@ -15338,7 +15396,7 @@
         <v>76.1996726677578</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="U12" s="68" t="n">
         <v>0</v>
@@ -15358,7 +15416,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>30</v>
@@ -15373,7 +15431,7 @@
         <v>996</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G13" s="69" t="n">
         <v>868</v>
@@ -15438,49 +15496,49 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="B14" s="82" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="P14" s="69" t="n">
         <v>666</v>
@@ -15518,64 +15576,64 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="S15" s="68" t="n">
         <v>0</v>
       </c>
       <c r="T15" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="U15" s="68" t="n">
         <v>0</v>
@@ -15601,46 +15659,46 @@
         <v>309</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="P16" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="Q16" s="68" t="n">
         <v>0</v>
@@ -15680,10 +15738,10 @@
         <v>17</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E17" s="71" t="n">
         <v>719</v>
@@ -15754,13 +15812,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D18" s="72" t="n">
         <v>711</v>
@@ -15775,25 +15833,25 @@
         <v>1417</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I18" s="69" t="n">
         <v>1297</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K18" s="69" t="n">
         <v>786</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M18" s="71" t="n">
         <v>2285</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="O18" s="71" t="n">
         <v>1618</v>
@@ -15806,7 +15864,7 @@
         <v>52.3545966228893</v>
       </c>
       <c r="R18" s="83" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="S18" s="68" t="n">
         <v>0</v>
@@ -15854,7 +15912,7 @@
         <v>26</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I19" s="65" t="n">
         <v>104</v>
@@ -15872,10 +15930,10 @@
         <v>3</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="O19" s="67" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P19" s="66" t="n">
         <v>470</v>
@@ -15913,10 +15971,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C20" s="71" t="n">
         <v>1614</v>
@@ -15934,13 +15992,13 @@
         <v>1178</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I20" s="66" t="n">
         <v>473</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K20" s="69" t="n">
         <v>934</v>
@@ -15955,7 +16013,7 @@
         <v>1380</v>
       </c>
       <c r="O20" s="67" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P20" s="71" t="n">
         <v>1722</v>
@@ -15965,13 +16023,13 @@
         <v>41.9230769230769</v>
       </c>
       <c r="R20" s="83" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="S20" s="68" t="n">
         <v>0</v>
       </c>
       <c r="T20" s="83" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="U20" s="68" t="n">
         <v>0</v>
@@ -15991,40 +16049,40 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M21" s="66" t="n">
         <v>1035</v>
@@ -16071,10 +16129,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -16098,7 +16156,7 @@
         <v>700</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="N22" s="66" t="n">
         <v>638</v>
@@ -16142,49 +16200,49 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M23" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="P23" s="69" t="n">
         <v>918</v>
@@ -16228,13 +16286,13 @@
         <v>75</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F24" s="66" t="n">
         <v>395</v>
@@ -16255,19 +16313,19 @@
         <v>890</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M24" s="66" t="n">
         <v>512</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="O24" s="67" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q24" s="68" t="n">
         <v>0</v>
@@ -16301,40 +16359,40 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C25" s="84" t="n">
         <v>1983</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M25" s="69" t="n">
         <v>1925</v>
@@ -16343,7 +16401,7 @@
         <v>1649</v>
       </c>
       <c r="O25" s="67" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P25" s="71" t="n">
         <v>1338</v>
@@ -16381,13 +16439,13 @@
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="85" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D26" s="71" t="n">
         <v>1877</v>
@@ -16402,19 +16460,19 @@
         <v>2032</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I26" s="71" t="n">
         <v>1441</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K26" s="71" t="n">
         <v>1319</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M26" s="66" t="n">
         <v>1512</v>
@@ -16440,7 +16498,7 @@
         <v>74.366612111293</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="U26" s="68" t="n">
         <v>0</v>
@@ -16484,7 +16542,7 @@
         <v>446</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="J27" s="71" t="n">
         <v>1722</v>
@@ -16540,52 +16598,52 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M28" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="O28" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="P28" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="Q28" s="68" t="n">
         <v>0</v>
@@ -16619,28 +16677,28 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E29" s="71" t="n">
         <v>1766</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G29" s="69" t="n">
         <v>841</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I29" s="69" t="n">
         <v>1243</v>
@@ -16649,7 +16707,7 @@
         <v>632</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L29" s="66" t="n">
         <v>751</v>
@@ -16658,7 +16716,7 @@
         <v>1490</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="O29" s="66" t="n">
         <v>533</v>
@@ -16705,37 +16763,37 @@
         <v>36</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L30" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M30" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N30" s="69" t="n">
         <v>1283</v>
@@ -16779,13 +16837,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D31" s="72" t="n">
         <v>791</v>
@@ -16806,19 +16864,19 @@
         <v>1413</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K31" s="71" t="n">
         <v>1693</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M31" s="66" t="n">
         <v>361</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="O31" s="66" t="n">
         <v>570</v>
@@ -16838,7 +16896,7 @@
         <v>47.4746317512275</v>
       </c>
       <c r="T31" s="83" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="U31" s="68" t="n">
         <v>0</v>
@@ -16864,52 +16922,52 @@
         <v>46</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M32" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N32" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="O32" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="P32" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="Q32" s="68" t="n">
         <v>0</v>
       </c>
       <c r="R32" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="S32" s="68" t="n">
         <v>0</v>
@@ -16942,31 +17000,31 @@
         <v>31</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L33" s="69" t="n">
         <v>1068</v>
@@ -17016,43 +17074,43 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L34" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M34" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N34" s="66" t="n">
         <v>558</v>
@@ -17096,52 +17154,52 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B35" s="82" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="P35" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="Q35" s="68" t="n">
         <v>0</v>
@@ -17187,10 +17245,10 @@
         <v>2185</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G36" s="66" t="n">
         <v>163</v>
@@ -17255,52 +17313,52 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F37" s="86" t="n">
         <v>1936</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H37" s="87" t="n">
         <v>1498</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L37" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="P37" s="67" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q37" s="68" t="n">
         <v>0</v>
@@ -17313,7 +17371,7 @@
         <v>49.5957446808511</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="U37" s="68" t="n">
         <v>0</v>
@@ -17339,10 +17397,10 @@
         <v>14</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E38" s="71" t="n">
         <v>1882</v>
@@ -17378,7 +17436,7 @@
         <v>1535</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q38" s="68" t="n">
         <v>0</v>
@@ -17418,16 +17476,16 @@
         <v>23</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G39" s="69" t="n">
         <v>686</v>
@@ -17442,7 +17500,7 @@
         <v>1518</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L39" s="69" t="n">
         <v>1706</v>
@@ -17492,10 +17550,10 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C40" s="88" t="n">
         <v>2611</v>
@@ -17513,10 +17571,10 @@
         <v>1437</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="J40" s="71" t="n">
         <v>1826</v>
@@ -17525,13 +17583,13 @@
         <v>1647</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M40" s="71" t="n">
         <v>2155</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="O40" s="71" t="n">
         <v>1786</v>
@@ -17544,7 +17602,7 @@
         <v>52.6797998749218</v>
       </c>
       <c r="R40" s="83" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="S40" s="68" t="n">
         <v>0</v>
@@ -17651,19 +17709,19 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F42" s="69" t="n">
         <v>1128</v>
@@ -17690,13 +17748,13 @@
         <v>871</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="O42" s="67" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q42" s="68" t="n">
         <v>0</v>
@@ -17730,58 +17788,58 @@
     </row>
     <row r="43" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="41" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C43" s="74" t="n">
         <v>1596</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L43" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M43" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N43" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="O43" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="P43" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="Q43" s="78" t="n">
         <v>0</v>
       </c>
       <c r="R43" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="S43" s="78" t="n">
         <v>0</v>
@@ -17807,13 +17865,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D44" s="72" t="n">
         <v>2641</v>
@@ -17834,13 +17892,13 @@
         <v>784</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K44" s="71" t="n">
         <v>1662</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M44" s="66" t="n">
         <v>1080</v>
@@ -17852,7 +17910,7 @@
         <v>1655</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q44" s="68" t="n">
         <v>0</v>
@@ -17891,10 +17949,10 @@
         <v>210</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E45" s="69" t="n">
         <v>562</v>
@@ -17937,13 +17995,13 @@
         <v>68.036272670419</v>
       </c>
       <c r="R45" s="83" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="S45" s="68" t="n">
         <v>0</v>
       </c>
       <c r="T45" s="83" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="U45" s="68" t="n">
         <v>0</v>
@@ -17963,16 +18021,16 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E46" s="69" t="n">
         <v>638</v>
@@ -18008,7 +18066,7 @@
         <v>1651</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q46" s="68" t="n">
         <v>0</v>
@@ -18021,7 +18079,7 @@
         <v>60.0180032733224</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="U46" s="68" t="n">
         <v>0</v>
@@ -18041,64 +18099,64 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I47" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K47" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L47" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M47" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N47" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="O47" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="P47" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="Q47" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="R47" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="S47" s="68" t="n">
         <v>0</v>
       </c>
       <c r="T47" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="U47" s="68" t="n">
         <v>0</v>
@@ -18118,52 +18176,52 @@
     </row>
     <row r="48" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="33" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K48" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L48" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M48" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N48" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="O48" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="P48" s="77" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q48" s="78" t="n">
         <v>0</v>
@@ -18196,10 +18254,10 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="C49" s="72" t="n">
         <v>864</v>
@@ -18223,7 +18281,7 @@
         <v>472</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K49" s="71" t="n">
         <v>1589</v>
@@ -18282,19 +18340,19 @@
         <v>26</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H50" s="69" t="n">
         <v>1453</v>
@@ -18356,31 +18414,31 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J51" s="66" t="n">
         <v>975</v>
@@ -18436,52 +18494,52 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J52" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L52" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M52" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N52" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="O52" s="67" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q52" s="68" t="n">
         <v>0</v>
@@ -18515,13 +18573,13 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D53" s="71" t="n">
         <v>2561</v>
@@ -18530,13 +18588,13 @@
         <v>2192</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G53" s="71" t="n">
         <v>1709</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I53" s="71" t="n">
         <v>2157</v>
@@ -18554,13 +18612,13 @@
         <v>2321</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="O53" s="67" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q53" s="68" t="n">
         <v>0</v>
@@ -18573,7 +18631,7 @@
         <v>42.315875613748</v>
       </c>
       <c r="T53" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="U53" s="68" t="n">
         <v>0</v>
@@ -18599,52 +18657,52 @@
         <v>40</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J54" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K54" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L54" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M54" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N54" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="O54" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="P54" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="Q54" s="68" t="n">
         <v>0</v>
       </c>
       <c r="R54" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="S54" s="68" t="n">
         <v>0</v>
@@ -18671,64 +18729,64 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="16" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J55" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K55" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L55" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M55" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N55" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="O55" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="P55" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="Q55" s="68" t="n">
         <v>0</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="S55" s="68" t="n">
         <v>0</v>
       </c>
       <c r="T55" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="U55" s="68" t="n">
         <v>0</v>
@@ -18754,22 +18812,22 @@
         <v>19</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I56" s="69" t="n">
         <v>984</v>
@@ -18790,28 +18848,28 @@
         <v>279</v>
       </c>
       <c r="O56" s="67" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P56" s="67" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="Q56" s="68" t="n">
         <v>0</v>
       </c>
       <c r="R56" s="67" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="S56" s="68" t="n">
         <v>0</v>
       </c>
       <c r="T56" s="67" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="U56" s="68" t="n">
         <v>0</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="W56" s="70" t="n">
         <v>0</v>
@@ -18824,28 +18882,28 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I57" s="71" t="n">
         <v>1370</v>
@@ -18863,7 +18921,7 @@
         <v>895</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="O57" s="66" t="n">
         <v>661</v>
@@ -18890,7 +18948,7 @@
         <v>79.4232715008432</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="W57" s="70" t="n">
         <v>0</v>
@@ -18903,58 +18961,58 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="14" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J58" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K58" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L58" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M58" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N58" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="O58" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="P58" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="Q58" s="68" t="n">
         <v>0</v>
       </c>
       <c r="R58" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="S58" s="68" t="n">
         <v>0</v>
@@ -18967,7 +19025,7 @@
         <v>75.9156829679595</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="W58" s="70" t="n">
         <v>0</v>
@@ -19001,7 +19059,7 @@
         <v>209</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I59" s="66" t="n">
         <v>283</v>
@@ -19025,13 +19083,13 @@
         <v>207</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q59" s="68" t="n">
         <v>0</v>
       </c>
       <c r="R59" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="S59" s="68" t="n">
         <v>0</v>
@@ -19044,7 +19102,7 @@
         <v>75.2411467116358</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="W59" s="70" t="n">
         <v>0</v>
@@ -19057,52 +19115,52 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L60" s="69" t="n">
         <v>1716</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="N60" s="69" t="n">
         <v>968</v>
       </c>
       <c r="O60" s="67" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q60" s="68" t="n">
         <v>0</v>
@@ -19122,7 +19180,7 @@
         <v>68.6306913996627</v>
       </c>
       <c r="V60" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="W60" s="70" t="n">
         <v>0</v>
@@ -19135,49 +19193,49 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J61" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K61" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L61" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M61" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N61" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="O61" s="67" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P61" s="71" t="n">
         <v>1992</v>
@@ -19201,7 +19259,7 @@
         <v>63.8010118043845</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="W61" s="70" t="n">
         <v>0</v>
@@ -19214,52 +19272,52 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J62" s="69" t="n">
         <v>1582</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L62" s="71" t="n">
         <v>1886</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="O62" s="69" t="n">
         <v>1373</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q62" s="68" t="n">
         <v>0</v>
@@ -19279,7 +19337,7 @@
         <v>54.8077571669477</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="W62" s="70" t="n">
         <v>0</v>
@@ -19292,16 +19350,16 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E63" s="71" t="n">
         <v>1799</v>
@@ -19316,19 +19374,19 @@
         <v>1019</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="J63" s="66" t="n">
         <v>603</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L63" s="69" t="n">
         <v>1078</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="N63" s="69" t="n">
         <v>1029</v>
@@ -19344,7 +19402,7 @@
         <v>73.8398999374609</v>
       </c>
       <c r="R63" s="83" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="S63" s="68" t="n">
         <v>0</v>
@@ -19357,7 +19415,7 @@
         <v>48.6559865092749</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="W63" s="70" t="n">
         <v>0</v>
@@ -19370,28 +19428,28 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I64" s="69" t="n">
         <v>1222</v>
@@ -19436,7 +19494,7 @@
         <v>37.9173693086003</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="W64" s="70" t="n">
         <v>0</v>
@@ -19449,25 +19507,25 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H65" s="66" t="n">
         <v>961</v>
@@ -19508,13 +19566,13 @@
         <v>51.4549918166939</v>
       </c>
       <c r="T65" s="83" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="U65" s="68" t="n">
         <v>0</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="W65" s="70" t="n">
         <v>0</v>
@@ -19527,37 +19585,37 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="J66" s="71" t="n">
         <v>1847</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L66" s="69" t="n">
         <v>1308</v>
@@ -19566,13 +19624,13 @@
         <v>2223</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="O66" s="69" t="n">
         <v>1212</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q66" s="68" t="n">
         <v>0</v>
@@ -19585,13 +19643,13 @@
         <v>48.9410801963994</v>
       </c>
       <c r="T66" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="U66" s="68" t="n">
         <v>0</v>
       </c>
       <c r="V66" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="W66" s="70" t="n">
         <v>0</v>
@@ -19604,43 +19662,43 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J67" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K67" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L67" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M67" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N67" s="71" t="n">
         <v>1224</v>
@@ -19663,13 +19721,13 @@
         <v>43.0229132569558</v>
       </c>
       <c r="T67" s="83" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="U67" s="68" t="n">
         <v>0</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="W67" s="70" t="n">
         <v>0</v>
@@ -19682,73 +19740,73 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K68" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L68" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M68" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N68" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="O68" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="P68" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="Q68" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="R68" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="S68" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="T68" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="U68" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="V68" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="W68" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="X68" s="17"/>
       <c r="Y68" s="68" t="n">
@@ -19758,73 +19816,73 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J69" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K69" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L69" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M69" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N69" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="O69" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="P69" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="Q69" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="R69" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="S69" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="T69" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="U69" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="V69" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="W69" s="17" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="X69" s="5"/>
       <c r="Y69" s="68" t="n">
@@ -19834,16 +19892,16 @@
     </row>
     <row r="70" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="33" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C70" s="74" t="n">
         <v>1225</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E70" s="75" t="n">
         <v>510</v>
@@ -19852,13 +19910,13 @@
         <v>239</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H70" s="80" t="n">
         <v>114</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="J70" s="80" t="n">
         <v>93</v>
@@ -19873,10 +19931,10 @@
         <v>139</v>
       </c>
       <c r="N70" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="O70" s="77" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P70" s="76" t="n">
         <v>264</v>
@@ -19886,7 +19944,7 @@
         <v>88.3958724202627</v>
       </c>
       <c r="R70" s="79" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="S70" s="78" t="n">
         <v>0</v>
@@ -19899,10 +19957,10 @@
         <v>65.2040472175379</v>
       </c>
       <c r="V70" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="W70" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="Y70" s="78" t="n">
         <f aca="false">(SUM(S70,U70,W70)-MIN(S70,U70,W70))/2</f>
@@ -19911,82 +19969,82 @@
     </row>
     <row r="71" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="33" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I71" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J71" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K71" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L71" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M71" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N71" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="O71" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="P71" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="Q71" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="R71" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="S71" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="T71" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="U71" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="V71" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="W71" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="Y71" s="78"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
@@ -20014,10 +20072,10 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -20248,16 +20306,16 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="33" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C84" s="73" t="n">
         <v>2930</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E84" s="33"/>
       <c r="F84" s="33"/>
@@ -20269,13 +20327,13 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="33" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D85" s="33"/>
       <c r="E85" s="33"/>
@@ -20288,13 +20346,13 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="33" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B86" s="33" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D86" s="33"/>
       <c r="E86" s="33"/>
@@ -20307,13 +20365,13 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="33" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D87" s="33"/>
       <c r="E87" s="33"/>
@@ -20326,13 +20384,13 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="33" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D88" s="89" t="n">
         <v>926</v>
@@ -20347,19 +20405,19 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="33" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E89" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F89" s="33"/>
       <c r="G89" s="33"/>
@@ -20370,19 +20428,19 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="33" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F90" s="33"/>
       <c r="G90" s="33"/>
@@ -20393,19 +20451,19 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="33" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D91" s="74" t="n">
         <v>2040</v>
       </c>
       <c r="E91" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F91" s="33"/>
       <c r="G91" s="33"/>
@@ -20416,25 +20474,25 @@
     </row>
     <row r="92" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="33" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E92" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G92" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H92" s="24"/>
       <c r="I92" s="25"/>
@@ -20456,22 +20514,22 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="33" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F93" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G93" s="75" t="n">
         <v>1177</v>
@@ -20483,19 +20541,19 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="33" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E94" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F94" s="75" t="n">
         <v>1245</v>
@@ -20510,22 +20568,22 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="33" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E95" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F95" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G95" s="76" t="n">
         <v>152</v>
@@ -20537,25 +20595,25 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="33" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E96" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F96" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G96" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H96" s="33"/>
       <c r="I96" s="33"/>
@@ -20564,22 +20622,22 @@
     </row>
     <row r="97" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="33" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E97" s="74" t="n">
         <v>2225</v>
       </c>
       <c r="F97" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G97" s="74" t="n">
         <v>1848</v>
@@ -20604,28 +20662,28 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="33" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B98" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E98" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F98" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G98" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H98" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I98" s="33"/>
       <c r="J98" s="25"/>
@@ -20633,13 +20691,13 @@
     </row>
     <row r="99" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="33" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D99" s="89" t="n">
         <v>1608</v>
@@ -20654,10 +20712,10 @@
         <v>630</v>
       </c>
       <c r="H99" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I99" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="J99" s="25"/>
       <c r="K99" s="25"/>
@@ -20677,10 +20735,10 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="33" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="C100" s="73" t="n">
         <v>2328</v>
@@ -20701,23 +20759,23 @@
         <v>1539</v>
       </c>
       <c r="I100" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="J100" s="25"/>
       <c r="X100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="33" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E101" s="74" t="n">
         <v>1282</v>
@@ -20726,44 +20784,44 @@
         <v>1511</v>
       </c>
       <c r="G101" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H101" s="76" t="n">
         <v>785</v>
       </c>
       <c r="I101" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="J101" s="25"/>
       <c r="X101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="33" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E102" s="74" t="n">
         <v>2184</v>
       </c>
       <c r="F102" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G102" s="74" t="n">
         <v>1916</v>
       </c>
       <c r="H102" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I102" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="J102" s="74" t="n">
         <v>2532</v>
@@ -20772,16 +20830,16 @@
     </row>
     <row r="103" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="33" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B103" s="33" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E103" s="74" t="n">
         <v>2456</v>
@@ -20802,7 +20860,7 @@
         <v>2148</v>
       </c>
       <c r="K103" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L103" s="24"/>
       <c r="M103" s="24"/>
@@ -20820,16 +20878,16 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="33" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B104" s="33" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E104" s="74" t="n">
         <v>1610</v>
@@ -20841,16 +20899,16 @@
         <v>1789</v>
       </c>
       <c r="H104" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I104" s="74" t="n">
         <v>2309</v>
       </c>
       <c r="J104" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K104" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L104" s="24"/>
       <c r="O104" s="77"/>
@@ -20858,31 +20916,31 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="33" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F105" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G105" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H105" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I105" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J105" s="75" t="n">
         <v>1545</v>
@@ -20898,59 +20956,59 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="33" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B106" s="33" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F106" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G106" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H106" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I106" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J106" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K106" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L106" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="O106" s="67"/>
       <c r="X106" s="5"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="33" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B107" s="33" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D107" s="89" t="n">
         <v>1195</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F107" s="76" t="n">
         <v>976</v>
@@ -20971,47 +21029,47 @@
         <v>1669</v>
       </c>
       <c r="L107" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="O107" s="67"/>
       <c r="X107" s="5"/>
     </row>
     <row r="108" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="33" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F108" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G108" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H108" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I108" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J108" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K108" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L108" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M108" s="24"/>
       <c r="N108" s="24"/>
@@ -21028,37 +21086,37 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="33" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F109" s="74" t="n">
         <v>1952</v>
       </c>
       <c r="G109" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H109" s="75" t="n">
         <v>1755</v>
       </c>
       <c r="I109" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="J109" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K109" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L109" s="75" t="n">
         <v>1388</v>
@@ -21068,28 +21126,28 @@
     </row>
     <row r="110" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="33" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B110" s="33" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F110" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G110" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H110" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I110" s="74" t="n">
         <v>2104</v>
@@ -21101,10 +21159,10 @@
         <v>1160</v>
       </c>
       <c r="L110" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M110" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="N110" s="24"/>
       <c r="O110" s="77"/>
@@ -21120,10 +21178,10 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="33" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C111" s="73" t="n">
         <v>2518</v>
@@ -21135,13 +21193,13 @@
         <v>1894</v>
       </c>
       <c r="F111" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G111" s="74" t="n">
         <v>2335</v>
       </c>
       <c r="H111" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I111" s="74" t="n">
         <v>2179</v>
@@ -21150,13 +21208,13 @@
         <v>371</v>
       </c>
       <c r="K111" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L111" s="74" t="n">
         <v>2202</v>
       </c>
       <c r="M111" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="N111" s="24"/>
       <c r="O111" s="77"/>
@@ -21164,16 +21222,16 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="33" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E112" s="74" t="n">
         <v>1668</v>
@@ -21188,10 +21246,10 @@
         <v>1577</v>
       </c>
       <c r="I112" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="J112" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K112" s="75" t="n">
         <v>585</v>
@@ -21200,7 +21258,7 @@
         <v>1512</v>
       </c>
       <c r="M112" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="N112" s="24"/>
       <c r="O112" s="77"/>
@@ -21208,10 +21266,10 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="33" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C113" s="74" t="n">
         <v>1737</v>
@@ -21226,7 +21284,7 @@
         <v>930</v>
       </c>
       <c r="G113" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H113" s="75" t="n">
         <v>1560</v>
@@ -21253,37 +21311,37 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="33" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E114" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F114" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G114" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H114" s="76" t="n">
         <v>845</v>
       </c>
       <c r="I114" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="J114" s="75" t="n">
         <v>1635</v>
       </c>
       <c r="K114" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L114" s="76" t="n">
         <v>472</v>
@@ -21302,10 +21360,10 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="33" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B115" s="33" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C115" s="74" t="n">
         <v>1711</v>
@@ -21314,7 +21372,7 @@
         <v>1357</v>
       </c>
       <c r="E115" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F115" s="75" t="n">
         <v>1563</v>
@@ -21326,7 +21384,7 @@
         <v>1532</v>
       </c>
       <c r="I115" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="J115" s="74" t="n">
         <v>1829</v>
@@ -21347,52 +21405,52 @@
     </row>
     <row r="116" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="33" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F116" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G116" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H116" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I116" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J116" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K116" s="74" t="n">
         <v>1185</v>
       </c>
       <c r="L116" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M116" s="74" t="n">
         <v>2327</v>
       </c>
       <c r="N116" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="O116" s="74" t="n">
         <v>1765</v>
       </c>
       <c r="P116" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q116" s="25"/>
       <c r="R116" s="25"/>
@@ -21411,10 +21469,10 @@
         <v>256</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E117" s="75" t="n">
         <v>455</v>
@@ -21479,46 +21537,46 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="39" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B118" s="39" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C118" s="58" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D118" s="58" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E118" s="58" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F118" s="58" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G118" s="58" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H118" s="58" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I118" s="58" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J118" s="58" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K118" s="58" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L118" s="58" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M118" s="58" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N118" s="58" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="O118" s="90" t="n">
         <v>1590</v>
@@ -21531,7 +21589,7 @@
         <v>35.8943089430894</v>
       </c>
       <c r="R118" s="92" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="S118" s="91" t="n">
         <v>0</v>
@@ -21559,43 +21617,43 @@
     </row>
     <row r="119" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="33" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B119" s="33" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="E119" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F119" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G119" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H119" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I119" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J119" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K119" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="L119" s="24" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M119" s="24" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="N119" s="74" t="n">
         <v>1761</v>
@@ -21604,19 +21662,19 @@
         <v>1426</v>
       </c>
       <c r="P119" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q119" s="78" t="n">
         <v>0</v>
       </c>
       <c r="R119" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="S119" s="78" t="n">
         <v>0</v>
       </c>
       <c r="T119" s="25" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="U119" s="78" t="n">
         <v>0</v>

--- a/generateEXCEL/Data/Members/GroupRecord.xlsx
+++ b/generateEXCEL/Data/Members/GroupRecord.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="942">
   <si>
     <t xml:space="preserve">wisdompeak</t>
   </si>
@@ -367,12 +367,6 @@
     <t xml:space="preserve">Schlumberger</t>
   </si>
   <si>
-    <t xml:space="preserve">Rui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rui_Huang</t>
-  </si>
-  <si>
     <t xml:space="preserve">DJZ</t>
   </si>
   <si>
@@ -1188,6 +1182,12 @@
   </si>
   <si>
     <t xml:space="preserve">lzl124631x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sunhui</t>
   </si>
   <si>
     <t xml:space="preserve">任国庆</t>
@@ -2060,6 +2060,12 @@
   </si>
   <si>
     <t xml:space="preserve">Mengqian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rui_Huang</t>
   </si>
   <si>
     <t xml:space="preserve">#</t>
@@ -4197,8 +4203,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B150" activeCellId="0" sqref="B150"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4943,7 +4949,7 @@
         <v>103</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>43601</v>
+        <v>43606</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="7"/>
@@ -4954,45 +4960,47 @@
       <c r="H36" s="7"/>
     </row>
     <row r="37" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="16" t="s">
         <v>105</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>43606</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37" s="7"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H37" s="7"/>
+      <c r="J37" s="8" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="38" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>43606</v>
+        <v>43613</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="18" t="s">
-        <v>57</v>
+      <c r="F38" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="H38" s="7"/>
-      <c r="J38" s="8" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="39" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="16" t="s">
@@ -5002,7 +5010,7 @@
         <v>110</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>43613</v>
+        <v>43614</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="4"/>
@@ -5010,19 +5018,22 @@
         <v>0</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="H39" s="7"/>
+      <c r="J39" s="8" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="40" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>43614</v>
+        <v>43618</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="4"/>
@@ -5030,81 +5041,80 @@
         <v>0</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H40" s="7"/>
       <c r="J40" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="16" t="s">
-        <v>115</v>
+      <c r="A41" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>43618</v>
+        <v>43620</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="4"/>
       <c r="F41" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H41" s="7"/>
-      <c r="J41" s="8" t="s">
-        <v>118</v>
+      <c r="H41" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="42" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15" t="s">
-        <v>119</v>
+      <c r="A42" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>43620</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>121</v>
-      </c>
+      <c r="F42" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="20" t="s">
         <v>123</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>43620</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="7"/>
+        <v>43626</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="44" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
-        <v>124</v>
+      <c r="A44" s="21" t="s">
+        <v>125</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>43626</v>
@@ -5114,105 +5124,101 @@
       <c r="F44" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>126</v>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="J44" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="45" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" s="20" t="s">
+      <c r="A45" s="10" t="s">
         <v>128</v>
       </c>
+      <c r="B45" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="C45" s="1" t="n">
-        <v>43626</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="7"/>
+        <v>43628</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G45" s="7"/>
+      <c r="G45" s="4"/>
       <c r="H45" s="7"/>
-      <c r="J45" s="8" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="46" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="21" t="s">
         <v>130</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="17" t="s">
-        <v>92</v>
+      <c r="F46" s="22" t="s">
+        <v>131</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="7"/>
+      <c r="J46" s="8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="47" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>43629</v>
+        <v>43634</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="G47" s="4"/>
+      <c r="F47" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="H47" s="7"/>
       <c r="J47" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="21" t="s">
-        <v>135</v>
+      <c r="A48" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>43634</v>
+        <v>43638</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="4"/>
       <c r="F48" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="G48" s="4"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="8" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="49" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="21" t="s">
         <v>140</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>43638</v>
+        <v>43646</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="4"/>
@@ -5221,13 +5227,16 @@
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="7"/>
+      <c r="J49" s="8" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="50" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B50" s="21" t="s">
+      <c r="A50" s="21" t="s">
         <v>142</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>43646</v>
@@ -5237,48 +5246,47 @@
       <c r="F50" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G50" s="4"/>
       <c r="H50" s="7"/>
       <c r="J50" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>43646</v>
+        <v>43653</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="4"/>
       <c r="F51" s="17" t="s">
-        <v>0</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G51" s="4"/>
       <c r="H51" s="7"/>
-      <c r="J51" s="8" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="52" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="21" t="s">
         <v>147</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>43653</v>
+        <v>43658</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="4"/>
       <c r="F52" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="G52" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="H52" s="7"/>
     </row>
     <row r="53" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5289,45 +5297,46 @@
         <v>150</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>43658</v>
+        <v>43660</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="F53" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53" s="4"/>
       <c r="H53" s="7"/>
     </row>
     <row r="54" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="10" t="s">
         <v>151</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>152</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>43660</v>
+        <v>43661</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="19" t="s">
-        <v>122</v>
+      <c r="F54" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="7"/>
+      <c r="J54" s="8" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="55" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10" t="s">
-        <v>153</v>
+      <c r="A55" s="21" t="s">
+        <v>154</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>43661</v>
+        <v>43662</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="4"/>
@@ -5337,71 +5346,68 @@
       <c r="G55" s="4"/>
       <c r="H55" s="7"/>
       <c r="J55" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>43662</v>
+        <v>43669</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="4"/>
       <c r="F56" s="17" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="7"/>
       <c r="J56" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>43669</v>
+        <v>43675</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="17" t="s">
-        <v>161</v>
+      <c r="F57" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="7"/>
-      <c r="J57" s="8" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="58" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="10" t="s">
         <v>163</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>164</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>43675</v>
+        <v>43678</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="18" t="s">
-        <v>57</v>
+      <c r="F58" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="7"/>
     </row>
     <row r="59" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="21" t="s">
         <v>165</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -5419,57 +5425,57 @@
       <c r="H59" s="7"/>
     </row>
     <row r="60" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="10" t="s">
         <v>167</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>168</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>43678</v>
+        <v>43681</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="4"/>
       <c r="F60" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G60" s="4"/>
+      <c r="G60" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="H60" s="7"/>
     </row>
     <row r="61" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>43681</v>
+        <v>43685</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="4"/>
       <c r="F61" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>171</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G61" s="4"/>
       <c r="H61" s="7"/>
     </row>
     <row r="62" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="5" t="s">
         <v>172</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>173</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>43685</v>
+        <v>43690</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="4"/>
       <c r="F62" s="17" t="s">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="7"/>
@@ -5482,12 +5488,12 @@
         <v>175</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>43690</v>
+        <v>43702</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="4"/>
       <c r="F63" s="17" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="7"/>
@@ -5497,7 +5503,7 @@
         <v>176</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>43702</v>
@@ -5505,20 +5511,20 @@
       <c r="D64" s="6"/>
       <c r="E64" s="4"/>
       <c r="F64" s="17" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="7"/>
     </row>
     <row r="65" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>178</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>43702</v>
+        <v>43703</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="4"/>
@@ -5529,201 +5535,201 @@
       <c r="H65" s="7"/>
     </row>
     <row r="66" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>180</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>43703</v>
+        <v>43704</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="4"/>
       <c r="F66" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G66" s="4"/>
-      <c r="H66" s="7"/>
+      <c r="G66" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="67" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>43704</v>
+        <v>43707</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>126</v>
-      </c>
+      <c r="F67" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="7"/>
       <c r="J67" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B68" s="5" t="s">
+      <c r="A68" s="20" t="s">
         <v>185</v>
       </c>
+      <c r="B68" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="C68" s="1" t="n">
-        <v>43707</v>
+        <v>43711</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="7" t="s">
-        <v>78</v>
+      <c r="F68" s="17" t="s">
+        <v>113</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="7"/>
-      <c r="J68" s="8" t="s">
+    </row>
+    <row r="69" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="10" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="69" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="20" t="s">
-        <v>187</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>187</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>43711</v>
+        <v>43712</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="4"/>
       <c r="F69" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="G69" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="H69" s="7"/>
     </row>
     <row r="70" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10" t="s">
-        <v>188</v>
+      <c r="A70" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>43712</v>
+        <v>43715</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="4"/>
       <c r="F70" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>190</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G70" s="4"/>
       <c r="H70" s="7"/>
+      <c r="J70" s="8" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="71" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="20" t="s">
-        <v>191</v>
+      <c r="A71" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>43715</v>
+        <v>43716</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="4"/>
       <c r="F71" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="G71" s="4"/>
+        <v>189</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="H71" s="7"/>
-      <c r="J71" s="8" t="s">
-        <v>193</v>
-      </c>
     </row>
     <row r="72" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="10" t="s">
-        <v>194</v>
+      <c r="A72" s="21" t="s">
+        <v>195</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>43716</v>
+        <v>43718</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="4"/>
       <c r="F72" s="17" t="s">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H72" s="7"/>
+      <c r="J72" s="8" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="73" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="21" t="s">
-        <v>197</v>
+      <c r="A73" s="20" t="s">
+        <v>199</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>43718</v>
+        <v>43720</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>199</v>
-      </c>
+      <c r="F73" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G73" s="4"/>
       <c r="H73" s="7"/>
       <c r="J73" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="74" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="21" t="s">
         <v>201</v>
       </c>
       <c r="B74" s="20" t="s">
         <v>201</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>43720</v>
+        <v>43722</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="18" t="s">
-        <v>30</v>
+      <c r="F74" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="7"/>
-      <c r="J74" s="8" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="75" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B75" s="20" t="s">
         <v>203</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>43722</v>
+        <v>43726</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="4"/>
@@ -5732,42 +5738,42 @@
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="7"/>
+      <c r="J75" s="8" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="76" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="B76" s="20" t="s">
+      <c r="A76" s="10" t="s">
         <v>205</v>
       </c>
+      <c r="B76" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="C76" s="1" t="n">
-        <v>43726</v>
+        <v>43732</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="4"/>
-      <c r="F76" s="17" t="s">
-        <v>0</v>
+      <c r="F76" s="18" t="s">
+        <v>207</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="7"/>
-      <c r="J76" s="8" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="77" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B77" s="5" t="s">
         <v>208</v>
       </c>
+      <c r="B77" s="20" t="s">
+        <v>209</v>
+      </c>
       <c r="C77" s="1" t="n">
-        <v>43732</v>
+        <v>43737</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="4"/>
-      <c r="F77" s="18" t="s">
-        <v>209</v>
+      <c r="F77" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="7"/>
@@ -5780,48 +5786,51 @@
         <v>211</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>43737</v>
+        <v>43738</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="4"/>
       <c r="F78" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="G78" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="H78" s="7"/>
+      <c r="J78" s="8" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="79" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>43738</v>
+        <v>43741</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="4"/>
       <c r="F79" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G79" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="G79" s="4"/>
       <c r="H79" s="7"/>
-      <c r="J79" s="8" t="s">
-        <v>214</v>
+      <c r="J79" s="5" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="80" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>43741</v>
+        <v>43743</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="4"/>
@@ -5830,121 +5839,118 @@
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="7"/>
-      <c r="J80" s="5" t="s">
-        <v>217</v>
+      <c r="J80" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="81" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="10" t="s">
-        <v>218</v>
+      <c r="A81" s="21" t="s">
+        <v>219</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>43743</v>
+        <v>43749</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="4"/>
-      <c r="F81" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G81" s="4"/>
+      <c r="F81" s="18" t="s">
+        <v>208</v>
+      </c>
       <c r="H81" s="7"/>
       <c r="J81" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="21" t="s">
-        <v>221</v>
+      <c r="A82" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>43749</v>
+        <v>43752</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="4"/>
-      <c r="F82" s="18" t="s">
-        <v>210</v>
-      </c>
+      <c r="F82" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G82" s="4"/>
       <c r="H82" s="7"/>
-      <c r="J82" s="8" t="s">
-        <v>223</v>
-      </c>
     </row>
     <row r="83" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B83" s="20" t="s">
+      <c r="B83" s="5" t="s">
         <v>225</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>43752</v>
+        <v>43753</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="4"/>
       <c r="F83" s="17" t="s">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="7"/>
     </row>
     <row r="84" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="20" t="s">
         <v>227</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>43753</v>
+        <v>43757</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="4"/>
       <c r="F84" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G84" s="4"/>
+      <c r="G84" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H84" s="7"/>
     </row>
     <row r="85" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="21" t="s">
+      <c r="A85" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="5" t="s">
         <v>229</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>43757</v>
+        <v>43763</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="4"/>
       <c r="F85" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="G85" s="4"/>
       <c r="H85" s="7"/>
     </row>
     <row r="86" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="10" t="s">
         <v>230</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>231</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>43763</v>
+        <v>43766</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="17" t="s">
-        <v>0</v>
+      <c r="F86" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="7"/>
@@ -5957,43 +5963,48 @@
         <v>233</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="18" t="s">
-        <v>30</v>
+      <c r="F87" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="7"/>
     </row>
     <row r="88" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="16" t="s">
         <v>235</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>43767</v>
+        <v>43770</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="4"/>
       <c r="F88" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G88" s="4"/>
+      <c r="G88" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H88" s="7"/>
+      <c r="J88" s="8" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="89" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="B89" s="16" t="s">
+      <c r="A89" s="10" t="s">
         <v>237</v>
       </c>
+      <c r="B89" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="C89" s="1" t="n">
-        <v>43770</v>
+        <v>43778</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="4"/>
@@ -6001,42 +6012,40 @@
         <v>0</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>33</v>
+        <v>239</v>
       </c>
       <c r="H89" s="7"/>
       <c r="J89" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>43778</v>
+        <v>43415</v>
       </c>
       <c r="D90" s="6"/>
       <c r="E90" s="4"/>
       <c r="F90" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>241</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G90" s="4"/>
       <c r="H90" s="7"/>
       <c r="J90" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C91" s="1" t="n">
         <v>43415</v>
@@ -6044,37 +6053,36 @@
       <c r="D91" s="6"/>
       <c r="E91" s="4"/>
       <c r="F91" s="17" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="7"/>
       <c r="J91" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="10" t="s">
-        <v>246</v>
+      <c r="A92" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>43415</v>
+        <v>43784</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="4"/>
       <c r="F92" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G92" s="4"/>
+      <c r="G92" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H92" s="7"/>
-      <c r="J92" s="8" t="s">
-        <v>248</v>
-      </c>
     </row>
     <row r="93" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="10" t="s">
         <v>249</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -6086,22 +6094,20 @@
       <c r="D93" s="6"/>
       <c r="E93" s="4"/>
       <c r="F93" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G93" s="4"/>
       <c r="H93" s="7"/>
     </row>
     <row r="94" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="B94" s="5" t="s">
-        <v>252</v>
+      <c r="B94" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>43784</v>
+        <v>43786</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="4"/>
@@ -6113,18 +6119,18 @@
     </row>
     <row r="95" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>253</v>
-      </c>
       <c r="C95" s="1" t="n">
-        <v>43786</v>
+        <v>43801</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="4"/>
       <c r="F95" s="17" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="7"/>
@@ -6152,10 +6158,10 @@
         <v>256</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>43801</v>
+        <v>43804</v>
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="4"/>
@@ -6164,16 +6170,19 @@
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="7"/>
+      <c r="J97" s="8" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="98" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="5" t="s">
         <v>258</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>258</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>43804</v>
+        <v>43806</v>
       </c>
       <c r="D98" s="6"/>
       <c r="E98" s="4"/>
@@ -6182,19 +6191,16 @@
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="7"/>
-      <c r="J98" s="8" t="s">
+    </row>
+    <row r="99" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="10" t="s">
         <v>259</v>
-      </c>
-    </row>
-    <row r="99" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>260</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>43806</v>
+        <v>43807</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="4"/>
@@ -6204,123 +6210,123 @@
       <c r="G99" s="4"/>
       <c r="H99" s="7"/>
     </row>
-    <row r="100" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="10" t="s">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5" t="s">
         <v>261</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>262</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>43807</v>
-      </c>
-      <c r="D100" s="6"/>
-      <c r="E100" s="4"/>
+        <v>43813</v>
+      </c>
+      <c r="D100" s="23"/>
+      <c r="E100" s="24"/>
       <c r="F100" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G100" s="4"/>
+      <c r="G100" s="25"/>
       <c r="H100" s="7"/>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
         <v>263</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>43813</v>
       </c>
-      <c r="D101" s="23"/>
-      <c r="E101" s="24"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="4"/>
       <c r="F101" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G101" s="25"/>
+        <v>149</v>
+      </c>
+      <c r="G101" s="4"/>
       <c r="H101" s="7"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
     </row>
     <row r="102" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5" t="s">
-        <v>265</v>
+      <c r="A102" s="10" t="s">
+        <v>264</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>265</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>43813</v>
+        <v>43817</v>
       </c>
       <c r="D102" s="6"/>
       <c r="E102" s="4"/>
-      <c r="F102" s="17" t="s">
-        <v>151</v>
+      <c r="F102" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="7"/>
     </row>
     <row r="103" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B103" s="5" t="s">
-        <v>267</v>
+      <c r="B103" s="26" t="s">
+        <v>266</v>
       </c>
       <c r="C103" s="1" t="n">
         <v>43817</v>
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="4"/>
-      <c r="F103" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G103" s="4"/>
+      <c r="F103" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="H103" s="7"/>
     </row>
-    <row r="104" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5" t="s">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B104" s="26" t="s">
-        <v>268</v>
+      <c r="B104" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>43817</v>
-      </c>
-      <c r="D104" s="6"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="H104" s="7"/>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="10" t="s">
+        <v>43822</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="105" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5" t="s">
         <v>270</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>271</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>43822</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>265</v>
-      </c>
+        <v>43824</v>
+      </c>
+      <c r="D105" s="6"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G105" s="4"/>
+      <c r="H105" s="7"/>
     </row>
     <row r="106" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="10" t="s">
         <v>272</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>273</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>43824</v>
+        <v>43825</v>
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="4"/>
@@ -6349,25 +6355,25 @@
       <c r="H107" s="7"/>
     </row>
     <row r="108" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="16" t="s">
         <v>276</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>277</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>43825</v>
+        <v>43827</v>
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="4"/>
       <c r="F108" s="17" t="s">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="7"/>
     </row>
-    <row r="109" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="16" t="s">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="10" t="s">
         <v>278</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -6378,40 +6384,39 @@
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="G109" s="4"/>
+      <c r="F109" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H109" s="7"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>43827</v>
-      </c>
-      <c r="D110" s="6"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H110" s="7"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
+        <v>43829</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J110" s="8" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="10" t="s">
-        <v>283</v>
+      <c r="A111" s="0" t="s">
+        <v>284</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C111" s="1" t="n">
         <v>43829</v>
@@ -6419,16 +6424,19 @@
       <c r="F111" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="G111" s="4" t="s">
+        <v>286</v>
+      </c>
       <c r="J111" s="8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>286</v>
+      <c r="A112" s="10" t="s">
+        <v>288</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C112" s="1" t="n">
         <v>43829</v>
@@ -6436,44 +6444,38 @@
       <c r="F112" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G112" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="J112" s="8" t="s">
-        <v>289</v>
-      </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="26" t="s">
         <v>291</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>43829</v>
-      </c>
+        <v>43830</v>
+      </c>
+      <c r="D113" s="1"/>
+      <c r="E113" s="7"/>
       <c r="F113" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="G113" s="7" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B114" s="26" t="s">
+      <c r="A114" s="0" t="s">
         <v>293</v>
       </c>
+      <c r="B114" s="5" t="s">
+        <v>294</v>
+      </c>
       <c r="C114" s="1" t="n">
-        <v>43830</v>
-      </c>
-      <c r="D114" s="1"/>
-      <c r="E114" s="7"/>
+        <v>43833</v>
+      </c>
       <c r="F114" s="17" t="s">
         <v>0</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6486,44 +6488,44 @@
       <c r="C115" s="1" t="n">
         <v>43833</v>
       </c>
-      <c r="F115" s="17" t="s">
-        <v>0</v>
+      <c r="F115" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="26" t="s">
         <v>298</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>43833</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>239</v>
+        <v>43834</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="J116" s="8" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="B117" s="26" t="s">
-        <v>300</v>
+      <c r="A117" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="C117" s="1" t="n">
         <v>43834</v>
       </c>
-      <c r="D117" s="1"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="J117" s="8" t="s">
-        <v>302</v>
+      <c r="F117" s="18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6536,12 +6538,12 @@
       <c r="C118" s="1" t="n">
         <v>43834</v>
       </c>
-      <c r="F118" s="18" t="s">
-        <v>30</v>
+      <c r="F118" s="17" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="5" t="s">
         <v>305</v>
       </c>
       <c r="B119" s="5" t="s">
@@ -6550,42 +6552,42 @@
       <c r="C119" s="1" t="n">
         <v>43834</v>
       </c>
-      <c r="F119" s="17" t="s">
-        <v>0</v>
+      <c r="F119" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="J119" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="5" t="s">
-        <v>307</v>
+      <c r="A120" s="0" t="s">
+        <v>309</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>43834</v>
-      </c>
-      <c r="F120" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="J120" s="8" t="s">
-        <v>310</v>
+        <v>43835</v>
+      </c>
+      <c r="F120" s="18" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="0" t="s">
         <v>312</v>
       </c>
       <c r="C121" s="1" t="n">
         <v>43835</v>
       </c>
-      <c r="F121" s="18" t="s">
-        <v>246</v>
+      <c r="F121" s="3" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6596,58 +6598,59 @@
         <v>314</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>43835</v>
+        <v>43836</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="0" t="s">
         <v>315</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C123" s="1" t="n">
         <v>43836</v>
       </c>
-      <c r="F123" s="3" t="s">
-        <v>261</v>
+      <c r="F123" s="17" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="B124" s="0" t="s">
+      <c r="A124" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B124" s="26" t="s">
         <v>317</v>
       </c>
       <c r="C124" s="1" t="n">
         <v>43836</v>
       </c>
+      <c r="D124" s="1"/>
+      <c r="E124" s="7"/>
       <c r="F124" s="17" t="s">
         <v>0</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B125" s="26" t="s">
+      <c r="B125" s="0" t="s">
         <v>319</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>43836</v>
-      </c>
-      <c r="D125" s="1"/>
-      <c r="E125" s="7"/>
+        <v>43837</v>
+      </c>
       <c r="F125" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G125" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="I125" s="8"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
@@ -6657,69 +6660,68 @@
         <v>321</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>43837</v>
-      </c>
-      <c r="F126" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I126" s="8"/>
+        <v>43838</v>
+      </c>
+      <c r="F126" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J126" s="8" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="5" t="s">
-        <v>322</v>
+      <c r="A127" s="10" t="s">
+        <v>323</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>43838</v>
       </c>
-      <c r="F127" s="18" t="s">
-        <v>72</v>
+      <c r="F127" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B128" s="0" t="s">
+    </row>
+    <row r="128" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="9" t="s">
         <v>326</v>
       </c>
+      <c r="B128" s="26" t="s">
+        <v>327</v>
+      </c>
       <c r="C128" s="1" t="n">
-        <v>43838</v>
-      </c>
+        <v>43839</v>
+      </c>
+      <c r="D128" s="1"/>
+      <c r="E128" s="7"/>
       <c r="F128" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J128" s="8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="129" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="9" t="s">
+      <c r="G128" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B129" s="26" t="s">
+      <c r="H128" s="7"/>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="5" t="s">
         <v>329</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>330</v>
       </c>
       <c r="C129" s="1" t="n">
         <v>43839</v>
       </c>
-      <c r="D129" s="1"/>
-      <c r="E129" s="7"/>
       <c r="F129" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G129" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H129" s="7"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="10" t="s">
         <v>331</v>
       </c>
       <c r="B130" s="0" t="s">
@@ -6736,73 +6738,73 @@
       <c r="A131" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" s="26" t="s">
         <v>334</v>
       </c>
       <c r="C131" s="1" t="n">
         <v>43839</v>
       </c>
+      <c r="D131" s="1"/>
+      <c r="E131" s="7"/>
       <c r="F131" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="J131" s="8" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="B132" s="26" t="s">
+      <c r="A132" s="5" t="s">
         <v>336</v>
       </c>
+      <c r="B132" s="0" t="s">
+        <v>337</v>
+      </c>
       <c r="C132" s="1" t="n">
-        <v>43839</v>
-      </c>
-      <c r="D132" s="1"/>
-      <c r="E132" s="7"/>
+        <v>43840</v>
+      </c>
       <c r="F132" s="17" t="s">
         <v>0</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B133" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B133" s="26" t="s">
         <v>339</v>
       </c>
       <c r="C133" s="1" t="n">
         <v>43840</v>
       </c>
+      <c r="D133" s="1"/>
+      <c r="E133" s="7"/>
       <c r="F133" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J133" s="8" t="s">
+      <c r="G133" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B134" s="26" t="s">
+      <c r="B134" s="0" t="s">
         <v>341</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>43840</v>
-      </c>
-      <c r="D134" s="1"/>
-      <c r="E134" s="7"/>
+        <v>43841</v>
+      </c>
       <c r="F134" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G134" s="7" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="A135" s="10" t="s">
         <v>342</v>
       </c>
       <c r="B135" s="0" t="s">
@@ -6812,39 +6814,39 @@
         <v>43841</v>
       </c>
       <c r="F135" s="17" t="s">
-        <v>0</v>
+        <v>249</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="10" t="s">
+      <c r="A136" s="0" t="s">
         <v>344</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C136" s="1" t="n">
         <v>43841</v>
       </c>
-      <c r="F136" s="17" t="s">
-        <v>251</v>
+      <c r="F136" s="18" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
-        <v>346</v>
+      <c r="A137" s="10" t="s">
+        <v>345</v>
       </c>
       <c r="B137" s="0" t="s">
         <v>346</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>43841</v>
-      </c>
-      <c r="F137" s="18" t="s">
-        <v>210</v>
+        <v>43842</v>
+      </c>
+      <c r="F137" s="17" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="10" t="s">
+      <c r="A138" s="0" t="s">
         <v>347</v>
       </c>
       <c r="B138" s="0" t="s">
@@ -6879,14 +6881,14 @@
         <v>352</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>43842</v>
-      </c>
-      <c r="F140" s="17" t="s">
-        <v>0</v>
+        <v>43843</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="A141" s="10" t="s">
         <v>353</v>
       </c>
       <c r="B141" s="0" t="s">
@@ -6895,8 +6897,8 @@
       <c r="C141" s="1" t="n">
         <v>43843</v>
       </c>
-      <c r="F141" s="3" t="s">
-        <v>41</v>
+      <c r="F141" s="17" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6909,8 +6911,8 @@
       <c r="C142" s="1" t="n">
         <v>43843</v>
       </c>
-      <c r="F142" s="17" t="s">
-        <v>0</v>
+      <c r="F142" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6921,93 +6923,94 @@
         <v>358</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>43843</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>144</v>
+        <v>43844</v>
+      </c>
+      <c r="F143" s="17" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="10" t="s">
+      <c r="A144" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" s="5" t="s">
         <v>360</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>43844</v>
-      </c>
+        <v>43845</v>
+      </c>
+      <c r="D144" s="1"/>
+      <c r="E144" s="7"/>
       <c r="F144" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="G144" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="27" t="s">
         <v>362</v>
       </c>
       <c r="C145" s="1" t="n">
         <v>43845</v>
       </c>
-      <c r="D145" s="1"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>33</v>
+      <c r="F145" s="3" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="B146" s="27" t="s">
         <v>364</v>
       </c>
+      <c r="B146" s="20" t="s">
+        <v>365</v>
+      </c>
       <c r="C146" s="1" t="n">
-        <v>43845</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>365</v>
+        <v>43846</v>
+      </c>
+      <c r="D146" s="1"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="17" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="21" t="s">
+      <c r="A147" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="B147" s="20" t="s">
+      <c r="B147" s="5" t="s">
         <v>367</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>43846</v>
-      </c>
-      <c r="D147" s="1"/>
-      <c r="E147" s="7"/>
+        <v>43847</v>
+      </c>
       <c r="F147" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="G147" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="28" t="s">
+      <c r="A148" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="0" t="s">
         <v>369</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>43847</v>
-      </c>
-      <c r="F148" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>43848</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -7027,40 +7030,40 @@
     <hyperlink ref="J30" r:id="rId13" display="qiangw1218@gmail.com"/>
     <hyperlink ref="J33" r:id="rId14" display="rizeng.zheng@gmail.com"/>
     <hyperlink ref="J34" r:id="rId15" display="dongli.pek@gmail.com"/>
-    <hyperlink ref="J38" r:id="rId16" display="thumbpixels@gmail.com"/>
-    <hyperlink ref="J40" r:id="rId17" display="tiffanytingliu@gmail.com"/>
-    <hyperlink ref="J41" r:id="rId18" display="jiashenzzzzz@gmail.com"/>
-    <hyperlink ref="J45" r:id="rId19" display="ljr941226@gmail.com"/>
-    <hyperlink ref="J47" r:id="rId20" display="weidong6686@gmail.com"/>
-    <hyperlink ref="J48" r:id="rId21" display="yinfirefire@gmail.com"/>
-    <hyperlink ref="J50" r:id="rId22" display="amangoworks@gmail.com"/>
-    <hyperlink ref="J51" r:id="rId23" display="litian930220@gmail.com"/>
-    <hyperlink ref="J55" r:id="rId24" display="tongliu562@gmail.com"/>
-    <hyperlink ref="J56" r:id="rId25" display="xiaoyuzhang0217@gmail.com"/>
-    <hyperlink ref="J57" r:id="rId26" display="zerotrac2259@gmail.com"/>
-    <hyperlink ref="J67" r:id="rId27" display="yangzhenyu2017@163.com"/>
-    <hyperlink ref="J68" r:id="rId28" display="lichuan@umich.edu"/>
-    <hyperlink ref="J71" r:id="rId29" display="hp1100@nyu.edu"/>
-    <hyperlink ref="J73" r:id="rId30" display="wangzhiyu0517@gmail.com"/>
-    <hyperlink ref="J74" r:id="rId31" display="machaochun1@gmail.com"/>
-    <hyperlink ref="J76" r:id="rId32" display="hellowordsunny@gmail.com"/>
-    <hyperlink ref="J79" r:id="rId33" display="dennanisny@hotmail.com"/>
-    <hyperlink ref="J80" r:id="rId34" display="josyconcordia@gmail.com"/>
-    <hyperlink ref="J81" r:id="rId35" display="xinganlu1@gmail.com"/>
-    <hyperlink ref="J82" r:id="rId36" display="bh1517zhr@gmail.com"/>
-    <hyperlink ref="J89" r:id="rId37" display="leo.6.wgao@gmail.com"/>
-    <hyperlink ref="J90" r:id="rId38" display="yuhanwu2018@gmail.com"/>
-    <hyperlink ref="J91" r:id="rId39" display="wdy317138@gmail.com"/>
-    <hyperlink ref="J92" r:id="rId40" display="johnkelvinson@gmail.com"/>
-    <hyperlink ref="J98" r:id="rId41" display="anhpp123@gmail.com"/>
-    <hyperlink ref="J111" r:id="rId42" display="linshuhsin@gmail.com"/>
-    <hyperlink ref="J112" r:id="rId43" display="huanglanzhiguan@gmail.com"/>
-    <hyperlink ref="J117" r:id="rId44" display="pingjing@gmail.com"/>
-    <hyperlink ref="J120" r:id="rId45" display="wangyxjason@gmail.com"/>
-    <hyperlink ref="J127" r:id="rId46" display="nickyfoto@gmail.com"/>
-    <hyperlink ref="J128" r:id="rId47" display="zhengxu1994620@gmail.com"/>
-    <hyperlink ref="J132" r:id="rId48" display="arron1990spring@gmail.com"/>
-    <hyperlink ref="J133" r:id="rId49" display="jonathanyuheng@gmail.com"/>
+    <hyperlink ref="J37" r:id="rId16" display="thumbpixels@gmail.com"/>
+    <hyperlink ref="J39" r:id="rId17" display="tiffanytingliu@gmail.com"/>
+    <hyperlink ref="J40" r:id="rId18" display="jiashenzzzzz@gmail.com"/>
+    <hyperlink ref="J44" r:id="rId19" display="ljr941226@gmail.com"/>
+    <hyperlink ref="J46" r:id="rId20" display="weidong6686@gmail.com"/>
+    <hyperlink ref="J47" r:id="rId21" display="yinfirefire@gmail.com"/>
+    <hyperlink ref="J49" r:id="rId22" display="amangoworks@gmail.com"/>
+    <hyperlink ref="J50" r:id="rId23" display="litian930220@gmail.com"/>
+    <hyperlink ref="J54" r:id="rId24" display="tongliu562@gmail.com"/>
+    <hyperlink ref="J55" r:id="rId25" display="xiaoyuzhang0217@gmail.com"/>
+    <hyperlink ref="J56" r:id="rId26" display="zerotrac2259@gmail.com"/>
+    <hyperlink ref="J66" r:id="rId27" display="yangzhenyu2017@163.com"/>
+    <hyperlink ref="J67" r:id="rId28" display="lichuan@umich.edu"/>
+    <hyperlink ref="J70" r:id="rId29" display="hp1100@nyu.edu"/>
+    <hyperlink ref="J72" r:id="rId30" display="wangzhiyu0517@gmail.com"/>
+    <hyperlink ref="J73" r:id="rId31" display="machaochun1@gmail.com"/>
+    <hyperlink ref="J75" r:id="rId32" display="hellowordsunny@gmail.com"/>
+    <hyperlink ref="J78" r:id="rId33" display="dennanisny@hotmail.com"/>
+    <hyperlink ref="J79" r:id="rId34" display="josyconcordia@gmail.com"/>
+    <hyperlink ref="J80" r:id="rId35" display="xinganlu1@gmail.com"/>
+    <hyperlink ref="J81" r:id="rId36" display="bh1517zhr@gmail.com"/>
+    <hyperlink ref="J88" r:id="rId37" display="leo.6.wgao@gmail.com"/>
+    <hyperlink ref="J89" r:id="rId38" display="yuhanwu2018@gmail.com"/>
+    <hyperlink ref="J90" r:id="rId39" display="wdy317138@gmail.com"/>
+    <hyperlink ref="J91" r:id="rId40" display="johnkelvinson@gmail.com"/>
+    <hyperlink ref="J97" r:id="rId41" display="anhpp123@gmail.com"/>
+    <hyperlink ref="J110" r:id="rId42" display="linshuhsin@gmail.com"/>
+    <hyperlink ref="J111" r:id="rId43" display="huanglanzhiguan@gmail.com"/>
+    <hyperlink ref="J116" r:id="rId44" display="pingjing@gmail.com"/>
+    <hyperlink ref="J119" r:id="rId45" display="wangyxjason@gmail.com"/>
+    <hyperlink ref="J126" r:id="rId46" display="nickyfoto@gmail.com"/>
+    <hyperlink ref="J127" r:id="rId47" display="zhengxu1994620@gmail.com"/>
+    <hyperlink ref="J131" r:id="rId48" display="arron1990spring@gmail.com"/>
+    <hyperlink ref="J132" r:id="rId49" display="jonathanyuheng@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -7077,10 +7080,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J310"/>
+  <dimension ref="A1:J311"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A278" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F313" activeCellId="0" sqref="F313"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A283" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D316" activeCellId="0" sqref="D316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7343,7 +7346,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="7"/>
@@ -8090,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H43" s="36" t="s">
         <v>448</v>
@@ -8225,10 +8228,10 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="33" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C49" s="23" t="n">
         <v>43364</v>
@@ -8606,10 +8609,10 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="33" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C64" s="23" t="n">
         <v>43345</v>
@@ -8623,7 +8626,7 @@
       </c>
       <c r="F64" s="25"/>
       <c r="G64" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H64" s="25"/>
       <c r="I64" s="33"/>
@@ -8633,10 +8636,10 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C65" s="23" t="n">
         <v>43444</v>
@@ -8663,7 +8666,7 @@
         <v>490</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C66" s="23" t="n">
         <v>43450</v>
@@ -8710,10 +8713,10 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C68" s="23" t="n">
         <v>43438</v>
@@ -8867,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="25" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H73" s="36"/>
       <c r="I73" s="33"/>
@@ -9331,7 +9334,7 @@
         <v>60</v>
       </c>
       <c r="F91" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G91" s="25" t="s">
         <v>1</v>
@@ -9654,7 +9657,7 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B104" s="31" t="s">
         <v>573</v>
@@ -9966,7 +9969,7 @@
         <v>589</v>
       </c>
       <c r="G115" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H115" s="36" t="s">
         <v>448</v>
@@ -10084,10 +10087,10 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C120" s="23" t="n">
         <v>43354</v>
@@ -10292,10 +10295,10 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="33" t="s">
-        <v>102</v>
+        <v>613</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>103</v>
+        <v>614</v>
       </c>
       <c r="C128" s="23" t="n">
         <v>43556</v>
@@ -10317,10 +10320,10 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="33" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C129" s="23" t="n">
         <v>43577</v>
@@ -10336,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="25" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H129" s="25"/>
       <c r="I129" s="33"/>
@@ -10344,10 +10347,10 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="44" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C130" s="23" t="n">
         <v>43548</v>
@@ -10360,7 +10363,7 @@
         <v>46</v>
       </c>
       <c r="F130" s="36" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G130" s="25" t="s">
         <v>61</v>
@@ -10371,10 +10374,10 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="44" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C131" s="23" t="n">
         <v>43558</v>
@@ -10396,7 +10399,7 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="44" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B132" s="40" t="n">
         <v>1373757850</v>
@@ -10415,7 +10418,7 @@
         <v>0</v>
       </c>
       <c r="G132" s="25" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="H132" s="25"/>
       <c r="I132" s="33"/>
@@ -10423,10 +10426,10 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="33" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C133" s="23" t="n">
         <v>43541</v>
@@ -10448,10 +10451,10 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="30" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B134" s="31" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C134" s="23" t="n">
         <v>43381</v>
@@ -10467,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="G134" s="25" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H134" s="25"/>
       <c r="I134" s="33"/>
@@ -10475,10 +10478,10 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="33" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B135" s="31" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C135" s="23" t="n">
         <v>43449</v>
@@ -10500,10 +10503,10 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="33" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C136" s="23" t="n">
         <v>43398</v>
@@ -10527,10 +10530,10 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="44" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C137" s="23" t="n">
         <v>43584</v>
@@ -10543,7 +10546,7 @@
         <v>15</v>
       </c>
       <c r="F137" s="25" t="s">
-        <v>102</v>
+        <v>613</v>
       </c>
       <c r="G137" s="25"/>
       <c r="H137" s="25"/>
@@ -10552,10 +10555,10 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="33" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C138" s="23" t="n">
         <v>43572</v>
@@ -10602,10 +10605,10 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="33" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C140" s="23" t="n">
         <v>43469</v>
@@ -10624,15 +10627,15 @@
       <c r="H140" s="7"/>
       <c r="I140" s="5"/>
       <c r="J140" s="8" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="44" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C141" s="23" t="n">
         <v>43527</v>
@@ -10645,7 +10648,7 @@
         <v>76</v>
       </c>
       <c r="F141" s="24" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="7"/>
@@ -10654,10 +10657,10 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="33" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C142" s="23" t="n">
         <v>43587</v>
@@ -10679,10 +10682,10 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="44" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C143" s="23" t="n">
         <v>43544</v>
@@ -10698,7 +10701,7 @@
         <v>0</v>
       </c>
       <c r="G143" s="25" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="H143" s="25"/>
       <c r="I143" s="33"/>
@@ -10706,10 +10709,10 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="30" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C144" s="23" t="n">
         <v>43605</v>
@@ -10725,16 +10728,16 @@
         <v>0</v>
       </c>
       <c r="G144" s="25" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H144" s="4"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="33" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C145" s="23" t="n">
         <v>43544</v>
@@ -10750,7 +10753,7 @@
         <v>64</v>
       </c>
       <c r="G145" s="25" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H145" s="25"/>
       <c r="I145" s="33"/>
@@ -10758,10 +10761,10 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="44" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C146" s="23" t="n">
         <v>43527</v>
@@ -10783,10 +10786,10 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="33" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C147" s="23" t="n">
         <v>43591</v>
@@ -10808,10 +10811,10 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="44" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C148" s="23" t="n">
         <v>43548</v>
@@ -10824,7 +10827,7 @@
         <v>69</v>
       </c>
       <c r="F148" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G148" s="25"/>
       <c r="H148" s="25"/>
@@ -10862,10 +10865,10 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="44" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C150" s="23" t="n">
         <v>43594</v>
@@ -10887,10 +10890,10 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="33" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C151" s="23" t="n">
         <v>43613</v>
@@ -10941,10 +10944,10 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="30" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B153" s="31" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C153" s="23" t="n">
         <v>43352</v>
@@ -10968,10 +10971,10 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="33" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B154" s="31" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C154" s="23" t="n">
         <v>43568</v>
@@ -10995,10 +10998,10 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="33" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C155" s="23" t="n">
         <v>43591</v>
@@ -11020,10 +11023,10 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="33" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C156" s="23" t="n">
         <v>43550</v>
@@ -11045,10 +11048,10 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="30" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C157" s="23" t="n">
         <v>43597</v>
@@ -11070,10 +11073,10 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="33" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C158" s="23" t="n">
         <v>43386</v>
@@ -11094,7 +11097,7 @@
       <c r="H158" s="7"/>
       <c r="I158" s="5"/>
       <c r="J158" s="12" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11124,10 +11127,10 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="44" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C160" s="23" t="n">
         <v>43591</v>
@@ -11149,10 +11152,10 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="44" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B161" s="31" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C161" s="23" t="n">
         <v>43594</v>
@@ -11165,7 +11168,7 @@
         <v>37</v>
       </c>
       <c r="F161" s="46" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G161" s="25"/>
       <c r="H161" s="25"/>
@@ -11174,10 +11177,10 @@
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="44" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B162" s="31" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C162" s="23" t="n">
         <v>43631</v>
@@ -11190,7 +11193,7 @@
         <v>0</v>
       </c>
       <c r="F162" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G162" s="25"/>
       <c r="H162" s="25"/>
@@ -11202,7 +11205,7 @@
         <v>45</v>
       </c>
       <c r="B163" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C163" s="23" t="n">
         <v>43619</v>
@@ -11215,7 +11218,7 @@
         <v>18</v>
       </c>
       <c r="F163" s="25" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G163" s="25" t="s">
         <v>33</v>
@@ -11226,10 +11229,10 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="33" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C164" s="23" t="n">
         <v>43545</v>
@@ -11267,7 +11270,7 @@
         <v>22</v>
       </c>
       <c r="F165" s="24" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="G165" s="25" t="s">
         <v>1</v>
@@ -11278,7 +11281,7 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="30" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B166" s="31" t="s">
         <v>385</v>
@@ -11297,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="G166" s="25" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H166" s="7"/>
       <c r="I166" s="5"/>
@@ -11305,10 +11308,10 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="44" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C167" s="23" t="n">
         <v>43628</v>
@@ -11330,10 +11333,10 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="33" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C168" s="23" t="n">
         <v>43512</v>
@@ -11355,10 +11358,10 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="49" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B169" s="50" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C169" s="23" t="n">
         <v>43630</v>
@@ -11371,7 +11374,7 @@
         <v>15</v>
       </c>
       <c r="F169" s="25" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="G169" s="25"/>
       <c r="H169" s="25"/>
@@ -11380,10 +11383,10 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B170" s="31" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C170" s="23" t="n">
         <v>43619</v>
@@ -11407,10 +11410,10 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="33" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B171" s="31" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C171" s="23" t="n">
         <v>43575</v>
@@ -11430,10 +11433,10 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="33" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B172" s="31" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C172" s="23" t="n">
         <v>43548</v>
@@ -11446,10 +11449,10 @@
         <v>109</v>
       </c>
       <c r="F172" s="36" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G172" s="25" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="H172" s="25"/>
       <c r="I172" s="33"/>
@@ -11457,10 +11460,10 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="33" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B173" s="31" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C173" s="23" t="n">
         <v>43617</v>
@@ -11473,23 +11476,23 @@
         <v>42</v>
       </c>
       <c r="F173" s="46" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G173" s="25" t="s">
         <v>1</v>
       </c>
       <c r="H173" s="25" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="I173" s="33"/>
       <c r="J173" s="33"/>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="33" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B174" s="31" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C174" s="23" t="n">
         <v>43620</v>
@@ -11538,10 +11541,10 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B176" s="31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C176" s="23" t="n">
         <v>43502</v>
@@ -11565,10 +11568,10 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="33" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B177" s="31" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C177" s="23" t="n">
         <v>43632</v>
@@ -11581,7 +11584,7 @@
         <v>27</v>
       </c>
       <c r="F177" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G177" s="25"/>
       <c r="H177" s="25"/>
@@ -11590,10 +11593,10 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="33" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B178" s="31" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C178" s="23" t="n">
         <v>43398</v>
@@ -11619,10 +11622,10 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="44" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B179" s="31" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C179" s="23" t="n">
         <v>43576</v>
@@ -11646,10 +11649,10 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="49" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B180" s="31" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C180" s="23" t="n">
         <v>43665</v>
@@ -11662,7 +11665,7 @@
         <v>1</v>
       </c>
       <c r="F180" s="24" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="7"/>
@@ -11671,10 +11674,10 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="44" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B181" s="31" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C181" s="23" t="n">
         <v>43544</v>
@@ -11693,14 +11696,14 @@
         <v>1</v>
       </c>
       <c r="H181" s="25" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="I181" s="33"/>
       <c r="J181" s="33"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="44" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B182" s="40" t="n">
         <v>1373757850</v>
@@ -11719,7 +11722,7 @@
         <v>0</v>
       </c>
       <c r="G182" s="25" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="H182" s="25"/>
       <c r="I182" s="33"/>
@@ -11727,10 +11730,10 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="33" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C183" s="23" t="n">
         <v>43539</v>
@@ -11752,10 +11755,10 @@
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="33" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B184" s="31" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C184" s="23" t="n">
         <v>43345</v>
@@ -11777,10 +11780,10 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="33" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B185" s="31" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C185" s="23" t="n">
         <v>43619</v>
@@ -11802,10 +11805,10 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="44" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B186" s="31" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C186" s="23" t="n">
         <v>43632</v>
@@ -11821,7 +11824,7 @@
         <v>0</v>
       </c>
       <c r="G186" s="25" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H186" s="25"/>
       <c r="I186" s="33"/>
@@ -11829,10 +11832,10 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="44" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B187" s="31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C187" s="23" t="n">
         <v>43618</v>
@@ -11879,10 +11882,10 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="44" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B189" s="31" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C189" s="23" t="n">
         <v>43579</v>
@@ -11908,10 +11911,10 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="49" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B190" s="31" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C190" s="23" t="n">
         <v>43673</v>
@@ -11933,10 +11936,10 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="33" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B191" s="31" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C191" s="23" t="n">
         <v>43578</v>
@@ -11960,10 +11963,10 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="33" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B192" s="31" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C192" s="23" t="n">
         <v>43602</v>
@@ -11980,17 +11983,17 @@
       </c>
       <c r="G192" s="25"/>
       <c r="H192" s="25" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="I192" s="33"/>
       <c r="J192" s="33"/>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="44" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B193" s="31" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C193" s="23" t="n">
         <v>43682</v>
@@ -12003,7 +12006,7 @@
         <v>13</v>
       </c>
       <c r="F193" s="46" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="G193" s="25"/>
       <c r="H193" s="25"/>
@@ -12015,7 +12018,7 @@
         <v>92</v>
       </c>
       <c r="B194" s="31" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C194" s="23" t="n">
         <v>43544</v>
@@ -12031,17 +12034,17 @@
         <v>0</v>
       </c>
       <c r="H194" s="25" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="I194" s="33"/>
       <c r="J194" s="33"/>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="44" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B195" s="31" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C195" s="23" t="n">
         <v>43688</v>
@@ -12063,10 +12066,10 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="49" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B196" s="31" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C196" s="23" t="n">
         <v>43653</v>
@@ -12082,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="G196" s="25" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H196" s="25"/>
       <c r="I196" s="33"/>
@@ -12090,10 +12093,10 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="49" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B197" s="31" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C197" s="23" t="n">
         <v>43668</v>
@@ -12115,10 +12118,10 @@
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="33" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B198" s="31" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C198" s="23" t="n">
         <v>43618</v>
@@ -12140,10 +12143,10 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="44" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B199" s="31" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C199" s="23" t="n">
         <v>43587</v>
@@ -12165,10 +12168,10 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="49" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B200" s="40" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C200" s="23" t="n">
         <v>43624</v>
@@ -12181,20 +12184,20 @@
         <v>76</v>
       </c>
       <c r="F200" s="24" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H200" s="25" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="I200" s="33"/>
       <c r="J200" s="33"/>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="49" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B201" s="31" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C201" s="23" t="n">
         <v>43685</v>
@@ -12207,7 +12210,7 @@
         <v>16</v>
       </c>
       <c r="F201" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G201" s="25" t="s">
         <v>1</v>
@@ -12218,10 +12221,10 @@
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="49" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B202" s="40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C202" s="23" t="n">
         <v>43626</v>
@@ -12243,10 +12246,10 @@
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="33" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B203" s="31" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C203" s="23" t="n">
         <v>43361</v>
@@ -12262,17 +12265,17 @@
         <v>0</v>
       </c>
       <c r="G203" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="H203" s="25"/>
       <c r="I203" s="33"/>
       <c r="J203" s="42" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="44" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B204" s="31" t="s">
         <v>67</v>
@@ -12288,7 +12291,7 @@
         <v>83</v>
       </c>
       <c r="F204" s="25" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="G204" s="25" t="s">
         <v>1</v>
@@ -12299,10 +12302,10 @@
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="44" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B205" s="31" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C205" s="23" t="n">
         <v>43640</v>
@@ -12315,7 +12318,7 @@
         <v>68</v>
       </c>
       <c r="F205" s="36" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="G205" s="25"/>
       <c r="H205" s="25"/>
@@ -12324,10 +12327,10 @@
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="41" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B206" s="40" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C206" s="23" t="n">
         <v>43622</v>
@@ -12340,7 +12343,7 @@
         <v>86</v>
       </c>
       <c r="F206" s="36" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="G206" s="25"/>
       <c r="H206" s="25"/>
@@ -12349,10 +12352,10 @@
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="44" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B207" s="31" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C207" s="23" t="n">
         <v>43630</v>
@@ -12374,10 +12377,10 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="49" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B208" s="31" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C208" s="23" t="n">
         <v>43647</v>
@@ -12399,10 +12402,10 @@
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="44" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B209" s="31" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C209" s="23" t="n">
         <v>43522</v>
@@ -12424,10 +12427,10 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="44" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B210" s="31" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C210" s="23" t="n">
         <v>43524</v>
@@ -12443,7 +12446,7 @@
         <v>0</v>
       </c>
       <c r="G210" s="25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H210" s="25"/>
       <c r="I210" s="33"/>
@@ -12451,10 +12454,10 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="33" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B211" s="31" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C211" s="23" t="n">
         <v>43598</v>
@@ -12467,10 +12470,10 @@
         <v>114</v>
       </c>
       <c r="F211" s="24" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="G211" s="25" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H211" s="25"/>
       <c r="I211" s="33"/>
@@ -12478,10 +12481,10 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="49" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B212" s="40" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C212" s="23" t="n">
         <v>43622</v>
@@ -12505,10 +12508,10 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="44" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B213" s="31" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C213" s="23" t="n">
         <v>43688</v>
@@ -12530,10 +12533,10 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="44" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B214" s="31" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C214" s="23" t="n">
         <v>43666</v>
@@ -12546,7 +12549,7 @@
         <v>56</v>
       </c>
       <c r="F214" s="25" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="G214" s="25"/>
       <c r="H214" s="25"/>
@@ -12555,10 +12558,10 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="33" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B215" s="31" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C215" s="23" t="n">
         <v>43702</v>
@@ -12571,7 +12574,7 @@
         <v>20</v>
       </c>
       <c r="F215" s="24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G215" s="25"/>
       <c r="H215" s="25"/>
@@ -12580,10 +12583,10 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="44" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B216" s="40" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C216" s="23" t="n">
         <v>43712</v>
@@ -12596,23 +12599,23 @@
         <v>15</v>
       </c>
       <c r="F216" s="46" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="G216" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H216" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I216" s="48"/>
       <c r="J216" s="48"/>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="44" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B217" s="31" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C217" s="23" t="n">
         <v>43709</v>
@@ -12636,10 +12639,10 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="44" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B218" s="40" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C218" s="23" t="n">
         <v>43713</v>
@@ -12661,10 +12664,10 @@
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="49" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B219" s="40" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C219" s="23" t="n">
         <v>43725</v>
@@ -12677,10 +12680,10 @@
         <v>5</v>
       </c>
       <c r="F219" s="24" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G219" s="25" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="H219" s="25"/>
       <c r="I219" s="33"/>
@@ -12688,10 +12691,10 @@
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="30" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B220" s="31" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C220" s="23" t="n">
         <v>43380</v>
@@ -12707,20 +12710,20 @@
         <v>0</v>
       </c>
       <c r="G220" s="25" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="H220" s="25"/>
       <c r="I220" s="33"/>
       <c r="J220" s="42" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="49" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B221" s="40" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C221" s="23" t="n">
         <v>43718</v>
@@ -12742,10 +12745,10 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="44" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B222" s="40" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C222" s="23" t="n">
         <v>43722</v>
@@ -12758,7 +12761,7 @@
         <v>13</v>
       </c>
       <c r="F222" s="46" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="G222" s="25"/>
       <c r="H222" s="25"/>
@@ -12767,10 +12770,10 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="44" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B223" s="40" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C223" s="23" t="n">
         <v>43731</v>
@@ -12783,7 +12786,7 @@
         <v>4</v>
       </c>
       <c r="F223" s="24" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="G223" s="25"/>
       <c r="H223" s="25"/>
@@ -12792,10 +12795,10 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B224" s="31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C224" s="23" t="n">
         <v>43471</v>
@@ -12822,7 +12825,7 @@
         <v>570</v>
       </c>
       <c r="B225" s="31" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C225" s="23" t="n">
         <v>43473</v>
@@ -12838,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="G225" s="25" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="H225" s="25"/>
       <c r="I225" s="33"/>
@@ -12846,10 +12849,10 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="44" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B226" s="31" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C226" s="23" t="n">
         <v>43698</v>
@@ -12865,7 +12868,7 @@
         <v>0</v>
       </c>
       <c r="G226" s="25" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="H226" s="25"/>
       <c r="I226" s="33"/>
@@ -12873,10 +12876,10 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="49" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B227" s="40" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C227" s="23" t="n">
         <v>43718</v>
@@ -12889,7 +12892,7 @@
         <v>19</v>
       </c>
       <c r="F227" s="46" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G227" s="4"/>
       <c r="H227" s="7"/>
@@ -12898,10 +12901,10 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="51" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B228" s="52" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C228" s="53" t="n">
         <v>43702</v>
@@ -12923,10 +12926,10 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="30" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B229" s="31" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C229" s="23" t="n">
         <v>43459</v>
@@ -12948,10 +12951,10 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="49" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B230" s="40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C230" s="23" t="n">
         <v>43710</v>
@@ -12973,10 +12976,10 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="49" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B231" s="40" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C231" s="23" t="n">
         <v>43726</v>
@@ -12989,7 +12992,7 @@
         <v>15</v>
       </c>
       <c r="F231" s="25" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="G231" s="25" t="s">
         <v>494</v>
@@ -13000,10 +13003,10 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="49" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B232" s="40" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C232" s="23" t="n">
         <v>43739</v>
@@ -13016,7 +13019,7 @@
         <v>3</v>
       </c>
       <c r="F232" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G232" s="25"/>
       <c r="H232" s="25"/>
@@ -13025,10 +13028,10 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B233" s="31" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C233" s="23" t="n">
         <v>43681</v>
@@ -13041,7 +13044,7 @@
         <v>61</v>
       </c>
       <c r="F233" s="46" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="G233" s="25"/>
       <c r="H233" s="25"/>
@@ -13050,10 +13053,10 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="33" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B234" s="31" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C234" s="23" t="n">
         <v>43620</v>
@@ -13066,10 +13069,10 @@
         <v>123</v>
       </c>
       <c r="F234" s="25" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G234" s="25" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H234" s="25"/>
       <c r="I234" s="33"/>
@@ -13077,10 +13080,10 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B235" s="31" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C235" s="23" t="n">
         <v>43576</v>
@@ -13104,10 +13107,10 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="44" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B236" s="31" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C236" s="23" t="n">
         <v>43548</v>
@@ -13129,10 +13132,10 @@
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="44" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B237" s="40" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C237" s="23" t="n">
         <v>43731</v>
@@ -13154,10 +13157,10 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="44" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B238" s="40" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C238" s="23" t="n">
         <v>43745</v>
@@ -13179,10 +13182,10 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="49" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B239" s="31" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C239" s="23" t="n">
         <v>43646</v>
@@ -13195,7 +13198,7 @@
         <v>104</v>
       </c>
       <c r="F239" s="55" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="G239" s="25"/>
       <c r="H239" s="25"/>
@@ -13204,10 +13207,10 @@
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="49" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B240" s="40" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C240" s="23" t="n">
         <v>43717</v>
@@ -13223,7 +13226,7 @@
         <v>570</v>
       </c>
       <c r="G240" s="25" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="H240" s="25"/>
       <c r="I240" s="33"/>
@@ -13231,10 +13234,10 @@
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="44" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B241" s="31" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C241" s="23" t="n">
         <v>43651</v>
@@ -13258,10 +13261,10 @@
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="49" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B242" s="40" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C242" s="23" t="n">
         <v>43744</v>
@@ -13274,7 +13277,7 @@
         <v>20</v>
       </c>
       <c r="F242" s="46" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="G242" s="25"/>
       <c r="H242" s="25"/>
@@ -13283,10 +13286,10 @@
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="33" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B243" s="31" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C243" s="23" t="n">
         <v>43736</v>
@@ -13308,10 +13311,10 @@
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="30" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B244" s="31" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C244" s="23" t="n">
         <v>43603</v>
@@ -13327,20 +13330,20 @@
         <v>92</v>
       </c>
       <c r="G244" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H244" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I244" s="33"/>
       <c r="J244" s="33"/>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="49" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B245" s="40" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C245" s="23" t="n">
         <v>43752</v>
@@ -13353,7 +13356,7 @@
         <v>19</v>
       </c>
       <c r="F245" s="24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G245" s="25"/>
       <c r="H245" s="25"/>
@@ -13362,10 +13365,10 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="49" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B246" s="31" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C246" s="23" t="n">
         <v>43646</v>
@@ -13378,7 +13381,7 @@
         <v>125</v>
       </c>
       <c r="F246" s="55" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="G246" s="25"/>
       <c r="H246" s="25"/>
@@ -13387,10 +13390,10 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="44" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B247" s="31" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C247" s="23" t="n">
         <v>43761</v>
@@ -13403,7 +13406,7 @@
         <v>10</v>
       </c>
       <c r="F247" s="55" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="G247" s="25"/>
       <c r="H247" s="25"/>
@@ -13412,10 +13415,10 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="44" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B248" s="31" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C248" s="23" t="n">
         <v>43521</v>
@@ -13437,10 +13440,10 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="33" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B249" s="31" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C249" s="23" t="n">
         <v>43758</v>
@@ -13453,7 +13456,7 @@
         <v>15</v>
       </c>
       <c r="F249" s="36" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="G249" s="25" t="s">
         <v>33</v>
@@ -13464,10 +13467,10 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="44" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B250" s="31" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C250" s="23" t="n">
         <v>43754</v>
@@ -13480,7 +13483,7 @@
         <v>21</v>
       </c>
       <c r="F250" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G250" s="4"/>
       <c r="H250" s="7"/>
@@ -13489,10 +13492,10 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="33" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B251" s="31" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C251" s="23" t="n">
         <v>43702</v>
@@ -13516,10 +13519,10 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="33" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B252" s="31" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C252" s="23" t="n">
         <v>43729</v>
@@ -13543,10 +13546,10 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="49" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B253" s="40" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C253" s="23" t="n">
         <v>43746</v>
@@ -13559,7 +13562,7 @@
         <v>35</v>
       </c>
       <c r="F253" s="24" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="G253" s="25"/>
       <c r="H253" s="25"/>
@@ -13568,10 +13571,10 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="33" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B254" s="31" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C254" s="23" t="n">
         <v>43620</v>
@@ -13593,10 +13596,10 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="44" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B255" s="31" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C255" s="23" t="n">
         <v>43780</v>
@@ -13609,7 +13612,7 @@
         <v>5</v>
       </c>
       <c r="F255" s="24" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G255" s="4"/>
       <c r="H255" s="7"/>
@@ -13618,7 +13621,7 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="30" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B256" s="31" t="s">
         <v>519</v>
@@ -13637,7 +13640,7 @@
         <v>75</v>
       </c>
       <c r="G256" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H256" s="25"/>
       <c r="I256" s="33"/>
@@ -13645,10 +13648,10 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="30" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B257" s="31" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C257" s="23" t="n">
         <v>43544</v>
@@ -13664,7 +13667,7 @@
         <v>0</v>
       </c>
       <c r="G257" s="56" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H257" s="7"/>
       <c r="I257" s="5"/>
@@ -13672,10 +13675,10 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="33" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B258" s="31" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C258" s="23" t="n">
         <v>43690</v>
@@ -13699,10 +13702,10 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="49" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B259" s="40" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C259" s="23" t="n">
         <v>43758</v>
@@ -13715,7 +13718,7 @@
         <v>32</v>
       </c>
       <c r="F259" s="36" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G259" s="25" t="s">
         <v>33</v>
@@ -13726,10 +13729,10 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="44" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B260" s="31" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C260" s="23" t="n">
         <v>43627</v>
@@ -13753,10 +13756,10 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="49" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B261" s="31" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C261" s="23" t="n">
         <v>43677</v>
@@ -13778,10 +13781,10 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B262" s="31" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C262" s="23" t="n">
         <v>43544</v>
@@ -13803,10 +13806,10 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="44" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B263" s="31" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C263" s="23" t="n">
         <v>43779</v>
@@ -13828,10 +13831,10 @@
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="33" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B264" s="31" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C264" s="23" t="n">
         <v>43731</v>
@@ -13844,23 +13847,23 @@
         <v>68</v>
       </c>
       <c r="F264" s="24" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="G264" s="25" t="s">
         <v>1</v>
       </c>
       <c r="H264" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I264" s="33"/>
       <c r="J264" s="33"/>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="49" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B265" s="40" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C265" s="23" t="n">
         <v>43712</v>
@@ -13882,10 +13885,10 @@
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="33" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B266" s="31" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C266" s="23" t="n">
         <v>43544</v>
@@ -13909,10 +13912,10 @@
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="33" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B267" s="31" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C267" s="23" t="n">
         <v>43548</v>
@@ -13925,10 +13928,10 @@
         <v>252</v>
       </c>
       <c r="F267" s="46" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="G267" s="25" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="H267" s="25"/>
       <c r="I267" s="33"/>
@@ -13936,10 +13939,10 @@
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="33" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B268" s="31" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C268" s="23" t="n">
         <v>43362</v>
@@ -13961,10 +13964,10 @@
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="44" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B269" s="40" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C269" s="23" t="n">
         <v>43626</v>
@@ -13988,10 +13991,10 @@
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="44" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B270" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C270" s="23" t="n">
         <v>43696</v>
@@ -14013,10 +14016,10 @@
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="44" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B271" s="31" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C271" s="23" t="n">
         <v>43626</v>
@@ -14032,7 +14035,7 @@
         <v>92</v>
       </c>
       <c r="G271" s="25" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H271" s="25"/>
       <c r="I271" s="33"/>
@@ -14067,10 +14070,10 @@
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B273" s="31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C273" s="23" t="n">
         <v>43702</v>
@@ -14086,7 +14089,7 @@
         <v>0</v>
       </c>
       <c r="G273" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H273" s="25"/>
       <c r="I273" s="33"/>
@@ -14094,10 +14097,10 @@
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="44" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B274" s="31" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C274" s="23" t="n">
         <v>43690</v>
@@ -14110,7 +14113,7 @@
         <v>116</v>
       </c>
       <c r="F274" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G274" s="25" t="s">
         <v>46</v>
@@ -14121,10 +14124,10 @@
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="33" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B275" s="31" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C275" s="23" t="n">
         <v>43782</v>
@@ -14143,15 +14146,15 @@
       <c r="H275" s="25"/>
       <c r="I275" s="33"/>
       <c r="J275" s="45" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B276" s="31" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C276" s="23" t="n">
         <v>43664</v>
@@ -14178,7 +14181,7 @@
         <v>29</v>
       </c>
       <c r="B277" s="31" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C277" s="23" t="n">
         <v>43345</v>
@@ -14198,10 +14201,10 @@
     </row>
     <row r="278" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="44" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B278" s="31" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C278" s="23" t="n">
         <v>43796</v>
@@ -14214,17 +14217,17 @@
         <v>15</v>
       </c>
       <c r="F278" s="24" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="G278" s="25"/>
       <c r="H278" s="25"/>
     </row>
     <row r="279" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="33" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B279" s="31" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C279" s="23" t="n">
         <v>43690</v>
@@ -14246,10 +14249,10 @@
     </row>
     <row r="280" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="33" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B280" s="31" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C280" s="23" t="n">
         <v>43620</v>
@@ -14271,10 +14274,10 @@
     </row>
     <row r="281" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="44" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B281" s="31" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C281" s="23" t="n">
         <v>43653</v>
@@ -14294,10 +14297,10 @@
     </row>
     <row r="282" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="44" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B282" s="31" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C282" s="23" t="n">
         <v>43806</v>
@@ -14310,18 +14313,18 @@
         <v>7</v>
       </c>
       <c r="F282" s="24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H282" s="25" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="283" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="33" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B283" s="33" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C283" s="23" t="n">
         <v>43706</v>
@@ -14343,10 +14346,10 @@
     </row>
     <row r="284" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="33" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B284" s="33" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C284" s="23" t="n">
         <v>43777</v>
@@ -14362,16 +14365,16 @@
         <v>92</v>
       </c>
       <c r="G284" s="25" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="H284" s="25"/>
     </row>
     <row r="285" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="33" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B285" s="33" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C285" s="23" t="n">
         <v>43548</v>
@@ -14384,19 +14387,19 @@
         <v>266</v>
       </c>
       <c r="F285" s="46" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G285" s="25" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="H285" s="25"/>
     </row>
     <row r="286" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="44" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B286" s="33" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C286" s="23" t="n">
         <v>43784</v>
@@ -14409,17 +14412,17 @@
         <v>30</v>
       </c>
       <c r="F286" s="46" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="G286" s="25"/>
       <c r="H286" s="25"/>
     </row>
     <row r="287" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="44" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B287" s="33" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C287" s="23" t="n">
         <v>43670</v>
@@ -14441,10 +14444,10 @@
     </row>
     <row r="288" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="44" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B288" s="41" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C288" s="23" t="n">
         <v>43739</v>
@@ -14466,10 +14469,10 @@
     </row>
     <row r="289" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="49" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B289" s="33" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C289" s="23" t="n">
         <v>43662</v>
@@ -14488,15 +14491,15 @@
         <v>33</v>
       </c>
       <c r="H289" s="25" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="290" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="33" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B290" s="33" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C290" s="23" t="n">
         <v>43594</v>
@@ -14509,19 +14512,19 @@
         <v>226</v>
       </c>
       <c r="F290" s="46" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="G290" s="25" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="H290" s="25"/>
     </row>
     <row r="291" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="44" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B291" s="33" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C291" s="23" t="n">
         <v>43818</v>
@@ -14534,17 +14537,17 @@
         <v>3</v>
       </c>
       <c r="F291" s="36" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="G291" s="25"/>
       <c r="H291" s="25"/>
     </row>
     <row r="292" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="49" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B292" s="33" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C292" s="23" t="n">
         <v>43684</v>
@@ -14557,7 +14560,7 @@
         <v>137</v>
       </c>
       <c r="F292" s="24" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="G292" s="4"/>
       <c r="H292" s="7"/>
@@ -14567,7 +14570,7 @@
         <v>92</v>
       </c>
       <c r="B293" s="33" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C293" s="23" t="n">
         <v>43701</v>
@@ -14580,17 +14583,17 @@
         <v>120</v>
       </c>
       <c r="F293" s="24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G293" s="25"/>
       <c r="H293" s="25"/>
     </row>
     <row r="294" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="33" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B294" s="33" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C294" s="23" t="n">
         <v>43808</v>
@@ -14612,10 +14615,10 @@
     </row>
     <row r="295" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="49" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B295" s="41" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C295" s="23" t="n">
         <v>43752</v>
@@ -14635,10 +14638,10 @@
     </row>
     <row r="296" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="49" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B296" s="41" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C296" s="23" t="n">
         <v>43797</v>
@@ -14658,10 +14661,10 @@
     </row>
     <row r="297" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="33" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B297" s="33" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C297" s="23" t="n">
         <v>43620</v>
@@ -14681,10 +14684,10 @@
     </row>
     <row r="298" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="49" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B298" s="33" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C298" s="23" t="n">
         <v>43647</v>
@@ -14697,7 +14700,7 @@
         <v>180</v>
       </c>
       <c r="F298" s="24" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G298" s="25"/>
       <c r="H298" s="25"/>
@@ -14729,10 +14732,10 @@
     </row>
     <row r="300" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="33" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B300" s="33" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C300" s="23" t="n">
         <v>43705</v>
@@ -14752,10 +14755,10 @@
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="39" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B301" s="39" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C301" s="57" t="n">
         <v>43555</v>
@@ -14773,10 +14776,10 @@
     </row>
     <row r="302" s="39" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="59" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B302" s="39" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C302" s="57" t="n">
         <v>43813</v>
@@ -14789,17 +14792,17 @@
         <v>21</v>
       </c>
       <c r="F302" s="58" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G302" s="38"/>
       <c r="H302" s="38"/>
     </row>
     <row r="303" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="33" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B303" s="33" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C303" s="23" t="n">
         <v>43537</v>
@@ -14815,16 +14818,16 @@
         <v>0</v>
       </c>
       <c r="G303" s="25" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H303" s="60"/>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="61" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B304" s="48" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="C304" s="53" t="n">
         <v>43688</v>
@@ -14840,18 +14843,18 @@
         <v>0</v>
       </c>
       <c r="G304" s="47" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="H304" s="47" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="48" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B305" s="48" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C305" s="53" t="n">
         <v>43488</v>
@@ -14870,10 +14873,10 @@
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="51" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B306" s="62" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C306" s="53" t="n">
         <v>43717</v>
@@ -14886,10 +14889,10 @@
         <v>124</v>
       </c>
       <c r="F306" s="54" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="G306" s="47" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="307" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14917,10 +14920,10 @@
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="44" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B308" s="41" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C308" s="23" t="n">
         <v>43737</v>
@@ -14933,15 +14936,15 @@
         <v>108</v>
       </c>
       <c r="F308" s="24" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="309" s="48" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="48" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B309" s="48" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C309" s="53" t="n">
         <v>43388</v>
@@ -14963,10 +14966,10 @@
     </row>
     <row r="310" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="48" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B310" s="48" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="C310" s="53" t="n">
         <v>43640</v>
@@ -14979,8 +14982,31 @@
         <v>208</v>
       </c>
       <c r="F310" s="54" t="s">
-        <v>135</v>
-      </c>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="311" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="48" t="s">
+        <v>613</v>
+      </c>
+      <c r="B311" s="48" t="s">
+        <v>614</v>
+      </c>
+      <c r="C311" s="53" t="n">
+        <v>43601</v>
+      </c>
+      <c r="D311" s="53" t="n">
+        <v>43848</v>
+      </c>
+      <c r="E311" s="47" t="n">
+        <f aca="false">D311-C311</f>
+        <v>247</v>
+      </c>
+      <c r="F311" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G311" s="47"/>
+      <c r="H311" s="47"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -15132,28 +15158,28 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="63" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="F2" s="63" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="H2" s="63" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="J2" s="64" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="K2" s="64" t="n">
         <v>2948</v>
@@ -15187,7 +15213,7 @@
       </c>
       <c r="X2" s="5"/>
       <c r="Y2" s="3" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15218,25 +15244,25 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H5" s="65" t="n">
         <v>294</v>
@@ -15260,16 +15286,16 @@
         <v>145</v>
       </c>
       <c r="O5" s="67" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="Q5" s="68" t="n">
         <v>0</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="S5" s="68" t="n">
         <v>0</v>
@@ -15302,25 +15328,25 @@
         <v>28</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J6" s="65" t="n">
         <v>41</v>
@@ -15382,52 +15408,52 @@
         <v>514</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="Q7" s="68" t="n">
         <v>0</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="S7" s="68" t="n">
         <v>0</v>
@@ -15460,52 +15486,52 @@
         <v>509</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="Q8" s="68" t="n">
         <v>0</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="S8" s="68" t="n">
         <v>0</v>
@@ -15695,52 +15721,52 @@
         <v>41</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="Q11" s="68" t="n">
         <v>0</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="S11" s="68" t="n">
         <v>0</v>
@@ -15773,37 +15799,37 @@
         <v>600</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N12" s="66" t="n">
         <v>280</v>
@@ -15846,7 +15872,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>29</v>
@@ -15932,43 +15958,43 @@
         <v>478</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="P14" s="69" t="n">
         <v>666</v>
@@ -16012,58 +16038,58 @@
         <v>582</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="S15" s="68" t="n">
         <v>0</v>
       </c>
       <c r="T15" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="U15" s="68" t="n">
         <v>0</v>
@@ -16083,52 +16109,52 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="P16" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="Q16" s="68" t="n">
         <v>0</v>
@@ -16168,10 +16194,10 @@
         <v>17</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E17" s="71" t="n">
         <v>719</v>
@@ -16245,10 +16271,10 @@
         <v>473</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D18" s="72" t="n">
         <v>711</v>
@@ -16482,37 +16508,37 @@
         <v>519</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M21" s="66" t="n">
         <v>1035</v>
@@ -16630,49 +16656,49 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M23" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="P23" s="69" t="n">
         <v>918</v>
@@ -16716,13 +16742,13 @@
         <v>75</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F24" s="66" t="n">
         <v>395</v>
@@ -16798,31 +16824,31 @@
         <v>1983</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M25" s="69" t="n">
         <v>1925</v>
@@ -16872,10 +16898,10 @@
         <v>508</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D26" s="71" t="n">
         <v>1877</v>
@@ -16948,10 +16974,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C27" s="71" t="n">
         <v>1677</v>
@@ -17028,52 +17054,52 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M28" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="O28" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="P28" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="Q28" s="68" t="n">
         <v>0</v>
@@ -17107,16 +17133,16 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E29" s="71" t="n">
         <v>1766</v>
@@ -17193,37 +17219,37 @@
         <v>35</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L30" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M30" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N30" s="69" t="n">
         <v>1283</v>
@@ -17346,58 +17372,58 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M32" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N32" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="O32" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="P32" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="Q32" s="68" t="n">
         <v>0</v>
       </c>
       <c r="R32" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="S32" s="68" t="n">
         <v>0</v>
@@ -17430,25 +17456,25 @@
         <v>30</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>371</v>
@@ -17510,37 +17536,37 @@
         <v>493</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L34" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M34" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N34" s="66" t="n">
         <v>558</v>
@@ -17590,46 +17616,46 @@
         <v>532</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="P35" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="Q35" s="68" t="n">
         <v>0</v>
@@ -17749,7 +17775,7 @@
         <v>417</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>371</v>
@@ -17767,25 +17793,25 @@
         <v>1498</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L37" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="P37" s="67" t="s">
         <v>371</v>
@@ -17827,10 +17853,10 @@
         <v>14</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E38" s="71" t="n">
         <v>1882</v>
@@ -17906,16 +17932,16 @@
         <v>23</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G39" s="69" t="n">
         <v>686</v>
@@ -18145,13 +18171,13 @@
         <v>523</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F42" s="69" t="n">
         <v>1128</v>
@@ -18227,49 +18253,49 @@
         <v>1596</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L43" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M43" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N43" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="O43" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="P43" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="Q43" s="78" t="n">
         <v>0</v>
       </c>
       <c r="R43" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="S43" s="78" t="n">
         <v>0</v>
@@ -18301,7 +18327,7 @@
         <v>466</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D44" s="72" t="n">
         <v>2641</v>
@@ -18373,13 +18399,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>371</v>
@@ -18451,16 +18477,16 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E46" s="69" t="n">
         <v>638</v>
@@ -18529,64 +18555,64 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I47" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K47" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L47" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M47" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N47" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="O47" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="P47" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="Q47" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="R47" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="S47" s="68" t="n">
         <v>0</v>
       </c>
       <c r="T47" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="U47" s="68" t="n">
         <v>0</v>
@@ -18609,46 +18635,46 @@
         <v>471</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K48" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L48" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M48" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N48" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="O48" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="P48" s="77" t="s">
         <v>371</v>
@@ -18770,19 +18796,19 @@
         <v>26</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H50" s="69" t="n">
         <v>1453</v>
@@ -18850,25 +18876,25 @@
         <v>463</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J51" s="66" t="n">
         <v>975</v>
@@ -18930,40 +18956,40 @@
         <v>474</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J52" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L52" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M52" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N52" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="O52" s="67" t="s">
         <v>371</v>
@@ -19003,10 +19029,10 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>371</v>
@@ -19087,52 +19113,52 @@
         <v>39</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J54" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K54" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L54" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M54" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N54" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="O54" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="P54" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="Q54" s="68" t="n">
         <v>0</v>
       </c>
       <c r="R54" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="S54" s="68" t="n">
         <v>0</v>
@@ -19165,46 +19191,46 @@
         <v>589</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J55" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K55" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L55" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M55" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N55" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="O55" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="P55" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="Q55" s="68" t="n">
         <v>0</v>
@@ -19242,16 +19268,16 @@
         <v>19</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>371</v>
@@ -19281,25 +19307,25 @@
         <v>371</v>
       </c>
       <c r="P56" s="67" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="Q56" s="68" t="n">
         <v>0</v>
       </c>
       <c r="R56" s="67" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="S56" s="68" t="n">
         <v>0</v>
       </c>
       <c r="T56" s="67" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="U56" s="68" t="n">
         <v>0</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="W56" s="70" t="n">
         <v>0</v>
@@ -19312,28 +19338,28 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I57" s="71" t="n">
         <v>1370</v>
@@ -19397,52 +19423,52 @@
         <v>482</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J58" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K58" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L58" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M58" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N58" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="O58" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="P58" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="Q58" s="68" t="n">
         <v>0</v>
       </c>
       <c r="R58" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="S58" s="68" t="n">
         <v>0</v>
@@ -19545,31 +19571,31 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>371</v>
@@ -19629,40 +19655,40 @@
         <v>536</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J61" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K61" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L61" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M61" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N61" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="O61" s="67" t="s">
         <v>371</v>
@@ -19702,31 +19728,31 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J62" s="69" t="n">
         <v>1582</v>
@@ -19780,16 +19806,16 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E63" s="71" t="n">
         <v>1799</v>
@@ -19858,28 +19884,28 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I64" s="69" t="n">
         <v>1222</v>
@@ -19937,25 +19963,25 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H65" s="66" t="n">
         <v>961</v>
@@ -20021,22 +20047,22 @@
         <v>556</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>371</v>
@@ -20098,37 +20124,37 @@
         <v>496</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J67" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K67" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L67" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M67" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N67" s="71" t="n">
         <v>1224</v>
@@ -20176,67 +20202,67 @@
         <v>468</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K68" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L68" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M68" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N68" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="O68" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="P68" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="Q68" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="R68" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="S68" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="T68" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="U68" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="V68" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="W68" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="X68" s="17"/>
       <c r="Y68" s="68" t="n">
@@ -20252,67 +20278,67 @@
         <v>545</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J69" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K69" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L69" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M69" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N69" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="O69" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="P69" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="Q69" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="R69" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="S69" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="T69" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="U69" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="V69" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="W69" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="X69" s="5"/>
       <c r="Y69" s="68" t="n">
@@ -20387,10 +20413,10 @@
         <v>65.2040472175379</v>
       </c>
       <c r="V70" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="W70" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="Y70" s="78" t="n">
         <f aca="false">(SUM(S70,U70,W70)-MIN(S70,U70,W70))/2</f>
@@ -20405,67 +20431,67 @@
         <v>476</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I71" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J71" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K71" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L71" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M71" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N71" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="O71" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="P71" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="Q71" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="R71" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="S71" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="T71" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="U71" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="V71" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="W71" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="Y71" s="78"/>
     </row>
@@ -20502,10 +20528,10 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -20763,7 +20789,7 @@
         <v>384</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D85" s="33"/>
       <c r="E85" s="33"/>
@@ -20782,7 +20808,7 @@
         <v>382</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D86" s="33"/>
       <c r="E86" s="33"/>
@@ -20801,7 +20827,7 @@
         <v>378</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D87" s="33"/>
       <c r="E87" s="33"/>
@@ -20820,7 +20846,7 @@
         <v>389</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D88" s="89" t="n">
         <v>926</v>
@@ -20841,10 +20867,10 @@
         <v>391</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E89" s="24" t="s">
         <v>371</v>
@@ -20864,10 +20890,10 @@
         <v>393</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E90" s="24" t="s">
         <v>371</v>
@@ -20910,13 +20936,13 @@
         <v>401</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E92" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F92" s="24" t="s">
         <v>371</v>
@@ -20950,16 +20976,16 @@
         <v>406</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F93" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G93" s="75" t="n">
         <v>1177</v>
@@ -20977,7 +21003,7 @@
         <v>408</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D94" s="24" t="s">
         <v>371</v>
@@ -21004,16 +21030,16 @@
         <v>410</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E95" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F95" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G95" s="76" t="n">
         <v>152</v>
@@ -21031,13 +21057,13 @@
         <v>412</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E96" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F96" s="24" t="s">
         <v>371</v>
@@ -21058,10 +21084,10 @@
         <v>414</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E97" s="74" t="n">
         <v>2225</v>
@@ -21098,13 +21124,13 @@
         <v>25</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E98" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F98" s="24" t="s">
         <v>371</v>
@@ -21127,7 +21153,7 @@
         <v>419</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D99" s="89" t="n">
         <v>1608</v>
@@ -21168,7 +21194,7 @@
         <v>426</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="C100" s="73" t="n">
         <v>2328</v>
@@ -21202,7 +21228,7 @@
         <v>423</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D101" s="24" t="s">
         <v>371</v>
@@ -21233,10 +21259,10 @@
         <v>427</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E102" s="74" t="n">
         <v>2184</v>
@@ -21266,10 +21292,10 @@
         <v>429</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E103" s="74" t="n">
         <v>2456</v>
@@ -21314,10 +21340,10 @@
         <v>431</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E104" s="74" t="n">
         <v>1610</v>
@@ -21352,25 +21378,25 @@
         <v>433</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F105" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G105" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H105" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I105" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J105" s="75" t="n">
         <v>1545</v>
@@ -21392,28 +21418,28 @@
         <v>435</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F106" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G106" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H106" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I106" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J106" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K106" s="25" t="s">
         <v>371</v>
@@ -21472,31 +21498,31 @@
         <v>395</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E108" s="24" t="s">
         <v>371</v>
       </c>
       <c r="F108" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G108" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H108" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I108" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J108" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K108" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L108" s="24" t="s">
         <v>371</v>
@@ -21522,7 +21548,7 @@
         <v>439</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D109" s="24" t="s">
         <v>371</v>
@@ -21562,22 +21588,22 @@
         <v>441</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F110" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G110" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H110" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I110" s="74" t="n">
         <v>2104</v>
@@ -21658,10 +21684,10 @@
         <v>421</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E112" s="74" t="n">
         <v>1668</v>
@@ -21679,7 +21705,7 @@
         <v>371</v>
       </c>
       <c r="J112" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K112" s="75" t="n">
         <v>585</v>
@@ -21747,19 +21773,19 @@
         <v>449</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E114" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F114" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G114" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H114" s="76" t="n">
         <v>845</v>
@@ -21841,25 +21867,25 @@
         <v>453</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F116" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G116" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H116" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I116" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J116" s="24" t="s">
         <v>371</v>
@@ -21893,16 +21919,16 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B117" s="33" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E117" s="75" t="n">
         <v>455</v>
@@ -21973,40 +21999,40 @@
         <v>461</v>
       </c>
       <c r="C118" s="58" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D118" s="58" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E118" s="58" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F118" s="58" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G118" s="58" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H118" s="58" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I118" s="58" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J118" s="58" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K118" s="58" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L118" s="58" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M118" s="58" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N118" s="58" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="O118" s="90" t="n">
         <v>1590</v>
@@ -22053,34 +22079,34 @@
         <v>464</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E119" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F119" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G119" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H119" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I119" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J119" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K119" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L119" s="24" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M119" s="24" t="s">
         <v>371</v>

--- a/generateEXCEL/Data/Members/GroupRecord.xlsx
+++ b/generateEXCEL/Data/Members/GroupRecord.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Huifeng\Dropbox\Research\Coding\WeChatGroup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hguan/Dropbox/Research/Coding/WeChatGroup/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FA33EB-C53E-A44E-B6F6-BFB3C473F239}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="17145" windowHeight="13260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17140" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="980">
   <si>
     <t>wisdompeak</t>
   </si>
@@ -3556,11 +3557,62 @@
   <si>
     <t>星河滚烫</t>
   </si>
+  <si>
+    <t>毅仔</t>
+  </si>
+  <si>
+    <t>biss</t>
+  </si>
+  <si>
+    <t>Comedian</t>
+  </si>
+  <si>
+    <t>ZihaoXue1995</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
+    <t>Zoe_Du</t>
+  </si>
+  <si>
+    <t>黑化肥</t>
+  </si>
+  <si>
+    <t>aChris</t>
+  </si>
+  <si>
+    <t>陈吉鹏</t>
+  </si>
+  <si>
+    <t>Xiangning</t>
+  </si>
+  <si>
+    <t>BlinkBamboo</t>
+  </si>
+  <si>
+    <t>VanCN</t>
+  </si>
+  <si>
+    <t>melody</t>
+  </si>
+  <si>
+    <t>YanJF</t>
+  </si>
+  <si>
+    <t>优踢丽特瑞安</t>
+  </si>
+  <si>
+    <t>2valor</t>
+  </si>
+  <si>
+    <t>任得欣</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yyyy"/>
@@ -3784,7 +3836,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4028,10 +4080,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4410,24 +4472,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K337"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6030,106 +6092,111 @@
       <c r="H79" s="7"/>
     </row>
     <row r="80" spans="1:10" s="5" customFormat="1">
-      <c r="A80" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>223</v>
+      <c r="A80" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>225</v>
       </c>
       <c r="C80" s="1">
-        <v>43753</v>
+        <v>43757</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="4"/>
       <c r="F80" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G80" s="4"/>
+      <c r="G80" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H80" s="7"/>
     </row>
     <row r="81" spans="1:10" s="5" customFormat="1">
-      <c r="A81" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>225</v>
+      <c r="A81" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="C81" s="1">
-        <v>43757</v>
+        <v>43763</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="4"/>
       <c r="F81" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G81" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="G81" s="4"/>
       <c r="H81" s="7"/>
     </row>
     <row r="82" spans="1:10" s="5" customFormat="1">
-      <c r="A82" s="5" t="s">
-        <v>226</v>
+      <c r="A82" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C82" s="1">
-        <v>43763</v>
+        <v>43766</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="4"/>
-      <c r="F82" s="17" t="s">
-        <v>0</v>
+      <c r="F82" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:10" s="5" customFormat="1">
       <c r="A83" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C83" s="1">
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="4"/>
-      <c r="F83" s="18" t="s">
-        <v>30</v>
+      <c r="F83" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="7"/>
     </row>
     <row r="84" spans="1:10" s="5" customFormat="1">
-      <c r="A84" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>231</v>
+      <c r="A84" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>233</v>
       </c>
       <c r="C84" s="1">
-        <v>43767</v>
+        <v>43770</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="4"/>
       <c r="F84" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G84" s="4"/>
+      <c r="G84" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H84" s="7"/>
+      <c r="J84" s="8" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="85" spans="1:10" s="5" customFormat="1">
-      <c r="A85" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>233</v>
+      <c r="A85" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="C85" s="1">
-        <v>43770</v>
+        <v>43778</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="4"/>
@@ -6137,42 +6204,42 @@
         <v>0</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="H85" s="7"/>
       <c r="J85" s="8" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:10" s="5" customFormat="1">
       <c r="A86" s="10" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C86" s="1">
-        <v>43778</v>
+        <v>43415</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="4"/>
       <c r="F86" s="17" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>237</v>
+        <v>33</v>
       </c>
       <c r="H86" s="7"/>
       <c r="J86" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:10" s="5" customFormat="1">
       <c r="A87" s="10" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C87" s="1">
         <v>43415</v>
@@ -6180,82 +6247,80 @@
       <c r="D87" s="6"/>
       <c r="E87" s="4"/>
       <c r="F87" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G87" s="4"/>
       <c r="H87" s="7"/>
       <c r="J87" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:10" s="5" customFormat="1">
       <c r="A88" s="10" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C88" s="1">
-        <v>43415</v>
+        <v>43784</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="4"/>
       <c r="F88" s="17" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="7"/>
-      <c r="J88" s="8" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="89" spans="1:10" s="5" customFormat="1">
       <c r="A89" s="10" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C89" s="1">
-        <v>43784</v>
+        <v>43801</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="4"/>
       <c r="F89" s="17" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="7"/>
     </row>
     <row r="90" spans="1:10" s="5" customFormat="1">
       <c r="A90" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>247</v>
+        <v>252</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="C90" s="1">
-        <v>43786</v>
+        <v>43804</v>
       </c>
       <c r="D90" s="6"/>
       <c r="E90" s="4"/>
       <c r="F90" s="17" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="7"/>
+      <c r="J90" s="8" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="91" spans="1:10" s="5" customFormat="1">
-      <c r="A91" s="10" t="s">
-        <v>248</v>
+      <c r="A91" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C91" s="1">
-        <v>43801</v>
+        <v>43806</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="4"/>
@@ -6267,13 +6332,13 @@
     </row>
     <row r="92" spans="1:10" s="5" customFormat="1">
       <c r="A92" s="10" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C92" s="1">
-        <v>43801</v>
+        <v>43807</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="4"/>
@@ -6285,52 +6350,51 @@
     </row>
     <row r="93" spans="1:10" s="5" customFormat="1">
       <c r="A93" s="10" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C93" s="1">
-        <v>43804</v>
+        <v>43817</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="4"/>
-      <c r="F93" s="17" t="s">
-        <v>0</v>
+      <c r="F93" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="7"/>
-      <c r="J93" s="8" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="94" spans="1:10" s="5" customFormat="1">
       <c r="A94" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>254</v>
+        <v>262</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>262</v>
       </c>
       <c r="C94" s="1">
-        <v>43806</v>
+        <v>43817</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="4"/>
       <c r="F94" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G94" s="4"/>
+      <c r="G94" s="4" t="s">
+        <v>263</v>
+      </c>
       <c r="H94" s="7"/>
     </row>
     <row r="95" spans="1:10" s="5" customFormat="1">
-      <c r="A95" s="10" t="s">
-        <v>255</v>
+      <c r="A95" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C95" s="1">
-        <v>43807</v>
+        <v>43824</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="4"/>
@@ -6340,222 +6404,211 @@
       <c r="G95" s="4"/>
       <c r="H95" s="7"/>
     </row>
-    <row r="96" spans="1:10">
-      <c r="A96" s="5" t="s">
-        <v>257</v>
+    <row r="96" spans="1:10" s="5" customFormat="1">
+      <c r="A96" s="10" t="s">
+        <v>266</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C96" s="1">
-        <v>43813</v>
-      </c>
-      <c r="D96" s="23"/>
-      <c r="E96" s="24"/>
+        <v>43825</v>
+      </c>
+      <c r="D96" s="6"/>
+      <c r="E96" s="4"/>
       <c r="F96" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G96" s="25"/>
+      <c r="G96" s="4"/>
       <c r="H96" s="7"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
     </row>
     <row r="97" spans="1:10" s="5" customFormat="1">
-      <c r="A97" s="5" t="s">
-        <v>259</v>
+      <c r="A97" s="10" t="s">
+        <v>268</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C97" s="1">
-        <v>43813</v>
+        <v>43825</v>
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="4"/>
       <c r="F97" s="17" t="s">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="7"/>
     </row>
     <row r="98" spans="1:10" s="5" customFormat="1">
-      <c r="A98" s="10" t="s">
-        <v>260</v>
+      <c r="A98" s="16" t="s">
+        <v>270</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C98" s="1">
-        <v>43817</v>
+        <v>43827</v>
       </c>
       <c r="D98" s="6"/>
       <c r="E98" s="4"/>
-      <c r="F98" s="18" t="s">
-        <v>72</v>
+      <c r="F98" s="17" t="s">
+        <v>232</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="7"/>
     </row>
-    <row r="99" spans="1:10" s="5" customFormat="1">
-      <c r="A99" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B99" s="26" t="s">
-        <v>262</v>
+    <row r="99" spans="1:10">
+      <c r="A99" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>273</v>
       </c>
       <c r="C99" s="1">
-        <v>43817</v>
+        <v>43827</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="17" t="s">
-        <v>0</v>
+      <c r="F99" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>263</v>
+        <v>33</v>
       </c>
       <c r="H99" s="7"/>
-    </row>
-    <row r="100" spans="1:10" s="5" customFormat="1">
-      <c r="A100" s="5" t="s">
-        <v>264</v>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="10" t="s">
+        <v>275</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C100" s="1">
-        <v>43824</v>
-      </c>
-      <c r="D100" s="6"/>
-      <c r="E100" s="4"/>
+        <v>43829</v>
+      </c>
       <c r="F100" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G100" s="4"/>
-      <c r="H100" s="7"/>
-    </row>
-    <row r="101" spans="1:10" s="5" customFormat="1">
-      <c r="A101" s="10" t="s">
-        <v>266</v>
+      <c r="J100" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
+        <v>278</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C101" s="1">
-        <v>43825</v>
-      </c>
-      <c r="D101" s="6"/>
-      <c r="E101" s="4"/>
+        <v>43829</v>
+      </c>
       <c r="F101" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G101" s="4"/>
-      <c r="H101" s="7"/>
-    </row>
-    <row r="102" spans="1:10" s="5" customFormat="1">
+      <c r="G101" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="J101" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="10" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="C102" s="1">
-        <v>43825</v>
-      </c>
-      <c r="D102" s="6"/>
-      <c r="E102" s="4"/>
+        <v>43829</v>
+      </c>
       <c r="F102" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G102" s="4"/>
-      <c r="H102" s="7"/>
-    </row>
-    <row r="103" spans="1:10" s="5" customFormat="1">
-      <c r="A103" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>271</v>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B103" s="26" t="s">
+        <v>285</v>
       </c>
       <c r="C103" s="1">
-        <v>43827</v>
-      </c>
-      <c r="D103" s="6"/>
-      <c r="E103" s="4"/>
+        <v>43830</v>
+      </c>
+      <c r="D103" s="1"/>
+      <c r="E103" s="7"/>
       <c r="F103" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="G103" s="4"/>
-      <c r="H103" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="10" t="s">
-        <v>272</v>
+      <c r="A104" t="s">
+        <v>287</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C104" s="1">
-        <v>43827</v>
-      </c>
-      <c r="D104" s="6"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H104" s="7"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
+        <v>43833</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="10" t="s">
-        <v>275</v>
+      <c r="A105" t="s">
+        <v>289</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="C105" s="1">
-        <v>43829</v>
-      </c>
-      <c r="F105" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J105" s="8" t="s">
-        <v>277</v>
+        <v>43833</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" t="s">
-        <v>278</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>279</v>
+      <c r="A106" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>292</v>
       </c>
       <c r="C106" s="1">
-        <v>43829</v>
-      </c>
+        <v>43834</v>
+      </c>
+      <c r="D106" s="1"/>
+      <c r="E106" s="7"/>
       <c r="F106" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G106" s="4" t="s">
-        <v>280</v>
+      <c r="G106" s="7" t="s">
+        <v>293</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="10" t="s">
-        <v>282</v>
+      <c r="A107" t="s">
+        <v>295</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="C107" s="1">
-        <v>43829</v>
+        <v>43834</v>
       </c>
       <c r="F107" s="17" t="s">
         <v>0</v>
@@ -6563,60 +6616,61 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B108" s="26" t="s">
-        <v>285</v>
+        <v>297</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>298</v>
       </c>
       <c r="C108" s="1">
-        <v>43830</v>
-      </c>
-      <c r="D108" s="1"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>286</v>
+        <v>43834</v>
+      </c>
+      <c r="F108" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="J108" s="8" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" t="s">
-        <v>287</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>288</v>
+      <c r="A109" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B109" t="s">
+        <v>302</v>
       </c>
       <c r="C109" s="1">
-        <v>43833</v>
-      </c>
-      <c r="F109" s="17" t="s">
-        <v>0</v>
+        <v>43835</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>289</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>290</v>
+        <v>305</v>
+      </c>
+      <c r="B110" t="s">
+        <v>305</v>
       </c>
       <c r="C110" s="1">
-        <v>43833</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>235</v>
+        <v>43836</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" s="10" t="s">
-        <v>291</v>
+      <c r="A111" s="5" t="s">
+        <v>306</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="C111" s="1">
-        <v>43834</v>
+        <v>43836</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="7"/>
@@ -6624,151 +6678,153 @@
         <v>0</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="J111" s="8" t="s">
-        <v>294</v>
+        <v>46</v>
       </c>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" t="s">
-        <v>295</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>296</v>
+      <c r="A112" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B112" t="s">
+        <v>309</v>
       </c>
       <c r="C112" s="1">
-        <v>43834</v>
+        <v>43837</v>
       </c>
       <c r="F112" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="I112" s="8"/>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>298</v>
+        <v>310</v>
+      </c>
+      <c r="B113" t="s">
+        <v>311</v>
       </c>
       <c r="C113" s="1">
-        <v>43834</v>
-      </c>
-      <c r="F113" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>299</v>
+        <v>43838</v>
+      </c>
+      <c r="F113" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="J113" s="8" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="10" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B114" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="C114" s="1">
-        <v>43835</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>278</v>
+        <v>43838</v>
+      </c>
+      <c r="F114" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J114" s="8" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" t="s">
-        <v>305</v>
+      <c r="A115" s="5" t="s">
+        <v>316</v>
       </c>
       <c r="B115" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="C115" s="1">
-        <v>43836</v>
+        <v>43839</v>
       </c>
       <c r="F115" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="G115" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B116" s="26" t="s">
-        <v>307</v>
+      <c r="A116" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B116" t="s">
+        <v>319</v>
       </c>
       <c r="C116" s="1">
-        <v>43836</v>
-      </c>
-      <c r="D116" s="1"/>
-      <c r="E116" s="7"/>
+        <v>43839</v>
+      </c>
       <c r="F116" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G116" s="7" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B117" t="s">
-        <v>309</v>
+      <c r="A117" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B117" s="26" t="s">
+        <v>321</v>
       </c>
       <c r="C117" s="1">
-        <v>43837</v>
-      </c>
+        <v>43839</v>
+      </c>
+      <c r="D117" s="1"/>
+      <c r="E117" s="7"/>
       <c r="F117" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I117" s="8"/>
+      <c r="J117" s="8" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="5" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="B118" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="C118" s="1">
-        <v>43838</v>
-      </c>
-      <c r="F118" s="18" t="s">
-        <v>72</v>
+        <v>43840</v>
+      </c>
+      <c r="F118" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="J118" s="8" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="B119" t="s">
-        <v>314</v>
+      <c r="A119" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>326</v>
       </c>
       <c r="C119" s="1">
-        <v>43838</v>
-      </c>
+        <v>43840</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="7"/>
       <c r="F119" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J119" s="8" t="s">
-        <v>315</v>
+      <c r="G119" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="5" t="s">
-        <v>316</v>
+      <c r="A120" t="s">
+        <v>327</v>
       </c>
       <c r="B120" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C120" s="1">
-        <v>43839</v>
+        <v>43841</v>
       </c>
       <c r="F120" s="17" t="s">
         <v>0</v>
@@ -6776,528 +6832,579 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="10" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="B121" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="C121" s="1">
-        <v>43839</v>
+        <v>43841</v>
       </c>
       <c r="F121" s="17" t="s">
-        <v>0</v>
+        <v>245</v>
       </c>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="B122" s="26" t="s">
-        <v>321</v>
+      <c r="A122" t="s">
+        <v>331</v>
+      </c>
+      <c r="B122" t="s">
+        <v>331</v>
       </c>
       <c r="C122" s="1">
-        <v>43839</v>
-      </c>
-      <c r="D122" s="1"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J122" s="8" t="s">
-        <v>322</v>
+        <v>43841</v>
+      </c>
+      <c r="F122" s="18" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" s="5" t="s">
-        <v>323</v>
+      <c r="A123" s="10" t="s">
+        <v>332</v>
       </c>
       <c r="B123" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C123" s="1">
-        <v>43840</v>
+        <v>43842</v>
       </c>
       <c r="F123" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J123" s="8" t="s">
-        <v>325</v>
-      </c>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B124" s="26" t="s">
-        <v>326</v>
+      <c r="A124" t="s">
+        <v>334</v>
+      </c>
+      <c r="B124" t="s">
+        <v>335</v>
       </c>
       <c r="C124" s="1">
-        <v>43840</v>
-      </c>
-      <c r="D124" s="1"/>
-      <c r="E124" s="7"/>
+        <v>43842</v>
+      </c>
       <c r="F124" s="17" t="s">
         <v>0</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B125" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C125" s="1">
-        <v>43841</v>
+        <v>43842</v>
       </c>
       <c r="F125" s="17" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:10">
-      <c r="A126" s="10" t="s">
-        <v>329</v>
+      <c r="A126" t="s">
+        <v>338</v>
       </c>
       <c r="B126" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C126" s="1">
-        <v>43841</v>
-      </c>
-      <c r="F126" s="17" t="s">
-        <v>245</v>
+        <v>43843</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" t="s">
-        <v>331</v>
+      <c r="A127" s="10" t="s">
+        <v>340</v>
       </c>
       <c r="B127" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="C127" s="1">
-        <v>43841</v>
-      </c>
-      <c r="F127" s="18" t="s">
-        <v>206</v>
+        <v>43843</v>
+      </c>
+      <c r="F127" s="17" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="10" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B128" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C128" s="1">
-        <v>43842</v>
-      </c>
-      <c r="F128" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" t="s">
+        <v>43843</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B129" t="s">
+        <v>345</v>
+      </c>
+      <c r="C129" s="1">
+        <v>43844</v>
+      </c>
+      <c r="F129" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C130" s="1">
+        <v>43845</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="B131" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="C131" s="1">
+        <v>43845</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="C132" s="1">
+        <v>43846</v>
+      </c>
+      <c r="D132" s="1"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C133" s="1">
+        <v>43847</v>
+      </c>
+      <c r="F133" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" t="s">
+        <v>355</v>
+      </c>
+      <c r="B134" t="s">
+        <v>356</v>
+      </c>
+      <c r="C134" s="1">
+        <v>43848</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B135" t="s">
+        <v>358</v>
+      </c>
+      <c r="C135" s="1">
+        <v>43848</v>
+      </c>
+      <c r="F135" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B129" t="s">
-        <v>335</v>
-      </c>
-      <c r="C129" s="1">
-        <v>43842</v>
-      </c>
-      <c r="F129" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" t="s">
-        <v>336</v>
-      </c>
-      <c r="B130" t="s">
-        <v>337</v>
-      </c>
-      <c r="C130" s="1">
-        <v>43842</v>
-      </c>
-      <c r="F130" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" t="s">
-        <v>338</v>
-      </c>
-      <c r="B131" t="s">
-        <v>339</v>
-      </c>
-      <c r="C131" s="1">
-        <v>43843</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="B132" t="s">
-        <v>341</v>
-      </c>
-      <c r="C132" s="1">
-        <v>43843</v>
-      </c>
-      <c r="F132" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="B133" t="s">
-        <v>343</v>
-      </c>
-      <c r="C133" s="1">
-        <v>43843</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="B134" t="s">
-        <v>345</v>
-      </c>
-      <c r="C134" s="1">
-        <v>43844</v>
-      </c>
-      <c r="F134" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C135" s="1">
-        <v>43845</v>
-      </c>
-      <c r="D135" s="1"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G135" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="B136" s="27" t="s">
-        <v>349</v>
+      <c r="G135" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" t="s">
+        <v>360</v>
+      </c>
+      <c r="B136" t="s">
+        <v>361</v>
       </c>
       <c r="C136" s="1">
-        <v>43845</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="B137" s="20" t="s">
-        <v>352</v>
+        <v>43849</v>
+      </c>
+      <c r="F136" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B137" t="s">
+        <v>363</v>
       </c>
       <c r="C137" s="1">
-        <v>43846</v>
-      </c>
-      <c r="D137" s="1"/>
-      <c r="E137" s="7"/>
+        <v>43850</v>
+      </c>
       <c r="F137" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>354</v>
+    <row r="138" spans="1:8">
+      <c r="A138" t="s">
+        <v>364</v>
+      </c>
+      <c r="B138" t="s">
+        <v>364</v>
       </c>
       <c r="C138" s="1">
-        <v>43847</v>
-      </c>
-      <c r="F138" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G138" s="4" t="s">
+        <v>43852</v>
+      </c>
+      <c r="F138" s="18" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="B139" t="s">
+        <v>367</v>
+      </c>
+      <c r="C139" s="1">
+        <v>43855</v>
+      </c>
+      <c r="F139" s="29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C140" s="1">
+        <v>43856</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" t="s">
+        <v>954</v>
+      </c>
+      <c r="B141" t="s">
+        <v>955</v>
+      </c>
+      <c r="C141" s="1">
+        <v>43857</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" s="100" customFormat="1">
+      <c r="A142" s="95" t="s">
+        <v>595</v>
+      </c>
+      <c r="B142" s="96" t="s">
+        <v>596</v>
+      </c>
+      <c r="C142" s="97">
+        <v>43857</v>
+      </c>
+      <c r="D142" s="97"/>
+      <c r="E142" s="98"/>
+      <c r="F142" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="G142" s="98" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" t="s">
-        <v>355</v>
-      </c>
-      <c r="B139" t="s">
-        <v>356</v>
-      </c>
-      <c r="C139" s="1">
-        <v>43848</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="B140" t="s">
-        <v>358</v>
-      </c>
-      <c r="C140" s="1">
-        <v>43848</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" t="s">
-        <v>360</v>
-      </c>
-      <c r="B141" t="s">
-        <v>361</v>
-      </c>
-      <c r="C141" s="1">
-        <v>43849</v>
-      </c>
-      <c r="F141" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B142" t="s">
-        <v>363</v>
-      </c>
-      <c r="C142" s="1">
-        <v>43850</v>
-      </c>
-      <c r="F142" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="H142" s="98"/>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>364</v>
+        <v>957</v>
       </c>
       <c r="B143" t="s">
-        <v>364</v>
+        <v>958</v>
       </c>
       <c r="C143" s="1">
-        <v>43852</v>
-      </c>
-      <c r="F143" s="18" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="28" t="s">
-        <v>366</v>
+        <v>43859</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" t="s">
+        <v>959</v>
       </c>
       <c r="B144" t="s">
-        <v>367</v>
+        <v>960</v>
       </c>
       <c r="C144" s="1">
-        <v>43855</v>
-      </c>
-      <c r="F144" s="29" t="s">
-        <v>167</v>
+        <v>43862</v>
+      </c>
+      <c r="F144" s="99" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="B145" s="16" t="s">
-        <v>369</v>
+      <c r="A145" t="s">
+        <v>963</v>
+      </c>
+      <c r="B145" t="s">
+        <v>964</v>
       </c>
       <c r="C145" s="1">
-        <v>43856</v>
-      </c>
-      <c r="F145" s="3" t="s">
+        <v>43863</v>
+      </c>
+      <c r="F145" s="99" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>954</v>
+        <v>965</v>
       </c>
       <c r="B146" t="s">
-        <v>955</v>
+        <v>966</v>
       </c>
       <c r="C146" s="1">
-        <v>43857</v>
+        <v>43863</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" s="100" customFormat="1">
-      <c r="A147" s="95" t="s">
-        <v>595</v>
-      </c>
-      <c r="B147" s="96" t="s">
-        <v>596</v>
-      </c>
-      <c r="C147" s="97">
-        <v>43857</v>
-      </c>
-      <c r="D147" s="97"/>
-      <c r="E147" s="98"/>
-      <c r="F147" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="G147" s="98" t="s">
-        <v>46</v>
-      </c>
-      <c r="H147" s="98"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" t="s">
+        <v>967</v>
+      </c>
+      <c r="B147" t="s">
+        <v>968</v>
+      </c>
+      <c r="C147" s="1">
+        <v>43863</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>957</v>
+        <v>969</v>
       </c>
       <c r="B148" t="s">
-        <v>958</v>
+        <v>974</v>
       </c>
       <c r="C148" s="1">
-        <v>43859</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>187</v>
+        <v>43865</v>
+      </c>
+      <c r="F148" s="99" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="B149" t="s">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="C149" s="1">
-        <v>43862</v>
-      </c>
-      <c r="F149" s="99" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" t="s">
-        <v>962</v>
-      </c>
-      <c r="B150" t="s">
-        <v>961</v>
+        <v>43865</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" s="16" customFormat="1">
+      <c r="A150" s="15" t="s">
+        <v>885</v>
+      </c>
+      <c r="B150" s="101" t="s">
+        <v>886</v>
       </c>
       <c r="C150" s="1">
-        <v>43862</v>
-      </c>
-      <c r="F150" s="99" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" ht="14.85" customHeight="1"/>
+        <v>43865</v>
+      </c>
+      <c r="D150" s="102"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="G150" s="19"/>
+      <c r="H150" s="19"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" t="s">
+        <v>972</v>
+      </c>
+      <c r="B151" t="s">
+        <v>973</v>
+      </c>
+      <c r="C151" s="1">
+        <v>43865</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" s="16" customFormat="1">
+      <c r="A152" s="14" t="s">
+        <v>975</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C152" s="102">
+        <v>43866</v>
+      </c>
+      <c r="D152" s="104"/>
+      <c r="E152" s="103"/>
+      <c r="F152" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="G152" s="19"/>
+      <c r="H152" s="19"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" t="s">
+        <v>977</v>
+      </c>
+      <c r="B153" t="s">
+        <v>976</v>
+      </c>
+      <c r="C153" s="1">
+        <v>43867</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" t="s">
+        <v>979</v>
+      </c>
+      <c r="B154" t="s">
+        <v>978</v>
+      </c>
+      <c r="C154" s="1">
+        <v>43867</v>
+      </c>
+      <c r="F154" s="103" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" ht="14.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J1" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3"/>
-    <hyperlink ref="J6" r:id="rId4"/>
-    <hyperlink ref="J8" r:id="rId5"/>
-    <hyperlink ref="J10" r:id="rId6"/>
-    <hyperlink ref="J12" r:id="rId7"/>
-    <hyperlink ref="J13" r:id="rId8"/>
-    <hyperlink ref="J18" r:id="rId9"/>
-    <hyperlink ref="J27" r:id="rId10"/>
-    <hyperlink ref="J28" r:id="rId11"/>
-    <hyperlink ref="J29" r:id="rId12"/>
-    <hyperlink ref="J30" r:id="rId13"/>
-    <hyperlink ref="J33" r:id="rId14"/>
-    <hyperlink ref="J36" r:id="rId15"/>
-    <hyperlink ref="J38" r:id="rId16"/>
-    <hyperlink ref="J39" r:id="rId17"/>
-    <hyperlink ref="J43" r:id="rId18"/>
-    <hyperlink ref="J45" r:id="rId19"/>
-    <hyperlink ref="J46" r:id="rId20"/>
-    <hyperlink ref="J48" r:id="rId21"/>
-    <hyperlink ref="J49" r:id="rId22"/>
-    <hyperlink ref="J53" r:id="rId23"/>
-    <hyperlink ref="J54" r:id="rId24"/>
-    <hyperlink ref="J55" r:id="rId25"/>
-    <hyperlink ref="J64" r:id="rId26"/>
-    <hyperlink ref="J65" r:id="rId27"/>
-    <hyperlink ref="J68" r:id="rId28"/>
-    <hyperlink ref="J70" r:id="rId29"/>
-    <hyperlink ref="J72" r:id="rId30"/>
-    <hyperlink ref="J75" r:id="rId31"/>
-    <hyperlink ref="J76" r:id="rId32"/>
-    <hyperlink ref="J77" r:id="rId33"/>
-    <hyperlink ref="J78" r:id="rId34"/>
-    <hyperlink ref="J85" r:id="rId35"/>
-    <hyperlink ref="J86" r:id="rId36"/>
-    <hyperlink ref="J87" r:id="rId37"/>
-    <hyperlink ref="J88" r:id="rId38"/>
-    <hyperlink ref="J93" r:id="rId39"/>
-    <hyperlink ref="J105" r:id="rId40"/>
-    <hyperlink ref="J106" r:id="rId41"/>
-    <hyperlink ref="J111" r:id="rId42"/>
-    <hyperlink ref="J113" r:id="rId43"/>
-    <hyperlink ref="J118" r:id="rId44"/>
-    <hyperlink ref="J119" r:id="rId45"/>
-    <hyperlink ref="J122" r:id="rId46"/>
-    <hyperlink ref="J123" r:id="rId47"/>
+    <hyperlink ref="J1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J27" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J28" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J29" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J30" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J33" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J36" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J38" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J39" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J43" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J45" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J46" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J48" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J49" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J53" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J54" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J55" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J64" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J65" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J68" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J70" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J72" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J75" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J76" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="J77" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J78" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="J84" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J85" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J86" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J87" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J90" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J100" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J101" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="J106" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J108" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J113" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J114" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J117" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="J118" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId48"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J320"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J326"/>
   <sheetViews>
-    <sheetView topLeftCell="A307" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D321" sqref="D321"/>
+    <sheetView topLeftCell="A314" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E328" sqref="E328"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="30" customWidth="1"/>
-    <col min="3" max="4" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="30" customWidth="1"/>
+    <col min="3" max="4" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -13862,7 +13969,7 @@
         <v>43790</v>
       </c>
       <c r="E257" s="25">
-        <f t="shared" ref="E257:E320" si="4">D257-C257</f>
+        <f t="shared" ref="E257:E326" si="4">D257-C257</f>
         <v>246</v>
       </c>
       <c r="F257" s="24" t="s">
@@ -15384,7 +15491,7 @@
     </row>
     <row r="319" spans="1:10" s="34" customFormat="1">
       <c r="A319" s="42" t="s">
-        <v>197</v>
+        <v>975</v>
       </c>
       <c r="B319" s="42" t="s">
         <v>197</v>
@@ -15431,24 +15538,161 @@
       <c r="G320" s="25"/>
       <c r="H320" s="25"/>
     </row>
+    <row r="321" spans="1:8" s="34" customFormat="1">
+      <c r="A321" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="B321" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="C321" s="23">
+        <v>43753</v>
+      </c>
+      <c r="D321" s="23">
+        <v>43862</v>
+      </c>
+      <c r="E321" s="25">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
+      <c r="F321" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G321" s="25"/>
+      <c r="H321" s="25"/>
+    </row>
+    <row r="322" spans="1:8" s="34" customFormat="1">
+      <c r="A322" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="B322" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C322" s="23">
+        <v>43813</v>
+      </c>
+      <c r="D322" s="23">
+        <v>43863</v>
+      </c>
+      <c r="E322" s="24">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="F322" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G322" s="25"/>
+      <c r="H322" s="25"/>
+    </row>
+    <row r="323" spans="1:8" s="34" customFormat="1">
+      <c r="A323" s="34" t="s">
+        <v>962</v>
+      </c>
+      <c r="B323" s="34" t="s">
+        <v>961</v>
+      </c>
+      <c r="C323" s="23">
+        <v>43862</v>
+      </c>
+      <c r="D323" s="23">
+        <v>43863</v>
+      </c>
+      <c r="E323" s="24">
+        <v>1</v>
+      </c>
+      <c r="F323" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G323" s="25"/>
+      <c r="H323" s="25"/>
+    </row>
+    <row r="324" spans="1:8" s="34" customFormat="1">
+      <c r="A324" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="B324" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="C324" s="23">
+        <v>43813</v>
+      </c>
+      <c r="D324" s="23">
+        <v>43864</v>
+      </c>
+      <c r="E324" s="25">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="F324" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="G324" s="25"/>
+      <c r="H324" s="25"/>
+    </row>
+    <row r="325" spans="1:8" s="34" customFormat="1">
+      <c r="A325" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="B325" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="C325" s="23">
+        <v>43786</v>
+      </c>
+      <c r="D325" s="23">
+        <v>43869</v>
+      </c>
+      <c r="E325" s="25">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="F325" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G325" s="25"/>
+      <c r="H325" s="25"/>
+    </row>
+    <row r="326" spans="1:8" s="34" customFormat="1">
+      <c r="A326" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="B326" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C326" s="23">
+        <v>43801</v>
+      </c>
+      <c r="D326" s="23">
+        <v>43869</v>
+      </c>
+      <c r="E326" s="25">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="F326" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G326" s="25"/>
+      <c r="H326" s="25"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J55" r:id="rId1"/>
-    <hyperlink ref="J64" r:id="rId2"/>
-    <hyperlink ref="J68" r:id="rId3"/>
-    <hyperlink ref="J70" r:id="rId4"/>
-    <hyperlink ref="J78" r:id="rId5"/>
-    <hyperlink ref="J80" r:id="rId6"/>
-    <hyperlink ref="J99" r:id="rId7"/>
-    <hyperlink ref="J111" r:id="rId8"/>
-    <hyperlink ref="J119" r:id="rId9"/>
-    <hyperlink ref="J140" r:id="rId10"/>
-    <hyperlink ref="J158" r:id="rId11"/>
-    <hyperlink ref="J203" r:id="rId12"/>
-    <hyperlink ref="J220" r:id="rId13"/>
-    <hyperlink ref="J275" r:id="rId14"/>
-    <hyperlink ref="J318" r:id="rId15"/>
-    <hyperlink ref="J319" r:id="rId16"/>
+    <hyperlink ref="J55" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="J64" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="J68" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="J70" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="J78" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="J80" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="J99" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="J111" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="J119" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="J140" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="J158" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="J203" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="J220" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="J275" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="J318" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="J319" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
@@ -15460,12 +15704,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -15473,35 +15717,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z119"/>
   <sheetViews>
     <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="4"/>
-    <col min="10" max="10" width="9.85546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="4"/>
-    <col min="12" max="15" width="8.7109375" style="3"/>
-    <col min="16" max="16" width="8.7109375" style="4"/>
-    <col min="17" max="17" width="9.140625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" style="4"/>
-    <col min="19" max="19" width="9.140625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" style="4"/>
-    <col min="21" max="21" width="9.140625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="8.7109375" style="3"/>
-    <col min="23" max="23" width="8.85546875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="8.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="3" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="4"/>
+    <col min="10" max="10" width="9.83203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="4"/>
+    <col min="12" max="15" width="8.6640625" style="3"/>
+    <col min="16" max="16" width="8.6640625" style="4"/>
+    <col min="17" max="17" width="9.1640625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="9.1640625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="9.1640625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="3"/>
+    <col min="23" max="23" width="8.83203125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="8.83203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -17299,7 +17543,7 @@
         <v>65.686101520780824</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" ht="16">
       <c r="A26" s="86" t="s">
         <v>508</v>
       </c>

--- a/generateEXCEL/Data/Members/GroupRecord.xlsx
+++ b/generateEXCEL/Data/Members/GroupRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hguan/Dropbox/Research/Coding/WeChatGroup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811F59D7-B5A5-7B4C-9157-62BE6B0F130E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4207DD44-02C2-5D43-957A-1E3C906D6467}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="17140" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="1001">
   <si>
     <t>wisdompeak</t>
   </si>
@@ -3651,9 +3651,6 @@
     <t>UCSD</t>
   </si>
   <si>
-    <t>刘阿如罕</t>
-  </si>
-  <si>
     <t>user7687</t>
   </si>
   <si>
@@ -3670,6 +3667,9 @@
   </si>
   <si>
     <t>Juny1He</t>
+  </si>
+  <si>
+    <t>李子琦</t>
   </si>
 </sst>
 </file>
@@ -3681,7 +3681,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3841,6 +3841,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -3899,7 +3906,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4151,6 +4158,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4536,10 +4546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K331"/>
+  <dimension ref="A1:K328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -5565,69 +5575,72 @@
     </row>
     <row r="50" spans="1:10" s="5" customFormat="1">
       <c r="A50" s="21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C50" s="1">
-        <v>43653</v>
+        <v>43658</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="4"/>
       <c r="F50" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="G50" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:10" s="5" customFormat="1">
       <c r="A51" s="21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C51" s="1">
-        <v>43658</v>
+        <v>43660</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="F51" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G51" s="4"/>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:10" s="5" customFormat="1">
-      <c r="A52" s="21" t="s">
-        <v>149</v>
+      <c r="A52" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C52" s="1">
-        <v>43660</v>
+        <v>43661</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="19" t="s">
-        <v>120</v>
+      <c r="F52" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="7"/>
+      <c r="J52" s="8" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="53" spans="1:10" s="5" customFormat="1">
-      <c r="A53" s="10" t="s">
-        <v>151</v>
+      <c r="A53" s="21" t="s">
+        <v>154</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C53" s="1">
-        <v>43661</v>
+        <v>43662</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="4"/>
@@ -5637,75 +5650,72 @@
       <c r="G53" s="4"/>
       <c r="H53" s="7"/>
       <c r="J53" s="8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="5" customFormat="1">
       <c r="A54" s="21" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C54" s="1">
-        <v>43662</v>
+        <v>43669</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="4"/>
       <c r="F54" s="17" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="7"/>
       <c r="J54" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="5" customFormat="1">
       <c r="A55" s="21" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C55" s="1">
-        <v>43669</v>
+        <v>43675</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="17" t="s">
-        <v>159</v>
+      <c r="F55" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="7"/>
-      <c r="J55" s="8" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="56" spans="1:10" s="5" customFormat="1">
-      <c r="A56" s="21" t="s">
-        <v>161</v>
+      <c r="A56" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C56" s="1">
-        <v>43675</v>
+        <v>43678</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="18" t="s">
-        <v>57</v>
+      <c r="F56" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:10" s="5" customFormat="1">
-      <c r="A57" s="10" t="s">
-        <v>163</v>
+      <c r="A57" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C57" s="1">
         <v>43678</v>
@@ -5719,67 +5729,67 @@
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:10" s="5" customFormat="1">
-      <c r="A58" s="21" t="s">
-        <v>165</v>
+      <c r="A58" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C58" s="1">
-        <v>43678</v>
+        <v>43681</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="4"/>
       <c r="F58" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G58" s="4"/>
+      <c r="G58" s="98" t="s">
+        <v>539</v>
+      </c>
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:10" s="5" customFormat="1">
-      <c r="A59" s="10" t="s">
-        <v>167</v>
+      <c r="A59" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C59" s="1">
-        <v>43681</v>
+        <v>43690</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="4"/>
       <c r="F59" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G59" s="98" t="s">
-        <v>539</v>
-      </c>
+      <c r="G59" s="4"/>
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:10" s="5" customFormat="1">
       <c r="A60" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C60" s="1">
-        <v>43690</v>
+        <v>43702</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="4"/>
       <c r="F60" s="17" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:10" s="5" customFormat="1">
       <c r="A61" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C61" s="1">
         <v>43702</v>
@@ -5787,20 +5797,20 @@
       <c r="D61" s="6"/>
       <c r="E61" s="4"/>
       <c r="F61" s="17" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:10" s="5" customFormat="1">
       <c r="A62" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C62" s="1">
-        <v>43702</v>
+        <v>43703</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="4"/>
@@ -5811,180 +5821,180 @@
       <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:10" s="5" customFormat="1">
-      <c r="A63" s="5" t="s">
-        <v>174</v>
+      <c r="A63" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C63" s="1">
-        <v>43703</v>
+        <v>43704</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="4"/>
       <c r="F63" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="7"/>
+      <c r="G63" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="64" spans="1:10" s="5" customFormat="1">
       <c r="A64" s="10" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C64" s="1">
-        <v>43704</v>
+        <v>43707</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>124</v>
-      </c>
+      <c r="F64" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="7"/>
       <c r="J64" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="5" customFormat="1">
-      <c r="A65" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>180</v>
+      <c r="A65" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>182</v>
       </c>
       <c r="C65" s="1">
-        <v>43707</v>
+        <v>43711</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="7" t="s">
-        <v>78</v>
+      <c r="F65" s="17" t="s">
+        <v>113</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="7"/>
-      <c r="J65" s="8" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="66" spans="1:10" s="5" customFormat="1">
-      <c r="A66" s="20" t="s">
-        <v>182</v>
+      <c r="A66" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C66" s="1">
-        <v>43711</v>
+        <v>43712</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="4"/>
       <c r="F66" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G66" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:10" s="5" customFormat="1">
-      <c r="A67" s="10" t="s">
-        <v>183</v>
+      <c r="A67" s="20" t="s">
+        <v>186</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C67" s="1">
-        <v>43712</v>
+        <v>43715</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="4"/>
       <c r="F67" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>185</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G67" s="4"/>
       <c r="H67" s="7"/>
+      <c r="J67" s="8" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="68" spans="1:10" s="5" customFormat="1">
-      <c r="A68" s="20" t="s">
-        <v>186</v>
+      <c r="A68" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C68" s="1">
-        <v>43715</v>
+        <v>43716</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="4"/>
       <c r="F68" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G68" s="4"/>
+        <v>186</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>191</v>
+      </c>
       <c r="H68" s="7"/>
-      <c r="J68" s="8" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="69" spans="1:10" s="5" customFormat="1">
-      <c r="A69" s="10" t="s">
-        <v>189</v>
+      <c r="A69" s="21" t="s">
+        <v>192</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C69" s="1">
-        <v>43716</v>
+        <v>43718</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="4"/>
       <c r="F69" s="17" t="s">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H69" s="7"/>
+      <c r="J69" s="8" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="70" spans="1:10" s="5" customFormat="1">
       <c r="A70" s="21" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C70" s="1">
-        <v>43718</v>
+        <v>43722</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="4"/>
       <c r="F70" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>194</v>
-      </c>
+      <c r="G70" s="4"/>
       <c r="H70" s="7"/>
-      <c r="J70" s="8" t="s">
-        <v>195</v>
-      </c>
     </row>
     <row r="71" spans="1:10" s="5" customFormat="1">
       <c r="A71" s="21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C71" s="1">
-        <v>43722</v>
+        <v>43726</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="4"/>
@@ -5993,96 +6003,99 @@
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="7"/>
+      <c r="J71" s="8" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="72" spans="1:10" s="5" customFormat="1">
-      <c r="A72" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>200</v>
+      <c r="A72" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="C72" s="1">
-        <v>43726</v>
+        <v>43732</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="17" t="s">
-        <v>0</v>
+      <c r="F72" s="18" t="s">
+        <v>204</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="7"/>
-      <c r="J72" s="8" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="73" spans="1:10" s="5" customFormat="1">
       <c r="A73" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>206</v>
       </c>
       <c r="C73" s="1">
-        <v>43732</v>
+        <v>43737</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="18" t="s">
-        <v>204</v>
+      <c r="F73" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:10" s="5" customFormat="1">
       <c r="A74" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C74" s="1">
-        <v>43737</v>
+        <v>43738</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="4"/>
       <c r="F74" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="G74" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="H74" s="7"/>
+      <c r="J74" s="8" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="75" spans="1:10" s="5" customFormat="1">
       <c r="A75" s="10" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C75" s="1">
-        <v>43738</v>
+        <v>43741</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="4"/>
       <c r="F75" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="G75" s="4"/>
       <c r="H75" s="7"/>
-      <c r="J75" s="8" t="s">
-        <v>209</v>
+      <c r="J75" s="5" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="5" customFormat="1">
       <c r="A76" s="10" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C76" s="1">
-        <v>43741</v>
+        <v>43743</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="4"/>
@@ -6091,152 +6104,154 @@
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="7"/>
-      <c r="J76" s="5" t="s">
-        <v>212</v>
+      <c r="J76" s="8" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="5" customFormat="1">
-      <c r="A77" s="10" t="s">
-        <v>213</v>
+      <c r="A77" s="21" t="s">
+        <v>216</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C77" s="1">
-        <v>43743</v>
+        <v>43749</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="4"/>
-      <c r="F77" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G77" s="4"/>
+      <c r="F77" s="18" t="s">
+        <v>205</v>
+      </c>
       <c r="H77" s="7"/>
       <c r="J77" s="8" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="5" customFormat="1">
-      <c r="A78" s="21" t="s">
-        <v>216</v>
+      <c r="A78" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C78" s="1">
-        <v>43749</v>
+        <v>43752</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="4"/>
-      <c r="F78" s="18" t="s">
-        <v>205</v>
-      </c>
+      <c r="F78" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G78" s="4"/>
       <c r="H78" s="7"/>
-      <c r="J78" s="8" t="s">
-        <v>218</v>
-      </c>
     </row>
     <row r="79" spans="1:10" s="5" customFormat="1">
-      <c r="A79" s="10" t="s">
-        <v>219</v>
+      <c r="A79" s="21" t="s">
+        <v>223</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C79" s="1">
-        <v>43752</v>
+        <v>43757</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="4"/>
       <c r="F79" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="G79" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H79" s="7"/>
     </row>
     <row r="80" spans="1:10" s="5" customFormat="1">
-      <c r="A80" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>224</v>
+      <c r="A80" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="C80" s="1">
-        <v>43757</v>
+        <v>43763</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="4"/>
       <c r="F80" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G80" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="G80" s="4"/>
       <c r="H80" s="7"/>
     </row>
     <row r="81" spans="1:10" s="5" customFormat="1">
-      <c r="A81" s="5" t="s">
-        <v>225</v>
+      <c r="A81" s="10" t="s">
+        <v>227</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C81" s="1">
-        <v>43763</v>
+        <v>43766</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="4"/>
-      <c r="F81" s="17" t="s">
-        <v>0</v>
+      <c r="F81" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="7"/>
     </row>
     <row r="82" spans="1:10" s="5" customFormat="1">
       <c r="A82" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C82" s="1">
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="4"/>
-      <c r="F82" s="18" t="s">
-        <v>30</v>
+      <c r="F82" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:10" s="5" customFormat="1">
-      <c r="A83" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>230</v>
+      <c r="A83" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>232</v>
       </c>
       <c r="C83" s="1">
-        <v>43767</v>
+        <v>43770</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="4"/>
       <c r="F83" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G83" s="4"/>
+      <c r="G83" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H83" s="7"/>
+      <c r="J83" s="8" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="84" spans="1:10" s="5" customFormat="1">
-      <c r="A84" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>232</v>
+      <c r="A84" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="C84" s="1">
-        <v>43770</v>
+        <v>43778</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="4"/>
@@ -6244,42 +6259,42 @@
         <v>0</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="H84" s="7"/>
       <c r="J84" s="8" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:10" s="5" customFormat="1">
       <c r="A85" s="10" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C85" s="1">
-        <v>43778</v>
+        <v>43415</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="4"/>
       <c r="F85" s="17" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>236</v>
+        <v>33</v>
       </c>
       <c r="H85" s="7"/>
       <c r="J85" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:10" s="5" customFormat="1">
       <c r="A86" s="10" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C86" s="1">
         <v>43415</v>
@@ -6287,64 +6302,62 @@
       <c r="D86" s="6"/>
       <c r="E86" s="4"/>
       <c r="F86" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G86" s="4"/>
       <c r="H86" s="7"/>
       <c r="J86" s="8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:10" s="5" customFormat="1">
       <c r="A87" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C87" s="1">
-        <v>43415</v>
+        <v>43784</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="4"/>
       <c r="F87" s="17" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="7"/>
-      <c r="J87" s="8" t="s">
-        <v>243</v>
-      </c>
     </row>
     <row r="88" spans="1:10" s="5" customFormat="1">
       <c r="A88" s="10" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C88" s="1">
-        <v>43784</v>
+        <v>43804</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="4"/>
       <c r="F88" s="17" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="7"/>
+      <c r="J88" s="8" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="89" spans="1:10" s="5" customFormat="1">
-      <c r="A89" s="10" t="s">
-        <v>249</v>
+      <c r="A89" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C89" s="1">
-        <v>43801</v>
+        <v>43806</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="4"/>
@@ -6356,13 +6369,13 @@
     </row>
     <row r="90" spans="1:10" s="5" customFormat="1">
       <c r="A90" s="10" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C90" s="1">
-        <v>43804</v>
+        <v>43807</v>
       </c>
       <c r="D90" s="6"/>
       <c r="E90" s="4"/>
@@ -6371,93 +6384,90 @@
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="7"/>
-      <c r="J90" s="8" t="s">
-        <v>252</v>
-      </c>
     </row>
     <row r="91" spans="1:10" s="5" customFormat="1">
-      <c r="A91" s="5" t="s">
-        <v>253</v>
+      <c r="A91" s="10" t="s">
+        <v>259</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C91" s="1">
-        <v>43806</v>
+        <v>43817</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="4"/>
-      <c r="F91" s="17" t="s">
-        <v>0</v>
+      <c r="F91" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="7"/>
     </row>
     <row r="92" spans="1:10" s="5" customFormat="1">
-      <c r="A92" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>255</v>
+      <c r="A92" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>261</v>
       </c>
       <c r="C92" s="1">
-        <v>43807</v>
+        <v>43817</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="4"/>
       <c r="F92" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G92" s="4"/>
+      <c r="G92" s="4" t="s">
+        <v>262</v>
+      </c>
       <c r="H92" s="7"/>
     </row>
     <row r="93" spans="1:10" s="5" customFormat="1">
-      <c r="A93" s="10" t="s">
-        <v>259</v>
+      <c r="A93" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C93" s="1">
-        <v>43817</v>
+        <v>43824</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="4"/>
-      <c r="F93" s="18" t="s">
-        <v>72</v>
+      <c r="F93" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="7"/>
     </row>
     <row r="94" spans="1:10" s="5" customFormat="1">
-      <c r="A94" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>261</v>
+      <c r="A94" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="C94" s="1">
-        <v>43817</v>
+        <v>43825</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="4"/>
       <c r="F94" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G94" s="4" t="s">
-        <v>262</v>
-      </c>
+      <c r="G94" s="4"/>
       <c r="H94" s="7"/>
     </row>
     <row r="95" spans="1:10" s="5" customFormat="1">
-      <c r="A95" s="5" t="s">
-        <v>263</v>
+      <c r="A95" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C95" s="1">
-        <v>43824</v>
+        <v>43825</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="4"/>
@@ -6468,87 +6478,88 @@
       <c r="H95" s="7"/>
     </row>
     <row r="96" spans="1:10" s="5" customFormat="1">
-      <c r="A96" s="10" t="s">
-        <v>265</v>
+      <c r="A96" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C96" s="1">
-        <v>43825</v>
+        <v>43827</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="4"/>
       <c r="F96" s="17" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="7"/>
     </row>
-    <row r="97" spans="1:10" s="5" customFormat="1">
+    <row r="97" spans="1:10">
       <c r="A97" s="10" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C97" s="1">
-        <v>43825</v>
+        <v>43827</v>
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="4"/>
-      <c r="F97" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G97" s="4"/>
+      <c r="F97" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H97" s="7"/>
-    </row>
-    <row r="98" spans="1:10" s="5" customFormat="1">
-      <c r="A98" s="16" t="s">
-        <v>269</v>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="10" t="s">
+        <v>274</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C98" s="1">
-        <v>43827</v>
-      </c>
-      <c r="D98" s="6"/>
-      <c r="E98" s="4"/>
+        <v>43829</v>
+      </c>
       <c r="F98" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="G98" s="4"/>
-      <c r="H98" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="8" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="10" t="s">
-        <v>271</v>
+      <c r="A99" t="s">
+        <v>277</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C99" s="1">
-        <v>43827</v>
-      </c>
-      <c r="D99" s="6"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4" t="s">
-        <v>273</v>
+        <v>43829</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H99" s="7"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
+        <v>279</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="10" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C100" s="1">
         <v>43829</v>
@@ -6556,377 +6567,368 @@
       <c r="F100" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J100" s="8" t="s">
-        <v>276</v>
-      </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" t="s">
-        <v>277</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>278</v>
+      <c r="A101" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>284</v>
       </c>
       <c r="C101" s="1">
-        <v>43829</v>
-      </c>
+        <v>43830</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="7"/>
       <c r="F101" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G101" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="J101" s="8" t="s">
-        <v>280</v>
+      <c r="G101" s="7" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="10" t="s">
-        <v>281</v>
+      <c r="A102" t="s">
+        <v>286</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C102" s="1">
-        <v>43829</v>
+        <v>43833</v>
       </c>
       <c r="F102" s="17" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B103" s="26" t="s">
-        <v>284</v>
+      <c r="A103" t="s">
+        <v>288</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="C103" s="1">
-        <v>43830</v>
-      </c>
-      <c r="D103" s="1"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>285</v>
+        <v>43833</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" t="s">
-        <v>286</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>287</v>
+      <c r="A104" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>291</v>
       </c>
       <c r="C104" s="1">
-        <v>43833</v>
-      </c>
+        <v>43834</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="E104" s="7"/>
       <c r="F104" s="17" t="s">
         <v>0</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J104" s="8" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C105" s="1">
-        <v>43833</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>234</v>
+        <v>43834</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="B106" s="26" t="s">
-        <v>291</v>
+      <c r="A106" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="C106" s="1">
         <v>43834</v>
       </c>
-      <c r="D106" s="1"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>292</v>
+      <c r="F106" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" t="s">
-        <v>294</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>295</v>
+      <c r="A107" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B107" t="s">
+        <v>301</v>
       </c>
       <c r="C107" s="1">
-        <v>43834</v>
-      </c>
-      <c r="F107" s="17" t="s">
-        <v>0</v>
+        <v>43835</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>297</v>
+      <c r="A108" t="s">
+        <v>304</v>
+      </c>
+      <c r="B108" t="s">
+        <v>304</v>
       </c>
       <c r="C108" s="1">
-        <v>43834</v>
-      </c>
-      <c r="F108" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="J108" s="8" t="s">
-        <v>299</v>
+        <v>43836</v>
+      </c>
+      <c r="F108" s="17" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="B109" t="s">
-        <v>301</v>
+      <c r="A109" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B109" s="26" t="s">
+        <v>306</v>
       </c>
       <c r="C109" s="1">
-        <v>43835</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>277</v>
+        <v>43836</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" t="s">
-        <v>304</v>
+      <c r="A110" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="B110" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C110" s="1">
-        <v>43836</v>
+        <v>43837</v>
       </c>
       <c r="F110" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="I110" s="8"/>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B111" s="26" t="s">
-        <v>306</v>
+        <v>309</v>
+      </c>
+      <c r="B111" t="s">
+        <v>310</v>
       </c>
       <c r="C111" s="1">
-        <v>43836</v>
-      </c>
-      <c r="D111" s="1"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>46</v>
+        <v>43838</v>
+      </c>
+      <c r="F111" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J111" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="5" t="s">
-        <v>307</v>
+      <c r="A112" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="B112" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C112" s="1">
-        <v>43837</v>
+        <v>43838</v>
       </c>
       <c r="F112" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I112" s="8"/>
+      <c r="J112" s="8" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="5" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B113" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C113" s="1">
-        <v>43838</v>
-      </c>
-      <c r="F113" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="J113" s="8" t="s">
-        <v>311</v>
+        <v>43839</v>
+      </c>
+      <c r="F113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="10" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B114" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C114" s="1">
-        <v>43838</v>
+        <v>43839</v>
       </c>
       <c r="F114" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J114" s="8" t="s">
-        <v>314</v>
-      </c>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B115" t="s">
-        <v>316</v>
+      <c r="A115" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="B115" s="26" t="s">
+        <v>320</v>
       </c>
       <c r="C115" s="1">
         <v>43839</v>
       </c>
+      <c r="D115" s="1"/>
+      <c r="E115" s="7"/>
       <c r="F115" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G115" s="4" t="s">
-        <v>33</v>
+      <c r="J115" s="8" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="10" t="s">
-        <v>317</v>
+      <c r="A116" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="B116" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C116" s="1">
-        <v>43839</v>
+        <v>43840</v>
       </c>
       <c r="F116" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="J116" s="8" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="10" t="s">
-        <v>319</v>
+      <c r="A117" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C117" s="1">
-        <v>43839</v>
+        <v>43840</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="7"/>
       <c r="F117" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J117" s="8" t="s">
-        <v>321</v>
+      <c r="G117" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="5" t="s">
-        <v>322</v>
+      <c r="A118" t="s">
+        <v>326</v>
       </c>
       <c r="B118" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C118" s="1">
-        <v>43840</v>
+        <v>43841</v>
       </c>
       <c r="F118" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J118" s="8" t="s">
-        <v>324</v>
-      </c>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B119" s="26" t="s">
-        <v>325</v>
+      <c r="A119" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="B119" t="s">
+        <v>329</v>
       </c>
       <c r="C119" s="1">
-        <v>43840</v>
-      </c>
-      <c r="D119" s="1"/>
-      <c r="E119" s="7"/>
+        <v>43841</v>
+      </c>
       <c r="F119" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>33</v>
+        <v>244</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B120" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C120" s="1">
         <v>43841</v>
       </c>
-      <c r="F120" s="17" t="s">
-        <v>0</v>
+      <c r="F120" s="18" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="10" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B121" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C121" s="1">
-        <v>43841</v>
+        <v>43842</v>
       </c>
       <c r="F121" s="17" t="s">
-        <v>244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B122" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C122" s="1">
-        <v>43841</v>
-      </c>
-      <c r="F122" s="18" t="s">
-        <v>205</v>
+        <v>43842</v>
+      </c>
+      <c r="F122" s="17" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" s="10" t="s">
-        <v>331</v>
+      <c r="A123" t="s">
+        <v>335</v>
       </c>
       <c r="B123" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C123" s="1">
         <v>43842</v>
@@ -6937,326 +6939,326 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B124" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C124" s="1">
-        <v>43842</v>
-      </c>
-      <c r="F124" s="17" t="s">
-        <v>0</v>
+        <v>43843</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" t="s">
-        <v>335</v>
+      <c r="A125" s="10" t="s">
+        <v>339</v>
       </c>
       <c r="B125" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C125" s="1">
-        <v>43842</v>
+        <v>43843</v>
       </c>
       <c r="F125" s="17" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:10">
-      <c r="A126" t="s">
-        <v>337</v>
+      <c r="A126" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="B126" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C126" s="1">
         <v>43843</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="10" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B127" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C127" s="1">
-        <v>43843</v>
+        <v>43844</v>
       </c>
       <c r="F127" s="17" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="B128" t="s">
-        <v>342</v>
+      <c r="A128" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>346</v>
       </c>
       <c r="C128" s="1">
-        <v>43843</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>142</v>
+        <v>43845</v>
+      </c>
+      <c r="D128" s="1"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="B129" t="s">
-        <v>344</v>
+      <c r="A129" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="B129" s="27" t="s">
+        <v>348</v>
       </c>
       <c r="C129" s="1">
-        <v>43844</v>
-      </c>
-      <c r="F129" s="17" t="s">
-        <v>0</v>
+        <v>43845</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>346</v>
+      <c r="A130" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="B130" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="C130" s="1">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="7"/>
       <c r="F130" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G130" s="7" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="B131" s="27" t="s">
-        <v>348</v>
+      <c r="A131" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>353</v>
       </c>
       <c r="C131" s="1">
-        <v>43845</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>349</v>
+        <v>43847</v>
+      </c>
+      <c r="F131" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="B132" s="20" t="s">
-        <v>351</v>
+      <c r="A132" t="s">
+        <v>354</v>
+      </c>
+      <c r="B132" t="s">
+        <v>355</v>
       </c>
       <c r="C132" s="1">
-        <v>43846</v>
-      </c>
-      <c r="D132" s="1"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="17" t="s">
-        <v>0</v>
+        <v>43848</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>353</v>
+        <v>356</v>
+      </c>
+      <c r="B133" t="s">
+        <v>357</v>
       </c>
       <c r="C133" s="1">
-        <v>43847</v>
-      </c>
-      <c r="F133" s="17" t="s">
-        <v>0</v>
+        <v>43848</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>46</v>
+        <v>358</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B134" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C134" s="1">
-        <v>43848</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>244</v>
+        <v>43849</v>
+      </c>
+      <c r="F134" s="17" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="10" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B135" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C135" s="1">
-        <v>43848</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>358</v>
+        <v>43850</v>
+      </c>
+      <c r="F135" s="17" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B136" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C136" s="1">
-        <v>43849</v>
-      </c>
-      <c r="F136" s="17" t="s">
-        <v>0</v>
+        <v>43852</v>
+      </c>
+      <c r="F136" s="18" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="10" t="s">
-        <v>361</v>
+      <c r="A137" s="28" t="s">
+        <v>365</v>
       </c>
       <c r="B137" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C137" s="1">
-        <v>43850</v>
-      </c>
-      <c r="F137" s="17" t="s">
-        <v>0</v>
+        <v>43855</v>
+      </c>
+      <c r="F137" s="29" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" t="s">
-        <v>363</v>
-      </c>
-      <c r="B138" t="s">
-        <v>363</v>
+      <c r="A138" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>368</v>
       </c>
       <c r="C138" s="1">
-        <v>43852</v>
-      </c>
-      <c r="F138" s="18" t="s">
-        <v>364</v>
+        <v>43856</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="28" t="s">
-        <v>365</v>
+      <c r="A139" t="s">
+        <v>952</v>
       </c>
       <c r="B139" t="s">
-        <v>366</v>
+        <v>953</v>
       </c>
       <c r="C139" s="1">
-        <v>43855</v>
-      </c>
-      <c r="F139" s="29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="B140" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="C140" s="1">
-        <v>43856</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>43857</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="100" customFormat="1">
+      <c r="A140" s="95" t="s">
+        <v>594</v>
+      </c>
+      <c r="B140" s="96" t="s">
+        <v>595</v>
+      </c>
+      <c r="C140" s="97">
+        <v>43857</v>
+      </c>
+      <c r="D140" s="97"/>
+      <c r="E140" s="98"/>
+      <c r="F140" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="G140" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H140" s="98"/>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="B141" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="C141" s="1">
-        <v>43857</v>
+        <v>43859</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" s="100" customFormat="1">
-      <c r="A142" s="95" t="s">
-        <v>594</v>
-      </c>
-      <c r="B142" s="96" t="s">
-        <v>595</v>
-      </c>
-      <c r="C142" s="97">
-        <v>43857</v>
-      </c>
-      <c r="D142" s="97"/>
-      <c r="E142" s="98"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" t="s">
+        <v>957</v>
+      </c>
+      <c r="B142" t="s">
+        <v>958</v>
+      </c>
+      <c r="C142" s="1">
+        <v>43862</v>
+      </c>
       <c r="F142" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="G142" s="98" t="s">
-        <v>46</v>
-      </c>
-      <c r="H142" s="98"/>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="B143" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="C143" s="1">
-        <v>43859</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>186</v>
+        <v>43863</v>
+      </c>
+      <c r="F143" s="99" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="B144" t="s">
-        <v>958</v>
+        <v>966</v>
       </c>
       <c r="C144" s="1">
-        <v>43862</v>
-      </c>
-      <c r="F144" s="99" t="s">
-        <v>0</v>
+        <v>43863</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="B145" t="s">
-        <v>962</v>
+        <v>972</v>
       </c>
       <c r="C145" s="1">
-        <v>43863</v>
+        <v>43865</v>
       </c>
       <c r="F145" s="99" t="s">
         <v>0</v>
@@ -7264,172 +7266,175 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="B146" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="C146" s="1">
-        <v>43863</v>
+        <v>43865</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" t="s">
-        <v>965</v>
-      </c>
-      <c r="B147" t="s">
-        <v>966</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" s="16" customFormat="1">
+      <c r="A147" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="B147" s="101" t="s">
+        <v>884</v>
       </c>
       <c r="C147" s="1">
-        <v>43863</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>269</v>
-      </c>
+        <v>43865</v>
+      </c>
+      <c r="D147" s="102"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="B148" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C148" s="1">
         <v>43865</v>
       </c>
-      <c r="F148" s="99" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" t="s">
-        <v>969</v>
-      </c>
-      <c r="B149" t="s">
-        <v>968</v>
-      </c>
-      <c r="C149" s="1">
-        <v>43865</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" s="16" customFormat="1">
-      <c r="A150" s="15" t="s">
-        <v>883</v>
-      </c>
-      <c r="B150" s="101" t="s">
-        <v>884</v>
+      <c r="F148" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" s="16" customFormat="1">
+      <c r="A149" s="14" t="s">
+        <v>973</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C149" s="102">
+        <v>43866</v>
+      </c>
+      <c r="D149" s="104"/>
+      <c r="E149" s="103"/>
+      <c r="F149" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="G149" s="19"/>
+      <c r="H149" s="19"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" t="s">
+        <v>975</v>
+      </c>
+      <c r="B150" t="s">
+        <v>974</v>
       </c>
       <c r="C150" s="1">
-        <v>43865</v>
-      </c>
-      <c r="D150" s="102"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="G150" s="19"/>
-      <c r="H150" s="19"/>
+        <v>43867</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="B151" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="C151" s="1">
-        <v>43865</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" s="16" customFormat="1">
-      <c r="A152" s="14" t="s">
-        <v>973</v>
-      </c>
-      <c r="B152" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="C152" s="102">
-        <v>43866</v>
-      </c>
-      <c r="D152" s="104"/>
-      <c r="E152" s="103"/>
+        <v>43867</v>
+      </c>
+      <c r="F151" s="103" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" t="s">
+        <v>979</v>
+      </c>
+      <c r="B152" t="s">
+        <v>978</v>
+      </c>
+      <c r="C152" s="1">
+        <v>43870</v>
+      </c>
       <c r="F152" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="G152" s="19"/>
-      <c r="H152" s="19"/>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
       <c r="B153" t="s">
-        <v>974</v>
+        <v>990</v>
       </c>
       <c r="C153" s="1">
-        <v>43867</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>72</v>
+        <v>43870</v>
+      </c>
+      <c r="F153" s="103" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>977</v>
+        <v>986</v>
       </c>
       <c r="B154" t="s">
-        <v>976</v>
+        <v>986</v>
       </c>
       <c r="C154" s="1">
-        <v>43867</v>
+        <v>43870</v>
       </c>
       <c r="F154" s="103" t="s">
         <v>0</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="B155" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="C155" s="1">
         <v>43870</v>
       </c>
-      <c r="F155" s="103" t="s">
-        <v>0</v>
+      <c r="F155" s="18" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="B156" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C156" s="1">
         <v>43870</v>
       </c>
-      <c r="F156" s="103" t="s">
-        <v>0</v>
+      <c r="F156" s="18" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="B157" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C157" s="1">
         <v>43870</v>
@@ -7437,61 +7442,61 @@
       <c r="F157" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="H157" s="4" t="s">
-        <v>993</v>
-      </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B158" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="C158" s="1">
         <v>43870</v>
       </c>
-      <c r="F158" s="18" t="s">
-        <v>364</v>
+      <c r="F158" s="103" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>982</v>
+        <v>992</v>
       </c>
       <c r="B159" t="s">
-        <v>984</v>
+        <v>991</v>
       </c>
       <c r="C159" s="1">
         <v>43870</v>
       </c>
-      <c r="F159" s="18" t="s">
-        <v>364</v>
+      <c r="F159" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>981</v>
+        <v>995</v>
       </c>
       <c r="B160" t="s">
-        <v>988</v>
+        <v>996</v>
       </c>
       <c r="C160" s="1">
-        <v>43870</v>
-      </c>
-      <c r="F160" s="103" t="s">
-        <v>0</v>
+        <v>43871</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="B161" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
       <c r="C161" s="1">
-        <v>43870</v>
+        <v>43872</v>
       </c>
       <c r="F161" s="103" t="s">
         <v>0</v>
@@ -7499,78 +7504,52 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="B162" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="C162" s="1">
-        <v>43870</v>
+        <v>43875</v>
       </c>
       <c r="F162" s="103" t="s">
         <v>0</v>
-      </c>
-      <c r="G162" s="4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="B163" t="s">
         <v>997</v>
       </c>
       <c r="C163" s="1">
-        <v>43871</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>269</v>
+        <v>43875</v>
+      </c>
+      <c r="F163" s="103" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" t="s">
-        <v>996</v>
-      </c>
-      <c r="B164" t="s">
-        <v>995</v>
-      </c>
-      <c r="C164" s="1">
-        <v>43872</v>
-      </c>
-      <c r="F164" s="103" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" t="s">
-        <v>999</v>
-      </c>
-      <c r="B165" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C165" s="1">
-        <v>43875</v>
-      </c>
-      <c r="F165" s="103" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" t="s">
-        <v>998</v>
-      </c>
-      <c r="B166" t="s">
-        <v>998</v>
-      </c>
-      <c r="C166" s="1">
-        <v>43875</v>
-      </c>
-      <c r="F166" s="103" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" ht="14.75" customHeight="1"/>
+      <c r="A164" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="B164" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="C164" s="97">
+        <v>43876</v>
+      </c>
+      <c r="D164" s="97"/>
+      <c r="E164" s="98"/>
+      <c r="F164" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="G164" s="98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" ht="14.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -7595,31 +7574,31 @@
     <hyperlink ref="J46" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="J48" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="J49" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="J53" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J54" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J55" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J64" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J65" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="J68" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J70" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J72" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="J75" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="J76" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="J77" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="J78" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="J84" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="J85" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="J86" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="J87" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="J90" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="J100" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="J101" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="J106" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J108" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="J113" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J114" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J117" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="J118" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J52" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J53" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J54" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J63" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J64" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J67" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J69" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J71" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J74" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J75" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="J76" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J77" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="J83" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J84" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J85" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J86" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J88" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J98" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J99" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="J104" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J106" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J111" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J112" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J115" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="J116" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId48"/>
@@ -7628,10 +7607,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J326"/>
+  <dimension ref="A1:J329"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView topLeftCell="A306" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C330" sqref="C330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="15"/>
@@ -14208,7 +14187,7 @@
         <v>43790</v>
       </c>
       <c r="E257" s="25">
-        <f t="shared" ref="E257:E326" si="4">D257-C257</f>
+        <f t="shared" ref="E257:E329" si="4">D257-C257</f>
         <v>246</v>
       </c>
       <c r="F257" s="24" t="s">
@@ -15915,6 +15894,75 @@
       </c>
       <c r="G326" s="25"/>
       <c r="H326" s="25"/>
+    </row>
+    <row r="327" spans="1:8" s="5" customFormat="1">
+      <c r="A327" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="B327" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C327" s="23">
+        <v>43801</v>
+      </c>
+      <c r="D327" s="23">
+        <v>43875</v>
+      </c>
+      <c r="E327" s="25">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="F327" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G327" s="4"/>
+      <c r="H327" s="7"/>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="A328" s="34" t="s">
+        <v>963</v>
+      </c>
+      <c r="B328" s="34" t="s">
+        <v>964</v>
+      </c>
+      <c r="C328" s="23">
+        <v>43863</v>
+      </c>
+      <c r="D328" s="33">
+        <v>43876</v>
+      </c>
+      <c r="E328" s="24">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="F328" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="G328" s="4"/>
+      <c r="H328" s="4"/>
+    </row>
+    <row r="329" spans="1:8" s="5" customFormat="1">
+      <c r="A329" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B329" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C329" s="23">
+        <v>43653</v>
+      </c>
+      <c r="D329" s="33">
+        <v>43876</v>
+      </c>
+      <c r="E329" s="24">
+        <f t="shared" si="4"/>
+        <v>223</v>
+      </c>
+      <c r="F329" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="G329" s="4"/>
+      <c r="H329" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/generateEXCEL/Data/Members/GroupRecord.xlsx
+++ b/generateEXCEL/Data/Members/GroupRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hguan/Dropbox/Research/Coding/WeChatGroup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4207DD44-02C2-5D43-957A-1E3C906D6467}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B966B271-59E0-D244-8CFD-D0E74B8C5E61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="17140" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3603,9 +3603,6 @@
     <t>任得欣</t>
   </si>
   <si>
-    <t>oooo0oooo0ooo</t>
-  </si>
-  <si>
     <t>哦</t>
   </si>
   <si>
@@ -3670,6 +3667,9 @@
   </si>
   <si>
     <t>李子琦</t>
+  </si>
+  <si>
+    <t>oOoO0oOoO0oOo</t>
   </si>
 </sst>
 </file>
@@ -4548,8 +4548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -7358,10 +7358,10 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B152" t="s">
-        <v>978</v>
+        <v>1000</v>
       </c>
       <c r="C152" s="1">
         <v>43870</v>
@@ -7372,10 +7372,10 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B153" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C153" s="1">
         <v>43870</v>
@@ -7386,10 +7386,10 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B154" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C154" s="1">
         <v>43870</v>
@@ -7398,15 +7398,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B155" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C155" s="1">
         <v>43870</v>
@@ -7417,10 +7417,10 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B156" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C156" s="1">
         <v>43870</v>
@@ -7431,10 +7431,10 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B157" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C157" s="1">
         <v>43870</v>
@@ -7445,10 +7445,10 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B158" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C158" s="1">
         <v>43870</v>
@@ -7459,10 +7459,10 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B159" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C159" s="1">
         <v>43870</v>
@@ -7476,10 +7476,10 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
+        <v>994</v>
+      </c>
+      <c r="B160" t="s">
         <v>995</v>
-      </c>
-      <c r="B160" t="s">
-        <v>996</v>
       </c>
       <c r="C160" s="1">
         <v>43871</v>
@@ -7490,10 +7490,10 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B161" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C161" s="1">
         <v>43872</v>
@@ -7504,10 +7504,10 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
+        <v>997</v>
+      </c>
+      <c r="B162" t="s">
         <v>998</v>
-      </c>
-      <c r="B162" t="s">
-        <v>999</v>
       </c>
       <c r="C162" s="1">
         <v>43875</v>
@@ -7518,10 +7518,10 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B163" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C163" s="1">
         <v>43875</v>

--- a/generateEXCEL/Data/Members/GroupRecord.xlsx
+++ b/generateEXCEL/Data/Members/GroupRecord.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hguan/Dropbox/Research/Coding/WeChatGroup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Huifeng\Dropbox\Research\Coding\WeChatGroup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A4262C-8734-3744-AEEA-46CD1F14881C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17760" windowHeight="12480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="17760" windowHeight="12480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2799" uniqueCount="1069">
   <si>
     <t>wisdompeak</t>
   </si>
@@ -3880,7 +3879,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yyyy"/>
@@ -4326,8 +4325,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4672,24 +4671,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E144" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J152" sqref="J152"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="36.5" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6399,7 +6398,7 @@
         <v>241</v>
       </c>
       <c r="C82" s="1">
-        <v>43415</v>
+        <v>43780</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="4"/>
@@ -6422,7 +6421,7 @@
         <v>244</v>
       </c>
       <c r="C83" s="1">
-        <v>43415</v>
+        <v>43780</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="4"/>
@@ -7687,6 +7686,9 @@
       <c r="G155" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="J155" s="97" t="s">
+        <v>1002</v>
+      </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" t="s">
@@ -7814,109 +7816,110 @@
         <v>206</v>
       </c>
     </row>
-    <row r="319" ht="14.75" customHeight="1"/>
+    <row r="319" ht="14.85" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J23" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J26" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J29" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J32" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J35" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J36" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="J37" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="J38" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="J42" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J44" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J45" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J47" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J48" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="J50" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J51" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J52" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="J56" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="J57" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="J60" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="K61" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="J62" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="J64" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="J65" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="J67" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="J69" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="J70" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="J71" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="J72" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J73" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="J74" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J79" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J80" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="J81" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="J82" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="J83" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="J85" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="J86" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="J94" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="J95" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="J98" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="J100" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="J102" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="J106" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="J107" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="J108" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="J110" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="J111" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="J113" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="J117" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="J118" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="J120" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="J121" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="J122" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="J125" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="J136" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="J138" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="J143" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="J145" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="J146" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="J147" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="J160" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="J150" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="J91" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="J129" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="J130" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="J153" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="J88" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="J142" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="J154" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="J61" r:id="rId84" xr:uid="{E326D371-8198-7A4F-BAFB-7B69C150A916}"/>
-    <hyperlink ref="J5" r:id="rId85" xr:uid="{7909B4E3-2F38-6049-B3DC-17E39A55338B}"/>
-    <hyperlink ref="J55" r:id="rId86" xr:uid="{562748E4-4D56-6844-AD57-D2F841493018}"/>
-    <hyperlink ref="J66" r:id="rId87" xr:uid="{0CC70524-00DB-ED45-9EF2-9AD1E1DFE82D}"/>
-    <hyperlink ref="J90" r:id="rId88" xr:uid="{63AE26D7-F559-D347-AAC2-599694BD3771}"/>
-    <hyperlink ref="J54" r:id="rId89" xr:uid="{4B520847-DC37-9340-95F9-8DEF21F94B09}"/>
-    <hyperlink ref="J34" r:id="rId90" xr:uid="{5A97A880-0C77-4842-940C-7161FAA408AC}"/>
-    <hyperlink ref="J14" r:id="rId91" xr:uid="{E014A78B-5B6B-784D-A4E8-AB5BF5AFB9C5}"/>
-    <hyperlink ref="J132" r:id="rId92" xr:uid="{205888A4-2528-8945-913C-9B4C837C1D0F}"/>
-    <hyperlink ref="J75" r:id="rId93" xr:uid="{EBDE70C6-EDAA-F040-95E9-CE4FAD647DB2}"/>
-    <hyperlink ref="J104" r:id="rId94" xr:uid="{D762DC5A-A0C7-E94F-8D6B-E22D55BC00C4}"/>
-    <hyperlink ref="J58" r:id="rId95" xr:uid="{BD206AF2-06A8-4C48-AE8F-ECD39DC65F6A}"/>
-    <hyperlink ref="J109" r:id="rId96" xr:uid="{78304EBF-D8E8-8A42-9675-2E60C0D31F48}"/>
-    <hyperlink ref="J156" r:id="rId97" xr:uid="{C55AF735-5F59-114C-9861-6D24FF6B5F57}"/>
-    <hyperlink ref="J162" r:id="rId98" xr:uid="{6597CBAE-274A-F541-8FEE-7D17075F342C}"/>
-    <hyperlink ref="J141" r:id="rId99" xr:uid="{55EFA37F-F280-C043-96BA-D5E271C80C8A}"/>
-    <hyperlink ref="J87" r:id="rId100" xr:uid="{AF8E2A4A-5EFB-B042-9225-FA2DF39AD691}"/>
+    <hyperlink ref="J1" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="J4" r:id="rId3"/>
+    <hyperlink ref="J6" r:id="rId4"/>
+    <hyperlink ref="J7" r:id="rId5"/>
+    <hyperlink ref="J8" r:id="rId6"/>
+    <hyperlink ref="J10" r:id="rId7"/>
+    <hyperlink ref="J12" r:id="rId8"/>
+    <hyperlink ref="J13" r:id="rId9"/>
+    <hyperlink ref="J15" r:id="rId10"/>
+    <hyperlink ref="J16" r:id="rId11"/>
+    <hyperlink ref="J17" r:id="rId12"/>
+    <hyperlink ref="J23" r:id="rId13"/>
+    <hyperlink ref="J26" r:id="rId14"/>
+    <hyperlink ref="J27" r:id="rId15"/>
+    <hyperlink ref="J28" r:id="rId16"/>
+    <hyperlink ref="J29" r:id="rId17"/>
+    <hyperlink ref="J32" r:id="rId18"/>
+    <hyperlink ref="J35" r:id="rId19"/>
+    <hyperlink ref="J36" r:id="rId20"/>
+    <hyperlink ref="J37" r:id="rId21"/>
+    <hyperlink ref="J38" r:id="rId22"/>
+    <hyperlink ref="J42" r:id="rId23"/>
+    <hyperlink ref="J44" r:id="rId24"/>
+    <hyperlink ref="J45" r:id="rId25"/>
+    <hyperlink ref="J47" r:id="rId26"/>
+    <hyperlink ref="J48" r:id="rId27"/>
+    <hyperlink ref="J50" r:id="rId28"/>
+    <hyperlink ref="J51" r:id="rId29"/>
+    <hyperlink ref="J52" r:id="rId30"/>
+    <hyperlink ref="J56" r:id="rId31"/>
+    <hyperlink ref="J57" r:id="rId32"/>
+    <hyperlink ref="J60" r:id="rId33"/>
+    <hyperlink ref="K61" r:id="rId34"/>
+    <hyperlink ref="J62" r:id="rId35"/>
+    <hyperlink ref="J64" r:id="rId36"/>
+    <hyperlink ref="J65" r:id="rId37"/>
+    <hyperlink ref="J67" r:id="rId38"/>
+    <hyperlink ref="J69" r:id="rId39"/>
+    <hyperlink ref="J70" r:id="rId40"/>
+    <hyperlink ref="J71" r:id="rId41"/>
+    <hyperlink ref="J72" r:id="rId42"/>
+    <hyperlink ref="J73" r:id="rId43"/>
+    <hyperlink ref="J74" r:id="rId44"/>
+    <hyperlink ref="J79" r:id="rId45"/>
+    <hyperlink ref="J80" r:id="rId46"/>
+    <hyperlink ref="J81" r:id="rId47"/>
+    <hyperlink ref="J82" r:id="rId48"/>
+    <hyperlink ref="J83" r:id="rId49"/>
+    <hyperlink ref="J85" r:id="rId50"/>
+    <hyperlink ref="J86" r:id="rId51"/>
+    <hyperlink ref="J94" r:id="rId52"/>
+    <hyperlink ref="J95" r:id="rId53"/>
+    <hyperlink ref="J98" r:id="rId54"/>
+    <hyperlink ref="J100" r:id="rId55"/>
+    <hyperlink ref="J102" r:id="rId56"/>
+    <hyperlink ref="J106" r:id="rId57"/>
+    <hyperlink ref="J107" r:id="rId58"/>
+    <hyperlink ref="J108" r:id="rId59"/>
+    <hyperlink ref="J110" r:id="rId60"/>
+    <hyperlink ref="J111" r:id="rId61"/>
+    <hyperlink ref="J113" r:id="rId62"/>
+    <hyperlink ref="J117" r:id="rId63"/>
+    <hyperlink ref="J118" r:id="rId64"/>
+    <hyperlink ref="J120" r:id="rId65"/>
+    <hyperlink ref="J121" r:id="rId66"/>
+    <hyperlink ref="J122" r:id="rId67"/>
+    <hyperlink ref="J125" r:id="rId68"/>
+    <hyperlink ref="J136" r:id="rId69"/>
+    <hyperlink ref="J138" r:id="rId70"/>
+    <hyperlink ref="J143" r:id="rId71"/>
+    <hyperlink ref="J145" r:id="rId72"/>
+    <hyperlink ref="J146" r:id="rId73"/>
+    <hyperlink ref="J147" r:id="rId74"/>
+    <hyperlink ref="J160" r:id="rId75"/>
+    <hyperlink ref="J150" r:id="rId76"/>
+    <hyperlink ref="J91" r:id="rId77"/>
+    <hyperlink ref="J129" r:id="rId78"/>
+    <hyperlink ref="J130" r:id="rId79"/>
+    <hyperlink ref="J153" r:id="rId80"/>
+    <hyperlink ref="J88" r:id="rId81"/>
+    <hyperlink ref="J142" r:id="rId82"/>
+    <hyperlink ref="J154" r:id="rId83"/>
+    <hyperlink ref="J61" r:id="rId84"/>
+    <hyperlink ref="J5" r:id="rId85"/>
+    <hyperlink ref="J55" r:id="rId86"/>
+    <hyperlink ref="J66" r:id="rId87"/>
+    <hyperlink ref="J90" r:id="rId88"/>
+    <hyperlink ref="J54" r:id="rId89"/>
+    <hyperlink ref="J34" r:id="rId90"/>
+    <hyperlink ref="J14" r:id="rId91"/>
+    <hyperlink ref="J132" r:id="rId92"/>
+    <hyperlink ref="J75" r:id="rId93"/>
+    <hyperlink ref="J104" r:id="rId94"/>
+    <hyperlink ref="J58" r:id="rId95"/>
+    <hyperlink ref="J109" r:id="rId96"/>
+    <hyperlink ref="J156" r:id="rId97"/>
+    <hyperlink ref="J162" r:id="rId98"/>
+    <hyperlink ref="J141" r:id="rId99"/>
+    <hyperlink ref="J87" r:id="rId100"/>
+    <hyperlink ref="J155" r:id="rId101"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7924,21 +7927,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J338"/>
   <sheetViews>
-    <sheetView topLeftCell="A327" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A343" sqref="A343"/>
+    <sheetView topLeftCell="A297" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G325" sqref="G325"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" style="29" customWidth="1"/>
-    <col min="3" max="4" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1"/>
-    <col min="8" max="8" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="29" customWidth="1"/>
+    <col min="3" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -16507,24 +16510,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J55" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="J64" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="J68" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="J70" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="J78" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="J80" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="J99" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="J111" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="J119" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="J140" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="J158" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="J203" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="J220" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="J275" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="J318" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="J319" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="J330" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="J336" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="J55" r:id="rId1"/>
+    <hyperlink ref="J64" r:id="rId2"/>
+    <hyperlink ref="J68" r:id="rId3"/>
+    <hyperlink ref="J70" r:id="rId4"/>
+    <hyperlink ref="J78" r:id="rId5"/>
+    <hyperlink ref="J80" r:id="rId6"/>
+    <hyperlink ref="J99" r:id="rId7"/>
+    <hyperlink ref="J111" r:id="rId8"/>
+    <hyperlink ref="J119" r:id="rId9"/>
+    <hyperlink ref="J140" r:id="rId10"/>
+    <hyperlink ref="J158" r:id="rId11"/>
+    <hyperlink ref="J203" r:id="rId12"/>
+    <hyperlink ref="J220" r:id="rId13"/>
+    <hyperlink ref="J275" r:id="rId14"/>
+    <hyperlink ref="J318" r:id="rId15"/>
+    <hyperlink ref="J319" r:id="rId16"/>
+    <hyperlink ref="J330" r:id="rId17"/>
+    <hyperlink ref="J336" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -16536,12 +16539,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -16549,35 +16552,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z119"/>
   <sheetViews>
     <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="3" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="4"/>
-    <col min="10" max="10" width="9.83203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="4"/>
-    <col min="12" max="15" width="8.6640625" style="3"/>
-    <col min="16" max="16" width="8.6640625" style="4"/>
-    <col min="17" max="17" width="9.1640625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" style="4"/>
-    <col min="19" max="19" width="9.1640625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" style="4"/>
-    <col min="21" max="21" width="9.1640625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" style="3"/>
-    <col min="23" max="23" width="8.83203125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="8.83203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="4"/>
+    <col min="10" max="10" width="9.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="4"/>
+    <col min="12" max="15" width="8.7109375" style="3"/>
+    <col min="16" max="16" width="8.7109375" style="4"/>
+    <col min="17" max="17" width="9.140625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" style="4"/>
+    <col min="19" max="19" width="9.140625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="4"/>
+    <col min="21" max="21" width="9.140625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" style="3"/>
+    <col min="23" max="23" width="8.85546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -18375,7 +18378,7 @@
         <v>65.686101520780824</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="16">
+    <row r="26" spans="1:25">
       <c r="A26" s="88" t="s">
         <v>579</v>
       </c>
@@ -23636,14 +23639,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/generateEXCEL/Data/Members/GroupRecord.xlsx
+++ b/generateEXCEL/Data/Members/GroupRecord.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Huifeng\Dropbox\Research\Coding\WeChatGroup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hguan/Dropbox/Research/Coding/WeChatGroup/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A08B721-9820-BF4C-AF4F-8CEF0731EDDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="17295" windowHeight="13515" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17300" windowHeight="13520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -3924,16 +3925,16 @@
     <t>wangkaiyu16bupt@gmail.com</t>
   </si>
   <si>
-    <t>Alllllllll</t>
-  </si>
-  <si>
     <t>Al</t>
+  </si>
+  <si>
+    <t>Allllll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yyyy"/>
@@ -4378,8 +4379,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4758,24 +4759,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -7899,10 +7900,10 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B161" t="s">
         <v>1086</v>
-      </c>
-      <c r="B161" t="s">
-        <v>1085</v>
       </c>
       <c r="C161" s="1">
         <v>43896</v>
@@ -7911,116 +7912,116 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" ht="14.85" customHeight="1"/>
+    <row r="310" ht="14.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J1" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3"/>
-    <hyperlink ref="J5" r:id="rId4"/>
-    <hyperlink ref="J6" r:id="rId5"/>
-    <hyperlink ref="J7" r:id="rId6"/>
-    <hyperlink ref="J8" r:id="rId7"/>
-    <hyperlink ref="J10" r:id="rId8"/>
-    <hyperlink ref="J12" r:id="rId9"/>
-    <hyperlink ref="J13" r:id="rId10"/>
-    <hyperlink ref="J14" r:id="rId11"/>
-    <hyperlink ref="J15" r:id="rId12"/>
-    <hyperlink ref="J16" r:id="rId13"/>
-    <hyperlink ref="J17" r:id="rId14"/>
-    <hyperlink ref="J22" r:id="rId15"/>
-    <hyperlink ref="J25" r:id="rId16"/>
-    <hyperlink ref="J26" r:id="rId17"/>
-    <hyperlink ref="J27" r:id="rId18"/>
-    <hyperlink ref="J28" r:id="rId19"/>
-    <hyperlink ref="J31" r:id="rId20"/>
-    <hyperlink ref="J33" r:id="rId21"/>
-    <hyperlink ref="J34" r:id="rId22"/>
-    <hyperlink ref="J35" r:id="rId23"/>
-    <hyperlink ref="J36" r:id="rId24"/>
-    <hyperlink ref="J37" r:id="rId25"/>
-    <hyperlink ref="J41" r:id="rId26"/>
-    <hyperlink ref="J43" r:id="rId27"/>
-    <hyperlink ref="J44" r:id="rId28"/>
-    <hyperlink ref="J46" r:id="rId29"/>
-    <hyperlink ref="J47" r:id="rId30"/>
-    <hyperlink ref="J49" r:id="rId31"/>
-    <hyperlink ref="J50" r:id="rId32"/>
-    <hyperlink ref="J51" r:id="rId33"/>
-    <hyperlink ref="J53" r:id="rId34"/>
-    <hyperlink ref="J54" r:id="rId35"/>
-    <hyperlink ref="J55" r:id="rId36"/>
-    <hyperlink ref="J56" r:id="rId37"/>
-    <hyperlink ref="J57" r:id="rId38"/>
-    <hyperlink ref="J58" r:id="rId39"/>
-    <hyperlink ref="J59" r:id="rId40"/>
-    <hyperlink ref="J60" r:id="rId41"/>
-    <hyperlink ref="K60" r:id="rId42"/>
-    <hyperlink ref="J61" r:id="rId43"/>
-    <hyperlink ref="J63" r:id="rId44"/>
-    <hyperlink ref="J64" r:id="rId45"/>
-    <hyperlink ref="J65" r:id="rId46"/>
-    <hyperlink ref="J66" r:id="rId47"/>
-    <hyperlink ref="J68" r:id="rId48"/>
-    <hyperlink ref="J69" r:id="rId49"/>
-    <hyperlink ref="J70" r:id="rId50"/>
-    <hyperlink ref="J71" r:id="rId51"/>
-    <hyperlink ref="J72" r:id="rId52"/>
-    <hyperlink ref="J73" r:id="rId53"/>
-    <hyperlink ref="J74" r:id="rId54"/>
-    <hyperlink ref="J76" r:id="rId55"/>
-    <hyperlink ref="J77" r:id="rId56"/>
-    <hyperlink ref="J78" r:id="rId57"/>
-    <hyperlink ref="J79" r:id="rId58"/>
-    <hyperlink ref="J80" r:id="rId59"/>
-    <hyperlink ref="J81" r:id="rId60"/>
-    <hyperlink ref="J83" r:id="rId61"/>
-    <hyperlink ref="J84" r:id="rId62"/>
-    <hyperlink ref="J85" r:id="rId63"/>
-    <hyperlink ref="J86" r:id="rId64"/>
-    <hyperlink ref="J88" r:id="rId65"/>
-    <hyperlink ref="J89" r:id="rId66"/>
-    <hyperlink ref="J92" r:id="rId67"/>
-    <hyperlink ref="J95" r:id="rId68"/>
-    <hyperlink ref="J97" r:id="rId69"/>
-    <hyperlink ref="J99" r:id="rId70"/>
-    <hyperlink ref="J101" r:id="rId71"/>
-    <hyperlink ref="J103" r:id="rId72"/>
-    <hyperlink ref="J104" r:id="rId73"/>
-    <hyperlink ref="J105" r:id="rId74"/>
-    <hyperlink ref="J106" r:id="rId75"/>
-    <hyperlink ref="J107" r:id="rId76"/>
-    <hyperlink ref="J109" r:id="rId77"/>
-    <hyperlink ref="J113" r:id="rId78"/>
-    <hyperlink ref="J114" r:id="rId79"/>
-    <hyperlink ref="J116" r:id="rId80"/>
-    <hyperlink ref="J117" r:id="rId81"/>
-    <hyperlink ref="J118" r:id="rId82"/>
-    <hyperlink ref="J121" r:id="rId83"/>
-    <hyperlink ref="J124" r:id="rId84"/>
-    <hyperlink ref="J125" r:id="rId85"/>
-    <hyperlink ref="J127" r:id="rId86"/>
-    <hyperlink ref="J131" r:id="rId87"/>
-    <hyperlink ref="J132" r:id="rId88"/>
-    <hyperlink ref="J133" r:id="rId89"/>
-    <hyperlink ref="J135" r:id="rId90"/>
-    <hyperlink ref="J136" r:id="rId91"/>
-    <hyperlink ref="J137" r:id="rId92"/>
-    <hyperlink ref="J138" r:id="rId93"/>
-    <hyperlink ref="J139" r:id="rId94"/>
-    <hyperlink ref="J140" r:id="rId95"/>
-    <hyperlink ref="J143" r:id="rId96"/>
-    <hyperlink ref="J145" r:id="rId97"/>
-    <hyperlink ref="J146" r:id="rId98"/>
-    <hyperlink ref="J147" r:id="rId99"/>
-    <hyperlink ref="J148" r:id="rId100"/>
-    <hyperlink ref="J150" r:id="rId101"/>
-    <hyperlink ref="J152" r:id="rId102"/>
-    <hyperlink ref="J154" r:id="rId103"/>
-    <hyperlink ref="J155" r:id="rId104"/>
-    <hyperlink ref="J159" r:id="rId105"/>
-    <hyperlink ref="J160" r:id="rId106"/>
-    <hyperlink ref="J129" r:id="rId107"/>
+    <hyperlink ref="J1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J22" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J25" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J26" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J27" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J28" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J31" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J35" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J36" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J37" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J41" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J43" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J44" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J46" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J47" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J49" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J50" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="J51" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J53" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="J54" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J55" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J56" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J57" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J58" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J59" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J60" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="K60" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J61" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J63" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J64" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J65" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="J66" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J68" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="J69" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="J70" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J71" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J72" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J73" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J74" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J76" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="J77" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="J78" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="J79" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="J80" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="J81" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="J83" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="J84" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="J85" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="J86" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="J88" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="J89" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="J92" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="J95" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="J97" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="J99" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="J101" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="J103" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="J104" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="J105" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="J106" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="J107" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="J109" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="J113" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="J114" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="J116" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="J117" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="J118" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="J121" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="J124" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="J125" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="J127" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="J131" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="J132" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="J133" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="J135" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="J136" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="J137" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J138" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="J139" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="J140" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="J143" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="J145" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="J146" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J147" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="J148" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="J150" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="J152" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="J154" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="J155" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="J159" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="J160" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="J129" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -8028,21 +8029,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J347"/>
   <sheetViews>
     <sheetView topLeftCell="A315" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E349" sqref="E349"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="30" customWidth="1"/>
-    <col min="3" max="4" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="30" customWidth="1"/>
+    <col min="3" max="4" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -16831,26 +16832,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J55" r:id="rId1"/>
-    <hyperlink ref="J64" r:id="rId2"/>
-    <hyperlink ref="J68" r:id="rId3"/>
-    <hyperlink ref="J70" r:id="rId4"/>
-    <hyperlink ref="J78" r:id="rId5"/>
-    <hyperlink ref="J80" r:id="rId6"/>
-    <hyperlink ref="J99" r:id="rId7"/>
-    <hyperlink ref="J111" r:id="rId8"/>
-    <hyperlink ref="J119" r:id="rId9"/>
-    <hyperlink ref="J140" r:id="rId10"/>
-    <hyperlink ref="J158" r:id="rId11"/>
-    <hyperlink ref="J203" r:id="rId12"/>
-    <hyperlink ref="J220" r:id="rId13"/>
-    <hyperlink ref="J275" r:id="rId14"/>
-    <hyperlink ref="J318" r:id="rId15"/>
-    <hyperlink ref="J319" r:id="rId16"/>
-    <hyperlink ref="J330" r:id="rId17"/>
-    <hyperlink ref="J336" r:id="rId18"/>
-    <hyperlink ref="J343" r:id="rId19"/>
-    <hyperlink ref="J344" r:id="rId20"/>
+    <hyperlink ref="J55" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="J64" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="J68" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="J70" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="J78" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="J80" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="J99" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="J111" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="J119" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="J140" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="J158" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="J203" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="J220" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="J275" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="J318" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="J319" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="J330" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="J336" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="J343" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="J344" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
@@ -16862,12 +16863,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -16875,35 +16876,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z119"/>
   <sheetViews>
     <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="4"/>
-    <col min="10" max="10" width="9.85546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="4"/>
-    <col min="12" max="15" width="8.7109375" style="3"/>
-    <col min="16" max="16" width="8.7109375" style="4"/>
-    <col min="17" max="17" width="9.140625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" style="4"/>
-    <col min="19" max="19" width="9.140625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" style="4"/>
-    <col min="21" max="21" width="9.140625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="8.7109375" style="3"/>
-    <col min="23" max="23" width="8.85546875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="8.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="3" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="4"/>
+    <col min="10" max="10" width="9.83203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="4"/>
+    <col min="12" max="15" width="8.6640625" style="3"/>
+    <col min="16" max="16" width="8.6640625" style="4"/>
+    <col min="17" max="17" width="9.1640625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="9.1640625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="9.1640625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="3"/>
+    <col min="23" max="23" width="8.83203125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="8.83203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -18701,7 +18702,7 @@
         <v>65.686101520780824</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" ht="16">
       <c r="A26" s="88" t="s">
         <v>598</v>
       </c>
@@ -23962,14 +23963,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/generateEXCEL/Data/Members/GroupRecord.xlsx
+++ b/generateEXCEL/Data/Members/GroupRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hguan/Dropbox/Research/Coding/WeChatGroup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3573D4-0CF3-0C4B-BE57-770B83FD8928}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E92926-F87F-8E4E-98A2-CCB3580E6894}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19000" windowHeight="14340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3976,9 +3976,6 @@
     <t>淇雯</t>
   </si>
   <si>
-    <t>yuchenyang1997</t>
-  </si>
-  <si>
     <t>雷师达</t>
   </si>
   <si>
@@ -4049,6 +4046,9 @@
   </si>
   <si>
     <t>ChunjieShawn</t>
+  </si>
+  <si>
+    <t>YuchenYang1997</t>
   </si>
 </sst>
 </file>
@@ -4905,8 +4905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="H68" s="7"/>
       <c r="J68" s="101" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="5" customFormat="1">
@@ -7201,7 +7201,7 @@
         <v>354</v>
       </c>
       <c r="J113" s="95" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -7785,7 +7785,7 @@
         <v>253</v>
       </c>
       <c r="J146" s="95" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -7856,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="95" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -7887,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="J152" s="95" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -7904,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="J153" s="95" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -7937,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="J155" s="95" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="156" spans="1:11" s="96" customFormat="1">
@@ -7975,7 +7975,7 @@
         <v>0</v>
       </c>
       <c r="J157" s="95" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="K157" t="s">
         <v>1098</v>
@@ -7986,7 +7986,7 @@
         <v>1101</v>
       </c>
       <c r="B158" t="s">
-        <v>1102</v>
+        <v>1126</v>
       </c>
       <c r="C158" s="97">
         <v>43906</v>
@@ -7997,10 +7997,10 @@
     </row>
     <row r="159" spans="1:11">
       <c r="A159" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B159" t="s">
         <v>1103</v>
-      </c>
-      <c r="B159" t="s">
-        <v>1104</v>
       </c>
       <c r="C159" s="97">
         <v>43906</v>
@@ -8011,27 +8011,27 @@
     </row>
     <row r="160" spans="1:11">
       <c r="A160" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B160" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C160" s="97">
         <v>43906</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="J160" s="95" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B161" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C161" s="97">
         <v>43906</v>
@@ -8040,15 +8040,15 @@
         <v>366</v>
       </c>
       <c r="J161" s="95" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B162" t="s">
         <v>1109</v>
-      </c>
-      <c r="B162" t="s">
-        <v>1110</v>
       </c>
       <c r="C162" s="97">
         <v>43906</v>
@@ -8059,10 +8059,10 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B163" t="s">
         <v>1117</v>
-      </c>
-      <c r="B163" t="s">
-        <v>1118</v>
       </c>
       <c r="C163" s="1">
         <v>43910</v>
@@ -8087,10 +8087,10 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B165" t="s">
         <v>1123</v>
-      </c>
-      <c r="B165" t="s">
-        <v>1124</v>
       </c>
       <c r="C165" s="1">
         <v>43911</v>
@@ -8101,10 +8101,10 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B166" t="s">
         <v>1125</v>
-      </c>
-      <c r="B166" t="s">
-        <v>1126</v>
       </c>
       <c r="C166" s="1">
         <v>43911</v>

--- a/generateEXCEL/Data/Members/GroupRecord.xlsx
+++ b/generateEXCEL/Data/Members/GroupRecord.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hguan/Dropbox/Research/Coding/WeChatGroup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Huifeng\Dropbox\Research\Coding\WeChatGroup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E92926-F87F-8E4E-98A2-CCB3580E6894}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19000" windowHeight="14340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12765" yWindow="6015" windowWidth="19005" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="1152">
   <si>
     <t>wisdompeak</t>
   </si>
@@ -4036,9 +4035,6 @@
     <t>hannaw0124@gmail.com</t>
   </si>
   <si>
-    <t>眷顾人</t>
-  </si>
-  <si>
     <t>michelle_sima</t>
   </si>
   <si>
@@ -4049,12 +4045,90 @@
   </si>
   <si>
     <t>YuchenYang1997</t>
+  </si>
+  <si>
+    <t>顾眷人</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>wang2019</t>
+  </si>
+  <si>
+    <t>杨森</t>
+  </si>
+  <si>
+    <t>youngforest</t>
+  </si>
+  <si>
+    <t>kylelovealgo</t>
+  </si>
+  <si>
+    <t>张凯一</t>
+  </si>
+  <si>
+    <t>lishichengyan</t>
+  </si>
+  <si>
+    <t>砾石成岩</t>
+  </si>
+  <si>
+    <t>ruanys</t>
+  </si>
+  <si>
+    <t>孙佳莉</t>
+  </si>
+  <si>
+    <t>klutzCoder</t>
+  </si>
+  <si>
+    <t>木头人</t>
+  </si>
+  <si>
+    <t>scarlett_jl</t>
+  </si>
+  <si>
+    <t>曹幸东</t>
+  </si>
+  <si>
+    <t>Xingdong_Cao</t>
+  </si>
+  <si>
+    <t>Malik Jia</t>
+  </si>
+  <si>
+    <t>Malik-Jia</t>
+  </si>
+  <si>
+    <t>fanhongjin19940206@gmail.com</t>
+  </si>
+  <si>
+    <t>zhiyuanalwang@gmail.com</t>
+  </si>
+  <si>
+    <t>jialiangdong1125@gmail.com</t>
+  </si>
+  <si>
+    <t>yuxiaoyuan93@gmail.com</t>
+  </si>
+  <si>
+    <t>klutzoder@gmail.com</t>
+  </si>
+  <si>
+    <t>besieger</t>
+  </si>
+  <si>
+    <t>郁东风</t>
+  </si>
+  <si>
+    <t>秦baibai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yyyy"/>
@@ -4522,8 +4596,8 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4902,25 +4976,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K298"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K293"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="36.5" customWidth="1"/>
-    <col min="11" max="11" width="35.1640625" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" customWidth="1"/>
+    <col min="11" max="11" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4985,58 +5059,57 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
+      <c r="A4" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
-        <v>43346</v>
+        <v>43351</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="5"/>
       <c r="J4" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="10" t="s">
-        <v>12</v>
+      <c r="A5" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
-        <v>43351</v>
+        <v>43362</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>1</v>
+      <c r="F5" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="5"/>
       <c r="J5" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>15</v>
+      <c r="A6" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>43362</v>
+        <v>43363</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="4"/>
@@ -5045,120 +5118,120 @@
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="8" t="s">
-        <v>17</v>
+      <c r="J6" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
-        <v>43363</v>
+        <v>43375</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="3" t="s">
-        <v>0</v>
+      <c r="F7" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="9" t="s">
-        <v>25</v>
+      <c r="A8" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1">
-        <v>43375</v>
+        <v>43386</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="12" t="s">
-        <v>27</v>
+      <c r="F8" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="J8" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
-        <v>43386</v>
+        <v>43395</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="4"/>
       <c r="F9" s="3" t="s">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="5" t="s">
-        <v>30</v>
+      <c r="A10" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1">
-        <v>43395</v>
+        <v>43428</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="4"/>
       <c r="F10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="J10" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>33</v>
+      <c r="A11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="C11" s="1">
-        <v>43428</v>
+        <v>43453</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="4"/>
       <c r="F11" s="3" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="11" t="s">
-        <v>35</v>
+      <c r="J11" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1">
         <v>43453</v>
@@ -5168,69 +5241,69 @@
       <c r="F12" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="G12" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="5"/>
       <c r="J12" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>40</v>
+      <c r="A13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C13" s="1">
-        <v>43453</v>
+        <v>43470</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="4"/>
       <c r="F13" s="3" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="9" t="s">
-        <v>42</v>
+      <c r="J13" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="5" customFormat="1">
+      <c r="A14" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1">
-        <v>43470</v>
+        <v>43523</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="4"/>
       <c r="F14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5" t="s">
-        <v>46</v>
+      <c r="J14" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="5" customFormat="1">
-      <c r="A15" s="5" t="s">
-        <v>47</v>
+      <c r="A15" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1">
-        <v>43513</v>
+        <v>43527</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="4"/>
@@ -5239,139 +5312,133 @@
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="7"/>
-      <c r="J15" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="5" customFormat="1">
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1">
-        <v>43523</v>
+        <v>43527</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="4"/>
       <c r="F16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="H16" s="7"/>
-      <c r="J16" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:11" s="5" customFormat="1">
       <c r="A17" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1">
-        <v>43527</v>
+        <v>43534</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="4"/>
       <c r="F17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" s="5" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1">
-        <v>43527</v>
+        <v>43544</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="4"/>
       <c r="F18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G18" s="4"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:11" s="5" customFormat="1">
-      <c r="A19" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>59</v>
+      <c r="A19" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="C19" s="1">
-        <v>43534</v>
+        <v>43546</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="4"/>
       <c r="F19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G19" s="4"/>
       <c r="H19" s="7"/>
+      <c r="J19" s="8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="20" spans="1:11" s="5" customFormat="1">
-      <c r="A20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>62</v>
+      <c r="A20" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="C20" s="1">
-        <v>43544</v>
+        <v>43548</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="4"/>
       <c r="F20" s="3" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:11" s="5" customFormat="1">
       <c r="A21" s="14" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C21" s="1">
-        <v>43546</v>
+        <v>43565</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="4"/>
       <c r="F21" s="3" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="7"/>
-      <c r="J21" s="8" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="22" spans="1:11" s="5" customFormat="1">
-      <c r="A22" s="15" t="s">
-        <v>68</v>
+      <c r="A22" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C22" s="1">
-        <v>43548</v>
+        <v>43569</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="4"/>
@@ -5380,250 +5447,260 @@
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="7"/>
+      <c r="J22" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="23" spans="1:11" s="5" customFormat="1">
-      <c r="A23" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>71</v>
+      <c r="A23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="C23" s="1">
-        <v>43565</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4"/>
+        <v>43576</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7"/>
       <c r="H23" s="7"/>
+      <c r="J23" s="8" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="24" spans="1:11" s="5" customFormat="1">
-      <c r="A24" s="14" t="s">
-        <v>72</v>
+      <c r="A24" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1">
-        <v>43569</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4"/>
+        <v>43577</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="J24" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="5" customFormat="1">
-      <c r="A25" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>76</v>
+      <c r="A25" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="C25" s="1">
-        <v>43576</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="7"/>
+        <v>43578</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G25" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="J25" s="8" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="5" customFormat="1">
-      <c r="A26" s="5" t="s">
-        <v>78</v>
+      <c r="A26" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C26" s="1">
-        <v>43577</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="7"/>
+        <v>43581</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>80</v>
+      <c r="G26" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="J26" s="8" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="27" spans="1:11" s="5" customFormat="1">
       <c r="A27" s="14" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C27" s="1">
-        <v>43578</v>
+        <v>43582</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="4"/>
       <c r="F27" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="G27" s="4"/>
       <c r="H27" s="7"/>
-      <c r="J27" s="8" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="28" spans="1:11" s="5" customFormat="1">
       <c r="A28" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="C28" s="1">
-        <v>43581</v>
+        <v>43586</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="4"/>
       <c r="F28" s="16" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H28" s="7"/>
+      <c r="J28" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="29" spans="1:11" s="5" customFormat="1">
-      <c r="A29" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>89</v>
+      <c r="A29" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="C29" s="1">
-        <v>43582</v>
+        <v>43596</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4"/>
+      <c r="F29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:11" s="5" customFormat="1">
-      <c r="A30" s="14" t="s">
-        <v>90</v>
+      <c r="A30" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C30" s="1">
-        <v>43586</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="4"/>
+        <v>43606</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="J30" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="5" customFormat="1">
-      <c r="A31" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>96</v>
+      <c r="A31" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="C31" s="1">
-        <v>43596</v>
+        <v>43606</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="3" t="s">
-        <v>97</v>
+      <c r="F31" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H31" s="7"/>
+      <c r="J31" s="8" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="32" spans="1:11" s="5" customFormat="1">
-      <c r="A32" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>100</v>
+      <c r="A32" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="C32" s="1">
-        <v>43606</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="7"/>
+        <v>43613</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G32" s="7"/>
+      <c r="G32" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="H32" s="7"/>
-      <c r="J32" s="8" t="s">
-        <v>101</v>
+      <c r="J32" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="5" customFormat="1">
       <c r="A33" s="15" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C33" s="1">
-        <v>43606</v>
+        <v>43614</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="17" t="s">
-        <v>58</v>
+      <c r="F33" s="16" t="s">
+        <v>0</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H33" s="7"/>
       <c r="J33" s="8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="5" customFormat="1">
       <c r="A34" s="15" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C34" s="1">
-        <v>43613</v>
+        <v>43618</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="4"/>
@@ -5631,396 +5708,394 @@
         <v>0</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="H34" s="7"/>
-      <c r="J34" s="5" t="s">
-        <v>108</v>
+      <c r="J34" s="8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="5" customFormat="1">
-      <c r="A35" s="15" t="s">
-        <v>109</v>
+      <c r="A35" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C35" s="1">
-        <v>43614</v>
+        <v>43620</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="4"/>
       <c r="F35" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H35" s="7"/>
-      <c r="J35" s="8" t="s">
-        <v>112</v>
+      <c r="H35" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="5" customFormat="1">
       <c r="A36" s="15" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C36" s="1">
-        <v>43618</v>
+        <v>43620</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="16" t="s">
-        <v>0</v>
+      <c r="F36" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="H36" s="7"/>
-      <c r="J36" s="8" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="37" spans="1:10" s="5" customFormat="1">
-      <c r="A37" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>117</v>
+      <c r="A37" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="C37" s="1">
-        <v>43620</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="4"/>
+        <v>43626</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="7"/>
       <c r="F37" s="16" t="s">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="5" customFormat="1">
-      <c r="A38" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>120</v>
+      <c r="A38" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="C38" s="1">
-        <v>43620</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>104</v>
-      </c>
+        <v>43626</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="7"/>
       <c r="H38" s="7"/>
+      <c r="J38" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="39" spans="1:10" s="5" customFormat="1">
       <c r="A39" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="C39" s="1">
-        <v>43626</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="7"/>
+        <v>43628</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>123</v>
-      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:10" s="5" customFormat="1">
       <c r="A40" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>125</v>
+        <v>129</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="C40" s="1">
-        <v>43626</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G40" s="7"/>
+        <v>43629</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40" s="4"/>
       <c r="H40" s="7"/>
       <c r="J40" s="8" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="5" customFormat="1">
-      <c r="A41" s="10" t="s">
-        <v>127</v>
+      <c r="A41" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C41" s="1">
-        <v>43628</v>
+        <v>43634</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="4"/>
       <c r="F41" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G41" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H41" s="7"/>
+      <c r="J41" s="8" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1">
-      <c r="A42" s="20" t="s">
-        <v>129</v>
+      <c r="A42" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C42" s="1">
-        <v>43629</v>
+        <v>43638</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="21" t="s">
-        <v>130</v>
+      <c r="F42" s="16" t="s">
+        <v>0</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="7"/>
-      <c r="J42" s="8" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="43" spans="1:10" s="5" customFormat="1">
-      <c r="A43" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>133</v>
+      <c r="A43" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="C43" s="1">
-        <v>43634</v>
+        <v>43646</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="4"/>
       <c r="F43" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>134</v>
-      </c>
+      <c r="G43" s="4"/>
       <c r="H43" s="7"/>
       <c r="J43" s="8" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="5" customFormat="1">
-      <c r="A44" s="10" t="s">
-        <v>136</v>
+      <c r="A44" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C44" s="1">
-        <v>43638</v>
+        <v>43646</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="4"/>
       <c r="F44" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G44" s="4"/>
       <c r="H44" s="7"/>
+      <c r="J44" s="8" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="45" spans="1:10" s="5" customFormat="1">
-      <c r="A45" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>139</v>
+      <c r="A45" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="C45" s="1">
-        <v>43646</v>
+        <v>43658</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="4"/>
       <c r="F45" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="H45" s="7"/>
-      <c r="J45" s="8" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="46" spans="1:10" s="5" customFormat="1">
-      <c r="A46" s="20" t="s">
-        <v>141</v>
+      <c r="A46" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C46" s="1">
-        <v>43646</v>
+        <v>43661</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="4"/>
       <c r="F46" s="16" t="s">
-        <v>0</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G46" s="4"/>
       <c r="H46" s="7"/>
       <c r="J46" s="8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="5" customFormat="1">
       <c r="A47" s="20" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C47" s="1">
-        <v>43658</v>
+        <v>43662</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="4"/>
       <c r="F47" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>111</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G47" s="4"/>
       <c r="H47" s="7"/>
+      <c r="J47" s="8" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="48" spans="1:10" s="5" customFormat="1">
-      <c r="A48" s="10" t="s">
-        <v>146</v>
+      <c r="A48" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C48" s="1">
-        <v>43661</v>
+        <v>43669</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="4"/>
       <c r="F48" s="16" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="7"/>
       <c r="J48" s="8" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="5" customFormat="1">
       <c r="A49" s="20" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C49" s="1">
-        <v>43662</v>
+        <v>43675</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="16" t="s">
-        <v>92</v>
+      <c r="F49" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="8" t="s">
-        <v>151</v>
+      <c r="J49" s="95" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="5" customFormat="1">
-      <c r="A50" s="20" t="s">
-        <v>152</v>
+      <c r="A50" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C50" s="1">
-        <v>43669</v>
+        <v>43678</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="4"/>
       <c r="F50" s="16" t="s">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="7"/>
       <c r="J50" s="8" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="5" customFormat="1">
       <c r="A51" s="20" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C51" s="1">
-        <v>43675</v>
+        <v>43678</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="17" t="s">
-        <v>58</v>
+      <c r="F51" s="16" t="s">
+        <v>0</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="7"/>
-      <c r="J51" s="95" t="s">
-        <v>1094</v>
+      <c r="J51" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="5" customFormat="1">
       <c r="A52" s="10" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C52" s="1">
-        <v>43678</v>
+        <v>43681</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="4"/>
       <c r="F52" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G52" s="4"/>
+      <c r="G52" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H52" s="7"/>
-      <c r="J52" s="8" t="s">
-        <v>160</v>
+      <c r="J52" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="5" customFormat="1">
-      <c r="A53" s="20" t="s">
-        <v>161</v>
+      <c r="A53" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C53" s="1">
-        <v>43678</v>
+        <v>43690</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="4"/>
@@ -6029,642 +6104,639 @@
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="7"/>
-      <c r="J53" s="8" t="s">
-        <v>163</v>
+      <c r="J53" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="5" customFormat="1">
-      <c r="A54" s="10" t="s">
-        <v>164</v>
+      <c r="A54" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C54" s="1">
-        <v>43681</v>
+        <v>43702</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="4"/>
       <c r="F54" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>166</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G54" s="4"/>
       <c r="H54" s="7"/>
-      <c r="J54" s="5" t="s">
-        <v>167</v>
+      <c r="J54" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="5" customFormat="1">
       <c r="A55" s="5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C55" s="1">
-        <v>43690</v>
+        <v>43702</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="4"/>
       <c r="F55" s="16" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="7"/>
       <c r="J55" s="5" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="5" customFormat="1">
       <c r="A56" s="5" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C56" s="1">
-        <v>43702</v>
+        <v>43703</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="4"/>
       <c r="F56" s="16" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="7"/>
       <c r="J56" s="8" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="5" customFormat="1">
-      <c r="A57" s="5" t="s">
-        <v>175</v>
+      <c r="A57" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C57" s="1">
-        <v>43702</v>
+        <v>43704</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="4"/>
       <c r="F57" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="7"/>
-      <c r="J57" s="5" t="s">
-        <v>176</v>
+      <c r="G57" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="5" customFormat="1">
-      <c r="A58" s="5" t="s">
-        <v>177</v>
+      <c r="A58" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C58" s="1">
-        <v>43703</v>
+        <v>43707</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="16" t="s">
-        <v>92</v>
+      <c r="F58" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="7"/>
       <c r="J58" s="8" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="5" customFormat="1">
-      <c r="A59" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>181</v>
+      <c r="A59" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>187</v>
       </c>
       <c r="C59" s="1">
-        <v>43704</v>
+        <v>43711</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="4"/>
       <c r="F59" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="J59" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>183</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G59" s="4"/>
+      <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:11" s="5" customFormat="1">
-      <c r="A60" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>185</v>
+      <c r="A60" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>193</v>
       </c>
       <c r="C60" s="1">
-        <v>43707</v>
+        <v>43715</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" s="4"/>
+      <c r="F60" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="H60" s="7"/>
       <c r="J60" s="8" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="5" customFormat="1">
-      <c r="A61" s="19" t="s">
-        <v>187</v>
+      <c r="A61" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C61" s="1">
-        <v>43711</v>
+        <v>43716</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="4"/>
       <c r="F61" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G61" s="4"/>
+        <v>192</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="H61" s="7"/>
+      <c r="J61" s="8" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="62" spans="1:11" s="5" customFormat="1">
-      <c r="A62" s="19" t="s">
-        <v>192</v>
+      <c r="A62" s="20" t="s">
+        <v>200</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C62" s="1">
-        <v>43715</v>
+        <v>43718</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="4"/>
       <c r="F62" s="16" t="s">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="H62" s="7"/>
       <c r="J62" s="8" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="5" customFormat="1">
-      <c r="A63" s="10" t="s">
-        <v>196</v>
+      <c r="A63" s="20" t="s">
+        <v>204</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C63" s="1">
-        <v>43716</v>
+        <v>43722</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="4"/>
       <c r="F63" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>198</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G63" s="4"/>
       <c r="H63" s="7"/>
-      <c r="J63" s="8" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="64" spans="1:11" s="5" customFormat="1">
       <c r="A64" s="20" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C64" s="1">
-        <v>43718</v>
+        <v>43726</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="4"/>
       <c r="F64" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>202</v>
-      </c>
+      <c r="G64" s="4"/>
       <c r="H64" s="7"/>
       <c r="J64" s="8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="5" customFormat="1">
-      <c r="A65" s="20" t="s">
-        <v>204</v>
+      <c r="A65" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C65" s="1">
-        <v>43722</v>
+        <v>43737</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="4"/>
       <c r="F65" s="16" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="7"/>
+      <c r="J65" s="5" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="66" spans="1:10" s="5" customFormat="1">
-      <c r="A66" s="20" t="s">
-        <v>205</v>
+      <c r="A66" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C66" s="1">
-        <v>43726</v>
+        <v>43738</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="4"/>
       <c r="F66" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G66" s="4"/>
+      <c r="G66" s="4" t="s">
+        <v>213</v>
+      </c>
       <c r="H66" s="7"/>
-      <c r="J66" s="8" t="s">
-        <v>207</v>
+      <c r="J66" s="101" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="5" customFormat="1">
       <c r="A67" s="10" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C67" s="1">
-        <v>43737</v>
+        <v>43741</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="4"/>
       <c r="F67" s="16" t="s">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="7"/>
-      <c r="J67" s="5" t="s">
-        <v>210</v>
+      <c r="J67" s="8" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="5" customFormat="1">
       <c r="A68" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C68" s="1">
-        <v>43738</v>
+        <v>43743</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="4"/>
       <c r="F68" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>213</v>
-      </c>
+      <c r="G68" s="4"/>
       <c r="H68" s="7"/>
-      <c r="J68" s="101" t="s">
-        <v>1114</v>
+      <c r="J68" s="8" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="5" customFormat="1">
-      <c r="A69" s="10" t="s">
-        <v>214</v>
+      <c r="A69" s="20" t="s">
+        <v>220</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C69" s="1">
-        <v>43741</v>
+        <v>43749</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G69" s="4"/>
+      <c r="F69" s="17" t="s">
+        <v>208</v>
+      </c>
       <c r="H69" s="7"/>
       <c r="J69" s="8" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="5" customFormat="1">
       <c r="A70" s="10" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C70" s="1">
-        <v>43743</v>
+        <v>43752</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="4"/>
       <c r="F70" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G70" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="H70" s="7"/>
       <c r="J70" s="8" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="5" customFormat="1">
       <c r="A71" s="20" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C71" s="1">
-        <v>43749</v>
+        <v>43757</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="17" t="s">
-        <v>208</v>
+      <c r="F71" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="H71" s="7"/>
-      <c r="J71" s="8" t="s">
-        <v>222</v>
-      </c>
     </row>
     <row r="72" spans="1:10" s="5" customFormat="1">
-      <c r="A72" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>224</v>
+      <c r="A72" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="C72" s="1">
-        <v>43752</v>
+        <v>43763</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="4"/>
       <c r="F72" s="16" t="s">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="7"/>
       <c r="J72" s="8" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="5" customFormat="1">
-      <c r="A73" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>227</v>
+      <c r="A73" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="C73" s="1">
-        <v>43757</v>
+        <v>43767</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="4"/>
       <c r="F73" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="G73" s="4"/>
       <c r="H73" s="7"/>
+      <c r="J73" s="5" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="74" spans="1:10" s="5" customFormat="1">
-      <c r="A74" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>229</v>
+      <c r="A74" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>235</v>
       </c>
       <c r="C74" s="1">
-        <v>43763</v>
+        <v>43770</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="4"/>
       <c r="F74" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G74" s="4"/>
+      <c r="G74" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="H74" s="7"/>
       <c r="J74" s="8" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:10" s="5" customFormat="1">
       <c r="A75" s="10" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C75" s="1">
-        <v>43767</v>
+        <v>43778</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="4"/>
       <c r="F75" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G75" s="4"/>
+      <c r="G75" s="4" t="s">
+        <v>239</v>
+      </c>
       <c r="H75" s="7"/>
-      <c r="J75" s="5" t="s">
-        <v>233</v>
+      <c r="J75" s="8" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="5" customFormat="1">
-      <c r="A76" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>235</v>
+      <c r="A76" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="C76" s="1">
-        <v>43770</v>
+        <v>43780</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="4"/>
       <c r="F76" s="16" t="s">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>104</v>
       </c>
       <c r="H76" s="7"/>
       <c r="J76" s="8" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="5" customFormat="1">
       <c r="A77" s="10" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C77" s="1">
-        <v>43778</v>
+        <v>43784</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="4"/>
       <c r="F77" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>239</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G77" s="4"/>
       <c r="H77" s="7"/>
-      <c r="J77" s="8" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="78" spans="1:10" s="5" customFormat="1">
       <c r="A78" s="10" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C78" s="1">
-        <v>43780</v>
+        <v>43804</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="4"/>
       <c r="F78" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>104</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G78" s="4"/>
       <c r="H78" s="7"/>
       <c r="J78" s="8" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:10" s="5" customFormat="1">
       <c r="A79" s="10" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C79" s="1">
-        <v>43784</v>
+        <v>43817</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="4"/>
-      <c r="F79" s="16" t="s">
-        <v>92</v>
+      <c r="F79" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="7"/>
+      <c r="J79" s="8" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="80" spans="1:10" s="5" customFormat="1">
-      <c r="A80" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>249</v>
+      <c r="A80" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>258</v>
       </c>
       <c r="C80" s="1">
-        <v>43804</v>
+        <v>43817</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="4"/>
       <c r="F80" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G80" s="4"/>
+      <c r="G80" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="H80" s="7"/>
       <c r="J80" s="8" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:10" s="5" customFormat="1">
-      <c r="A81" s="10" t="s">
-        <v>255</v>
+      <c r="A81" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C81" s="1">
-        <v>43817</v>
+        <v>43824</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="4"/>
-      <c r="F81" s="17" t="s">
-        <v>72</v>
+      <c r="F81" s="16" t="s">
+        <v>0</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="7"/>
-      <c r="J81" s="8" t="s">
-        <v>257</v>
-      </c>
     </row>
     <row r="82" spans="1:10" s="5" customFormat="1">
-      <c r="A82" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B82" s="22" t="s">
-        <v>258</v>
+      <c r="A82" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="C82" s="1">
-        <v>43817</v>
+        <v>43825</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="4"/>
       <c r="F82" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G82" s="4" t="s">
-        <v>259</v>
-      </c>
+      <c r="G82" s="4"/>
       <c r="H82" s="7"/>
       <c r="J82" s="8" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="5" customFormat="1">
-      <c r="A83" s="5" t="s">
-        <v>261</v>
+      <c r="A83" s="10" t="s">
+        <v>266</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C83" s="1">
-        <v>43824</v>
+        <v>43825</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="4"/>
@@ -6673,772 +6745,770 @@
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="7"/>
+      <c r="J83" s="8" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="84" spans="1:10" s="5" customFormat="1">
-      <c r="A84" s="10" t="s">
-        <v>263</v>
+      <c r="A84" s="15" t="s">
+        <v>269</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C84" s="1">
-        <v>43825</v>
+        <v>43827</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="4"/>
       <c r="F84" s="16" t="s">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="7"/>
-      <c r="J84" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" s="5" customFormat="1">
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="10" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C85" s="1">
-        <v>43825</v>
+        <v>43827</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="4"/>
-      <c r="F85" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G85" s="4"/>
+      <c r="F85" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="H85" s="7"/>
-      <c r="J85" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" s="5" customFormat="1">
-      <c r="A86" s="15" t="s">
-        <v>269</v>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" t="s">
+        <v>274</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C86" s="1">
-        <v>43827</v>
-      </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="4"/>
+        <v>43829</v>
+      </c>
       <c r="F86" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="G86" s="4"/>
-      <c r="H86" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="J86" s="8" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="10" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C87" s="1">
-        <v>43827</v>
-      </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H87" s="7"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
+        <v>43829</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" t="s">
-        <v>274</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>275</v>
+      <c r="A88" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>281</v>
       </c>
       <c r="C88" s="1">
-        <v>43829</v>
-      </c>
+        <v>43830</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="7"/>
       <c r="F88" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="J88" s="8" t="s">
-        <v>277</v>
+      <c r="G88" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>279</v>
+        <v>287</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>288</v>
       </c>
       <c r="C89" s="1">
-        <v>43829</v>
-      </c>
+        <v>43834</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="7"/>
       <c r="F89" s="16" t="s">
         <v>0</v>
       </c>
+      <c r="G89" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B90" s="22" t="s">
-        <v>281</v>
+      <c r="A90" t="s">
+        <v>291</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="C90" s="1">
-        <v>43830</v>
-      </c>
-      <c r="D90" s="1"/>
-      <c r="E90" s="7"/>
+        <v>43834</v>
+      </c>
       <c r="F90" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G90" s="7" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" t="s">
-        <v>282</v>
+      <c r="A91" s="5" t="s">
+        <v>293</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="C91" s="1">
-        <v>43833</v>
-      </c>
-      <c r="F91" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J91" t="s">
-        <v>284</v>
+        <v>43834</v>
+      </c>
+      <c r="F91" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B92" s="22" t="s">
-        <v>288</v>
+      <c r="A92" t="s">
+        <v>298</v>
+      </c>
+      <c r="B92" t="s">
+        <v>298</v>
       </c>
       <c r="C92" s="1">
-        <v>43834</v>
-      </c>
-      <c r="D92" s="1"/>
-      <c r="E92" s="7"/>
+        <v>43836</v>
+      </c>
       <c r="F92" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G92" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="J92" s="8" t="s">
-        <v>290</v>
-      </c>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" t="s">
-        <v>291</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>292</v>
+      <c r="A93" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>300</v>
       </c>
       <c r="C93" s="1">
-        <v>43834</v>
-      </c>
+        <v>43836</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="7"/>
       <c r="F93" s="16" t="s">
         <v>0</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J93" s="8" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>294</v>
+        <v>304</v>
+      </c>
+      <c r="B94" t="s">
+        <v>305</v>
       </c>
       <c r="C94" s="1">
-        <v>43834</v>
-      </c>
-      <c r="F94" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>296</v>
+        <v>43838</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" t="s">
-        <v>298</v>
+      <c r="A95" s="10" t="s">
+        <v>307</v>
       </c>
       <c r="B95" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C95" s="1">
-        <v>43836</v>
+        <v>43838</v>
       </c>
       <c r="F95" s="16" t="s">
         <v>0</v>
       </c>
+      <c r="J95" s="8" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="5" t="s">
-        <v>299</v>
+      <c r="A96" s="10" t="s">
+        <v>313</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="C96" s="1">
-        <v>43836</v>
+        <v>43839</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="7"/>
       <c r="F96" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G96" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="J96" s="8" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="5" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B97" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="C97" s="1">
-        <v>43838</v>
-      </c>
-      <c r="F97" s="17" t="s">
-        <v>72</v>
+        <v>43840</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>0</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="B98" t="s">
-        <v>308</v>
+      <c r="A98" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>319</v>
       </c>
       <c r="C98" s="1">
-        <v>43838</v>
-      </c>
+        <v>43840</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="7"/>
       <c r="F98" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="J98" s="8" t="s">
-        <v>309</v>
+      <c r="G98" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="B99" s="22" t="s">
-        <v>314</v>
+      <c r="A99" t="s">
+        <v>320</v>
+      </c>
+      <c r="B99" t="s">
+        <v>321</v>
       </c>
       <c r="C99" s="1">
-        <v>43839</v>
-      </c>
-      <c r="D99" s="1"/>
-      <c r="E99" s="7"/>
+        <v>43841</v>
+      </c>
       <c r="F99" s="16" t="s">
         <v>0</v>
       </c>
+      <c r="G99" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="J99" s="8" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="5" t="s">
-        <v>316</v>
+      <c r="A100" s="10" t="s">
+        <v>323</v>
       </c>
       <c r="B100" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C100" s="1">
-        <v>43840</v>
+        <v>43841</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J100" s="8" t="s">
-        <v>318</v>
+        <v>247</v>
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B101" s="22" t="s">
-        <v>319</v>
+      <c r="A101" t="s">
+        <v>325</v>
+      </c>
+      <c r="B101" t="s">
+        <v>325</v>
       </c>
       <c r="C101" s="1">
-        <v>43840</v>
-      </c>
-      <c r="D101" s="1"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>104</v>
+        <v>43841</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" t="s">
-        <v>320</v>
+      <c r="A102" s="10" t="s">
+        <v>326</v>
       </c>
       <c r="B102" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C102" s="1">
-        <v>43841</v>
+        <v>43842</v>
       </c>
       <c r="F102" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G102" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J102" s="8" t="s">
-        <v>322</v>
-      </c>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="10" t="s">
-        <v>323</v>
+      <c r="A103" t="s">
+        <v>331</v>
       </c>
       <c r="B103" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C103" s="1">
-        <v>43841</v>
+        <v>43842</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>247</v>
+        <v>0</v>
+      </c>
+      <c r="J103" s="8" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" t="s">
-        <v>325</v>
+      <c r="A104" s="10" t="s">
+        <v>334</v>
       </c>
       <c r="B104" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C104" s="1">
-        <v>43841</v>
-      </c>
-      <c r="F104" s="17" t="s">
-        <v>208</v>
+        <v>43843</v>
+      </c>
+      <c r="F104" s="16" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="10" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="B105" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C105" s="1">
-        <v>43842</v>
-      </c>
-      <c r="F105" s="16" t="s">
-        <v>0</v>
+        <v>43843</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J105" s="8" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" t="s">
-        <v>331</v>
+      <c r="A106" s="10" t="s">
+        <v>339</v>
       </c>
       <c r="B106" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C106" s="1">
-        <v>43842</v>
+        <v>43844</v>
       </c>
       <c r="F106" s="16" t="s">
         <v>0</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="B107" t="s">
-        <v>335</v>
+      <c r="A107" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>346</v>
       </c>
       <c r="C107" s="1">
-        <v>43843</v>
-      </c>
+        <v>43846</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="E107" s="7"/>
       <c r="F107" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="B108" t="s">
-        <v>337</v>
+        <v>347</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>348</v>
       </c>
       <c r="C108" s="1">
-        <v>43843</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>141</v>
+        <v>43847</v>
+      </c>
+      <c r="F108" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="10" t="s">
-        <v>339</v>
+      <c r="A109" t="s">
+        <v>350</v>
       </c>
       <c r="B109" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="C109" s="1">
-        <v>43844</v>
-      </c>
-      <c r="F109" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J109" s="8" t="s">
-        <v>341</v>
+        <v>43848</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="B110" s="19" t="s">
-        <v>346</v>
+      <c r="A110" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B110" t="s">
+        <v>353</v>
       </c>
       <c r="C110" s="1">
-        <v>43846</v>
-      </c>
-      <c r="D110" s="1"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="16" t="s">
-        <v>0</v>
+        <v>43848</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="J110" s="95" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>348</v>
+        <v>355</v>
+      </c>
+      <c r="B111" t="s">
+        <v>356</v>
       </c>
       <c r="C111" s="1">
-        <v>43847</v>
+        <v>43850</v>
       </c>
       <c r="F111" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G111" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="J111" s="8" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" t="s">
-        <v>350</v>
+      <c r="A112" s="10" t="s">
+        <v>1095</v>
       </c>
       <c r="B112" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C112" s="1">
-        <v>43848</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>247</v>
+        <v>43852</v>
+      </c>
+      <c r="F112" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="J112" s="8" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="10" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="B113" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C113" s="1">
-        <v>43848</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="J113" s="95" t="s">
-        <v>1110</v>
+        <v>43855</v>
+      </c>
+      <c r="F113" s="17" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="B114" t="s">
-        <v>356</v>
+      <c r="A114" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>364</v>
       </c>
       <c r="C114" s="1">
-        <v>43850</v>
-      </c>
-      <c r="F114" s="16" t="s">
+        <v>43856</v>
+      </c>
+      <c r="F114" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
-      <c r="A115" s="10" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B115" t="s">
-        <v>358</v>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="5" customFormat="1">
+      <c r="A115" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B115" s="22" t="s">
+        <v>367</v>
       </c>
       <c r="C115" s="1">
-        <v>43852</v>
-      </c>
-      <c r="F115" s="17" t="s">
-        <v>359</v>
-      </c>
+        <v>43857</v>
+      </c>
+      <c r="D115" s="1"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H115" s="7"/>
       <c r="J115" s="8" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="10" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B116" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C116" s="1">
-        <v>43855</v>
-      </c>
-      <c r="F116" s="17" t="s">
-        <v>164</v>
+        <v>43859</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>364</v>
+      <c r="A117" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B117" t="s">
+        <v>372</v>
       </c>
       <c r="C117" s="1">
-        <v>43856</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J117" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" s="5" customFormat="1">
-      <c r="A118" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="B118" s="22" t="s">
-        <v>367</v>
+        <v>43862</v>
+      </c>
+      <c r="F117" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J117" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B118" t="s">
+        <v>375</v>
       </c>
       <c r="C118" s="1">
-        <v>43857</v>
-      </c>
-      <c r="D118" s="1"/>
-      <c r="E118" s="7"/>
+        <v>43865</v>
+      </c>
       <c r="F118" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G118" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H118" s="7"/>
       <c r="J118" s="8" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B119" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C119" s="1">
-        <v>43859</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
-      <c r="A120" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="B120" t="s">
-        <v>372</v>
+        <v>43865</v>
+      </c>
+      <c r="F119" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="J119" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="15" customFormat="1">
+      <c r="A120" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>381</v>
       </c>
       <c r="C120" s="1">
-        <v>43862</v>
-      </c>
-      <c r="F120" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J120" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
-      <c r="A121" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="B121" t="s">
-        <v>375</v>
-      </c>
-      <c r="C121" s="1">
         <v>43865</v>
       </c>
-      <c r="F121" s="16" t="s">
-        <v>0</v>
-      </c>
+      <c r="D120" s="24"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18"/>
+    </row>
+    <row r="121" spans="1:10" s="15" customFormat="1">
+      <c r="A121" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C121" s="24">
+        <v>43866</v>
+      </c>
+      <c r="D121" s="26"/>
+      <c r="E121" s="25"/>
+      <c r="F121" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G121" s="18"/>
+      <c r="H121" s="18"/>
       <c r="J121" s="8" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B122" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C122" s="1">
-        <v>43865</v>
+        <v>43867</v>
       </c>
       <c r="F122" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="J122" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" s="15" customFormat="1">
-      <c r="A123" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="B123" s="23" t="s">
-        <v>381</v>
+        <v>72</v>
+      </c>
+      <c r="J122" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B123" t="s">
+        <v>389</v>
       </c>
       <c r="C123" s="1">
-        <v>43865</v>
-      </c>
-      <c r="D123" s="24"/>
-      <c r="E123" s="18"/>
+        <v>43867</v>
+      </c>
       <c r="F123" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="G123" s="18"/>
-      <c r="H123" s="18"/>
-    </row>
-    <row r="124" spans="1:10" s="15" customFormat="1">
-      <c r="A124" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="C124" s="24">
-        <v>43866</v>
-      </c>
-      <c r="D124" s="26"/>
-      <c r="E124" s="25"/>
+      <c r="J123" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="B124" t="s">
+        <v>392</v>
+      </c>
+      <c r="C124" s="1">
+        <v>43870</v>
+      </c>
       <c r="F124" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
       <c r="J124" s="8" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="10" t="s">
-        <v>385</v>
+      <c r="A125" t="s">
+        <v>394</v>
       </c>
       <c r="B125" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="C125" s="1">
-        <v>43867</v>
-      </c>
-      <c r="F125" s="17" t="s">
-        <v>72</v>
+        <v>43870</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>395</v>
       </c>
       <c r="J125" s="8" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="10" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B126" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="C126" s="1">
-        <v>43867</v>
+        <v>43870</v>
       </c>
       <c r="F126" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="J126" t="s">
-        <v>390</v>
+      <c r="J126" s="8" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" s="10" t="s">
-        <v>391</v>
+      <c r="A127" t="s">
+        <v>403</v>
       </c>
       <c r="B127" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="C127" s="1">
         <v>43870</v>
@@ -7446,16 +7516,13 @@
       <c r="F127" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="J127" s="8" t="s">
-        <v>393</v>
-      </c>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" t="s">
-        <v>394</v>
+      <c r="A128" s="10" t="s">
+        <v>405</v>
       </c>
       <c r="B128" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="C128" s="1">
         <v>43870</v>
@@ -7463,510 +7530,513 @@
       <c r="F128" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="H128" s="4" t="s">
-        <v>395</v>
+      <c r="G128" s="4" t="s">
+        <v>276</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="10" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="B129" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C129" s="1">
-        <v>43870</v>
-      </c>
-      <c r="F129" s="17" t="s">
-        <v>359</v>
+        <v>43875</v>
+      </c>
+      <c r="F129" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="J129" s="8" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130" s="10" t="s">
-        <v>400</v>
+      <c r="A130" t="s">
+        <v>411</v>
       </c>
       <c r="B130" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C130" s="1">
-        <v>43870</v>
+        <v>43875</v>
       </c>
       <c r="F130" s="25" t="s">
         <v>0</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="131" spans="1:10">
-      <c r="A131" t="s">
-        <v>403</v>
-      </c>
-      <c r="B131" t="s">
-        <v>404</v>
+      <c r="A131" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>413</v>
       </c>
       <c r="C131" s="1">
-        <v>43870</v>
-      </c>
-      <c r="F131" s="25" t="s">
-        <v>0</v>
+        <v>43876</v>
+      </c>
+      <c r="D131" s="1"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J131" s="8" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="132" spans="1:10">
-      <c r="A132" s="10" t="s">
-        <v>405</v>
+      <c r="A132" t="s">
+        <v>415</v>
       </c>
       <c r="B132" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C132" s="1">
-        <v>43870</v>
+        <v>43876</v>
       </c>
       <c r="F132" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="G132" s="4" t="s">
-        <v>276</v>
-      </c>
       <c r="J132" s="8" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
     </row>
     <row r="133" spans="1:10">
-      <c r="A133" s="10" t="s">
-        <v>408</v>
+      <c r="A133" t="s">
+        <v>418</v>
       </c>
       <c r="B133" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C133" s="1">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="F133" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="G133" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J133" s="8" t="s">
-        <v>410</v>
+      <c r="G133" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B134" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="C134" s="1">
-        <v>43875</v>
+        <v>43878</v>
       </c>
       <c r="F134" s="25" t="s">
         <v>0</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="135" spans="1:10">
-      <c r="A135" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>413</v>
+      <c r="A135" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B135" t="s">
+        <v>424</v>
       </c>
       <c r="C135" s="1">
-        <v>43876</v>
-      </c>
-      <c r="D135" s="1"/>
-      <c r="E135" s="7"/>
+        <v>43878</v>
+      </c>
       <c r="F135" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="G135" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J135" s="8" t="s">
-        <v>414</v>
+        <v>214</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="B136" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="C136" s="1">
-        <v>43876</v>
+        <v>43878</v>
       </c>
       <c r="F136" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="J136" s="8" t="s">
-        <v>417</v>
+      <c r="J136" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="137" spans="1:10">
-      <c r="A137" t="s">
-        <v>418</v>
-      </c>
-      <c r="B137" t="s">
-        <v>419</v>
+      <c r="A137" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="C137" s="1">
-        <v>43876</v>
-      </c>
-      <c r="F137" s="25" t="s">
+        <v>43879</v>
+      </c>
+      <c r="D137" s="1"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="16" t="s">
         <v>0</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H137" s="4" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>420</v>
-      </c>
-      <c r="B138" t="s">
-        <v>421</v>
+        <v>430</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="C138" s="1">
-        <v>43878</v>
-      </c>
-      <c r="F138" s="25" t="s">
-        <v>0</v>
+        <v>43883</v>
+      </c>
+      <c r="F138" s="27" t="s">
+        <v>223</v>
       </c>
       <c r="J138" s="8" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="B139" t="s">
-        <v>424</v>
+        <v>433</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>434</v>
       </c>
       <c r="C139" s="1">
-        <v>43878</v>
+        <v>43883</v>
       </c>
       <c r="F139" s="17" t="s">
-        <v>214</v>
+        <v>208</v>
+      </c>
+      <c r="J139" s="8" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="140" spans="1:10">
-      <c r="A140" t="s">
-        <v>425</v>
-      </c>
-      <c r="B140" t="s">
-        <v>426</v>
+      <c r="A140" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>436</v>
       </c>
       <c r="C140" s="1">
-        <v>43878</v>
-      </c>
-      <c r="F140" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="J140" t="s">
-        <v>427</v>
+        <v>43884</v>
+      </c>
+      <c r="D140" s="1"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="17" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:10">
-      <c r="A141" s="10" t="s">
-        <v>428</v>
+      <c r="A141" t="s">
+        <v>437</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="C141" s="1">
-        <v>43879</v>
-      </c>
-      <c r="D141" s="1"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>1</v>
+        <v>43884</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>430</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>431</v>
+        <v>439</v>
+      </c>
+      <c r="B142" t="s">
+        <v>440</v>
       </c>
       <c r="C142" s="1">
-        <v>43883</v>
-      </c>
-      <c r="F142" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="J142" s="8" t="s">
-        <v>432</v>
+        <v>43887</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="J142" s="95" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="143" spans="1:10">
-      <c r="A143" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>434</v>
+      <c r="A143" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="B143" s="23" t="s">
+        <v>445</v>
       </c>
       <c r="C143" s="1">
-        <v>43883</v>
-      </c>
-      <c r="F143" s="17" t="s">
-        <v>208</v>
-      </c>
+        <v>43889</v>
+      </c>
+      <c r="D143" s="24"/>
+      <c r="E143" s="18"/>
+      <c r="F143" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G143" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H143" s="18"/>
       <c r="J143" s="8" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="144" spans="1:10">
-      <c r="A144" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>436</v>
+      <c r="A144" t="s">
+        <v>447</v>
+      </c>
+      <c r="B144" t="s">
+        <v>448</v>
       </c>
       <c r="C144" s="1">
-        <v>43884</v>
-      </c>
-      <c r="D144" s="1"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="17" t="s">
-        <v>146</v>
+        <v>43896</v>
+      </c>
+      <c r="F144" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J144" s="95" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" t="s">
-        <v>437</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>438</v>
+        <v>449</v>
+      </c>
+      <c r="B145" t="s">
+        <v>450</v>
       </c>
       <c r="C145" s="1">
-        <v>43884</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>0</v>
+        <v>43898</v>
+      </c>
+      <c r="F145" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J145" s="95" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" t="s">
-        <v>439</v>
+        <v>1088</v>
       </c>
       <c r="B146" t="s">
-        <v>440</v>
+        <v>1089</v>
       </c>
       <c r="C146" s="1">
-        <v>43887</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H146" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="J146" s="95" t="s">
-        <v>1115</v>
+        <v>43899</v>
+      </c>
+      <c r="F146" s="18" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="10" t="s">
-        <v>441</v>
+      <c r="A147" t="s">
+        <v>1091</v>
       </c>
       <c r="B147" t="s">
-        <v>442</v>
+        <v>1090</v>
       </c>
       <c r="C147" s="1">
-        <v>43889</v>
-      </c>
-      <c r="F147" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="J147" s="8" t="s">
-        <v>443</v>
+        <v>43899</v>
+      </c>
+      <c r="F147" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J147" s="95" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="B148" s="23" t="s">
-        <v>445</v>
+      <c r="A148" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1093</v>
       </c>
       <c r="C148" s="1">
-        <v>43889</v>
-      </c>
-      <c r="D148" s="24"/>
-      <c r="E148" s="18"/>
+        <v>43899</v>
+      </c>
       <c r="F148" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G148" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="H148" s="18"/>
-      <c r="J148" s="8" t="s">
-        <v>446</v>
+      <c r="J148" s="95" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" t="s">
-        <v>447</v>
-      </c>
-      <c r="B149" t="s">
-        <v>448</v>
-      </c>
-      <c r="C149" s="1">
-        <v>43896</v>
-      </c>
+      <c r="A149" s="14" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C149" s="24">
+        <v>43903</v>
+      </c>
+      <c r="D149" s="24"/>
+      <c r="E149" s="18"/>
       <c r="F149" s="18" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" t="s">
-        <v>449</v>
+        <v>1096</v>
       </c>
       <c r="B150" t="s">
-        <v>450</v>
+        <v>1097</v>
       </c>
       <c r="C150" s="1">
-        <v>43898</v>
+        <v>43904</v>
       </c>
       <c r="F150" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J150" s="95" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
-      <c r="A151" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B151" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C151" s="1">
-        <v>43899</v>
-      </c>
-      <c r="F151" s="18" t="s">
-        <v>0</v>
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" s="96" customFormat="1">
+      <c r="A151" s="96" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B151" s="96" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C151" s="97">
+        <v>43906</v>
+      </c>
+      <c r="D151" s="98"/>
+      <c r="E151" s="99"/>
+      <c r="F151" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="G151" s="100"/>
+      <c r="H151" s="100"/>
+      <c r="J151" s="96" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="B152" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C152" s="1">
-        <v>43899</v>
-      </c>
-      <c r="F152" s="18" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C152" s="97">
+        <v>43906</v>
+      </c>
+      <c r="F152" s="99" t="s">
         <v>0</v>
       </c>
       <c r="J152" s="95" t="s">
-        <v>1112</v>
+        <v>1121</v>
+      </c>
+      <c r="K152" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" t="s">
-        <v>1092</v>
+        <v>1101</v>
       </c>
       <c r="B153" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C153" s="1">
-        <v>43899</v>
-      </c>
-      <c r="F153" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J153" s="95" t="s">
-        <v>1111</v>
+        <v>1125</v>
+      </c>
+      <c r="C153" s="97">
+        <v>43906</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="14" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B154" s="15" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C154" s="24">
-        <v>43903</v>
-      </c>
-      <c r="D154" s="24"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18" t="s">
+      <c r="A154" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C154" s="97">
+        <v>43906</v>
+      </c>
+      <c r="F154" s="99" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="B155" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C155" s="1">
-        <v>43904</v>
-      </c>
-      <c r="F155" s="18" t="s">
-        <v>0</v>
+        <v>1104</v>
+      </c>
+      <c r="C155" s="97">
+        <v>43906</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>1102</v>
       </c>
       <c r="J155" s="95" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" s="96" customFormat="1">
-      <c r="A156" s="96" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B156" s="96" t="s">
-        <v>1062</v>
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1106</v>
       </c>
       <c r="C156" s="97">
         <v>43906</v>
       </c>
-      <c r="D156" s="98"/>
-      <c r="E156" s="99"/>
-      <c r="F156" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="G156" s="100"/>
-      <c r="H156" s="100"/>
-      <c r="J156" s="96" t="s">
-        <v>1063</v>
+      <c r="F156" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J156" s="95" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" t="s">
-        <v>1099</v>
+        <v>1108</v>
       </c>
       <c r="B157" t="s">
-        <v>1100</v>
+        <v>1109</v>
       </c>
       <c r="C157" s="97">
         <v>43906</v>
@@ -7974,258 +8044,314 @@
       <c r="F157" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J157" s="95" t="s">
-        <v>1121</v>
-      </c>
-      <c r="K157" t="s">
-        <v>1098</v>
-      </c>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" t="s">
-        <v>1101</v>
+        <v>1116</v>
       </c>
       <c r="B158" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C158" s="97">
-        <v>43906</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>1099</v>
+        <v>1117</v>
+      </c>
+      <c r="C158" s="1">
+        <v>43910</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B159" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C159" s="97">
-        <v>43906</v>
-      </c>
-      <c r="F159" s="99" t="s">
-        <v>0</v>
+      <c r="A159" s="102" t="s">
+        <v>690</v>
+      </c>
+      <c r="B159" s="96" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C159" s="1">
+        <v>43910</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" t="s">
-        <v>1105</v>
+        <v>1126</v>
       </c>
       <c r="B160" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C160" s="97">
-        <v>43906</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>1102</v>
-      </c>
-      <c r="J160" s="95" t="s">
-        <v>1119</v>
+        <v>1122</v>
+      </c>
+      <c r="C160" s="1">
+        <v>43911</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>1107</v>
+        <v>1123</v>
       </c>
       <c r="B161" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C161" s="97">
-        <v>43906</v>
-      </c>
-      <c r="F161" s="65" t="s">
-        <v>366</v>
+        <v>1124</v>
+      </c>
+      <c r="C161" s="1">
+        <v>43911</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="J161" s="95" t="s">
-        <v>1120</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>1108</v>
+        <v>1127</v>
       </c>
       <c r="B162" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C162" s="97">
-        <v>43906</v>
-      </c>
-      <c r="F162" s="99" t="s">
-        <v>0</v>
+        <v>1128</v>
+      </c>
+      <c r="C162" s="1">
+        <v>43912</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J162" s="95" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>1116</v>
+        <v>1129</v>
       </c>
       <c r="B163" t="s">
-        <v>1117</v>
+        <v>1130</v>
       </c>
       <c r="C163" s="1">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:10">
-      <c r="A164" s="102" t="s">
-        <v>690</v>
-      </c>
-      <c r="B164" s="96" t="s">
-        <v>1025</v>
+      <c r="A164" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1131</v>
       </c>
       <c r="C164" s="1">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>1122</v>
+        <v>1134</v>
       </c>
       <c r="B165" t="s">
-        <v>1123</v>
+        <v>1133</v>
       </c>
       <c r="C165" s="1">
-        <v>43911</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>234</v>
+        <v>43913</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" t="s">
-        <v>1124</v>
+        <v>1135</v>
       </c>
       <c r="B166" t="s">
-        <v>1125</v>
+        <v>1135</v>
       </c>
       <c r="C166" s="1">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="298" ht="14.75" customHeight="1"/>
+    <row r="167" spans="1:10">
+      <c r="A167" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C167" s="1">
+        <v>43913</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C168" s="1">
+        <v>43913</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J168" s="95" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C169" s="1">
+        <v>43914</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C170" s="1">
+        <v>43915</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J170" s="95" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="293" ht="14.85" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J24" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J25" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J26" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J27" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J30" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="J33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="J34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="J35" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J36" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J42" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J43" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="J45" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J46" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J48" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="J49" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="J50" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="J52" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="J53" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="J54" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="J55" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="J56" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="J57" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="J58" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="J59" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="K59" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="J60" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J62" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="J63" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J64" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J66" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="J67" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="J68" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="J69" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="J70" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="J71" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="J72" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="J74" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="J75" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="J76" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="J77" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="J78" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="J80" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="J81" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="J82" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="J84" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="J85" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="J88" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="J91" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="J92" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="J94" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="J96" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="J97" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="J98" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="J99" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="J100" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="J102" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="J106" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="J108" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="J109" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="J111" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="J114" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="J115" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="J117" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="J118" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="J120" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="J121" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="J122" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="J124" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="J125" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="J126" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="J127" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="J128" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="J129" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="J132" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="J133" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="J134" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="J135" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="J136" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="J138" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="J140" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="J142" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="J143" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="J147" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="J148" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="J51" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="J113" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="J153" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="J152" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="J150" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="J146" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="J155" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="J160" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="J161" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="J157" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="J1" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="J4" r:id="rId3"/>
+    <hyperlink ref="J5" r:id="rId4"/>
+    <hyperlink ref="J6" r:id="rId5"/>
+    <hyperlink ref="J8" r:id="rId6"/>
+    <hyperlink ref="J10" r:id="rId7"/>
+    <hyperlink ref="J11" r:id="rId8"/>
+    <hyperlink ref="J12" r:id="rId9"/>
+    <hyperlink ref="J13" r:id="rId10"/>
+    <hyperlink ref="J14" r:id="rId11"/>
+    <hyperlink ref="J19" r:id="rId12"/>
+    <hyperlink ref="J22" r:id="rId13"/>
+    <hyperlink ref="J23" r:id="rId14"/>
+    <hyperlink ref="J24" r:id="rId15"/>
+    <hyperlink ref="J25" r:id="rId16"/>
+    <hyperlink ref="J28" r:id="rId17"/>
+    <hyperlink ref="J30" r:id="rId18"/>
+    <hyperlink ref="J31" r:id="rId19"/>
+    <hyperlink ref="J32" r:id="rId20"/>
+    <hyperlink ref="J33" r:id="rId21"/>
+    <hyperlink ref="J34" r:id="rId22"/>
+    <hyperlink ref="J38" r:id="rId23"/>
+    <hyperlink ref="J40" r:id="rId24"/>
+    <hyperlink ref="J41" r:id="rId25"/>
+    <hyperlink ref="J43" r:id="rId26"/>
+    <hyperlink ref="J44" r:id="rId27"/>
+    <hyperlink ref="J46" r:id="rId28"/>
+    <hyperlink ref="J47" r:id="rId29"/>
+    <hyperlink ref="J48" r:id="rId30"/>
+    <hyperlink ref="J50" r:id="rId31"/>
+    <hyperlink ref="J51" r:id="rId32"/>
+    <hyperlink ref="J52" r:id="rId33"/>
+    <hyperlink ref="J53" r:id="rId34"/>
+    <hyperlink ref="J54" r:id="rId35"/>
+    <hyperlink ref="J55" r:id="rId36"/>
+    <hyperlink ref="J56" r:id="rId37"/>
+    <hyperlink ref="J57" r:id="rId38"/>
+    <hyperlink ref="K57" r:id="rId39"/>
+    <hyperlink ref="J58" r:id="rId40"/>
+    <hyperlink ref="J60" r:id="rId41"/>
+    <hyperlink ref="J61" r:id="rId42"/>
+    <hyperlink ref="J62" r:id="rId43"/>
+    <hyperlink ref="J64" r:id="rId44"/>
+    <hyperlink ref="J65" r:id="rId45"/>
+    <hyperlink ref="J66" r:id="rId46"/>
+    <hyperlink ref="J67" r:id="rId47"/>
+    <hyperlink ref="J68" r:id="rId48"/>
+    <hyperlink ref="J69" r:id="rId49"/>
+    <hyperlink ref="J70" r:id="rId50"/>
+    <hyperlink ref="J72" r:id="rId51"/>
+    <hyperlink ref="J73" r:id="rId52"/>
+    <hyperlink ref="J74" r:id="rId53"/>
+    <hyperlink ref="J75" r:id="rId54"/>
+    <hyperlink ref="J76" r:id="rId55"/>
+    <hyperlink ref="J78" r:id="rId56"/>
+    <hyperlink ref="J79" r:id="rId57"/>
+    <hyperlink ref="J80" r:id="rId58"/>
+    <hyperlink ref="J82" r:id="rId59"/>
+    <hyperlink ref="J83" r:id="rId60"/>
+    <hyperlink ref="J86" r:id="rId61"/>
+    <hyperlink ref="J89" r:id="rId62"/>
+    <hyperlink ref="J91" r:id="rId63"/>
+    <hyperlink ref="J93" r:id="rId64"/>
+    <hyperlink ref="J94" r:id="rId65"/>
+    <hyperlink ref="J95" r:id="rId66"/>
+    <hyperlink ref="J96" r:id="rId67"/>
+    <hyperlink ref="J97" r:id="rId68"/>
+    <hyperlink ref="J99" r:id="rId69"/>
+    <hyperlink ref="J103" r:id="rId70"/>
+    <hyperlink ref="J105" r:id="rId71"/>
+    <hyperlink ref="J106" r:id="rId72"/>
+    <hyperlink ref="J108" r:id="rId73"/>
+    <hyperlink ref="J111" r:id="rId74"/>
+    <hyperlink ref="J112" r:id="rId75"/>
+    <hyperlink ref="J114" r:id="rId76"/>
+    <hyperlink ref="J115" r:id="rId77"/>
+    <hyperlink ref="J117" r:id="rId78"/>
+    <hyperlink ref="J118" r:id="rId79"/>
+    <hyperlink ref="J119" r:id="rId80"/>
+    <hyperlink ref="J121" r:id="rId81"/>
+    <hyperlink ref="J122" r:id="rId82"/>
+    <hyperlink ref="J123" r:id="rId83"/>
+    <hyperlink ref="J124" r:id="rId84"/>
+    <hyperlink ref="J125" r:id="rId85"/>
+    <hyperlink ref="J128" r:id="rId86"/>
+    <hyperlink ref="J129" r:id="rId87"/>
+    <hyperlink ref="J130" r:id="rId88"/>
+    <hyperlink ref="J131" r:id="rId89"/>
+    <hyperlink ref="J132" r:id="rId90"/>
+    <hyperlink ref="J134" r:id="rId91"/>
+    <hyperlink ref="J136" r:id="rId92"/>
+    <hyperlink ref="J138" r:id="rId93"/>
+    <hyperlink ref="J139" r:id="rId94"/>
+    <hyperlink ref="J143" r:id="rId95"/>
+    <hyperlink ref="J49" r:id="rId96"/>
+    <hyperlink ref="J110" r:id="rId97"/>
+    <hyperlink ref="J148" r:id="rId98"/>
+    <hyperlink ref="J147" r:id="rId99"/>
+    <hyperlink ref="J145" r:id="rId100"/>
+    <hyperlink ref="J142" r:id="rId101"/>
+    <hyperlink ref="J150" r:id="rId102"/>
+    <hyperlink ref="J155" r:id="rId103"/>
+    <hyperlink ref="J156" r:id="rId104"/>
+    <hyperlink ref="J152" r:id="rId105"/>
+    <hyperlink ref="J162" r:id="rId106"/>
+    <hyperlink ref="J144" r:id="rId107"/>
+    <hyperlink ref="J170" r:id="rId108"/>
+    <hyperlink ref="J161" r:id="rId109"/>
+    <hyperlink ref="J168" r:id="rId110"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId111"/>
@@ -8233,21 +8359,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J359"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J364"/>
   <sheetViews>
-    <sheetView topLeftCell="A338" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E358" sqref="E358:E359"/>
+    <sheetView topLeftCell="A337" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B368" sqref="B368"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" style="28" customWidth="1"/>
-    <col min="3" max="4" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1"/>
-    <col min="8" max="8" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="28" customWidth="1"/>
+    <col min="3" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -16474,7 +16600,7 @@
         <v>43864</v>
       </c>
       <c r="E324" s="35">
-        <f t="shared" ref="E324:E359" si="6">D324-C324</f>
+        <f t="shared" ref="E324:E364" si="6">D324-C324</f>
         <v>51</v>
       </c>
       <c r="F324" s="33" t="s">
@@ -17354,38 +17480,177 @@
         <v>246</v>
       </c>
     </row>
+    <row r="360" spans="1:10" s="34" customFormat="1">
+      <c r="A360" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="B360" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C360" s="31">
+        <v>43833</v>
+      </c>
+      <c r="D360" s="32">
+        <v>43912</v>
+      </c>
+      <c r="E360" s="33">
+        <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="F360" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G360" s="35"/>
+      <c r="H360" s="35"/>
+      <c r="J360" s="34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" s="34" customFormat="1">
+      <c r="A361" s="46" t="s">
+        <v>441</v>
+      </c>
+      <c r="B361" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="C361" s="31">
+        <v>43889</v>
+      </c>
+      <c r="D361" s="32">
+        <v>43913</v>
+      </c>
+      <c r="E361" s="33">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="F361" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="G361" s="35"/>
+      <c r="H361" s="35"/>
+      <c r="J361" s="47" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" s="34" customFormat="1">
+      <c r="A362" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B362" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C362" s="31">
+        <v>43346</v>
+      </c>
+      <c r="D362" s="31">
+        <v>43916</v>
+      </c>
+      <c r="E362" s="35">
+        <f t="shared" si="6"/>
+        <v>570</v>
+      </c>
+      <c r="F362" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G362" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H362" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="J362" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" s="34" customFormat="1">
+      <c r="A363" s="46" t="s">
+        <v>397</v>
+      </c>
+      <c r="B363" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="C363" s="31">
+        <v>43870</v>
+      </c>
+      <c r="D363" s="32">
+        <v>43916</v>
+      </c>
+      <c r="E363" s="33">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="F363" s="48" t="s">
+        <v>359</v>
+      </c>
+      <c r="G363" s="35"/>
+      <c r="H363" s="35"/>
+      <c r="J363" s="47" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" s="34" customFormat="1">
+      <c r="A364" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B364" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C364" s="31">
+        <v>43513</v>
+      </c>
+      <c r="D364" s="31">
+        <v>43917</v>
+      </c>
+      <c r="E364" s="35">
+        <f t="shared" si="6"/>
+        <v>404</v>
+      </c>
+      <c r="F364" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G364" s="35"/>
+      <c r="H364" s="35"/>
+      <c r="J364" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J55" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="J64" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="J68" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="J70" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="J78" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="J80" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="J99" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="J111" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="J119" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="J140" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="J158" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="J203" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="J220" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="J275" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="J318" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="J319" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="J330" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="J336" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="J343" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="J344" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="J351" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="J353" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="J352" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="J354" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="J355" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="J356" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="J359" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="J55" r:id="rId1"/>
+    <hyperlink ref="J64" r:id="rId2"/>
+    <hyperlink ref="J68" r:id="rId3"/>
+    <hyperlink ref="J70" r:id="rId4"/>
+    <hyperlink ref="J78" r:id="rId5"/>
+    <hyperlink ref="J80" r:id="rId6"/>
+    <hyperlink ref="J99" r:id="rId7"/>
+    <hyperlink ref="J111" r:id="rId8"/>
+    <hyperlink ref="J119" r:id="rId9"/>
+    <hyperlink ref="J140" r:id="rId10"/>
+    <hyperlink ref="J158" r:id="rId11"/>
+    <hyperlink ref="J203" r:id="rId12"/>
+    <hyperlink ref="J220" r:id="rId13"/>
+    <hyperlink ref="J275" r:id="rId14"/>
+    <hyperlink ref="J318" r:id="rId15"/>
+    <hyperlink ref="J319" r:id="rId16"/>
+    <hyperlink ref="J330" r:id="rId17"/>
+    <hyperlink ref="J336" r:id="rId18"/>
+    <hyperlink ref="J343" r:id="rId19"/>
+    <hyperlink ref="J344" r:id="rId20"/>
+    <hyperlink ref="J351" r:id="rId21"/>
+    <hyperlink ref="J353" r:id="rId22"/>
+    <hyperlink ref="J352" r:id="rId23"/>
+    <hyperlink ref="J354" r:id="rId24"/>
+    <hyperlink ref="J355" r:id="rId25"/>
+    <hyperlink ref="J356" r:id="rId26"/>
+    <hyperlink ref="J359" r:id="rId27"/>
+    <hyperlink ref="J360" r:id="rId28"/>
+    <hyperlink ref="J361" r:id="rId29"/>
+    <hyperlink ref="J362" r:id="rId30"/>
+    <hyperlink ref="J363" r:id="rId31"/>
+    <hyperlink ref="J364" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId28"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId33"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -17394,48 +17659,69 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C1" s="1">
+        <v>43918</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z119"/>
   <sheetViews>
     <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="3" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="4"/>
-    <col min="10" max="10" width="9.83203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="4"/>
-    <col min="12" max="15" width="8.6640625" style="3"/>
-    <col min="16" max="16" width="8.6640625" style="4"/>
-    <col min="17" max="17" width="9.1640625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" style="4"/>
-    <col min="19" max="19" width="9.1640625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" style="4"/>
-    <col min="21" max="21" width="9.1640625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" style="3"/>
-    <col min="23" max="23" width="8.83203125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="8.83203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="4"/>
+    <col min="10" max="10" width="9.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="4"/>
+    <col min="12" max="15" width="8.7109375" style="3"/>
+    <col min="16" max="16" width="8.7109375" style="4"/>
+    <col min="17" max="17" width="9.140625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" style="4"/>
+    <col min="19" max="19" width="9.140625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="4"/>
+    <col min="21" max="21" width="9.140625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" style="3"/>
+    <col min="23" max="23" width="8.85546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -19233,7 +19519,7 @@
         <v>65.686101520780824</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="16">
+    <row r="26" spans="1:25">
       <c r="A26" s="86" t="s">
         <v>591</v>
       </c>
@@ -24494,14 +24780,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/generateEXCEL/Data/Members/GroupRecord.xlsx
+++ b/generateEXCEL/Data/Members/GroupRecord.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Huifeng\Dropbox\Research\Coding\WeChatGroup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hguan/GitHub/lc-score-board/generateEXCEL/Data/Members/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FD224B-B8DB-7843-81CC-FCC5DE7CA313}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12765" yWindow="6015" windowWidth="19005" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="12760" yWindow="6020" windowWidth="19000" windowHeight="14340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="1152">
   <si>
     <t>wisdompeak</t>
   </si>
@@ -4059,9 +4060,6 @@
     <t>杨森</t>
   </si>
   <si>
-    <t>youngforest</t>
-  </si>
-  <si>
     <t>kylelovealgo</t>
   </si>
   <si>
@@ -4123,18 +4121,21 @@
   </si>
   <si>
     <t>秦baibai</t>
+  </si>
+  <si>
+    <t>YoungForest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4288,6 +4289,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -4346,7 +4353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4594,10 +4601,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4976,25 +4990,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K293"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176"/>
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" customWidth="1"/>
-    <col min="11" max="11" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="36.5" customWidth="1"/>
+    <col min="11" max="11" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -7824,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="J144" s="95" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -8101,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="J161" s="95" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -8118,7 +8132,7 @@
         <v>72</v>
       </c>
       <c r="J162" s="95" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -8126,7 +8140,7 @@
         <v>1129</v>
       </c>
       <c r="B163" t="s">
-        <v>1130</v>
+        <v>1151</v>
       </c>
       <c r="C163" s="1">
         <v>43912</v>
@@ -8137,10 +8151,10 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B164" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C164" s="1">
         <v>43913</v>
@@ -8151,10 +8165,10 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B165" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C165" s="1">
         <v>43913</v>
@@ -8165,10 +8179,10 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B166" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C166" s="1">
         <v>43913</v>
@@ -8179,10 +8193,10 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B167" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C167" s="1">
         <v>43913</v>
@@ -8193,10 +8207,10 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B168" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C168" s="1">
         <v>43913</v>
@@ -8205,15 +8219,15 @@
         <v>0</v>
       </c>
       <c r="J168" s="95" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="169" spans="1:10">
       <c r="A169" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B169" t="s">
         <v>1140</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1141</v>
       </c>
       <c r="C169" s="1">
         <v>43914</v>
@@ -8224,10 +8238,10 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B170" t="s">
         <v>1142</v>
-      </c>
-      <c r="B170" t="s">
-        <v>1143</v>
       </c>
       <c r="C170" s="1">
         <v>43915</v>
@@ -8236,122 +8250,138 @@
         <v>0</v>
       </c>
       <c r="J170" s="95" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="293" ht="14.85" customHeight="1"/>
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" s="103" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B171" s="103" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C171" s="104">
+        <v>43918</v>
+      </c>
+      <c r="D171" s="103"/>
+      <c r="E171" s="103"/>
+      <c r="F171" s="105" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="293" ht="14.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J1" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3"/>
-    <hyperlink ref="J5" r:id="rId4"/>
-    <hyperlink ref="J6" r:id="rId5"/>
-    <hyperlink ref="J8" r:id="rId6"/>
-    <hyperlink ref="J10" r:id="rId7"/>
-    <hyperlink ref="J11" r:id="rId8"/>
-    <hyperlink ref="J12" r:id="rId9"/>
-    <hyperlink ref="J13" r:id="rId10"/>
-    <hyperlink ref="J14" r:id="rId11"/>
-    <hyperlink ref="J19" r:id="rId12"/>
-    <hyperlink ref="J22" r:id="rId13"/>
-    <hyperlink ref="J23" r:id="rId14"/>
-    <hyperlink ref="J24" r:id="rId15"/>
-    <hyperlink ref="J25" r:id="rId16"/>
-    <hyperlink ref="J28" r:id="rId17"/>
-    <hyperlink ref="J30" r:id="rId18"/>
-    <hyperlink ref="J31" r:id="rId19"/>
-    <hyperlink ref="J32" r:id="rId20"/>
-    <hyperlink ref="J33" r:id="rId21"/>
-    <hyperlink ref="J34" r:id="rId22"/>
-    <hyperlink ref="J38" r:id="rId23"/>
-    <hyperlink ref="J40" r:id="rId24"/>
-    <hyperlink ref="J41" r:id="rId25"/>
-    <hyperlink ref="J43" r:id="rId26"/>
-    <hyperlink ref="J44" r:id="rId27"/>
-    <hyperlink ref="J46" r:id="rId28"/>
-    <hyperlink ref="J47" r:id="rId29"/>
-    <hyperlink ref="J48" r:id="rId30"/>
-    <hyperlink ref="J50" r:id="rId31"/>
-    <hyperlink ref="J51" r:id="rId32"/>
-    <hyperlink ref="J52" r:id="rId33"/>
-    <hyperlink ref="J53" r:id="rId34"/>
-    <hyperlink ref="J54" r:id="rId35"/>
-    <hyperlink ref="J55" r:id="rId36"/>
-    <hyperlink ref="J56" r:id="rId37"/>
-    <hyperlink ref="J57" r:id="rId38"/>
-    <hyperlink ref="K57" r:id="rId39"/>
-    <hyperlink ref="J58" r:id="rId40"/>
-    <hyperlink ref="J60" r:id="rId41"/>
-    <hyperlink ref="J61" r:id="rId42"/>
-    <hyperlink ref="J62" r:id="rId43"/>
-    <hyperlink ref="J64" r:id="rId44"/>
-    <hyperlink ref="J65" r:id="rId45"/>
-    <hyperlink ref="J66" r:id="rId46"/>
-    <hyperlink ref="J67" r:id="rId47"/>
-    <hyperlink ref="J68" r:id="rId48"/>
-    <hyperlink ref="J69" r:id="rId49"/>
-    <hyperlink ref="J70" r:id="rId50"/>
-    <hyperlink ref="J72" r:id="rId51"/>
-    <hyperlink ref="J73" r:id="rId52"/>
-    <hyperlink ref="J74" r:id="rId53"/>
-    <hyperlink ref="J75" r:id="rId54"/>
-    <hyperlink ref="J76" r:id="rId55"/>
-    <hyperlink ref="J78" r:id="rId56"/>
-    <hyperlink ref="J79" r:id="rId57"/>
-    <hyperlink ref="J80" r:id="rId58"/>
-    <hyperlink ref="J82" r:id="rId59"/>
-    <hyperlink ref="J83" r:id="rId60"/>
-    <hyperlink ref="J86" r:id="rId61"/>
-    <hyperlink ref="J89" r:id="rId62"/>
-    <hyperlink ref="J91" r:id="rId63"/>
-    <hyperlink ref="J93" r:id="rId64"/>
-    <hyperlink ref="J94" r:id="rId65"/>
-    <hyperlink ref="J95" r:id="rId66"/>
-    <hyperlink ref="J96" r:id="rId67"/>
-    <hyperlink ref="J97" r:id="rId68"/>
-    <hyperlink ref="J99" r:id="rId69"/>
-    <hyperlink ref="J103" r:id="rId70"/>
-    <hyperlink ref="J105" r:id="rId71"/>
-    <hyperlink ref="J106" r:id="rId72"/>
-    <hyperlink ref="J108" r:id="rId73"/>
-    <hyperlink ref="J111" r:id="rId74"/>
-    <hyperlink ref="J112" r:id="rId75"/>
-    <hyperlink ref="J114" r:id="rId76"/>
-    <hyperlink ref="J115" r:id="rId77"/>
-    <hyperlink ref="J117" r:id="rId78"/>
-    <hyperlink ref="J118" r:id="rId79"/>
-    <hyperlink ref="J119" r:id="rId80"/>
-    <hyperlink ref="J121" r:id="rId81"/>
-    <hyperlink ref="J122" r:id="rId82"/>
-    <hyperlink ref="J123" r:id="rId83"/>
-    <hyperlink ref="J124" r:id="rId84"/>
-    <hyperlink ref="J125" r:id="rId85"/>
-    <hyperlink ref="J128" r:id="rId86"/>
-    <hyperlink ref="J129" r:id="rId87"/>
-    <hyperlink ref="J130" r:id="rId88"/>
-    <hyperlink ref="J131" r:id="rId89"/>
-    <hyperlink ref="J132" r:id="rId90"/>
-    <hyperlink ref="J134" r:id="rId91"/>
-    <hyperlink ref="J136" r:id="rId92"/>
-    <hyperlink ref="J138" r:id="rId93"/>
-    <hyperlink ref="J139" r:id="rId94"/>
-    <hyperlink ref="J143" r:id="rId95"/>
-    <hyperlink ref="J49" r:id="rId96"/>
-    <hyperlink ref="J110" r:id="rId97"/>
-    <hyperlink ref="J148" r:id="rId98"/>
-    <hyperlink ref="J147" r:id="rId99"/>
-    <hyperlink ref="J145" r:id="rId100"/>
-    <hyperlink ref="J142" r:id="rId101"/>
-    <hyperlink ref="J150" r:id="rId102"/>
-    <hyperlink ref="J155" r:id="rId103"/>
-    <hyperlink ref="J156" r:id="rId104"/>
-    <hyperlink ref="J152" r:id="rId105"/>
-    <hyperlink ref="J162" r:id="rId106"/>
-    <hyperlink ref="J144" r:id="rId107"/>
-    <hyperlink ref="J170" r:id="rId108"/>
-    <hyperlink ref="J161" r:id="rId109"/>
-    <hyperlink ref="J168" r:id="rId110"/>
+    <hyperlink ref="J1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J24" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J25" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J28" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J30" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J31" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J38" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J40" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J41" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J43" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J44" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J46" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J47" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J48" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J50" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J51" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="J52" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J53" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="J54" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J55" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J56" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J57" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K57" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J58" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J60" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="J61" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J62" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J64" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J65" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J66" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="J67" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J68" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="J69" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="J70" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J72" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J73" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J74" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J75" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J76" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="J78" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="J79" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="J80" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="J82" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="J83" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="J86" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="J89" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="J91" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="J93" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="J94" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="J95" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="J96" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="J97" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="J99" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="J103" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="J105" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="J106" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="J108" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="J111" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="J112" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="J114" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="J115" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="J117" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="J118" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="J119" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="J121" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="J122" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="J123" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="J124" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="J125" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="J128" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="J129" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="J130" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="J131" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="J132" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="J134" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="J136" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J138" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="J139" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="J143" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="J49" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="J110" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="J148" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J147" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="J145" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="J142" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="J150" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="J155" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="J156" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="J152" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="J162" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="J144" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="J170" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="J161" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="J168" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId111"/>
@@ -8359,21 +8389,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J364"/>
   <sheetViews>
     <sheetView topLeftCell="A337" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B368" sqref="B368"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="28" customWidth="1"/>
-    <col min="3" max="4" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="28" customWidth="1"/>
+    <col min="3" max="4" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -17616,38 +17646,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J55" r:id="rId1"/>
-    <hyperlink ref="J64" r:id="rId2"/>
-    <hyperlink ref="J68" r:id="rId3"/>
-    <hyperlink ref="J70" r:id="rId4"/>
-    <hyperlink ref="J78" r:id="rId5"/>
-    <hyperlink ref="J80" r:id="rId6"/>
-    <hyperlink ref="J99" r:id="rId7"/>
-    <hyperlink ref="J111" r:id="rId8"/>
-    <hyperlink ref="J119" r:id="rId9"/>
-    <hyperlink ref="J140" r:id="rId10"/>
-    <hyperlink ref="J158" r:id="rId11"/>
-    <hyperlink ref="J203" r:id="rId12"/>
-    <hyperlink ref="J220" r:id="rId13"/>
-    <hyperlink ref="J275" r:id="rId14"/>
-    <hyperlink ref="J318" r:id="rId15"/>
-    <hyperlink ref="J319" r:id="rId16"/>
-    <hyperlink ref="J330" r:id="rId17"/>
-    <hyperlink ref="J336" r:id="rId18"/>
-    <hyperlink ref="J343" r:id="rId19"/>
-    <hyperlink ref="J344" r:id="rId20"/>
-    <hyperlink ref="J351" r:id="rId21"/>
-    <hyperlink ref="J353" r:id="rId22"/>
-    <hyperlink ref="J352" r:id="rId23"/>
-    <hyperlink ref="J354" r:id="rId24"/>
-    <hyperlink ref="J355" r:id="rId25"/>
-    <hyperlink ref="J356" r:id="rId26"/>
-    <hyperlink ref="J359" r:id="rId27"/>
-    <hyperlink ref="J360" r:id="rId28"/>
-    <hyperlink ref="J361" r:id="rId29"/>
-    <hyperlink ref="J362" r:id="rId30"/>
-    <hyperlink ref="J363" r:id="rId31"/>
-    <hyperlink ref="J364" r:id="rId32"/>
+    <hyperlink ref="J55" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="J64" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="J68" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="J70" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="J78" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="J80" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="J99" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="J111" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="J119" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="J140" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="J158" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="J203" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="J220" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="J275" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="J318" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="J319" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="J330" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="J336" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="J343" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="J344" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="J351" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="J353" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="J352" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="J354" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="J355" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="J356" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="J359" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="J360" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="J361" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="J362" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="J363" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="J364" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId33"/>
@@ -17659,21 +17689,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C1" s="1">
         <v>43918</v>
@@ -17681,7 +17711,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -17693,35 +17723,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z119"/>
   <sheetViews>
     <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="4"/>
-    <col min="10" max="10" width="9.85546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="4"/>
-    <col min="12" max="15" width="8.7109375" style="3"/>
-    <col min="16" max="16" width="8.7109375" style="4"/>
-    <col min="17" max="17" width="9.140625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" style="4"/>
-    <col min="19" max="19" width="9.140625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" style="4"/>
-    <col min="21" max="21" width="9.140625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="8.7109375" style="3"/>
-    <col min="23" max="23" width="8.85546875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="8.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="3" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="4"/>
+    <col min="10" max="10" width="9.83203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="4"/>
+    <col min="12" max="15" width="8.6640625" style="3"/>
+    <col min="16" max="16" width="8.6640625" style="4"/>
+    <col min="17" max="17" width="9.1640625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="9.1640625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="9.1640625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="3"/>
+    <col min="23" max="23" width="8.83203125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="8.83203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -19519,7 +19549,7 @@
         <v>65.686101520780824</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" ht="16">
       <c r="A26" s="86" t="s">
         <v>591</v>
       </c>
@@ -24780,14 +24810,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/generateEXCEL/Data/Members/GroupRecord.xlsx
+++ b/generateEXCEL/Data/Members/GroupRecord.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hguan/Dropbox/Research/Coding/WeChatGroup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Huifeng\Dropbox\Research\Coding\WeChatGroup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8B74E8-4C68-F849-A87F-0AD3403E8C13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42040" yWindow="-1900" windowWidth="19000" windowHeight="14340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-42045" yWindow="-1905" windowWidth="19005" windowHeight="14340" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="1199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="1204">
   <si>
     <t>wisdompeak</t>
   </si>
@@ -4266,11 +4265,26 @@
   <si>
     <t>hssrut</t>
   </si>
+  <si>
+    <t>Alan L</t>
+  </si>
+  <si>
+    <t>alanlzl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xdcao0903@gmail.com </t>
+  </si>
+  <si>
+    <t>阿嗅</t>
+  </si>
+  <si>
+    <t>axiu777</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yyyy"/>
@@ -4502,7 +4516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4736,9 +4750,6 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4764,8 +4775,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5144,25 +5155,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K281"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F175" sqref="F175"/>
+    <sheetView topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G179" sqref="G179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="36.5" customWidth="1"/>
-    <col min="11" max="11" width="35.1640625" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" customWidth="1"/>
+    <col min="11" max="11" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6493,7 +6504,7 @@
         <v>212</v>
       </c>
       <c r="H63" s="7"/>
-      <c r="J63" s="100" t="s">
+      <c r="J63" s="99" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -7015,475 +7026,475 @@
       </c>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="B90" s="21" t="s">
-        <v>313</v>
+      <c r="A90" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B90" t="s">
+        <v>316</v>
       </c>
       <c r="C90" s="1">
-        <v>43839</v>
-      </c>
-      <c r="D90" s="1"/>
-      <c r="E90" s="7"/>
+        <v>43840</v>
+      </c>
       <c r="F90" s="15" t="s">
         <v>0</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="5" t="s">
-        <v>315</v>
+      <c r="A91" t="s">
+        <v>319</v>
       </c>
       <c r="B91" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C91" s="1">
-        <v>43840</v>
+        <v>43841</v>
       </c>
       <c r="F91" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="G91" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="J91" s="8" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>318</v>
+      <c r="A92" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B92" t="s">
+        <v>323</v>
       </c>
       <c r="C92" s="1">
-        <v>43840</v>
-      </c>
-      <c r="D92" s="1"/>
-      <c r="E92" s="7"/>
+        <v>43841</v>
+      </c>
       <c r="F92" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B93" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C93" s="1">
         <v>43841</v>
       </c>
-      <c r="F93" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J93" s="8" t="s">
-        <v>321</v>
+      <c r="F93" s="16" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="10" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B94" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C94" s="1">
-        <v>43841</v>
+        <v>43842</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B95" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C95" s="1">
-        <v>43841</v>
-      </c>
-      <c r="F95" s="16" t="s">
-        <v>207</v>
+        <v>43842</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J95" s="8" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="10" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B96" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C96" s="1">
-        <v>43842</v>
+        <v>43843</v>
       </c>
       <c r="F96" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" t="s">
-        <v>330</v>
+      <c r="A97" s="10" t="s">
+        <v>338</v>
       </c>
       <c r="B97" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C97" s="1">
-        <v>43842</v>
+        <v>43844</v>
       </c>
       <c r="F97" s="15" t="s">
         <v>0</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="B98" t="s">
-        <v>334</v>
+        <v>346</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>347</v>
       </c>
       <c r="C98" s="1">
-        <v>43843</v>
+        <v>43847</v>
       </c>
       <c r="F98" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="G98" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J98" s="8" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="10" t="s">
-        <v>338</v>
+      <c r="A99" t="s">
+        <v>349</v>
       </c>
       <c r="B99" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="C99" s="1">
-        <v>43844</v>
-      </c>
-      <c r="F99" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J99" s="8" t="s">
-        <v>340</v>
+        <v>43848</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="B100" s="18" t="s">
-        <v>345</v>
+      <c r="A100" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B100" t="s">
+        <v>352</v>
       </c>
       <c r="C100" s="1">
-        <v>43846</v>
-      </c>
-      <c r="D100" s="1"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="15" t="s">
-        <v>0</v>
+        <v>43848</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J100" s="94" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>347</v>
+        <v>354</v>
+      </c>
+      <c r="B101" t="s">
+        <v>355</v>
       </c>
       <c r="C101" s="1">
-        <v>43847</v>
+        <v>43850</v>
       </c>
       <c r="F101" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G101" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="J101" s="8" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" t="s">
-        <v>349</v>
+      <c r="A102" s="10" t="s">
+        <v>1094</v>
       </c>
       <c r="B102" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C102" s="1">
-        <v>43848</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>246</v>
+        <v>43852</v>
+      </c>
+      <c r="F102" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="J102" s="8" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="10" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B103" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C103" s="1">
-        <v>43848</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="J103" s="94" t="s">
-        <v>1109</v>
+        <v>43855</v>
+      </c>
+      <c r="F103" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="B104" t="s">
-        <v>355</v>
+      <c r="A104" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>363</v>
       </c>
       <c r="C104" s="1">
-        <v>43850</v>
-      </c>
-      <c r="F104" s="15" t="s">
+        <v>43856</v>
+      </c>
+      <c r="F104" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
-      <c r="A105" s="10" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B105" t="s">
-        <v>357</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="5" customFormat="1">
+      <c r="A105" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>366</v>
       </c>
       <c r="C105" s="1">
-        <v>43852</v>
-      </c>
-      <c r="F105" s="16" t="s">
-        <v>358</v>
-      </c>
+        <v>43857</v>
+      </c>
+      <c r="D105" s="1"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H105" s="7"/>
       <c r="J105" s="8" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="10" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B106" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C106" s="1">
-        <v>43855</v>
-      </c>
-      <c r="F106" s="16" t="s">
-        <v>163</v>
+        <v>43859</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>363</v>
+      <c r="A107" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B107" t="s">
+        <v>371</v>
       </c>
       <c r="C107" s="1">
-        <v>43856</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J107" s="8" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" s="5" customFormat="1">
-      <c r="A108" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="B108" s="21" t="s">
-        <v>366</v>
+        <v>43862</v>
+      </c>
+      <c r="F107" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J107" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B108" t="s">
+        <v>374</v>
       </c>
       <c r="C108" s="1">
-        <v>43857</v>
-      </c>
-      <c r="D108" s="1"/>
-      <c r="E108" s="7"/>
+        <v>43865</v>
+      </c>
       <c r="F108" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G108" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H108" s="7"/>
       <c r="J108" s="8" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="10" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B109" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C109" s="1">
-        <v>43859</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
-      <c r="A110" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="B110" t="s">
-        <v>371</v>
+        <v>43865</v>
+      </c>
+      <c r="F109" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="J109" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="14" customFormat="1">
+      <c r="A110" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>380</v>
       </c>
       <c r="C110" s="1">
-        <v>43862</v>
-      </c>
-      <c r="F110" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J110" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10">
-      <c r="A111" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="B111" t="s">
-        <v>374</v>
-      </c>
-      <c r="C111" s="1">
         <v>43865</v>
       </c>
-      <c r="F111" s="15" t="s">
-        <v>0</v>
-      </c>
+      <c r="D110" s="23"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+    </row>
+    <row r="111" spans="1:10" s="14" customFormat="1">
+      <c r="A111" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="C111" s="23">
+        <v>43866</v>
+      </c>
+      <c r="D111" s="25"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
       <c r="J111" s="8" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="10" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B112" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C112" s="1">
-        <v>43865</v>
+        <v>43867</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="J112" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" s="14" customFormat="1">
-      <c r="A113" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="B113" s="22" t="s">
-        <v>380</v>
+        <v>72</v>
+      </c>
+      <c r="J112" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B113" t="s">
+        <v>388</v>
       </c>
       <c r="C113" s="1">
-        <v>43865</v>
-      </c>
-      <c r="D113" s="23"/>
-      <c r="E113" s="17"/>
+        <v>43867</v>
+      </c>
       <c r="F113" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
-    </row>
-    <row r="114" spans="1:10" s="14" customFormat="1">
-      <c r="A114" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="C114" s="23">
-        <v>43866</v>
-      </c>
-      <c r="D114" s="25"/>
-      <c r="E114" s="24"/>
+      <c r="J113" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B114" t="s">
+        <v>391</v>
+      </c>
+      <c r="C114" s="1">
+        <v>43870</v>
+      </c>
       <c r="F114" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G114" s="17"/>
-      <c r="H114" s="17"/>
       <c r="J114" s="8" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" s="10" t="s">
-        <v>384</v>
+      <c r="A115" t="s">
+        <v>393</v>
       </c>
       <c r="B115" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C115" s="1">
-        <v>43867</v>
-      </c>
-      <c r="F115" s="16" t="s">
-        <v>72</v>
+        <v>43870</v>
+      </c>
+      <c r="F115" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>394</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="10" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="B116" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="C116" s="1">
-        <v>43867</v>
+        <v>43870</v>
       </c>
       <c r="F116" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J116" t="s">
-        <v>389</v>
+      <c r="J116" s="8" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="10" t="s">
-        <v>390</v>
+      <c r="A117" t="s">
+        <v>402</v>
       </c>
       <c r="B117" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="C117" s="1">
         <v>43870</v>
@@ -7491,16 +7502,13 @@
       <c r="F117" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J117" s="8" t="s">
-        <v>392</v>
-      </c>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" t="s">
-        <v>393</v>
+      <c r="A118" s="10" t="s">
+        <v>404</v>
       </c>
       <c r="B118" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C118" s="1">
         <v>43870</v>
@@ -7508,1082 +7516,990 @@
       <c r="F118" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="H118" s="4" t="s">
-        <v>394</v>
+      <c r="G118" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="J118" s="8" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="10" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="B119" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C119" s="1">
-        <v>43870</v>
+        <v>43875</v>
       </c>
       <c r="F119" s="24" t="s">
         <v>0</v>
       </c>
+      <c r="G119" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="J119" s="8" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B120" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C120" s="1">
-        <v>43870</v>
+        <v>43875</v>
       </c>
       <c r="F120" s="24" t="s">
         <v>0</v>
       </c>
+      <c r="J120" s="8" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="B121" t="s">
-        <v>405</v>
+      <c r="A121" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>412</v>
       </c>
       <c r="C121" s="1">
-        <v>43870</v>
-      </c>
-      <c r="F121" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>275</v>
+        <v>43876</v>
+      </c>
+      <c r="D121" s="1"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="J121" s="8" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="10" t="s">
-        <v>407</v>
+      <c r="A122" t="s">
+        <v>414</v>
       </c>
       <c r="B122" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C122" s="1">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="F122" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G122" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="J122" s="8" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B123" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C123" s="1">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="F123" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J123" s="8" t="s">
-        <v>411</v>
+      <c r="G123" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>412</v>
+      <c r="A124" t="s">
+        <v>419</v>
+      </c>
+      <c r="B124" t="s">
+        <v>420</v>
       </c>
       <c r="C124" s="1">
-        <v>43876</v>
-      </c>
-      <c r="D124" s="1"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>1</v>
+        <v>43878</v>
+      </c>
+      <c r="F124" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="J124" s="8" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" t="s">
-        <v>414</v>
+      <c r="A125" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="B125" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C125" s="1">
-        <v>43876</v>
-      </c>
-      <c r="F125" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="J125" s="8" t="s">
-        <v>416</v>
+        <v>43878</v>
+      </c>
+      <c r="F125" s="16" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B126" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C126" s="1">
-        <v>43876</v>
+        <v>43878</v>
       </c>
       <c r="F126" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G126" s="7" t="s">
+      <c r="J126" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C127" s="1">
+        <v>43879</v>
+      </c>
+      <c r="D127" s="1"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G127" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H126" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="A127" t="s">
-        <v>419</v>
-      </c>
-      <c r="B127" t="s">
-        <v>420</v>
-      </c>
-      <c r="C127" s="1">
-        <v>43878</v>
-      </c>
-      <c r="F127" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="J127" s="8" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="B128" t="s">
-        <v>423</v>
+      <c r="A128" t="s">
+        <v>429</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>430</v>
       </c>
       <c r="C128" s="1">
-        <v>43878</v>
-      </c>
-      <c r="F128" s="16" t="s">
-        <v>213</v>
+        <v>43883</v>
+      </c>
+      <c r="F128" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="J128" s="8" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>424</v>
-      </c>
-      <c r="B129" t="s">
-        <v>425</v>
+        <v>436</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="C129" s="1">
-        <v>43878</v>
-      </c>
-      <c r="F129" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="J129" t="s">
-        <v>426</v>
+        <v>43884</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>428</v>
+      <c r="A130" t="s">
+        <v>438</v>
+      </c>
+      <c r="B130" t="s">
+        <v>439</v>
       </c>
       <c r="C130" s="1">
-        <v>43879</v>
-      </c>
-      <c r="D130" s="1"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G130" s="7" t="s">
+        <v>43887</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G130" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="H130" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="J130" s="94" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="131" spans="1:10">
-      <c r="A131" t="s">
-        <v>429</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>430</v>
+      <c r="A131" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="B131" s="22" t="s">
+        <v>444</v>
       </c>
       <c r="C131" s="1">
-        <v>43883</v>
-      </c>
-      <c r="F131" s="26" t="s">
-        <v>222</v>
-      </c>
+        <v>43889</v>
+      </c>
+      <c r="D131" s="23"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G131" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H131" s="17"/>
       <c r="J131" s="8" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
     </row>
     <row r="132" spans="1:10">
-      <c r="A132" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>433</v>
+      <c r="A132" t="s">
+        <v>446</v>
+      </c>
+      <c r="B132" t="s">
+        <v>447</v>
       </c>
       <c r="C132" s="1">
-        <v>43883</v>
-      </c>
-      <c r="F132" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="J132" s="8" t="s">
-        <v>434</v>
+        <v>43896</v>
+      </c>
+      <c r="F132" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J132" s="94" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="133" spans="1:10">
-      <c r="A133" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>435</v>
+      <c r="A133" t="s">
+        <v>448</v>
+      </c>
+      <c r="B133" t="s">
+        <v>449</v>
       </c>
       <c r="C133" s="1">
-        <v>43884</v>
-      </c>
-      <c r="D133" s="1"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="16" t="s">
-        <v>145</v>
+        <v>43898</v>
+      </c>
+      <c r="F133" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J133" s="94" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>436</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>437</v>
+        <v>1087</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1088</v>
       </c>
       <c r="C134" s="1">
-        <v>43884</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>0</v>
+        <v>43899</v>
+      </c>
+      <c r="F134" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J134" s="94" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>438</v>
+        <v>1090</v>
       </c>
       <c r="B135" t="s">
-        <v>439</v>
+        <v>1089</v>
       </c>
       <c r="C135" s="1">
-        <v>43887</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>252</v>
+        <v>43899</v>
+      </c>
+      <c r="F135" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="J135" s="94" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="136" spans="1:10">
-      <c r="A136" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="B136" s="22" t="s">
-        <v>444</v>
+      <c r="A136" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1092</v>
       </c>
       <c r="C136" s="1">
-        <v>43889</v>
-      </c>
-      <c r="D136" s="23"/>
-      <c r="E136" s="17"/>
+        <v>43899</v>
+      </c>
       <c r="F136" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G136" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H136" s="17"/>
-      <c r="J136" s="8" t="s">
-        <v>445</v>
+      <c r="J136" s="94" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="137" spans="1:10">
-      <c r="A137" t="s">
-        <v>446</v>
-      </c>
-      <c r="B137" t="s">
-        <v>447</v>
-      </c>
-      <c r="C137" s="1">
-        <v>43896</v>
-      </c>
+      <c r="A137" s="13" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C137" s="23">
+        <v>43903</v>
+      </c>
+      <c r="D137" s="23"/>
+      <c r="E137" s="17"/>
       <c r="F137" s="17" t="s">
         <v>0</v>
-      </c>
-      <c r="J137" s="94" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>448</v>
+        <v>1095</v>
       </c>
       <c r="B138" t="s">
-        <v>449</v>
+        <v>1096</v>
       </c>
       <c r="C138" s="1">
-        <v>43898</v>
+        <v>43904</v>
       </c>
       <c r="F138" s="17" t="s">
         <v>0</v>
       </c>
       <c r="J138" s="94" t="s">
-        <v>1112</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>1087</v>
+        <v>1100</v>
       </c>
       <c r="B139" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C139" s="1">
-        <v>43899</v>
-      </c>
-      <c r="F139" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J139" s="94" t="s">
-        <v>1192</v>
+        <v>1124</v>
+      </c>
+      <c r="C139" s="96">
+        <v>43906</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>1090</v>
+        <v>1101</v>
       </c>
       <c r="B140" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C140" s="1">
-        <v>43899</v>
-      </c>
-      <c r="F140" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J140" s="94" t="s">
-        <v>1111</v>
+        <v>1102</v>
+      </c>
+      <c r="C140" s="96">
+        <v>43906</v>
+      </c>
+      <c r="F140" s="97" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>1091</v>
+        <v>1104</v>
       </c>
       <c r="B141" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C141" s="1">
-        <v>43899</v>
-      </c>
-      <c r="F141" s="17" t="s">
-        <v>0</v>
+        <v>1103</v>
+      </c>
+      <c r="C141" s="96">
+        <v>43906</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="J141" s="94" t="s">
-        <v>1110</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="142" spans="1:10">
-      <c r="A142" s="13" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B142" s="14" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C142" s="23">
-        <v>43903</v>
-      </c>
-      <c r="D142" s="23"/>
-      <c r="E142" s="17"/>
-      <c r="F142" s="17" t="s">
+      <c r="A142" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C142" s="96">
+        <v>43906</v>
+      </c>
+      <c r="F142" s="97" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>1095</v>
+        <v>1115</v>
       </c>
       <c r="B143" t="s">
-        <v>1096</v>
+        <v>1116</v>
       </c>
       <c r="C143" s="1">
-        <v>43904</v>
-      </c>
-      <c r="F143" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J143" s="94" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" s="95" customFormat="1">
-      <c r="A144" s="95" t="s">
-        <v>1060</v>
+        <v>43910</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="100" t="s">
+        <v>689</v>
       </c>
       <c r="B144" s="95" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C144" s="96">
-        <v>43906</v>
-      </c>
-      <c r="D144" s="97"/>
-      <c r="E144" s="98"/>
-      <c r="F144" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="G144" s="99"/>
-      <c r="H144" s="99"/>
-      <c r="J144" s="95" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+        <v>1024</v>
+      </c>
+      <c r="C144" s="1">
+        <v>43910</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>1098</v>
+        <v>1122</v>
       </c>
       <c r="B145" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C145" s="96">
-        <v>43906</v>
-      </c>
-      <c r="F145" s="98" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C145" s="1">
+        <v>43911</v>
+      </c>
+      <c r="F145" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J145" s="94" t="s">
-        <v>1120</v>
-      </c>
-      <c r="K145" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>1100</v>
+        <v>1126</v>
       </c>
       <c r="B146" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C146" s="96">
-        <v>43906</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+        <v>1127</v>
+      </c>
+      <c r="C146" s="1">
+        <v>43912</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J146" s="94" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>1101</v>
+        <v>1128</v>
       </c>
       <c r="B147" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C147" s="96">
-        <v>43906</v>
-      </c>
-      <c r="F147" s="98" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+        <v>1152</v>
+      </c>
+      <c r="C147" s="1">
+        <v>43912</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>1104</v>
+        <v>1130</v>
       </c>
       <c r="B148" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C148" s="96">
-        <v>43906</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>1101</v>
-      </c>
-      <c r="J148" s="94" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+        <v>1129</v>
+      </c>
+      <c r="C148" s="1">
+        <v>43913</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>1107</v>
+        <v>1132</v>
       </c>
       <c r="B149" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C149" s="96">
-        <v>43906</v>
-      </c>
-      <c r="F149" s="98" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
+        <v>1131</v>
+      </c>
+      <c r="C149" s="1">
+        <v>43913</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>1115</v>
+        <v>1133</v>
       </c>
       <c r="B150" t="s">
-        <v>1116</v>
+        <v>1133</v>
       </c>
       <c r="C150" s="1">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
-      <c r="A151" s="101" t="s">
-        <v>689</v>
-      </c>
-      <c r="B151" s="95" t="s">
-        <v>1024</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1137</v>
       </c>
       <c r="C151" s="1">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>1122</v>
+        <v>1136</v>
       </c>
       <c r="B152" t="s">
-        <v>1123</v>
+        <v>1135</v>
       </c>
       <c r="C152" s="1">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J152" s="94" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>1126</v>
+        <v>1138</v>
       </c>
       <c r="B153" t="s">
-        <v>1127</v>
+        <v>1139</v>
       </c>
       <c r="C153" s="1">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="J153" s="94" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>1128</v>
+        <v>1148</v>
       </c>
       <c r="B154" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="C154" s="1">
-        <v>43912</v>
+        <v>43918</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
-      <c r="A155" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B155" t="s">
-        <v>1129</v>
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" s="95" customFormat="1">
+      <c r="A155" s="101" t="s">
+        <v>187</v>
+      </c>
+      <c r="B155" s="102" t="s">
+        <v>188</v>
       </c>
       <c r="C155" s="1">
-        <v>43913</v>
-      </c>
+        <v>43918</v>
+      </c>
+      <c r="D155" s="96"/>
+      <c r="E155" s="98"/>
       <c r="F155" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:11">
-      <c r="A156" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B156" t="s">
-        <v>1131</v>
+      <c r="G155" s="98" t="s">
+        <v>189</v>
+      </c>
+      <c r="H155" s="98"/>
+      <c r="J155" s="95" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="B156" s="95" t="s">
+        <v>244</v>
       </c>
       <c r="C156" s="1">
-        <v>43913</v>
-      </c>
-      <c r="F156" s="4" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
+        <v>43918</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>1133</v>
+        <v>1153</v>
       </c>
       <c r="B157" t="s">
-        <v>1133</v>
+        <v>1153</v>
       </c>
       <c r="C157" s="1">
-        <v>43913</v>
+        <v>43918</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
-      <c r="A158" t="s">
-        <v>1134</v>
+    <row r="158" spans="1:10">
+      <c r="A158" s="101" t="s">
+        <v>1154</v>
       </c>
       <c r="B158" t="s">
-        <v>1137</v>
+        <v>1155</v>
       </c>
       <c r="C158" s="1">
-        <v>43913</v>
+        <v>43919</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>1136</v>
+        <v>1156</v>
       </c>
       <c r="B159" t="s">
-        <v>1135</v>
+        <v>1157</v>
       </c>
       <c r="C159" s="1">
-        <v>43913</v>
+        <v>43919</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J159" s="94" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160" t="s">
-        <v>1138</v>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" s="101" t="s">
+        <v>1158</v>
       </c>
       <c r="B160" t="s">
-        <v>1139</v>
+        <v>1159</v>
       </c>
       <c r="C160" s="1">
-        <v>43914</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>0</v>
+        <v>43920</v>
+      </c>
+      <c r="F160" s="26" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>1148</v>
+        <v>1163</v>
       </c>
       <c r="B161" t="s">
-        <v>1147</v>
+        <v>1162</v>
       </c>
       <c r="C161" s="1">
-        <v>43918</v>
+        <v>43921</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" s="95" customFormat="1">
-      <c r="A162" s="102" t="s">
-        <v>187</v>
-      </c>
-      <c r="B162" s="103" t="s">
-        <v>188</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" s="22" t="s">
+        <v>955</v>
+      </c>
+      <c r="B162" s="22" t="s">
+        <v>955</v>
       </c>
       <c r="C162" s="1">
-        <v>43918</v>
-      </c>
-      <c r="D162" s="96"/>
-      <c r="E162" s="99"/>
+        <v>43921</v>
+      </c>
       <c r="F162" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G162" s="99" t="s">
-        <v>189</v>
-      </c>
-      <c r="H162" s="99"/>
-      <c r="J162" s="95" t="s">
-        <v>190</v>
-      </c>
     </row>
     <row r="163" spans="1:10">
-      <c r="A163" s="102" t="s">
-        <v>243</v>
-      </c>
-      <c r="B163" s="95" t="s">
-        <v>244</v>
-      </c>
-      <c r="C163" s="1">
-        <v>43918</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>0</v>
+      <c r="A163" s="103" t="s">
+        <v>845</v>
+      </c>
+      <c r="B163" s="104" t="s">
+        <v>846</v>
+      </c>
+      <c r="C163" s="96">
+        <v>43922</v>
+      </c>
+      <c r="D163" s="96"/>
+      <c r="E163" s="98"/>
+      <c r="F163" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="G163" s="98" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>1153</v>
+        <v>1190</v>
       </c>
       <c r="B164" t="s">
-        <v>1153</v>
+        <v>1191</v>
       </c>
       <c r="C164" s="1">
-        <v>43918</v>
+        <v>43924</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="165" spans="1:10">
-      <c r="A165" s="102" t="s">
-        <v>1154</v>
+      <c r="A165" t="s">
+        <v>1194</v>
       </c>
       <c r="B165" t="s">
-        <v>1155</v>
+        <v>1193</v>
       </c>
       <c r="C165" s="1">
-        <v>43919</v>
+        <v>43926</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>0</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="166" spans="1:10">
-      <c r="A166" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B166" t="s">
-        <v>1157</v>
+      <c r="A166" s="95" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B166" s="95" t="s">
+        <v>1052</v>
       </c>
       <c r="C166" s="1">
-        <v>43919</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>0</v>
+        <v>43927</v>
+      </c>
+      <c r="F166" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J166" s="94" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="167" spans="1:10">
-      <c r="A167" s="102" t="s">
-        <v>1158</v>
+      <c r="A167" t="s">
+        <v>1197</v>
       </c>
       <c r="B167" t="s">
-        <v>1159</v>
+        <v>1196</v>
       </c>
       <c r="C167" s="1">
-        <v>43920</v>
-      </c>
-      <c r="F167" s="26" t="s">
-        <v>384</v>
+        <v>43929</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="168" spans="1:10">
       <c r="A168" t="s">
-        <v>1163</v>
+        <v>690</v>
       </c>
       <c r="B168" t="s">
-        <v>1162</v>
+        <v>1198</v>
       </c>
       <c r="C168" s="1">
-        <v>43921</v>
-      </c>
-      <c r="F168" s="3" t="s">
+        <v>43929</v>
+      </c>
+      <c r="F168" s="97" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:10">
-      <c r="A169" s="22" t="s">
-        <v>955</v>
-      </c>
-      <c r="B169" s="22" t="s">
-        <v>955</v>
+      <c r="A169" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1200</v>
       </c>
       <c r="C169" s="1">
-        <v>43921</v>
-      </c>
-      <c r="F169" s="3" t="s">
+        <v>43930</v>
+      </c>
+      <c r="F169" s="97" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:10">
-      <c r="A170" s="104" t="s">
-        <v>845</v>
-      </c>
-      <c r="B170" s="105" t="s">
-        <v>846</v>
-      </c>
-      <c r="C170" s="96">
-        <v>43922</v>
-      </c>
-      <c r="D170" s="96"/>
-      <c r="E170" s="99"/>
-      <c r="F170" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="G170" s="99" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10">
-      <c r="A171" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B171" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C171" s="1">
-        <v>43924</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10">
-      <c r="A172" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B172" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C172" s="1">
-        <v>43926</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10">
-      <c r="A173" s="95" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B173" s="95" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C173" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F173" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="G173" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10">
-      <c r="A174" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B174" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C174" s="1">
-        <v>43929</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G174" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10">
-      <c r="A175" t="s">
-        <v>690</v>
-      </c>
-      <c r="B175" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C175" s="1">
-        <v>43929</v>
-      </c>
-      <c r="F175" s="98" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" ht="14.75" customHeight="1"/>
+      <c r="A170" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C170" s="1">
+        <v>43930</v>
+      </c>
+      <c r="F170" s="97" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="274" ht="14.85" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J26" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J28" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J29" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J30" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J31" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="J32" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="J36" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="J38" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J39" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J41" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J42" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J44" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="J45" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J46" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J48" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="J49" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="J50" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="J51" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="J52" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="J53" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="J54" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="K54" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="J55" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="J57" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="J58" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="J59" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="J61" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J62" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="J63" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J64" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J65" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="J66" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="J68" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="J69" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="J70" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="J71" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="J72" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="J74" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="J75" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="J76" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="J78" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="J79" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="J80" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="J83" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="J85" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="J87" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="J88" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="J89" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="J90" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="J91" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="J93" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="J97" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="J99" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="J101" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="J104" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="J105" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="J107" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="J108" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="J110" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="J111" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="J112" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="J114" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="J115" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="J116" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="J117" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="J118" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="J121" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="J122" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="J123" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="J124" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="J125" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="J127" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="J129" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="J131" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="J132" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="J136" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="J47" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="J103" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="J141" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="J140" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="J138" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="J135" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="J143" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="J148" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="J145" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="J153" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="J137" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="J152" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="J159" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="J162" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="J139" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="J1" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="J4" r:id="rId3"/>
+    <hyperlink ref="J5" r:id="rId4"/>
+    <hyperlink ref="J6" r:id="rId5"/>
+    <hyperlink ref="J7" r:id="rId6"/>
+    <hyperlink ref="J9" r:id="rId7"/>
+    <hyperlink ref="J10" r:id="rId8"/>
+    <hyperlink ref="J11" r:id="rId9"/>
+    <hyperlink ref="J12" r:id="rId10"/>
+    <hyperlink ref="J17" r:id="rId11"/>
+    <hyperlink ref="J20" r:id="rId12"/>
+    <hyperlink ref="J21" r:id="rId13"/>
+    <hyperlink ref="J22" r:id="rId14"/>
+    <hyperlink ref="J23" r:id="rId15"/>
+    <hyperlink ref="J26" r:id="rId16"/>
+    <hyperlink ref="J28" r:id="rId17"/>
+    <hyperlink ref="J29" r:id="rId18"/>
+    <hyperlink ref="J30" r:id="rId19"/>
+    <hyperlink ref="J31" r:id="rId20"/>
+    <hyperlink ref="J32" r:id="rId21"/>
+    <hyperlink ref="J36" r:id="rId22"/>
+    <hyperlink ref="J38" r:id="rId23"/>
+    <hyperlink ref="J39" r:id="rId24"/>
+    <hyperlink ref="J41" r:id="rId25"/>
+    <hyperlink ref="J42" r:id="rId26"/>
+    <hyperlink ref="J44" r:id="rId27"/>
+    <hyperlink ref="J45" r:id="rId28"/>
+    <hyperlink ref="J46" r:id="rId29"/>
+    <hyperlink ref="J48" r:id="rId30"/>
+    <hyperlink ref="J49" r:id="rId31"/>
+    <hyperlink ref="J50" r:id="rId32"/>
+    <hyperlink ref="J51" r:id="rId33"/>
+    <hyperlink ref="J52" r:id="rId34"/>
+    <hyperlink ref="J53" r:id="rId35"/>
+    <hyperlink ref="J54" r:id="rId36"/>
+    <hyperlink ref="K54" r:id="rId37"/>
+    <hyperlink ref="J55" r:id="rId38"/>
+    <hyperlink ref="J57" r:id="rId39"/>
+    <hyperlink ref="J58" r:id="rId40"/>
+    <hyperlink ref="J59" r:id="rId41"/>
+    <hyperlink ref="J61" r:id="rId42"/>
+    <hyperlink ref="J62" r:id="rId43"/>
+    <hyperlink ref="J63" r:id="rId44"/>
+    <hyperlink ref="J64" r:id="rId45"/>
+    <hyperlink ref="J65" r:id="rId46"/>
+    <hyperlink ref="J66" r:id="rId47"/>
+    <hyperlink ref="J68" r:id="rId48"/>
+    <hyperlink ref="J69" r:id="rId49"/>
+    <hyperlink ref="J70" r:id="rId50"/>
+    <hyperlink ref="J71" r:id="rId51"/>
+    <hyperlink ref="J72" r:id="rId52"/>
+    <hyperlink ref="J74" r:id="rId53"/>
+    <hyperlink ref="J75" r:id="rId54"/>
+    <hyperlink ref="J76" r:id="rId55"/>
+    <hyperlink ref="J78" r:id="rId56"/>
+    <hyperlink ref="J79" r:id="rId57"/>
+    <hyperlink ref="J80" r:id="rId58"/>
+    <hyperlink ref="J83" r:id="rId59"/>
+    <hyperlink ref="J85" r:id="rId60"/>
+    <hyperlink ref="J87" r:id="rId61"/>
+    <hyperlink ref="J88" r:id="rId62"/>
+    <hyperlink ref="J89" r:id="rId63"/>
+    <hyperlink ref="J90" r:id="rId64"/>
+    <hyperlink ref="J91" r:id="rId65"/>
+    <hyperlink ref="J95" r:id="rId66"/>
+    <hyperlink ref="J97" r:id="rId67"/>
+    <hyperlink ref="J98" r:id="rId68"/>
+    <hyperlink ref="J101" r:id="rId69"/>
+    <hyperlink ref="J102" r:id="rId70"/>
+    <hyperlink ref="J104" r:id="rId71"/>
+    <hyperlink ref="J105" r:id="rId72"/>
+    <hyperlink ref="J107" r:id="rId73"/>
+    <hyperlink ref="J108" r:id="rId74"/>
+    <hyperlink ref="J109" r:id="rId75"/>
+    <hyperlink ref="J111" r:id="rId76"/>
+    <hyperlink ref="J112" r:id="rId77"/>
+    <hyperlink ref="J113" r:id="rId78"/>
+    <hyperlink ref="J114" r:id="rId79"/>
+    <hyperlink ref="J115" r:id="rId80"/>
+    <hyperlink ref="J118" r:id="rId81"/>
+    <hyperlink ref="J119" r:id="rId82"/>
+    <hyperlink ref="J120" r:id="rId83"/>
+    <hyperlink ref="J121" r:id="rId84"/>
+    <hyperlink ref="J122" r:id="rId85"/>
+    <hyperlink ref="J124" r:id="rId86"/>
+    <hyperlink ref="J126" r:id="rId87"/>
+    <hyperlink ref="J128" r:id="rId88"/>
+    <hyperlink ref="J131" r:id="rId89"/>
+    <hyperlink ref="J47" r:id="rId90"/>
+    <hyperlink ref="J100" r:id="rId91"/>
+    <hyperlink ref="J136" r:id="rId92"/>
+    <hyperlink ref="J135" r:id="rId93"/>
+    <hyperlink ref="J133" r:id="rId94"/>
+    <hyperlink ref="J130" r:id="rId95"/>
+    <hyperlink ref="J138" r:id="rId96"/>
+    <hyperlink ref="J141" r:id="rId97"/>
+    <hyperlink ref="J146" r:id="rId98"/>
+    <hyperlink ref="J132" r:id="rId99"/>
+    <hyperlink ref="J145" r:id="rId100"/>
+    <hyperlink ref="J152" r:id="rId101"/>
+    <hyperlink ref="J155" r:id="rId102"/>
+    <hyperlink ref="J134" r:id="rId103"/>
+    <hyperlink ref="J153" r:id="rId104"/>
+    <hyperlink ref="J166" r:id="rId105"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId107"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId106"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J376"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K383"/>
   <sheetViews>
-    <sheetView topLeftCell="B364" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B376" sqref="A376:XFD376"/>
+    <sheetView tabSelected="1" topLeftCell="A307" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H327" sqref="H327"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" style="27" customWidth="1"/>
-    <col min="3" max="4" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1"/>
-    <col min="8" max="8" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="27" customWidth="1"/>
+    <col min="3" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -16866,8 +16782,12 @@
       <c r="F326" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G326" s="34"/>
-      <c r="H326" s="34"/>
+      <c r="G326" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H326" s="34" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="327" spans="1:10" s="5" customFormat="1">
       <c r="A327" s="45" t="s">
@@ -17928,7 +17848,7 @@
       <c r="G368" s="34"/>
       <c r="H368" s="34"/>
     </row>
-    <row r="369" spans="1:10" s="33" customFormat="1">
+    <row r="369" spans="1:11" s="33" customFormat="1">
       <c r="A369" s="33" t="s">
         <v>170</v>
       </c>
@@ -17942,7 +17862,7 @@
         <v>43925</v>
       </c>
       <c r="E369" s="34">
-        <f t="shared" ref="E369:E376" si="7">D369-C369</f>
+        <f t="shared" ref="E369:E383" si="7">D369-C369</f>
         <v>223</v>
       </c>
       <c r="F369" s="32" t="s">
@@ -17954,7 +17874,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="370" spans="1:10" s="33" customFormat="1">
+    <row r="370" spans="1:11" s="33" customFormat="1">
       <c r="A370" s="33" t="s">
         <v>268</v>
       </c>
@@ -17979,7 +17899,7 @@
       </c>
       <c r="H370" s="34"/>
     </row>
-    <row r="371" spans="1:10" s="33" customFormat="1">
+    <row r="371" spans="1:11" s="33" customFormat="1">
       <c r="A371" s="33" t="s">
         <v>50</v>
       </c>
@@ -18007,7 +17927,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="372" spans="1:10">
+    <row r="372" spans="1:11">
       <c r="A372" s="33" t="s">
         <v>1140</v>
       </c>
@@ -18033,7 +17953,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="373" spans="1:10" s="33" customFormat="1">
+    <row r="373" spans="1:11" s="33" customFormat="1">
       <c r="A373" s="33" t="s">
         <v>1188</v>
       </c>
@@ -18056,7 +17976,7 @@
       <c r="G373" s="34"/>
       <c r="H373" s="34"/>
     </row>
-    <row r="374" spans="1:10" s="33" customFormat="1">
+    <row r="374" spans="1:11" s="33" customFormat="1">
       <c r="A374" s="33" t="s">
         <v>1151</v>
       </c>
@@ -18079,7 +17999,7 @@
       <c r="G374" s="34"/>
       <c r="H374" s="34"/>
     </row>
-    <row r="375" spans="1:10" s="33" customFormat="1">
+    <row r="375" spans="1:11" s="33" customFormat="1">
       <c r="A375" s="33" t="s">
         <v>1106</v>
       </c>
@@ -18103,11 +18023,11 @@
         <v>45</v>
       </c>
       <c r="H375" s="34"/>
-      <c r="J375" s="108" t="s">
+      <c r="J375" s="107" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="376" spans="1:10" s="33" customFormat="1">
+    <row r="376" spans="1:11" s="33" customFormat="1">
       <c r="A376" s="45" t="s">
         <v>270</v>
       </c>
@@ -18132,49 +18052,232 @@
       </c>
       <c r="H376" s="34"/>
     </row>
+    <row r="377" spans="1:11" s="33" customFormat="1">
+      <c r="A377" s="45" t="s">
+        <v>435</v>
+      </c>
+      <c r="B377" s="45" t="s">
+        <v>435</v>
+      </c>
+      <c r="C377" s="30">
+        <v>43884</v>
+      </c>
+      <c r="D377" s="30">
+        <v>43932</v>
+      </c>
+      <c r="E377" s="34">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="F377" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="G377" s="34"/>
+      <c r="H377" s="34"/>
+    </row>
+    <row r="378" spans="1:11" s="33" customFormat="1">
+      <c r="A378" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="B378" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="C378" s="30">
+        <v>43883</v>
+      </c>
+      <c r="D378" s="30">
+        <v>43932</v>
+      </c>
+      <c r="E378" s="34">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="F378" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="G378" s="34"/>
+      <c r="H378" s="34"/>
+      <c r="J378" s="46" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" s="33" customFormat="1">
+      <c r="A379" s="33" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B379" s="33" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C379" s="30">
+        <v>43906</v>
+      </c>
+      <c r="D379" s="30">
+        <v>43932</v>
+      </c>
+      <c r="E379" s="34">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="F379" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G379" s="34"/>
+      <c r="H379" s="34"/>
+      <c r="J379" s="33" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" s="33" customFormat="1">
+      <c r="A380" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B380" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="C380" s="30">
+        <v>43840</v>
+      </c>
+      <c r="D380" s="30">
+        <v>43932</v>
+      </c>
+      <c r="E380" s="34">
+        <f t="shared" si="7"/>
+        <v>92</v>
+      </c>
+      <c r="F380" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G380" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="H380" s="34"/>
+    </row>
+    <row r="381" spans="1:11" s="33" customFormat="1">
+      <c r="A381" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="B381" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="C381" s="30">
+        <v>43839</v>
+      </c>
+      <c r="D381" s="30">
+        <v>43932</v>
+      </c>
+      <c r="E381" s="34">
+        <f t="shared" si="7"/>
+        <v>93</v>
+      </c>
+      <c r="F381" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G381" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="H381" s="34"/>
+      <c r="J381" s="46" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" s="33" customFormat="1">
+      <c r="A382" s="33" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B382" s="33" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C382" s="30">
+        <v>43906</v>
+      </c>
+      <c r="D382" s="30">
+        <v>43932</v>
+      </c>
+      <c r="E382" s="34">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="F382" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G382" s="34"/>
+      <c r="H382" s="34"/>
+      <c r="J382" s="107" t="s">
+        <v>1120</v>
+      </c>
+      <c r="K382" s="33" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" s="33" customFormat="1">
+      <c r="A383" s="50" t="s">
+        <v>344</v>
+      </c>
+      <c r="B383" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="C383" s="30">
+        <v>43846</v>
+      </c>
+      <c r="D383" s="30">
+        <v>43932</v>
+      </c>
+      <c r="E383" s="34">
+        <f t="shared" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="F383" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G383" s="34"/>
+      <c r="H383" s="34"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J55" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="J64" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="J68" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="J70" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="J78" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="J80" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="J99" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="J111" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="J119" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="J140" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="J158" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="J203" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="J220" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="J275" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="J318" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="J319" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="J330" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="J336" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="J343" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="J344" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="J351" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="J353" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="J352" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="J354" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="J355" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="J356" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="J359" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="J360" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="J361" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="J362" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="J363" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="J364" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="J366" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="J367" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="J369" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="J371" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="J372" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="J375" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="J55" r:id="rId1"/>
+    <hyperlink ref="J64" r:id="rId2"/>
+    <hyperlink ref="J68" r:id="rId3"/>
+    <hyperlink ref="J70" r:id="rId4"/>
+    <hyperlink ref="J78" r:id="rId5"/>
+    <hyperlink ref="J80" r:id="rId6"/>
+    <hyperlink ref="J99" r:id="rId7"/>
+    <hyperlink ref="J111" r:id="rId8"/>
+    <hyperlink ref="J119" r:id="rId9"/>
+    <hyperlink ref="J140" r:id="rId10"/>
+    <hyperlink ref="J158" r:id="rId11"/>
+    <hyperlink ref="J203" r:id="rId12"/>
+    <hyperlink ref="J220" r:id="rId13"/>
+    <hyperlink ref="J275" r:id="rId14"/>
+    <hyperlink ref="J318" r:id="rId15"/>
+    <hyperlink ref="J319" r:id="rId16"/>
+    <hyperlink ref="J330" r:id="rId17"/>
+    <hyperlink ref="J336" r:id="rId18"/>
+    <hyperlink ref="J343" r:id="rId19"/>
+    <hyperlink ref="J344" r:id="rId20"/>
+    <hyperlink ref="J351" r:id="rId21"/>
+    <hyperlink ref="J353" r:id="rId22"/>
+    <hyperlink ref="J352" r:id="rId23"/>
+    <hyperlink ref="J354" r:id="rId24"/>
+    <hyperlink ref="J355" r:id="rId25"/>
+    <hyperlink ref="J356" r:id="rId26"/>
+    <hyperlink ref="J359" r:id="rId27"/>
+    <hyperlink ref="J360" r:id="rId28"/>
+    <hyperlink ref="J361" r:id="rId29"/>
+    <hyperlink ref="J362" r:id="rId30"/>
+    <hyperlink ref="J363" r:id="rId31"/>
+    <hyperlink ref="J364" r:id="rId32"/>
+    <hyperlink ref="J366" r:id="rId33"/>
+    <hyperlink ref="J367" r:id="rId34"/>
+    <hyperlink ref="J369" r:id="rId35"/>
+    <hyperlink ref="J371" r:id="rId36"/>
+    <hyperlink ref="J372" r:id="rId37"/>
+    <hyperlink ref="J375" r:id="rId38"/>
+    <hyperlink ref="J378" r:id="rId39"/>
+    <hyperlink ref="J381" r:id="rId40"/>
+    <hyperlink ref="J382" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId39"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId42"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -18183,14 +18286,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -18198,35 +18301,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z119"/>
   <sheetViews>
     <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="3" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="4"/>
-    <col min="10" max="10" width="9.83203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="4"/>
-    <col min="12" max="15" width="8.6640625" style="3"/>
-    <col min="16" max="16" width="8.6640625" style="4"/>
-    <col min="17" max="17" width="9.1640625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" style="4"/>
-    <col min="19" max="19" width="9.1640625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" style="4"/>
-    <col min="21" max="21" width="9.1640625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" style="3"/>
-    <col min="23" max="23" width="8.83203125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="8.83203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="4"/>
+    <col min="10" max="10" width="9.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="4"/>
+    <col min="12" max="15" width="8.7109375" style="3"/>
+    <col min="16" max="16" width="8.7109375" style="4"/>
+    <col min="17" max="17" width="9.140625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" style="4"/>
+    <col min="19" max="19" width="9.140625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="4"/>
+    <col min="21" max="21" width="9.140625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" style="3"/>
+    <col min="23" max="23" width="8.85546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -20024,7 +20127,7 @@
         <v>65.686101520780824</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="16">
+    <row r="26" spans="1:25">
       <c r="A26" s="85" t="s">
         <v>590</v>
       </c>
@@ -25285,17 +25388,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" style="3" customWidth="1"/>
-    <col min="2" max="6" width="11.5" style="3"/>
+    <col min="2" max="6" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1">
@@ -25319,16 +25422,16 @@
       <c r="B2" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="C2" s="106">
+      <c r="C2" s="105">
         <v>43923</v>
       </c>
-      <c r="D2" s="107">
+      <c r="D2" s="106">
         <v>0.49236111111111108</v>
       </c>
-      <c r="E2" s="107">
+      <c r="E2" s="106">
         <v>0.60902777777777783</v>
       </c>
-      <c r="F2" s="107">
+      <c r="F2" s="106">
         <f>E2-D2</f>
         <v>0.11666666666666675</v>
       </c>
@@ -25340,16 +25443,16 @@
       <c r="B3" s="3" t="s">
         <v>1165</v>
       </c>
-      <c r="C3" s="106">
+      <c r="C3" s="105">
         <v>43923</v>
       </c>
-      <c r="D3" s="107">
+      <c r="D3" s="106">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="E3" s="107">
+      <c r="E3" s="106">
         <v>0.2902777777777778</v>
       </c>
-      <c r="F3" s="107">
+      <c r="F3" s="106">
         <f>E3-D3</f>
         <v>0.27083333333333337</v>
       </c>
@@ -25361,16 +25464,16 @@
       <c r="B4" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="C4" s="106">
+      <c r="C4" s="105">
         <v>43922</v>
       </c>
-      <c r="D4" s="107">
+      <c r="D4" s="106">
         <v>0.83888888888888891</v>
       </c>
-      <c r="E4" s="107">
+      <c r="E4" s="106">
         <v>0.8618055555555556</v>
       </c>
-      <c r="F4" s="107">
+      <c r="F4" s="106">
         <f t="shared" ref="F4:F5" si="0">E4-D4</f>
         <v>2.2916666666666696E-2</v>
       </c>
@@ -25382,16 +25485,16 @@
       <c r="B5" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="C5" s="106">
+      <c r="C5" s="105">
         <v>43922</v>
       </c>
-      <c r="D5" s="107">
+      <c r="D5" s="106">
         <v>0.85972222222222217</v>
       </c>
-      <c r="E5" s="107">
+      <c r="E5" s="106">
         <v>0.92499999999999993</v>
       </c>
-      <c r="F5" s="107">
+      <c r="F5" s="106">
         <f t="shared" si="0"/>
         <v>6.5277777777777768E-2</v>
       </c>
@@ -25403,16 +25506,16 @@
       <c r="B6" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="C6" s="106">
+      <c r="C6" s="105">
         <v>43922</v>
       </c>
-      <c r="D6" s="107">
+      <c r="D6" s="106">
         <v>0.71458333333333324</v>
       </c>
-      <c r="E6" s="107">
+      <c r="E6" s="106">
         <v>0.75694444444444453</v>
       </c>
-      <c r="F6" s="107">
+      <c r="F6" s="106">
         <f>E6-D6</f>
         <v>4.2361111111111294E-2</v>
       </c>
@@ -25424,16 +25527,16 @@
       <c r="B7" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="C7" s="106">
+      <c r="C7" s="105">
         <v>43922</v>
       </c>
-      <c r="D7" s="107">
+      <c r="D7" s="106">
         <v>0.56041666666666667</v>
       </c>
-      <c r="E7" s="107">
+      <c r="E7" s="106">
         <v>0.66736111111111107</v>
       </c>
-      <c r="F7" s="107">
+      <c r="F7" s="106">
         <f>E7-D7</f>
         <v>0.1069444444444444</v>
       </c>
@@ -25445,16 +25548,16 @@
       <c r="B8" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="C8" s="106">
+      <c r="C8" s="105">
         <v>43922</v>
       </c>
-      <c r="D8" s="107">
+      <c r="D8" s="106">
         <v>0.49236111111111108</v>
       </c>
-      <c r="E8" s="107">
+      <c r="E8" s="106">
         <v>0.64374999999999993</v>
       </c>
-      <c r="F8" s="107">
+      <c r="F8" s="106">
         <f>E8-D8</f>
         <v>0.15138888888888885</v>
       </c>
@@ -25466,16 +25569,16 @@
       <c r="B9" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="C9" s="106">
+      <c r="C9" s="105">
         <v>43921</v>
       </c>
-      <c r="D9" s="107">
+      <c r="D9" s="106">
         <v>0.86944444444444446</v>
       </c>
-      <c r="E9" s="107">
+      <c r="E9" s="106">
         <v>0.89722222222222225</v>
       </c>
-      <c r="F9" s="107">
+      <c r="F9" s="106">
         <f>E9-D9</f>
         <v>2.777777777777779E-2</v>
       </c>
@@ -25487,16 +25590,16 @@
       <c r="B10" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="C10" s="106">
+      <c r="C10" s="105">
         <v>43921</v>
       </c>
-      <c r="D10" s="107">
+      <c r="D10" s="106">
         <v>0.76736111111111116</v>
       </c>
-      <c r="E10" s="107">
+      <c r="E10" s="106">
         <v>0.83194444444444438</v>
       </c>
-      <c r="F10" s="107">
+      <c r="F10" s="106">
         <f t="shared" ref="F10:F53" si="1">E10-D10</f>
         <v>6.4583333333333215E-2</v>
       </c>
@@ -25508,16 +25611,16 @@
       <c r="B11" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="C11" s="106">
+      <c r="C11" s="105">
         <v>43921</v>
       </c>
-      <c r="D11" s="107">
+      <c r="D11" s="106">
         <v>0.67222222222222217</v>
       </c>
-      <c r="E11" s="107">
+      <c r="E11" s="106">
         <v>0.72083333333333333</v>
       </c>
-      <c r="F11" s="107">
+      <c r="F11" s="106">
         <f t="shared" si="1"/>
         <v>4.861111111111116E-2</v>
       </c>
@@ -25529,16 +25632,16 @@
       <c r="B12" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="C12" s="106">
+      <c r="C12" s="105">
         <v>43921</v>
       </c>
-      <c r="D12" s="107">
+      <c r="D12" s="106">
         <v>0.5756944444444444</v>
       </c>
-      <c r="E12" s="107">
+      <c r="E12" s="106">
         <v>0.67291666666666661</v>
       </c>
-      <c r="F12" s="107">
+      <c r="F12" s="106">
         <f t="shared" si="1"/>
         <v>9.722222222222221E-2</v>
       </c>
@@ -25550,16 +25653,16 @@
       <c r="B13" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="C13" s="106">
+      <c r="C13" s="105">
         <v>43921</v>
       </c>
-      <c r="D13" s="107">
+      <c r="D13" s="106">
         <v>0.4861111111111111</v>
       </c>
-      <c r="E13" s="107">
+      <c r="E13" s="106">
         <v>0.57013888888888886</v>
       </c>
-      <c r="F13" s="107">
+      <c r="F13" s="106">
         <f t="shared" si="1"/>
         <v>8.4027777777777757E-2</v>
       </c>
@@ -25571,16 +25674,16 @@
       <c r="B14" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="C14" s="106">
+      <c r="C14" s="105">
         <v>43921</v>
       </c>
-      <c r="D14" s="107">
+      <c r="D14" s="106">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="E14" s="107">
+      <c r="E14" s="106">
         <v>0.24166666666666667</v>
       </c>
-      <c r="F14" s="107">
+      <c r="F14" s="106">
         <f t="shared" si="1"/>
         <v>0.2388888888888889</v>
       </c>
@@ -25592,16 +25695,16 @@
       <c r="B15" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="C15" s="106">
+      <c r="C15" s="105">
         <v>43920</v>
       </c>
-      <c r="D15" s="107">
+      <c r="D15" s="106">
         <v>0.84583333333333333</v>
       </c>
-      <c r="E15" s="107">
+      <c r="E15" s="106">
         <v>0.86805555555555547</v>
       </c>
-      <c r="F15" s="107">
+      <c r="F15" s="106">
         <f t="shared" si="1"/>
         <v>2.2222222222222143E-2</v>
       </c>
@@ -25613,16 +25716,16 @@
       <c r="B16" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="C16" s="106">
+      <c r="C16" s="105">
         <v>43920</v>
       </c>
-      <c r="D16" s="107">
+      <c r="D16" s="106">
         <v>0.63263888888888886</v>
       </c>
-      <c r="E16" s="107">
+      <c r="E16" s="106">
         <v>0.71111111111111114</v>
       </c>
-      <c r="F16" s="107">
+      <c r="F16" s="106">
         <f t="shared" si="1"/>
         <v>7.8472222222222276E-2</v>
       </c>
@@ -25634,16 +25737,16 @@
       <c r="B17" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="C17" s="106">
+      <c r="C17" s="105">
         <v>43920</v>
       </c>
-      <c r="D17" s="107">
+      <c r="D17" s="106">
         <v>0.55972222222222223</v>
       </c>
-      <c r="E17" s="107">
+      <c r="E17" s="106">
         <v>0.68263888888888891</v>
       </c>
-      <c r="F17" s="107">
+      <c r="F17" s="106">
         <f t="shared" si="1"/>
         <v>0.12291666666666667</v>
       </c>
@@ -25655,16 +25758,16 @@
       <c r="B18" s="3" t="s">
         <v>1177</v>
       </c>
-      <c r="C18" s="106">
+      <c r="C18" s="105">
         <v>43920</v>
       </c>
-      <c r="D18" s="107">
+      <c r="D18" s="106">
         <v>0.46180555555555558</v>
       </c>
-      <c r="E18" s="107">
+      <c r="E18" s="106">
         <v>0.59791666666666665</v>
       </c>
-      <c r="F18" s="107">
+      <c r="F18" s="106">
         <f t="shared" si="1"/>
         <v>0.13611111111111107</v>
       </c>
@@ -25676,16 +25779,16 @@
       <c r="B19" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="C19" s="106">
+      <c r="C19" s="105">
         <v>43920</v>
       </c>
-      <c r="D19" s="107">
+      <c r="D19" s="106">
         <v>3.888888888888889E-2</v>
       </c>
-      <c r="E19" s="107">
+      <c r="E19" s="106">
         <v>0.25486111111111109</v>
       </c>
-      <c r="F19" s="107">
+      <c r="F19" s="106">
         <f t="shared" si="1"/>
         <v>0.2159722222222222</v>
       </c>
@@ -25697,16 +25800,16 @@
       <c r="B20" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="C20" s="106">
+      <c r="C20" s="105">
         <v>43919</v>
       </c>
-      <c r="D20" s="107">
+      <c r="D20" s="106">
         <v>0.98333333333333339</v>
       </c>
-      <c r="E20" s="107">
+      <c r="E20" s="106">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F20" s="107">
+      <c r="F20" s="106">
         <f>E20-D20+24</f>
         <v>23.058333333333334</v>
       </c>
@@ -25718,16 +25821,16 @@
       <c r="B21" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="C21" s="106">
+      <c r="C21" s="105">
         <v>43919</v>
       </c>
-      <c r="D21" s="107">
+      <c r="D21" s="106">
         <v>0.92152777777777783</v>
       </c>
-      <c r="E21" s="107">
+      <c r="E21" s="106">
         <v>0.9506944444444444</v>
       </c>
-      <c r="F21" s="107">
+      <c r="F21" s="106">
         <f t="shared" si="1"/>
         <v>2.9166666666666563E-2</v>
       </c>
@@ -25739,16 +25842,16 @@
       <c r="B22" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="C22" s="106">
+      <c r="C22" s="105">
         <v>43919</v>
       </c>
-      <c r="D22" s="107">
+      <c r="D22" s="106">
         <v>0.86736111111111114</v>
       </c>
-      <c r="E22" s="107">
+      <c r="E22" s="106">
         <v>0.89583333333333337</v>
       </c>
-      <c r="F22" s="107">
+      <c r="F22" s="106">
         <f t="shared" si="1"/>
         <v>2.8472222222222232E-2</v>
       </c>
@@ -25760,16 +25863,16 @@
       <c r="B23" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="C23" s="106">
+      <c r="C23" s="105">
         <v>43919</v>
       </c>
-      <c r="D23" s="107">
+      <c r="D23" s="106">
         <v>0.79999999999999993</v>
       </c>
-      <c r="E23" s="107">
+      <c r="E23" s="106">
         <v>0.8305555555555556</v>
       </c>
-      <c r="F23" s="107">
+      <c r="F23" s="106">
         <f t="shared" si="1"/>
         <v>3.0555555555555669E-2</v>
       </c>
@@ -25781,16 +25884,16 @@
       <c r="B24" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="C24" s="106">
+      <c r="C24" s="105">
         <v>43919</v>
       </c>
-      <c r="D24" s="107">
+      <c r="D24" s="106">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E24" s="107">
+      <c r="E24" s="106">
         <v>0.81111111111111101</v>
       </c>
-      <c r="F24" s="107">
+      <c r="F24" s="106">
         <f t="shared" si="1"/>
         <v>3.6111111111110983E-2</v>
       </c>
@@ -25802,16 +25905,16 @@
       <c r="B25" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="C25" s="106">
+      <c r="C25" s="105">
         <v>43919</v>
       </c>
-      <c r="D25" s="107">
+      <c r="D25" s="106">
         <v>0.71250000000000002</v>
       </c>
-      <c r="E25" s="107">
+      <c r="E25" s="106">
         <v>0.74791666666666667</v>
       </c>
-      <c r="F25" s="107">
+      <c r="F25" s="106">
         <f t="shared" si="1"/>
         <v>3.5416666666666652E-2</v>
       </c>
@@ -25823,16 +25926,16 @@
       <c r="B26" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="C26" s="106">
+      <c r="C26" s="105">
         <v>43919</v>
       </c>
-      <c r="D26" s="107">
+      <c r="D26" s="106">
         <v>0.67499999999999993</v>
       </c>
-      <c r="E26" s="107">
+      <c r="E26" s="106">
         <v>0.7270833333333333</v>
       </c>
-      <c r="F26" s="107">
+      <c r="F26" s="106">
         <f t="shared" si="1"/>
         <v>5.208333333333337E-2</v>
       </c>
@@ -25844,16 +25947,16 @@
       <c r="B27" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="C27" s="106">
+      <c r="C27" s="105">
         <v>43919</v>
       </c>
-      <c r="D27" s="107">
+      <c r="D27" s="106">
         <v>0.64722222222222225</v>
       </c>
-      <c r="E27" s="107">
+      <c r="E27" s="106">
         <v>0.72083333333333333</v>
       </c>
-      <c r="F27" s="107">
+      <c r="F27" s="106">
         <f t="shared" si="1"/>
         <v>7.3611111111111072E-2</v>
       </c>
@@ -25865,16 +25968,16 @@
       <c r="B28" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="C28" s="106">
+      <c r="C28" s="105">
         <v>43919</v>
       </c>
-      <c r="D28" s="107">
+      <c r="D28" s="106">
         <v>0.60347222222222219</v>
       </c>
-      <c r="E28" s="107">
+      <c r="E28" s="106">
         <v>0.68125000000000002</v>
       </c>
-      <c r="F28" s="107">
+      <c r="F28" s="106">
         <f t="shared" si="1"/>
         <v>7.7777777777777835E-2</v>
       </c>
@@ -25886,16 +25989,16 @@
       <c r="B29" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="C29" s="106">
+      <c r="C29" s="105">
         <v>43919</v>
       </c>
-      <c r="D29" s="107">
+      <c r="D29" s="106">
         <v>0.55972222222222223</v>
       </c>
-      <c r="E29" s="107">
+      <c r="E29" s="106">
         <v>0.66249999999999998</v>
       </c>
-      <c r="F29" s="107">
+      <c r="F29" s="106">
         <f t="shared" si="1"/>
         <v>0.10277777777777775</v>
       </c>
@@ -25907,16 +26010,16 @@
       <c r="B30" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="C30" s="106">
+      <c r="C30" s="105">
         <v>43919</v>
       </c>
-      <c r="D30" s="107">
+      <c r="D30" s="106">
         <v>0.5180555555555556</v>
       </c>
-      <c r="E30" s="107">
+      <c r="E30" s="106">
         <v>0.60763888888888895</v>
       </c>
-      <c r="F30" s="107">
+      <c r="F30" s="106">
         <f t="shared" si="1"/>
         <v>8.9583333333333348E-2</v>
       </c>
@@ -25928,16 +26031,16 @@
       <c r="B31" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="C31" s="106">
+      <c r="C31" s="105">
         <v>43919</v>
       </c>
-      <c r="D31" s="107">
+      <c r="D31" s="106">
         <v>0.4694444444444445</v>
       </c>
-      <c r="E31" s="107">
+      <c r="E31" s="106">
         <v>0.5493055555555556</v>
       </c>
-      <c r="F31" s="107">
+      <c r="F31" s="106">
         <f t="shared" si="1"/>
         <v>7.9861111111111105E-2</v>
       </c>
@@ -25949,16 +26052,16 @@
       <c r="B32" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="C32" s="106">
+      <c r="C32" s="105">
         <v>43919</v>
       </c>
-      <c r="D32" s="107">
+      <c r="D32" s="106">
         <v>0.45416666666666666</v>
       </c>
-      <c r="E32" s="107">
+      <c r="E32" s="106">
         <v>0.53263888888888888</v>
       </c>
-      <c r="F32" s="107">
+      <c r="F32" s="106">
         <f t="shared" si="1"/>
         <v>7.8472222222222221E-2</v>
       </c>
@@ -25970,16 +26073,16 @@
       <c r="B33" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="C33" s="106">
+      <c r="C33" s="105">
         <v>43919</v>
       </c>
-      <c r="D33" s="107">
+      <c r="D33" s="106">
         <v>0.42291666666666666</v>
       </c>
-      <c r="E33" s="107">
+      <c r="E33" s="106">
         <v>0.48819444444444443</v>
       </c>
-      <c r="F33" s="107">
+      <c r="F33" s="106">
         <f t="shared" si="1"/>
         <v>6.5277777777777768E-2</v>
       </c>
@@ -25991,16 +26094,16 @@
       <c r="B34" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="C34" s="106">
+      <c r="C34" s="105">
         <v>43919</v>
       </c>
-      <c r="D34" s="107">
+      <c r="D34" s="106">
         <v>7.013888888888889E-2</v>
       </c>
-      <c r="E34" s="107">
+      <c r="E34" s="106">
         <v>0.2902777777777778</v>
       </c>
-      <c r="F34" s="107">
+      <c r="F34" s="106">
         <f t="shared" si="1"/>
         <v>0.22013888888888891</v>
       </c>
@@ -26012,16 +26115,16 @@
       <c r="B35" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="C35" s="106">
+      <c r="C35" s="105">
         <v>43919</v>
       </c>
-      <c r="D35" s="107">
+      <c r="D35" s="106">
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="E35" s="107">
+      <c r="E35" s="106">
         <v>0.17083333333333331</v>
       </c>
-      <c r="F35" s="107">
+      <c r="F35" s="106">
         <f t="shared" si="1"/>
         <v>0.15416666666666665</v>
       </c>
@@ -26033,16 +26136,16 @@
       <c r="B36" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="C36" s="106">
+      <c r="C36" s="105">
         <v>43918</v>
       </c>
-      <c r="D36" s="107">
+      <c r="D36" s="106">
         <v>0.97152777777777777</v>
       </c>
-      <c r="E36" s="107">
-        <v>0</v>
-      </c>
-      <c r="F36" s="107">
+      <c r="E36" s="106">
+        <v>0</v>
+      </c>
+      <c r="F36" s="106">
         <f>E36-D36+24</f>
         <v>23.028472222222224</v>
       </c>
@@ -26054,16 +26157,16 @@
       <c r="B37" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="C37" s="106">
+      <c r="C37" s="105">
         <v>43918</v>
       </c>
-      <c r="D37" s="107">
+      <c r="D37" s="106">
         <v>0.97013888888888899</v>
       </c>
-      <c r="E37" s="107">
+      <c r="E37" s="106">
         <v>0.99722222222222223</v>
       </c>
-      <c r="F37" s="107">
+      <c r="F37" s="106">
         <f t="shared" si="1"/>
         <v>2.7083333333333237E-2</v>
       </c>
@@ -26075,106 +26178,106 @@
       <c r="B38" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="C38" s="106">
+      <c r="C38" s="105">
         <v>43918</v>
       </c>
-      <c r="D38" s="107">
+      <c r="D38" s="106">
         <v>0.95624999999999993</v>
       </c>
-      <c r="E38" s="107">
+      <c r="E38" s="106">
         <v>0.97430555555555554</v>
       </c>
-      <c r="F38" s="107">
+      <c r="F38" s="106">
         <f t="shared" si="1"/>
         <v>1.8055555555555602E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="F39" s="107">
+      <c r="F39" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="F40" s="107">
+      <c r="F40" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="F41" s="107">
+      <c r="F41" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="F42" s="107">
+      <c r="F42" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="F43" s="107">
+      <c r="F43" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="F44" s="107">
+      <c r="F44" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="F45" s="107">
+      <c r="F45" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="F46" s="107">
+      <c r="F46" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="F47" s="107">
+      <c r="F47" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="F48" s="107">
+      <c r="F48" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="6:6">
-      <c r="F49" s="107">
+      <c r="F49" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="6:6">
-      <c r="F50" s="107">
+      <c r="F50" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="6:6">
-      <c r="F51" s="107">
+      <c r="F51" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="6:6">
-      <c r="F52" s="107">
+      <c r="F52" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="6:6">
-      <c r="F53" s="107">
+      <c r="F53" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/generateEXCEL/Data/Members/GroupRecord.xlsx
+++ b/generateEXCEL/Data/Members/GroupRecord.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Huifeng\Dropbox\Research\Coding\WeChatGroup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hguan/Dropbox/Research/Coding/WeChatGroup/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16B7C9A-2CF4-4E47-A363-5E31C54C1438}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42045" yWindow="-1905" windowWidth="19005" windowHeight="14340" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-38340" yWindow="-1300" windowWidth="19000" windowHeight="14340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="1204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3097" uniqueCount="1207">
   <si>
     <t>wisdompeak</t>
   </si>
@@ -4280,11 +4281,20 @@
   <si>
     <t>axiu777</t>
   </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>pku_erutan</t>
+  </si>
+  <si>
+    <t>luojingyaoex@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yyyy"/>
@@ -4775,8 +4785,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5155,25 +5165,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K274"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G179" sqref="G179"/>
+    <sheetView tabSelected="1" topLeftCell="C160" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J165" sqref="J165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" customWidth="1"/>
-    <col min="11" max="11" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="36.5" customWidth="1"/>
+    <col min="11" max="11" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -8290,6 +8300,9 @@
       <c r="F165" s="3" t="s">
         <v>1195</v>
       </c>
+      <c r="J165" s="94" t="s">
+        <v>1206</v>
+      </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="95" t="s">
@@ -8370,136 +8383,151 @@
         <v>163</v>
       </c>
     </row>
-    <row r="274" ht="14.85" customHeight="1"/>
+    <row r="171" spans="1:10">
+      <c r="A171" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C171" s="1">
+        <v>43932</v>
+      </c>
+      <c r="F171" s="97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" ht="14.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J1" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3"/>
-    <hyperlink ref="J5" r:id="rId4"/>
-    <hyperlink ref="J6" r:id="rId5"/>
-    <hyperlink ref="J7" r:id="rId6"/>
-    <hyperlink ref="J9" r:id="rId7"/>
-    <hyperlink ref="J10" r:id="rId8"/>
-    <hyperlink ref="J11" r:id="rId9"/>
-    <hyperlink ref="J12" r:id="rId10"/>
-    <hyperlink ref="J17" r:id="rId11"/>
-    <hyperlink ref="J20" r:id="rId12"/>
-    <hyperlink ref="J21" r:id="rId13"/>
-    <hyperlink ref="J22" r:id="rId14"/>
-    <hyperlink ref="J23" r:id="rId15"/>
-    <hyperlink ref="J26" r:id="rId16"/>
-    <hyperlink ref="J28" r:id="rId17"/>
-    <hyperlink ref="J29" r:id="rId18"/>
-    <hyperlink ref="J30" r:id="rId19"/>
-    <hyperlink ref="J31" r:id="rId20"/>
-    <hyperlink ref="J32" r:id="rId21"/>
-    <hyperlink ref="J36" r:id="rId22"/>
-    <hyperlink ref="J38" r:id="rId23"/>
-    <hyperlink ref="J39" r:id="rId24"/>
-    <hyperlink ref="J41" r:id="rId25"/>
-    <hyperlink ref="J42" r:id="rId26"/>
-    <hyperlink ref="J44" r:id="rId27"/>
-    <hyperlink ref="J45" r:id="rId28"/>
-    <hyperlink ref="J46" r:id="rId29"/>
-    <hyperlink ref="J48" r:id="rId30"/>
-    <hyperlink ref="J49" r:id="rId31"/>
-    <hyperlink ref="J50" r:id="rId32"/>
-    <hyperlink ref="J51" r:id="rId33"/>
-    <hyperlink ref="J52" r:id="rId34"/>
-    <hyperlink ref="J53" r:id="rId35"/>
-    <hyperlink ref="J54" r:id="rId36"/>
-    <hyperlink ref="K54" r:id="rId37"/>
-    <hyperlink ref="J55" r:id="rId38"/>
-    <hyperlink ref="J57" r:id="rId39"/>
-    <hyperlink ref="J58" r:id="rId40"/>
-    <hyperlink ref="J59" r:id="rId41"/>
-    <hyperlink ref="J61" r:id="rId42"/>
-    <hyperlink ref="J62" r:id="rId43"/>
-    <hyperlink ref="J63" r:id="rId44"/>
-    <hyperlink ref="J64" r:id="rId45"/>
-    <hyperlink ref="J65" r:id="rId46"/>
-    <hyperlink ref="J66" r:id="rId47"/>
-    <hyperlink ref="J68" r:id="rId48"/>
-    <hyperlink ref="J69" r:id="rId49"/>
-    <hyperlink ref="J70" r:id="rId50"/>
-    <hyperlink ref="J71" r:id="rId51"/>
-    <hyperlink ref="J72" r:id="rId52"/>
-    <hyperlink ref="J74" r:id="rId53"/>
-    <hyperlink ref="J75" r:id="rId54"/>
-    <hyperlink ref="J76" r:id="rId55"/>
-    <hyperlink ref="J78" r:id="rId56"/>
-    <hyperlink ref="J79" r:id="rId57"/>
-    <hyperlink ref="J80" r:id="rId58"/>
-    <hyperlink ref="J83" r:id="rId59"/>
-    <hyperlink ref="J85" r:id="rId60"/>
-    <hyperlink ref="J87" r:id="rId61"/>
-    <hyperlink ref="J88" r:id="rId62"/>
-    <hyperlink ref="J89" r:id="rId63"/>
-    <hyperlink ref="J90" r:id="rId64"/>
-    <hyperlink ref="J91" r:id="rId65"/>
-    <hyperlink ref="J95" r:id="rId66"/>
-    <hyperlink ref="J97" r:id="rId67"/>
-    <hyperlink ref="J98" r:id="rId68"/>
-    <hyperlink ref="J101" r:id="rId69"/>
-    <hyperlink ref="J102" r:id="rId70"/>
-    <hyperlink ref="J104" r:id="rId71"/>
-    <hyperlink ref="J105" r:id="rId72"/>
-    <hyperlink ref="J107" r:id="rId73"/>
-    <hyperlink ref="J108" r:id="rId74"/>
-    <hyperlink ref="J109" r:id="rId75"/>
-    <hyperlink ref="J111" r:id="rId76"/>
-    <hyperlink ref="J112" r:id="rId77"/>
-    <hyperlink ref="J113" r:id="rId78"/>
-    <hyperlink ref="J114" r:id="rId79"/>
-    <hyperlink ref="J115" r:id="rId80"/>
-    <hyperlink ref="J118" r:id="rId81"/>
-    <hyperlink ref="J119" r:id="rId82"/>
-    <hyperlink ref="J120" r:id="rId83"/>
-    <hyperlink ref="J121" r:id="rId84"/>
-    <hyperlink ref="J122" r:id="rId85"/>
-    <hyperlink ref="J124" r:id="rId86"/>
-    <hyperlink ref="J126" r:id="rId87"/>
-    <hyperlink ref="J128" r:id="rId88"/>
-    <hyperlink ref="J131" r:id="rId89"/>
-    <hyperlink ref="J47" r:id="rId90"/>
-    <hyperlink ref="J100" r:id="rId91"/>
-    <hyperlink ref="J136" r:id="rId92"/>
-    <hyperlink ref="J135" r:id="rId93"/>
-    <hyperlink ref="J133" r:id="rId94"/>
-    <hyperlink ref="J130" r:id="rId95"/>
-    <hyperlink ref="J138" r:id="rId96"/>
-    <hyperlink ref="J141" r:id="rId97"/>
-    <hyperlink ref="J146" r:id="rId98"/>
-    <hyperlink ref="J132" r:id="rId99"/>
-    <hyperlink ref="J145" r:id="rId100"/>
-    <hyperlink ref="J152" r:id="rId101"/>
-    <hyperlink ref="J155" r:id="rId102"/>
-    <hyperlink ref="J134" r:id="rId103"/>
-    <hyperlink ref="J153" r:id="rId104"/>
-    <hyperlink ref="J166" r:id="rId105"/>
+    <hyperlink ref="J1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J26" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J28" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J29" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J30" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J31" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J32" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J36" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J38" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J39" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J41" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J42" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J44" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J45" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J46" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J48" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J49" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J50" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="J51" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J52" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="J53" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J54" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="K54" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J55" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J57" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J58" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J59" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="J61" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J62" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J63" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J64" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J65" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="J66" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J68" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="J69" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="J70" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J71" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J72" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J74" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J75" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J76" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="J78" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="J79" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="J80" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="J83" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="J85" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="J87" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="J88" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="J89" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="J90" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="J91" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="J95" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="J97" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="J98" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="J101" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="J102" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="J104" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="J105" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="J107" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="J108" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="J109" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="J111" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="J112" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="J113" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="J114" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="J115" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="J118" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="J119" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="J120" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="J121" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="J122" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="J124" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="J126" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="J128" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="J131" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="J47" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="J100" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="J136" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J135" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="J133" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="J130" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="J138" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="J141" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="J146" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J132" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="J145" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="J152" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="J155" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="J134" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="J153" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="J166" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="J165" r:id="rId106" xr:uid="{75CC1BEC-02FD-1E48-8E21-07BA11CFF739}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId106"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId107"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A307" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H327" sqref="H327"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="27" customWidth="1"/>
-    <col min="3" max="4" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="27" customWidth="1"/>
+    <col min="3" max="4" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -18234,47 +18262,47 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J55" r:id="rId1"/>
-    <hyperlink ref="J64" r:id="rId2"/>
-    <hyperlink ref="J68" r:id="rId3"/>
-    <hyperlink ref="J70" r:id="rId4"/>
-    <hyperlink ref="J78" r:id="rId5"/>
-    <hyperlink ref="J80" r:id="rId6"/>
-    <hyperlink ref="J99" r:id="rId7"/>
-    <hyperlink ref="J111" r:id="rId8"/>
-    <hyperlink ref="J119" r:id="rId9"/>
-    <hyperlink ref="J140" r:id="rId10"/>
-    <hyperlink ref="J158" r:id="rId11"/>
-    <hyperlink ref="J203" r:id="rId12"/>
-    <hyperlink ref="J220" r:id="rId13"/>
-    <hyperlink ref="J275" r:id="rId14"/>
-    <hyperlink ref="J318" r:id="rId15"/>
-    <hyperlink ref="J319" r:id="rId16"/>
-    <hyperlink ref="J330" r:id="rId17"/>
-    <hyperlink ref="J336" r:id="rId18"/>
-    <hyperlink ref="J343" r:id="rId19"/>
-    <hyperlink ref="J344" r:id="rId20"/>
-    <hyperlink ref="J351" r:id="rId21"/>
-    <hyperlink ref="J353" r:id="rId22"/>
-    <hyperlink ref="J352" r:id="rId23"/>
-    <hyperlink ref="J354" r:id="rId24"/>
-    <hyperlink ref="J355" r:id="rId25"/>
-    <hyperlink ref="J356" r:id="rId26"/>
-    <hyperlink ref="J359" r:id="rId27"/>
-    <hyperlink ref="J360" r:id="rId28"/>
-    <hyperlink ref="J361" r:id="rId29"/>
-    <hyperlink ref="J362" r:id="rId30"/>
-    <hyperlink ref="J363" r:id="rId31"/>
-    <hyperlink ref="J364" r:id="rId32"/>
-    <hyperlink ref="J366" r:id="rId33"/>
-    <hyperlink ref="J367" r:id="rId34"/>
-    <hyperlink ref="J369" r:id="rId35"/>
-    <hyperlink ref="J371" r:id="rId36"/>
-    <hyperlink ref="J372" r:id="rId37"/>
-    <hyperlink ref="J375" r:id="rId38"/>
-    <hyperlink ref="J378" r:id="rId39"/>
-    <hyperlink ref="J381" r:id="rId40"/>
-    <hyperlink ref="J382" r:id="rId41"/>
+    <hyperlink ref="J55" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="J64" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="J68" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="J70" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="J78" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="J80" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="J99" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="J111" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="J119" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="J140" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="J158" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="J203" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="J220" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="J275" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="J318" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="J319" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="J330" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="J336" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="J343" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="J344" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="J351" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="J353" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="J352" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="J354" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="J355" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="J356" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="J359" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="J360" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="J361" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="J362" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="J363" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="J364" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="J366" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="J367" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="J369" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="J371" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="J372" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="J375" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="J378" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="J381" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="J382" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId42"/>
@@ -18286,14 +18314,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -18301,35 +18329,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z119"/>
   <sheetViews>
     <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="4"/>
-    <col min="10" max="10" width="9.85546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="4"/>
-    <col min="12" max="15" width="8.7109375" style="3"/>
-    <col min="16" max="16" width="8.7109375" style="4"/>
-    <col min="17" max="17" width="9.140625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" style="4"/>
-    <col min="19" max="19" width="9.140625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" style="4"/>
-    <col min="21" max="21" width="9.140625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="8.7109375" style="3"/>
-    <col min="23" max="23" width="8.85546875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="8.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="3" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="4"/>
+    <col min="10" max="10" width="9.83203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="4"/>
+    <col min="12" max="15" width="8.6640625" style="3"/>
+    <col min="16" max="16" width="8.6640625" style="4"/>
+    <col min="17" max="17" width="9.1640625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="4"/>
+    <col min="19" max="19" width="9.1640625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
+    <col min="21" max="21" width="9.1640625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="3"/>
+    <col min="23" max="23" width="8.83203125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="8.83203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -20127,7 +20155,7 @@
         <v>65.686101520780824</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" ht="16">
       <c r="A26" s="85" t="s">
         <v>590</v>
       </c>
@@ -25388,17 +25416,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" style="3" customWidth="1"/>
-    <col min="2" max="6" width="11.42578125" style="3"/>
+    <col min="2" max="6" width="11.5" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1">

--- a/generateEXCEL/Data/Members/GroupRecord.xlsx
+++ b/generateEXCEL/Data/Members/GroupRecord.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hguan/Dropbox/Research/Coding/WeChatGroup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16B7C9A-2CF4-4E47-A363-5E31C54C1438}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBB208D-76BE-0841-8AAB-24857F6FD666}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38340" yWindow="-1300" windowWidth="19000" windowHeight="14340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3097" uniqueCount="1207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="1225">
   <si>
     <t>wisdompeak</t>
   </si>
@@ -4288,7 +4288,61 @@
     <t>pku_erutan</t>
   </si>
   <si>
+    <t>Lance_Cui</t>
+  </si>
+  <si>
+    <t>skierlin</t>
+  </si>
+  <si>
+    <t>codingmushroom</t>
+  </si>
+  <si>
+    <t>丁嘻嘻</t>
+  </si>
+  <si>
+    <t>Lyrics_W</t>
+  </si>
+  <si>
+    <t>Atlanssian</t>
+  </si>
+  <si>
+    <t>jasonzzzz</t>
+  </si>
+  <si>
     <t>luojingyaoex@gmail.com</t>
+  </si>
+  <si>
+    <t>louzhenglun@gmail.com</t>
+  </si>
+  <si>
+    <t>zpzpzzp2020</t>
+  </si>
+  <si>
+    <t>chenjianxu97@gmail.com</t>
+  </si>
+  <si>
+    <t>qypeng12@outlook.com</t>
+  </si>
+  <si>
+    <t>littletiger1926@gmail.com</t>
+  </si>
+  <si>
+    <t>larui529@gmail.com</t>
+  </si>
+  <si>
+    <t>sjzhang1901@gmail.com</t>
+  </si>
+  <si>
+    <t>renjie73@outlook.com</t>
+  </si>
+  <si>
+    <t>terry331221@gmail.com</t>
+  </si>
+  <si>
+    <t>cherishsunyi@gmail.com</t>
+  </si>
+  <si>
+    <t>qizhong19920114@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -5166,11 +5220,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K274"/>
+  <dimension ref="A1:K265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J165" sqref="J165"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
@@ -5462,15 +5514,15 @@
       <c r="G13" s="4"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5" t="s">
-        <v>55</v>
+    <row r="14" spans="1:10" s="5" customFormat="1">
+      <c r="A14" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1">
-        <v>43527</v>
+        <v>43534</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="4"/>
@@ -5478,80 +5530,76 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" s="5" customFormat="1">
-      <c r="A15" s="10" t="s">
-        <v>58</v>
+      <c r="A15" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1">
-        <v>43534</v>
+        <v>43544</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="4"/>
       <c r="F15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:10" s="5" customFormat="1">
-      <c r="A16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>62</v>
+      <c r="A16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="C16" s="1">
-        <v>43544</v>
+        <v>43546</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="4"/>
       <c r="F16" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="7"/>
+      <c r="J16" s="8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="17" spans="1:11" s="5" customFormat="1">
-      <c r="A17" s="13" t="s">
-        <v>64</v>
+      <c r="A17" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1">
-        <v>43546</v>
+        <v>43548</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="4"/>
       <c r="F17" s="3" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
-      <c r="J17" s="8" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="18" spans="1:11" s="5" customFormat="1">
-      <c r="A18" s="14" t="s">
-        <v>68</v>
+      <c r="A18" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1">
-        <v>43548</v>
+        <v>43565</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="4"/>
@@ -5563,13 +5611,13 @@
     </row>
     <row r="19" spans="1:11" s="5" customFormat="1">
       <c r="A19" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1">
-        <v>43565</v>
+        <v>43569</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="4"/>
@@ -5578,81 +5626,86 @@
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="7"/>
+      <c r="J19" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="20" spans="1:11" s="5" customFormat="1">
-      <c r="A20" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>73</v>
+      <c r="A20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="C20" s="1">
-        <v>43569</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4"/>
+        <v>43576</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="J20" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="5" customFormat="1">
-      <c r="A21" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>76</v>
+      <c r="A21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="C21" s="1">
-        <v>43576</v>
+        <v>43577</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="7"/>
       <c r="F21" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="J21" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="5" customFormat="1">
-      <c r="A22" s="5" t="s">
-        <v>78</v>
+      <c r="A22" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C22" s="1">
-        <v>43577</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="7"/>
+        <v>43578</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>1</v>
+      <c r="G22" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="H22" s="7"/>
       <c r="J22" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="5" customFormat="1">
       <c r="A23" s="13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C23" s="1">
-        <v>43578</v>
+        <v>43581</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="4"/>
@@ -5660,150 +5713,150 @@
         <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="J23" s="8" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="24" spans="1:11" s="5" customFormat="1">
       <c r="A24" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C24" s="1">
-        <v>43581</v>
+        <v>43582</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="4"/>
       <c r="F24" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="G24" s="4"/>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:11" s="5" customFormat="1">
       <c r="A25" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="C25" s="1">
-        <v>43582</v>
+        <v>43586</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="4"/>
       <c r="F25" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="H25" s="7"/>
+      <c r="J25" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="26" spans="1:11" s="5" customFormat="1">
-      <c r="A26" s="13" t="s">
-        <v>89</v>
+      <c r="A26" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C26" s="1">
-        <v>43586</v>
+        <v>43596</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="15" t="s">
-        <v>91</v>
+      <c r="F26" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="J26" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="27" spans="1:11" s="5" customFormat="1">
-      <c r="A27" s="9" t="s">
-        <v>94</v>
+      <c r="A27" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C27" s="1">
-        <v>43596</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>97</v>
-      </c>
+        <v>43606</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7"/>
       <c r="H27" s="7"/>
+      <c r="J27" s="8" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="28" spans="1:11" s="5" customFormat="1">
-      <c r="A28" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>99</v>
+      <c r="A28" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="C28" s="1">
         <v>43606</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="H28" s="7"/>
       <c r="J28" s="8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="5" customFormat="1">
       <c r="A29" s="14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C29" s="1">
-        <v>43606</v>
+        <v>43613</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="16" t="s">
-        <v>58</v>
+      <c r="F29" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="H29" s="7"/>
-      <c r="J29" s="8" t="s">
-        <v>104</v>
+      <c r="J29" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="5" customFormat="1">
       <c r="A30" s="14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C30" s="1">
-        <v>43613</v>
+        <v>43614</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="4"/>
@@ -5811,22 +5864,22 @@
         <v>0</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="H30" s="7"/>
-      <c r="J30" s="5" t="s">
-        <v>107</v>
+      <c r="J30" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="5" customFormat="1">
       <c r="A31" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>109</v>
+        <v>1212</v>
       </c>
       <c r="C31" s="1">
-        <v>43614</v>
+        <v>43618</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="4"/>
@@ -5834,81 +5887,83 @@
         <v>0</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="H31" s="7"/>
       <c r="J31" s="8" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="5" customFormat="1">
-      <c r="A32" s="14" t="s">
-        <v>112</v>
+      <c r="A32" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C32" s="1">
-        <v>43618</v>
+        <v>43620</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="4"/>
       <c r="F32" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" s="7"/>
-      <c r="J32" s="8" t="s">
-        <v>114</v>
+      <c r="H32" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="5" customFormat="1">
-      <c r="A33" s="13" t="s">
-        <v>115</v>
+      <c r="A33" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C33" s="1">
         <v>43620</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>117</v>
-      </c>
+      <c r="F33" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:10" s="5" customFormat="1">
-      <c r="A34" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>119</v>
+      <c r="A34" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="C34" s="1">
-        <v>43620</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H34" s="7"/>
+        <v>43626</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="35" spans="1:10" s="5" customFormat="1">
-      <c r="A35" s="10" t="s">
-        <v>120</v>
+      <c r="A35" s="19" t="s">
+        <v>123</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C35" s="1">
         <v>43626</v>
@@ -5918,268 +5973,269 @@
       <c r="F35" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>122</v>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="J35" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="5" customFormat="1">
-      <c r="A36" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>124</v>
+      <c r="A36" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C36" s="1">
-        <v>43626</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="7"/>
+        <v>43628</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G36" s="7"/>
+      <c r="G36" s="4"/>
       <c r="H36" s="7"/>
-      <c r="J36" s="8" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="37" spans="1:10" s="5" customFormat="1">
-      <c r="A37" s="10" t="s">
-        <v>126</v>
+      <c r="A37" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C37" s="1">
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="15" t="s">
-        <v>91</v>
+      <c r="F37" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="7"/>
+      <c r="J37" s="8" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="38" spans="1:10" s="5" customFormat="1">
       <c r="A38" s="19" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C38" s="1">
-        <v>43629</v>
+        <v>43634</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="G38" s="4"/>
+      <c r="F38" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="H38" s="7"/>
       <c r="J38" s="8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="5" customFormat="1">
-      <c r="A39" s="19" t="s">
-        <v>131</v>
+      <c r="A39" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C39" s="1">
-        <v>43634</v>
+        <v>43638</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="4"/>
       <c r="F39" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="G39" s="4"/>
       <c r="H39" s="7"/>
-      <c r="J39" s="8" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="40" spans="1:10" s="5" customFormat="1">
-      <c r="A40" s="10" t="s">
-        <v>135</v>
+      <c r="A40" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C40" s="1">
-        <v>43638</v>
+        <v>43646</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="4"/>
       <c r="F40" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G40" s="4"/>
       <c r="H40" s="7"/>
+      <c r="J40" s="8" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="41" spans="1:10" s="5" customFormat="1">
-      <c r="A41" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>138</v>
+      <c r="A41" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="C41" s="1">
-        <v>43646</v>
+        <v>43658</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="4"/>
       <c r="F41" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="H41" s="7"/>
-      <c r="J41" s="8" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1">
-      <c r="A42" s="19" t="s">
-        <v>140</v>
+      <c r="A42" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C42" s="1">
-        <v>43646</v>
+        <v>43661</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="4"/>
       <c r="F42" s="15" t="s">
-        <v>0</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G42" s="4"/>
       <c r="H42" s="7"/>
       <c r="J42" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="5" customFormat="1">
       <c r="A43" s="19" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C43" s="1">
-        <v>43658</v>
+        <v>43662</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="4"/>
       <c r="F43" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>110</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G43" s="4"/>
       <c r="H43" s="7"/>
+      <c r="J43" s="8" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="44" spans="1:10" s="5" customFormat="1">
-      <c r="A44" s="10" t="s">
-        <v>145</v>
+      <c r="A44" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C44" s="1">
-        <v>43661</v>
+        <v>43675</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="15" t="s">
-        <v>91</v>
+      <c r="F44" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="7"/>
-      <c r="J44" s="8" t="s">
-        <v>147</v>
+      <c r="J44" s="94" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="5" customFormat="1">
-      <c r="A45" s="19" t="s">
-        <v>148</v>
+      <c r="A45" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C45" s="1">
-        <v>43662</v>
+        <v>43678</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="4"/>
       <c r="F45" s="15" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="7"/>
       <c r="J45" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="5" customFormat="1">
       <c r="A46" s="19" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C46" s="1">
-        <v>43669</v>
+        <v>43678</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="4"/>
       <c r="F46" s="15" t="s">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="7"/>
       <c r="J46" s="8" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="5" customFormat="1">
-      <c r="A47" s="19" t="s">
-        <v>155</v>
+      <c r="A47" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C47" s="1">
-        <v>43675</v>
+        <v>43681</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" s="4"/>
+      <c r="F47" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="H47" s="7"/>
-      <c r="J47" s="94" t="s">
-        <v>1093</v>
+      <c r="J47" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="5" customFormat="1">
-      <c r="A48" s="10" t="s">
-        <v>157</v>
+      <c r="A48" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C48" s="1">
-        <v>43678</v>
+        <v>43690</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="4"/>
@@ -6188,239 +6244,239 @@
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="8" t="s">
-        <v>159</v>
+      <c r="J48" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="5" customFormat="1">
-      <c r="A49" s="19" t="s">
-        <v>160</v>
+      <c r="A49" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C49" s="1">
-        <v>43678</v>
+        <v>43702</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="4"/>
       <c r="F49" s="15" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="8" t="s">
-        <v>162</v>
+      <c r="J49" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="5" customFormat="1">
-      <c r="A50" s="10" t="s">
-        <v>163</v>
+      <c r="A50" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C50" s="1">
-        <v>43681</v>
+        <v>43703</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="4"/>
       <c r="F50" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>165</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G50" s="4"/>
       <c r="H50" s="7"/>
-      <c r="J50" s="5" t="s">
-        <v>166</v>
+      <c r="J50" s="8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="5" customFormat="1">
-      <c r="A51" s="5" t="s">
-        <v>167</v>
+      <c r="A51" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C51" s="1">
-        <v>43690</v>
+        <v>43704</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="4"/>
       <c r="F51" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="7"/>
-      <c r="J51" s="5" t="s">
-        <v>169</v>
+        <v>91</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="5" customFormat="1">
-      <c r="A52" s="5" t="s">
-        <v>174</v>
+      <c r="A52" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C52" s="1">
-        <v>43702</v>
+        <v>43707</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="15" t="s">
-        <v>91</v>
+      <c r="F52" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="7"/>
-      <c r="J52" s="5" t="s">
-        <v>175</v>
+      <c r="J52" s="8" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="5" customFormat="1">
-      <c r="A53" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>177</v>
+      <c r="A53" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>192</v>
       </c>
       <c r="C53" s="1">
-        <v>43703</v>
+        <v>43715</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="4"/>
       <c r="F53" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G53" s="4"/>
+        <v>176</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="H53" s="7"/>
       <c r="J53" s="8" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="5" customFormat="1">
       <c r="A54" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>180</v>
+        <v>195</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="C54" s="1">
-        <v>43704</v>
+        <v>43716</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="4"/>
       <c r="F54" s="15" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>122</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="H54" s="7"/>
       <c r="J54" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K54" s="8" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="5" customFormat="1">
-      <c r="A55" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>184</v>
+      <c r="A55" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="C55" s="1">
-        <v>43707</v>
+        <v>43718</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55" s="4"/>
+      <c r="F55" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="H55" s="7"/>
       <c r="J55" s="8" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="5" customFormat="1">
-      <c r="A56" s="18" t="s">
-        <v>186</v>
+      <c r="A56" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C56" s="1">
-        <v>43711</v>
+        <v>43722</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="4"/>
       <c r="F56" s="15" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:11" s="5" customFormat="1">
-      <c r="A57" s="18" t="s">
-        <v>191</v>
+      <c r="A57" s="19" t="s">
+        <v>204</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C57" s="1">
-        <v>43715</v>
+        <v>43726</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="4"/>
       <c r="F57" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G57" s="4"/>
       <c r="H57" s="7"/>
       <c r="J57" s="8" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="5" customFormat="1">
       <c r="A58" s="10" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C58" s="1">
-        <v>43716</v>
+        <v>43737</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="4"/>
       <c r="F58" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>197</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G58" s="4"/>
       <c r="H58" s="7"/>
-      <c r="J58" s="8" t="s">
-        <v>198</v>
+      <c r="J58" s="5" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="5" customFormat="1">
-      <c r="A59" s="19" t="s">
-        <v>199</v>
+      <c r="A59" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C59" s="1">
-        <v>43718</v>
+        <v>43738</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="4"/>
@@ -6428,22 +6484,22 @@
         <v>0</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="H59" s="7"/>
-      <c r="J59" s="8" t="s">
-        <v>202</v>
+      <c r="J59" s="99" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="5" customFormat="1">
-      <c r="A60" s="19" t="s">
-        <v>203</v>
+      <c r="A60" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C60" s="1">
-        <v>43722</v>
+        <v>43743</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="4"/>
@@ -6452,58 +6508,62 @@
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="7"/>
+      <c r="J60" s="8" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="61" spans="1:11" s="5" customFormat="1">
       <c r="A61" s="19" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="C61" s="1">
-        <v>43726</v>
+        <v>43749</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G61" s="4"/>
+      <c r="F61" s="16" t="s">
+        <v>207</v>
+      </c>
       <c r="H61" s="7"/>
       <c r="J61" s="8" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="5" customFormat="1">
       <c r="A62" s="10" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="C62" s="1">
-        <v>43737</v>
+        <v>43752</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="4"/>
       <c r="F62" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="G62" s="4"/>
+      <c r="G62" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="H62" s="7"/>
-      <c r="J62" s="5" t="s">
-        <v>209</v>
+      <c r="J62" s="8" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="5" customFormat="1">
-      <c r="A63" s="10" t="s">
-        <v>210</v>
+      <c r="A63" s="19" t="s">
+        <v>225</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C63" s="1">
-        <v>43738</v>
+        <v>43757</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="4"/>
@@ -6511,22 +6571,19 @@
         <v>0</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>212</v>
+        <v>103</v>
       </c>
       <c r="H63" s="7"/>
-      <c r="J63" s="99" t="s">
-        <v>1113</v>
-      </c>
     </row>
     <row r="64" spans="1:11" s="5" customFormat="1">
-      <c r="A64" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>217</v>
+      <c r="A64" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="C64" s="1">
-        <v>43743</v>
+        <v>43763</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="4"/>
@@ -6536,61 +6593,62 @@
       <c r="G64" s="4"/>
       <c r="H64" s="7"/>
       <c r="J64" s="8" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="5" customFormat="1">
-      <c r="A65" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>220</v>
+      <c r="A65" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="C65" s="1">
-        <v>43749</v>
+        <v>43767</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="16" t="s">
-        <v>207</v>
-      </c>
+      <c r="F65" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" s="4"/>
       <c r="H65" s="7"/>
-      <c r="J65" s="8" t="s">
-        <v>221</v>
+      <c r="J65" s="5" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="5" customFormat="1">
-      <c r="A66" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>223</v>
+      <c r="A66" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>234</v>
       </c>
       <c r="C66" s="1">
-        <v>43752</v>
+        <v>43770</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="4"/>
       <c r="F66" s="15" t="s">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="H66" s="7"/>
       <c r="J66" s="8" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="5" customFormat="1">
-      <c r="A67" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>226</v>
+      <c r="A67" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="C67" s="1">
-        <v>43757</v>
+        <v>43778</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="4"/>
@@ -6598,148 +6656,146 @@
         <v>0</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
       <c r="H67" s="7"/>
+      <c r="J67" s="8" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="68" spans="1:10" s="5" customFormat="1">
-      <c r="A68" s="5" t="s">
-        <v>227</v>
+      <c r="A68" s="10" t="s">
+        <v>240</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C68" s="1">
-        <v>43763</v>
+        <v>43780</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="4"/>
       <c r="F68" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G68" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="H68" s="7"/>
       <c r="J68" s="8" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="5" customFormat="1">
       <c r="A69" s="10" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="C69" s="1">
-        <v>43767</v>
+        <v>43784</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="4"/>
       <c r="F69" s="15" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="7"/>
-      <c r="J69" s="5" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="70" spans="1:10" s="5" customFormat="1">
-      <c r="A70" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>234</v>
+      <c r="A70" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="C70" s="1">
-        <v>43770</v>
+        <v>43804</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="4"/>
       <c r="F70" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="G70" s="4"/>
       <c r="H70" s="7"/>
       <c r="J70" s="8" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="5" customFormat="1">
       <c r="A71" s="10" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="C71" s="1">
-        <v>43778</v>
+        <v>43817</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>238</v>
-      </c>
+      <c r="F71" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G71" s="4"/>
       <c r="H71" s="7"/>
       <c r="J71" s="8" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="5" customFormat="1">
-      <c r="A72" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>241</v>
+      <c r="A72" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>257</v>
       </c>
       <c r="C72" s="1">
-        <v>43780</v>
+        <v>43817</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="4"/>
       <c r="F72" s="15" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>103</v>
+        <v>258</v>
       </c>
       <c r="H72" s="7"/>
       <c r="J72" s="8" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="5" customFormat="1">
-      <c r="A73" s="10" t="s">
-        <v>246</v>
+      <c r="A73" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="C73" s="1">
-        <v>43784</v>
+        <v>43824</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="4"/>
       <c r="F73" s="15" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:10" s="5" customFormat="1">
       <c r="A74" s="10" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="C74" s="1">
-        <v>43804</v>
+        <v>43825</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="4"/>
@@ -6749,1655 +6805,1566 @@
       <c r="G74" s="4"/>
       <c r="H74" s="7"/>
       <c r="J74" s="8" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75" spans="1:10" s="5" customFormat="1">
       <c r="A75" s="10" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C75" s="1">
-        <v>43817</v>
+        <v>43825</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="16" t="s">
-        <v>72</v>
+      <c r="F75" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="7"/>
       <c r="J75" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="5" customFormat="1">
-      <c r="A76" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>257</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
+        <v>273</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>274</v>
       </c>
       <c r="C76" s="1">
-        <v>43817</v>
-      </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="4"/>
+        <v>43829</v>
+      </c>
       <c r="F76" s="15" t="s">
         <v>0</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="H76" s="7"/>
+        <v>275</v>
+      </c>
       <c r="J76" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" s="5" customFormat="1">
-      <c r="A77" s="5" t="s">
-        <v>260</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="10" t="s">
+        <v>277</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="C77" s="1">
-        <v>43824</v>
-      </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="4"/>
+        <v>43829</v>
+      </c>
       <c r="F77" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G77" s="4"/>
-      <c r="H77" s="7"/>
-    </row>
-    <row r="78" spans="1:10" s="5" customFormat="1">
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>263</v>
+        <v>286</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>287</v>
       </c>
       <c r="C78" s="1">
-        <v>43825</v>
-      </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="4"/>
+        <v>43834</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="7"/>
       <c r="F78" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G78" s="4"/>
-      <c r="H78" s="7"/>
+      <c r="G78" s="7" t="s">
+        <v>288</v>
+      </c>
       <c r="J78" s="8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" s="5" customFormat="1">
-      <c r="A79" s="10" t="s">
-        <v>265</v>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>290</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="C79" s="1">
-        <v>43825</v>
-      </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="4"/>
+        <v>43834</v>
+      </c>
       <c r="F79" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G79" s="4"/>
-      <c r="H79" s="7"/>
-      <c r="J79" s="8" t="s">
-        <v>267</v>
+      <c r="J79" s="94" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>273</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>274</v>
+        <v>297</v>
+      </c>
+      <c r="B80" t="s">
+        <v>297</v>
       </c>
       <c r="C80" s="1">
-        <v>43829</v>
+        <v>43836</v>
       </c>
       <c r="F80" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G80" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="J80" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>278</v>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1215</v>
       </c>
       <c r="C81" s="1">
-        <v>43829</v>
-      </c>
+        <v>43836</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="7"/>
       <c r="F81" s="15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="G81" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="K81" s="21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>280</v>
+        <v>303</v>
+      </c>
+      <c r="B82" t="s">
+        <v>304</v>
       </c>
       <c r="C82" s="1">
-        <v>43830</v>
-      </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
+        <v>43838</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="B83" s="21" t="s">
-        <v>287</v>
+        <v>306</v>
+      </c>
+      <c r="B83" t="s">
+        <v>307</v>
       </c>
       <c r="C83" s="1">
-        <v>43834</v>
-      </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="7"/>
+        <v>43838</v>
+      </c>
       <c r="F83" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G83" s="7" t="s">
-        <v>288</v>
-      </c>
       <c r="J83" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" t="s">
-        <v>290</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>291</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B84" t="s">
+        <v>316</v>
       </c>
       <c r="C84" s="1">
-        <v>43834</v>
+        <v>43840</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>293</v>
+      <c r="J84" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B85" t="s">
+        <v>323</v>
       </c>
       <c r="C85" s="1">
-        <v>43834</v>
-      </c>
-      <c r="F85" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="J85" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
+        <v>43841</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="B86" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="C86" s="1">
-        <v>43836</v>
-      </c>
-      <c r="F86" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>299</v>
+        <v>43841</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B87" t="s">
+        <v>326</v>
       </c>
       <c r="C87" s="1">
-        <v>43836</v>
-      </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="7"/>
+        <v>43842</v>
+      </c>
       <c r="F87" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G87" s="7" t="s">
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
+        <v>330</v>
+      </c>
+      <c r="B88" t="s">
+        <v>331</v>
+      </c>
+      <c r="C88" s="1">
+        <v>43842</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J88" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B89" t="s">
+        <v>334</v>
+      </c>
+      <c r="C89" s="1">
+        <v>43843</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J89" s="94" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B90" t="s">
+        <v>339</v>
+      </c>
+      <c r="C90" s="1">
+        <v>43844</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J90" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C91" s="1">
+        <v>43847</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G91" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J87" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B88" t="s">
-        <v>304</v>
-      </c>
-      <c r="C88" s="1">
-        <v>43838</v>
-      </c>
-      <c r="F88" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="J88" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="B89" t="s">
-        <v>307</v>
-      </c>
-      <c r="C89" s="1">
-        <v>43838</v>
-      </c>
-      <c r="F89" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J89" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B90" t="s">
-        <v>316</v>
-      </c>
-      <c r="C90" s="1">
-        <v>43840</v>
-      </c>
-      <c r="F90" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J90" s="8" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="A91" t="s">
-        <v>319</v>
-      </c>
-      <c r="B91" t="s">
-        <v>320</v>
-      </c>
-      <c r="C91" s="1">
-        <v>43841</v>
-      </c>
-      <c r="F91" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="J91" s="8" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="10" t="s">
-        <v>322</v>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>349</v>
       </c>
       <c r="B92" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="C92" s="1">
-        <v>43841</v>
-      </c>
-      <c r="F92" s="15" t="s">
+        <v>43848</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
-      <c r="A93" t="s">
-        <v>324</v>
+    <row r="93" spans="1:11">
+      <c r="A93" s="10" t="s">
+        <v>351</v>
       </c>
       <c r="B93" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="C93" s="1">
-        <v>43841</v>
-      </c>
-      <c r="F93" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
+        <v>43848</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J93" s="94" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="10" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="B94" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="C94" s="1">
-        <v>43842</v>
+        <v>43850</v>
       </c>
       <c r="F94" s="15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" t="s">
-        <v>330</v>
+      <c r="J94" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="10" t="s">
+        <v>1094</v>
       </c>
       <c r="B95" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="C95" s="1">
-        <v>43842</v>
-      </c>
-      <c r="F95" s="15" t="s">
-        <v>0</v>
+        <v>43852</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>358</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="10" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="B96" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="C96" s="1">
-        <v>43843</v>
-      </c>
-      <c r="F96" s="15" t="s">
-        <v>0</v>
+        <v>43855</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="B97" t="s">
-        <v>339</v>
+      <c r="A97" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>363</v>
       </c>
       <c r="C97" s="1">
-        <v>43844</v>
-      </c>
-      <c r="F97" s="15" t="s">
+        <v>43856</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
-      <c r="A98" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>347</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="5" customFormat="1">
+      <c r="A98" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>366</v>
       </c>
       <c r="C98" s="1">
-        <v>43847</v>
-      </c>
+        <v>43857</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="7"/>
       <c r="F98" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G98" s="4" t="s">
+      <c r="G98" s="7" t="s">
         <v>45</v>
       </c>
+      <c r="H98" s="7"/>
       <c r="J98" s="8" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" t="s">
-        <v>349</v>
+      <c r="A99" s="10" t="s">
+        <v>368</v>
       </c>
       <c r="B99" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="C99" s="1">
-        <v>43848</v>
+        <v>43859</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>246</v>
+        <v>191</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="10" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="B100" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="C100" s="1">
-        <v>43848</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="J100" s="94" t="s">
-        <v>1109</v>
+        <v>43862</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="10" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="B101" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="C101" s="1">
-        <v>43850</v>
+        <v>43865</v>
       </c>
       <c r="F101" s="15" t="s">
         <v>0</v>
       </c>
       <c r="J101" s="8" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="10" t="s">
-        <v>1094</v>
+        <v>376</v>
       </c>
       <c r="B102" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="C102" s="1">
-        <v>43852</v>
+        <v>43865</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="J102" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
-      <c r="A103" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="B103" t="s">
-        <v>361</v>
+        <v>306</v>
+      </c>
+      <c r="J102" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="14" customFormat="1">
+      <c r="A103" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>380</v>
       </c>
       <c r="C103" s="1">
-        <v>43855</v>
-      </c>
-      <c r="F103" s="16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
-      <c r="A104" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="C104" s="1">
-        <v>43856</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>43865</v>
+      </c>
+      <c r="D103" s="23"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="J103" s="94" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="14" customFormat="1">
+      <c r="A104" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="C104" s="23">
+        <v>43866</v>
+      </c>
+      <c r="D104" s="25"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
       <c r="J104" s="8" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" s="5" customFormat="1">
-      <c r="A105" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="B105" s="21" t="s">
-        <v>366</v>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B105" t="s">
+        <v>385</v>
       </c>
       <c r="C105" s="1">
-        <v>43857</v>
-      </c>
-      <c r="D105" s="1"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H105" s="7"/>
+        <v>43867</v>
+      </c>
+      <c r="F105" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="J105" s="8" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="10" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="B106" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C106" s="1">
-        <v>43859</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>1</v>
+        <v>43867</v>
+      </c>
+      <c r="F106" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="10" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="B107" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="C107" s="1">
-        <v>43862</v>
-      </c>
-      <c r="F107" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J107" t="s">
-        <v>372</v>
+        <v>43870</v>
+      </c>
+      <c r="F107" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J107" s="8" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="10" t="s">
-        <v>373</v>
+      <c r="A108" t="s">
+        <v>393</v>
       </c>
       <c r="B108" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="C108" s="1">
-        <v>43865</v>
-      </c>
-      <c r="F108" s="15" t="s">
-        <v>0</v>
+        <v>43870</v>
+      </c>
+      <c r="F108" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>394</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="10" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="B109" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="C109" s="1">
-        <v>43865</v>
-      </c>
-      <c r="F109" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="J109" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" s="14" customFormat="1">
-      <c r="A110" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="B110" s="22" t="s">
-        <v>380</v>
+        <v>43870</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J109" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
+        <v>402</v>
+      </c>
+      <c r="B110" t="s">
+        <v>403</v>
       </c>
       <c r="C110" s="1">
-        <v>43865</v>
-      </c>
-      <c r="D110" s="23"/>
-      <c r="E110" s="17"/>
+        <v>43870</v>
+      </c>
       <c r="F110" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-    </row>
-    <row r="111" spans="1:10" s="14" customFormat="1">
-      <c r="A111" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="C111" s="23">
-        <v>43866</v>
-      </c>
-      <c r="D111" s="25"/>
-      <c r="E111" s="24"/>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B111" t="s">
+        <v>405</v>
+      </c>
+      <c r="C111" s="1">
+        <v>43870</v>
+      </c>
       <c r="F111" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
+      <c r="G111" s="4" t="s">
+        <v>275</v>
+      </c>
       <c r="J111" s="8" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="10" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="B112" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="C112" s="1">
-        <v>43867</v>
-      </c>
-      <c r="F112" s="16" t="s">
-        <v>72</v>
+        <v>43875</v>
+      </c>
+      <c r="F112" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="10" t="s">
-        <v>387</v>
+      <c r="A113" t="s">
+        <v>410</v>
       </c>
       <c r="B113" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="C113" s="1">
-        <v>43867</v>
+        <v>43875</v>
       </c>
       <c r="F113" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J113" t="s">
-        <v>389</v>
+      <c r="J113" s="8" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="B114" t="s">
-        <v>391</v>
+      <c r="A114" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>412</v>
       </c>
       <c r="C114" s="1">
-        <v>43870</v>
-      </c>
-      <c r="F114" s="24" t="s">
-        <v>0</v>
+        <v>43876</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="B115" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="C115" s="1">
-        <v>43870</v>
+        <v>43876</v>
       </c>
       <c r="F115" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="H115" s="4" t="s">
-        <v>394</v>
-      </c>
       <c r="J115" s="8" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="10" t="s">
-        <v>399</v>
+      <c r="A116" t="s">
+        <v>417</v>
       </c>
       <c r="B116" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="C116" s="1">
-        <v>43870</v>
+        <v>43876</v>
       </c>
       <c r="F116" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J116" s="8" t="s">
-        <v>401</v>
+      <c r="G116" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="B117" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="C117" s="1">
-        <v>43870</v>
+        <v>43878</v>
       </c>
       <c r="F117" s="24" t="s">
         <v>0</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="J117" s="8" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="10" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="B118" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="C118" s="1">
-        <v>43870</v>
-      </c>
-      <c r="F118" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="J118" s="8" t="s">
-        <v>406</v>
+        <v>43878</v>
+      </c>
+      <c r="F118" s="16" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="10" t="s">
-        <v>407</v>
+      <c r="A119" t="s">
+        <v>424</v>
       </c>
       <c r="B119" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="C119" s="1">
-        <v>43875</v>
+        <v>43878</v>
       </c>
       <c r="F119" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G119" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J119" s="8" t="s">
-        <v>409</v>
+      <c r="J119" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" t="s">
-        <v>410</v>
-      </c>
-      <c r="B120" t="s">
-        <v>410</v>
+      <c r="A120" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>428</v>
       </c>
       <c r="C120" s="1">
-        <v>43875</v>
-      </c>
-      <c r="F120" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="J120" s="8" t="s">
-        <v>411</v>
+        <v>43879</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" s="5" t="s">
-        <v>294</v>
+      <c r="A121" t="s">
+        <v>429</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="C121" s="1">
-        <v>43876</v>
-      </c>
-      <c r="D121" s="1"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>1</v>
+        <v>43883</v>
+      </c>
+      <c r="F121" s="26" t="s">
+        <v>222</v>
       </c>
       <c r="J121" s="8" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>414</v>
-      </c>
-      <c r="B122" t="s">
-        <v>415</v>
+        <v>436</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="C122" s="1">
-        <v>43876</v>
-      </c>
-      <c r="F122" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="J122" s="8" t="s">
-        <v>416</v>
+        <v>43884</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J122" s="94" t="s">
+        <v>1218</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="B123" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="C123" s="1">
-        <v>43876</v>
-      </c>
-      <c r="F123" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="G123" s="7" t="s">
+        <v>43887</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G123" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>122</v>
+        <v>252</v>
+      </c>
+      <c r="J123" s="94" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" t="s">
-        <v>419</v>
-      </c>
-      <c r="B124" t="s">
-        <v>420</v>
+      <c r="A124" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>444</v>
       </c>
       <c r="C124" s="1">
-        <v>43878</v>
-      </c>
-      <c r="F124" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>193</v>
-      </c>
+        <v>43889</v>
+      </c>
+      <c r="D124" s="23"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G124" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H124" s="17"/>
       <c r="J124" s="8" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="10" t="s">
-        <v>422</v>
+      <c r="A125" t="s">
+        <v>446</v>
       </c>
       <c r="B125" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="C125" s="1">
-        <v>43878</v>
-      </c>
-      <c r="F125" s="16" t="s">
-        <v>213</v>
+        <v>43896</v>
+      </c>
+      <c r="F125" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J125" s="94" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="B126" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="C126" s="1">
-        <v>43878</v>
-      </c>
-      <c r="F126" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="J126" t="s">
-        <v>426</v>
+        <v>43898</v>
+      </c>
+      <c r="F126" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J126" s="94" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>428</v>
+      <c r="A127" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1088</v>
       </c>
       <c r="C127" s="1">
-        <v>43879</v>
-      </c>
-      <c r="D127" s="1"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>1</v>
+        <v>43899</v>
+      </c>
+      <c r="F127" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J127" s="94" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>429</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>430</v>
+        <v>1090</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1089</v>
       </c>
       <c r="C128" s="1">
-        <v>43883</v>
-      </c>
-      <c r="F128" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="J128" s="8" t="s">
-        <v>431</v>
+        <v>43899</v>
+      </c>
+      <c r="F128" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J128" s="94" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>436</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>437</v>
+        <v>1091</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1092</v>
       </c>
       <c r="C129" s="1">
-        <v>43884</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>0</v>
+        <v>43899</v>
+      </c>
+      <c r="F129" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J129" s="94" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130" t="s">
-        <v>438</v>
-      </c>
-      <c r="B130" t="s">
-        <v>439</v>
-      </c>
-      <c r="C130" s="1">
-        <v>43887</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="J130" s="94" t="s">
-        <v>1114</v>
+      <c r="A130" s="13" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C130" s="23">
+        <v>43903</v>
+      </c>
+      <c r="D130" s="23"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:10">
-      <c r="A131" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="B131" s="22" t="s">
-        <v>444</v>
+      <c r="A131" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1096</v>
       </c>
       <c r="C131" s="1">
-        <v>43889</v>
-      </c>
-      <c r="D131" s="23"/>
-      <c r="E131" s="17"/>
+        <v>43904</v>
+      </c>
       <c r="F131" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G131" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H131" s="17"/>
-      <c r="J131" s="8" t="s">
-        <v>445</v>
+      <c r="J131" s="94" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>446</v>
+        <v>1101</v>
       </c>
       <c r="B132" t="s">
-        <v>447</v>
-      </c>
-      <c r="C132" s="1">
-        <v>43896</v>
-      </c>
-      <c r="F132" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J132" s="94" t="s">
-        <v>1143</v>
+        <v>1102</v>
+      </c>
+      <c r="C132" s="96">
+        <v>43906</v>
+      </c>
+      <c r="F132" s="97" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>448</v>
+        <v>1104</v>
       </c>
       <c r="B133" t="s">
-        <v>449</v>
-      </c>
-      <c r="C133" s="1">
-        <v>43898</v>
-      </c>
-      <c r="F133" s="17" t="s">
-        <v>0</v>
+        <v>1103</v>
+      </c>
+      <c r="C133" s="96">
+        <v>43906</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="J133" s="94" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>1087</v>
+        <v>1107</v>
       </c>
       <c r="B134" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C134" s="1">
-        <v>43899</v>
-      </c>
-      <c r="F134" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J134" s="94" t="s">
-        <v>1192</v>
+        <v>1108</v>
+      </c>
+      <c r="C134" s="96">
+        <v>43906</v>
+      </c>
+      <c r="F134" s="97" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>1090</v>
+        <v>1115</v>
       </c>
       <c r="B135" t="s">
-        <v>1089</v>
+        <v>1116</v>
       </c>
       <c r="C135" s="1">
-        <v>43899</v>
-      </c>
-      <c r="F135" s="17" t="s">
-        <v>0</v>
+        <v>43910</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="J135" s="94" t="s">
-        <v>1111</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="136" spans="1:10">
-      <c r="A136" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B136" t="s">
-        <v>1092</v>
+      <c r="A136" s="100" t="s">
+        <v>689</v>
+      </c>
+      <c r="B136" s="95" t="s">
+        <v>1024</v>
       </c>
       <c r="C136" s="1">
-        <v>43899</v>
-      </c>
-      <c r="F136" s="17" t="s">
-        <v>0</v>
+        <v>43910</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="J136" s="94" t="s">
-        <v>1110</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="137" spans="1:10">
-      <c r="A137" s="13" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B137" s="14" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C137" s="23">
-        <v>43903</v>
-      </c>
-      <c r="D137" s="23"/>
-      <c r="E137" s="17"/>
-      <c r="F137" s="17" t="s">
-        <v>0</v>
+      <c r="A137" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C137" s="1">
+        <v>43911</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J137" s="94" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>1095</v>
+        <v>1126</v>
       </c>
       <c r="B138" t="s">
-        <v>1096</v>
+        <v>1127</v>
       </c>
       <c r="C138" s="1">
-        <v>43904</v>
-      </c>
-      <c r="F138" s="17" t="s">
-        <v>0</v>
+        <v>43912</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="J138" s="94" t="s">
-        <v>1117</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>1100</v>
+        <v>1128</v>
       </c>
       <c r="B139" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C139" s="96">
-        <v>43906</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>1098</v>
+        <v>1152</v>
+      </c>
+      <c r="C139" s="1">
+        <v>43912</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="B140" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C140" s="96">
-        <v>43906</v>
-      </c>
-      <c r="F140" s="97" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C140" s="1">
+        <v>43913</v>
+      </c>
+      <c r="F140" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>1104</v>
+        <v>1132</v>
       </c>
       <c r="B141" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C141" s="96">
-        <v>43906</v>
+        <v>1131</v>
+      </c>
+      <c r="C141" s="1">
+        <v>43913</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>1101</v>
-      </c>
-      <c r="J141" s="94" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>1107</v>
+        <v>1133</v>
       </c>
       <c r="B142" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C142" s="96">
-        <v>43906</v>
-      </c>
-      <c r="F142" s="97" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C142" s="1">
+        <v>43913</v>
+      </c>
+      <c r="F142" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>1115</v>
+        <v>1134</v>
       </c>
       <c r="B143" t="s">
-        <v>1116</v>
+        <v>1137</v>
       </c>
       <c r="C143" s="1">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
     </row>
     <row r="144" spans="1:10">
-      <c r="A144" s="100" t="s">
-        <v>689</v>
-      </c>
-      <c r="B144" s="95" t="s">
-        <v>1024</v>
+      <c r="A144" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1135</v>
       </c>
       <c r="C144" s="1">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>63</v>
+        <v>0</v>
+      </c>
+      <c r="J144" s="94" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>1122</v>
+        <v>1138</v>
       </c>
       <c r="B145" t="s">
-        <v>1123</v>
+        <v>1139</v>
       </c>
       <c r="C145" s="1">
-        <v>43911</v>
+        <v>43914</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J145" s="94" t="s">
-        <v>1145</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>1126</v>
+        <v>1148</v>
       </c>
       <c r="B146" t="s">
-        <v>1127</v>
+        <v>1147</v>
       </c>
       <c r="C146" s="1">
-        <v>43912</v>
+        <v>43918</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J146" s="94" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10">
-      <c r="A147" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B147" t="s">
-        <v>1152</v>
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" s="95" customFormat="1">
+      <c r="A147" s="101" t="s">
+        <v>187</v>
+      </c>
+      <c r="B147" s="102" t="s">
+        <v>188</v>
       </c>
       <c r="C147" s="1">
-        <v>43912</v>
-      </c>
+        <v>43918</v>
+      </c>
+      <c r="D147" s="96"/>
+      <c r="E147" s="98"/>
       <c r="F147" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="G147" s="98" t="s">
+        <v>189</v>
+      </c>
+      <c r="H147" s="98"/>
+      <c r="J147" s="95" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="148" spans="1:10">
-      <c r="A148" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B148" t="s">
-        <v>1129</v>
+      <c r="A148" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="B148" s="95" t="s">
+        <v>244</v>
       </c>
       <c r="C148" s="1">
-        <v>43913</v>
+        <v>43918</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="J148" s="94" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>1132</v>
+        <v>1153</v>
       </c>
       <c r="B149" t="s">
-        <v>1131</v>
+        <v>1153</v>
       </c>
       <c r="C149" s="1">
-        <v>43913</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>1115</v>
+        <v>43918</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:10">
-      <c r="A150" t="s">
-        <v>1133</v>
+      <c r="A150" s="101" t="s">
+        <v>1154</v>
       </c>
       <c r="B150" t="s">
-        <v>1133</v>
+        <v>1155</v>
       </c>
       <c r="C150" s="1">
-        <v>43913</v>
+        <v>43919</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="J150" s="94" t="s">
+        <v>1219</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>1134</v>
+        <v>1156</v>
       </c>
       <c r="B151" t="s">
-        <v>1137</v>
+        <v>1157</v>
       </c>
       <c r="C151" s="1">
-        <v>43913</v>
+        <v>43919</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>376</v>
+        <v>0</v>
+      </c>
+      <c r="J151" s="94" t="s">
+        <v>1217</v>
       </c>
     </row>
     <row r="152" spans="1:10">
-      <c r="A152" t="s">
-        <v>1136</v>
+      <c r="A152" s="101" t="s">
+        <v>1158</v>
       </c>
       <c r="B152" t="s">
-        <v>1135</v>
+        <v>1159</v>
       </c>
       <c r="C152" s="1">
-        <v>43913</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>0</v>
+        <v>43920</v>
+      </c>
+      <c r="F152" s="26" t="s">
+        <v>384</v>
       </c>
       <c r="J152" s="94" t="s">
-        <v>1146</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>1138</v>
+        <v>1163</v>
       </c>
       <c r="B153" t="s">
-        <v>1139</v>
+        <v>1162</v>
       </c>
       <c r="C153" s="1">
-        <v>43914</v>
+        <v>43921</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J153" s="94" t="s">
-        <v>1201</v>
-      </c>
     </row>
     <row r="154" spans="1:10">
-      <c r="A154" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C154" s="1">
-        <v>43918</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" s="95" customFormat="1">
-      <c r="A155" s="101" t="s">
-        <v>187</v>
-      </c>
-      <c r="B155" s="102" t="s">
-        <v>188</v>
+      <c r="A154" s="103" t="s">
+        <v>845</v>
+      </c>
+      <c r="B154" s="104" t="s">
+        <v>846</v>
+      </c>
+      <c r="C154" s="96">
+        <v>43922</v>
+      </c>
+      <c r="D154" s="96"/>
+      <c r="E154" s="98"/>
+      <c r="F154" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="G154" s="98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1191</v>
       </c>
       <c r="C155" s="1">
-        <v>43918</v>
-      </c>
-      <c r="D155" s="96"/>
-      <c r="E155" s="98"/>
+        <v>43924</v>
+      </c>
       <c r="F155" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G155" s="98" t="s">
-        <v>189</v>
-      </c>
-      <c r="H155" s="98"/>
-      <c r="J155" s="95" t="s">
-        <v>190</v>
+        <v>44</v>
       </c>
     </row>
     <row r="156" spans="1:10">
-      <c r="A156" s="101" t="s">
-        <v>243</v>
-      </c>
-      <c r="B156" s="95" t="s">
-        <v>244</v>
+      <c r="A156" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1193</v>
       </c>
       <c r="C156" s="1">
-        <v>43918</v>
+        <v>43926</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>0</v>
+        <v>1195</v>
+      </c>
+      <c r="J156" s="94" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="157" spans="1:10">
-      <c r="A157" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B157" t="s">
-        <v>1153</v>
+      <c r="A157" s="95" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B157" s="95" t="s">
+        <v>1052</v>
       </c>
       <c r="C157" s="1">
-        <v>43918</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>0</v>
+        <v>43927</v>
+      </c>
+      <c r="F157" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J157" s="94" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="158" spans="1:10">
-      <c r="A158" s="101" t="s">
-        <v>1154</v>
+      <c r="A158" t="s">
+        <v>1197</v>
       </c>
       <c r="B158" t="s">
-        <v>1155</v>
+        <v>1196</v>
       </c>
       <c r="C158" s="1">
-        <v>43919</v>
+        <v>43929</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>0</v>
+        <v>176</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>1156</v>
+        <v>690</v>
       </c>
       <c r="B159" t="s">
-        <v>1157</v>
+        <v>1198</v>
       </c>
       <c r="C159" s="1">
-        <v>43919</v>
-      </c>
-      <c r="F159" s="3" t="s">
+        <v>43929</v>
+      </c>
+      <c r="F159" s="97" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:10">
-      <c r="A160" s="101" t="s">
-        <v>1158</v>
+      <c r="A160" t="s">
+        <v>1199</v>
       </c>
       <c r="B160" t="s">
-        <v>1159</v>
+        <v>1200</v>
       </c>
       <c r="C160" s="1">
-        <v>43920</v>
-      </c>
-      <c r="F160" s="26" t="s">
-        <v>384</v>
+        <v>43930</v>
+      </c>
+      <c r="F160" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="J160" s="94" t="s">
+        <v>1214</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>1163</v>
+        <v>1202</v>
       </c>
       <c r="B161" t="s">
-        <v>1162</v>
+        <v>1203</v>
       </c>
       <c r="C161" s="1">
-        <v>43921</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>0</v>
+        <v>43930</v>
+      </c>
+      <c r="F161" s="97" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="162" spans="1:10">
-      <c r="A162" s="22" t="s">
-        <v>955</v>
-      </c>
-      <c r="B162" s="22" t="s">
-        <v>955</v>
+      <c r="A162" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1205</v>
       </c>
       <c r="C162" s="1">
-        <v>43921</v>
-      </c>
-      <c r="F162" s="3" t="s">
+        <v>43932</v>
+      </c>
+      <c r="F162" s="97" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:10">
-      <c r="A163" s="103" t="s">
-        <v>845</v>
-      </c>
-      <c r="B163" s="104" t="s">
-        <v>846</v>
-      </c>
-      <c r="C163" s="96">
-        <v>43922</v>
-      </c>
-      <c r="D163" s="96"/>
-      <c r="E163" s="98"/>
+      <c r="A163" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C163" s="1">
+        <v>43933</v>
+      </c>
       <c r="F163" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="G163" s="98" t="s">
-        <v>1</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>1190</v>
+        <v>140</v>
       </c>
       <c r="B164" t="s">
-        <v>1191</v>
+        <v>1208</v>
       </c>
       <c r="C164" s="1">
-        <v>43924</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>44</v>
+        <v>43934</v>
+      </c>
+      <c r="F164" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="J164" s="94" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>1194</v>
+        <v>1209</v>
       </c>
       <c r="B165" t="s">
-        <v>1193</v>
+        <v>1210</v>
       </c>
       <c r="C165" s="1">
-        <v>43926</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>1195</v>
-      </c>
-      <c r="J165" s="94" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10">
-      <c r="A166" s="95" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B166" s="95" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C166" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F166" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="G166" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J166" s="94" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10">
-      <c r="A167" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C167" s="1">
-        <v>43929</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G167" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10">
-      <c r="A168" t="s">
-        <v>690</v>
-      </c>
-      <c r="B168" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C168" s="1">
-        <v>43929</v>
-      </c>
-      <c r="F168" s="97" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10">
-      <c r="A169" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C169" s="1">
-        <v>43930</v>
-      </c>
-      <c r="F169" s="97" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10">
-      <c r="A170" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B170" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C170" s="1">
-        <v>43930</v>
-      </c>
-      <c r="F170" s="97" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10">
-      <c r="A171" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B171" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C171" s="1">
-        <v>43932</v>
-      </c>
-      <c r="F171" s="97" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" ht="14.75" customHeight="1"/>
+        <v>43935</v>
+      </c>
+      <c r="F165" s="97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" ht="14.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -8410,114 +8377,122 @@
     <hyperlink ref="J10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="J11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="J12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J26" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J28" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J29" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J30" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J31" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="J32" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="J36" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="J38" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J39" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J41" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J42" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J44" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="J45" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J46" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J48" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="J49" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="J50" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="J51" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="J52" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="J53" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="J54" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="K54" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="J55" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="J57" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="J58" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="J59" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="J61" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J62" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="J63" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J64" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J65" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="J66" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="J68" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="J69" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="J70" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="J71" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="J72" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="J74" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="J75" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="J76" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="J78" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="J79" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="J80" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="J83" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="J85" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="J87" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="J88" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="J89" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="J90" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="J91" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="J95" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="J97" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="J98" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="J101" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="J102" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="J104" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="J105" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="J107" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="J108" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="J109" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="J111" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="J112" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="J113" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="J114" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="J115" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="J118" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="J119" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="J120" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="J121" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="J122" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="J124" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="J126" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="J128" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="J131" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="J47" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="J100" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="J136" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="J135" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="J133" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="J130" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="J138" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="J141" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="J146" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="J132" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="J145" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="J152" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="J155" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="J134" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="J153" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="J166" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="J165" r:id="rId106" xr:uid="{75CC1BEC-02FD-1E48-8E21-07BA11CFF739}"/>
+    <hyperlink ref="J16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J20" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J22" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J25" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J27" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J28" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J29" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J30" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J31" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J35" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J37" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J38" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J42" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J43" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J45" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J46" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J47" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J48" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="J49" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J50" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="J51" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K51" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J52" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J53" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J54" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J55" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J57" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="J58" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J59" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J60" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J61" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J62" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="J64" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J65" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="J66" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="J67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J70" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J71" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J72" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J74" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="J75" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="J76" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="J78" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="J81" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="J82" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="J83" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="J84" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="J88" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="J90" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="J91" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="J94" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="J95" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="J97" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="J98" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="J100" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="J101" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="J102" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="J104" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="J105" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="J106" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="J107" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="J108" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="J111" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="J112" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="J113" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="J114" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="J115" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="J117" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="J119" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="J121" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="J124" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="J44" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="J93" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="J129" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="J128" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="J126" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J123" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="J131" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="J133" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="J138" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="J125" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="J137" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J144" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="J147" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="J127" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="J145" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="J157" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="J156" r:id="rId102" xr:uid="{22AF5CEA-DFBA-0A45-A15C-6228FAAC27FB}"/>
+    <hyperlink ref="J160" r:id="rId103" xr:uid="{9850B36F-35D0-7441-BFD1-B9209427A09D}"/>
+    <hyperlink ref="J136" r:id="rId104" xr:uid="{53BF8A66-736F-E94C-B641-694943B2FF7A}"/>
+    <hyperlink ref="J135" r:id="rId105" xr:uid="{ED791F55-7B10-9344-AE8F-F2D7EE9D002C}"/>
+    <hyperlink ref="J151" r:id="rId106" xr:uid="{D22AA0F6-92B7-BB47-9F26-5F773E32687A}"/>
+    <hyperlink ref="J122" r:id="rId107" xr:uid="{CC2A0D8D-188E-F84D-95A3-9F0709FA3ECE}"/>
+    <hyperlink ref="J150" r:id="rId108" xr:uid="{665D0414-74F9-E940-9E69-206D3E59FE62}"/>
+    <hyperlink ref="J89" r:id="rId109" xr:uid="{F5809204-8A6F-4E48-BF15-5BA1D1E960B0}"/>
+    <hyperlink ref="J103" r:id="rId110" xr:uid="{EAC493C9-9220-954F-9CCB-73F719034A62}"/>
+    <hyperlink ref="J164" r:id="rId111" xr:uid="{D5E471B9-5A04-5443-8A68-114C5AD80585}"/>
+    <hyperlink ref="J79" r:id="rId112" xr:uid="{572554F2-3A64-C34F-A436-40D85AD0E01D}"/>
+    <hyperlink ref="J148" r:id="rId113" xr:uid="{8E086C45-6A54-5B49-B574-3C9C3902E547}"/>
+    <hyperlink ref="J152" r:id="rId114" xr:uid="{340D7CFA-58FB-B740-A1FC-07AC450A1E5A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId107"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId115"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K383"/>
+  <dimension ref="A1:L392"/>
   <sheetViews>
-    <sheetView topLeftCell="A307" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H327" sqref="H327"/>
+    <sheetView topLeftCell="A386" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E395" sqref="E395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="15"/>
@@ -10072,12 +10047,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:12">
       <c r="A65" s="33" t="s">
         <v>298</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>299</v>
+        <v>1215</v>
       </c>
       <c r="C65" s="30">
         <v>43444</v>
@@ -10098,8 +10073,11 @@
       <c r="H65" s="34"/>
       <c r="I65" s="33"/>
       <c r="J65" s="33"/>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="L65" s="29" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="33" t="s">
         <v>573</v>
       </c>
@@ -10126,7 +10104,7 @@
       <c r="I66" s="33"/>
       <c r="J66" s="33"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:12">
       <c r="A67" s="33" t="s">
         <v>575</v>
       </c>
@@ -10149,7 +10127,7 @@
       <c r="I67" s="33"/>
       <c r="J67" s="33"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:12">
       <c r="A68" s="33" t="s">
         <v>99</v>
       </c>
@@ -10180,7 +10158,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:12">
       <c r="A69" s="28" t="s">
         <v>578</v>
       </c>
@@ -10206,7 +10184,7 @@
       <c r="I69" s="33"/>
       <c r="J69" s="33"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:12">
       <c r="A70" s="28" t="s">
         <v>497</v>
       </c>
@@ -10235,7 +10213,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:12">
       <c r="A71" s="28" t="s">
         <v>582</v>
       </c>
@@ -10262,7 +10240,7 @@
       <c r="I71" s="33"/>
       <c r="J71" s="33"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:12">
       <c r="A72" s="33" t="s">
         <v>585</v>
       </c>
@@ -10287,7 +10265,7 @@
       <c r="I72" s="33"/>
       <c r="J72" s="33"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:12">
       <c r="A73" s="33" t="s">
         <v>467</v>
       </c>
@@ -10314,7 +10292,7 @@
       <c r="I73" s="33"/>
       <c r="J73" s="33"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:12">
       <c r="A74" s="28" t="s">
         <v>587</v>
       </c>
@@ -10337,7 +10315,7 @@
       <c r="I74" s="33"/>
       <c r="J74" s="33"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:12">
       <c r="A75" s="33" t="s">
         <v>589</v>
       </c>
@@ -10362,7 +10340,7 @@
       <c r="I75" s="33"/>
       <c r="J75" s="33"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:12">
       <c r="A76" s="42" t="s">
         <v>591</v>
       </c>
@@ -10389,7 +10367,7 @@
       <c r="I76" s="33"/>
       <c r="J76" s="33"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:12">
       <c r="A77" s="28" t="s">
         <v>593</v>
       </c>
@@ -10413,7 +10391,7 @@
       <c r="I77" s="33"/>
       <c r="J77" s="33"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:12">
       <c r="A78" s="33" t="s">
         <v>596</v>
       </c>
@@ -10442,7 +10420,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:12">
       <c r="A79" s="28" t="s">
         <v>599</v>
       </c>
@@ -10469,7 +10447,7 @@
       <c r="I79" s="33"/>
       <c r="J79" s="33"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:12">
       <c r="A80" s="33" t="s">
         <v>576</v>
       </c>
@@ -12822,7 +12800,7 @@
         <v>298</v>
       </c>
       <c r="B170" s="29" t="s">
-        <v>299</v>
+        <v>1215</v>
       </c>
       <c r="C170" s="30">
         <v>43619</v>
@@ -17890,7 +17868,7 @@
         <v>43925</v>
       </c>
       <c r="E369" s="34">
-        <f t="shared" ref="E369:E383" si="7">D369-C369</f>
+        <f t="shared" ref="E369:E392" si="7">D369-C369</f>
         <v>223</v>
       </c>
       <c r="F369" s="32" t="s">
@@ -18259,6 +18237,235 @@
       </c>
       <c r="G383" s="34"/>
       <c r="H383" s="34"/>
+    </row>
+    <row r="384" spans="1:11" s="33" customFormat="1">
+      <c r="A384" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="B384" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C384" s="30">
+        <v>43830</v>
+      </c>
+      <c r="D384" s="30">
+        <v>43933</v>
+      </c>
+      <c r="E384" s="34">
+        <f t="shared" si="7"/>
+        <v>103</v>
+      </c>
+      <c r="F384" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G384" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="H384" s="34"/>
+    </row>
+    <row r="385" spans="1:10" s="33" customFormat="1">
+      <c r="A385" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B385" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C385" s="30">
+        <v>43669</v>
+      </c>
+      <c r="D385" s="30">
+        <v>43933</v>
+      </c>
+      <c r="E385" s="34">
+        <f t="shared" si="7"/>
+        <v>264</v>
+      </c>
+      <c r="F385" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G385" s="34"/>
+      <c r="H385" s="34"/>
+      <c r="J385" s="46" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" s="33" customFormat="1">
+      <c r="A386" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="B386" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="C386" s="30">
+        <v>43834</v>
+      </c>
+      <c r="D386" s="30">
+        <v>43933</v>
+      </c>
+      <c r="E386" s="34">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
+      <c r="F386" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="G386" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="H386" s="34"/>
+      <c r="J386" s="46" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" s="33" customFormat="1">
+      <c r="A387" s="33" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B387" s="33" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C387" s="30">
+        <v>43906</v>
+      </c>
+      <c r="D387" s="31">
+        <v>43934</v>
+      </c>
+      <c r="E387" s="32">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="F387" s="34" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G387" s="34"/>
+      <c r="H387" s="34"/>
+    </row>
+    <row r="388" spans="1:10" s="33" customFormat="1">
+      <c r="A388" s="29" t="s">
+        <v>955</v>
+      </c>
+      <c r="B388" s="29" t="s">
+        <v>955</v>
+      </c>
+      <c r="C388" s="30">
+        <v>43921</v>
+      </c>
+      <c r="D388" s="31">
+        <v>43936</v>
+      </c>
+      <c r="E388" s="32">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="F388" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G388" s="34"/>
+      <c r="H388" s="34"/>
+    </row>
+    <row r="389" spans="1:10" s="33" customFormat="1">
+      <c r="A389" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B389" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C389" s="30">
+        <v>43646</v>
+      </c>
+      <c r="D389" s="30">
+        <v>43936</v>
+      </c>
+      <c r="E389" s="34">
+        <f t="shared" si="7"/>
+        <v>290</v>
+      </c>
+      <c r="F389" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G389" s="34" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H389" s="34"/>
+      <c r="J389" s="46" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" s="33" customFormat="1">
+      <c r="A390" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="B390" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="C390" s="30">
+        <v>43711</v>
+      </c>
+      <c r="D390" s="30">
+        <v>43936</v>
+      </c>
+      <c r="E390" s="34">
+        <f t="shared" si="7"/>
+        <v>225</v>
+      </c>
+      <c r="F390" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G390" s="34"/>
+      <c r="H390" s="34"/>
+    </row>
+    <row r="391" spans="1:10" s="33" customFormat="1">
+      <c r="A391" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="B391" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="C391" s="30">
+        <v>43841</v>
+      </c>
+      <c r="D391" s="31">
+        <v>43937</v>
+      </c>
+      <c r="E391" s="32">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+      <c r="F391" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G391" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H391" s="34"/>
+      <c r="J391" s="46" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" s="33" customFormat="1">
+      <c r="A392" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B392" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C392" s="30">
+        <v>43527</v>
+      </c>
+      <c r="D392" s="31">
+        <v>43937</v>
+      </c>
+      <c r="E392" s="32">
+        <f t="shared" si="7"/>
+        <v>410</v>
+      </c>
+      <c r="F392" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G392" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H392" s="34"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -18303,9 +18510,13 @@
     <hyperlink ref="J378" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
     <hyperlink ref="J381" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
     <hyperlink ref="J382" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="J385" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="J386" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="J389" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J391" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId42"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId46"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/generateEXCEL/Data/Members/GroupRecord.xlsx
+++ b/generateEXCEL/Data/Members/GroupRecord.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hguan/Dropbox/Research/Coding/WeChatGroup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Huifeng\Dropbox\Research\Coding\WeChatGroup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBB208D-76BE-0841-8AAB-24857F6FD666}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38340" yWindow="-1300" windowWidth="19000" windowHeight="14340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38340" yWindow="-1305" windowWidth="19005" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="1228">
   <si>
     <t>wisdompeak</t>
   </si>
@@ -4344,11 +4343,20 @@
   <si>
     <t>qizhong19920114@gmail.com</t>
   </si>
+  <si>
+    <t>yiding.ely@gmail.com</t>
+  </si>
+  <si>
+    <t>flyoasis</t>
+  </si>
+  <si>
+    <t>sxd32550</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yyyy"/>
@@ -4839,8 +4847,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5219,23 +5227,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K265"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="36.5" customWidth="1"/>
-    <col min="11" max="11" width="35.1640625" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" customWidth="1"/>
+    <col min="11" max="11" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -7554,197 +7564,197 @@
       <c r="H116" s="4" t="s">
         <v>122</v>
       </c>
+      <c r="J116" s="94" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" t="s">
-        <v>419</v>
+      <c r="A117" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="B117" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C117" s="1">
         <v>43878</v>
       </c>
-      <c r="F117" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="J117" s="8" t="s">
-        <v>421</v>
+      <c r="F117" s="16" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="10" t="s">
-        <v>422</v>
+      <c r="A118" t="s">
+        <v>424</v>
       </c>
       <c r="B118" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C118" s="1">
         <v>43878</v>
       </c>
-      <c r="F118" s="16" t="s">
-        <v>213</v>
+      <c r="F118" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J118" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" t="s">
-        <v>424</v>
-      </c>
-      <c r="B119" t="s">
-        <v>425</v>
+      <c r="A119" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>428</v>
       </c>
       <c r="C119" s="1">
-        <v>43878</v>
-      </c>
-      <c r="F119" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="J119" t="s">
-        <v>426</v>
+        <v>43879</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="10" t="s">
-        <v>427</v>
+      <c r="A120" t="s">
+        <v>429</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C120" s="1">
-        <v>43879</v>
-      </c>
-      <c r="D120" s="1"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>1</v>
+        <v>43883</v>
+      </c>
+      <c r="F120" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="J120" s="8" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="C121" s="1">
-        <v>43883</v>
-      </c>
-      <c r="F121" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="J121" s="8" t="s">
-        <v>431</v>
+        <v>43884</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J121" s="94" t="s">
+        <v>1218</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>436</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
+      </c>
+      <c r="B122" t="s">
+        <v>439</v>
       </c>
       <c r="C122" s="1">
-        <v>43884</v>
+        <v>43887</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="G122" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>252</v>
+      </c>
       <c r="J122" s="94" t="s">
-        <v>1218</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" t="s">
-        <v>438</v>
-      </c>
-      <c r="B123" t="s">
-        <v>439</v>
+      <c r="A123" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="B123" s="22" t="s">
+        <v>444</v>
       </c>
       <c r="C123" s="1">
-        <v>43887</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="J123" s="94" t="s">
-        <v>1114</v>
+        <v>43889</v>
+      </c>
+      <c r="D123" s="23"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G123" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H123" s="17"/>
+      <c r="J123" s="8" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="B124" s="22" t="s">
-        <v>444</v>
+      <c r="A124" t="s">
+        <v>446</v>
+      </c>
+      <c r="B124" t="s">
+        <v>447</v>
       </c>
       <c r="C124" s="1">
-        <v>43889</v>
-      </c>
-      <c r="D124" s="23"/>
-      <c r="E124" s="17"/>
+        <v>43896</v>
+      </c>
       <c r="F124" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G124" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H124" s="17"/>
-      <c r="J124" s="8" t="s">
-        <v>445</v>
+      <c r="J124" s="94" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B125" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C125" s="1">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="F125" s="17" t="s">
         <v>0</v>
       </c>
       <c r="J125" s="94" t="s">
-        <v>1143</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>448</v>
+        <v>1087</v>
       </c>
       <c r="B126" t="s">
-        <v>449</v>
+        <v>1088</v>
       </c>
       <c r="C126" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="F126" s="17" t="s">
         <v>0</v>
       </c>
       <c r="J126" s="94" t="s">
-        <v>1112</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="B127" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C127" s="1">
         <v>43899</v>
@@ -7753,15 +7763,15 @@
         <v>0</v>
       </c>
       <c r="J127" s="94" t="s">
-        <v>1192</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B128" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="C128" s="1">
         <v>43899</v>
@@ -7770,181 +7780,178 @@
         <v>0</v>
       </c>
       <c r="J128" s="94" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="129" spans="1:10">
-      <c r="A129" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B129" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C129" s="1">
-        <v>43899</v>
-      </c>
+      <c r="A129" s="13" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C129" s="23">
+        <v>43903</v>
+      </c>
+      <c r="D129" s="23"/>
+      <c r="E129" s="17"/>
       <c r="F129" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J129" s="94" t="s">
-        <v>1110</v>
-      </c>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130" s="13" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B130" s="14" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C130" s="23">
-        <v>43903</v>
-      </c>
-      <c r="D130" s="23"/>
-      <c r="E130" s="17"/>
+      <c r="A130" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C130" s="1">
+        <v>43904</v>
+      </c>
       <c r="F130" s="17" t="s">
         <v>0</v>
+      </c>
+      <c r="J130" s="94" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="B131" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C131" s="1">
-        <v>43904</v>
-      </c>
-      <c r="F131" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J131" s="94" t="s">
-        <v>1117</v>
+        <v>1102</v>
+      </c>
+      <c r="C131" s="96">
+        <v>43906</v>
+      </c>
+      <c r="F131" s="97" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B132" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C132" s="96">
         <v>43906</v>
       </c>
-      <c r="F132" s="97" t="s">
-        <v>0</v>
+      <c r="F132" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J132" s="94" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="B133" t="s">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="C133" s="96">
         <v>43906</v>
       </c>
-      <c r="F133" s="4" t="s">
-        <v>1101</v>
-      </c>
-      <c r="J133" s="94" t="s">
-        <v>1118</v>
+      <c r="F133" s="97" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>1107</v>
+        <v>1115</v>
       </c>
       <c r="B134" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C134" s="96">
-        <v>43906</v>
-      </c>
-      <c r="F134" s="97" t="s">
-        <v>0</v>
+        <v>1116</v>
+      </c>
+      <c r="C134" s="1">
+        <v>43910</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="J134" s="94" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="135" spans="1:10">
-      <c r="A135" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B135" t="s">
-        <v>1116</v>
+      <c r="A135" s="100" t="s">
+        <v>689</v>
+      </c>
+      <c r="B135" s="95" t="s">
+        <v>1024</v>
       </c>
       <c r="C135" s="1">
         <v>43910</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>335</v>
+        <v>63</v>
       </c>
       <c r="J135" s="94" t="s">
-        <v>1216</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="136" spans="1:10">
-      <c r="A136" s="100" t="s">
-        <v>689</v>
-      </c>
-      <c r="B136" s="95" t="s">
-        <v>1024</v>
+      <c r="A136" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1123</v>
       </c>
       <c r="C136" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="J136" s="94" t="s">
-        <v>1025</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="B137" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="C137" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J137" s="94" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B138" t="s">
-        <v>1127</v>
+        <v>1152</v>
       </c>
       <c r="C138" s="1">
         <v>43912</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J138" s="94" t="s">
-        <v>1142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="B139" t="s">
-        <v>1152</v>
+        <v>1129</v>
       </c>
       <c r="C139" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>0</v>
@@ -7952,137 +7959,140 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="B140" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="C140" s="1">
         <v>43913</v>
       </c>
-      <c r="F140" s="3" t="s">
-        <v>0</v>
+      <c r="F140" s="4" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B141" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="C141" s="1">
         <v>43913</v>
       </c>
-      <c r="F141" s="4" t="s">
-        <v>1115</v>
+      <c r="F141" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B142" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="C142" s="1">
         <v>43913</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>0</v>
+        <v>376</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="B143" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C143" s="1">
         <v>43913</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>376</v>
+        <v>0</v>
+      </c>
+      <c r="J143" s="94" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="B144" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="C144" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J144" s="94" t="s">
-        <v>1146</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>1138</v>
+        <v>1148</v>
       </c>
       <c r="B145" t="s">
-        <v>1139</v>
+        <v>1147</v>
       </c>
       <c r="C145" s="1">
-        <v>43914</v>
+        <v>43918</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J145" s="94" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10">
-      <c r="A146" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B146" t="s">
-        <v>1147</v>
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="95" customFormat="1">
+      <c r="A146" s="101" t="s">
+        <v>187</v>
+      </c>
+      <c r="B146" s="102" t="s">
+        <v>188</v>
       </c>
       <c r="C146" s="1">
         <v>43918</v>
       </c>
+      <c r="D146" s="96"/>
+      <c r="E146" s="98"/>
       <c r="F146" s="3" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" s="95" customFormat="1">
+        <v>0</v>
+      </c>
+      <c r="G146" s="98" t="s">
+        <v>189</v>
+      </c>
+      <c r="H146" s="98"/>
+      <c r="J146" s="95" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="101" t="s">
-        <v>187</v>
-      </c>
-      <c r="B147" s="102" t="s">
-        <v>188</v>
+        <v>243</v>
+      </c>
+      <c r="B147" s="95" t="s">
+        <v>244</v>
       </c>
       <c r="C147" s="1">
         <v>43918</v>
       </c>
-      <c r="D147" s="96"/>
-      <c r="E147" s="98"/>
       <c r="F147" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G147" s="98" t="s">
-        <v>189</v>
-      </c>
-      <c r="H147" s="98"/>
-      <c r="J147" s="95" t="s">
-        <v>190</v>
+      <c r="J147" s="94" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="148" spans="1:10">
-      <c r="A148" s="101" t="s">
-        <v>243</v>
-      </c>
-      <c r="B148" s="95" t="s">
-        <v>244</v>
+      <c r="A148" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1153</v>
       </c>
       <c r="C148" s="1">
         <v>43918</v>
@@ -8090,30 +8100,30 @@
       <c r="F148" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J148" s="94" t="s">
-        <v>245</v>
-      </c>
     </row>
     <row r="149" spans="1:10">
-      <c r="A149" t="s">
-        <v>1153</v>
+      <c r="A149" s="101" t="s">
+        <v>1154</v>
       </c>
       <c r="B149" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="C149" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="J149" s="94" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="150" spans="1:10">
-      <c r="A150" s="101" t="s">
-        <v>1154</v>
+      <c r="A150" t="s">
+        <v>1156</v>
       </c>
       <c r="B150" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="C150" s="1">
         <v>43919</v>
@@ -8122,184 +8132,181 @@
         <v>0</v>
       </c>
       <c r="J150" s="94" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="151" spans="1:10">
-      <c r="A151" t="s">
-        <v>1156</v>
+      <c r="A151" s="101" t="s">
+        <v>1158</v>
       </c>
       <c r="B151" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C151" s="1">
-        <v>43919</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>0</v>
+        <v>43920</v>
+      </c>
+      <c r="F151" s="26" t="s">
+        <v>384</v>
       </c>
       <c r="J151" s="94" t="s">
-        <v>1217</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="152" spans="1:10">
-      <c r="A152" s="101" t="s">
-        <v>1158</v>
+      <c r="A152" t="s">
+        <v>1163</v>
       </c>
       <c r="B152" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="C152" s="1">
-        <v>43920</v>
-      </c>
-      <c r="F152" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="J152" s="94" t="s">
-        <v>1224</v>
+        <v>43921</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:10">
-      <c r="A153" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B153" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C153" s="1">
-        <v>43921</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>0</v>
+      <c r="A153" s="103" t="s">
+        <v>845</v>
+      </c>
+      <c r="B153" s="104" t="s">
+        <v>846</v>
+      </c>
+      <c r="C153" s="96">
+        <v>43922</v>
+      </c>
+      <c r="D153" s="96"/>
+      <c r="E153" s="98"/>
+      <c r="F153" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="G153" s="98" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:10">
-      <c r="A154" s="103" t="s">
-        <v>845</v>
-      </c>
-      <c r="B154" s="104" t="s">
-        <v>846</v>
-      </c>
-      <c r="C154" s="96">
-        <v>43922</v>
-      </c>
-      <c r="D154" s="96"/>
-      <c r="E154" s="98"/>
-      <c r="F154" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="G154" s="98" t="s">
-        <v>1</v>
+      <c r="A154" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C154" s="1">
+        <v>43926</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J154" s="94" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="155" spans="1:10">
-      <c r="A155" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B155" t="s">
-        <v>1191</v>
+      <c r="A155" s="95" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B155" s="95" t="s">
+        <v>1052</v>
       </c>
       <c r="C155" s="1">
-        <v>43924</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>44</v>
+        <v>43927</v>
+      </c>
+      <c r="F155" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J155" s="94" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="B156" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="C156" s="1">
-        <v>43926</v>
+        <v>43929</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>1195</v>
-      </c>
-      <c r="J156" s="94" t="s">
-        <v>1213</v>
+        <v>176</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="157" spans="1:10">
-      <c r="A157" s="95" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B157" s="95" t="s">
-        <v>1052</v>
+      <c r="A157" t="s">
+        <v>690</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1198</v>
       </c>
       <c r="C157" s="1">
-        <v>43927</v>
+        <v>43929</v>
       </c>
       <c r="F157" s="97" t="s">
         <v>0</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J157" s="94" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="B158" t="s">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="C158" s="1">
-        <v>43929</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G158" s="4" t="s">
-        <v>103</v>
+        <v>43930</v>
+      </c>
+      <c r="F158" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="J158" s="94" t="s">
+        <v>1214</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>690</v>
+        <v>1202</v>
       </c>
       <c r="B159" t="s">
-        <v>1198</v>
+        <v>1203</v>
       </c>
       <c r="C159" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="F159" s="97" t="s">
-        <v>0</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" t="s">
-        <v>1199</v>
+        <v>1204</v>
       </c>
       <c r="B160" t="s">
-        <v>1200</v>
+        <v>1205</v>
       </c>
       <c r="C160" s="1">
-        <v>43930</v>
+        <v>43932</v>
       </c>
       <c r="F160" s="97" t="s">
         <v>0</v>
-      </c>
-      <c r="J160" s="94" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>1202</v>
+        <v>1206</v>
       </c>
       <c r="B161" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="C161" s="1">
-        <v>43930</v>
+        <v>43933</v>
       </c>
       <c r="F161" s="97" t="s">
         <v>163</v>
@@ -8307,180 +8314,166 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>1204</v>
+        <v>140</v>
       </c>
       <c r="B162" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="C162" s="1">
-        <v>43932</v>
+        <v>43934</v>
       </c>
       <c r="F162" s="97" t="s">
         <v>0</v>
+      </c>
+      <c r="J162" s="94" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="B163" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="C163" s="1">
-        <v>43933</v>
+        <v>43935</v>
       </c>
       <c r="F163" s="97" t="s">
-        <v>163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>140</v>
+        <v>1226</v>
       </c>
       <c r="B164" t="s">
-        <v>1208</v>
+        <v>1227</v>
       </c>
       <c r="C164" s="1">
-        <v>43934</v>
+        <v>43938</v>
       </c>
       <c r="F164" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="J164" s="94" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10">
-      <c r="A165" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B165" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C165" s="1">
-        <v>43935</v>
-      </c>
-      <c r="F165" s="97" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" ht="14.75" customHeight="1"/>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="263" ht="14.85" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J20" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J22" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J25" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J27" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J28" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J29" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J30" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="J31" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="J35" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="J37" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J38" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J42" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="J43" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J45" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J46" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="J47" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="J48" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="J49" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="J50" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="J51" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="K51" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="J52" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="J53" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="J54" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="J55" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="J57" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="J58" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J59" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="J60" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J61" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J62" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="J64" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="J65" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="J66" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="J67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="J68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="J70" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="J71" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="J72" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="J74" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="J75" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="J76" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="J78" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="J81" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="J82" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="J83" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="J84" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="J88" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="J90" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="J91" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="J94" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="J95" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="J97" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="J98" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="J100" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="J101" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="J102" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="J104" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="J105" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="J106" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="J107" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="J108" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="J111" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="J112" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="J113" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="J114" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="J115" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="J117" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="J119" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="J121" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="J124" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="J44" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="J93" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="J129" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="J128" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="J126" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="J123" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="J131" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="J133" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="J138" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="J125" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="J137" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="J144" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="J147" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="J127" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="J145" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="J157" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="J156" r:id="rId102" xr:uid="{22AF5CEA-DFBA-0A45-A15C-6228FAAC27FB}"/>
-    <hyperlink ref="J160" r:id="rId103" xr:uid="{9850B36F-35D0-7441-BFD1-B9209427A09D}"/>
-    <hyperlink ref="J136" r:id="rId104" xr:uid="{53BF8A66-736F-E94C-B641-694943B2FF7A}"/>
-    <hyperlink ref="J135" r:id="rId105" xr:uid="{ED791F55-7B10-9344-AE8F-F2D7EE9D002C}"/>
-    <hyperlink ref="J151" r:id="rId106" xr:uid="{D22AA0F6-92B7-BB47-9F26-5F773E32687A}"/>
-    <hyperlink ref="J122" r:id="rId107" xr:uid="{CC2A0D8D-188E-F84D-95A3-9F0709FA3ECE}"/>
-    <hyperlink ref="J150" r:id="rId108" xr:uid="{665D0414-74F9-E940-9E69-206D3E59FE62}"/>
-    <hyperlink ref="J89" r:id="rId109" xr:uid="{F5809204-8A6F-4E48-BF15-5BA1D1E960B0}"/>
-    <hyperlink ref="J103" r:id="rId110" xr:uid="{EAC493C9-9220-954F-9CCB-73F719034A62}"/>
-    <hyperlink ref="J164" r:id="rId111" xr:uid="{D5E471B9-5A04-5443-8A68-114C5AD80585}"/>
-    <hyperlink ref="J79" r:id="rId112" xr:uid="{572554F2-3A64-C34F-A436-40D85AD0E01D}"/>
-    <hyperlink ref="J148" r:id="rId113" xr:uid="{8E086C45-6A54-5B49-B574-3C9C3902E547}"/>
-    <hyperlink ref="J152" r:id="rId114" xr:uid="{340D7CFA-58FB-B740-A1FC-07AC450A1E5A}"/>
+    <hyperlink ref="J1" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="J4" r:id="rId3"/>
+    <hyperlink ref="J5" r:id="rId4"/>
+    <hyperlink ref="J6" r:id="rId5"/>
+    <hyperlink ref="J7" r:id="rId6"/>
+    <hyperlink ref="J9" r:id="rId7"/>
+    <hyperlink ref="J10" r:id="rId8"/>
+    <hyperlink ref="J11" r:id="rId9"/>
+    <hyperlink ref="J12" r:id="rId10"/>
+    <hyperlink ref="J16" r:id="rId11"/>
+    <hyperlink ref="J19" r:id="rId12"/>
+    <hyperlink ref="J20" r:id="rId13"/>
+    <hyperlink ref="J21" r:id="rId14"/>
+    <hyperlink ref="J22" r:id="rId15"/>
+    <hyperlink ref="J25" r:id="rId16"/>
+    <hyperlink ref="J27" r:id="rId17"/>
+    <hyperlink ref="J28" r:id="rId18"/>
+    <hyperlink ref="J29" r:id="rId19"/>
+    <hyperlink ref="J30" r:id="rId20"/>
+    <hyperlink ref="J31" r:id="rId21"/>
+    <hyperlink ref="J35" r:id="rId22"/>
+    <hyperlink ref="J37" r:id="rId23"/>
+    <hyperlink ref="J38" r:id="rId24"/>
+    <hyperlink ref="J40" r:id="rId25"/>
+    <hyperlink ref="J42" r:id="rId26"/>
+    <hyperlink ref="J43" r:id="rId27"/>
+    <hyperlink ref="J45" r:id="rId28"/>
+    <hyperlink ref="J46" r:id="rId29"/>
+    <hyperlink ref="J47" r:id="rId30"/>
+    <hyperlink ref="J48" r:id="rId31"/>
+    <hyperlink ref="J49" r:id="rId32"/>
+    <hyperlink ref="J50" r:id="rId33"/>
+    <hyperlink ref="J51" r:id="rId34"/>
+    <hyperlink ref="K51" r:id="rId35"/>
+    <hyperlink ref="J52" r:id="rId36"/>
+    <hyperlink ref="J53" r:id="rId37"/>
+    <hyperlink ref="J54" r:id="rId38"/>
+    <hyperlink ref="J55" r:id="rId39"/>
+    <hyperlink ref="J57" r:id="rId40"/>
+    <hyperlink ref="J58" r:id="rId41"/>
+    <hyperlink ref="J59" r:id="rId42"/>
+    <hyperlink ref="J60" r:id="rId43"/>
+    <hyperlink ref="J61" r:id="rId44"/>
+    <hyperlink ref="J62" r:id="rId45"/>
+    <hyperlink ref="J64" r:id="rId46"/>
+    <hyperlink ref="J65" r:id="rId47"/>
+    <hyperlink ref="J66" r:id="rId48"/>
+    <hyperlink ref="J67" r:id="rId49"/>
+    <hyperlink ref="J68" r:id="rId50"/>
+    <hyperlink ref="J70" r:id="rId51"/>
+    <hyperlink ref="J71" r:id="rId52"/>
+    <hyperlink ref="J72" r:id="rId53"/>
+    <hyperlink ref="J74" r:id="rId54"/>
+    <hyperlink ref="J75" r:id="rId55"/>
+    <hyperlink ref="J76" r:id="rId56"/>
+    <hyperlink ref="J78" r:id="rId57"/>
+    <hyperlink ref="J81" r:id="rId58"/>
+    <hyperlink ref="J82" r:id="rId59"/>
+    <hyperlink ref="J83" r:id="rId60"/>
+    <hyperlink ref="J84" r:id="rId61"/>
+    <hyperlink ref="J88" r:id="rId62"/>
+    <hyperlink ref="J90" r:id="rId63"/>
+    <hyperlink ref="J91" r:id="rId64"/>
+    <hyperlink ref="J94" r:id="rId65"/>
+    <hyperlink ref="J95" r:id="rId66"/>
+    <hyperlink ref="J97" r:id="rId67"/>
+    <hyperlink ref="J98" r:id="rId68"/>
+    <hyperlink ref="J100" r:id="rId69"/>
+    <hyperlink ref="J101" r:id="rId70"/>
+    <hyperlink ref="J102" r:id="rId71"/>
+    <hyperlink ref="J104" r:id="rId72"/>
+    <hyperlink ref="J105" r:id="rId73"/>
+    <hyperlink ref="J106" r:id="rId74"/>
+    <hyperlink ref="J107" r:id="rId75"/>
+    <hyperlink ref="J108" r:id="rId76"/>
+    <hyperlink ref="J111" r:id="rId77"/>
+    <hyperlink ref="J112" r:id="rId78"/>
+    <hyperlink ref="J113" r:id="rId79"/>
+    <hyperlink ref="J114" r:id="rId80"/>
+    <hyperlink ref="J115" r:id="rId81"/>
+    <hyperlink ref="J118" r:id="rId82"/>
+    <hyperlink ref="J120" r:id="rId83"/>
+    <hyperlink ref="J123" r:id="rId84"/>
+    <hyperlink ref="J44" r:id="rId85"/>
+    <hyperlink ref="J93" r:id="rId86"/>
+    <hyperlink ref="J128" r:id="rId87"/>
+    <hyperlink ref="J127" r:id="rId88"/>
+    <hyperlink ref="J125" r:id="rId89"/>
+    <hyperlink ref="J122" r:id="rId90"/>
+    <hyperlink ref="J130" r:id="rId91"/>
+    <hyperlink ref="J132" r:id="rId92"/>
+    <hyperlink ref="J137" r:id="rId93"/>
+    <hyperlink ref="J124" r:id="rId94"/>
+    <hyperlink ref="J136" r:id="rId95"/>
+    <hyperlink ref="J143" r:id="rId96"/>
+    <hyperlink ref="J146" r:id="rId97"/>
+    <hyperlink ref="J126" r:id="rId98"/>
+    <hyperlink ref="J144" r:id="rId99"/>
+    <hyperlink ref="J155" r:id="rId100"/>
+    <hyperlink ref="J154" r:id="rId101"/>
+    <hyperlink ref="J158" r:id="rId102"/>
+    <hyperlink ref="J135" r:id="rId103"/>
+    <hyperlink ref="J134" r:id="rId104"/>
+    <hyperlink ref="J150" r:id="rId105"/>
+    <hyperlink ref="J121" r:id="rId106"/>
+    <hyperlink ref="J149" r:id="rId107"/>
+    <hyperlink ref="J89" r:id="rId108"/>
+    <hyperlink ref="J103" r:id="rId109"/>
+    <hyperlink ref="J162" r:id="rId110"/>
+    <hyperlink ref="J79" r:id="rId111"/>
+    <hyperlink ref="J147" r:id="rId112"/>
+    <hyperlink ref="J151" r:id="rId113"/>
+    <hyperlink ref="J116" r:id="rId114"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId115"/>
@@ -8488,21 +8481,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L392"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L394"/>
   <sheetViews>
     <sheetView topLeftCell="A386" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E395" sqref="E395"/>
+      <selection activeCell="E397" sqref="E397"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" style="27" customWidth="1"/>
-    <col min="3" max="4" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1"/>
-    <col min="8" max="8" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="27" customWidth="1"/>
+    <col min="3" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -17868,7 +17861,7 @@
         <v>43925</v>
       </c>
       <c r="E369" s="34">
-        <f t="shared" ref="E369:E392" si="7">D369-C369</f>
+        <f t="shared" ref="E369:E394" si="7">D369-C369</f>
         <v>223</v>
       </c>
       <c r="F369" s="32" t="s">
@@ -18467,56 +18460,108 @@
       </c>
       <c r="H392" s="34"/>
     </row>
+    <row r="393" spans="1:10" s="33" customFormat="1">
+      <c r="A393" s="33" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B393" s="33" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C393" s="30">
+        <v>43924</v>
+      </c>
+      <c r="D393" s="31">
+        <v>43939</v>
+      </c>
+      <c r="E393" s="32">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="F393" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="G393" s="34"/>
+      <c r="H393" s="34"/>
+    </row>
+    <row r="394" spans="1:10" s="33" customFormat="1">
+      <c r="A394" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="B394" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="C394" s="30">
+        <v>43878</v>
+      </c>
+      <c r="D394" s="31">
+        <v>43939</v>
+      </c>
+      <c r="E394" s="34">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="F394" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G394" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="H394" s="34"/>
+      <c r="J394" s="46" t="s">
+        <v>421</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J55" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="J64" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="J68" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="J70" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="J78" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="J80" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="J99" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="J111" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="J119" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="J140" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="J158" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="J203" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="J220" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="J275" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="J318" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="J319" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="J330" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="J336" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="J343" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="J344" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="J351" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="J353" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="J352" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="J354" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="J355" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="J356" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="J359" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="J360" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="J361" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="J362" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="J363" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="J364" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="J366" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="J367" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="J369" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="J371" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="J372" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="J375" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="J378" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="J381" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="J382" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="J385" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="J386" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="J389" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J391" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="J55" r:id="rId1"/>
+    <hyperlink ref="J64" r:id="rId2"/>
+    <hyperlink ref="J68" r:id="rId3"/>
+    <hyperlink ref="J70" r:id="rId4"/>
+    <hyperlink ref="J78" r:id="rId5"/>
+    <hyperlink ref="J80" r:id="rId6"/>
+    <hyperlink ref="J99" r:id="rId7"/>
+    <hyperlink ref="J111" r:id="rId8"/>
+    <hyperlink ref="J119" r:id="rId9"/>
+    <hyperlink ref="J140" r:id="rId10"/>
+    <hyperlink ref="J158" r:id="rId11"/>
+    <hyperlink ref="J203" r:id="rId12"/>
+    <hyperlink ref="J220" r:id="rId13"/>
+    <hyperlink ref="J275" r:id="rId14"/>
+    <hyperlink ref="J318" r:id="rId15"/>
+    <hyperlink ref="J319" r:id="rId16"/>
+    <hyperlink ref="J330" r:id="rId17"/>
+    <hyperlink ref="J336" r:id="rId18"/>
+    <hyperlink ref="J343" r:id="rId19"/>
+    <hyperlink ref="J344" r:id="rId20"/>
+    <hyperlink ref="J351" r:id="rId21"/>
+    <hyperlink ref="J353" r:id="rId22"/>
+    <hyperlink ref="J352" r:id="rId23"/>
+    <hyperlink ref="J354" r:id="rId24"/>
+    <hyperlink ref="J355" r:id="rId25"/>
+    <hyperlink ref="J356" r:id="rId26"/>
+    <hyperlink ref="J359" r:id="rId27"/>
+    <hyperlink ref="J360" r:id="rId28"/>
+    <hyperlink ref="J361" r:id="rId29"/>
+    <hyperlink ref="J362" r:id="rId30"/>
+    <hyperlink ref="J363" r:id="rId31"/>
+    <hyperlink ref="J364" r:id="rId32"/>
+    <hyperlink ref="J366" r:id="rId33"/>
+    <hyperlink ref="J367" r:id="rId34"/>
+    <hyperlink ref="J369" r:id="rId35"/>
+    <hyperlink ref="J371" r:id="rId36"/>
+    <hyperlink ref="J372" r:id="rId37"/>
+    <hyperlink ref="J375" r:id="rId38"/>
+    <hyperlink ref="J378" r:id="rId39"/>
+    <hyperlink ref="J381" r:id="rId40"/>
+    <hyperlink ref="J382" r:id="rId41"/>
+    <hyperlink ref="J385" r:id="rId42"/>
+    <hyperlink ref="J386" r:id="rId43"/>
+    <hyperlink ref="J389" r:id="rId44"/>
+    <hyperlink ref="J391" r:id="rId45"/>
+    <hyperlink ref="J394" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId46"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId47"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -18525,14 +18570,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -18540,35 +18585,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z119"/>
   <sheetViews>
     <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="3" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="4"/>
-    <col min="10" max="10" width="9.83203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="4"/>
-    <col min="12" max="15" width="8.6640625" style="3"/>
-    <col min="16" max="16" width="8.6640625" style="4"/>
-    <col min="17" max="17" width="9.1640625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" style="4"/>
-    <col min="19" max="19" width="9.1640625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" style="4"/>
-    <col min="21" max="21" width="9.1640625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" style="3"/>
-    <col min="23" max="23" width="8.83203125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="8.83203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="4"/>
+    <col min="10" max="10" width="9.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="4"/>
+    <col min="12" max="15" width="8.7109375" style="3"/>
+    <col min="16" max="16" width="8.7109375" style="4"/>
+    <col min="17" max="17" width="9.140625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" style="4"/>
+    <col min="19" max="19" width="9.140625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="4"/>
+    <col min="21" max="21" width="9.140625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" style="3"/>
+    <col min="23" max="23" width="8.85546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -20366,7 +20411,7 @@
         <v>65.686101520780824</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="16">
+    <row r="26" spans="1:25">
       <c r="A26" s="85" t="s">
         <v>590</v>
       </c>
@@ -25627,17 +25672,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" style="3" customWidth="1"/>
-    <col min="2" max="6" width="11.5" style="3"/>
+    <col min="2" max="6" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1">

--- a/generateEXCEL/Data/Members/GroupRecord.xlsx
+++ b/generateEXCEL/Data/Members/GroupRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hguan/Dropbox/Research/Coding/WeChatGroup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B8D5B1-04E2-B844-B5AD-E9D0406F2094}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69906C93-BB5D-0F4B-8409-45B172A997E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-44440" yWindow="720" windowWidth="19000" windowHeight="14340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5256,10 +5256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K253"/>
+  <dimension ref="A1:K252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -7448,10 +7448,10 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B109" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C109" s="1">
         <v>43876</v>
@@ -7459,180 +7459,180 @@
       <c r="F109" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J109" s="8" t="s">
-        <v>415</v>
+      <c r="G109" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J109" s="94" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" t="s">
-        <v>416</v>
+      <c r="A110" s="10" t="s">
+        <v>421</v>
       </c>
       <c r="B110" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C110" s="1">
-        <v>43876</v>
-      </c>
-      <c r="F110" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J110" s="94" t="s">
-        <v>1224</v>
+        <v>43878</v>
+      </c>
+      <c r="F110" s="16" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" s="10" t="s">
-        <v>421</v>
+      <c r="A111" t="s">
+        <v>423</v>
       </c>
       <c r="B111" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C111" s="1">
         <v>43878</v>
       </c>
-      <c r="F111" s="16" t="s">
-        <v>212</v>
+      <c r="F111" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J111" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" t="s">
-        <v>423</v>
-      </c>
-      <c r="B112" t="s">
-        <v>424</v>
+      <c r="A112" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>427</v>
       </c>
       <c r="C112" s="1">
-        <v>43878</v>
-      </c>
-      <c r="F112" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="J112" t="s">
-        <v>425</v>
+        <v>43879</v>
+      </c>
+      <c r="D112" s="1"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="10" t="s">
-        <v>426</v>
+      <c r="A113" t="s">
+        <v>428</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C113" s="1">
-        <v>43879</v>
-      </c>
-      <c r="D113" s="1"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>1</v>
+        <v>43883</v>
+      </c>
+      <c r="F113" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="J113" s="8" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C114" s="1">
-        <v>43883</v>
-      </c>
-      <c r="F114" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="J114" s="8" t="s">
-        <v>430</v>
+        <v>43884</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J114" s="94" t="s">
+        <v>1217</v>
       </c>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" t="s">
-        <v>435</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>436</v>
+      <c r="A115" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="B115" s="22" t="s">
+        <v>443</v>
       </c>
       <c r="C115" s="1">
-        <v>43884</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J115" s="94" t="s">
-        <v>1217</v>
+        <v>43889</v>
+      </c>
+      <c r="D115" s="23"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G115" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H115" s="17"/>
+      <c r="J115" s="8" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B116" s="22" t="s">
-        <v>443</v>
+      <c r="A116" t="s">
+        <v>445</v>
+      </c>
+      <c r="B116" t="s">
+        <v>446</v>
       </c>
       <c r="C116" s="1">
-        <v>43889</v>
-      </c>
-      <c r="D116" s="23"/>
-      <c r="E116" s="17"/>
+        <v>43896</v>
+      </c>
       <c r="F116" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G116" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H116" s="17"/>
-      <c r="J116" s="8" t="s">
-        <v>444</v>
+      <c r="J116" s="94" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B117" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C117" s="1">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="F117" s="17" t="s">
         <v>0</v>
       </c>
       <c r="J117" s="94" t="s">
-        <v>1142</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>447</v>
+        <v>1086</v>
       </c>
       <c r="B118" t="s">
-        <v>448</v>
+        <v>1087</v>
       </c>
       <c r="C118" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="F118" s="17" t="s">
         <v>0</v>
       </c>
       <c r="J118" s="94" t="s">
-        <v>1111</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="B119" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C119" s="1">
         <v>43899</v>
@@ -7641,15 +7641,15 @@
         <v>0</v>
       </c>
       <c r="J119" s="94" t="s">
-        <v>1191</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B120" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="C120" s="1">
         <v>43899</v>
@@ -7658,319 +7658,319 @@
         <v>0</v>
       </c>
       <c r="J120" s="94" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B121" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C121" s="1">
-        <v>43899</v>
-      </c>
+      <c r="A121" s="13" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C121" s="23">
+        <v>43903</v>
+      </c>
+      <c r="D121" s="23"/>
+      <c r="E121" s="17"/>
       <c r="F121" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J121" s="94" t="s">
-        <v>1109</v>
-      </c>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="13" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C122" s="23">
-        <v>43903</v>
-      </c>
-      <c r="D122" s="23"/>
-      <c r="E122" s="17"/>
+      <c r="A122" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C122" s="1">
+        <v>43904</v>
+      </c>
       <c r="F122" s="17" t="s">
         <v>0</v>
+      </c>
+      <c r="J122" s="94" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="B123" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C123" s="1">
-        <v>43904</v>
-      </c>
-      <c r="F123" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J123" s="94" t="s">
-        <v>1116</v>
+        <v>1101</v>
+      </c>
+      <c r="C123" s="96">
+        <v>43906</v>
+      </c>
+      <c r="F123" s="97" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="B124" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C124" s="96">
         <v>43906</v>
       </c>
-      <c r="F124" s="97" t="s">
-        <v>0</v>
+      <c r="F124" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J124" s="94" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="B125" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="C125" s="96">
         <v>43906</v>
       </c>
-      <c r="F125" s="4" t="s">
-        <v>1100</v>
-      </c>
-      <c r="J125" s="94" t="s">
-        <v>1117</v>
+      <c r="F125" s="97" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="B126" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C126" s="96">
-        <v>43906</v>
-      </c>
-      <c r="F126" s="97" t="s">
-        <v>0</v>
+        <v>1115</v>
+      </c>
+      <c r="C126" s="1">
+        <v>43910</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="J126" s="94" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B127" t="s">
-        <v>1115</v>
+      <c r="A127" s="100" t="s">
+        <v>688</v>
+      </c>
+      <c r="B127" s="95" t="s">
+        <v>1023</v>
       </c>
       <c r="C127" s="1">
         <v>43910</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>334</v>
+        <v>63</v>
       </c>
       <c r="J127" s="94" t="s">
-        <v>1215</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="100" t="s">
-        <v>688</v>
-      </c>
-      <c r="B128" s="95" t="s">
-        <v>1023</v>
+      <c r="A128" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1122</v>
       </c>
       <c r="C128" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="J128" s="94" t="s">
-        <v>1024</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="B129" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="C129" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J129" s="94" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="B130" t="s">
-        <v>1126</v>
+        <v>1151</v>
       </c>
       <c r="C130" s="1">
         <v>43912</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J130" s="94" t="s">
-        <v>1141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="B131" t="s">
-        <v>1151</v>
+        <v>1130</v>
       </c>
       <c r="C131" s="1">
-        <v>43912</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>0</v>
+        <v>43913</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B132" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="C132" s="1">
         <v>43913</v>
       </c>
-      <c r="F132" s="4" t="s">
-        <v>1114</v>
+      <c r="F132" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B133" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="C133" s="1">
         <v>43913</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>0</v>
+        <v>375</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="B134" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C134" s="1">
         <v>43913</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>375</v>
+        <v>0</v>
+      </c>
+      <c r="J134" s="94" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="B135" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="C135" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J135" s="94" t="s">
-        <v>1145</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>1137</v>
+        <v>1147</v>
       </c>
       <c r="B136" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="C136" s="1">
-        <v>43914</v>
+        <v>43918</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J136" s="94" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10">
-      <c r="A137" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B137" t="s">
-        <v>1146</v>
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" s="95" customFormat="1">
+      <c r="A137" s="101" t="s">
+        <v>186</v>
+      </c>
+      <c r="B137" s="102" t="s">
+        <v>187</v>
       </c>
       <c r="C137" s="1">
         <v>43918</v>
       </c>
+      <c r="D137" s="96"/>
+      <c r="E137" s="98"/>
       <c r="F137" s="3" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" s="95" customFormat="1">
-      <c r="A138" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="B138" s="102" t="s">
-        <v>187</v>
+        <v>0</v>
+      </c>
+      <c r="G137" s="98" t="s">
+        <v>188</v>
+      </c>
+      <c r="H137" s="98"/>
+      <c r="J137" s="95" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1152</v>
       </c>
       <c r="C138" s="1">
         <v>43918</v>
       </c>
-      <c r="D138" s="96"/>
-      <c r="E138" s="98"/>
       <c r="F138" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G138" s="98" t="s">
-        <v>188</v>
-      </c>
-      <c r="H138" s="98"/>
-      <c r="J138" s="95" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="139" spans="1:10">
-      <c r="A139" t="s">
-        <v>1152</v>
+      <c r="A139" s="101" t="s">
+        <v>1153</v>
       </c>
       <c r="B139" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="C139" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="J139" s="94" t="s">
+        <v>1218</v>
+      </c>
     </row>
     <row r="140" spans="1:10">
-      <c r="A140" s="101" t="s">
-        <v>1153</v>
+      <c r="A140" t="s">
+        <v>1155</v>
       </c>
       <c r="B140" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="C140" s="1">
         <v>43919</v>
@@ -7979,229 +7979,226 @@
         <v>0</v>
       </c>
       <c r="J140" s="94" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="141" spans="1:10">
-      <c r="A141" t="s">
-        <v>1155</v>
+      <c r="A141" s="101" t="s">
+        <v>1157</v>
       </c>
       <c r="B141" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="C141" s="1">
-        <v>43919</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>0</v>
+        <v>43920</v>
+      </c>
+      <c r="F141" s="26" t="s">
+        <v>383</v>
       </c>
       <c r="J141" s="94" t="s">
-        <v>1216</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="142" spans="1:10">
-      <c r="A142" s="101" t="s">
-        <v>1157</v>
+      <c r="A142" t="s">
+        <v>1162</v>
       </c>
       <c r="B142" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="C142" s="1">
-        <v>43920</v>
-      </c>
-      <c r="F142" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="J142" s="94" t="s">
-        <v>1223</v>
+        <v>43921</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:10">
-      <c r="A143" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B143" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C143" s="1">
-        <v>43921</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>0</v>
+      <c r="A143" s="103" t="s">
+        <v>844</v>
+      </c>
+      <c r="B143" s="104" t="s">
+        <v>845</v>
+      </c>
+      <c r="C143" s="96">
+        <v>43922</v>
+      </c>
+      <c r="D143" s="96"/>
+      <c r="E143" s="98"/>
+      <c r="F143" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="G143" s="98" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:10">
-      <c r="A144" s="103" t="s">
-        <v>844</v>
-      </c>
-      <c r="B144" s="104" t="s">
-        <v>845</v>
-      </c>
-      <c r="C144" s="96">
-        <v>43922</v>
-      </c>
-      <c r="D144" s="96"/>
-      <c r="E144" s="98"/>
-      <c r="F144" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="G144" s="98" t="s">
-        <v>1</v>
+      <c r="A144" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C144" s="1">
+        <v>43926</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="J144" s="94" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="145" spans="1:10">
-      <c r="A145" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B145" t="s">
-        <v>1192</v>
+      <c r="A145" s="95" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B145" s="95" t="s">
+        <v>1051</v>
       </c>
       <c r="C145" s="1">
-        <v>43926</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>1194</v>
+        <v>43927</v>
+      </c>
+      <c r="F145" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="J145" s="94" t="s">
-        <v>1212</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="146" spans="1:10">
-      <c r="A146" s="95" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B146" s="95" t="s">
-        <v>1051</v>
+      <c r="A146" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1195</v>
       </c>
       <c r="C146" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F146" s="97" t="s">
-        <v>0</v>
+        <v>43929</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="J146" s="94" t="s">
-        <v>1052</v>
-      </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>1196</v>
+        <v>689</v>
       </c>
       <c r="B147" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="C147" s="1">
         <v>43929</v>
       </c>
-      <c r="F147" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>103</v>
+      <c r="F147" s="97" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>689</v>
+        <v>1198</v>
       </c>
       <c r="B148" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="C148" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="F148" s="97" t="s">
         <v>0</v>
+      </c>
+      <c r="J148" s="94" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="B149" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="C149" s="1">
         <v>43930</v>
       </c>
       <c r="F149" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="J149" s="94" t="s">
-        <v>1213</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="B150" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="C150" s="1">
-        <v>43930</v>
+        <v>43932</v>
       </c>
       <c r="F150" s="97" t="s">
-        <v>162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="B151" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="C151" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="F151" s="97" t="s">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>1205</v>
+        <v>140</v>
       </c>
       <c r="B152" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="C152" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="F152" s="97" t="s">
-        <v>162</v>
+        <v>0</v>
+      </c>
+      <c r="J152" s="94" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>140</v>
+        <v>1208</v>
       </c>
       <c r="B153" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="C153" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="F153" s="97" t="s">
         <v>0</v>
-      </c>
-      <c r="J153" s="94" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>1208</v>
+        <v>1228</v>
       </c>
       <c r="B154" t="s">
-        <v>1209</v>
+        <v>1227</v>
       </c>
       <c r="C154" s="1">
-        <v>43935</v>
+        <v>43940</v>
       </c>
       <c r="F154" s="97" t="s">
         <v>0</v>
@@ -8209,27 +8206,27 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B155" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="C155" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="F155" s="97" t="s">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="B156" t="s">
-        <v>1229</v>
+        <v>1235</v>
       </c>
       <c r="C156" s="1">
-        <v>43941</v>
+        <v>43944</v>
       </c>
       <c r="F156" s="97" t="s">
         <v>162</v>
@@ -8237,47 +8234,33 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B157" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C157" s="1">
         <v>43944</v>
       </c>
       <c r="F157" s="97" t="s">
-        <v>162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B158" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="C158" s="1">
         <v>43944</v>
       </c>
-      <c r="F158" s="97" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10">
-      <c r="A159" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B159" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C159" s="1">
-        <v>43944</v>
-      </c>
-      <c r="F159" s="3" t="s">
+      <c r="F158" s="3" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="253" ht="14.75" customHeight="1"/>
+    <row r="252" ht="14.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -8359,48 +8342,47 @@
     <hyperlink ref="J106" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
     <hyperlink ref="J107" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
     <hyperlink ref="J108" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="J109" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="J112" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="J114" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="J116" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="J42" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="J89" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="J121" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="J120" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="J118" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="J123" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="J125" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="J130" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="J117" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="J129" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="J135" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="J138" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="J119" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="J136" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="J146" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="J145" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="J149" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="J128" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="J127" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="J141" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="J115" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="J140" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="J85" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="J153" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="J142" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="J110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="J111" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="J113" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="J115" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="J42" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="J89" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="J120" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="J119" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="J117" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="J122" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="J124" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J129" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="J116" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="J128" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="J134" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="J137" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="J118" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J135" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="J145" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="J144" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="J148" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="J127" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="J126" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="J140" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="J114" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="J139" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="J85" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="J152" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="J141" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="J109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId110"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId109"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L404"/>
+  <dimension ref="A1:L405"/>
   <sheetViews>
     <sheetView topLeftCell="A386" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D401" sqref="D401"/>
+      <selection activeCell="B394" sqref="B394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="15"/>
@@ -17776,7 +17758,7 @@
         <v>43925</v>
       </c>
       <c r="E369" s="34">
-        <f t="shared" ref="E369:E404" si="7">D369-C369</f>
+        <f t="shared" ref="E369:E405" si="7">D369-C369</f>
         <v>223</v>
       </c>
       <c r="F369" s="32" t="s">
@@ -18672,6 +18654,32 @@
       <c r="H404" s="34"/>
       <c r="J404" s="107" t="s">
         <v>1220</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" s="33" customFormat="1">
+      <c r="A405" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="B405" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="C405" s="30">
+        <v>43876</v>
+      </c>
+      <c r="D405" s="31">
+        <v>43946</v>
+      </c>
+      <c r="E405" s="32">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="F405" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G405" s="34"/>
+      <c r="H405" s="34"/>
+      <c r="J405" s="46" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -18727,9 +18735,10 @@
     <hyperlink ref="J403" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="J404" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
     <hyperlink ref="J400" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="J405" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId52"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId53"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/generateEXCEL/Data/Members/GroupRecord.xlsx
+++ b/generateEXCEL/Data/Members/GroupRecord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hguan/Dropbox/Research/Coding/WeChatGroup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hguan/GitHub/lc-score-board/generateEXCEL/Data/Members/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE229AD5-DC99-A243-A525-37E2F95C0359}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADE789C-5855-AC40-BC79-E95CF6140AF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41860" yWindow="1980" windowWidth="19000" windowHeight="14340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-41860" yWindow="1980" windowWidth="19000" windowHeight="14340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -5318,8 +5318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -5832,7 +5832,7 @@
         <v>91</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="H24" s="7"/>
       <c r="J24" s="8" t="s">
@@ -7394,7 +7394,7 @@
         <v>151</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J102" s="8" t="s">
         <v>412</v>
@@ -8376,8 +8376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L414"/>
   <sheetViews>
-    <sheetView topLeftCell="A390" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D414" sqref="D414"/>
+    <sheetView tabSelected="1" topLeftCell="B302" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G319" sqref="G319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="15"/>
@@ -16483,7 +16483,7 @@
         <v>89</v>
       </c>
       <c r="G318" s="33" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="H318" s="33"/>
       <c r="J318" s="45" t="s">

--- a/generateEXCEL/Data/Members/GroupRecord.xlsx
+++ b/generateEXCEL/Data/Members/GroupRecord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hguan/GitHub/lc-score-board/generateEXCEL/Data/Members/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADE789C-5855-AC40-BC79-E95CF6140AF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED11991-FC72-4E44-A12F-3D288EA72243}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41860" yWindow="1980" windowWidth="19000" windowHeight="14340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-41860" yWindow="1980" windowWidth="19000" windowHeight="14340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -5318,8 +5318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K243"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -5832,7 +5832,7 @@
         <v>91</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="H24" s="7"/>
       <c r="J24" s="8" t="s">
@@ -7394,7 +7394,7 @@
         <v>151</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="J102" s="8" t="s">
         <v>412</v>
@@ -8376,8 +8376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B302" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G319" sqref="G319"/>
+    <sheetView topLeftCell="A254" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F270" sqref="F270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="15"/>
@@ -16483,7 +16483,7 @@
         <v>89</v>
       </c>
       <c r="G318" s="33" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="H318" s="33"/>
       <c r="J318" s="45" t="s">

--- a/generateEXCEL/Data/Members/GroupRecord.xlsx
+++ b/generateEXCEL/Data/Members/GroupRecord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hguan/Dropbox/Research/Coding/WeChatGroup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DABFE7-82F5-A649-9F4F-85F8FFE0F620}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE97FCE-7CB0-5D4E-9FED-AFAB690E1CBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32840" yWindow="-1020" windowWidth="19000" windowHeight="14340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30340" yWindow="-1860" windowWidth="19000" windowHeight="14340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3199" uniqueCount="1266">
   <si>
     <t>wisdompeak</t>
   </si>
@@ -4457,6 +4457,12 @@
   </si>
   <si>
     <t>Chrisify</t>
+  </si>
+  <si>
+    <t>排骨年糕清冷面</t>
+  </si>
+  <si>
+    <t>Googlehsieh</t>
   </si>
   <si>
     <t>lance_skier</t>
@@ -4703,7 +4709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4961,6 +4967,7 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5344,10 +5351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K230"/>
+  <dimension ref="A1:K227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K170" sqref="K170"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -5746,13 +5753,13 @@
     </row>
     <row r="19" spans="1:11" s="5" customFormat="1">
       <c r="A19" s="13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C19" s="1">
-        <v>43578</v>
+        <v>43581</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="4"/>
@@ -5760,103 +5767,103 @@
         <v>0</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="J19" s="8" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="20" spans="1:11" s="5" customFormat="1">
       <c r="A20" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C20" s="1">
-        <v>43581</v>
+        <v>43582</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="4"/>
       <c r="F20" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="G20" s="4"/>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:11" s="5" customFormat="1">
-      <c r="A21" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>88</v>
+      <c r="A21" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="C21" s="1">
-        <v>43582</v>
+        <v>43596</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4"/>
+      <c r="F21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:11" s="5" customFormat="1">
-      <c r="A22" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>95</v>
+      <c r="A22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="C22" s="1">
-        <v>43596</v>
+        <v>43606</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="3" t="s">
-        <v>96</v>
+      <c r="F22" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H22" s="7"/>
+      <c r="J22" s="8" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="23" spans="1:11" s="5" customFormat="1">
       <c r="A23" s="14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C23" s="1">
-        <v>43606</v>
+        <v>43613</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="16" t="s">
-        <v>58</v>
+      <c r="F23" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="J23" s="8" t="s">
-        <v>104</v>
+      <c r="J23" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="5" customFormat="1">
       <c r="A24" s="14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C24" s="1">
-        <v>43613</v>
+        <v>43614</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="4"/>
@@ -5864,22 +5871,22 @@
         <v>0</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="J24" s="5" t="s">
-        <v>107</v>
+      <c r="J24" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="5" customFormat="1">
       <c r="A25" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>109</v>
+        <v>1210</v>
       </c>
       <c r="C25" s="1">
-        <v>43614</v>
+        <v>43618</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="4"/>
@@ -5887,84 +5894,83 @@
         <v>0</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="H25" s="7"/>
       <c r="J25" s="8" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="5" customFormat="1">
-      <c r="A26" s="14" t="s">
-        <v>112</v>
+      <c r="A26" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>1210</v>
+        <v>116</v>
       </c>
       <c r="C26" s="1">
-        <v>43618</v>
+        <v>43620</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="4"/>
       <c r="F26" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="J26" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>113</v>
+      <c r="H26" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="5" customFormat="1">
-      <c r="A27" s="13" t="s">
-        <v>115</v>
+      <c r="A27" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C27" s="1">
         <v>43620</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>117</v>
-      </c>
+      <c r="F27" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:11" s="5" customFormat="1">
-      <c r="A28" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>119</v>
+      <c r="A28" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="C28" s="1">
-        <v>43620</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H28" s="7"/>
+        <v>43626</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="29" spans="1:11" s="5" customFormat="1">
-      <c r="A29" s="10" t="s">
-        <v>120</v>
+      <c r="A29" s="19" t="s">
+        <v>123</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C29" s="1">
         <v>43626</v>
@@ -5974,231 +5980,230 @@
       <c r="F29" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>122</v>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="J29" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="5" customFormat="1">
-      <c r="A30" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>124</v>
+      <c r="A30" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C30" s="1">
-        <v>43626</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="7"/>
+        <v>43628</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="4"/>
       <c r="H30" s="7"/>
-      <c r="J30" s="8" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="31" spans="1:11" s="5" customFormat="1">
-      <c r="A31" s="10" t="s">
-        <v>126</v>
+      <c r="A31" s="19" t="s">
+        <v>131</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C31" s="1">
-        <v>43628</v>
+        <v>43634</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="4"/>
       <c r="F31" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G31" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="H31" s="7"/>
+      <c r="J31" s="8" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="32" spans="1:11" s="5" customFormat="1">
-      <c r="A32" s="19" t="s">
-        <v>131</v>
+      <c r="A32" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C32" s="1">
-        <v>43634</v>
+        <v>43638</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="4"/>
       <c r="F32" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="G32" s="4"/>
       <c r="H32" s="7"/>
-      <c r="J32" s="8" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="33" spans="1:11" s="5" customFormat="1">
-      <c r="A33" s="10" t="s">
-        <v>135</v>
+      <c r="A33" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>136</v>
+        <v>1235</v>
       </c>
       <c r="C33" s="1">
-        <v>43638</v>
+        <v>43658</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="4"/>
       <c r="F33" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:11" s="5" customFormat="1">
-      <c r="A34" s="19" t="s">
-        <v>143</v>
+      <c r="A34" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>1235</v>
+        <v>145</v>
       </c>
       <c r="C34" s="1">
-        <v>43658</v>
+        <v>43661</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="4"/>
       <c r="F34" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>110</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G34" s="4"/>
       <c r="H34" s="7"/>
+      <c r="J34" s="8" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="35" spans="1:11" s="5" customFormat="1">
-      <c r="A35" s="10" t="s">
-        <v>144</v>
+      <c r="A35" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C35" s="1">
-        <v>43661</v>
+        <v>43662</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="4"/>
       <c r="F35" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="H35" s="7"/>
       <c r="J35" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="5" customFormat="1">
       <c r="A36" s="19" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C36" s="1">
-        <v>43662</v>
+        <v>43675</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="F36" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="4"/>
       <c r="H36" s="7"/>
-      <c r="J36" s="8" t="s">
-        <v>149</v>
+      <c r="J36" s="93" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="5" customFormat="1">
-      <c r="A37" s="19" t="s">
-        <v>154</v>
+      <c r="A37" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C37" s="1">
-        <v>43675</v>
+        <v>43681</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37" s="4"/>
+      <c r="F37" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="H37" s="7"/>
-      <c r="J37" s="93" t="s">
-        <v>1092</v>
+      <c r="J37" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="5" customFormat="1">
-      <c r="A38" s="10" t="s">
-        <v>162</v>
+      <c r="A38" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C38" s="1">
-        <v>43681</v>
+        <v>43690</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="4"/>
       <c r="F38" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>164</v>
-      </c>
+      <c r="G38" s="4"/>
       <c r="H38" s="7"/>
       <c r="J38" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="5" customFormat="1">
       <c r="A39" s="5" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C39" s="1">
-        <v>43690</v>
+        <v>43702</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="4"/>
       <c r="F39" s="15" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="7"/>
       <c r="J39" s="5" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="5" customFormat="1">
       <c r="A40" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C40" s="1">
-        <v>43702</v>
+        <v>43703</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="4"/>
@@ -6207,158 +6212,155 @@
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="7"/>
-      <c r="J40" s="5" t="s">
-        <v>174</v>
+      <c r="J40" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="5" customFormat="1">
-      <c r="A41" s="5" t="s">
-        <v>175</v>
+      <c r="A41" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C41" s="1">
-        <v>43703</v>
+        <v>43704</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="4"/>
       <c r="F41" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="7"/>
+      <c r="G41" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="J41" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="5" customFormat="1">
       <c r="A42" s="10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C42" s="1">
-        <v>43704</v>
+        <v>43707</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>122</v>
-      </c>
+      <c r="F42" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="7"/>
       <c r="J42" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="5" customFormat="1">
-      <c r="A43" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>183</v>
+      <c r="A43" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>191</v>
       </c>
       <c r="C43" s="1">
-        <v>43707</v>
+        <v>43715</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G43" s="4"/>
+      <c r="F43" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="H43" s="7"/>
       <c r="J43" s="8" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="5" customFormat="1">
-      <c r="A44" s="18" t="s">
-        <v>190</v>
+      <c r="A44" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C44" s="1">
-        <v>43715</v>
+        <v>43716</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="4"/>
       <c r="F44" s="15" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H44" s="7"/>
       <c r="J44" s="8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="5" customFormat="1">
-      <c r="A45" s="10" t="s">
-        <v>194</v>
+      <c r="A45" s="19" t="s">
+        <v>198</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C45" s="1">
-        <v>43716</v>
+        <v>43718</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="4"/>
       <c r="F45" s="15" t="s">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H45" s="7"/>
       <c r="J45" s="8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="5" customFormat="1">
       <c r="A46" s="19" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C46" s="1">
-        <v>43718</v>
+        <v>43722</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="4"/>
       <c r="F46" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>200</v>
-      </c>
+      <c r="G46" s="4"/>
       <c r="H46" s="7"/>
-      <c r="J46" s="8" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="47" spans="1:11" s="5" customFormat="1">
       <c r="A47" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C47" s="1">
-        <v>43722</v>
+        <v>43726</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="4"/>
@@ -6367,168 +6369,171 @@
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="7"/>
+      <c r="J47" s="8" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="48" spans="1:11" s="5" customFormat="1">
-      <c r="A48" s="19" t="s">
-        <v>203</v>
+      <c r="A48" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C48" s="1">
-        <v>43726</v>
+        <v>43737</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="4"/>
       <c r="F48" s="15" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="8" t="s">
-        <v>205</v>
+      <c r="J48" s="5" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="5" customFormat="1">
       <c r="A49" s="10" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C49" s="1">
-        <v>43737</v>
+        <v>43738</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="4"/>
       <c r="F49" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="G49" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>211</v>
+      </c>
       <c r="H49" s="7"/>
-      <c r="J49" s="5" t="s">
-        <v>208</v>
+      <c r="J49" s="98" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="5" customFormat="1">
       <c r="A50" s="10" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C50" s="1">
-        <v>43738</v>
+        <v>43743</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="4"/>
       <c r="F50" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>211</v>
-      </c>
+      <c r="G50" s="4"/>
       <c r="H50" s="7"/>
-      <c r="J50" s="98" t="s">
-        <v>1112</v>
+      <c r="J50" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="5" customFormat="1">
-      <c r="A51" s="10" t="s">
-        <v>215</v>
+      <c r="A51" s="19" t="s">
+        <v>218</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C51" s="1">
-        <v>43743</v>
+        <v>43749</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" s="4"/>
+      <c r="F51" s="16" t="s">
+        <v>206</v>
+      </c>
       <c r="H51" s="7"/>
       <c r="J51" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="5" customFormat="1">
-      <c r="A52" s="19" t="s">
-        <v>218</v>
+      <c r="A52" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>219</v>
+        <v>1240</v>
       </c>
       <c r="C52" s="1">
-        <v>43749</v>
+        <v>43752</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="16" t="s">
-        <v>206</v>
+      <c r="F52" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="H52" s="7"/>
       <c r="J52" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
+      </c>
+      <c r="K52" s="18" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="5" customFormat="1">
-      <c r="A53" s="10" t="s">
-        <v>221</v>
+      <c r="A53" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>1240</v>
+        <v>225</v>
       </c>
       <c r="C53" s="1">
-        <v>43752</v>
+        <v>43757</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="4"/>
       <c r="F53" s="15" t="s">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="H53" s="7"/>
-      <c r="J53" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="K53" s="18" t="s">
-        <v>222</v>
-      </c>
     </row>
     <row r="54" spans="1:11" s="5" customFormat="1">
-      <c r="A54" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>225</v>
+      <c r="A54" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="C54" s="1">
-        <v>43757</v>
+        <v>43763</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="4"/>
       <c r="F54" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="G54" s="4"/>
       <c r="H54" s="7"/>
+      <c r="J54" s="8" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="55" spans="1:11" s="5" customFormat="1">
-      <c r="A55" s="5" t="s">
-        <v>226</v>
+      <c r="A55" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C55" s="1">
-        <v>43763</v>
+        <v>43767</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="4"/>
@@ -6537,40 +6542,42 @@
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="7"/>
-      <c r="J55" s="8" t="s">
-        <v>228</v>
+      <c r="J55" s="5" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="5" customFormat="1">
-      <c r="A56" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>230</v>
+      <c r="A56" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>233</v>
       </c>
       <c r="C56" s="1">
-        <v>43767</v>
+        <v>43770</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="4"/>
       <c r="F56" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G56" s="4"/>
+      <c r="G56" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="H56" s="7"/>
-      <c r="J56" s="5" t="s">
-        <v>231</v>
+      <c r="J56" s="8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="5" customFormat="1">
-      <c r="A57" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>233</v>
+      <c r="A57" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="C57" s="1">
-        <v>43770</v>
+        <v>43778</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="4"/>
@@ -6578,102 +6585,100 @@
         <v>0</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>103</v>
+        <v>237</v>
       </c>
       <c r="H57" s="7"/>
       <c r="J57" s="8" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="5" customFormat="1">
       <c r="A58" s="10" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C58" s="1">
-        <v>43778</v>
+        <v>43784</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="4"/>
       <c r="F58" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>237</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G58" s="4"/>
       <c r="H58" s="7"/>
-      <c r="J58" s="8" t="s">
-        <v>238</v>
-      </c>
     </row>
     <row r="59" spans="1:11" s="5" customFormat="1">
       <c r="A59" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C59" s="1">
-        <v>43784</v>
+        <v>43804</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="4"/>
       <c r="F59" s="15" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="7"/>
+      <c r="J59" s="8" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="60" spans="1:11" s="5" customFormat="1">
       <c r="A60" s="10" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C60" s="1">
-        <v>43804</v>
+        <v>43817</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="15" t="s">
-        <v>0</v>
+      <c r="F60" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="7"/>
       <c r="J60" s="8" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="5" customFormat="1">
       <c r="A61" s="10" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C61" s="1">
-        <v>43817</v>
+        <v>43825</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="16" t="s">
-        <v>72</v>
+      <c r="F61" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="7"/>
       <c r="J61" s="8" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="5" customFormat="1">
       <c r="A62" s="10" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C62" s="1">
         <v>43825</v>
@@ -6686,36 +6691,35 @@
       <c r="G62" s="4"/>
       <c r="H62" s="7"/>
       <c r="J62" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="5" customFormat="1">
-      <c r="A63" s="10" t="s">
-        <v>264</v>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>272</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C63" s="1">
-        <v>43825</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="4"/>
+        <v>43829</v>
+      </c>
       <c r="F63" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="7"/>
+      <c r="G63" s="4" t="s">
+        <v>274</v>
+      </c>
       <c r="J63" s="8" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" t="s">
-        <v>272</v>
+      <c r="A64" s="10" t="s">
+        <v>276</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C64" s="1">
         <v>43829</v>
@@ -6723,159 +6727,153 @@
       <c r="F64" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="J64" s="8" t="s">
-        <v>275</v>
-      </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>277</v>
+        <v>285</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>286</v>
       </c>
       <c r="C65" s="1">
-        <v>43829</v>
-      </c>
+        <v>43834</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="7"/>
       <c r="F65" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="G65" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>286</v>
+      <c r="A66" t="s">
+        <v>296</v>
+      </c>
+      <c r="B66" t="s">
+        <v>296</v>
       </c>
       <c r="C66" s="1">
-        <v>43834</v>
-      </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="7"/>
+        <v>43836</v>
+      </c>
       <c r="F66" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G66" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="J66" s="8" t="s">
-        <v>288</v>
-      </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" t="s">
-        <v>296</v>
+      <c r="A67" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="B67" t="s">
-        <v>296</v>
+        <v>1213</v>
       </c>
       <c r="C67" s="1">
         <v>43836</v>
       </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="7"/>
       <c r="F67" s="15" t="s">
         <v>0</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="K67" s="20" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="5" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B68" t="s">
-        <v>1213</v>
+        <v>303</v>
       </c>
       <c r="C68" s="1">
-        <v>43836</v>
-      </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>45</v>
+        <v>43838</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="K68" s="20" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="5" t="s">
-        <v>302</v>
+      <c r="A69" s="10" t="s">
+        <v>305</v>
       </c>
       <c r="B69" t="s">
-        <v>303</v>
+        <v>1238</v>
       </c>
       <c r="C69" s="1">
         <v>43838</v>
       </c>
-      <c r="F69" s="16" t="s">
-        <v>72</v>
+      <c r="F69" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>304</v>
+        <v>307</v>
+      </c>
+      <c r="K69" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="10" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="B70" t="s">
-        <v>1238</v>
+        <v>322</v>
       </c>
       <c r="C70" s="1">
-        <v>43838</v>
+        <v>43841</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J70" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="K70" t="s">
-        <v>306</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="10" t="s">
-        <v>321</v>
+      <c r="A71" t="s">
+        <v>323</v>
       </c>
       <c r="B71" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C71" s="1">
         <v>43841</v>
       </c>
-      <c r="F71" s="15" t="s">
-        <v>245</v>
+      <c r="F71" s="16" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" t="s">
-        <v>323</v>
+      <c r="A72" s="10" t="s">
+        <v>324</v>
       </c>
       <c r="B72" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C72" s="1">
-        <v>43841</v>
-      </c>
-      <c r="F72" s="16" t="s">
-        <v>206</v>
+        <v>43842</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="10" t="s">
-        <v>324</v>
+      <c r="A73" t="s">
+        <v>329</v>
       </c>
       <c r="B73" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C73" s="1">
         <v>43842</v>
@@ -6883,284 +6881,290 @@
       <c r="F73" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="J73" s="8" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" t="s">
-        <v>329</v>
+      <c r="A74" s="10" t="s">
+        <v>332</v>
       </c>
       <c r="B74" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C74" s="1">
-        <v>43842</v>
+        <v>43843</v>
       </c>
       <c r="F74" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J74" s="8" t="s">
-        <v>331</v>
+      <c r="J74" s="93" t="s">
+        <v>1218</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="10" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B75" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C75" s="1">
-        <v>43843</v>
+        <v>43844</v>
       </c>
       <c r="F75" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J75" s="93" t="s">
-        <v>1218</v>
+      <c r="J75" s="8" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="B76" t="s">
-        <v>338</v>
+        <v>345</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>346</v>
       </c>
       <c r="C76" s="1">
-        <v>43844</v>
+        <v>43847</v>
       </c>
       <c r="F76" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="G76" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="J76" s="8" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>346</v>
+      <c r="A77" t="s">
+        <v>348</v>
+      </c>
+      <c r="B77" t="s">
+        <v>349</v>
       </c>
       <c r="C77" s="1">
-        <v>43847</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J77" s="8" t="s">
-        <v>347</v>
+        <v>43848</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" t="s">
-        <v>348</v>
+      <c r="A78" s="10" t="s">
+        <v>350</v>
       </c>
       <c r="B78" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C78" s="1">
         <v>43848</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>245</v>
+        <v>326</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="J78" s="93" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="10" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B79" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C79" s="1">
-        <v>43848</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="J79" s="93" t="s">
-        <v>1108</v>
+        <v>43850</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="10" t="s">
-        <v>353</v>
+        <v>1093</v>
       </c>
       <c r="B80" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C80" s="1">
-        <v>43850</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>0</v>
+        <v>43852</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>357</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="10" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B81" t="s">
-        <v>356</v>
+      <c r="A81" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>362</v>
       </c>
       <c r="C81" s="1">
-        <v>43852</v>
-      </c>
-      <c r="F81" s="16" t="s">
-        <v>357</v>
+        <v>43856</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>362</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="5" customFormat="1">
+      <c r="A82" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>365</v>
       </c>
       <c r="C82" s="1">
-        <v>43856</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>43857</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" s="7"/>
       <c r="J82" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="5" customFormat="1">
-      <c r="A83" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>365</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B83" t="s">
+        <v>370</v>
       </c>
       <c r="C83" s="1">
-        <v>43857</v>
-      </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="7"/>
+        <v>43862</v>
+      </c>
       <c r="F83" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G83" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H83" s="7"/>
-      <c r="J83" s="8" t="s">
-        <v>366</v>
+      <c r="J83" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="10" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B84" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C84" s="1">
-        <v>43862</v>
+        <v>43865</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J84" t="s">
-        <v>371</v>
+      <c r="J84" s="8" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="10" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B85" t="s">
-        <v>373</v>
+        <v>1262</v>
       </c>
       <c r="C85" s="1">
         <v>43865</v>
       </c>
-      <c r="F85" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J85" s="8" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C86" s="1">
-        <v>43865</v>
-      </c>
-      <c r="F86" s="16" t="s">
+      <c r="F85" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J85" t="s">
         <v>377</v>
       </c>
-      <c r="K86" t="s">
+      <c r="K85" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="14" customFormat="1">
-      <c r="A87" s="12" t="s">
+    <row r="86" spans="1:11" s="14" customFormat="1">
+      <c r="A86" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B86" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="C87" s="22">
+      <c r="C86" s="22">
         <v>43866</v>
       </c>
-      <c r="D87" s="24"/>
-      <c r="E87" s="23"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="J86" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B87" t="s">
+        <v>387</v>
+      </c>
+      <c r="C87" s="1">
+        <v>43867</v>
+      </c>
       <c r="F87" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="J87" s="8" t="s">
-        <v>382</v>
+      <c r="J87" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="10" t="s">
-        <v>386</v>
+      <c r="A88" t="s">
+        <v>392</v>
       </c>
       <c r="B88" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C88" s="1">
-        <v>43867</v>
+        <v>43870</v>
       </c>
       <c r="F88" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="J88" t="s">
-        <v>388</v>
+      <c r="H88" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="J88" s="8" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" t="s">
-        <v>392</v>
+      <c r="A89" s="10" t="s">
+        <v>398</v>
       </c>
       <c r="B89" t="s">
-        <v>392</v>
+        <v>1239</v>
       </c>
       <c r="C89" s="1">
         <v>43870</v>
@@ -7168,19 +7172,19 @@
       <c r="F89" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H89" s="4" t="s">
-        <v>393</v>
-      </c>
       <c r="J89" s="8" t="s">
-        <v>394</v>
+        <v>400</v>
+      </c>
+      <c r="K89" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="10" t="s">
-        <v>398</v>
+      <c r="A90" t="s">
+        <v>401</v>
       </c>
       <c r="B90" t="s">
-        <v>1239</v>
+        <v>402</v>
       </c>
       <c r="C90" s="1">
         <v>43870</v>
@@ -7188,19 +7192,13 @@
       <c r="F90" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="J90" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="K90" t="s">
-        <v>399</v>
-      </c>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" t="s">
-        <v>401</v>
+      <c r="A91" s="10" t="s">
+        <v>403</v>
       </c>
       <c r="B91" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C91" s="1">
         <v>43870</v>
@@ -7208,33 +7206,39 @@
       <c r="F91" s="23" t="s">
         <v>0</v>
       </c>
+      <c r="G91" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="10" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B92" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C92" s="1">
-        <v>43870</v>
+        <v>43875</v>
       </c>
       <c r="F92" s="23" t="s">
         <v>0</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>274</v>
+        <v>103</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="10" t="s">
-        <v>406</v>
+      <c r="A93" t="s">
+        <v>409</v>
       </c>
       <c r="B93" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C93" s="1">
         <v>43875</v>
@@ -7242,169 +7246,166 @@
       <c r="F93" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="G93" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="J93" s="8" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="B94" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C94" s="1">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="F94" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="J94" s="8" t="s">
-        <v>410</v>
+      <c r="G94" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J94" s="93" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B95" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C95" s="1">
-        <v>43876</v>
+        <v>43878</v>
       </c>
       <c r="F95" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="G95" s="7" t="s">
+      <c r="J95" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C96" s="1">
+        <v>43879</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H95" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J95" s="93" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" t="s">
-        <v>423</v>
-      </c>
-      <c r="B96" t="s">
-        <v>424</v>
-      </c>
-      <c r="C96" s="1">
-        <v>43878</v>
-      </c>
-      <c r="F96" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J96" t="s">
-        <v>425</v>
-      </c>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="10" t="s">
-        <v>426</v>
+      <c r="A97" t="s">
+        <v>428</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C97" s="1">
-        <v>43879</v>
-      </c>
-      <c r="D97" s="1"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>1</v>
+        <v>43883</v>
+      </c>
+      <c r="F97" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="J97" s="8" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C98" s="1">
-        <v>43883</v>
-      </c>
-      <c r="F98" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="J98" s="8" t="s">
-        <v>430</v>
+        <v>43884</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J98" s="93" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" t="s">
-        <v>435</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>436</v>
+      <c r="A99" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>443</v>
       </c>
       <c r="C99" s="1">
-        <v>43884</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J99" s="93" t="s">
-        <v>1216</v>
+        <v>43889</v>
+      </c>
+      <c r="D99" s="22"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H99" s="17"/>
+      <c r="J99" s="8" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B100" s="21" t="s">
-        <v>443</v>
+      <c r="A100" t="s">
+        <v>447</v>
+      </c>
+      <c r="B100" t="s">
+        <v>448</v>
       </c>
       <c r="C100" s="1">
-        <v>43889</v>
-      </c>
-      <c r="D100" s="22"/>
-      <c r="E100" s="17"/>
+        <v>43898</v>
+      </c>
       <c r="F100" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G100" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H100" s="17"/>
-      <c r="J100" s="8" t="s">
-        <v>444</v>
+      <c r="J100" s="93" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>447</v>
+        <v>1086</v>
       </c>
       <c r="B101" t="s">
-        <v>448</v>
+        <v>1087</v>
       </c>
       <c r="C101" s="1">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="F101" s="17" t="s">
         <v>0</v>
       </c>
       <c r="J101" s="93" t="s">
-        <v>1111</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="B102" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C102" s="1">
         <v>43899</v>
@@ -7413,15 +7414,15 @@
         <v>0</v>
       </c>
       <c r="J102" s="93" t="s">
-        <v>1191</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B103" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="C103" s="1">
         <v>43899</v>
@@ -7430,65 +7431,62 @@
         <v>0</v>
       </c>
       <c r="J103" s="93" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C104" s="1">
-        <v>43899</v>
-      </c>
+      <c r="A104" s="13" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C104" s="22">
+        <v>43903</v>
+      </c>
+      <c r="D104" s="22"/>
+      <c r="E104" s="17"/>
       <c r="F104" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J104" s="93" t="s">
-        <v>1109</v>
-      </c>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="13" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C105" s="22">
-        <v>43903</v>
-      </c>
-      <c r="D105" s="22"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17" t="s">
+      <c r="A105" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C105" s="95">
+        <v>43906</v>
+      </c>
+      <c r="F105" s="96" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>1094</v>
+        <v>1103</v>
       </c>
       <c r="B106" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C106" s="1">
-        <v>43904</v>
-      </c>
-      <c r="F106" s="17" t="s">
-        <v>0</v>
+        <v>1102</v>
+      </c>
+      <c r="C106" s="95">
+        <v>43906</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>1100</v>
       </c>
       <c r="J106" s="93" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="B107" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="C107" s="95">
         <v>43906</v>
@@ -7499,358 +7497,358 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>1103</v>
+        <v>1114</v>
       </c>
       <c r="B108" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C108" s="95">
-        <v>43906</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>1100</v>
+        <v>1115</v>
+      </c>
+      <c r="C108" s="1">
+        <v>43910</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="J108" s="93" t="s">
-        <v>1117</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>1106</v>
+        <v>1121</v>
       </c>
       <c r="B109" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C109" s="95">
-        <v>43906</v>
-      </c>
-      <c r="F109" s="96" t="s">
-        <v>0</v>
+        <v>1250</v>
+      </c>
+      <c r="C109" s="1">
+        <v>43911</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J109" s="93" t="s">
+        <v>1144</v>
+      </c>
+      <c r="K109" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>1114</v>
+        <v>1125</v>
       </c>
       <c r="B110" t="s">
-        <v>1115</v>
+        <v>1126</v>
       </c>
       <c r="C110" s="1">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>334</v>
+        <v>72</v>
       </c>
       <c r="J110" s="93" t="s">
-        <v>1214</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>1121</v>
+        <v>1127</v>
       </c>
       <c r="B111" t="s">
-        <v>1250</v>
+        <v>1151</v>
       </c>
       <c r="C111" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J111" s="93" t="s">
-        <v>1144</v>
-      </c>
-      <c r="K111" t="s">
-        <v>1122</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>1125</v>
+        <v>1131</v>
       </c>
       <c r="B112" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="C112" s="1">
-        <v>43912</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J112" s="93" t="s">
-        <v>1141</v>
+        <v>43913</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="B113" t="s">
-        <v>1151</v>
+        <v>1132</v>
       </c>
       <c r="C113" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J113" s="93" t="s">
-        <v>1246</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="B114" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="C114" s="1">
         <v>43913</v>
       </c>
-      <c r="F114" s="4" t="s">
-        <v>1114</v>
+      <c r="F114" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J114" s="93" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>1132</v>
+        <v>1137</v>
       </c>
       <c r="B115" t="s">
-        <v>1132</v>
+        <v>1259</v>
       </c>
       <c r="C115" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J115" s="93" t="s">
-        <v>1251</v>
+        <v>1200</v>
+      </c>
+      <c r="K115" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>1135</v>
+        <v>1147</v>
       </c>
       <c r="B116" t="s">
-        <v>1134</v>
+        <v>1146</v>
       </c>
       <c r="C116" s="1">
-        <v>43913</v>
+        <v>43918</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J116" s="93" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B117" t="s">
-        <v>1259</v>
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" s="94" customFormat="1">
+      <c r="A117" s="99" t="s">
+        <v>186</v>
+      </c>
+      <c r="B117" s="100" t="s">
+        <v>187</v>
       </c>
       <c r="C117" s="1">
-        <v>43914</v>
-      </c>
+        <v>43918</v>
+      </c>
+      <c r="D117" s="95"/>
+      <c r="E117" s="97"/>
       <c r="F117" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J117" s="93" t="s">
-        <v>1200</v>
-      </c>
-      <c r="K117" t="s">
-        <v>1138</v>
+      <c r="G117" s="97" t="s">
+        <v>188</v>
+      </c>
+      <c r="H117" s="97"/>
+      <c r="J117" s="94" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" t="s">
-        <v>1147</v>
+        <v>1152</v>
       </c>
       <c r="B118" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="C118" s="1">
         <v>43918</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" s="94" customFormat="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="99" t="s">
-        <v>186</v>
-      </c>
-      <c r="B119" s="100" t="s">
-        <v>187</v>
+        <v>1153</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1154</v>
       </c>
       <c r="C119" s="1">
-        <v>43918</v>
-      </c>
-      <c r="D119" s="95"/>
-      <c r="E119" s="97"/>
+        <v>43919</v>
+      </c>
       <c r="F119" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G119" s="97" t="s">
-        <v>188</v>
-      </c>
-      <c r="H119" s="97"/>
-      <c r="J119" s="94" t="s">
-        <v>189</v>
+      <c r="J119" s="93" t="s">
+        <v>1217</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="B120" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="C120" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="J120" s="93" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="99" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="B121" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="C121" s="1">
-        <v>43919</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>0</v>
+        <v>43920</v>
+      </c>
+      <c r="F121" s="25" t="s">
+        <v>383</v>
       </c>
       <c r="J121" s="93" t="s">
-        <v>1217</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C122" s="1">
-        <v>43919</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J122" s="93" t="s">
-        <v>1215</v>
+      <c r="A122" s="101" t="s">
+        <v>844</v>
+      </c>
+      <c r="B122" s="102" t="s">
+        <v>845</v>
+      </c>
+      <c r="C122" s="95">
+        <v>43922</v>
+      </c>
+      <c r="D122" s="95"/>
+      <c r="E122" s="97"/>
+      <c r="F122" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="G122" s="97" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:11">
-      <c r="A123" s="99" t="s">
-        <v>1157</v>
+      <c r="A123" t="s">
+        <v>1193</v>
       </c>
       <c r="B123" t="s">
-        <v>1158</v>
+        <v>1192</v>
       </c>
       <c r="C123" s="1">
-        <v>43920</v>
-      </c>
-      <c r="F123" s="25" t="s">
-        <v>383</v>
+        <v>43926</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>1194</v>
       </c>
       <c r="J123" s="93" t="s">
-        <v>1222</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="101" t="s">
-        <v>844</v>
-      </c>
-      <c r="B124" s="102" t="s">
-        <v>845</v>
-      </c>
-      <c r="C124" s="95">
-        <v>43922</v>
-      </c>
-      <c r="D124" s="95"/>
-      <c r="E124" s="97"/>
+      <c r="A124" s="94" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B124" s="94" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C124" s="1">
+        <v>43927</v>
+      </c>
       <c r="F124" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="G124" s="97" t="s">
-        <v>1</v>
+      <c r="G124" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J124" s="93" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="B125" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="C125" s="1">
-        <v>43926</v>
+        <v>43929</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="J125" s="93" t="s">
-        <v>1211</v>
+        <v>175</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="94" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B126" s="94" t="s">
-        <v>1051</v>
+      <c r="A126" t="s">
+        <v>689</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1197</v>
       </c>
       <c r="C126" s="1">
-        <v>43927</v>
+        <v>43929</v>
       </c>
       <c r="F126" s="96" t="s">
         <v>0</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J126" s="93" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="B127" t="s">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="C127" s="1">
-        <v>43929</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>103</v>
+        <v>43930</v>
+      </c>
+      <c r="F127" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="J127" s="93" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" t="s">
-        <v>689</v>
+        <v>1203</v>
       </c>
       <c r="B128" t="s">
-        <v>1197</v>
+        <v>1204</v>
       </c>
       <c r="C128" s="1">
-        <v>43929</v>
+        <v>43932</v>
       </c>
       <c r="F128" s="96" t="s">
         <v>0</v>
@@ -7858,109 +7856,106 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" t="s">
-        <v>1198</v>
+        <v>1205</v>
       </c>
       <c r="B129" t="s">
-        <v>1199</v>
+        <v>1265</v>
       </c>
       <c r="C129" s="1">
-        <v>43930</v>
+        <v>43933</v>
       </c>
       <c r="F129" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="J129" s="93" t="s">
-        <v>1212</v>
+        <v>162</v>
+      </c>
+      <c r="K129" t="s">
+        <v>1206</v>
       </c>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" t="s">
-        <v>1203</v>
+        <v>140</v>
       </c>
       <c r="B130" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="C130" s="1">
-        <v>43932</v>
+        <v>43934</v>
       </c>
       <c r="F130" s="96" t="s">
         <v>0</v>
+      </c>
+      <c r="J130" s="93" t="s">
+        <v>1220</v>
       </c>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B131" t="s">
-        <v>1263</v>
+        <v>1208</v>
+      </c>
+      <c r="B131" s="106" t="s">
+        <v>1241</v>
       </c>
       <c r="C131" s="1">
-        <v>43933</v>
+        <v>43935</v>
       </c>
       <c r="F131" s="96" t="s">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="K131" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" t="s">
-        <v>140</v>
+        <v>1227</v>
       </c>
       <c r="B132" t="s">
-        <v>1207</v>
+        <v>1226</v>
       </c>
       <c r="C132" s="1">
-        <v>43934</v>
+        <v>43940</v>
       </c>
       <c r="F132" s="96" t="s">
         <v>0</v>
-      </c>
-      <c r="J132" s="93" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B133" s="106" t="s">
-        <v>1241</v>
+        <v>1232</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1233</v>
       </c>
       <c r="C133" s="1">
-        <v>43935</v>
+        <v>43944</v>
       </c>
       <c r="F133" s="96" t="s">
         <v>0</v>
-      </c>
-      <c r="K133" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="B134" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="C134" s="1">
-        <v>43940</v>
-      </c>
-      <c r="F134" s="96" t="s">
-        <v>0</v>
+        <v>43944</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" t="s">
-        <v>1232</v>
+        <v>1237</v>
       </c>
       <c r="B135" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="C135" s="1">
-        <v>43944</v>
+        <v>43947</v>
       </c>
       <c r="F135" s="96" t="s">
         <v>0</v>
@@ -7968,166 +7963,180 @@
     </row>
     <row r="136" spans="1:11">
       <c r="A136" t="s">
-        <v>1230</v>
+        <v>1242</v>
       </c>
       <c r="B136" t="s">
-        <v>1229</v>
+        <v>1243</v>
       </c>
       <c r="C136" s="1">
-        <v>43944</v>
+        <v>43949</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
-      <c r="A137" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B137" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C137" s="1">
-        <v>43947</v>
-      </c>
-      <c r="F137" s="96" t="s">
-        <v>0</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" s="14" customFormat="1">
+      <c r="A137" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C137" s="22">
+        <v>43952</v>
+      </c>
+      <c r="D137" s="22"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G137" s="17"/>
+      <c r="H137" s="17"/>
+      <c r="J137" s="108" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" t="s">
-        <v>1242</v>
+        <v>1248</v>
       </c>
       <c r="B138" t="s">
-        <v>1243</v>
+        <v>1249</v>
       </c>
       <c r="C138" s="1">
-        <v>43949</v>
+        <v>43953</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>206</v>
+        <v>688</v>
       </c>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" t="s">
-        <v>1244</v>
+        <v>1252</v>
       </c>
       <c r="B139" t="s">
-        <v>1245</v>
+        <v>1253</v>
       </c>
       <c r="C139" s="1">
-        <v>43951</v>
-      </c>
-      <c r="F139" s="96" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" s="14" customFormat="1">
-      <c r="A140" s="107" t="s">
-        <v>150</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C140" s="22">
-        <v>43952</v>
-      </c>
-      <c r="D140" s="22"/>
-      <c r="E140" s="17"/>
-      <c r="F140" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G140" s="17"/>
-      <c r="H140" s="17"/>
-      <c r="J140" s="108" t="s">
-        <v>153</v>
+        <v>43954</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C140" s="1">
+        <v>43954</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B141" t="s">
-        <v>1249</v>
+      <c r="A141" s="107" t="s">
+        <v>343</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>344</v>
       </c>
       <c r="C141" s="1">
-        <v>43953</v>
+        <v>43956</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="B142" t="s">
-        <v>1253</v>
+        <v>1257</v>
       </c>
       <c r="C142" s="1">
-        <v>43954</v>
+        <v>43959</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" t="s">
-        <v>1254</v>
+        <v>1260</v>
       </c>
       <c r="B143" t="s">
-        <v>1255</v>
+        <v>1261</v>
       </c>
       <c r="C143" s="1">
-        <v>43954</v>
+        <v>43960</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="107" t="s">
-        <v>343</v>
-      </c>
-      <c r="B144" s="12" t="s">
-        <v>344</v>
+      <c r="A144" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1264</v>
       </c>
       <c r="C144" s="1">
-        <v>43956</v>
+        <v>43960</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>0</v>
+        <v>221</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B145" t="s">
-        <v>1257</v>
+      <c r="A145" s="101" t="s">
+        <v>803</v>
+      </c>
+      <c r="B145" s="100" t="s">
+        <v>983</v>
       </c>
       <c r="C145" s="1">
-        <v>43959</v>
+        <v>43962</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B146" t="s">
-        <v>1261</v>
+      <c r="A146" s="13" t="s">
+        <v>911</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>923</v>
       </c>
       <c r="C146" s="1">
-        <v>43960</v>
+        <v>43964</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="230" ht="14.75" customHeight="1"/>
+    <row r="147" spans="1:6">
+      <c r="A147" s="99" t="s">
+        <v>686</v>
+      </c>
+      <c r="B147" s="109" t="s">
+        <v>687</v>
+      </c>
+      <c r="C147" s="1">
+        <v>43966</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" ht="14.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -8143,102 +8152,100 @@
     <hyperlink ref="J16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="J17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="J18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J30" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="J35" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="J36" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="J38" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J39" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J41" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J42" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="K42" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J43" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J44" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="J45" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="J46" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="J48" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="J49" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="J50" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="J51" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="J52" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="J53" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="J55" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="J56" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="J57" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="J58" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J60" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="J61" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J62" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J63" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="J64" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="J66" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="J68" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="J69" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="J70" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="J74" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="J76" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="J77" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="J80" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="J81" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="J82" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="J83" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="J84" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="J85" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="J86" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="J87" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="J88" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="J89" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="J92" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="J93" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="J94" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="J96" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="J98" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="J100" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="J37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="J79" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="J104" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="J103" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="J101" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="J106" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="J108" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="J112" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="J111" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="J116" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="J119" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="J102" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="J117" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="J126" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="J125" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="J129" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="J110" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="J122" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="J99" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="J121" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="J75" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="J132" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="J123" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="J95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="J113" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="J140" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="J115" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="J22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J29" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J31" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J34" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J35" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J37" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J38" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J39" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J41" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K41" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J42" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J43" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J44" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J45" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="J47" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J48" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="J49" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J50" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J51" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J52" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J54" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J55" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J56" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="J57" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J59" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J60" r:id="rId43" xr:uid="{00000000-0004-0000-